--- a/UserSet/Colors.xlsx
+++ b/UserSet/Colors.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Manager\HotCoffee\UserSet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBD7239-8A54-41E6-B069-3C6E8330FDD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="GA_L" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -367,8 +361,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="54" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,8 +811,48 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C353F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF254525"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF234736"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212149"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C372F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -975,6 +1009,72 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCE6F6F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCE8D6F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6F9ECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF75B375"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF68AC8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8A9DB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9E9E9E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8A8AB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93A55A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF799B79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5A588"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1068,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1181,76 +1281,53 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="48" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1260,9 +1337,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1307,24 +1381,86 @@
     <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="48" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1334,16 +1470,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFF4F6F8"/>
-      <color rgb="FF5E7B8C"/>
-      <color rgb="FF6B8A9C"/>
-      <color rgb="FFB9C8D0"/>
-      <color rgb="FFA9BBC4"/>
-      <color rgb="FFCEAA86"/>
-      <color rgb="FFF1F5F5"/>
-      <color rgb="FFEEF2F4"/>
-      <color rgb="FFEAF2F9"/>
-      <color rgb="FFECF5EE"/>
+      <color rgb="FF81A6BB"/>
+      <color rgb="FF3C372F"/>
+      <color rgb="FFB5A588"/>
+      <color rgb="FF212149"/>
+      <color rgb="FF8A8AB3"/>
+      <color rgb="FF9E9E9E"/>
+      <color rgb="FF093562"/>
+      <color rgb="FF6F9ECE"/>
+      <color rgb="FF799B79"/>
+      <color rgb="FF93A55A"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1400,7 +1536,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1433,26 +1569,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1485,23 +1604,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1677,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1890,22 +1992,22 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="73"/>
       <c r="AV4" s="72"/>
-      <c r="AW4" s="129"/>
-      <c r="AX4" s="129"/>
-      <c r="AY4" s="129"/>
-      <c r="AZ4" s="129"/>
-      <c r="BA4" s="129"/>
-      <c r="BB4" s="129"/>
-      <c r="BC4" s="129"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
       <c r="BD4" s="73"/>
       <c r="BF4" s="72"/>
-      <c r="BG4" s="129"/>
-      <c r="BH4" s="129"/>
-      <c r="BI4" s="129"/>
-      <c r="BJ4" s="129"/>
-      <c r="BK4" s="129"/>
-      <c r="BL4" s="129"/>
-      <c r="BM4" s="129"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="88"/>
+      <c r="BM4" s="88"/>
       <c r="BN4" s="73"/>
     </row>
     <row r="5" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1978,48 +2080,48 @@
     </row>
     <row r="6" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="72"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
       <c r="AA6" s="73"/>
       <c r="AC6" s="72"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="103"/>
-      <c r="AG6" s="103"/>
-      <c r="AH6" s="103"/>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="103"/>
-      <c r="AK6" s="103"/>
-      <c r="AL6" s="103"/>
-      <c r="AM6" s="103"/>
-      <c r="AN6" s="103"/>
-      <c r="AO6" s="103"/>
-      <c r="AP6" s="103"/>
-      <c r="AQ6" s="103"/>
-      <c r="AR6" s="103"/>
-      <c r="AS6" s="103"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97"/>
+      <c r="AJ6" s="97"/>
+      <c r="AK6" s="97"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="97"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97"/>
       <c r="AT6" s="73"/>
       <c r="AV6" s="72"/>
       <c r="AW6" s="1"/>
@@ -2043,47 +2145,47 @@
     <row r="7" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="72"/>
       <c r="C7" s="83"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="102"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="87"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="83"/>
-      <c r="S7" s="132"/>
-      <c r="T7" s="132"/>
-      <c r="U7" s="132"/>
-      <c r="V7" s="132"/>
-      <c r="W7" s="132"/>
-      <c r="X7" s="132"/>
-      <c r="Y7" s="132"/>
-      <c r="Z7" s="102"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="87"/>
       <c r="AA7" s="73"/>
       <c r="AC7" s="72"/>
       <c r="AD7" s="83"/>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="102"/>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="102"/>
-      <c r="AI7" s="102"/>
-      <c r="AJ7" s="102"/>
-      <c r="AK7" s="102"/>
-      <c r="AL7" s="102"/>
-      <c r="AM7" s="102"/>
-      <c r="AN7" s="102"/>
-      <c r="AO7" s="102"/>
-      <c r="AP7" s="102"/>
-      <c r="AQ7" s="102"/>
-      <c r="AR7" s="102"/>
-      <c r="AS7" s="102"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="87"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="87"/>
       <c r="AT7" s="73"/>
       <c r="AV7" s="72"/>
       <c r="AW7" s="1"/>
@@ -2106,11 +2208,11 @@
     </row>
     <row r="8" spans="2:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="72"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="109">
+      <c r="C8" s="97"/>
+      <c r="D8" s="102">
         <v>0.37152777777777773</v>
       </c>
-      <c r="E8" s="109"/>
+      <c r="E8" s="102"/>
       <c r="F8" s="42" t="s">
         <v>22</v>
       </c>
@@ -2123,9 +2225,9 @@
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="O8" s="43"/>
-      <c r="P8" s="102"/>
+      <c r="P8" s="87"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="127"/>
+      <c r="R8" s="98"/>
       <c r="S8" s="47" t="s">
         <v>32</v>
       </c>
@@ -2135,27 +2237,27 @@
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
       <c r="Y8" s="43"/>
-      <c r="Z8" s="102"/>
+      <c r="Z8" s="87"/>
       <c r="AA8" s="73"/>
       <c r="AC8" s="72"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="91" t="s">
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="91"/>
-      <c r="AH8" s="91"/>
-      <c r="AI8" s="91"/>
-      <c r="AJ8" s="91"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="91"/>
-      <c r="AM8" s="91"/>
-      <c r="AN8" s="91"/>
-      <c r="AO8" s="91"/>
-      <c r="AP8" s="91"/>
-      <c r="AQ8" s="91"/>
-      <c r="AR8" s="91"/>
-      <c r="AS8" s="102"/>
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="124"/>
+      <c r="AH8" s="124"/>
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="124"/>
+      <c r="AN8" s="124"/>
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="124"/>
+      <c r="AQ8" s="124"/>
+      <c r="AR8" s="124"/>
+      <c r="AS8" s="87"/>
       <c r="AT8" s="73"/>
       <c r="AV8" s="72"/>
       <c r="AW8" s="4" t="s">
@@ -2182,7 +2284,7 @@
     </row>
     <row r="9" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="72"/>
-      <c r="C9" s="103"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="44" t="s">
         <v>44</v>
       </c>
@@ -2197,9 +2299,9 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="102"/>
+      <c r="P9" s="87"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="127"/>
+      <c r="R9" s="98"/>
       <c r="S9" s="48" t="s">
         <v>33</v>
       </c>
@@ -2209,10 +2311,10 @@
       <c r="W9" s="48"/>
       <c r="X9" s="48"/>
       <c r="Y9" s="60"/>
-      <c r="Z9" s="102"/>
+      <c r="Z9" s="87"/>
       <c r="AA9" s="73"/>
       <c r="AC9" s="72"/>
-      <c r="AD9" s="103"/>
+      <c r="AD9" s="97"/>
       <c r="AE9" s="52" t="s">
         <v>23</v>
       </c>
@@ -2227,11 +2329,11 @@
       <c r="AN9" s="52"/>
       <c r="AO9" s="52"/>
       <c r="AP9" s="52"/>
-      <c r="AQ9" s="112">
+      <c r="AQ9" s="104">
         <v>0.37847222222222227</v>
       </c>
-      <c r="AR9" s="112"/>
-      <c r="AS9" s="102"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="87"/>
       <c r="AT9" s="73"/>
       <c r="AV9" s="72"/>
       <c r="AW9" s="1" t="s">
@@ -2258,7 +2360,7 @@
     </row>
     <row r="10" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="72"/>
-      <c r="C10" s="103"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -2271,9 +2373,9 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="102"/>
+      <c r="P10" s="87"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="127"/>
+      <c r="R10" s="98"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -2281,25 +2383,25 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="60"/>
-      <c r="Z10" s="102"/>
+      <c r="Z10" s="87"/>
       <c r="AA10" s="73"/>
       <c r="AC10" s="72"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="117"/>
-      <c r="AF10" s="117"/>
-      <c r="AG10" s="117"/>
-      <c r="AH10" s="117"/>
-      <c r="AI10" s="117"/>
-      <c r="AJ10" s="117"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="117"/>
-      <c r="AM10" s="117"/>
-      <c r="AN10" s="117"/>
-      <c r="AO10" s="117"/>
-      <c r="AP10" s="117"/>
-      <c r="AQ10" s="117"/>
-      <c r="AR10" s="117"/>
-      <c r="AS10" s="102"/>
+      <c r="AD10" s="97"/>
+      <c r="AE10" s="109"/>
+      <c r="AF10" s="109"/>
+      <c r="AG10" s="109"/>
+      <c r="AH10" s="109"/>
+      <c r="AI10" s="109"/>
+      <c r="AJ10" s="109"/>
+      <c r="AK10" s="109"/>
+      <c r="AL10" s="109"/>
+      <c r="AM10" s="109"/>
+      <c r="AN10" s="109"/>
+      <c r="AO10" s="109"/>
+      <c r="AP10" s="109"/>
+      <c r="AQ10" s="109"/>
+      <c r="AR10" s="109"/>
+      <c r="AS10" s="87"/>
       <c r="AT10" s="73"/>
       <c r="AV10" s="72"/>
       <c r="AW10" s="1"/>
@@ -2322,7 +2424,7 @@
     </row>
     <row r="11" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="72"/>
-      <c r="C11" s="103"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -2335,9 +2437,9 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="102"/>
+      <c r="P11" s="87"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="127"/>
+      <c r="R11" s="98"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -2345,25 +2447,25 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="60"/>
-      <c r="Z11" s="102"/>
+      <c r="Z11" s="87"/>
       <c r="AA11" s="73"/>
       <c r="AC11" s="72"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="118"/>
-      <c r="AF11" s="118"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="118"/>
-      <c r="AK11" s="118"/>
-      <c r="AL11" s="118"/>
-      <c r="AM11" s="118"/>
-      <c r="AN11" s="118"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="118"/>
-      <c r="AQ11" s="118"/>
-      <c r="AR11" s="118"/>
-      <c r="AS11" s="102"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="110"/>
+      <c r="AM11" s="110"/>
+      <c r="AN11" s="110"/>
+      <c r="AO11" s="110"/>
+      <c r="AP11" s="110"/>
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="110"/>
+      <c r="AS11" s="87"/>
       <c r="AT11" s="73"/>
       <c r="AV11" s="72"/>
       <c r="AW11" s="1"/>
@@ -2386,7 +2488,7 @@
     </row>
     <row r="12" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="72"/>
-      <c r="C12" s="103"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="45" t="s">
         <v>42</v>
       </c>
@@ -2401,9 +2503,9 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="102"/>
+      <c r="P12" s="87"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="127"/>
+      <c r="R12" s="98"/>
       <c r="S12" s="46" t="s">
         <v>38</v>
       </c>
@@ -2413,27 +2515,27 @@
       <c r="W12" s="46"/>
       <c r="X12" s="46"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="102"/>
+      <c r="Z12" s="87"/>
       <c r="AA12" s="73"/>
       <c r="AC12" s="72"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="92" t="s">
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="92"/>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="92"/>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="92"/>
-      <c r="AN12" s="92"/>
-      <c r="AO12" s="92"/>
-      <c r="AP12" s="92"/>
-      <c r="AQ12" s="92"/>
-      <c r="AR12" s="92"/>
-      <c r="AS12" s="102"/>
+      <c r="AF12" s="125"/>
+      <c r="AG12" s="125"/>
+      <c r="AH12" s="125"/>
+      <c r="AI12" s="125"/>
+      <c r="AJ12" s="125"/>
+      <c r="AK12" s="125"/>
+      <c r="AL12" s="125"/>
+      <c r="AM12" s="125"/>
+      <c r="AN12" s="125"/>
+      <c r="AO12" s="125"/>
+      <c r="AP12" s="125"/>
+      <c r="AQ12" s="125"/>
+      <c r="AR12" s="125"/>
+      <c r="AS12" s="87"/>
       <c r="AT12" s="73"/>
       <c r="AV12" s="72"/>
       <c r="AW12" s="1" t="s">
@@ -2460,7 +2562,7 @@
     </row>
     <row r="13" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="72"/>
-      <c r="C13" s="103"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="44" t="s">
         <v>41</v>
       </c>
@@ -2475,9 +2577,9 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="102"/>
+      <c r="P13" s="87"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="127"/>
+      <c r="R13" s="98"/>
       <c r="S13" s="64" t="s">
         <v>34</v>
       </c>
@@ -2487,10 +2589,10 @@
       <c r="W13" s="64"/>
       <c r="X13" s="64"/>
       <c r="Y13" s="60"/>
-      <c r="Z13" s="102"/>
+      <c r="Z13" s="87"/>
       <c r="AA13" s="73"/>
       <c r="AC13" s="72"/>
-      <c r="AD13" s="103"/>
+      <c r="AD13" s="97"/>
       <c r="AE13" s="53" t="s">
         <v>24</v>
       </c>
@@ -2505,11 +2607,11 @@
       <c r="AN13" s="53"/>
       <c r="AO13" s="53"/>
       <c r="AP13" s="53"/>
-      <c r="AQ13" s="113">
+      <c r="AQ13" s="105">
         <v>0.37916666666666665</v>
       </c>
-      <c r="AR13" s="113"/>
-      <c r="AS13" s="102"/>
+      <c r="AR13" s="105"/>
+      <c r="AS13" s="87"/>
       <c r="AT13" s="73"/>
       <c r="AV13" s="72"/>
       <c r="AW13" s="1" t="s">
@@ -2536,7 +2638,7 @@
     </row>
     <row r="14" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="72"/>
-      <c r="C14" s="103"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2549,9 +2651,9 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="102"/>
+      <c r="P14" s="87"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="127"/>
+      <c r="R14" s="98"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -2559,25 +2661,25 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="60"/>
-      <c r="Z14" s="102"/>
+      <c r="Z14" s="87"/>
       <c r="AA14" s="73"/>
       <c r="AC14" s="72"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="117"/>
-      <c r="AF14" s="117"/>
-      <c r="AG14" s="117"/>
-      <c r="AH14" s="117"/>
-      <c r="AI14" s="117"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="117"/>
-      <c r="AL14" s="117"/>
-      <c r="AM14" s="117"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="117"/>
-      <c r="AP14" s="117"/>
-      <c r="AQ14" s="117"/>
-      <c r="AR14" s="117"/>
-      <c r="AS14" s="102"/>
+      <c r="AD14" s="97"/>
+      <c r="AE14" s="109"/>
+      <c r="AF14" s="109"/>
+      <c r="AG14" s="109"/>
+      <c r="AH14" s="109"/>
+      <c r="AI14" s="109"/>
+      <c r="AJ14" s="109"/>
+      <c r="AK14" s="109"/>
+      <c r="AL14" s="109"/>
+      <c r="AM14" s="109"/>
+      <c r="AN14" s="109"/>
+      <c r="AO14" s="109"/>
+      <c r="AP14" s="109"/>
+      <c r="AQ14" s="109"/>
+      <c r="AR14" s="109"/>
+      <c r="AS14" s="87"/>
       <c r="AT14" s="73"/>
       <c r="AV14" s="72"/>
       <c r="AW14" s="1"/>
@@ -2600,7 +2702,7 @@
     </row>
     <row r="15" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="72"/>
-      <c r="C15" s="103"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2613,9 +2715,9 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="102"/>
+      <c r="P15" s="87"/>
       <c r="Q15" s="16"/>
-      <c r="R15" s="127"/>
+      <c r="R15" s="98"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -2623,25 +2725,25 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="60"/>
-      <c r="Z15" s="102"/>
+      <c r="Z15" s="87"/>
       <c r="AA15" s="73"/>
       <c r="AC15" s="72"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="102"/>
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="110"/>
+      <c r="AK15" s="110"/>
+      <c r="AL15" s="110"/>
+      <c r="AM15" s="110"/>
+      <c r="AN15" s="110"/>
+      <c r="AO15" s="110"/>
+      <c r="AP15" s="110"/>
+      <c r="AQ15" s="110"/>
+      <c r="AR15" s="110"/>
+      <c r="AS15" s="87"/>
       <c r="AT15" s="73"/>
       <c r="AV15" s="72"/>
       <c r="AW15" s="1"/>
@@ -2664,7 +2766,7 @@
     </row>
     <row r="16" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="72"/>
-      <c r="C16" s="103"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="46" t="s">
         <v>45</v>
       </c>
@@ -2679,9 +2781,9 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="102"/>
+      <c r="P16" s="87"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="127"/>
+      <c r="R16" s="98"/>
       <c r="S16" s="65" t="s">
         <v>35</v>
       </c>
@@ -2691,27 +2793,27 @@
       <c r="W16" s="65"/>
       <c r="X16" s="65"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="102"/>
+      <c r="Z16" s="87"/>
       <c r="AA16" s="73"/>
       <c r="AC16" s="72"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="93" t="s">
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="102"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="126"/>
+      <c r="AI16" s="126"/>
+      <c r="AJ16" s="126"/>
+      <c r="AK16" s="126"/>
+      <c r="AL16" s="126"/>
+      <c r="AM16" s="126"/>
+      <c r="AN16" s="126"/>
+      <c r="AO16" s="126"/>
+      <c r="AP16" s="126"/>
+      <c r="AQ16" s="126"/>
+      <c r="AR16" s="126"/>
+      <c r="AS16" s="87"/>
       <c r="AT16" s="73"/>
       <c r="AV16" s="72"/>
       <c r="AW16" s="1" t="s">
@@ -2738,7 +2840,7 @@
     </row>
     <row r="17" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="72"/>
-      <c r="C17" s="103"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="13" t="s">
         <v>39</v>
       </c>
@@ -2753,9 +2855,9 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="102"/>
+      <c r="P17" s="87"/>
       <c r="Q17" s="19"/>
-      <c r="R17" s="127"/>
+      <c r="R17" s="98"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
@@ -2763,10 +2865,10 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="26"/>
-      <c r="Z17" s="102"/>
+      <c r="Z17" s="87"/>
       <c r="AA17" s="73"/>
       <c r="AC17" s="72"/>
-      <c r="AD17" s="103"/>
+      <c r="AD17" s="97"/>
       <c r="AE17" s="54" t="s">
         <v>25</v>
       </c>
@@ -2781,11 +2883,11 @@
       <c r="AN17" s="54"/>
       <c r="AO17" s="54"/>
       <c r="AP17" s="54"/>
-      <c r="AQ17" s="114">
+      <c r="AQ17" s="106">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR17" s="114"/>
-      <c r="AS17" s="102"/>
+      <c r="AR17" s="106"/>
+      <c r="AS17" s="87"/>
       <c r="AT17" s="73"/>
       <c r="AV17" s="72"/>
       <c r="AW17" s="2" t="s">
@@ -2812,7 +2914,7 @@
     </row>
     <row r="18" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
-      <c r="C18" s="103"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -2825,9 +2927,9 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="102"/>
+      <c r="P18" s="87"/>
       <c r="Q18" s="20"/>
-      <c r="R18" s="127"/>
+      <c r="R18" s="98"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
@@ -2835,25 +2937,25 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="26"/>
-      <c r="Z18" s="102"/>
+      <c r="Z18" s="87"/>
       <c r="AA18" s="73"/>
       <c r="AC18" s="72"/>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="119"/>
-      <c r="AF18" s="119"/>
-      <c r="AG18" s="119"/>
-      <c r="AH18" s="119"/>
-      <c r="AI18" s="119"/>
-      <c r="AJ18" s="119"/>
-      <c r="AK18" s="119"/>
-      <c r="AL18" s="119"/>
-      <c r="AM18" s="119"/>
-      <c r="AN18" s="119"/>
-      <c r="AO18" s="119"/>
-      <c r="AP18" s="119"/>
-      <c r="AQ18" s="119"/>
-      <c r="AR18" s="119"/>
-      <c r="AS18" s="102"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="111"/>
+      <c r="AH18" s="111"/>
+      <c r="AI18" s="111"/>
+      <c r="AJ18" s="111"/>
+      <c r="AK18" s="111"/>
+      <c r="AL18" s="111"/>
+      <c r="AM18" s="111"/>
+      <c r="AN18" s="111"/>
+      <c r="AO18" s="111"/>
+      <c r="AP18" s="111"/>
+      <c r="AQ18" s="111"/>
+      <c r="AR18" s="111"/>
+      <c r="AS18" s="87"/>
       <c r="AT18" s="73"/>
       <c r="AV18" s="72"/>
       <c r="AW18" s="1"/>
@@ -2876,7 +2978,7 @@
     </row>
     <row r="19" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="72"/>
-      <c r="C19" s="103"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -2889,9 +2991,9 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="102"/>
+      <c r="P19" s="87"/>
       <c r="Q19" s="20"/>
-      <c r="R19" s="127"/>
+      <c r="R19" s="98"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
@@ -2899,25 +3001,25 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="26"/>
-      <c r="Z19" s="102"/>
+      <c r="Z19" s="87"/>
       <c r="AA19" s="73"/>
       <c r="AC19" s="72"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="120"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="120"/>
-      <c r="AH19" s="120"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="120"/>
-      <c r="AK19" s="120"/>
-      <c r="AL19" s="120"/>
-      <c r="AM19" s="120"/>
-      <c r="AN19" s="120"/>
-      <c r="AO19" s="120"/>
-      <c r="AP19" s="120"/>
-      <c r="AQ19" s="120"/>
-      <c r="AR19" s="120"/>
-      <c r="AS19" s="102"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="112"/>
+      <c r="AI19" s="112"/>
+      <c r="AJ19" s="112"/>
+      <c r="AK19" s="112"/>
+      <c r="AL19" s="112"/>
+      <c r="AM19" s="112"/>
+      <c r="AN19" s="112"/>
+      <c r="AO19" s="112"/>
+      <c r="AP19" s="112"/>
+      <c r="AQ19" s="112"/>
+      <c r="AR19" s="112"/>
+      <c r="AS19" s="87"/>
       <c r="AT19" s="73"/>
       <c r="AV19" s="72"/>
       <c r="AW19" s="1"/>
@@ -2940,7 +3042,7 @@
     </row>
     <row r="20" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="72"/>
-      <c r="C20" s="103"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="47" t="s">
         <v>101</v>
       </c>
@@ -2955,9 +3057,9 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="102"/>
+      <c r="P20" s="87"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="127"/>
+      <c r="R20" s="98"/>
       <c r="S20" s="10" t="s">
         <v>37</v>
       </c>
@@ -2967,27 +3069,27 @@
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="13"/>
-      <c r="Z20" s="102"/>
+      <c r="Z20" s="87"/>
       <c r="AA20" s="73"/>
       <c r="AC20" s="72"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="94" t="s">
+      <c r="AD20" s="97"/>
+      <c r="AE20" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="94"/>
-      <c r="AI20" s="94"/>
-      <c r="AJ20" s="94"/>
-      <c r="AK20" s="94"/>
-      <c r="AL20" s="94"/>
-      <c r="AM20" s="94"/>
-      <c r="AN20" s="94"/>
-      <c r="AO20" s="94"/>
-      <c r="AP20" s="94"/>
-      <c r="AQ20" s="94"/>
-      <c r="AR20" s="94"/>
-      <c r="AS20" s="102"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="127"/>
+      <c r="AJ20" s="127"/>
+      <c r="AK20" s="127"/>
+      <c r="AL20" s="127"/>
+      <c r="AM20" s="127"/>
+      <c r="AN20" s="127"/>
+      <c r="AO20" s="127"/>
+      <c r="AP20" s="127"/>
+      <c r="AQ20" s="127"/>
+      <c r="AR20" s="127"/>
+      <c r="AS20" s="87"/>
       <c r="AT20" s="73"/>
       <c r="AV20" s="72"/>
       <c r="AW20" s="30" t="s">
@@ -3014,7 +3116,7 @@
     </row>
     <row r="21" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="72"/>
-      <c r="C21" s="103"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="48" t="s">
         <v>104</v>
       </c>
@@ -3029,9 +3131,9 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="102"/>
+      <c r="P21" s="87"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="127"/>
+      <c r="R21" s="98"/>
       <c r="S21" s="13" t="s">
         <v>36</v>
       </c>
@@ -3041,10 +3143,10 @@
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="26"/>
-      <c r="Z21" s="102"/>
+      <c r="Z21" s="87"/>
       <c r="AA21" s="73"/>
       <c r="AC21" s="72"/>
-      <c r="AD21" s="103"/>
+      <c r="AD21" s="97"/>
       <c r="AE21" s="55" t="s">
         <v>27</v>
       </c>
@@ -3059,11 +3161,11 @@
       <c r="AN21" s="55"/>
       <c r="AO21" s="55"/>
       <c r="AP21" s="55"/>
-      <c r="AQ21" s="115">
+      <c r="AQ21" s="107">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR21" s="115"/>
-      <c r="AS21" s="102"/>
+      <c r="AR21" s="107"/>
+      <c r="AS21" s="87"/>
       <c r="AT21" s="73"/>
       <c r="AV21" s="72"/>
       <c r="AW21" s="3" t="s">
@@ -3090,7 +3192,7 @@
     </row>
     <row r="22" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="72"/>
-      <c r="C22" s="103"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -3103,9 +3205,9 @@
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="102"/>
+      <c r="P22" s="87"/>
       <c r="Q22" s="22"/>
-      <c r="R22" s="127"/>
+      <c r="R22" s="98"/>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
@@ -3113,25 +3215,25 @@
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="26"/>
-      <c r="Z22" s="102"/>
+      <c r="Z22" s="87"/>
       <c r="AA22" s="73"/>
       <c r="AC22" s="72"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="121"/>
-      <c r="AF22" s="121"/>
-      <c r="AG22" s="121"/>
-      <c r="AH22" s="121"/>
-      <c r="AI22" s="121"/>
-      <c r="AJ22" s="121"/>
-      <c r="AK22" s="121"/>
-      <c r="AL22" s="121"/>
-      <c r="AM22" s="121"/>
-      <c r="AN22" s="121"/>
-      <c r="AO22" s="121"/>
-      <c r="AP22" s="121"/>
-      <c r="AQ22" s="121"/>
-      <c r="AR22" s="121"/>
-      <c r="AS22" s="102"/>
+      <c r="AD22" s="97"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="113"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="113"/>
+      <c r="AS22" s="87"/>
       <c r="AT22" s="73"/>
       <c r="AV22" s="72"/>
       <c r="AW22" s="3"/>
@@ -3154,7 +3256,7 @@
     </row>
     <row r="23" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="72"/>
-      <c r="C23" s="103"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -3167,9 +3269,9 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
-      <c r="P23" s="102"/>
+      <c r="P23" s="87"/>
       <c r="Q23" s="22"/>
-      <c r="R23" s="127"/>
+      <c r="R23" s="98"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -3177,25 +3279,25 @@
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="26"/>
-      <c r="Z23" s="102"/>
+      <c r="Z23" s="87"/>
       <c r="AA23" s="73"/>
       <c r="AC23" s="72"/>
-      <c r="AD23" s="103"/>
-      <c r="AE23" s="122"/>
-      <c r="AF23" s="122"/>
-      <c r="AG23" s="122"/>
-      <c r="AH23" s="122"/>
-      <c r="AI23" s="122"/>
-      <c r="AJ23" s="122"/>
-      <c r="AK23" s="122"/>
-      <c r="AL23" s="122"/>
-      <c r="AM23" s="122"/>
-      <c r="AN23" s="122"/>
-      <c r="AO23" s="122"/>
-      <c r="AP23" s="122"/>
-      <c r="AQ23" s="122"/>
-      <c r="AR23" s="122"/>
-      <c r="AS23" s="102"/>
+      <c r="AD23" s="97"/>
+      <c r="AE23" s="114"/>
+      <c r="AF23" s="114"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="114"/>
+      <c r="AI23" s="114"/>
+      <c r="AJ23" s="114"/>
+      <c r="AK23" s="114"/>
+      <c r="AL23" s="114"/>
+      <c r="AM23" s="114"/>
+      <c r="AN23" s="114"/>
+      <c r="AO23" s="114"/>
+      <c r="AP23" s="114"/>
+      <c r="AQ23" s="114"/>
+      <c r="AR23" s="114"/>
+      <c r="AS23" s="87"/>
       <c r="AT23" s="73"/>
       <c r="AV23" s="72"/>
       <c r="AW23" s="3"/>
@@ -3218,7 +3320,7 @@
     </row>
     <row r="24" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="72"/>
-      <c r="C24" s="103"/>
+      <c r="C24" s="97"/>
       <c r="D24" s="49" t="s">
         <v>102</v>
       </c>
@@ -3233,9 +3335,9 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="26"/>
-      <c r="P24" s="102"/>
+      <c r="P24" s="87"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="127"/>
+      <c r="R24" s="98"/>
       <c r="S24" s="26"/>
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
@@ -3243,10 +3345,10 @@
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26"/>
-      <c r="Z24" s="102"/>
+      <c r="Z24" s="87"/>
       <c r="AA24" s="73"/>
       <c r="AC24" s="72"/>
-      <c r="AD24" s="103"/>
+      <c r="AD24" s="97"/>
       <c r="AE24" s="56" t="s">
         <v>26</v>
       </c>
@@ -3263,7 +3365,7 @@
       <c r="AP24" s="56"/>
       <c r="AQ24" s="56"/>
       <c r="AR24" s="57"/>
-      <c r="AS24" s="102"/>
+      <c r="AS24" s="87"/>
       <c r="AT24" s="73"/>
       <c r="AV24" s="72"/>
       <c r="AW24" s="31" t="s">
@@ -3290,7 +3392,7 @@
     </row>
     <row r="25" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="72"/>
-      <c r="C25" s="103"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="50" t="s">
         <v>103</v>
       </c>
@@ -3305,9 +3407,9 @@
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="102"/>
+      <c r="P25" s="87"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="127"/>
+      <c r="R25" s="98"/>
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
@@ -3315,10 +3417,10 @@
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
-      <c r="Z25" s="102"/>
+      <c r="Z25" s="87"/>
       <c r="AA25" s="73"/>
       <c r="AC25" s="72"/>
-      <c r="AD25" s="103"/>
+      <c r="AD25" s="97"/>
       <c r="AE25" s="58" t="s">
         <v>28</v>
       </c>
@@ -3333,11 +3435,11 @@
       <c r="AN25" s="58"/>
       <c r="AO25" s="58"/>
       <c r="AP25" s="58"/>
-      <c r="AQ25" s="116">
+      <c r="AQ25" s="108">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR25" s="116"/>
-      <c r="AS25" s="102"/>
+      <c r="AR25" s="108"/>
+      <c r="AS25" s="87"/>
       <c r="AT25" s="73"/>
       <c r="AV25" s="72"/>
       <c r="AW25" s="32" t="s">
@@ -3364,7 +3466,7 @@
     </row>
     <row r="26" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="72"/>
-      <c r="C26" s="103"/>
+      <c r="C26" s="97"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -3377,9 +3479,9 @@
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
-      <c r="P26" s="102"/>
+      <c r="P26" s="87"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="127"/>
+      <c r="R26" s="98"/>
       <c r="S26" s="26"/>
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
@@ -3387,25 +3489,25 @@
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
-      <c r="Z26" s="102"/>
+      <c r="Z26" s="87"/>
       <c r="AA26" s="73"/>
       <c r="AC26" s="72"/>
-      <c r="AD26" s="103"/>
-      <c r="AE26" s="98"/>
-      <c r="AF26" s="98"/>
-      <c r="AG26" s="98"/>
-      <c r="AH26" s="98"/>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="98"/>
-      <c r="AK26" s="98"/>
-      <c r="AL26" s="98"/>
-      <c r="AM26" s="98"/>
-      <c r="AN26" s="98"/>
-      <c r="AO26" s="98"/>
-      <c r="AP26" s="98"/>
-      <c r="AQ26" s="98"/>
-      <c r="AR26" s="98"/>
-      <c r="AS26" s="102"/>
+      <c r="AD26" s="97"/>
+      <c r="AE26" s="129"/>
+      <c r="AF26" s="129"/>
+      <c r="AG26" s="129"/>
+      <c r="AH26" s="129"/>
+      <c r="AI26" s="129"/>
+      <c r="AJ26" s="129"/>
+      <c r="AK26" s="129"/>
+      <c r="AL26" s="129"/>
+      <c r="AM26" s="129"/>
+      <c r="AN26" s="129"/>
+      <c r="AO26" s="129"/>
+      <c r="AP26" s="129"/>
+      <c r="AQ26" s="129"/>
+      <c r="AR26" s="129"/>
+      <c r="AS26" s="87"/>
       <c r="AT26" s="73"/>
       <c r="AV26" s="72"/>
       <c r="AW26" s="5"/>
@@ -3428,7 +3530,7 @@
     </row>
     <row r="27" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="72"/>
-      <c r="C27" s="103"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -3441,9 +3543,9 @@
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="102"/>
+      <c r="P27" s="87"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="127"/>
+      <c r="R27" s="98"/>
       <c r="S27" s="26"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
@@ -3451,25 +3553,25 @@
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
-      <c r="Z27" s="102"/>
+      <c r="Z27" s="87"/>
       <c r="AA27" s="73"/>
       <c r="AC27" s="72"/>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="99"/>
-      <c r="AJ27" s="99"/>
-      <c r="AK27" s="99"/>
-      <c r="AL27" s="99"/>
-      <c r="AM27" s="99"/>
-      <c r="AN27" s="99"/>
-      <c r="AO27" s="99"/>
-      <c r="AP27" s="99"/>
-      <c r="AQ27" s="99"/>
-      <c r="AR27" s="99"/>
-      <c r="AS27" s="102"/>
+      <c r="AD27" s="97"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="130"/>
+      <c r="AI27" s="130"/>
+      <c r="AJ27" s="130"/>
+      <c r="AK27" s="130"/>
+      <c r="AL27" s="130"/>
+      <c r="AM27" s="130"/>
+      <c r="AN27" s="130"/>
+      <c r="AO27" s="130"/>
+      <c r="AP27" s="130"/>
+      <c r="AQ27" s="130"/>
+      <c r="AR27" s="130"/>
+      <c r="AS27" s="87"/>
       <c r="AT27" s="73"/>
       <c r="AV27" s="72"/>
       <c r="AW27" s="5"/>
@@ -3492,7 +3594,7 @@
     </row>
     <row r="28" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="72"/>
-      <c r="C28" s="103"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="51" t="s">
         <v>43</v>
       </c>
@@ -3507,9 +3609,9 @@
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
       <c r="O28" s="26"/>
-      <c r="P28" s="102"/>
+      <c r="P28" s="87"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="127"/>
+      <c r="R28" s="98"/>
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
@@ -3517,10 +3619,10 @@
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="60"/>
-      <c r="Z28" s="102"/>
+      <c r="Z28" s="87"/>
       <c r="AA28" s="73"/>
       <c r="AC28" s="72"/>
-      <c r="AD28" s="103"/>
+      <c r="AD28" s="97"/>
       <c r="AE28" s="59" t="s">
         <v>29</v>
       </c>
@@ -3535,11 +3637,11 @@
       <c r="AN28" s="59"/>
       <c r="AO28" s="59"/>
       <c r="AP28" s="59"/>
-      <c r="AQ28" s="123">
+      <c r="AQ28" s="115">
         <v>0.38055555555555554</v>
       </c>
-      <c r="AR28" s="123"/>
-      <c r="AS28" s="102"/>
+      <c r="AR28" s="115"/>
+      <c r="AS28" s="87"/>
       <c r="AT28" s="73"/>
       <c r="AV28" s="72"/>
       <c r="AW28" s="6" t="s">
@@ -3566,7 +3668,7 @@
     </row>
     <row r="29" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="72"/>
-      <c r="C29" s="103"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
@@ -3579,9 +3681,9 @@
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="26"/>
-      <c r="P29" s="102"/>
+      <c r="P29" s="87"/>
       <c r="Q29" s="8"/>
-      <c r="R29" s="127"/>
+      <c r="R29" s="98"/>
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
@@ -3589,10 +3691,10 @@
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
-      <c r="Z29" s="102"/>
+      <c r="Z29" s="87"/>
       <c r="AA29" s="73"/>
       <c r="AC29" s="72"/>
-      <c r="AD29" s="103"/>
+      <c r="AD29" s="97"/>
       <c r="AE29" s="61"/>
       <c r="AF29" s="61"/>
       <c r="AG29" s="61"/>
@@ -3607,7 +3709,7 @@
       <c r="AP29" s="61"/>
       <c r="AQ29" s="61"/>
       <c r="AR29" s="62"/>
-      <c r="AS29" s="102"/>
+      <c r="AS29" s="87"/>
       <c r="AT29" s="73"/>
       <c r="AV29" s="72"/>
       <c r="AW29" s="6"/>
@@ -3630,7 +3732,7 @@
     </row>
     <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" s="72"/>
-      <c r="C30" s="103"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="26"/>
@@ -3643,9 +3745,9 @@
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="102"/>
+      <c r="P30" s="87"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="127"/>
+      <c r="R30" s="98"/>
       <c r="S30" s="26"/>
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
@@ -3653,10 +3755,10 @@
       <c r="W30" s="26"/>
       <c r="X30" s="26"/>
       <c r="Y30" s="26"/>
-      <c r="Z30" s="102"/>
+      <c r="Z30" s="87"/>
       <c r="AA30" s="73"/>
       <c r="AC30" s="72"/>
-      <c r="AD30" s="103"/>
+      <c r="AD30" s="97"/>
       <c r="AE30" s="63"/>
       <c r="AF30" s="63"/>
       <c r="AG30" s="63"/>
@@ -3671,7 +3773,7 @@
       <c r="AP30" s="63"/>
       <c r="AQ30" s="63"/>
       <c r="AR30" s="63"/>
-      <c r="AS30" s="102"/>
+      <c r="AS30" s="87"/>
       <c r="AT30" s="73"/>
       <c r="AV30" s="72"/>
       <c r="AW30" s="6" t="s">
@@ -3698,7 +3800,7 @@
     </row>
     <row r="31" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="72"/>
-      <c r="C31" s="103"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
@@ -3711,9 +3813,9 @@
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="102"/>
+      <c r="P31" s="87"/>
       <c r="Q31" s="8"/>
-      <c r="R31" s="127"/>
+      <c r="R31" s="98"/>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
@@ -3721,10 +3823,10 @@
       <c r="W31" s="26"/>
       <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
-      <c r="Z31" s="102"/>
+      <c r="Z31" s="87"/>
       <c r="AA31" s="73"/>
       <c r="AC31" s="72"/>
-      <c r="AD31" s="103"/>
+      <c r="AD31" s="97"/>
       <c r="AE31" s="63"/>
       <c r="AF31" s="63"/>
       <c r="AG31" s="63"/>
@@ -3739,7 +3841,7 @@
       <c r="AP31" s="63"/>
       <c r="AQ31" s="63"/>
       <c r="AR31" s="63"/>
-      <c r="AS31" s="102"/>
+      <c r="AS31" s="87"/>
       <c r="AT31" s="73"/>
       <c r="AV31" s="72"/>
       <c r="AW31" s="6"/>
@@ -3762,48 +3864,48 @@
     </row>
     <row r="32" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="72"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="128"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="128"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="99"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="99"/>
       <c r="AA32" s="73"/>
       <c r="AC32" s="72"/>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="102"/>
-      <c r="AF32" s="102"/>
-      <c r="AG32" s="102"/>
-      <c r="AH32" s="102"/>
-      <c r="AI32" s="102"/>
-      <c r="AJ32" s="102"/>
-      <c r="AK32" s="102"/>
-      <c r="AL32" s="102"/>
-      <c r="AM32" s="102"/>
-      <c r="AN32" s="102"/>
-      <c r="AO32" s="102"/>
-      <c r="AP32" s="102"/>
-      <c r="AQ32" s="102"/>
-      <c r="AR32" s="102"/>
-      <c r="AS32" s="102"/>
+      <c r="AD32" s="97"/>
+      <c r="AE32" s="87"/>
+      <c r="AF32" s="87"/>
+      <c r="AG32" s="87"/>
+      <c r="AH32" s="87"/>
+      <c r="AI32" s="87"/>
+      <c r="AJ32" s="87"/>
+      <c r="AK32" s="87"/>
+      <c r="AL32" s="87"/>
+      <c r="AM32" s="87"/>
+      <c r="AN32" s="87"/>
+      <c r="AO32" s="87"/>
+      <c r="AP32" s="87"/>
+      <c r="AQ32" s="87"/>
+      <c r="AR32" s="87"/>
+      <c r="AS32" s="87"/>
       <c r="AT32" s="73"/>
       <c r="AV32" s="72"/>
       <c r="AW32" s="6"/>
@@ -3894,48 +3996,48 @@
     </row>
     <row r="34" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="72"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="103"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
       <c r="AA34" s="73"/>
       <c r="AC34" s="72"/>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="103"/>
-      <c r="AF34" s="103"/>
-      <c r="AG34" s="103"/>
-      <c r="AH34" s="103"/>
-      <c r="AI34" s="103"/>
-      <c r="AJ34" s="103"/>
-      <c r="AK34" s="103"/>
-      <c r="AL34" s="103"/>
-      <c r="AM34" s="103"/>
-      <c r="AN34" s="103"/>
-      <c r="AO34" s="103"/>
-      <c r="AP34" s="103"/>
-      <c r="AQ34" s="103"/>
-      <c r="AR34" s="103"/>
-      <c r="AS34" s="103"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="97"/>
+      <c r="AL34" s="97"/>
+      <c r="AM34" s="97"/>
+      <c r="AN34" s="97"/>
+      <c r="AO34" s="97"/>
+      <c r="AP34" s="97"/>
+      <c r="AQ34" s="97"/>
+      <c r="AR34" s="97"/>
+      <c r="AS34" s="97"/>
       <c r="AT34" s="73"/>
       <c r="AV34" s="72"/>
       <c r="AW34" s="1"/>
@@ -3958,51 +4060,51 @@
     </row>
     <row r="35" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="72"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104" t="s">
+      <c r="C35" s="97"/>
+      <c r="D35" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104"/>
-      <c r="U35" s="104"/>
-      <c r="V35" s="104"/>
-      <c r="W35" s="104"/>
-      <c r="X35" s="104"/>
-      <c r="Y35" s="104"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="119"/>
+      <c r="T35" s="119"/>
+      <c r="U35" s="119"/>
+      <c r="V35" s="119"/>
+      <c r="W35" s="119"/>
+      <c r="X35" s="119"/>
+      <c r="Y35" s="119"/>
       <c r="Z35" s="66"/>
       <c r="AA35" s="73"/>
       <c r="AC35" s="72"/>
-      <c r="AD35" s="103"/>
-      <c r="AE35" s="104" t="s">
+      <c r="AD35" s="97"/>
+      <c r="AE35" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="AF35" s="104"/>
-      <c r="AG35" s="104"/>
-      <c r="AH35" s="104"/>
-      <c r="AI35" s="104"/>
-      <c r="AJ35" s="104"/>
-      <c r="AK35" s="104"/>
-      <c r="AL35" s="104"/>
-      <c r="AM35" s="104"/>
-      <c r="AN35" s="104"/>
-      <c r="AO35" s="104"/>
-      <c r="AP35" s="104"/>
-      <c r="AQ35" s="104"/>
-      <c r="AR35" s="104"/>
+      <c r="AF35" s="119"/>
+      <c r="AG35" s="119"/>
+      <c r="AH35" s="119"/>
+      <c r="AI35" s="119"/>
+      <c r="AJ35" s="119"/>
+      <c r="AK35" s="119"/>
+      <c r="AL35" s="119"/>
+      <c r="AM35" s="119"/>
+      <c r="AN35" s="119"/>
+      <c r="AO35" s="119"/>
+      <c r="AP35" s="119"/>
+      <c r="AQ35" s="119"/>
+      <c r="AR35" s="119"/>
       <c r="AS35" s="66"/>
       <c r="AT35" s="73"/>
       <c r="AV35" s="72"/>
@@ -4030,48 +4132,48 @@
     </row>
     <row r="36" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="72"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="102"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="102"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="102"/>
-      <c r="U36" s="102"/>
-      <c r="V36" s="102"/>
-      <c r="W36" s="102"/>
-      <c r="X36" s="102"/>
-      <c r="Y36" s="102"/>
-      <c r="Z36" s="102"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="87"/>
       <c r="AA36" s="73"/>
       <c r="AC36" s="72"/>
-      <c r="AD36" s="103"/>
-      <c r="AE36" s="102"/>
-      <c r="AF36" s="102"/>
-      <c r="AG36" s="102"/>
-      <c r="AH36" s="102"/>
-      <c r="AI36" s="102"/>
-      <c r="AJ36" s="102"/>
-      <c r="AK36" s="102"/>
-      <c r="AL36" s="102"/>
-      <c r="AM36" s="102"/>
-      <c r="AN36" s="102"/>
-      <c r="AO36" s="102"/>
-      <c r="AP36" s="102"/>
-      <c r="AQ36" s="102"/>
-      <c r="AR36" s="102"/>
-      <c r="AS36" s="102"/>
+      <c r="AD36" s="97"/>
+      <c r="AE36" s="87"/>
+      <c r="AF36" s="87"/>
+      <c r="AG36" s="87"/>
+      <c r="AH36" s="87"/>
+      <c r="AI36" s="87"/>
+      <c r="AJ36" s="87"/>
+      <c r="AK36" s="87"/>
+      <c r="AL36" s="87"/>
+      <c r="AM36" s="87"/>
+      <c r="AN36" s="87"/>
+      <c r="AO36" s="87"/>
+      <c r="AP36" s="87"/>
+      <c r="AQ36" s="87"/>
+      <c r="AR36" s="87"/>
+      <c r="AS36" s="87"/>
       <c r="AT36" s="73"/>
       <c r="AU36" s="77"/>
       <c r="AV36" s="72"/>
@@ -4295,13 +4397,13 @@
       <c r="B41" s="72"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="130"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
       <c r="L41" s="73"/>
       <c r="M41" s="77"/>
       <c r="N41" s="77"/>
@@ -4329,13 +4431,13 @@
       <c r="AS41" s="40"/>
       <c r="AT41" s="40"/>
       <c r="AV41" s="77"/>
-      <c r="AW41" s="131"/>
-      <c r="AX41" s="131"/>
-      <c r="AY41" s="131"/>
-      <c r="AZ41" s="131"/>
-      <c r="BA41" s="131"/>
-      <c r="BB41" s="131"/>
-      <c r="BC41" s="131"/>
+      <c r="AW41" s="84"/>
+      <c r="AX41" s="84"/>
+      <c r="AY41" s="84"/>
+      <c r="AZ41" s="84"/>
+      <c r="BA41" s="84"/>
+      <c r="BB41" s="84"/>
+      <c r="BC41" s="84"/>
       <c r="BD41" s="77"/>
       <c r="BF41" s="34"/>
       <c r="BG41" s="34"/>
@@ -4413,719 +4515,719 @@
       <c r="S43" s="36"/>
     </row>
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B44" s="124" t="s">
+      <c r="B44" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="87" t="s">
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="87"/>
-      <c r="U44" s="87"/>
-      <c r="V44" s="85" t="s">
+      <c r="N44" s="90"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="90"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="90"/>
+      <c r="S44" s="90"/>
+      <c r="T44" s="90"/>
+      <c r="U44" s="90"/>
+      <c r="V44" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="W44" s="85"/>
-      <c r="X44" s="85"/>
-      <c r="Y44" s="85"/>
-      <c r="Z44" s="85"/>
-      <c r="AA44" s="85"/>
-      <c r="AB44" s="85"/>
-      <c r="AC44" s="85"/>
-      <c r="AD44" s="85"/>
-      <c r="AE44" s="85"/>
-      <c r="AF44" s="85"/>
-      <c r="AG44" s="85"/>
-      <c r="AH44" s="87" t="s">
+      <c r="W44" s="135"/>
+      <c r="X44" s="135"/>
+      <c r="Y44" s="135"/>
+      <c r="Z44" s="135"/>
+      <c r="AA44" s="135"/>
+      <c r="AB44" s="135"/>
+      <c r="AC44" s="135"/>
+      <c r="AD44" s="135"/>
+      <c r="AE44" s="135"/>
+      <c r="AF44" s="135"/>
+      <c r="AG44" s="135"/>
+      <c r="AH44" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="AI44" s="87"/>
-      <c r="AJ44" s="87"/>
-      <c r="AK44" s="87"/>
-      <c r="AL44" s="87"/>
-      <c r="AM44" s="87"/>
-      <c r="AN44" s="87"/>
-      <c r="AO44" s="87"/>
-      <c r="AP44" s="89" t="s">
+      <c r="AI44" s="90"/>
+      <c r="AJ44" s="90"/>
+      <c r="AK44" s="90"/>
+      <c r="AL44" s="90"/>
+      <c r="AM44" s="90"/>
+      <c r="AN44" s="90"/>
+      <c r="AO44" s="90"/>
+      <c r="AP44" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="AQ44" s="89"/>
-      <c r="AR44" s="89"/>
-      <c r="AS44" s="89"/>
-      <c r="AT44" s="89"/>
-      <c r="AU44" s="89"/>
-      <c r="AV44" s="89"/>
-      <c r="AW44" s="89"/>
-      <c r="AX44" s="89"/>
-      <c r="AY44" s="89"/>
-      <c r="AZ44" s="87" t="s">
+      <c r="AQ44" s="140"/>
+      <c r="AR44" s="140"/>
+      <c r="AS44" s="140"/>
+      <c r="AT44" s="140"/>
+      <c r="AU44" s="140"/>
+      <c r="AV44" s="140"/>
+      <c r="AW44" s="140"/>
+      <c r="AX44" s="140"/>
+      <c r="AY44" s="140"/>
+      <c r="AZ44" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="BA44" s="87"/>
-      <c r="BB44" s="87"/>
-      <c r="BC44" s="87"/>
-      <c r="BD44" s="87"/>
-      <c r="BE44" s="85" t="s">
+      <c r="BA44" s="90"/>
+      <c r="BB44" s="90"/>
+      <c r="BC44" s="90"/>
+      <c r="BD44" s="90"/>
+      <c r="BE44" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="BF44" s="85"/>
-      <c r="BG44" s="85"/>
-      <c r="BH44" s="85"/>
-      <c r="BI44" s="85"/>
-      <c r="BJ44" s="85"/>
-      <c r="BK44" s="85"/>
-      <c r="BL44" s="85"/>
-      <c r="BM44" s="87" t="s">
+      <c r="BF44" s="135"/>
+      <c r="BG44" s="135"/>
+      <c r="BH44" s="135"/>
+      <c r="BI44" s="135"/>
+      <c r="BJ44" s="135"/>
+      <c r="BK44" s="135"/>
+      <c r="BL44" s="135"/>
+      <c r="BM44" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="BN44" s="87"/>
-      <c r="BO44" s="87"/>
-      <c r="BP44" s="87"/>
-      <c r="BQ44" s="87"/>
+      <c r="BN44" s="90"/>
+      <c r="BO44" s="90"/>
+      <c r="BP44" s="90"/>
+      <c r="BQ44" s="90"/>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B45" s="124" t="s">
+      <c r="B45" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="87"/>
-      <c r="V45" s="111" t="s">
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="90"/>
+      <c r="Q45" s="90"/>
+      <c r="R45" s="90"/>
+      <c r="S45" s="90"/>
+      <c r="T45" s="90"/>
+      <c r="U45" s="90"/>
+      <c r="V45" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="W45" s="111"/>
-      <c r="X45" s="111"/>
-      <c r="Y45" s="111"/>
-      <c r="Z45" s="111"/>
-      <c r="AA45" s="111"/>
-      <c r="AB45" s="111"/>
-      <c r="AC45" s="111"/>
-      <c r="AD45" s="111"/>
-      <c r="AE45" s="111"/>
-      <c r="AF45" s="111"/>
-      <c r="AG45" s="111"/>
-      <c r="AH45" s="87" t="s">
+      <c r="W45" s="134"/>
+      <c r="X45" s="134"/>
+      <c r="Y45" s="134"/>
+      <c r="Z45" s="134"/>
+      <c r="AA45" s="134"/>
+      <c r="AB45" s="134"/>
+      <c r="AC45" s="134"/>
+      <c r="AD45" s="134"/>
+      <c r="AE45" s="134"/>
+      <c r="AF45" s="134"/>
+      <c r="AG45" s="134"/>
+      <c r="AH45" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="AI45" s="87"/>
-      <c r="AJ45" s="87"/>
-      <c r="AK45" s="87"/>
-      <c r="AL45" s="87"/>
-      <c r="AM45" s="87"/>
-      <c r="AN45" s="87"/>
-      <c r="AO45" s="87"/>
-      <c r="AP45" s="97" t="s">
+      <c r="AI45" s="90"/>
+      <c r="AJ45" s="90"/>
+      <c r="AK45" s="90"/>
+      <c r="AL45" s="90"/>
+      <c r="AM45" s="90"/>
+      <c r="AN45" s="90"/>
+      <c r="AO45" s="90"/>
+      <c r="AP45" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="AQ45" s="97"/>
-      <c r="AR45" s="97"/>
-      <c r="AS45" s="97"/>
-      <c r="AT45" s="97"/>
-      <c r="AU45" s="97"/>
-      <c r="AV45" s="97"/>
-      <c r="AW45" s="97"/>
-      <c r="AX45" s="97"/>
-      <c r="AY45" s="97"/>
-      <c r="AZ45" s="87"/>
-      <c r="BA45" s="87"/>
-      <c r="BB45" s="87"/>
-      <c r="BC45" s="87"/>
-      <c r="BD45" s="87"/>
-      <c r="BE45" s="89" t="s">
+      <c r="AQ45" s="133"/>
+      <c r="AR45" s="133"/>
+      <c r="AS45" s="133"/>
+      <c r="AT45" s="133"/>
+      <c r="AU45" s="133"/>
+      <c r="AV45" s="133"/>
+      <c r="AW45" s="133"/>
+      <c r="AX45" s="133"/>
+      <c r="AY45" s="133"/>
+      <c r="AZ45" s="90"/>
+      <c r="BA45" s="90"/>
+      <c r="BB45" s="90"/>
+      <c r="BC45" s="90"/>
+      <c r="BD45" s="90"/>
+      <c r="BE45" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="BF45" s="89"/>
-      <c r="BG45" s="89"/>
-      <c r="BH45" s="89"/>
-      <c r="BI45" s="89"/>
-      <c r="BJ45" s="89"/>
-      <c r="BK45" s="89"/>
-      <c r="BL45" s="89"/>
-      <c r="BM45" s="88" t="s">
+      <c r="BF45" s="140"/>
+      <c r="BG45" s="140"/>
+      <c r="BH45" s="140"/>
+      <c r="BI45" s="140"/>
+      <c r="BJ45" s="140"/>
+      <c r="BK45" s="140"/>
+      <c r="BL45" s="140"/>
+      <c r="BM45" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="BN45" s="87"/>
-      <c r="BO45" s="87"/>
-      <c r="BP45" s="87"/>
-      <c r="BQ45" s="87"/>
+      <c r="BN45" s="90"/>
+      <c r="BO45" s="90"/>
+      <c r="BP45" s="90"/>
+      <c r="BQ45" s="90"/>
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B46" s="125" t="s">
+      <c r="B46" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="87"/>
-      <c r="T46" s="87"/>
-      <c r="U46" s="87"/>
-      <c r="V46" s="89" t="s">
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="117"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="90"/>
+      <c r="U46" s="90"/>
+      <c r="V46" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="W46" s="89"/>
-      <c r="X46" s="89"/>
-      <c r="Y46" s="89"/>
-      <c r="Z46" s="89"/>
-      <c r="AA46" s="89"/>
-      <c r="AB46" s="89"/>
-      <c r="AC46" s="89"/>
-      <c r="AD46" s="89"/>
-      <c r="AE46" s="89"/>
-      <c r="AF46" s="89"/>
-      <c r="AG46" s="89"/>
-      <c r="AH46" s="88" t="s">
+      <c r="W46" s="140"/>
+      <c r="X46" s="140"/>
+      <c r="Y46" s="140"/>
+      <c r="Z46" s="140"/>
+      <c r="AA46" s="140"/>
+      <c r="AB46" s="140"/>
+      <c r="AC46" s="140"/>
+      <c r="AD46" s="140"/>
+      <c r="AE46" s="140"/>
+      <c r="AF46" s="140"/>
+      <c r="AG46" s="140"/>
+      <c r="AH46" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="AI46" s="87"/>
-      <c r="AJ46" s="87"/>
-      <c r="AK46" s="87"/>
-      <c r="AL46" s="87"/>
-      <c r="AM46" s="87"/>
-      <c r="AN46" s="87"/>
-      <c r="AO46" s="87"/>
-      <c r="AP46" s="85" t="s">
+      <c r="AI46" s="90"/>
+      <c r="AJ46" s="90"/>
+      <c r="AK46" s="90"/>
+      <c r="AL46" s="90"/>
+      <c r="AM46" s="90"/>
+      <c r="AN46" s="90"/>
+      <c r="AO46" s="90"/>
+      <c r="AP46" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="AQ46" s="85"/>
-      <c r="AR46" s="85"/>
-      <c r="AS46" s="85"/>
-      <c r="AT46" s="85"/>
-      <c r="AU46" s="85"/>
-      <c r="AV46" s="85"/>
-      <c r="AW46" s="85"/>
-      <c r="AX46" s="85"/>
-      <c r="AY46" s="85"/>
-      <c r="AZ46" s="87"/>
-      <c r="BA46" s="87"/>
-      <c r="BB46" s="87"/>
-      <c r="BC46" s="87"/>
-      <c r="BD46" s="87"/>
-      <c r="BE46" s="89" t="s">
+      <c r="AQ46" s="135"/>
+      <c r="AR46" s="135"/>
+      <c r="AS46" s="135"/>
+      <c r="AT46" s="135"/>
+      <c r="AU46" s="135"/>
+      <c r="AV46" s="135"/>
+      <c r="AW46" s="135"/>
+      <c r="AX46" s="135"/>
+      <c r="AY46" s="135"/>
+      <c r="AZ46" s="90"/>
+      <c r="BA46" s="90"/>
+      <c r="BB46" s="90"/>
+      <c r="BC46" s="90"/>
+      <c r="BD46" s="90"/>
+      <c r="BE46" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="BF46" s="89"/>
-      <c r="BG46" s="89"/>
-      <c r="BH46" s="89"/>
-      <c r="BI46" s="89"/>
-      <c r="BJ46" s="89"/>
-      <c r="BK46" s="89"/>
-      <c r="BL46" s="89"/>
-      <c r="BM46" s="87"/>
-      <c r="BN46" s="87"/>
-      <c r="BO46" s="87"/>
-      <c r="BP46" s="87"/>
-      <c r="BQ46" s="87"/>
+      <c r="BF46" s="140"/>
+      <c r="BG46" s="140"/>
+      <c r="BH46" s="140"/>
+      <c r="BI46" s="140"/>
+      <c r="BJ46" s="140"/>
+      <c r="BK46" s="140"/>
+      <c r="BL46" s="140"/>
+      <c r="BM46" s="90"/>
+      <c r="BN46" s="90"/>
+      <c r="BO46" s="90"/>
+      <c r="BP46" s="90"/>
+      <c r="BQ46" s="90"/>
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B47" s="126" t="s">
+      <c r="B47" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="126"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="87"/>
-      <c r="V47" s="95" t="s">
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="90"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="90"/>
+      <c r="U47" s="90"/>
+      <c r="V47" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="W47" s="95"/>
-      <c r="X47" s="95"/>
-      <c r="Y47" s="95"/>
-      <c r="Z47" s="95"/>
-      <c r="AA47" s="95"/>
-      <c r="AB47" s="95"/>
-      <c r="AC47" s="95"/>
-      <c r="AD47" s="95"/>
-      <c r="AE47" s="95"/>
-      <c r="AF47" s="95"/>
-      <c r="AG47" s="95"/>
-      <c r="AH47" s="87"/>
-      <c r="AI47" s="87"/>
-      <c r="AJ47" s="87"/>
-      <c r="AK47" s="87"/>
-      <c r="AL47" s="87"/>
-      <c r="AM47" s="87"/>
-      <c r="AN47" s="87"/>
-      <c r="AO47" s="87"/>
-      <c r="AP47" s="95" t="s">
+      <c r="W47" s="137"/>
+      <c r="X47" s="137"/>
+      <c r="Y47" s="137"/>
+      <c r="Z47" s="137"/>
+      <c r="AA47" s="137"/>
+      <c r="AB47" s="137"/>
+      <c r="AC47" s="137"/>
+      <c r="AD47" s="137"/>
+      <c r="AE47" s="137"/>
+      <c r="AF47" s="137"/>
+      <c r="AG47" s="137"/>
+      <c r="AH47" s="90"/>
+      <c r="AI47" s="90"/>
+      <c r="AJ47" s="90"/>
+      <c r="AK47" s="90"/>
+      <c r="AL47" s="90"/>
+      <c r="AM47" s="90"/>
+      <c r="AN47" s="90"/>
+      <c r="AO47" s="90"/>
+      <c r="AP47" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="AQ47" s="95"/>
-      <c r="AR47" s="95"/>
-      <c r="AS47" s="95"/>
-      <c r="AT47" s="95"/>
-      <c r="AU47" s="95"/>
-      <c r="AV47" s="95"/>
-      <c r="AW47" s="95"/>
-      <c r="AX47" s="95"/>
-      <c r="AY47" s="95"/>
-      <c r="AZ47" s="87"/>
-      <c r="BA47" s="87"/>
-      <c r="BB47" s="87"/>
-      <c r="BC47" s="87"/>
-      <c r="BD47" s="87"/>
-      <c r="BE47" s="86" t="s">
+      <c r="AQ47" s="137"/>
+      <c r="AR47" s="137"/>
+      <c r="AS47" s="137"/>
+      <c r="AT47" s="137"/>
+      <c r="AU47" s="137"/>
+      <c r="AV47" s="137"/>
+      <c r="AW47" s="137"/>
+      <c r="AX47" s="137"/>
+      <c r="AY47" s="137"/>
+      <c r="AZ47" s="90"/>
+      <c r="BA47" s="90"/>
+      <c r="BB47" s="90"/>
+      <c r="BC47" s="90"/>
+      <c r="BD47" s="90"/>
+      <c r="BE47" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="BF47" s="86"/>
-      <c r="BG47" s="86"/>
-      <c r="BH47" s="86"/>
-      <c r="BI47" s="86"/>
-      <c r="BJ47" s="86"/>
-      <c r="BK47" s="86"/>
-      <c r="BL47" s="86"/>
-      <c r="BM47" s="87" t="s">
+      <c r="BF47" s="141"/>
+      <c r="BG47" s="141"/>
+      <c r="BH47" s="141"/>
+      <c r="BI47" s="141"/>
+      <c r="BJ47" s="141"/>
+      <c r="BK47" s="141"/>
+      <c r="BL47" s="141"/>
+      <c r="BM47" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="BN47" s="87"/>
-      <c r="BO47" s="87"/>
-      <c r="BP47" s="87"/>
-      <c r="BQ47" s="87"/>
+      <c r="BN47" s="90"/>
+      <c r="BO47" s="90"/>
+      <c r="BP47" s="90"/>
+      <c r="BQ47" s="90"/>
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B48" s="110" t="s">
+      <c r="B48" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="87"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="87"/>
-      <c r="U48" s="87"/>
-      <c r="V48" s="85" t="s">
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="90"/>
+      <c r="Q48" s="90"/>
+      <c r="R48" s="90"/>
+      <c r="S48" s="90"/>
+      <c r="T48" s="90"/>
+      <c r="U48" s="90"/>
+      <c r="V48" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="W48" s="85"/>
-      <c r="X48" s="85"/>
-      <c r="Y48" s="85"/>
-      <c r="Z48" s="85"/>
-      <c r="AA48" s="85"/>
-      <c r="AB48" s="85"/>
-      <c r="AC48" s="85"/>
-      <c r="AD48" s="85"/>
-      <c r="AE48" s="85"/>
-      <c r="AF48" s="85"/>
-      <c r="AG48" s="85"/>
-      <c r="AH48" s="87"/>
-      <c r="AI48" s="87"/>
-      <c r="AJ48" s="87"/>
-      <c r="AK48" s="87"/>
-      <c r="AL48" s="87"/>
-      <c r="AM48" s="87"/>
-      <c r="AN48" s="87"/>
-      <c r="AO48" s="87"/>
-      <c r="AP48" s="95" t="s">
+      <c r="W48" s="135"/>
+      <c r="X48" s="135"/>
+      <c r="Y48" s="135"/>
+      <c r="Z48" s="135"/>
+      <c r="AA48" s="135"/>
+      <c r="AB48" s="135"/>
+      <c r="AC48" s="135"/>
+      <c r="AD48" s="135"/>
+      <c r="AE48" s="135"/>
+      <c r="AF48" s="135"/>
+      <c r="AG48" s="135"/>
+      <c r="AH48" s="90"/>
+      <c r="AI48" s="90"/>
+      <c r="AJ48" s="90"/>
+      <c r="AK48" s="90"/>
+      <c r="AL48" s="90"/>
+      <c r="AM48" s="90"/>
+      <c r="AN48" s="90"/>
+      <c r="AO48" s="90"/>
+      <c r="AP48" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="AQ48" s="95"/>
-      <c r="AR48" s="95"/>
-      <c r="AS48" s="95"/>
-      <c r="AT48" s="95"/>
-      <c r="AU48" s="95"/>
-      <c r="AV48" s="95"/>
-      <c r="AW48" s="95"/>
-      <c r="AX48" s="95"/>
-      <c r="AY48" s="95"/>
-      <c r="AZ48" s="87" t="s">
+      <c r="AQ48" s="137"/>
+      <c r="AR48" s="137"/>
+      <c r="AS48" s="137"/>
+      <c r="AT48" s="137"/>
+      <c r="AU48" s="137"/>
+      <c r="AV48" s="137"/>
+      <c r="AW48" s="137"/>
+      <c r="AX48" s="137"/>
+      <c r="AY48" s="137"/>
+      <c r="AZ48" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="BA48" s="87"/>
-      <c r="BB48" s="87"/>
-      <c r="BC48" s="87"/>
-      <c r="BD48" s="87"/>
-      <c r="BE48" s="90" t="s">
+      <c r="BA48" s="90"/>
+      <c r="BB48" s="90"/>
+      <c r="BC48" s="90"/>
+      <c r="BD48" s="90"/>
+      <c r="BE48" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="BF48" s="90"/>
-      <c r="BG48" s="90"/>
-      <c r="BH48" s="90"/>
-      <c r="BI48" s="90"/>
-      <c r="BJ48" s="90"/>
-      <c r="BK48" s="90"/>
-      <c r="BL48" s="90"/>
-      <c r="BM48" s="87"/>
-      <c r="BN48" s="87"/>
-      <c r="BO48" s="87"/>
-      <c r="BP48" s="87"/>
-      <c r="BQ48" s="87"/>
+      <c r="BF48" s="138"/>
+      <c r="BG48" s="138"/>
+      <c r="BH48" s="138"/>
+      <c r="BI48" s="138"/>
+      <c r="BJ48" s="138"/>
+      <c r="BK48" s="138"/>
+      <c r="BL48" s="138"/>
+      <c r="BM48" s="90"/>
+      <c r="BN48" s="90"/>
+      <c r="BO48" s="90"/>
+      <c r="BP48" s="90"/>
+      <c r="BQ48" s="90"/>
     </row>
     <row r="49" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B49" s="97" t="s">
+      <c r="B49" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="97"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="87"/>
-      <c r="S49" s="87"/>
-      <c r="T49" s="87"/>
-      <c r="U49" s="87"/>
-      <c r="V49" s="86" t="s">
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="133"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="90"/>
+      <c r="R49" s="90"/>
+      <c r="S49" s="90"/>
+      <c r="T49" s="90"/>
+      <c r="U49" s="90"/>
+      <c r="V49" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="W49" s="86"/>
-      <c r="X49" s="86"/>
-      <c r="Y49" s="86"/>
-      <c r="Z49" s="86"/>
-      <c r="AA49" s="86"/>
-      <c r="AB49" s="86"/>
-      <c r="AC49" s="86"/>
-      <c r="AD49" s="86"/>
-      <c r="AE49" s="86"/>
-      <c r="AF49" s="86"/>
-      <c r="AG49" s="86"/>
-      <c r="AH49" s="87"/>
-      <c r="AI49" s="87"/>
-      <c r="AJ49" s="87"/>
-      <c r="AK49" s="87"/>
-      <c r="AL49" s="87"/>
-      <c r="AM49" s="87"/>
-      <c r="AN49" s="87"/>
-      <c r="AO49" s="87"/>
-      <c r="AP49" s="97" t="s">
+      <c r="W49" s="141"/>
+      <c r="X49" s="141"/>
+      <c r="Y49" s="141"/>
+      <c r="Z49" s="141"/>
+      <c r="AA49" s="141"/>
+      <c r="AB49" s="141"/>
+      <c r="AC49" s="141"/>
+      <c r="AD49" s="141"/>
+      <c r="AE49" s="141"/>
+      <c r="AF49" s="141"/>
+      <c r="AG49" s="141"/>
+      <c r="AH49" s="90"/>
+      <c r="AI49" s="90"/>
+      <c r="AJ49" s="90"/>
+      <c r="AK49" s="90"/>
+      <c r="AL49" s="90"/>
+      <c r="AM49" s="90"/>
+      <c r="AN49" s="90"/>
+      <c r="AO49" s="90"/>
+      <c r="AP49" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="AQ49" s="97"/>
-      <c r="AR49" s="97"/>
-      <c r="AS49" s="97"/>
-      <c r="AT49" s="97"/>
-      <c r="AU49" s="97"/>
-      <c r="AV49" s="97"/>
-      <c r="AW49" s="97"/>
-      <c r="AX49" s="97"/>
-      <c r="AY49" s="97"/>
-      <c r="AZ49" s="87"/>
-      <c r="BA49" s="87"/>
-      <c r="BB49" s="87"/>
-      <c r="BC49" s="87"/>
-      <c r="BD49" s="87"/>
-      <c r="BE49" s="84" t="s">
+      <c r="AQ49" s="133"/>
+      <c r="AR49" s="133"/>
+      <c r="AS49" s="133"/>
+      <c r="AT49" s="133"/>
+      <c r="AU49" s="133"/>
+      <c r="AV49" s="133"/>
+      <c r="AW49" s="133"/>
+      <c r="AX49" s="133"/>
+      <c r="AY49" s="133"/>
+      <c r="AZ49" s="90"/>
+      <c r="BA49" s="90"/>
+      <c r="BB49" s="90"/>
+      <c r="BC49" s="90"/>
+      <c r="BD49" s="90"/>
+      <c r="BE49" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="BF49" s="84"/>
-      <c r="BG49" s="84"/>
-      <c r="BH49" s="84"/>
-      <c r="BI49" s="84"/>
-      <c r="BJ49" s="84"/>
-      <c r="BK49" s="84"/>
-      <c r="BL49" s="84"/>
-      <c r="BM49" s="87" t="s">
+      <c r="BF49" s="144"/>
+      <c r="BG49" s="144"/>
+      <c r="BH49" s="144"/>
+      <c r="BI49" s="144"/>
+      <c r="BJ49" s="144"/>
+      <c r="BK49" s="144"/>
+      <c r="BL49" s="144"/>
+      <c r="BM49" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="BN49" s="87"/>
-      <c r="BO49" s="87"/>
-      <c r="BP49" s="87"/>
-      <c r="BQ49" s="87"/>
+      <c r="BN49" s="90"/>
+      <c r="BO49" s="90"/>
+      <c r="BP49" s="90"/>
+      <c r="BQ49" s="90"/>
     </row>
     <row r="50" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="87"/>
-      <c r="S50" s="87"/>
-      <c r="T50" s="87"/>
-      <c r="U50" s="87"/>
-      <c r="V50" s="111" t="s">
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="134"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="90"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="90"/>
+      <c r="Q50" s="90"/>
+      <c r="R50" s="90"/>
+      <c r="S50" s="90"/>
+      <c r="T50" s="90"/>
+      <c r="U50" s="90"/>
+      <c r="V50" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="W50" s="111"/>
-      <c r="X50" s="111"/>
-      <c r="Y50" s="111"/>
-      <c r="Z50" s="111"/>
-      <c r="AA50" s="111"/>
-      <c r="AB50" s="111"/>
-      <c r="AC50" s="111"/>
-      <c r="AD50" s="111"/>
-      <c r="AE50" s="111"/>
-      <c r="AF50" s="111"/>
-      <c r="AG50" s="111"/>
-      <c r="AH50" s="87"/>
-      <c r="AI50" s="87"/>
-      <c r="AJ50" s="87"/>
-      <c r="AK50" s="87"/>
-      <c r="AL50" s="87"/>
-      <c r="AM50" s="87"/>
-      <c r="AN50" s="87"/>
-      <c r="AO50" s="87"/>
-      <c r="AP50" s="85" t="s">
+      <c r="W50" s="134"/>
+      <c r="X50" s="134"/>
+      <c r="Y50" s="134"/>
+      <c r="Z50" s="134"/>
+      <c r="AA50" s="134"/>
+      <c r="AB50" s="134"/>
+      <c r="AC50" s="134"/>
+      <c r="AD50" s="134"/>
+      <c r="AE50" s="134"/>
+      <c r="AF50" s="134"/>
+      <c r="AG50" s="134"/>
+      <c r="AH50" s="90"/>
+      <c r="AI50" s="90"/>
+      <c r="AJ50" s="90"/>
+      <c r="AK50" s="90"/>
+      <c r="AL50" s="90"/>
+      <c r="AM50" s="90"/>
+      <c r="AN50" s="90"/>
+      <c r="AO50" s="90"/>
+      <c r="AP50" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="AQ50" s="85"/>
-      <c r="AR50" s="85"/>
-      <c r="AS50" s="85"/>
-      <c r="AT50" s="85"/>
-      <c r="AU50" s="85"/>
-      <c r="AV50" s="85"/>
-      <c r="AW50" s="85"/>
-      <c r="AX50" s="85"/>
-      <c r="AY50" s="85"/>
-      <c r="AZ50" s="87"/>
-      <c r="BA50" s="87"/>
-      <c r="BB50" s="87"/>
-      <c r="BC50" s="87"/>
-      <c r="BD50" s="87"/>
-      <c r="BE50" s="85" t="s">
+      <c r="AQ50" s="135"/>
+      <c r="AR50" s="135"/>
+      <c r="AS50" s="135"/>
+      <c r="AT50" s="135"/>
+      <c r="AU50" s="135"/>
+      <c r="AV50" s="135"/>
+      <c r="AW50" s="135"/>
+      <c r="AX50" s="135"/>
+      <c r="AY50" s="135"/>
+      <c r="AZ50" s="90"/>
+      <c r="BA50" s="90"/>
+      <c r="BB50" s="90"/>
+      <c r="BC50" s="90"/>
+      <c r="BD50" s="90"/>
+      <c r="BE50" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="BF50" s="85"/>
-      <c r="BG50" s="85"/>
-      <c r="BH50" s="85"/>
-      <c r="BI50" s="85"/>
-      <c r="BJ50" s="85"/>
-      <c r="BK50" s="85"/>
-      <c r="BL50" s="85"/>
-      <c r="BM50" s="87" t="s">
+      <c r="BF50" s="135"/>
+      <c r="BG50" s="135"/>
+      <c r="BH50" s="135"/>
+      <c r="BI50" s="135"/>
+      <c r="BJ50" s="135"/>
+      <c r="BK50" s="135"/>
+      <c r="BL50" s="135"/>
+      <c r="BM50" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="BN50" s="87"/>
-      <c r="BO50" s="87"/>
-      <c r="BP50" s="87"/>
-      <c r="BQ50" s="87"/>
+      <c r="BN50" s="90"/>
+      <c r="BO50" s="90"/>
+      <c r="BP50" s="90"/>
+      <c r="BQ50" s="90"/>
     </row>
     <row r="51" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="87"/>
-      <c r="S51" s="87"/>
-      <c r="T51" s="87"/>
-      <c r="U51" s="87"/>
-      <c r="V51" s="97" t="s">
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="135"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="135"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="90"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="90"/>
+      <c r="Q51" s="90"/>
+      <c r="R51" s="90"/>
+      <c r="S51" s="90"/>
+      <c r="T51" s="90"/>
+      <c r="U51" s="90"/>
+      <c r="V51" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="W51" s="97"/>
-      <c r="X51" s="97"/>
-      <c r="Y51" s="97"/>
-      <c r="Z51" s="97"/>
-      <c r="AA51" s="97"/>
-      <c r="AB51" s="97"/>
-      <c r="AC51" s="97"/>
-      <c r="AD51" s="97"/>
-      <c r="AE51" s="97"/>
-      <c r="AF51" s="97"/>
-      <c r="AG51" s="97"/>
-      <c r="AH51" s="87"/>
-      <c r="AI51" s="87"/>
-      <c r="AJ51" s="87"/>
-      <c r="AK51" s="87"/>
-      <c r="AL51" s="87"/>
-      <c r="AM51" s="87"/>
-      <c r="AN51" s="87"/>
-      <c r="AO51" s="87"/>
-      <c r="AP51" s="86" t="s">
+      <c r="W51" s="133"/>
+      <c r="X51" s="133"/>
+      <c r="Y51" s="133"/>
+      <c r="Z51" s="133"/>
+      <c r="AA51" s="133"/>
+      <c r="AB51" s="133"/>
+      <c r="AC51" s="133"/>
+      <c r="AD51" s="133"/>
+      <c r="AE51" s="133"/>
+      <c r="AF51" s="133"/>
+      <c r="AG51" s="133"/>
+      <c r="AH51" s="90"/>
+      <c r="AI51" s="90"/>
+      <c r="AJ51" s="90"/>
+      <c r="AK51" s="90"/>
+      <c r="AL51" s="90"/>
+      <c r="AM51" s="90"/>
+      <c r="AN51" s="90"/>
+      <c r="AO51" s="90"/>
+      <c r="AP51" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="AQ51" s="86"/>
-      <c r="AR51" s="86"/>
-      <c r="AS51" s="86"/>
-      <c r="AT51" s="86"/>
-      <c r="AU51" s="86"/>
-      <c r="AV51" s="86"/>
-      <c r="AW51" s="86"/>
-      <c r="AX51" s="86"/>
-      <c r="AY51" s="86"/>
-      <c r="AZ51" s="87" t="s">
+      <c r="AQ51" s="141"/>
+      <c r="AR51" s="141"/>
+      <c r="AS51" s="141"/>
+      <c r="AT51" s="141"/>
+      <c r="AU51" s="141"/>
+      <c r="AV51" s="141"/>
+      <c r="AW51" s="141"/>
+      <c r="AX51" s="141"/>
+      <c r="AY51" s="141"/>
+      <c r="AZ51" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="BA51" s="87"/>
-      <c r="BB51" s="87"/>
-      <c r="BC51" s="87"/>
-      <c r="BD51" s="87"/>
-      <c r="BE51" s="86" t="s">
+      <c r="BA51" s="90"/>
+      <c r="BB51" s="90"/>
+      <c r="BC51" s="90"/>
+      <c r="BD51" s="90"/>
+      <c r="BE51" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="BF51" s="86"/>
-      <c r="BG51" s="86"/>
-      <c r="BH51" s="86"/>
-      <c r="BI51" s="86"/>
-      <c r="BJ51" s="86"/>
-      <c r="BK51" s="86"/>
-      <c r="BL51" s="86"/>
-      <c r="BM51" s="87" t="s">
+      <c r="BF51" s="141"/>
+      <c r="BG51" s="141"/>
+      <c r="BH51" s="141"/>
+      <c r="BI51" s="141"/>
+      <c r="BJ51" s="141"/>
+      <c r="BK51" s="141"/>
+      <c r="BL51" s="141"/>
+      <c r="BM51" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="BN51" s="87"/>
-      <c r="BO51" s="87"/>
-      <c r="BP51" s="87"/>
-      <c r="BQ51" s="87"/>
+      <c r="BN51" s="90"/>
+      <c r="BO51" s="90"/>
+      <c r="BP51" s="90"/>
+      <c r="BQ51" s="90"/>
     </row>
     <row r="52" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B52" s="95" t="s">
+      <c r="B52" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="95"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="101" t="s">
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="137"/>
+      <c r="L52" s="137"/>
+      <c r="M52" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="N52" s="101"/>
-      <c r="O52" s="101"/>
-      <c r="P52" s="101"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="101"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="101"/>
-      <c r="U52" s="101"/>
-      <c r="V52" s="105" t="s">
+      <c r="N52" s="118"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="118"/>
+      <c r="R52" s="118"/>
+      <c r="S52" s="118"/>
+      <c r="T52" s="118"/>
+      <c r="U52" s="118"/>
+      <c r="V52" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="W52" s="105"/>
-      <c r="X52" s="105"/>
-      <c r="Y52" s="105"/>
-      <c r="Z52" s="105"/>
-      <c r="AA52" s="105"/>
-      <c r="AB52" s="105"/>
-      <c r="AC52" s="105"/>
-      <c r="AD52" s="105"/>
-      <c r="AE52" s="105"/>
-      <c r="AF52" s="105"/>
-      <c r="AG52" s="105"/>
-      <c r="AH52" s="87"/>
-      <c r="AI52" s="87"/>
-      <c r="AJ52" s="87"/>
-      <c r="AK52" s="87"/>
-      <c r="AL52" s="87"/>
-      <c r="AM52" s="87"/>
-      <c r="AN52" s="87"/>
-      <c r="AO52" s="87"/>
-      <c r="AP52" s="85" t="s">
+      <c r="W52" s="142"/>
+      <c r="X52" s="142"/>
+      <c r="Y52" s="142"/>
+      <c r="Z52" s="142"/>
+      <c r="AA52" s="142"/>
+      <c r="AB52" s="142"/>
+      <c r="AC52" s="142"/>
+      <c r="AD52" s="142"/>
+      <c r="AE52" s="142"/>
+      <c r="AF52" s="142"/>
+      <c r="AG52" s="142"/>
+      <c r="AH52" s="90"/>
+      <c r="AI52" s="90"/>
+      <c r="AJ52" s="90"/>
+      <c r="AK52" s="90"/>
+      <c r="AL52" s="90"/>
+      <c r="AM52" s="90"/>
+      <c r="AN52" s="90"/>
+      <c r="AO52" s="90"/>
+      <c r="AP52" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="AQ52" s="85"/>
-      <c r="AR52" s="85"/>
-      <c r="AS52" s="85"/>
-      <c r="AT52" s="85"/>
-      <c r="AU52" s="85"/>
-      <c r="AV52" s="85"/>
-      <c r="AW52" s="85"/>
-      <c r="AX52" s="85"/>
-      <c r="AY52" s="85"/>
-      <c r="AZ52" s="87"/>
-      <c r="BA52" s="87"/>
-      <c r="BB52" s="87"/>
-      <c r="BC52" s="87"/>
-      <c r="BD52" s="87"/>
+      <c r="AQ52" s="135"/>
+      <c r="AR52" s="135"/>
+      <c r="AS52" s="135"/>
+      <c r="AT52" s="135"/>
+      <c r="AU52" s="135"/>
+      <c r="AV52" s="135"/>
+      <c r="AW52" s="135"/>
+      <c r="AX52" s="135"/>
+      <c r="AY52" s="135"/>
+      <c r="AZ52" s="90"/>
+      <c r="BA52" s="90"/>
+      <c r="BB52" s="90"/>
+      <c r="BC52" s="90"/>
+      <c r="BD52" s="90"/>
       <c r="BE52" s="34"/>
       <c r="BF52" s="34"/>
       <c r="BG52" s="34"/>
@@ -5138,69 +5240,69 @@
       <c r="BN52" s="35"/>
     </row>
     <row r="53" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B53" s="90" t="s">
+      <c r="B53" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="101" t="s">
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="138"/>
+      <c r="F53" s="138"/>
+      <c r="G53" s="138"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="138"/>
+      <c r="M53" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="N53" s="101"/>
-      <c r="O53" s="101"/>
-      <c r="P53" s="101"/>
-      <c r="Q53" s="101"/>
-      <c r="R53" s="101"/>
-      <c r="S53" s="101"/>
-      <c r="T53" s="101"/>
-      <c r="U53" s="101"/>
-      <c r="V53" s="106" t="s">
+      <c r="N53" s="118"/>
+      <c r="O53" s="118"/>
+      <c r="P53" s="118"/>
+      <c r="Q53" s="118"/>
+      <c r="R53" s="118"/>
+      <c r="S53" s="118"/>
+      <c r="T53" s="118"/>
+      <c r="U53" s="118"/>
+      <c r="V53" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="106"/>
-      <c r="X53" s="106"/>
-      <c r="Y53" s="106"/>
-      <c r="Z53" s="106"/>
-      <c r="AA53" s="106"/>
-      <c r="AB53" s="106"/>
-      <c r="AC53" s="106"/>
-      <c r="AD53" s="106"/>
-      <c r="AE53" s="106"/>
-      <c r="AF53" s="106"/>
-      <c r="AG53" s="106"/>
-      <c r="AH53" s="87"/>
-      <c r="AI53" s="87"/>
-      <c r="AJ53" s="87"/>
-      <c r="AK53" s="87"/>
-      <c r="AL53" s="87"/>
-      <c r="AM53" s="87"/>
-      <c r="AN53" s="87"/>
-      <c r="AO53" s="87"/>
-      <c r="AP53" s="95" t="s">
+      <c r="W53" s="143"/>
+      <c r="X53" s="143"/>
+      <c r="Y53" s="143"/>
+      <c r="Z53" s="143"/>
+      <c r="AA53" s="143"/>
+      <c r="AB53" s="143"/>
+      <c r="AC53" s="143"/>
+      <c r="AD53" s="143"/>
+      <c r="AE53" s="143"/>
+      <c r="AF53" s="143"/>
+      <c r="AG53" s="143"/>
+      <c r="AH53" s="90"/>
+      <c r="AI53" s="90"/>
+      <c r="AJ53" s="90"/>
+      <c r="AK53" s="90"/>
+      <c r="AL53" s="90"/>
+      <c r="AM53" s="90"/>
+      <c r="AN53" s="90"/>
+      <c r="AO53" s="90"/>
+      <c r="AP53" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="AQ53" s="95"/>
-      <c r="AR53" s="95"/>
-      <c r="AS53" s="95"/>
-      <c r="AT53" s="95"/>
-      <c r="AU53" s="95"/>
-      <c r="AV53" s="95"/>
-      <c r="AW53" s="95"/>
-      <c r="AX53" s="95"/>
-      <c r="AY53" s="95"/>
-      <c r="AZ53" s="87"/>
-      <c r="BA53" s="87"/>
-      <c r="BB53" s="87"/>
-      <c r="BC53" s="87"/>
-      <c r="BD53" s="87"/>
+      <c r="AQ53" s="137"/>
+      <c r="AR53" s="137"/>
+      <c r="AS53" s="137"/>
+      <c r="AT53" s="137"/>
+      <c r="AU53" s="137"/>
+      <c r="AV53" s="137"/>
+      <c r="AW53" s="137"/>
+      <c r="AX53" s="137"/>
+      <c r="AY53" s="137"/>
+      <c r="AZ53" s="90"/>
+      <c r="BA53" s="90"/>
+      <c r="BB53" s="90"/>
+      <c r="BC53" s="90"/>
+      <c r="BD53" s="90"/>
       <c r="BE53" s="34"/>
       <c r="BF53" s="34"/>
       <c r="BG53" s="34"/>
@@ -5213,71 +5315,71 @@
       <c r="BN53" s="34"/>
     </row>
     <row r="54" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="107" t="s">
+      <c r="B54" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
-      <c r="K54" s="107"/>
-      <c r="L54" s="107"/>
-      <c r="M54" s="101" t="s">
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="136"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="136"/>
+      <c r="K54" s="136"/>
+      <c r="L54" s="136"/>
+      <c r="M54" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="N54" s="101"/>
-      <c r="O54" s="101"/>
-      <c r="P54" s="101"/>
-      <c r="Q54" s="101"/>
-      <c r="R54" s="101"/>
-      <c r="S54" s="101"/>
-      <c r="T54" s="101"/>
-      <c r="U54" s="101"/>
-      <c r="V54" s="100" t="s">
+      <c r="N54" s="118"/>
+      <c r="O54" s="118"/>
+      <c r="P54" s="118"/>
+      <c r="Q54" s="118"/>
+      <c r="R54" s="118"/>
+      <c r="S54" s="118"/>
+      <c r="T54" s="118"/>
+      <c r="U54" s="118"/>
+      <c r="V54" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="W54" s="100"/>
-      <c r="X54" s="100"/>
-      <c r="Y54" s="100"/>
-      <c r="Z54" s="100"/>
-      <c r="AA54" s="100"/>
-      <c r="AB54" s="100"/>
-      <c r="AC54" s="100"/>
-      <c r="AD54" s="100"/>
-      <c r="AE54" s="100"/>
-      <c r="AF54" s="100"/>
-      <c r="AG54" s="100"/>
-      <c r="AH54" s="87"/>
-      <c r="AI54" s="87"/>
-      <c r="AJ54" s="87"/>
-      <c r="AK54" s="87"/>
-      <c r="AL54" s="87"/>
-      <c r="AM54" s="87"/>
-      <c r="AN54" s="87"/>
-      <c r="AO54" s="87"/>
-      <c r="AP54" s="96" t="s">
+      <c r="W54" s="131"/>
+      <c r="X54" s="131"/>
+      <c r="Y54" s="131"/>
+      <c r="Z54" s="131"/>
+      <c r="AA54" s="131"/>
+      <c r="AB54" s="131"/>
+      <c r="AC54" s="131"/>
+      <c r="AD54" s="131"/>
+      <c r="AE54" s="131"/>
+      <c r="AF54" s="131"/>
+      <c r="AG54" s="131"/>
+      <c r="AH54" s="90"/>
+      <c r="AI54" s="90"/>
+      <c r="AJ54" s="90"/>
+      <c r="AK54" s="90"/>
+      <c r="AL54" s="90"/>
+      <c r="AM54" s="90"/>
+      <c r="AN54" s="90"/>
+      <c r="AO54" s="90"/>
+      <c r="AP54" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="AQ54" s="96"/>
-      <c r="AR54" s="96"/>
-      <c r="AS54" s="96"/>
-      <c r="AT54" s="96"/>
-      <c r="AU54" s="96"/>
-      <c r="AV54" s="96"/>
-      <c r="AW54" s="96"/>
-      <c r="AX54" s="96"/>
-      <c r="AY54" s="96"/>
-      <c r="AZ54" s="88" t="s">
+      <c r="AQ54" s="100"/>
+      <c r="AR54" s="100"/>
+      <c r="AS54" s="100"/>
+      <c r="AT54" s="100"/>
+      <c r="AU54" s="100"/>
+      <c r="AV54" s="100"/>
+      <c r="AW54" s="100"/>
+      <c r="AX54" s="100"/>
+      <c r="AY54" s="100"/>
+      <c r="AZ54" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="BA54" s="88"/>
-      <c r="BB54" s="88"/>
-      <c r="BC54" s="88"/>
-      <c r="BD54" s="88"/>
+      <c r="BA54" s="128"/>
+      <c r="BB54" s="128"/>
+      <c r="BC54" s="128"/>
+      <c r="BD54" s="128"/>
       <c r="BE54" s="34"/>
       <c r="BF54" s="34"/>
       <c r="BG54" s="34"/>
@@ -5290,111 +5392,111 @@
       <c r="BN54" s="34"/>
     </row>
     <row r="55" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B55" s="96" t="s">
+      <c r="B55" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="101" t="s">
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
+      <c r="K55" s="100"/>
+      <c r="L55" s="100"/>
+      <c r="M55" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="N55" s="101"/>
-      <c r="O55" s="101"/>
-      <c r="P55" s="101"/>
-      <c r="Q55" s="101"/>
-      <c r="R55" s="101"/>
-      <c r="S55" s="101"/>
-      <c r="T55" s="101"/>
-      <c r="U55" s="101"/>
-      <c r="V55" s="96" t="s">
+      <c r="N55" s="118"/>
+      <c r="O55" s="118"/>
+      <c r="P55" s="118"/>
+      <c r="Q55" s="118"/>
+      <c r="R55" s="118"/>
+      <c r="S55" s="118"/>
+      <c r="T55" s="118"/>
+      <c r="U55" s="118"/>
+      <c r="V55" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="W55" s="96"/>
-      <c r="X55" s="96"/>
-      <c r="Y55" s="96"/>
-      <c r="Z55" s="96"/>
-      <c r="AA55" s="96"/>
-      <c r="AB55" s="96"/>
-      <c r="AC55" s="96"/>
-      <c r="AD55" s="96"/>
-      <c r="AE55" s="96"/>
-      <c r="AF55" s="96"/>
-      <c r="AG55" s="96"/>
-      <c r="AH55" s="87"/>
-      <c r="AI55" s="87"/>
-      <c r="AJ55" s="87"/>
-      <c r="AK55" s="87"/>
-      <c r="AL55" s="87"/>
-      <c r="AM55" s="87"/>
-      <c r="AN55" s="87"/>
-      <c r="AO55" s="87"/>
-      <c r="AP55" s="89" t="s">
+      <c r="W55" s="100"/>
+      <c r="X55" s="100"/>
+      <c r="Y55" s="100"/>
+      <c r="Z55" s="100"/>
+      <c r="AA55" s="100"/>
+      <c r="AB55" s="100"/>
+      <c r="AC55" s="100"/>
+      <c r="AD55" s="100"/>
+      <c r="AE55" s="100"/>
+      <c r="AF55" s="100"/>
+      <c r="AG55" s="100"/>
+      <c r="AH55" s="90"/>
+      <c r="AI55" s="90"/>
+      <c r="AJ55" s="90"/>
+      <c r="AK55" s="90"/>
+      <c r="AL55" s="90"/>
+      <c r="AM55" s="90"/>
+      <c r="AN55" s="90"/>
+      <c r="AO55" s="90"/>
+      <c r="AP55" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="AQ55" s="89"/>
-      <c r="AR55" s="89"/>
-      <c r="AS55" s="89"/>
-      <c r="AT55" s="89"/>
-      <c r="AU55" s="89"/>
-      <c r="AV55" s="89"/>
-      <c r="AW55" s="89"/>
-      <c r="AX55" s="89"/>
-      <c r="AY55" s="89"/>
-      <c r="AZ55" s="88"/>
-      <c r="BA55" s="88"/>
-      <c r="BB55" s="88"/>
-      <c r="BC55" s="88"/>
-      <c r="BD55" s="88"/>
+      <c r="AQ55" s="140"/>
+      <c r="AR55" s="140"/>
+      <c r="AS55" s="140"/>
+      <c r="AT55" s="140"/>
+      <c r="AU55" s="140"/>
+      <c r="AV55" s="140"/>
+      <c r="AW55" s="140"/>
+      <c r="AX55" s="140"/>
+      <c r="AY55" s="140"/>
+      <c r="AZ55" s="128"/>
+      <c r="BA55" s="128"/>
+      <c r="BB55" s="128"/>
+      <c r="BC55" s="128"/>
+      <c r="BD55" s="128"/>
       <c r="BN55" s="34"/>
     </row>
     <row r="56" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B56" s="108"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="108"/>
-      <c r="M56" s="101" t="s">
+      <c r="B56" s="139"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
+      <c r="J56" s="139"/>
+      <c r="K56" s="139"/>
+      <c r="L56" s="139"/>
+      <c r="M56" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="N56" s="101"/>
-      <c r="O56" s="101"/>
-      <c r="P56" s="101"/>
-      <c r="Q56" s="101"/>
-      <c r="R56" s="101"/>
-      <c r="S56" s="101"/>
-      <c r="T56" s="101"/>
-      <c r="U56" s="101"/>
-      <c r="AP56" s="97" t="s">
+      <c r="N56" s="118"/>
+      <c r="O56" s="118"/>
+      <c r="P56" s="118"/>
+      <c r="Q56" s="118"/>
+      <c r="R56" s="118"/>
+      <c r="S56" s="118"/>
+      <c r="T56" s="118"/>
+      <c r="U56" s="118"/>
+      <c r="AP56" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="AQ56" s="97"/>
-      <c r="AR56" s="97"/>
-      <c r="AS56" s="97"/>
-      <c r="AT56" s="97"/>
-      <c r="AU56" s="97"/>
-      <c r="AV56" s="97"/>
-      <c r="AW56" s="97"/>
-      <c r="AX56" s="97"/>
-      <c r="AY56" s="97"/>
-      <c r="AZ56" s="88"/>
-      <c r="BA56" s="88"/>
-      <c r="BB56" s="88"/>
-      <c r="BC56" s="88"/>
-      <c r="BD56" s="88"/>
+      <c r="AQ56" s="133"/>
+      <c r="AR56" s="133"/>
+      <c r="AS56" s="133"/>
+      <c r="AT56" s="133"/>
+      <c r="AU56" s="133"/>
+      <c r="AV56" s="133"/>
+      <c r="AW56" s="133"/>
+      <c r="AX56" s="133"/>
+      <c r="AY56" s="133"/>
+      <c r="AZ56" s="128"/>
+      <c r="BA56" s="128"/>
+      <c r="BB56" s="128"/>
+      <c r="BC56" s="128"/>
+      <c r="BD56" s="128"/>
       <c r="BN56" s="34"/>
     </row>
     <row r="57" spans="2:69" x14ac:dyDescent="0.25">
@@ -5536,34 +5638,62 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="E41:K41"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="AE7:AR7"/>
-    <mergeCell ref="P7:P31"/>
-    <mergeCell ref="Z7:Z31"/>
-    <mergeCell ref="AS7:AS31"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BG4:BM4"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="M44:U51"/>
-    <mergeCell ref="V44:AG44"/>
-    <mergeCell ref="V45:AG45"/>
-    <mergeCell ref="V46:AG46"/>
-    <mergeCell ref="V47:AG47"/>
-    <mergeCell ref="V48:AG48"/>
-    <mergeCell ref="V49:AG49"/>
-    <mergeCell ref="V50:AG50"/>
-    <mergeCell ref="V51:AG51"/>
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="AD6:AS6"/>
-    <mergeCell ref="AD8:AD32"/>
-    <mergeCell ref="R8:R32"/>
-    <mergeCell ref="C8:C32"/>
-    <mergeCell ref="S32:Z32"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="AE32:AS32"/>
-    <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="BE49:BL49"/>
+    <mergeCell ref="BE50:BL50"/>
+    <mergeCell ref="BE51:BL51"/>
+    <mergeCell ref="BM44:BQ44"/>
+    <mergeCell ref="BM45:BQ46"/>
+    <mergeCell ref="BM47:BQ48"/>
+    <mergeCell ref="BM49:BQ49"/>
+    <mergeCell ref="BM50:BQ50"/>
+    <mergeCell ref="BM51:BQ51"/>
+    <mergeCell ref="BE44:BL44"/>
+    <mergeCell ref="BE45:BL45"/>
+    <mergeCell ref="BE46:BL46"/>
+    <mergeCell ref="BE47:BL47"/>
+    <mergeCell ref="BE48:BL48"/>
+    <mergeCell ref="AP53:AY53"/>
+    <mergeCell ref="AP54:AY54"/>
+    <mergeCell ref="AP55:AY55"/>
+    <mergeCell ref="AP56:AY56"/>
+    <mergeCell ref="AZ44:BD47"/>
+    <mergeCell ref="AZ48:BD50"/>
+    <mergeCell ref="AZ51:BD53"/>
+    <mergeCell ref="AZ54:BD56"/>
+    <mergeCell ref="AE26:AR26"/>
+    <mergeCell ref="AE27:AR27"/>
+    <mergeCell ref="AP44:AY44"/>
+    <mergeCell ref="AP45:AY45"/>
+    <mergeCell ref="AP46:AY46"/>
+    <mergeCell ref="V54:AG54"/>
+    <mergeCell ref="V55:AG55"/>
+    <mergeCell ref="AH44:AO44"/>
+    <mergeCell ref="AH45:AO45"/>
+    <mergeCell ref="AH46:AO55"/>
+    <mergeCell ref="M55:U55"/>
+    <mergeCell ref="M56:U56"/>
+    <mergeCell ref="D36:Z36"/>
+    <mergeCell ref="AD34:AS34"/>
+    <mergeCell ref="C34:Z34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AE36:AS36"/>
+    <mergeCell ref="D35:Y35"/>
+    <mergeCell ref="AE35:AR35"/>
+    <mergeCell ref="AP47:AY47"/>
+    <mergeCell ref="AP48:AY48"/>
+    <mergeCell ref="AP49:AY49"/>
+    <mergeCell ref="AP50:AY50"/>
+    <mergeCell ref="AP51:AY51"/>
+    <mergeCell ref="AP52:AY52"/>
+    <mergeCell ref="M52:U52"/>
+    <mergeCell ref="M53:U53"/>
+    <mergeCell ref="V52:AG52"/>
+    <mergeCell ref="V53:AG53"/>
+    <mergeCell ref="M54:U54"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="B54:L54"/>
     <mergeCell ref="B55:L55"/>
     <mergeCell ref="B56:L56"/>
     <mergeCell ref="D8:E8"/>
@@ -5588,66 +5718,38 @@
     <mergeCell ref="B44:L44"/>
     <mergeCell ref="B45:L45"/>
     <mergeCell ref="B46:L46"/>
-    <mergeCell ref="M55:U55"/>
-    <mergeCell ref="M56:U56"/>
-    <mergeCell ref="D36:Z36"/>
-    <mergeCell ref="AD34:AS34"/>
-    <mergeCell ref="C34:Z34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AE36:AS36"/>
-    <mergeCell ref="D35:Y35"/>
-    <mergeCell ref="AE35:AR35"/>
-    <mergeCell ref="AP47:AY47"/>
-    <mergeCell ref="AP48:AY48"/>
-    <mergeCell ref="AP49:AY49"/>
-    <mergeCell ref="AP50:AY50"/>
-    <mergeCell ref="AP51:AY51"/>
-    <mergeCell ref="AP52:AY52"/>
-    <mergeCell ref="M52:U52"/>
-    <mergeCell ref="M53:U53"/>
-    <mergeCell ref="V52:AG52"/>
-    <mergeCell ref="V53:AG53"/>
-    <mergeCell ref="M54:U54"/>
-    <mergeCell ref="B52:L52"/>
-    <mergeCell ref="B53:L53"/>
-    <mergeCell ref="B54:L54"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="M44:U51"/>
+    <mergeCell ref="V44:AG44"/>
+    <mergeCell ref="V45:AG45"/>
+    <mergeCell ref="V46:AG46"/>
+    <mergeCell ref="V47:AG47"/>
+    <mergeCell ref="V48:AG48"/>
+    <mergeCell ref="V49:AG49"/>
+    <mergeCell ref="V50:AG50"/>
+    <mergeCell ref="V51:AG51"/>
+    <mergeCell ref="E41:K41"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="AE7:AR7"/>
+    <mergeCell ref="P7:P31"/>
+    <mergeCell ref="Z7:Z31"/>
+    <mergeCell ref="AS7:AS31"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BG4:BM4"/>
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="AD6:AS6"/>
+    <mergeCell ref="AD8:AD32"/>
+    <mergeCell ref="R8:R32"/>
+    <mergeCell ref="C8:C32"/>
+    <mergeCell ref="S32:Z32"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="AE32:AS32"/>
+    <mergeCell ref="R6:Z6"/>
     <mergeCell ref="AE8:AR8"/>
     <mergeCell ref="AE12:AR12"/>
     <mergeCell ref="AE16:AR16"/>
     <mergeCell ref="AE20:AR20"/>
-    <mergeCell ref="AP53:AY53"/>
-    <mergeCell ref="AP54:AY54"/>
-    <mergeCell ref="AP55:AY55"/>
-    <mergeCell ref="AP56:AY56"/>
-    <mergeCell ref="AZ44:BD47"/>
-    <mergeCell ref="AZ48:BD50"/>
-    <mergeCell ref="AZ51:BD53"/>
-    <mergeCell ref="AZ54:BD56"/>
-    <mergeCell ref="AE26:AR26"/>
-    <mergeCell ref="AE27:AR27"/>
-    <mergeCell ref="AP44:AY44"/>
-    <mergeCell ref="AP45:AY45"/>
-    <mergeCell ref="AP46:AY46"/>
-    <mergeCell ref="V54:AG54"/>
-    <mergeCell ref="V55:AG55"/>
-    <mergeCell ref="AH44:AO44"/>
-    <mergeCell ref="AH45:AO45"/>
-    <mergeCell ref="AH46:AO55"/>
-    <mergeCell ref="BE49:BL49"/>
-    <mergeCell ref="BE50:BL50"/>
-    <mergeCell ref="BE51:BL51"/>
-    <mergeCell ref="BM44:BQ44"/>
-    <mergeCell ref="BM45:BQ46"/>
-    <mergeCell ref="BM47:BQ48"/>
-    <mergeCell ref="BM49:BQ49"/>
-    <mergeCell ref="BM50:BQ50"/>
-    <mergeCell ref="BM51:BQ51"/>
-    <mergeCell ref="BE44:BL44"/>
-    <mergeCell ref="BE45:BL45"/>
-    <mergeCell ref="BE46:BL46"/>
-    <mergeCell ref="BE47:BL47"/>
-    <mergeCell ref="BE48:BL48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5655,7 +5757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5868,22 +5970,22 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="73"/>
       <c r="AV4" s="72"/>
-      <c r="AW4" s="129"/>
-      <c r="AX4" s="129"/>
-      <c r="AY4" s="129"/>
-      <c r="AZ4" s="129"/>
-      <c r="BA4" s="129"/>
-      <c r="BB4" s="129"/>
-      <c r="BC4" s="129"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
       <c r="BD4" s="73"/>
       <c r="BF4" s="72"/>
-      <c r="BG4" s="129"/>
-      <c r="BH4" s="129"/>
-      <c r="BI4" s="129"/>
-      <c r="BJ4" s="129"/>
-      <c r="BK4" s="129"/>
-      <c r="BL4" s="129"/>
-      <c r="BM4" s="129"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="88"/>
+      <c r="BM4" s="88"/>
       <c r="BN4" s="73"/>
     </row>
     <row r="5" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5956,48 +6058,48 @@
     </row>
     <row r="6" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="72"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
       <c r="AA6" s="73"/>
       <c r="AC6" s="72"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="103"/>
-      <c r="AG6" s="103"/>
-      <c r="AH6" s="103"/>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="103"/>
-      <c r="AK6" s="103"/>
-      <c r="AL6" s="103"/>
-      <c r="AM6" s="103"/>
-      <c r="AN6" s="103"/>
-      <c r="AO6" s="103"/>
-      <c r="AP6" s="103"/>
-      <c r="AQ6" s="103"/>
-      <c r="AR6" s="103"/>
-      <c r="AS6" s="103"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97"/>
+      <c r="AJ6" s="97"/>
+      <c r="AK6" s="97"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="97"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97"/>
       <c r="AT6" s="73"/>
       <c r="AV6" s="72"/>
       <c r="AW6" s="1"/>
@@ -6021,47 +6123,47 @@
     <row r="7" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="72"/>
       <c r="C7" s="83"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="102"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="87"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="83"/>
-      <c r="S7" s="132"/>
-      <c r="T7" s="132"/>
-      <c r="U7" s="132"/>
-      <c r="V7" s="132"/>
-      <c r="W7" s="132"/>
-      <c r="X7" s="132"/>
-      <c r="Y7" s="132"/>
-      <c r="Z7" s="102"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="87"/>
       <c r="AA7" s="73"/>
       <c r="AC7" s="72"/>
       <c r="AD7" s="83"/>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="102"/>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="102"/>
-      <c r="AI7" s="102"/>
-      <c r="AJ7" s="102"/>
-      <c r="AK7" s="102"/>
-      <c r="AL7" s="102"/>
-      <c r="AM7" s="102"/>
-      <c r="AN7" s="102"/>
-      <c r="AO7" s="102"/>
-      <c r="AP7" s="102"/>
-      <c r="AQ7" s="102"/>
-      <c r="AR7" s="102"/>
-      <c r="AS7" s="102"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="87"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="87"/>
       <c r="AT7" s="73"/>
       <c r="AV7" s="72"/>
       <c r="AW7" s="1"/>
@@ -6084,11 +6186,11 @@
     </row>
     <row r="8" spans="2:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="72"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="109">
+      <c r="C8" s="97"/>
+      <c r="D8" s="102">
         <v>0.37152777777777773</v>
       </c>
-      <c r="E8" s="109"/>
+      <c r="E8" s="102"/>
       <c r="F8" s="42" t="s">
         <v>22</v>
       </c>
@@ -6101,9 +6203,9 @@
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="O8" s="43"/>
-      <c r="P8" s="102"/>
+      <c r="P8" s="87"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="127"/>
+      <c r="R8" s="98"/>
       <c r="S8" s="47" t="s">
         <v>32</v>
       </c>
@@ -6113,27 +6215,27 @@
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
       <c r="Y8" s="43"/>
-      <c r="Z8" s="102"/>
+      <c r="Z8" s="87"/>
       <c r="AA8" s="73"/>
       <c r="AC8" s="72"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="91" t="s">
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="91"/>
-      <c r="AH8" s="91"/>
-      <c r="AI8" s="91"/>
-      <c r="AJ8" s="91"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="91"/>
-      <c r="AM8" s="91"/>
-      <c r="AN8" s="91"/>
-      <c r="AO8" s="91"/>
-      <c r="AP8" s="91"/>
-      <c r="AQ8" s="91"/>
-      <c r="AR8" s="91"/>
-      <c r="AS8" s="102"/>
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="124"/>
+      <c r="AH8" s="124"/>
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="124"/>
+      <c r="AN8" s="124"/>
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="124"/>
+      <c r="AQ8" s="124"/>
+      <c r="AR8" s="124"/>
+      <c r="AS8" s="87"/>
       <c r="AT8" s="73"/>
       <c r="AV8" s="72"/>
       <c r="AW8" s="4" t="s">
@@ -6160,7 +6262,7 @@
     </row>
     <row r="9" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="72"/>
-      <c r="C9" s="103"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="44" t="s">
         <v>44</v>
       </c>
@@ -6175,9 +6277,9 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="102"/>
+      <c r="P9" s="87"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="127"/>
+      <c r="R9" s="98"/>
       <c r="S9" s="48" t="s">
         <v>33</v>
       </c>
@@ -6187,10 +6289,10 @@
       <c r="W9" s="48"/>
       <c r="X9" s="48"/>
       <c r="Y9" s="60"/>
-      <c r="Z9" s="102"/>
+      <c r="Z9" s="87"/>
       <c r="AA9" s="73"/>
       <c r="AC9" s="72"/>
-      <c r="AD9" s="103"/>
+      <c r="AD9" s="97"/>
       <c r="AE9" s="52" t="s">
         <v>23</v>
       </c>
@@ -6205,11 +6307,11 @@
       <c r="AN9" s="52"/>
       <c r="AO9" s="52"/>
       <c r="AP9" s="52"/>
-      <c r="AQ9" s="112">
+      <c r="AQ9" s="104">
         <v>0.37847222222222227</v>
       </c>
-      <c r="AR9" s="112"/>
-      <c r="AS9" s="102"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="87"/>
       <c r="AT9" s="73"/>
       <c r="AV9" s="72"/>
       <c r="AW9" s="1" t="s">
@@ -6236,7 +6338,7 @@
     </row>
     <row r="10" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="72"/>
-      <c r="C10" s="103"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -6249,9 +6351,9 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="102"/>
+      <c r="P10" s="87"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="127"/>
+      <c r="R10" s="98"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -6259,25 +6361,25 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="60"/>
-      <c r="Z10" s="102"/>
+      <c r="Z10" s="87"/>
       <c r="AA10" s="73"/>
       <c r="AC10" s="72"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="117"/>
-      <c r="AF10" s="117"/>
-      <c r="AG10" s="117"/>
-      <c r="AH10" s="117"/>
-      <c r="AI10" s="117"/>
-      <c r="AJ10" s="117"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="117"/>
-      <c r="AM10" s="117"/>
-      <c r="AN10" s="117"/>
-      <c r="AO10" s="117"/>
-      <c r="AP10" s="117"/>
-      <c r="AQ10" s="117"/>
-      <c r="AR10" s="117"/>
-      <c r="AS10" s="102"/>
+      <c r="AD10" s="97"/>
+      <c r="AE10" s="109"/>
+      <c r="AF10" s="109"/>
+      <c r="AG10" s="109"/>
+      <c r="AH10" s="109"/>
+      <c r="AI10" s="109"/>
+      <c r="AJ10" s="109"/>
+      <c r="AK10" s="109"/>
+      <c r="AL10" s="109"/>
+      <c r="AM10" s="109"/>
+      <c r="AN10" s="109"/>
+      <c r="AO10" s="109"/>
+      <c r="AP10" s="109"/>
+      <c r="AQ10" s="109"/>
+      <c r="AR10" s="109"/>
+      <c r="AS10" s="87"/>
       <c r="AT10" s="73"/>
       <c r="AV10" s="72"/>
       <c r="AW10" s="1"/>
@@ -6300,7 +6402,7 @@
     </row>
     <row r="11" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="72"/>
-      <c r="C11" s="103"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -6313,9 +6415,9 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="102"/>
+      <c r="P11" s="87"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="127"/>
+      <c r="R11" s="98"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -6323,25 +6425,25 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="60"/>
-      <c r="Z11" s="102"/>
+      <c r="Z11" s="87"/>
       <c r="AA11" s="73"/>
       <c r="AC11" s="72"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="118"/>
-      <c r="AF11" s="118"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="118"/>
-      <c r="AK11" s="118"/>
-      <c r="AL11" s="118"/>
-      <c r="AM11" s="118"/>
-      <c r="AN11" s="118"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="118"/>
-      <c r="AQ11" s="118"/>
-      <c r="AR11" s="118"/>
-      <c r="AS11" s="102"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="110"/>
+      <c r="AM11" s="110"/>
+      <c r="AN11" s="110"/>
+      <c r="AO11" s="110"/>
+      <c r="AP11" s="110"/>
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="110"/>
+      <c r="AS11" s="87"/>
       <c r="AT11" s="73"/>
       <c r="AV11" s="72"/>
       <c r="AW11" s="1"/>
@@ -6364,7 +6466,7 @@
     </row>
     <row r="12" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B12" s="72"/>
-      <c r="C12" s="103"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="45" t="s">
         <v>42</v>
       </c>
@@ -6379,9 +6481,9 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="102"/>
+      <c r="P12" s="87"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="127"/>
+      <c r="R12" s="98"/>
       <c r="S12" s="46" t="s">
         <v>38</v>
       </c>
@@ -6391,27 +6493,27 @@
       <c r="W12" s="46"/>
       <c r="X12" s="46"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="102"/>
+      <c r="Z12" s="87"/>
       <c r="AA12" s="73"/>
       <c r="AC12" s="72"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="92" t="s">
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="92"/>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="92"/>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="92"/>
-      <c r="AN12" s="92"/>
-      <c r="AO12" s="92"/>
-      <c r="AP12" s="92"/>
-      <c r="AQ12" s="92"/>
-      <c r="AR12" s="92"/>
-      <c r="AS12" s="102"/>
+      <c r="AF12" s="125"/>
+      <c r="AG12" s="125"/>
+      <c r="AH12" s="125"/>
+      <c r="AI12" s="125"/>
+      <c r="AJ12" s="125"/>
+      <c r="AK12" s="125"/>
+      <c r="AL12" s="125"/>
+      <c r="AM12" s="125"/>
+      <c r="AN12" s="125"/>
+      <c r="AO12" s="125"/>
+      <c r="AP12" s="125"/>
+      <c r="AQ12" s="125"/>
+      <c r="AR12" s="125"/>
+      <c r="AS12" s="87"/>
       <c r="AT12" s="73"/>
       <c r="AV12" s="72"/>
       <c r="AW12" s="1" t="s">
@@ -6438,7 +6540,7 @@
     </row>
     <row r="13" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B13" s="72"/>
-      <c r="C13" s="103"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="44" t="s">
         <v>41</v>
       </c>
@@ -6453,9 +6555,9 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="102"/>
+      <c r="P13" s="87"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="127"/>
+      <c r="R13" s="98"/>
       <c r="S13" s="64" t="s">
         <v>34</v>
       </c>
@@ -6465,10 +6567,10 @@
       <c r="W13" s="64"/>
       <c r="X13" s="64"/>
       <c r="Y13" s="60"/>
-      <c r="Z13" s="102"/>
+      <c r="Z13" s="87"/>
       <c r="AA13" s="73"/>
       <c r="AC13" s="72"/>
-      <c r="AD13" s="103"/>
+      <c r="AD13" s="97"/>
       <c r="AE13" s="53" t="s">
         <v>24</v>
       </c>
@@ -6483,11 +6585,11 @@
       <c r="AN13" s="53"/>
       <c r="AO13" s="53"/>
       <c r="AP13" s="53"/>
-      <c r="AQ13" s="113">
+      <c r="AQ13" s="105">
         <v>0.37916666666666665</v>
       </c>
-      <c r="AR13" s="113"/>
-      <c r="AS13" s="102"/>
+      <c r="AR13" s="105"/>
+      <c r="AS13" s="87"/>
       <c r="AT13" s="73"/>
       <c r="AV13" s="72"/>
       <c r="AW13" s="1" t="s">
@@ -6514,7 +6616,7 @@
     </row>
     <row r="14" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="72"/>
-      <c r="C14" s="103"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -6527,9 +6629,9 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="102"/>
+      <c r="P14" s="87"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="127"/>
+      <c r="R14" s="98"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -6537,25 +6639,25 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="60"/>
-      <c r="Z14" s="102"/>
+      <c r="Z14" s="87"/>
       <c r="AA14" s="73"/>
       <c r="AC14" s="72"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="117"/>
-      <c r="AF14" s="117"/>
-      <c r="AG14" s="117"/>
-      <c r="AH14" s="117"/>
-      <c r="AI14" s="117"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="117"/>
-      <c r="AL14" s="117"/>
-      <c r="AM14" s="117"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="117"/>
-      <c r="AP14" s="117"/>
-      <c r="AQ14" s="117"/>
-      <c r="AR14" s="117"/>
-      <c r="AS14" s="102"/>
+      <c r="AD14" s="97"/>
+      <c r="AE14" s="109"/>
+      <c r="AF14" s="109"/>
+      <c r="AG14" s="109"/>
+      <c r="AH14" s="109"/>
+      <c r="AI14" s="109"/>
+      <c r="AJ14" s="109"/>
+      <c r="AK14" s="109"/>
+      <c r="AL14" s="109"/>
+      <c r="AM14" s="109"/>
+      <c r="AN14" s="109"/>
+      <c r="AO14" s="109"/>
+      <c r="AP14" s="109"/>
+      <c r="AQ14" s="109"/>
+      <c r="AR14" s="109"/>
+      <c r="AS14" s="87"/>
       <c r="AT14" s="73"/>
       <c r="AV14" s="72"/>
       <c r="AW14" s="1"/>
@@ -6578,7 +6680,7 @@
     </row>
     <row r="15" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="72"/>
-      <c r="C15" s="103"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -6591,9 +6693,9 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="102"/>
+      <c r="P15" s="87"/>
       <c r="Q15" s="16"/>
-      <c r="R15" s="127"/>
+      <c r="R15" s="98"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -6601,25 +6703,25 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="60"/>
-      <c r="Z15" s="102"/>
+      <c r="Z15" s="87"/>
       <c r="AA15" s="73"/>
       <c r="AC15" s="72"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="102"/>
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="110"/>
+      <c r="AK15" s="110"/>
+      <c r="AL15" s="110"/>
+      <c r="AM15" s="110"/>
+      <c r="AN15" s="110"/>
+      <c r="AO15" s="110"/>
+      <c r="AP15" s="110"/>
+      <c r="AQ15" s="110"/>
+      <c r="AR15" s="110"/>
+      <c r="AS15" s="87"/>
       <c r="AT15" s="73"/>
       <c r="AV15" s="72"/>
       <c r="AW15" s="1"/>
@@ -6642,7 +6744,7 @@
     </row>
     <row r="16" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B16" s="72"/>
-      <c r="C16" s="103"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="46" t="s">
         <v>45</v>
       </c>
@@ -6657,9 +6759,9 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="102"/>
+      <c r="P16" s="87"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="127"/>
+      <c r="R16" s="98"/>
       <c r="S16" s="65" t="s">
         <v>35</v>
       </c>
@@ -6669,27 +6771,27 @@
       <c r="W16" s="65"/>
       <c r="X16" s="65"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="102"/>
+      <c r="Z16" s="87"/>
       <c r="AA16" s="73"/>
       <c r="AC16" s="72"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="93" t="s">
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="102"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="126"/>
+      <c r="AI16" s="126"/>
+      <c r="AJ16" s="126"/>
+      <c r="AK16" s="126"/>
+      <c r="AL16" s="126"/>
+      <c r="AM16" s="126"/>
+      <c r="AN16" s="126"/>
+      <c r="AO16" s="126"/>
+      <c r="AP16" s="126"/>
+      <c r="AQ16" s="126"/>
+      <c r="AR16" s="126"/>
+      <c r="AS16" s="87"/>
       <c r="AT16" s="73"/>
       <c r="AV16" s="72"/>
       <c r="AW16" s="1" t="s">
@@ -6716,7 +6818,7 @@
     </row>
     <row r="17" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B17" s="72"/>
-      <c r="C17" s="103"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="13" t="s">
         <v>39</v>
       </c>
@@ -6731,9 +6833,9 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="102"/>
+      <c r="P17" s="87"/>
       <c r="Q17" s="19"/>
-      <c r="R17" s="127"/>
+      <c r="R17" s="98"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
@@ -6741,10 +6843,10 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="26"/>
-      <c r="Z17" s="102"/>
+      <c r="Z17" s="87"/>
       <c r="AA17" s="73"/>
       <c r="AC17" s="72"/>
-      <c r="AD17" s="103"/>
+      <c r="AD17" s="97"/>
       <c r="AE17" s="54" t="s">
         <v>25</v>
       </c>
@@ -6759,11 +6861,11 @@
       <c r="AN17" s="54"/>
       <c r="AO17" s="54"/>
       <c r="AP17" s="54"/>
-      <c r="AQ17" s="114">
+      <c r="AQ17" s="106">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR17" s="114"/>
-      <c r="AS17" s="102"/>
+      <c r="AR17" s="106"/>
+      <c r="AS17" s="87"/>
       <c r="AT17" s="73"/>
       <c r="AV17" s="72"/>
       <c r="AW17" s="2" t="s">
@@ -6790,7 +6892,7 @@
     </row>
     <row r="18" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
-      <c r="C18" s="103"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -6803,9 +6905,9 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="102"/>
+      <c r="P18" s="87"/>
       <c r="Q18" s="20"/>
-      <c r="R18" s="127"/>
+      <c r="R18" s="98"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
@@ -6813,25 +6915,25 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="26"/>
-      <c r="Z18" s="102"/>
+      <c r="Z18" s="87"/>
       <c r="AA18" s="73"/>
       <c r="AC18" s="72"/>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="119"/>
-      <c r="AF18" s="119"/>
-      <c r="AG18" s="119"/>
-      <c r="AH18" s="119"/>
-      <c r="AI18" s="119"/>
-      <c r="AJ18" s="119"/>
-      <c r="AK18" s="119"/>
-      <c r="AL18" s="119"/>
-      <c r="AM18" s="119"/>
-      <c r="AN18" s="119"/>
-      <c r="AO18" s="119"/>
-      <c r="AP18" s="119"/>
-      <c r="AQ18" s="119"/>
-      <c r="AR18" s="119"/>
-      <c r="AS18" s="102"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="111"/>
+      <c r="AH18" s="111"/>
+      <c r="AI18" s="111"/>
+      <c r="AJ18" s="111"/>
+      <c r="AK18" s="111"/>
+      <c r="AL18" s="111"/>
+      <c r="AM18" s="111"/>
+      <c r="AN18" s="111"/>
+      <c r="AO18" s="111"/>
+      <c r="AP18" s="111"/>
+      <c r="AQ18" s="111"/>
+      <c r="AR18" s="111"/>
+      <c r="AS18" s="87"/>
       <c r="AT18" s="73"/>
       <c r="AV18" s="72"/>
       <c r="AW18" s="1"/>
@@ -6854,7 +6956,7 @@
     </row>
     <row r="19" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="72"/>
-      <c r="C19" s="103"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -6867,9 +6969,9 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="102"/>
+      <c r="P19" s="87"/>
       <c r="Q19" s="20"/>
-      <c r="R19" s="127"/>
+      <c r="R19" s="98"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
@@ -6877,25 +6979,25 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="26"/>
-      <c r="Z19" s="102"/>
+      <c r="Z19" s="87"/>
       <c r="AA19" s="73"/>
       <c r="AC19" s="72"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="120"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="120"/>
-      <c r="AH19" s="120"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="120"/>
-      <c r="AK19" s="120"/>
-      <c r="AL19" s="120"/>
-      <c r="AM19" s="120"/>
-      <c r="AN19" s="120"/>
-      <c r="AO19" s="120"/>
-      <c r="AP19" s="120"/>
-      <c r="AQ19" s="120"/>
-      <c r="AR19" s="120"/>
-      <c r="AS19" s="102"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="112"/>
+      <c r="AI19" s="112"/>
+      <c r="AJ19" s="112"/>
+      <c r="AK19" s="112"/>
+      <c r="AL19" s="112"/>
+      <c r="AM19" s="112"/>
+      <c r="AN19" s="112"/>
+      <c r="AO19" s="112"/>
+      <c r="AP19" s="112"/>
+      <c r="AQ19" s="112"/>
+      <c r="AR19" s="112"/>
+      <c r="AS19" s="87"/>
       <c r="AT19" s="73"/>
       <c r="AV19" s="72"/>
       <c r="AW19" s="1"/>
@@ -6918,7 +7020,7 @@
     </row>
     <row r="20" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B20" s="72"/>
-      <c r="C20" s="103"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="47" t="s">
         <v>101</v>
       </c>
@@ -6933,9 +7035,9 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="102"/>
+      <c r="P20" s="87"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="127"/>
+      <c r="R20" s="98"/>
       <c r="S20" s="10" t="s">
         <v>37</v>
       </c>
@@ -6945,27 +7047,27 @@
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="13"/>
-      <c r="Z20" s="102"/>
+      <c r="Z20" s="87"/>
       <c r="AA20" s="73"/>
       <c r="AC20" s="72"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="94" t="s">
+      <c r="AD20" s="97"/>
+      <c r="AE20" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="94"/>
-      <c r="AI20" s="94"/>
-      <c r="AJ20" s="94"/>
-      <c r="AK20" s="94"/>
-      <c r="AL20" s="94"/>
-      <c r="AM20" s="94"/>
-      <c r="AN20" s="94"/>
-      <c r="AO20" s="94"/>
-      <c r="AP20" s="94"/>
-      <c r="AQ20" s="94"/>
-      <c r="AR20" s="94"/>
-      <c r="AS20" s="102"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="127"/>
+      <c r="AJ20" s="127"/>
+      <c r="AK20" s="127"/>
+      <c r="AL20" s="127"/>
+      <c r="AM20" s="127"/>
+      <c r="AN20" s="127"/>
+      <c r="AO20" s="127"/>
+      <c r="AP20" s="127"/>
+      <c r="AQ20" s="127"/>
+      <c r="AR20" s="127"/>
+      <c r="AS20" s="87"/>
       <c r="AT20" s="73"/>
       <c r="AV20" s="72"/>
       <c r="AW20" s="30" t="s">
@@ -6992,7 +7094,7 @@
     </row>
     <row r="21" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B21" s="72"/>
-      <c r="C21" s="103"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="48" t="s">
         <v>104</v>
       </c>
@@ -7007,9 +7109,9 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="102"/>
+      <c r="P21" s="87"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="127"/>
+      <c r="R21" s="98"/>
       <c r="S21" s="13" t="s">
         <v>36</v>
       </c>
@@ -7019,10 +7121,10 @@
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="26"/>
-      <c r="Z21" s="102"/>
+      <c r="Z21" s="87"/>
       <c r="AA21" s="73"/>
       <c r="AC21" s="72"/>
-      <c r="AD21" s="103"/>
+      <c r="AD21" s="97"/>
       <c r="AE21" s="55" t="s">
         <v>27</v>
       </c>
@@ -7037,11 +7139,11 @@
       <c r="AN21" s="55"/>
       <c r="AO21" s="55"/>
       <c r="AP21" s="55"/>
-      <c r="AQ21" s="115">
+      <c r="AQ21" s="107">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR21" s="115"/>
-      <c r="AS21" s="102"/>
+      <c r="AR21" s="107"/>
+      <c r="AS21" s="87"/>
       <c r="AT21" s="73"/>
       <c r="AV21" s="72"/>
       <c r="AW21" s="3" t="s">
@@ -7068,7 +7170,7 @@
     </row>
     <row r="22" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="72"/>
-      <c r="C22" s="103"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -7081,9 +7183,9 @@
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="102"/>
+      <c r="P22" s="87"/>
       <c r="Q22" s="22"/>
-      <c r="R22" s="127"/>
+      <c r="R22" s="98"/>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
@@ -7091,25 +7193,25 @@
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="26"/>
-      <c r="Z22" s="102"/>
+      <c r="Z22" s="87"/>
       <c r="AA22" s="73"/>
       <c r="AC22" s="72"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="121"/>
-      <c r="AF22" s="121"/>
-      <c r="AG22" s="121"/>
-      <c r="AH22" s="121"/>
-      <c r="AI22" s="121"/>
-      <c r="AJ22" s="121"/>
-      <c r="AK22" s="121"/>
-      <c r="AL22" s="121"/>
-      <c r="AM22" s="121"/>
-      <c r="AN22" s="121"/>
-      <c r="AO22" s="121"/>
-      <c r="AP22" s="121"/>
-      <c r="AQ22" s="121"/>
-      <c r="AR22" s="121"/>
-      <c r="AS22" s="102"/>
+      <c r="AD22" s="97"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="113"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="113"/>
+      <c r="AS22" s="87"/>
       <c r="AT22" s="73"/>
       <c r="AV22" s="72"/>
       <c r="AW22" s="3"/>
@@ -7132,7 +7234,7 @@
     </row>
     <row r="23" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="72"/>
-      <c r="C23" s="103"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -7145,9 +7247,9 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
-      <c r="P23" s="102"/>
+      <c r="P23" s="87"/>
       <c r="Q23" s="22"/>
-      <c r="R23" s="127"/>
+      <c r="R23" s="98"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -7155,25 +7257,25 @@
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="26"/>
-      <c r="Z23" s="102"/>
+      <c r="Z23" s="87"/>
       <c r="AA23" s="73"/>
       <c r="AC23" s="72"/>
-      <c r="AD23" s="103"/>
-      <c r="AE23" s="122"/>
-      <c r="AF23" s="122"/>
-      <c r="AG23" s="122"/>
-      <c r="AH23" s="122"/>
-      <c r="AI23" s="122"/>
-      <c r="AJ23" s="122"/>
-      <c r="AK23" s="122"/>
-      <c r="AL23" s="122"/>
-      <c r="AM23" s="122"/>
-      <c r="AN23" s="122"/>
-      <c r="AO23" s="122"/>
-      <c r="AP23" s="122"/>
-      <c r="AQ23" s="122"/>
-      <c r="AR23" s="122"/>
-      <c r="AS23" s="102"/>
+      <c r="AD23" s="97"/>
+      <c r="AE23" s="114"/>
+      <c r="AF23" s="114"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="114"/>
+      <c r="AI23" s="114"/>
+      <c r="AJ23" s="114"/>
+      <c r="AK23" s="114"/>
+      <c r="AL23" s="114"/>
+      <c r="AM23" s="114"/>
+      <c r="AN23" s="114"/>
+      <c r="AO23" s="114"/>
+      <c r="AP23" s="114"/>
+      <c r="AQ23" s="114"/>
+      <c r="AR23" s="114"/>
+      <c r="AS23" s="87"/>
       <c r="AT23" s="73"/>
       <c r="AV23" s="72"/>
       <c r="AW23" s="3"/>
@@ -7196,7 +7298,7 @@
     </row>
     <row r="24" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B24" s="72"/>
-      <c r="C24" s="103"/>
+      <c r="C24" s="97"/>
       <c r="D24" s="49" t="s">
         <v>102</v>
       </c>
@@ -7211,9 +7313,9 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="26"/>
-      <c r="P24" s="102"/>
+      <c r="P24" s="87"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="127"/>
+      <c r="R24" s="98"/>
       <c r="S24" s="26"/>
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
@@ -7221,10 +7323,10 @@
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26"/>
-      <c r="Z24" s="102"/>
+      <c r="Z24" s="87"/>
       <c r="AA24" s="73"/>
       <c r="AC24" s="72"/>
-      <c r="AD24" s="103"/>
+      <c r="AD24" s="97"/>
       <c r="AE24" s="56" t="s">
         <v>26</v>
       </c>
@@ -7241,7 +7343,7 @@
       <c r="AP24" s="56"/>
       <c r="AQ24" s="56"/>
       <c r="AR24" s="57"/>
-      <c r="AS24" s="102"/>
+      <c r="AS24" s="87"/>
       <c r="AT24" s="73"/>
       <c r="AV24" s="72"/>
       <c r="AW24" s="31" t="s">
@@ -7268,7 +7370,7 @@
     </row>
     <row r="25" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B25" s="72"/>
-      <c r="C25" s="103"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="50" t="s">
         <v>103</v>
       </c>
@@ -7283,9 +7385,9 @@
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="102"/>
+      <c r="P25" s="87"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="127"/>
+      <c r="R25" s="98"/>
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
@@ -7293,10 +7395,10 @@
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
-      <c r="Z25" s="102"/>
+      <c r="Z25" s="87"/>
       <c r="AA25" s="73"/>
       <c r="AC25" s="72"/>
-      <c r="AD25" s="103"/>
+      <c r="AD25" s="97"/>
       <c r="AE25" s="58" t="s">
         <v>28</v>
       </c>
@@ -7311,11 +7413,11 @@
       <c r="AN25" s="58"/>
       <c r="AO25" s="58"/>
       <c r="AP25" s="58"/>
-      <c r="AQ25" s="116">
+      <c r="AQ25" s="108">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR25" s="116"/>
-      <c r="AS25" s="102"/>
+      <c r="AR25" s="108"/>
+      <c r="AS25" s="87"/>
       <c r="AT25" s="73"/>
       <c r="AV25" s="72"/>
       <c r="AW25" s="32" t="s">
@@ -7342,7 +7444,7 @@
     </row>
     <row r="26" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="72"/>
-      <c r="C26" s="103"/>
+      <c r="C26" s="97"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -7355,9 +7457,9 @@
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
-      <c r="P26" s="102"/>
+      <c r="P26" s="87"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="127"/>
+      <c r="R26" s="98"/>
       <c r="S26" s="26"/>
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
@@ -7365,25 +7467,25 @@
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
-      <c r="Z26" s="102"/>
+      <c r="Z26" s="87"/>
       <c r="AA26" s="73"/>
       <c r="AC26" s="72"/>
-      <c r="AD26" s="103"/>
-      <c r="AE26" s="98"/>
-      <c r="AF26" s="98"/>
-      <c r="AG26" s="98"/>
-      <c r="AH26" s="98"/>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="98"/>
-      <c r="AK26" s="98"/>
-      <c r="AL26" s="98"/>
-      <c r="AM26" s="98"/>
-      <c r="AN26" s="98"/>
-      <c r="AO26" s="98"/>
-      <c r="AP26" s="98"/>
-      <c r="AQ26" s="98"/>
-      <c r="AR26" s="98"/>
-      <c r="AS26" s="102"/>
+      <c r="AD26" s="97"/>
+      <c r="AE26" s="129"/>
+      <c r="AF26" s="129"/>
+      <c r="AG26" s="129"/>
+      <c r="AH26" s="129"/>
+      <c r="AI26" s="129"/>
+      <c r="AJ26" s="129"/>
+      <c r="AK26" s="129"/>
+      <c r="AL26" s="129"/>
+      <c r="AM26" s="129"/>
+      <c r="AN26" s="129"/>
+      <c r="AO26" s="129"/>
+      <c r="AP26" s="129"/>
+      <c r="AQ26" s="129"/>
+      <c r="AR26" s="129"/>
+      <c r="AS26" s="87"/>
       <c r="AT26" s="73"/>
       <c r="AV26" s="72"/>
       <c r="AW26" s="5"/>
@@ -7406,7 +7508,7 @@
     </row>
     <row r="27" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="72"/>
-      <c r="C27" s="103"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -7419,9 +7521,9 @@
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="102"/>
+      <c r="P27" s="87"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="127"/>
+      <c r="R27" s="98"/>
       <c r="S27" s="26"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
@@ -7429,25 +7531,25 @@
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
-      <c r="Z27" s="102"/>
+      <c r="Z27" s="87"/>
       <c r="AA27" s="73"/>
       <c r="AC27" s="72"/>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="99"/>
-      <c r="AJ27" s="99"/>
-      <c r="AK27" s="99"/>
-      <c r="AL27" s="99"/>
-      <c r="AM27" s="99"/>
-      <c r="AN27" s="99"/>
-      <c r="AO27" s="99"/>
-      <c r="AP27" s="99"/>
-      <c r="AQ27" s="99"/>
-      <c r="AR27" s="99"/>
-      <c r="AS27" s="102"/>
+      <c r="AD27" s="97"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="130"/>
+      <c r="AI27" s="130"/>
+      <c r="AJ27" s="130"/>
+      <c r="AK27" s="130"/>
+      <c r="AL27" s="130"/>
+      <c r="AM27" s="130"/>
+      <c r="AN27" s="130"/>
+      <c r="AO27" s="130"/>
+      <c r="AP27" s="130"/>
+      <c r="AQ27" s="130"/>
+      <c r="AR27" s="130"/>
+      <c r="AS27" s="87"/>
       <c r="AT27" s="73"/>
       <c r="AV27" s="72"/>
       <c r="AW27" s="5"/>
@@ -7470,7 +7572,7 @@
     </row>
     <row r="28" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B28" s="72"/>
-      <c r="C28" s="103"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="51" t="s">
         <v>43</v>
       </c>
@@ -7485,9 +7587,9 @@
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
       <c r="O28" s="26"/>
-      <c r="P28" s="102"/>
+      <c r="P28" s="87"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="127"/>
+      <c r="R28" s="98"/>
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
@@ -7495,10 +7597,10 @@
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="60"/>
-      <c r="Z28" s="102"/>
+      <c r="Z28" s="87"/>
       <c r="AA28" s="73"/>
       <c r="AC28" s="72"/>
-      <c r="AD28" s="103"/>
+      <c r="AD28" s="97"/>
       <c r="AE28" s="59" t="s">
         <v>29</v>
       </c>
@@ -7513,11 +7615,11 @@
       <c r="AN28" s="59"/>
       <c r="AO28" s="59"/>
       <c r="AP28" s="59"/>
-      <c r="AQ28" s="123">
+      <c r="AQ28" s="115">
         <v>0.38055555555555554</v>
       </c>
-      <c r="AR28" s="123"/>
-      <c r="AS28" s="102"/>
+      <c r="AR28" s="115"/>
+      <c r="AS28" s="87"/>
       <c r="AT28" s="73"/>
       <c r="AV28" s="72"/>
       <c r="AW28" s="6" t="s">
@@ -7544,7 +7646,7 @@
     </row>
     <row r="29" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="72"/>
-      <c r="C29" s="103"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
@@ -7557,9 +7659,9 @@
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="26"/>
-      <c r="P29" s="102"/>
+      <c r="P29" s="87"/>
       <c r="Q29" s="8"/>
-      <c r="R29" s="127"/>
+      <c r="R29" s="98"/>
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
@@ -7567,10 +7669,10 @@
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
-      <c r="Z29" s="102"/>
+      <c r="Z29" s="87"/>
       <c r="AA29" s="73"/>
       <c r="AC29" s="72"/>
-      <c r="AD29" s="103"/>
+      <c r="AD29" s="97"/>
       <c r="AE29" s="61"/>
       <c r="AF29" s="61"/>
       <c r="AG29" s="61"/>
@@ -7585,7 +7687,7 @@
       <c r="AP29" s="61"/>
       <c r="AQ29" s="61"/>
       <c r="AR29" s="62"/>
-      <c r="AS29" s="102"/>
+      <c r="AS29" s="87"/>
       <c r="AT29" s="73"/>
       <c r="AV29" s="72"/>
       <c r="AW29" s="6"/>
@@ -7608,7 +7710,7 @@
     </row>
     <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" s="72"/>
-      <c r="C30" s="103"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="26"/>
@@ -7621,9 +7723,9 @@
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="102"/>
+      <c r="P30" s="87"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="127"/>
+      <c r="R30" s="98"/>
       <c r="S30" s="26"/>
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
@@ -7631,10 +7733,10 @@
       <c r="W30" s="26"/>
       <c r="X30" s="26"/>
       <c r="Y30" s="26"/>
-      <c r="Z30" s="102"/>
+      <c r="Z30" s="87"/>
       <c r="AA30" s="73"/>
       <c r="AC30" s="72"/>
-      <c r="AD30" s="103"/>
+      <c r="AD30" s="97"/>
       <c r="AE30" s="63"/>
       <c r="AF30" s="63"/>
       <c r="AG30" s="63"/>
@@ -7649,7 +7751,7 @@
       <c r="AP30" s="63"/>
       <c r="AQ30" s="63"/>
       <c r="AR30" s="63"/>
-      <c r="AS30" s="102"/>
+      <c r="AS30" s="87"/>
       <c r="AT30" s="73"/>
       <c r="AV30" s="72"/>
       <c r="AW30" s="6" t="s">
@@ -7676,7 +7778,7 @@
     </row>
     <row r="31" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B31" s="72"/>
-      <c r="C31" s="103"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
@@ -7689,9 +7791,9 @@
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="102"/>
+      <c r="P31" s="87"/>
       <c r="Q31" s="8"/>
-      <c r="R31" s="127"/>
+      <c r="R31" s="98"/>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
@@ -7699,10 +7801,10 @@
       <c r="W31" s="26"/>
       <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
-      <c r="Z31" s="102"/>
+      <c r="Z31" s="87"/>
       <c r="AA31" s="73"/>
       <c r="AC31" s="72"/>
-      <c r="AD31" s="103"/>
+      <c r="AD31" s="97"/>
       <c r="AE31" s="63"/>
       <c r="AF31" s="63"/>
       <c r="AG31" s="63"/>
@@ -7717,7 +7819,7 @@
       <c r="AP31" s="63"/>
       <c r="AQ31" s="63"/>
       <c r="AR31" s="63"/>
-      <c r="AS31" s="102"/>
+      <c r="AS31" s="87"/>
       <c r="AT31" s="73"/>
       <c r="AV31" s="72"/>
       <c r="AW31" s="6"/>
@@ -7740,48 +7842,48 @@
     </row>
     <row r="32" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="72"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="128"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="128"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="99"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="99"/>
       <c r="AA32" s="73"/>
       <c r="AC32" s="72"/>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="102"/>
-      <c r="AF32" s="102"/>
-      <c r="AG32" s="102"/>
-      <c r="AH32" s="102"/>
-      <c r="AI32" s="102"/>
-      <c r="AJ32" s="102"/>
-      <c r="AK32" s="102"/>
-      <c r="AL32" s="102"/>
-      <c r="AM32" s="102"/>
-      <c r="AN32" s="102"/>
-      <c r="AO32" s="102"/>
-      <c r="AP32" s="102"/>
-      <c r="AQ32" s="102"/>
-      <c r="AR32" s="102"/>
-      <c r="AS32" s="102"/>
+      <c r="AD32" s="97"/>
+      <c r="AE32" s="87"/>
+      <c r="AF32" s="87"/>
+      <c r="AG32" s="87"/>
+      <c r="AH32" s="87"/>
+      <c r="AI32" s="87"/>
+      <c r="AJ32" s="87"/>
+      <c r="AK32" s="87"/>
+      <c r="AL32" s="87"/>
+      <c r="AM32" s="87"/>
+      <c r="AN32" s="87"/>
+      <c r="AO32" s="87"/>
+      <c r="AP32" s="87"/>
+      <c r="AQ32" s="87"/>
+      <c r="AR32" s="87"/>
+      <c r="AS32" s="87"/>
       <c r="AT32" s="73"/>
       <c r="AV32" s="72"/>
       <c r="AW32" s="6"/>
@@ -7872,48 +7974,48 @@
     </row>
     <row r="34" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="72"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="103"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
       <c r="AA34" s="73"/>
       <c r="AC34" s="72"/>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="103"/>
-      <c r="AF34" s="103"/>
-      <c r="AG34" s="103"/>
-      <c r="AH34" s="103"/>
-      <c r="AI34" s="103"/>
-      <c r="AJ34" s="103"/>
-      <c r="AK34" s="103"/>
-      <c r="AL34" s="103"/>
-      <c r="AM34" s="103"/>
-      <c r="AN34" s="103"/>
-      <c r="AO34" s="103"/>
-      <c r="AP34" s="103"/>
-      <c r="AQ34" s="103"/>
-      <c r="AR34" s="103"/>
-      <c r="AS34" s="103"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="97"/>
+      <c r="AL34" s="97"/>
+      <c r="AM34" s="97"/>
+      <c r="AN34" s="97"/>
+      <c r="AO34" s="97"/>
+      <c r="AP34" s="97"/>
+      <c r="AQ34" s="97"/>
+      <c r="AR34" s="97"/>
+      <c r="AS34" s="97"/>
       <c r="AT34" s="73"/>
       <c r="AV34" s="72"/>
       <c r="AW34" s="1"/>
@@ -7936,51 +8038,51 @@
     </row>
     <row r="35" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B35" s="72"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104" t="s">
+      <c r="C35" s="97"/>
+      <c r="D35" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104"/>
-      <c r="U35" s="104"/>
-      <c r="V35" s="104"/>
-      <c r="W35" s="104"/>
-      <c r="X35" s="104"/>
-      <c r="Y35" s="104"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="119"/>
+      <c r="T35" s="119"/>
+      <c r="U35" s="119"/>
+      <c r="V35" s="119"/>
+      <c r="W35" s="119"/>
+      <c r="X35" s="119"/>
+      <c r="Y35" s="119"/>
       <c r="Z35" s="66"/>
       <c r="AA35" s="73"/>
       <c r="AC35" s="72"/>
-      <c r="AD35" s="103"/>
-      <c r="AE35" s="104" t="s">
+      <c r="AD35" s="97"/>
+      <c r="AE35" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="AF35" s="104"/>
-      <c r="AG35" s="104"/>
-      <c r="AH35" s="104"/>
-      <c r="AI35" s="104"/>
-      <c r="AJ35" s="104"/>
-      <c r="AK35" s="104"/>
-      <c r="AL35" s="104"/>
-      <c r="AM35" s="104"/>
-      <c r="AN35" s="104"/>
-      <c r="AO35" s="104"/>
-      <c r="AP35" s="104"/>
-      <c r="AQ35" s="104"/>
-      <c r="AR35" s="104"/>
+      <c r="AF35" s="119"/>
+      <c r="AG35" s="119"/>
+      <c r="AH35" s="119"/>
+      <c r="AI35" s="119"/>
+      <c r="AJ35" s="119"/>
+      <c r="AK35" s="119"/>
+      <c r="AL35" s="119"/>
+      <c r="AM35" s="119"/>
+      <c r="AN35" s="119"/>
+      <c r="AO35" s="119"/>
+      <c r="AP35" s="119"/>
+      <c r="AQ35" s="119"/>
+      <c r="AR35" s="119"/>
       <c r="AS35" s="66"/>
       <c r="AT35" s="73"/>
       <c r="AV35" s="72"/>
@@ -8008,48 +8110,48 @@
     </row>
     <row r="36" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="72"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="102"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="102"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="102"/>
-      <c r="U36" s="102"/>
-      <c r="V36" s="102"/>
-      <c r="W36" s="102"/>
-      <c r="X36" s="102"/>
-      <c r="Y36" s="102"/>
-      <c r="Z36" s="102"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="87"/>
       <c r="AA36" s="73"/>
       <c r="AC36" s="72"/>
-      <c r="AD36" s="103"/>
-      <c r="AE36" s="102"/>
-      <c r="AF36" s="102"/>
-      <c r="AG36" s="102"/>
-      <c r="AH36" s="102"/>
-      <c r="AI36" s="102"/>
-      <c r="AJ36" s="102"/>
-      <c r="AK36" s="102"/>
-      <c r="AL36" s="102"/>
-      <c r="AM36" s="102"/>
-      <c r="AN36" s="102"/>
-      <c r="AO36" s="102"/>
-      <c r="AP36" s="102"/>
-      <c r="AQ36" s="102"/>
-      <c r="AR36" s="102"/>
-      <c r="AS36" s="102"/>
+      <c r="AD36" s="97"/>
+      <c r="AE36" s="87"/>
+      <c r="AF36" s="87"/>
+      <c r="AG36" s="87"/>
+      <c r="AH36" s="87"/>
+      <c r="AI36" s="87"/>
+      <c r="AJ36" s="87"/>
+      <c r="AK36" s="87"/>
+      <c r="AL36" s="87"/>
+      <c r="AM36" s="87"/>
+      <c r="AN36" s="87"/>
+      <c r="AO36" s="87"/>
+      <c r="AP36" s="87"/>
+      <c r="AQ36" s="87"/>
+      <c r="AR36" s="87"/>
+      <c r="AS36" s="87"/>
       <c r="AT36" s="73"/>
       <c r="AU36" s="77"/>
       <c r="AV36" s="72"/>
@@ -8273,13 +8375,13 @@
       <c r="B41" s="72"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="130"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
       <c r="L41" s="73"/>
       <c r="M41" s="77"/>
       <c r="N41" s="77"/>
@@ -8307,13 +8409,13 @@
       <c r="AS41" s="40"/>
       <c r="AT41" s="40"/>
       <c r="AV41" s="77"/>
-      <c r="AW41" s="131"/>
-      <c r="AX41" s="131"/>
-      <c r="AY41" s="131"/>
-      <c r="AZ41" s="131"/>
-      <c r="BA41" s="131"/>
-      <c r="BB41" s="131"/>
-      <c r="BC41" s="131"/>
+      <c r="AW41" s="84"/>
+      <c r="AX41" s="84"/>
+      <c r="AY41" s="84"/>
+      <c r="AZ41" s="84"/>
+      <c r="BA41" s="84"/>
+      <c r="BB41" s="84"/>
+      <c r="BC41" s="84"/>
       <c r="BD41" s="77"/>
       <c r="BF41" s="34"/>
       <c r="BG41" s="34"/>
@@ -8391,719 +8493,719 @@
       <c r="S43" s="36"/>
     </row>
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B44" s="124" t="s">
+      <c r="B44" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="87" t="s">
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="87"/>
-      <c r="U44" s="87"/>
-      <c r="V44" s="85" t="s">
+      <c r="N44" s="90"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="90"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="90"/>
+      <c r="S44" s="90"/>
+      <c r="T44" s="90"/>
+      <c r="U44" s="90"/>
+      <c r="V44" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="W44" s="85"/>
-      <c r="X44" s="85"/>
-      <c r="Y44" s="85"/>
-      <c r="Z44" s="85"/>
-      <c r="AA44" s="85"/>
-      <c r="AB44" s="85"/>
-      <c r="AC44" s="85"/>
-      <c r="AD44" s="85"/>
-      <c r="AE44" s="85"/>
-      <c r="AF44" s="85"/>
-      <c r="AG44" s="85"/>
-      <c r="AH44" s="87" t="s">
+      <c r="W44" s="91"/>
+      <c r="X44" s="91"/>
+      <c r="Y44" s="91"/>
+      <c r="Z44" s="91"/>
+      <c r="AA44" s="91"/>
+      <c r="AB44" s="91"/>
+      <c r="AC44" s="91"/>
+      <c r="AD44" s="91"/>
+      <c r="AE44" s="91"/>
+      <c r="AF44" s="91"/>
+      <c r="AG44" s="91"/>
+      <c r="AH44" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="AI44" s="87"/>
-      <c r="AJ44" s="87"/>
-      <c r="AK44" s="87"/>
-      <c r="AL44" s="87"/>
-      <c r="AM44" s="87"/>
-      <c r="AN44" s="87"/>
-      <c r="AO44" s="87"/>
-      <c r="AP44" s="89" t="s">
+      <c r="AI44" s="90"/>
+      <c r="AJ44" s="90"/>
+      <c r="AK44" s="90"/>
+      <c r="AL44" s="90"/>
+      <c r="AM44" s="90"/>
+      <c r="AN44" s="90"/>
+      <c r="AO44" s="90"/>
+      <c r="AP44" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="AQ44" s="89"/>
-      <c r="AR44" s="89"/>
-      <c r="AS44" s="89"/>
-      <c r="AT44" s="89"/>
-      <c r="AU44" s="89"/>
-      <c r="AV44" s="89"/>
-      <c r="AW44" s="89"/>
-      <c r="AX44" s="89"/>
-      <c r="AY44" s="89"/>
-      <c r="AZ44" s="87" t="s">
+      <c r="AQ44" s="93"/>
+      <c r="AR44" s="93"/>
+      <c r="AS44" s="93"/>
+      <c r="AT44" s="93"/>
+      <c r="AU44" s="93"/>
+      <c r="AV44" s="93"/>
+      <c r="AW44" s="93"/>
+      <c r="AX44" s="93"/>
+      <c r="AY44" s="93"/>
+      <c r="AZ44" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="BA44" s="87"/>
-      <c r="BB44" s="87"/>
-      <c r="BC44" s="87"/>
-      <c r="BD44" s="87"/>
-      <c r="BE44" s="85" t="s">
+      <c r="BA44" s="90"/>
+      <c r="BB44" s="90"/>
+      <c r="BC44" s="90"/>
+      <c r="BD44" s="90"/>
+      <c r="BE44" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="BF44" s="85"/>
-      <c r="BG44" s="85"/>
-      <c r="BH44" s="85"/>
-      <c r="BI44" s="85"/>
-      <c r="BJ44" s="85"/>
-      <c r="BK44" s="85"/>
-      <c r="BL44" s="85"/>
-      <c r="BM44" s="87" t="s">
+      <c r="BF44" s="91"/>
+      <c r="BG44" s="91"/>
+      <c r="BH44" s="91"/>
+      <c r="BI44" s="91"/>
+      <c r="BJ44" s="91"/>
+      <c r="BK44" s="91"/>
+      <c r="BL44" s="91"/>
+      <c r="BM44" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="BN44" s="87"/>
-      <c r="BO44" s="87"/>
-      <c r="BP44" s="87"/>
-      <c r="BQ44" s="87"/>
+      <c r="BN44" s="90"/>
+      <c r="BO44" s="90"/>
+      <c r="BP44" s="90"/>
+      <c r="BQ44" s="90"/>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B45" s="124" t="s">
+      <c r="B45" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="87"/>
-      <c r="V45" s="111" t="s">
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="90"/>
+      <c r="Q45" s="90"/>
+      <c r="R45" s="90"/>
+      <c r="S45" s="90"/>
+      <c r="T45" s="90"/>
+      <c r="U45" s="90"/>
+      <c r="V45" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="W45" s="111"/>
-      <c r="X45" s="111"/>
-      <c r="Y45" s="111"/>
-      <c r="Z45" s="111"/>
-      <c r="AA45" s="111"/>
-      <c r="AB45" s="111"/>
-      <c r="AC45" s="111"/>
-      <c r="AD45" s="111"/>
-      <c r="AE45" s="111"/>
-      <c r="AF45" s="111"/>
-      <c r="AG45" s="111"/>
-      <c r="AH45" s="87" t="s">
+      <c r="W45" s="92"/>
+      <c r="X45" s="92"/>
+      <c r="Y45" s="92"/>
+      <c r="Z45" s="92"/>
+      <c r="AA45" s="92"/>
+      <c r="AB45" s="92"/>
+      <c r="AC45" s="92"/>
+      <c r="AD45" s="92"/>
+      <c r="AE45" s="92"/>
+      <c r="AF45" s="92"/>
+      <c r="AG45" s="92"/>
+      <c r="AH45" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="AI45" s="87"/>
-      <c r="AJ45" s="87"/>
-      <c r="AK45" s="87"/>
-      <c r="AL45" s="87"/>
-      <c r="AM45" s="87"/>
-      <c r="AN45" s="87"/>
-      <c r="AO45" s="87"/>
-      <c r="AP45" s="97" t="s">
+      <c r="AI45" s="90"/>
+      <c r="AJ45" s="90"/>
+      <c r="AK45" s="90"/>
+      <c r="AL45" s="90"/>
+      <c r="AM45" s="90"/>
+      <c r="AN45" s="90"/>
+      <c r="AO45" s="90"/>
+      <c r="AP45" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="AQ45" s="97"/>
-      <c r="AR45" s="97"/>
-      <c r="AS45" s="97"/>
-      <c r="AT45" s="97"/>
-      <c r="AU45" s="97"/>
-      <c r="AV45" s="97"/>
-      <c r="AW45" s="97"/>
-      <c r="AX45" s="97"/>
-      <c r="AY45" s="97"/>
-      <c r="AZ45" s="87"/>
-      <c r="BA45" s="87"/>
-      <c r="BB45" s="87"/>
-      <c r="BC45" s="87"/>
-      <c r="BD45" s="87"/>
-      <c r="BE45" s="89" t="s">
+      <c r="AQ45" s="96"/>
+      <c r="AR45" s="96"/>
+      <c r="AS45" s="96"/>
+      <c r="AT45" s="96"/>
+      <c r="AU45" s="96"/>
+      <c r="AV45" s="96"/>
+      <c r="AW45" s="96"/>
+      <c r="AX45" s="96"/>
+      <c r="AY45" s="96"/>
+      <c r="AZ45" s="90"/>
+      <c r="BA45" s="90"/>
+      <c r="BB45" s="90"/>
+      <c r="BC45" s="90"/>
+      <c r="BD45" s="90"/>
+      <c r="BE45" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="BF45" s="89"/>
-      <c r="BG45" s="89"/>
-      <c r="BH45" s="89"/>
-      <c r="BI45" s="89"/>
-      <c r="BJ45" s="89"/>
-      <c r="BK45" s="89"/>
-      <c r="BL45" s="89"/>
-      <c r="BM45" s="88" t="s">
+      <c r="BF45" s="93"/>
+      <c r="BG45" s="93"/>
+      <c r="BH45" s="93"/>
+      <c r="BI45" s="93"/>
+      <c r="BJ45" s="93"/>
+      <c r="BK45" s="93"/>
+      <c r="BL45" s="93"/>
+      <c r="BM45" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="BN45" s="87"/>
-      <c r="BO45" s="87"/>
-      <c r="BP45" s="87"/>
-      <c r="BQ45" s="87"/>
+      <c r="BN45" s="90"/>
+      <c r="BO45" s="90"/>
+      <c r="BP45" s="90"/>
+      <c r="BQ45" s="90"/>
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B46" s="125" t="s">
+      <c r="B46" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="87"/>
-      <c r="T46" s="87"/>
-      <c r="U46" s="87"/>
-      <c r="V46" s="89" t="s">
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="117"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="90"/>
+      <c r="U46" s="90"/>
+      <c r="V46" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="W46" s="89"/>
-      <c r="X46" s="89"/>
-      <c r="Y46" s="89"/>
-      <c r="Z46" s="89"/>
-      <c r="AA46" s="89"/>
-      <c r="AB46" s="89"/>
-      <c r="AC46" s="89"/>
-      <c r="AD46" s="89"/>
-      <c r="AE46" s="89"/>
-      <c r="AF46" s="89"/>
-      <c r="AG46" s="89"/>
-      <c r="AH46" s="88" t="s">
+      <c r="W46" s="93"/>
+      <c r="X46" s="93"/>
+      <c r="Y46" s="93"/>
+      <c r="Z46" s="93"/>
+      <c r="AA46" s="93"/>
+      <c r="AB46" s="93"/>
+      <c r="AC46" s="93"/>
+      <c r="AD46" s="93"/>
+      <c r="AE46" s="93"/>
+      <c r="AF46" s="93"/>
+      <c r="AG46" s="93"/>
+      <c r="AH46" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="AI46" s="87"/>
-      <c r="AJ46" s="87"/>
-      <c r="AK46" s="87"/>
-      <c r="AL46" s="87"/>
-      <c r="AM46" s="87"/>
-      <c r="AN46" s="87"/>
-      <c r="AO46" s="87"/>
-      <c r="AP46" s="85" t="s">
+      <c r="AI46" s="90"/>
+      <c r="AJ46" s="90"/>
+      <c r="AK46" s="90"/>
+      <c r="AL46" s="90"/>
+      <c r="AM46" s="90"/>
+      <c r="AN46" s="90"/>
+      <c r="AO46" s="90"/>
+      <c r="AP46" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="AQ46" s="85"/>
-      <c r="AR46" s="85"/>
-      <c r="AS46" s="85"/>
-      <c r="AT46" s="85"/>
-      <c r="AU46" s="85"/>
-      <c r="AV46" s="85"/>
-      <c r="AW46" s="85"/>
-      <c r="AX46" s="85"/>
-      <c r="AY46" s="85"/>
-      <c r="AZ46" s="87"/>
-      <c r="BA46" s="87"/>
-      <c r="BB46" s="87"/>
-      <c r="BC46" s="87"/>
-      <c r="BD46" s="87"/>
-      <c r="BE46" s="89" t="s">
+      <c r="AQ46" s="91"/>
+      <c r="AR46" s="91"/>
+      <c r="AS46" s="91"/>
+      <c r="AT46" s="91"/>
+      <c r="AU46" s="91"/>
+      <c r="AV46" s="91"/>
+      <c r="AW46" s="91"/>
+      <c r="AX46" s="91"/>
+      <c r="AY46" s="91"/>
+      <c r="AZ46" s="90"/>
+      <c r="BA46" s="90"/>
+      <c r="BB46" s="90"/>
+      <c r="BC46" s="90"/>
+      <c r="BD46" s="90"/>
+      <c r="BE46" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="BF46" s="89"/>
-      <c r="BG46" s="89"/>
-      <c r="BH46" s="89"/>
-      <c r="BI46" s="89"/>
-      <c r="BJ46" s="89"/>
-      <c r="BK46" s="89"/>
-      <c r="BL46" s="89"/>
-      <c r="BM46" s="87"/>
-      <c r="BN46" s="87"/>
-      <c r="BO46" s="87"/>
-      <c r="BP46" s="87"/>
-      <c r="BQ46" s="87"/>
+      <c r="BF46" s="93"/>
+      <c r="BG46" s="93"/>
+      <c r="BH46" s="93"/>
+      <c r="BI46" s="93"/>
+      <c r="BJ46" s="93"/>
+      <c r="BK46" s="93"/>
+      <c r="BL46" s="93"/>
+      <c r="BM46" s="90"/>
+      <c r="BN46" s="90"/>
+      <c r="BO46" s="90"/>
+      <c r="BP46" s="90"/>
+      <c r="BQ46" s="90"/>
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B47" s="126" t="s">
+      <c r="B47" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="126"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="87"/>
-      <c r="V47" s="95" t="s">
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="90"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="90"/>
+      <c r="U47" s="90"/>
+      <c r="V47" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="W47" s="95"/>
-      <c r="X47" s="95"/>
-      <c r="Y47" s="95"/>
-      <c r="Z47" s="95"/>
-      <c r="AA47" s="95"/>
-      <c r="AB47" s="95"/>
-      <c r="AC47" s="95"/>
-      <c r="AD47" s="95"/>
-      <c r="AE47" s="95"/>
-      <c r="AF47" s="95"/>
-      <c r="AG47" s="95"/>
-      <c r="AH47" s="87"/>
-      <c r="AI47" s="87"/>
-      <c r="AJ47" s="87"/>
-      <c r="AK47" s="87"/>
-      <c r="AL47" s="87"/>
-      <c r="AM47" s="87"/>
-      <c r="AN47" s="87"/>
-      <c r="AO47" s="87"/>
-      <c r="AP47" s="95" t="s">
+      <c r="W47" s="94"/>
+      <c r="X47" s="94"/>
+      <c r="Y47" s="94"/>
+      <c r="Z47" s="94"/>
+      <c r="AA47" s="94"/>
+      <c r="AB47" s="94"/>
+      <c r="AC47" s="94"/>
+      <c r="AD47" s="94"/>
+      <c r="AE47" s="94"/>
+      <c r="AF47" s="94"/>
+      <c r="AG47" s="94"/>
+      <c r="AH47" s="90"/>
+      <c r="AI47" s="90"/>
+      <c r="AJ47" s="90"/>
+      <c r="AK47" s="90"/>
+      <c r="AL47" s="90"/>
+      <c r="AM47" s="90"/>
+      <c r="AN47" s="90"/>
+      <c r="AO47" s="90"/>
+      <c r="AP47" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="AQ47" s="95"/>
-      <c r="AR47" s="95"/>
-      <c r="AS47" s="95"/>
-      <c r="AT47" s="95"/>
-      <c r="AU47" s="95"/>
-      <c r="AV47" s="95"/>
-      <c r="AW47" s="95"/>
-      <c r="AX47" s="95"/>
-      <c r="AY47" s="95"/>
-      <c r="AZ47" s="87"/>
-      <c r="BA47" s="87"/>
-      <c r="BB47" s="87"/>
-      <c r="BC47" s="87"/>
-      <c r="BD47" s="87"/>
-      <c r="BE47" s="86" t="s">
+      <c r="AQ47" s="94"/>
+      <c r="AR47" s="94"/>
+      <c r="AS47" s="94"/>
+      <c r="AT47" s="94"/>
+      <c r="AU47" s="94"/>
+      <c r="AV47" s="94"/>
+      <c r="AW47" s="94"/>
+      <c r="AX47" s="94"/>
+      <c r="AY47" s="94"/>
+      <c r="AZ47" s="90"/>
+      <c r="BA47" s="90"/>
+      <c r="BB47" s="90"/>
+      <c r="BC47" s="90"/>
+      <c r="BD47" s="90"/>
+      <c r="BE47" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BF47" s="86"/>
-      <c r="BG47" s="86"/>
-      <c r="BH47" s="86"/>
-      <c r="BI47" s="86"/>
-      <c r="BJ47" s="86"/>
-      <c r="BK47" s="86"/>
-      <c r="BL47" s="86"/>
-      <c r="BM47" s="87" t="s">
+      <c r="BF47" s="95"/>
+      <c r="BG47" s="95"/>
+      <c r="BH47" s="95"/>
+      <c r="BI47" s="95"/>
+      <c r="BJ47" s="95"/>
+      <c r="BK47" s="95"/>
+      <c r="BL47" s="95"/>
+      <c r="BM47" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="BN47" s="87"/>
-      <c r="BO47" s="87"/>
-      <c r="BP47" s="87"/>
-      <c r="BQ47" s="87"/>
+      <c r="BN47" s="90"/>
+      <c r="BO47" s="90"/>
+      <c r="BP47" s="90"/>
+      <c r="BQ47" s="90"/>
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B48" s="110" t="s">
+      <c r="B48" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="87"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="87"/>
-      <c r="U48" s="87"/>
-      <c r="V48" s="85" t="s">
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="90"/>
+      <c r="Q48" s="90"/>
+      <c r="R48" s="90"/>
+      <c r="S48" s="90"/>
+      <c r="T48" s="90"/>
+      <c r="U48" s="90"/>
+      <c r="V48" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="W48" s="85"/>
-      <c r="X48" s="85"/>
-      <c r="Y48" s="85"/>
-      <c r="Z48" s="85"/>
-      <c r="AA48" s="85"/>
-      <c r="AB48" s="85"/>
-      <c r="AC48" s="85"/>
-      <c r="AD48" s="85"/>
-      <c r="AE48" s="85"/>
-      <c r="AF48" s="85"/>
-      <c r="AG48" s="85"/>
-      <c r="AH48" s="87"/>
-      <c r="AI48" s="87"/>
-      <c r="AJ48" s="87"/>
-      <c r="AK48" s="87"/>
-      <c r="AL48" s="87"/>
-      <c r="AM48" s="87"/>
-      <c r="AN48" s="87"/>
-      <c r="AO48" s="87"/>
-      <c r="AP48" s="95" t="s">
+      <c r="W48" s="91"/>
+      <c r="X48" s="91"/>
+      <c r="Y48" s="91"/>
+      <c r="Z48" s="91"/>
+      <c r="AA48" s="91"/>
+      <c r="AB48" s="91"/>
+      <c r="AC48" s="91"/>
+      <c r="AD48" s="91"/>
+      <c r="AE48" s="91"/>
+      <c r="AF48" s="91"/>
+      <c r="AG48" s="91"/>
+      <c r="AH48" s="90"/>
+      <c r="AI48" s="90"/>
+      <c r="AJ48" s="90"/>
+      <c r="AK48" s="90"/>
+      <c r="AL48" s="90"/>
+      <c r="AM48" s="90"/>
+      <c r="AN48" s="90"/>
+      <c r="AO48" s="90"/>
+      <c r="AP48" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="AQ48" s="95"/>
-      <c r="AR48" s="95"/>
-      <c r="AS48" s="95"/>
-      <c r="AT48" s="95"/>
-      <c r="AU48" s="95"/>
-      <c r="AV48" s="95"/>
-      <c r="AW48" s="95"/>
-      <c r="AX48" s="95"/>
-      <c r="AY48" s="95"/>
-      <c r="AZ48" s="87" t="s">
+      <c r="AQ48" s="94"/>
+      <c r="AR48" s="94"/>
+      <c r="AS48" s="94"/>
+      <c r="AT48" s="94"/>
+      <c r="AU48" s="94"/>
+      <c r="AV48" s="94"/>
+      <c r="AW48" s="94"/>
+      <c r="AX48" s="94"/>
+      <c r="AY48" s="94"/>
+      <c r="AZ48" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="BA48" s="87"/>
-      <c r="BB48" s="87"/>
-      <c r="BC48" s="87"/>
-      <c r="BD48" s="87"/>
-      <c r="BE48" s="90" t="s">
+      <c r="BA48" s="90"/>
+      <c r="BB48" s="90"/>
+      <c r="BC48" s="90"/>
+      <c r="BD48" s="90"/>
+      <c r="BE48" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="BF48" s="90"/>
-      <c r="BG48" s="90"/>
-      <c r="BH48" s="90"/>
-      <c r="BI48" s="90"/>
-      <c r="BJ48" s="90"/>
-      <c r="BK48" s="90"/>
-      <c r="BL48" s="90"/>
-      <c r="BM48" s="87"/>
-      <c r="BN48" s="87"/>
-      <c r="BO48" s="87"/>
-      <c r="BP48" s="87"/>
-      <c r="BQ48" s="87"/>
+      <c r="BF48" s="122"/>
+      <c r="BG48" s="122"/>
+      <c r="BH48" s="122"/>
+      <c r="BI48" s="122"/>
+      <c r="BJ48" s="122"/>
+      <c r="BK48" s="122"/>
+      <c r="BL48" s="122"/>
+      <c r="BM48" s="90"/>
+      <c r="BN48" s="90"/>
+      <c r="BO48" s="90"/>
+      <c r="BP48" s="90"/>
+      <c r="BQ48" s="90"/>
     </row>
     <row r="49" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B49" s="97" t="s">
+      <c r="B49" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="97"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="87"/>
-      <c r="S49" s="87"/>
-      <c r="T49" s="87"/>
-      <c r="U49" s="87"/>
-      <c r="V49" s="86" t="s">
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="96"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="90"/>
+      <c r="R49" s="90"/>
+      <c r="S49" s="90"/>
+      <c r="T49" s="90"/>
+      <c r="U49" s="90"/>
+      <c r="V49" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="W49" s="86"/>
-      <c r="X49" s="86"/>
-      <c r="Y49" s="86"/>
-      <c r="Z49" s="86"/>
-      <c r="AA49" s="86"/>
-      <c r="AB49" s="86"/>
-      <c r="AC49" s="86"/>
-      <c r="AD49" s="86"/>
-      <c r="AE49" s="86"/>
-      <c r="AF49" s="86"/>
-      <c r="AG49" s="86"/>
-      <c r="AH49" s="87"/>
-      <c r="AI49" s="87"/>
-      <c r="AJ49" s="87"/>
-      <c r="AK49" s="87"/>
-      <c r="AL49" s="87"/>
-      <c r="AM49" s="87"/>
-      <c r="AN49" s="87"/>
-      <c r="AO49" s="87"/>
-      <c r="AP49" s="97" t="s">
+      <c r="W49" s="95"/>
+      <c r="X49" s="95"/>
+      <c r="Y49" s="95"/>
+      <c r="Z49" s="95"/>
+      <c r="AA49" s="95"/>
+      <c r="AB49" s="95"/>
+      <c r="AC49" s="95"/>
+      <c r="AD49" s="95"/>
+      <c r="AE49" s="95"/>
+      <c r="AF49" s="95"/>
+      <c r="AG49" s="95"/>
+      <c r="AH49" s="90"/>
+      <c r="AI49" s="90"/>
+      <c r="AJ49" s="90"/>
+      <c r="AK49" s="90"/>
+      <c r="AL49" s="90"/>
+      <c r="AM49" s="90"/>
+      <c r="AN49" s="90"/>
+      <c r="AO49" s="90"/>
+      <c r="AP49" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="AQ49" s="97"/>
-      <c r="AR49" s="97"/>
-      <c r="AS49" s="97"/>
-      <c r="AT49" s="97"/>
-      <c r="AU49" s="97"/>
-      <c r="AV49" s="97"/>
-      <c r="AW49" s="97"/>
-      <c r="AX49" s="97"/>
-      <c r="AY49" s="97"/>
-      <c r="AZ49" s="87"/>
-      <c r="BA49" s="87"/>
-      <c r="BB49" s="87"/>
-      <c r="BC49" s="87"/>
-      <c r="BD49" s="87"/>
-      <c r="BE49" s="84" t="s">
+      <c r="AQ49" s="96"/>
+      <c r="AR49" s="96"/>
+      <c r="AS49" s="96"/>
+      <c r="AT49" s="96"/>
+      <c r="AU49" s="96"/>
+      <c r="AV49" s="96"/>
+      <c r="AW49" s="96"/>
+      <c r="AX49" s="96"/>
+      <c r="AY49" s="96"/>
+      <c r="AZ49" s="90"/>
+      <c r="BA49" s="90"/>
+      <c r="BB49" s="90"/>
+      <c r="BC49" s="90"/>
+      <c r="BD49" s="90"/>
+      <c r="BE49" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="BF49" s="84"/>
-      <c r="BG49" s="84"/>
-      <c r="BH49" s="84"/>
-      <c r="BI49" s="84"/>
-      <c r="BJ49" s="84"/>
-      <c r="BK49" s="84"/>
-      <c r="BL49" s="84"/>
-      <c r="BM49" s="87" t="s">
+      <c r="BF49" s="132"/>
+      <c r="BG49" s="132"/>
+      <c r="BH49" s="132"/>
+      <c r="BI49" s="132"/>
+      <c r="BJ49" s="132"/>
+      <c r="BK49" s="132"/>
+      <c r="BL49" s="132"/>
+      <c r="BM49" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="BN49" s="87"/>
-      <c r="BO49" s="87"/>
-      <c r="BP49" s="87"/>
-      <c r="BQ49" s="87"/>
+      <c r="BN49" s="90"/>
+      <c r="BO49" s="90"/>
+      <c r="BP49" s="90"/>
+      <c r="BQ49" s="90"/>
     </row>
     <row r="50" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="87"/>
-      <c r="S50" s="87"/>
-      <c r="T50" s="87"/>
-      <c r="U50" s="87"/>
-      <c r="V50" s="111" t="s">
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="90"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="90"/>
+      <c r="Q50" s="90"/>
+      <c r="R50" s="90"/>
+      <c r="S50" s="90"/>
+      <c r="T50" s="90"/>
+      <c r="U50" s="90"/>
+      <c r="V50" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="W50" s="111"/>
-      <c r="X50" s="111"/>
-      <c r="Y50" s="111"/>
-      <c r="Z50" s="111"/>
-      <c r="AA50" s="111"/>
-      <c r="AB50" s="111"/>
-      <c r="AC50" s="111"/>
-      <c r="AD50" s="111"/>
-      <c r="AE50" s="111"/>
-      <c r="AF50" s="111"/>
-      <c r="AG50" s="111"/>
-      <c r="AH50" s="87"/>
-      <c r="AI50" s="87"/>
-      <c r="AJ50" s="87"/>
-      <c r="AK50" s="87"/>
-      <c r="AL50" s="87"/>
-      <c r="AM50" s="87"/>
-      <c r="AN50" s="87"/>
-      <c r="AO50" s="87"/>
-      <c r="AP50" s="85" t="s">
+      <c r="W50" s="92"/>
+      <c r="X50" s="92"/>
+      <c r="Y50" s="92"/>
+      <c r="Z50" s="92"/>
+      <c r="AA50" s="92"/>
+      <c r="AB50" s="92"/>
+      <c r="AC50" s="92"/>
+      <c r="AD50" s="92"/>
+      <c r="AE50" s="92"/>
+      <c r="AF50" s="92"/>
+      <c r="AG50" s="92"/>
+      <c r="AH50" s="90"/>
+      <c r="AI50" s="90"/>
+      <c r="AJ50" s="90"/>
+      <c r="AK50" s="90"/>
+      <c r="AL50" s="90"/>
+      <c r="AM50" s="90"/>
+      <c r="AN50" s="90"/>
+      <c r="AO50" s="90"/>
+      <c r="AP50" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="AQ50" s="85"/>
-      <c r="AR50" s="85"/>
-      <c r="AS50" s="85"/>
-      <c r="AT50" s="85"/>
-      <c r="AU50" s="85"/>
-      <c r="AV50" s="85"/>
-      <c r="AW50" s="85"/>
-      <c r="AX50" s="85"/>
-      <c r="AY50" s="85"/>
-      <c r="AZ50" s="87"/>
-      <c r="BA50" s="87"/>
-      <c r="BB50" s="87"/>
-      <c r="BC50" s="87"/>
-      <c r="BD50" s="87"/>
-      <c r="BE50" s="85" t="s">
+      <c r="AQ50" s="91"/>
+      <c r="AR50" s="91"/>
+      <c r="AS50" s="91"/>
+      <c r="AT50" s="91"/>
+      <c r="AU50" s="91"/>
+      <c r="AV50" s="91"/>
+      <c r="AW50" s="91"/>
+      <c r="AX50" s="91"/>
+      <c r="AY50" s="91"/>
+      <c r="AZ50" s="90"/>
+      <c r="BA50" s="90"/>
+      <c r="BB50" s="90"/>
+      <c r="BC50" s="90"/>
+      <c r="BD50" s="90"/>
+      <c r="BE50" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="BF50" s="85"/>
-      <c r="BG50" s="85"/>
-      <c r="BH50" s="85"/>
-      <c r="BI50" s="85"/>
-      <c r="BJ50" s="85"/>
-      <c r="BK50" s="85"/>
-      <c r="BL50" s="85"/>
-      <c r="BM50" s="87" t="s">
+      <c r="BF50" s="91"/>
+      <c r="BG50" s="91"/>
+      <c r="BH50" s="91"/>
+      <c r="BI50" s="91"/>
+      <c r="BJ50" s="91"/>
+      <c r="BK50" s="91"/>
+      <c r="BL50" s="91"/>
+      <c r="BM50" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="BN50" s="87"/>
-      <c r="BO50" s="87"/>
-      <c r="BP50" s="87"/>
-      <c r="BQ50" s="87"/>
+      <c r="BN50" s="90"/>
+      <c r="BO50" s="90"/>
+      <c r="BP50" s="90"/>
+      <c r="BQ50" s="90"/>
     </row>
     <row r="51" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="87"/>
-      <c r="S51" s="87"/>
-      <c r="T51" s="87"/>
-      <c r="U51" s="87"/>
-      <c r="V51" s="97" t="s">
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="90"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="90"/>
+      <c r="Q51" s="90"/>
+      <c r="R51" s="90"/>
+      <c r="S51" s="90"/>
+      <c r="T51" s="90"/>
+      <c r="U51" s="90"/>
+      <c r="V51" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="W51" s="97"/>
-      <c r="X51" s="97"/>
-      <c r="Y51" s="97"/>
-      <c r="Z51" s="97"/>
-      <c r="AA51" s="97"/>
-      <c r="AB51" s="97"/>
-      <c r="AC51" s="97"/>
-      <c r="AD51" s="97"/>
-      <c r="AE51" s="97"/>
-      <c r="AF51" s="97"/>
-      <c r="AG51" s="97"/>
-      <c r="AH51" s="87"/>
-      <c r="AI51" s="87"/>
-      <c r="AJ51" s="87"/>
-      <c r="AK51" s="87"/>
-      <c r="AL51" s="87"/>
-      <c r="AM51" s="87"/>
-      <c r="AN51" s="87"/>
-      <c r="AO51" s="87"/>
-      <c r="AP51" s="86" t="s">
+      <c r="W51" s="96"/>
+      <c r="X51" s="96"/>
+      <c r="Y51" s="96"/>
+      <c r="Z51" s="96"/>
+      <c r="AA51" s="96"/>
+      <c r="AB51" s="96"/>
+      <c r="AC51" s="96"/>
+      <c r="AD51" s="96"/>
+      <c r="AE51" s="96"/>
+      <c r="AF51" s="96"/>
+      <c r="AG51" s="96"/>
+      <c r="AH51" s="90"/>
+      <c r="AI51" s="90"/>
+      <c r="AJ51" s="90"/>
+      <c r="AK51" s="90"/>
+      <c r="AL51" s="90"/>
+      <c r="AM51" s="90"/>
+      <c r="AN51" s="90"/>
+      <c r="AO51" s="90"/>
+      <c r="AP51" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="AQ51" s="86"/>
-      <c r="AR51" s="86"/>
-      <c r="AS51" s="86"/>
-      <c r="AT51" s="86"/>
-      <c r="AU51" s="86"/>
-      <c r="AV51" s="86"/>
-      <c r="AW51" s="86"/>
-      <c r="AX51" s="86"/>
-      <c r="AY51" s="86"/>
-      <c r="AZ51" s="87" t="s">
+      <c r="AQ51" s="95"/>
+      <c r="AR51" s="95"/>
+      <c r="AS51" s="95"/>
+      <c r="AT51" s="95"/>
+      <c r="AU51" s="95"/>
+      <c r="AV51" s="95"/>
+      <c r="AW51" s="95"/>
+      <c r="AX51" s="95"/>
+      <c r="AY51" s="95"/>
+      <c r="AZ51" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="BA51" s="87"/>
-      <c r="BB51" s="87"/>
-      <c r="BC51" s="87"/>
-      <c r="BD51" s="87"/>
-      <c r="BE51" s="86" t="s">
+      <c r="BA51" s="90"/>
+      <c r="BB51" s="90"/>
+      <c r="BC51" s="90"/>
+      <c r="BD51" s="90"/>
+      <c r="BE51" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="BF51" s="86"/>
-      <c r="BG51" s="86"/>
-      <c r="BH51" s="86"/>
-      <c r="BI51" s="86"/>
-      <c r="BJ51" s="86"/>
-      <c r="BK51" s="86"/>
-      <c r="BL51" s="86"/>
-      <c r="BM51" s="87" t="s">
+      <c r="BF51" s="95"/>
+      <c r="BG51" s="95"/>
+      <c r="BH51" s="95"/>
+      <c r="BI51" s="95"/>
+      <c r="BJ51" s="95"/>
+      <c r="BK51" s="95"/>
+      <c r="BL51" s="95"/>
+      <c r="BM51" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="BN51" s="87"/>
-      <c r="BO51" s="87"/>
-      <c r="BP51" s="87"/>
-      <c r="BQ51" s="87"/>
+      <c r="BN51" s="90"/>
+      <c r="BO51" s="90"/>
+      <c r="BP51" s="90"/>
+      <c r="BQ51" s="90"/>
     </row>
     <row r="52" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B52" s="95" t="s">
+      <c r="B52" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="95"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="101" t="s">
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="94"/>
+      <c r="L52" s="94"/>
+      <c r="M52" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="N52" s="101"/>
-      <c r="O52" s="101"/>
-      <c r="P52" s="101"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="101"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="101"/>
-      <c r="U52" s="101"/>
-      <c r="V52" s="105" t="s">
+      <c r="N52" s="118"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="118"/>
+      <c r="R52" s="118"/>
+      <c r="S52" s="118"/>
+      <c r="T52" s="118"/>
+      <c r="U52" s="118"/>
+      <c r="V52" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="W52" s="105"/>
-      <c r="X52" s="105"/>
-      <c r="Y52" s="105"/>
-      <c r="Z52" s="105"/>
-      <c r="AA52" s="105"/>
-      <c r="AB52" s="105"/>
-      <c r="AC52" s="105"/>
-      <c r="AD52" s="105"/>
-      <c r="AE52" s="105"/>
-      <c r="AF52" s="105"/>
-      <c r="AG52" s="105"/>
-      <c r="AH52" s="87"/>
-      <c r="AI52" s="87"/>
-      <c r="AJ52" s="87"/>
-      <c r="AK52" s="87"/>
-      <c r="AL52" s="87"/>
-      <c r="AM52" s="87"/>
-      <c r="AN52" s="87"/>
-      <c r="AO52" s="87"/>
-      <c r="AP52" s="85" t="s">
+      <c r="W52" s="120"/>
+      <c r="X52" s="120"/>
+      <c r="Y52" s="120"/>
+      <c r="Z52" s="120"/>
+      <c r="AA52" s="120"/>
+      <c r="AB52" s="120"/>
+      <c r="AC52" s="120"/>
+      <c r="AD52" s="120"/>
+      <c r="AE52" s="120"/>
+      <c r="AF52" s="120"/>
+      <c r="AG52" s="120"/>
+      <c r="AH52" s="90"/>
+      <c r="AI52" s="90"/>
+      <c r="AJ52" s="90"/>
+      <c r="AK52" s="90"/>
+      <c r="AL52" s="90"/>
+      <c r="AM52" s="90"/>
+      <c r="AN52" s="90"/>
+      <c r="AO52" s="90"/>
+      <c r="AP52" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="AQ52" s="85"/>
-      <c r="AR52" s="85"/>
-      <c r="AS52" s="85"/>
-      <c r="AT52" s="85"/>
-      <c r="AU52" s="85"/>
-      <c r="AV52" s="85"/>
-      <c r="AW52" s="85"/>
-      <c r="AX52" s="85"/>
-      <c r="AY52" s="85"/>
-      <c r="AZ52" s="87"/>
-      <c r="BA52" s="87"/>
-      <c r="BB52" s="87"/>
-      <c r="BC52" s="87"/>
-      <c r="BD52" s="87"/>
+      <c r="AQ52" s="91"/>
+      <c r="AR52" s="91"/>
+      <c r="AS52" s="91"/>
+      <c r="AT52" s="91"/>
+      <c r="AU52" s="91"/>
+      <c r="AV52" s="91"/>
+      <c r="AW52" s="91"/>
+      <c r="AX52" s="91"/>
+      <c r="AY52" s="91"/>
+      <c r="AZ52" s="90"/>
+      <c r="BA52" s="90"/>
+      <c r="BB52" s="90"/>
+      <c r="BC52" s="90"/>
+      <c r="BD52" s="90"/>
       <c r="BE52" s="34"/>
       <c r="BF52" s="34"/>
       <c r="BG52" s="34"/>
@@ -9116,69 +9218,69 @@
       <c r="BN52" s="35"/>
     </row>
     <row r="53" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B53" s="90" t="s">
+      <c r="B53" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="101" t="s">
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="122"/>
+      <c r="I53" s="122"/>
+      <c r="J53" s="122"/>
+      <c r="K53" s="122"/>
+      <c r="L53" s="122"/>
+      <c r="M53" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="N53" s="101"/>
-      <c r="O53" s="101"/>
-      <c r="P53" s="101"/>
-      <c r="Q53" s="101"/>
-      <c r="R53" s="101"/>
-      <c r="S53" s="101"/>
-      <c r="T53" s="101"/>
-      <c r="U53" s="101"/>
-      <c r="V53" s="106" t="s">
+      <c r="N53" s="118"/>
+      <c r="O53" s="118"/>
+      <c r="P53" s="118"/>
+      <c r="Q53" s="118"/>
+      <c r="R53" s="118"/>
+      <c r="S53" s="118"/>
+      <c r="T53" s="118"/>
+      <c r="U53" s="118"/>
+      <c r="V53" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="106"/>
-      <c r="X53" s="106"/>
-      <c r="Y53" s="106"/>
-      <c r="Z53" s="106"/>
-      <c r="AA53" s="106"/>
-      <c r="AB53" s="106"/>
-      <c r="AC53" s="106"/>
-      <c r="AD53" s="106"/>
-      <c r="AE53" s="106"/>
-      <c r="AF53" s="106"/>
-      <c r="AG53" s="106"/>
-      <c r="AH53" s="87"/>
-      <c r="AI53" s="87"/>
-      <c r="AJ53" s="87"/>
-      <c r="AK53" s="87"/>
-      <c r="AL53" s="87"/>
-      <c r="AM53" s="87"/>
-      <c r="AN53" s="87"/>
-      <c r="AO53" s="87"/>
-      <c r="AP53" s="95" t="s">
+      <c r="W53" s="121"/>
+      <c r="X53" s="121"/>
+      <c r="Y53" s="121"/>
+      <c r="Z53" s="121"/>
+      <c r="AA53" s="121"/>
+      <c r="AB53" s="121"/>
+      <c r="AC53" s="121"/>
+      <c r="AD53" s="121"/>
+      <c r="AE53" s="121"/>
+      <c r="AF53" s="121"/>
+      <c r="AG53" s="121"/>
+      <c r="AH53" s="90"/>
+      <c r="AI53" s="90"/>
+      <c r="AJ53" s="90"/>
+      <c r="AK53" s="90"/>
+      <c r="AL53" s="90"/>
+      <c r="AM53" s="90"/>
+      <c r="AN53" s="90"/>
+      <c r="AO53" s="90"/>
+      <c r="AP53" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="AQ53" s="95"/>
-      <c r="AR53" s="95"/>
-      <c r="AS53" s="95"/>
-      <c r="AT53" s="95"/>
-      <c r="AU53" s="95"/>
-      <c r="AV53" s="95"/>
-      <c r="AW53" s="95"/>
-      <c r="AX53" s="95"/>
-      <c r="AY53" s="95"/>
-      <c r="AZ53" s="87"/>
-      <c r="BA53" s="87"/>
-      <c r="BB53" s="87"/>
-      <c r="BC53" s="87"/>
-      <c r="BD53" s="87"/>
+      <c r="AQ53" s="94"/>
+      <c r="AR53" s="94"/>
+      <c r="AS53" s="94"/>
+      <c r="AT53" s="94"/>
+      <c r="AU53" s="94"/>
+      <c r="AV53" s="94"/>
+      <c r="AW53" s="94"/>
+      <c r="AX53" s="94"/>
+      <c r="AY53" s="94"/>
+      <c r="AZ53" s="90"/>
+      <c r="BA53" s="90"/>
+      <c r="BB53" s="90"/>
+      <c r="BC53" s="90"/>
+      <c r="BD53" s="90"/>
       <c r="BE53" s="34"/>
       <c r="BF53" s="34"/>
       <c r="BG53" s="34"/>
@@ -9191,71 +9293,71 @@
       <c r="BN53" s="34"/>
     </row>
     <row r="54" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B54" s="107" t="s">
+      <c r="B54" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
-      <c r="K54" s="107"/>
-      <c r="L54" s="107"/>
-      <c r="M54" s="101" t="s">
+      <c r="C54" s="123"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
+      <c r="M54" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="N54" s="101"/>
-      <c r="O54" s="101"/>
-      <c r="P54" s="101"/>
-      <c r="Q54" s="101"/>
-      <c r="R54" s="101"/>
-      <c r="S54" s="101"/>
-      <c r="T54" s="101"/>
-      <c r="U54" s="101"/>
-      <c r="V54" s="100" t="s">
+      <c r="N54" s="118"/>
+      <c r="O54" s="118"/>
+      <c r="P54" s="118"/>
+      <c r="Q54" s="118"/>
+      <c r="R54" s="118"/>
+      <c r="S54" s="118"/>
+      <c r="T54" s="118"/>
+      <c r="U54" s="118"/>
+      <c r="V54" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="W54" s="100"/>
-      <c r="X54" s="100"/>
-      <c r="Y54" s="100"/>
-      <c r="Z54" s="100"/>
-      <c r="AA54" s="100"/>
-      <c r="AB54" s="100"/>
-      <c r="AC54" s="100"/>
-      <c r="AD54" s="100"/>
-      <c r="AE54" s="100"/>
-      <c r="AF54" s="100"/>
-      <c r="AG54" s="100"/>
-      <c r="AH54" s="87"/>
-      <c r="AI54" s="87"/>
-      <c r="AJ54" s="87"/>
-      <c r="AK54" s="87"/>
-      <c r="AL54" s="87"/>
-      <c r="AM54" s="87"/>
-      <c r="AN54" s="87"/>
-      <c r="AO54" s="87"/>
-      <c r="AP54" s="96" t="s">
+      <c r="W54" s="131"/>
+      <c r="X54" s="131"/>
+      <c r="Y54" s="131"/>
+      <c r="Z54" s="131"/>
+      <c r="AA54" s="131"/>
+      <c r="AB54" s="131"/>
+      <c r="AC54" s="131"/>
+      <c r="AD54" s="131"/>
+      <c r="AE54" s="131"/>
+      <c r="AF54" s="131"/>
+      <c r="AG54" s="131"/>
+      <c r="AH54" s="90"/>
+      <c r="AI54" s="90"/>
+      <c r="AJ54" s="90"/>
+      <c r="AK54" s="90"/>
+      <c r="AL54" s="90"/>
+      <c r="AM54" s="90"/>
+      <c r="AN54" s="90"/>
+      <c r="AO54" s="90"/>
+      <c r="AP54" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="AQ54" s="96"/>
-      <c r="AR54" s="96"/>
-      <c r="AS54" s="96"/>
-      <c r="AT54" s="96"/>
-      <c r="AU54" s="96"/>
-      <c r="AV54" s="96"/>
-      <c r="AW54" s="96"/>
-      <c r="AX54" s="96"/>
-      <c r="AY54" s="96"/>
-      <c r="AZ54" s="88" t="s">
+      <c r="AQ54" s="100"/>
+      <c r="AR54" s="100"/>
+      <c r="AS54" s="100"/>
+      <c r="AT54" s="100"/>
+      <c r="AU54" s="100"/>
+      <c r="AV54" s="100"/>
+      <c r="AW54" s="100"/>
+      <c r="AX54" s="100"/>
+      <c r="AY54" s="100"/>
+      <c r="AZ54" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="BA54" s="88"/>
-      <c r="BB54" s="88"/>
-      <c r="BC54" s="88"/>
-      <c r="BD54" s="88"/>
+      <c r="BA54" s="128"/>
+      <c r="BB54" s="128"/>
+      <c r="BC54" s="128"/>
+      <c r="BD54" s="128"/>
       <c r="BE54" s="34"/>
       <c r="BF54" s="34"/>
       <c r="BG54" s="34"/>
@@ -9268,134 +9370,179 @@
       <c r="BN54" s="34"/>
     </row>
     <row r="55" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B55" s="96" t="s">
+      <c r="B55" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="101" t="s">
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
+      <c r="K55" s="100"/>
+      <c r="L55" s="100"/>
+      <c r="M55" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="N55" s="101"/>
-      <c r="O55" s="101"/>
-      <c r="P55" s="101"/>
-      <c r="Q55" s="101"/>
-      <c r="R55" s="101"/>
-      <c r="S55" s="101"/>
-      <c r="T55" s="101"/>
-      <c r="U55" s="101"/>
-      <c r="V55" s="96" t="s">
+      <c r="N55" s="118"/>
+      <c r="O55" s="118"/>
+      <c r="P55" s="118"/>
+      <c r="Q55" s="118"/>
+      <c r="R55" s="118"/>
+      <c r="S55" s="118"/>
+      <c r="T55" s="118"/>
+      <c r="U55" s="118"/>
+      <c r="V55" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="W55" s="96"/>
-      <c r="X55" s="96"/>
-      <c r="Y55" s="96"/>
-      <c r="Z55" s="96"/>
-      <c r="AA55" s="96"/>
-      <c r="AB55" s="96"/>
-      <c r="AC55" s="96"/>
-      <c r="AD55" s="96"/>
-      <c r="AE55" s="96"/>
-      <c r="AF55" s="96"/>
-      <c r="AG55" s="96"/>
-      <c r="AH55" s="87"/>
-      <c r="AI55" s="87"/>
-      <c r="AJ55" s="87"/>
-      <c r="AK55" s="87"/>
-      <c r="AL55" s="87"/>
-      <c r="AM55" s="87"/>
-      <c r="AN55" s="87"/>
-      <c r="AO55" s="87"/>
-      <c r="AP55" s="89" t="s">
+      <c r="W55" s="100"/>
+      <c r="X55" s="100"/>
+      <c r="Y55" s="100"/>
+      <c r="Z55" s="100"/>
+      <c r="AA55" s="100"/>
+      <c r="AB55" s="100"/>
+      <c r="AC55" s="100"/>
+      <c r="AD55" s="100"/>
+      <c r="AE55" s="100"/>
+      <c r="AF55" s="100"/>
+      <c r="AG55" s="100"/>
+      <c r="AH55" s="90"/>
+      <c r="AI55" s="90"/>
+      <c r="AJ55" s="90"/>
+      <c r="AK55" s="90"/>
+      <c r="AL55" s="90"/>
+      <c r="AM55" s="90"/>
+      <c r="AN55" s="90"/>
+      <c r="AO55" s="90"/>
+      <c r="AP55" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="AQ55" s="89"/>
-      <c r="AR55" s="89"/>
-      <c r="AS55" s="89"/>
-      <c r="AT55" s="89"/>
-      <c r="AU55" s="89"/>
-      <c r="AV55" s="89"/>
-      <c r="AW55" s="89"/>
-      <c r="AX55" s="89"/>
-      <c r="AY55" s="89"/>
-      <c r="AZ55" s="88"/>
-      <c r="BA55" s="88"/>
-      <c r="BB55" s="88"/>
-      <c r="BC55" s="88"/>
-      <c r="BD55" s="88"/>
+      <c r="AQ55" s="93"/>
+      <c r="AR55" s="93"/>
+      <c r="AS55" s="93"/>
+      <c r="AT55" s="93"/>
+      <c r="AU55" s="93"/>
+      <c r="AV55" s="93"/>
+      <c r="AW55" s="93"/>
+      <c r="AX55" s="93"/>
+      <c r="AY55" s="93"/>
+      <c r="AZ55" s="128"/>
+      <c r="BA55" s="128"/>
+      <c r="BB55" s="128"/>
+      <c r="BC55" s="128"/>
+      <c r="BD55" s="128"/>
       <c r="BN55" s="34"/>
     </row>
     <row r="56" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B56" s="108"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="108"/>
-      <c r="M56" s="101" t="s">
+      <c r="B56" s="101"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="N56" s="101"/>
-      <c r="O56" s="101"/>
-      <c r="P56" s="101"/>
-      <c r="Q56" s="101"/>
-      <c r="R56" s="101"/>
-      <c r="S56" s="101"/>
-      <c r="T56" s="101"/>
-      <c r="U56" s="101"/>
-      <c r="AP56" s="97" t="s">
+      <c r="N56" s="118"/>
+      <c r="O56" s="118"/>
+      <c r="P56" s="118"/>
+      <c r="Q56" s="118"/>
+      <c r="R56" s="118"/>
+      <c r="S56" s="118"/>
+      <c r="T56" s="118"/>
+      <c r="U56" s="118"/>
+      <c r="AP56" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="AQ56" s="97"/>
-      <c r="AR56" s="97"/>
-      <c r="AS56" s="97"/>
-      <c r="AT56" s="97"/>
-      <c r="AU56" s="97"/>
-      <c r="AV56" s="97"/>
-      <c r="AW56" s="97"/>
-      <c r="AX56" s="97"/>
-      <c r="AY56" s="97"/>
-      <c r="AZ56" s="88"/>
-      <c r="BA56" s="88"/>
-      <c r="BB56" s="88"/>
-      <c r="BC56" s="88"/>
-      <c r="BD56" s="88"/>
+      <c r="AQ56" s="96"/>
+      <c r="AR56" s="96"/>
+      <c r="AS56" s="96"/>
+      <c r="AT56" s="96"/>
+      <c r="AU56" s="96"/>
+      <c r="AV56" s="96"/>
+      <c r="AW56" s="96"/>
+      <c r="AX56" s="96"/>
+      <c r="AY56" s="96"/>
+      <c r="AZ56" s="128"/>
+      <c r="BA56" s="128"/>
+      <c r="BB56" s="128"/>
+      <c r="BC56" s="128"/>
+      <c r="BD56" s="128"/>
       <c r="BN56" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="D36:Z36"/>
-    <mergeCell ref="AE36:AS36"/>
-    <mergeCell ref="E41:K41"/>
-    <mergeCell ref="M44:U51"/>
-    <mergeCell ref="AZ44:BD47"/>
-    <mergeCell ref="BM44:BQ44"/>
-    <mergeCell ref="AH45:AO45"/>
-    <mergeCell ref="BM45:BQ46"/>
-    <mergeCell ref="AH46:AO55"/>
-    <mergeCell ref="BM47:BQ48"/>
-    <mergeCell ref="AZ48:BD50"/>
-    <mergeCell ref="AZ51:BD53"/>
-    <mergeCell ref="BE51:BL51"/>
-    <mergeCell ref="BM51:BQ51"/>
-    <mergeCell ref="AZ54:BD56"/>
-    <mergeCell ref="V55:AG55"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="M56:U56"/>
-    <mergeCell ref="AP56:AY56"/>
+    <mergeCell ref="AE26:AR26"/>
+    <mergeCell ref="AE32:AS32"/>
+    <mergeCell ref="C34:Z34"/>
+    <mergeCell ref="AD34:AS34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:Y35"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AE35:AR35"/>
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="AD6:AS6"/>
+    <mergeCell ref="AE7:AR7"/>
+    <mergeCell ref="AE18:AR18"/>
+    <mergeCell ref="AE19:AR19"/>
+    <mergeCell ref="AE22:AR22"/>
+    <mergeCell ref="AE10:AR10"/>
+    <mergeCell ref="AE11:AR11"/>
+    <mergeCell ref="AE14:AR14"/>
+    <mergeCell ref="BE50:BL50"/>
+    <mergeCell ref="BM50:BQ50"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="BE47:BL47"/>
+    <mergeCell ref="B48:L48"/>
+    <mergeCell ref="V48:AG48"/>
+    <mergeCell ref="AP48:AY48"/>
+    <mergeCell ref="BE48:BL48"/>
+    <mergeCell ref="B44:L44"/>
+    <mergeCell ref="V44:AG44"/>
+    <mergeCell ref="AH44:AO44"/>
+    <mergeCell ref="AP44:AY44"/>
+    <mergeCell ref="BE44:BL44"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="V45:AG45"/>
+    <mergeCell ref="AP45:AY45"/>
+    <mergeCell ref="B49:L49"/>
+    <mergeCell ref="V49:AG49"/>
+    <mergeCell ref="BE45:BL45"/>
+    <mergeCell ref="B46:L46"/>
+    <mergeCell ref="V46:AG46"/>
+    <mergeCell ref="AP46:AY46"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BG4:BM4"/>
+    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="M53:U53"/>
+    <mergeCell ref="V53:AG53"/>
+    <mergeCell ref="AP53:AY53"/>
+    <mergeCell ref="B54:L54"/>
+    <mergeCell ref="M54:U54"/>
+    <mergeCell ref="V54:AG54"/>
+    <mergeCell ref="AP54:AY54"/>
+    <mergeCell ref="V51:AG51"/>
+    <mergeCell ref="AP51:AY51"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="M52:U52"/>
+    <mergeCell ref="V52:AG52"/>
+    <mergeCell ref="AP52:AY52"/>
+    <mergeCell ref="AP49:AY49"/>
+    <mergeCell ref="BE49:BL49"/>
+    <mergeCell ref="BM49:BQ49"/>
+    <mergeCell ref="BE46:BL46"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="V47:AG47"/>
+    <mergeCell ref="AP47:AY47"/>
+    <mergeCell ref="B50:L50"/>
     <mergeCell ref="D7:O7"/>
     <mergeCell ref="P7:P31"/>
     <mergeCell ref="S7:Y7"/>
@@ -9419,83 +9566,38 @@
     <mergeCell ref="AQ28:AR28"/>
     <mergeCell ref="D32:P32"/>
     <mergeCell ref="S32:Z32"/>
+    <mergeCell ref="AE15:AR15"/>
+    <mergeCell ref="D36:Z36"/>
+    <mergeCell ref="AE36:AS36"/>
+    <mergeCell ref="E41:K41"/>
+    <mergeCell ref="M44:U51"/>
+    <mergeCell ref="AZ44:BD47"/>
+    <mergeCell ref="BM44:BQ44"/>
+    <mergeCell ref="AH45:AO45"/>
+    <mergeCell ref="BM45:BQ46"/>
+    <mergeCell ref="AH46:AO55"/>
+    <mergeCell ref="BM47:BQ48"/>
+    <mergeCell ref="AZ48:BD50"/>
+    <mergeCell ref="AZ51:BD53"/>
+    <mergeCell ref="BE51:BL51"/>
+    <mergeCell ref="BM51:BQ51"/>
+    <mergeCell ref="AZ54:BD56"/>
+    <mergeCell ref="V55:AG55"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="M56:U56"/>
+    <mergeCell ref="AP56:AY56"/>
     <mergeCell ref="M55:U55"/>
     <mergeCell ref="AP55:AY55"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BG4:BM4"/>
-    <mergeCell ref="B53:L53"/>
-    <mergeCell ref="M53:U53"/>
-    <mergeCell ref="V53:AG53"/>
-    <mergeCell ref="AP53:AY53"/>
-    <mergeCell ref="B54:L54"/>
-    <mergeCell ref="M54:U54"/>
-    <mergeCell ref="V54:AG54"/>
-    <mergeCell ref="AP54:AY54"/>
     <mergeCell ref="B55:L55"/>
-    <mergeCell ref="V51:AG51"/>
-    <mergeCell ref="AP51:AY51"/>
-    <mergeCell ref="B52:L52"/>
-    <mergeCell ref="M52:U52"/>
-    <mergeCell ref="V52:AG52"/>
-    <mergeCell ref="AP52:AY52"/>
-    <mergeCell ref="AP49:AY49"/>
-    <mergeCell ref="BE49:BL49"/>
-    <mergeCell ref="BM49:BQ49"/>
-    <mergeCell ref="BE46:BL46"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="V47:AG47"/>
-    <mergeCell ref="AP47:AY47"/>
-    <mergeCell ref="B50:L50"/>
     <mergeCell ref="V50:AG50"/>
     <mergeCell ref="AP50:AY50"/>
-    <mergeCell ref="BE50:BL50"/>
-    <mergeCell ref="BM50:BQ50"/>
-    <mergeCell ref="B51:L51"/>
-    <mergeCell ref="BE47:BL47"/>
-    <mergeCell ref="B48:L48"/>
-    <mergeCell ref="V48:AG48"/>
-    <mergeCell ref="AP48:AY48"/>
-    <mergeCell ref="BE48:BL48"/>
-    <mergeCell ref="B44:L44"/>
-    <mergeCell ref="V44:AG44"/>
-    <mergeCell ref="AH44:AO44"/>
-    <mergeCell ref="AP44:AY44"/>
-    <mergeCell ref="BE44:BL44"/>
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="V45:AG45"/>
-    <mergeCell ref="AP45:AY45"/>
-    <mergeCell ref="B49:L49"/>
-    <mergeCell ref="V49:AG49"/>
-    <mergeCell ref="BE45:BL45"/>
-    <mergeCell ref="B46:L46"/>
-    <mergeCell ref="V46:AG46"/>
-    <mergeCell ref="AP46:AY46"/>
-    <mergeCell ref="AE15:AR15"/>
-    <mergeCell ref="AE26:AR26"/>
-    <mergeCell ref="AE32:AS32"/>
-    <mergeCell ref="C34:Z34"/>
-    <mergeCell ref="AD34:AS34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:Y35"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AE35:AR35"/>
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="R6:Z6"/>
-    <mergeCell ref="AD6:AS6"/>
-    <mergeCell ref="AE7:AR7"/>
-    <mergeCell ref="AE18:AR18"/>
-    <mergeCell ref="AE19:AR19"/>
-    <mergeCell ref="AE22:AR22"/>
-    <mergeCell ref="AE10:AR10"/>
-    <mergeCell ref="AE11:AR11"/>
-    <mergeCell ref="AE14:AR14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/UserSet/Colors.xlsx
+++ b/UserSet/Colors.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Manager\HotCoffee\UserSet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AA76AC-2FDE-4BA9-A474-7507B63035E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="15480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GA_L" sheetId="1" r:id="rId1"/>
     <sheet name="GA_D" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -360,8 +367,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="87" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="88" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,6 +1099,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -1525,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1693,260 +1708,26 @@
     <xf numFmtId="0" fontId="71" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="72" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="66" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="46" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="45" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="52" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="48" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="73" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="75" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="76" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="77" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="78" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="46" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="45" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="52" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="48" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="20" fontId="48" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1973,28 +1754,7 @@
     <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="66" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2007,7 +1767,267 @@
     <xf numFmtId="0" fontId="79" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="84" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="85" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="86" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="86" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="46" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="45" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="52" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="48" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="48" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="46" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="45" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="52" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2016,16 +2036,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF405261"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FF506779"/>
+      <color rgb="FFD0E0EA"/>
+      <color rgb="FF9F9F9F"/>
+      <color rgb="FFC9C9C9"/>
+      <color rgb="FF8EA4B0"/>
       <color rgb="FFF4F6F8"/>
       <color rgb="FFB9C8D0"/>
-      <color rgb="FF405261"/>
       <color rgb="FF25323E"/>
-      <color rgb="FFBF4040"/>
-      <color rgb="FFE79898"/>
-      <color rgb="FFDFAA75"/>
-      <color rgb="FF75AADF"/>
-      <color rgb="FFA2CF8B"/>
-      <color rgb="FFD0E0EA"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2082,7 +2102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2115,9 +2135,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2150,6 +2187,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2325,7 +2379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2538,22 +2592,22 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="73"/>
       <c r="AV4" s="72"/>
-      <c r="AW4" s="175"/>
-      <c r="AX4" s="175"/>
-      <c r="AY4" s="175"/>
-      <c r="AZ4" s="175"/>
-      <c r="BA4" s="175"/>
-      <c r="BB4" s="175"/>
-      <c r="BC4" s="175"/>
+      <c r="AW4" s="219"/>
+      <c r="AX4" s="219"/>
+      <c r="AY4" s="219"/>
+      <c r="AZ4" s="219"/>
+      <c r="BA4" s="219"/>
+      <c r="BB4" s="219"/>
+      <c r="BC4" s="219"/>
       <c r="BD4" s="73"/>
       <c r="BF4" s="72"/>
-      <c r="BG4" s="175"/>
-      <c r="BH4" s="175"/>
-      <c r="BI4" s="175"/>
-      <c r="BJ4" s="175"/>
-      <c r="BK4" s="175"/>
-      <c r="BL4" s="175"/>
-      <c r="BM4" s="175"/>
+      <c r="BG4" s="219"/>
+      <c r="BH4" s="219"/>
+      <c r="BI4" s="219"/>
+      <c r="BJ4" s="219"/>
+      <c r="BK4" s="219"/>
+      <c r="BL4" s="219"/>
+      <c r="BM4" s="219"/>
       <c r="BN4" s="73"/>
     </row>
     <row r="5" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2626,48 +2680,48 @@
     </row>
     <row r="6" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="72"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="149"/>
-      <c r="X6" s="149"/>
-      <c r="Y6" s="149"/>
-      <c r="Z6" s="149"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="191"/>
+      <c r="W6" s="191"/>
+      <c r="X6" s="191"/>
+      <c r="Y6" s="191"/>
+      <c r="Z6" s="191"/>
       <c r="AA6" s="73"/>
       <c r="AC6" s="72"/>
-      <c r="AD6" s="149"/>
-      <c r="AE6" s="149"/>
-      <c r="AF6" s="149"/>
-      <c r="AG6" s="149"/>
-      <c r="AH6" s="149"/>
-      <c r="AI6" s="149"/>
-      <c r="AJ6" s="149"/>
-      <c r="AK6" s="149"/>
-      <c r="AL6" s="149"/>
-      <c r="AM6" s="149"/>
-      <c r="AN6" s="149"/>
-      <c r="AO6" s="149"/>
-      <c r="AP6" s="149"/>
-      <c r="AQ6" s="149"/>
-      <c r="AR6" s="149"/>
-      <c r="AS6" s="149"/>
+      <c r="AD6" s="191"/>
+      <c r="AE6" s="191"/>
+      <c r="AF6" s="191"/>
+      <c r="AG6" s="191"/>
+      <c r="AH6" s="191"/>
+      <c r="AI6" s="191"/>
+      <c r="AJ6" s="191"/>
+      <c r="AK6" s="191"/>
+      <c r="AL6" s="191"/>
+      <c r="AM6" s="191"/>
+      <c r="AN6" s="191"/>
+      <c r="AO6" s="191"/>
+      <c r="AP6" s="191"/>
+      <c r="AQ6" s="191"/>
+      <c r="AR6" s="191"/>
+      <c r="AS6" s="191"/>
       <c r="AT6" s="73"/>
       <c r="AV6" s="72"/>
       <c r="AW6" s="1"/>
@@ -2690,48 +2744,48 @@
     </row>
     <row r="7" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="72"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="148"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="193"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="149"/>
-      <c r="S7" s="174"/>
-      <c r="T7" s="174"/>
-      <c r="U7" s="174"/>
-      <c r="V7" s="174"/>
-      <c r="W7" s="174"/>
-      <c r="X7" s="174"/>
-      <c r="Y7" s="174"/>
-      <c r="Z7" s="148"/>
+      <c r="R7" s="191"/>
+      <c r="S7" s="218"/>
+      <c r="T7" s="218"/>
+      <c r="U7" s="218"/>
+      <c r="V7" s="218"/>
+      <c r="W7" s="218"/>
+      <c r="X7" s="218"/>
+      <c r="Y7" s="218"/>
+      <c r="Z7" s="193"/>
       <c r="AA7" s="73"/>
       <c r="AC7" s="72"/>
-      <c r="AD7" s="149"/>
-      <c r="AE7" s="148"/>
-      <c r="AF7" s="148"/>
-      <c r="AG7" s="148"/>
-      <c r="AH7" s="148"/>
-      <c r="AI7" s="148"/>
-      <c r="AJ7" s="148"/>
-      <c r="AK7" s="148"/>
-      <c r="AL7" s="148"/>
-      <c r="AM7" s="148"/>
-      <c r="AN7" s="148"/>
-      <c r="AO7" s="148"/>
-      <c r="AP7" s="148"/>
-      <c r="AQ7" s="148"/>
-      <c r="AR7" s="148"/>
-      <c r="AS7" s="148"/>
+      <c r="AD7" s="191"/>
+      <c r="AE7" s="193"/>
+      <c r="AF7" s="193"/>
+      <c r="AG7" s="193"/>
+      <c r="AH7" s="193"/>
+      <c r="AI7" s="193"/>
+      <c r="AJ7" s="193"/>
+      <c r="AK7" s="193"/>
+      <c r="AL7" s="193"/>
+      <c r="AM7" s="193"/>
+      <c r="AN7" s="193"/>
+      <c r="AO7" s="193"/>
+      <c r="AP7" s="193"/>
+      <c r="AQ7" s="193"/>
+      <c r="AR7" s="193"/>
+      <c r="AS7" s="193"/>
       <c r="AT7" s="73"/>
       <c r="AV7" s="72"/>
       <c r="AW7" s="1"/>
@@ -2754,11 +2808,11 @@
     </row>
     <row r="8" spans="2:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="72"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="155">
+      <c r="C8" s="191"/>
+      <c r="D8" s="199">
         <v>0.37152777777777773</v>
       </c>
-      <c r="E8" s="155"/>
+      <c r="E8" s="199"/>
       <c r="F8" s="42" t="s">
         <v>22</v>
       </c>
@@ -2771,9 +2825,9 @@
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="O8" s="43"/>
-      <c r="P8" s="148"/>
+      <c r="P8" s="193"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="149"/>
+      <c r="R8" s="191"/>
       <c r="S8" s="47" t="s">
         <v>32</v>
       </c>
@@ -2783,27 +2837,27 @@
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
       <c r="Y8" s="43"/>
-      <c r="Z8" s="148"/>
+      <c r="Z8" s="193"/>
       <c r="AA8" s="73"/>
       <c r="AC8" s="72"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="177" t="s">
+      <c r="AD8" s="191"/>
+      <c r="AE8" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="AF8" s="177"/>
-      <c r="AG8" s="177"/>
-      <c r="AH8" s="177"/>
-      <c r="AI8" s="177"/>
-      <c r="AJ8" s="177"/>
-      <c r="AK8" s="177"/>
-      <c r="AL8" s="177"/>
-      <c r="AM8" s="177"/>
-      <c r="AN8" s="177"/>
-      <c r="AO8" s="177"/>
-      <c r="AP8" s="177"/>
-      <c r="AQ8" s="177"/>
-      <c r="AR8" s="177"/>
-      <c r="AS8" s="148"/>
+      <c r="AF8" s="221"/>
+      <c r="AG8" s="221"/>
+      <c r="AH8" s="221"/>
+      <c r="AI8" s="221"/>
+      <c r="AJ8" s="221"/>
+      <c r="AK8" s="221"/>
+      <c r="AL8" s="221"/>
+      <c r="AM8" s="221"/>
+      <c r="AN8" s="221"/>
+      <c r="AO8" s="221"/>
+      <c r="AP8" s="221"/>
+      <c r="AQ8" s="221"/>
+      <c r="AR8" s="221"/>
+      <c r="AS8" s="193"/>
       <c r="AT8" s="73"/>
       <c r="AV8" s="72"/>
       <c r="AW8" s="4" t="s">
@@ -2830,7 +2884,7 @@
     </row>
     <row r="9" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="72"/>
-      <c r="C9" s="149"/>
+      <c r="C9" s="191"/>
       <c r="D9" s="44" t="s">
         <v>44</v>
       </c>
@@ -2845,9 +2899,9 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="148"/>
+      <c r="P9" s="193"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="149"/>
+      <c r="R9" s="191"/>
       <c r="S9" s="48" t="s">
         <v>33</v>
       </c>
@@ -2857,10 +2911,10 @@
       <c r="W9" s="48"/>
       <c r="X9" s="48"/>
       <c r="Y9" s="60"/>
-      <c r="Z9" s="148"/>
+      <c r="Z9" s="193"/>
       <c r="AA9" s="73"/>
       <c r="AC9" s="72"/>
-      <c r="AD9" s="149"/>
+      <c r="AD9" s="191"/>
       <c r="AE9" s="52" t="s">
         <v>23</v>
       </c>
@@ -2875,11 +2929,11 @@
       <c r="AN9" s="52"/>
       <c r="AO9" s="52"/>
       <c r="AP9" s="52"/>
-      <c r="AQ9" s="158">
+      <c r="AQ9" s="202">
         <v>0.37847222222222227</v>
       </c>
-      <c r="AR9" s="158"/>
-      <c r="AS9" s="148"/>
+      <c r="AR9" s="202"/>
+      <c r="AS9" s="193"/>
       <c r="AT9" s="73"/>
       <c r="AV9" s="72"/>
       <c r="AW9" s="1" t="s">
@@ -2906,7 +2960,7 @@
     </row>
     <row r="10" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="72"/>
-      <c r="C10" s="149"/>
+      <c r="C10" s="191"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -2919,9 +2973,9 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="148"/>
+      <c r="P10" s="193"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="149"/>
+      <c r="R10" s="191"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -2929,25 +2983,25 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="60"/>
-      <c r="Z10" s="148"/>
+      <c r="Z10" s="193"/>
       <c r="AA10" s="73"/>
       <c r="AC10" s="72"/>
-      <c r="AD10" s="149"/>
-      <c r="AE10" s="163"/>
-      <c r="AF10" s="163"/>
-      <c r="AG10" s="163"/>
-      <c r="AH10" s="163"/>
-      <c r="AI10" s="163"/>
-      <c r="AJ10" s="163"/>
-      <c r="AK10" s="163"/>
-      <c r="AL10" s="163"/>
-      <c r="AM10" s="163"/>
-      <c r="AN10" s="163"/>
-      <c r="AO10" s="163"/>
-      <c r="AP10" s="163"/>
-      <c r="AQ10" s="163"/>
-      <c r="AR10" s="163"/>
-      <c r="AS10" s="148"/>
+      <c r="AD10" s="191"/>
+      <c r="AE10" s="207"/>
+      <c r="AF10" s="207"/>
+      <c r="AG10" s="207"/>
+      <c r="AH10" s="207"/>
+      <c r="AI10" s="207"/>
+      <c r="AJ10" s="207"/>
+      <c r="AK10" s="207"/>
+      <c r="AL10" s="207"/>
+      <c r="AM10" s="207"/>
+      <c r="AN10" s="207"/>
+      <c r="AO10" s="207"/>
+      <c r="AP10" s="207"/>
+      <c r="AQ10" s="207"/>
+      <c r="AR10" s="207"/>
+      <c r="AS10" s="193"/>
       <c r="AT10" s="73"/>
       <c r="AV10" s="72"/>
       <c r="AW10" s="1"/>
@@ -2970,7 +3024,7 @@
     </row>
     <row r="11" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="72"/>
-      <c r="C11" s="149"/>
+      <c r="C11" s="191"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -2983,9 +3037,9 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="148"/>
+      <c r="P11" s="193"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="149"/>
+      <c r="R11" s="191"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -2993,25 +3047,25 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="60"/>
-      <c r="Z11" s="148"/>
+      <c r="Z11" s="193"/>
       <c r="AA11" s="73"/>
       <c r="AC11" s="72"/>
-      <c r="AD11" s="149"/>
-      <c r="AE11" s="164"/>
-      <c r="AF11" s="164"/>
-      <c r="AG11" s="164"/>
-      <c r="AH11" s="164"/>
-      <c r="AI11" s="164"/>
-      <c r="AJ11" s="164"/>
-      <c r="AK11" s="164"/>
-      <c r="AL11" s="164"/>
-      <c r="AM11" s="164"/>
-      <c r="AN11" s="164"/>
-      <c r="AO11" s="164"/>
-      <c r="AP11" s="164"/>
-      <c r="AQ11" s="164"/>
-      <c r="AR11" s="164"/>
-      <c r="AS11" s="148"/>
+      <c r="AD11" s="191"/>
+      <c r="AE11" s="208"/>
+      <c r="AF11" s="208"/>
+      <c r="AG11" s="208"/>
+      <c r="AH11" s="208"/>
+      <c r="AI11" s="208"/>
+      <c r="AJ11" s="208"/>
+      <c r="AK11" s="208"/>
+      <c r="AL11" s="208"/>
+      <c r="AM11" s="208"/>
+      <c r="AN11" s="208"/>
+      <c r="AO11" s="208"/>
+      <c r="AP11" s="208"/>
+      <c r="AQ11" s="208"/>
+      <c r="AR11" s="208"/>
+      <c r="AS11" s="193"/>
       <c r="AT11" s="73"/>
       <c r="AV11" s="72"/>
       <c r="AW11" s="1"/>
@@ -3034,7 +3088,7 @@
     </row>
     <row r="12" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="72"/>
-      <c r="C12" s="149"/>
+      <c r="C12" s="191"/>
       <c r="D12" s="45" t="s">
         <v>42</v>
       </c>
@@ -3049,9 +3103,9 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="148"/>
+      <c r="P12" s="193"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="149"/>
+      <c r="R12" s="191"/>
       <c r="S12" s="46" t="s">
         <v>38</v>
       </c>
@@ -3061,27 +3115,27 @@
       <c r="W12" s="46"/>
       <c r="X12" s="46"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="148"/>
+      <c r="Z12" s="193"/>
       <c r="AA12" s="73"/>
       <c r="AC12" s="72"/>
-      <c r="AD12" s="149"/>
-      <c r="AE12" s="178" t="s">
+      <c r="AD12" s="191"/>
+      <c r="AE12" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="AF12" s="178"/>
-      <c r="AG12" s="178"/>
-      <c r="AH12" s="178"/>
-      <c r="AI12" s="178"/>
-      <c r="AJ12" s="178"/>
-      <c r="AK12" s="178"/>
-      <c r="AL12" s="178"/>
-      <c r="AM12" s="178"/>
-      <c r="AN12" s="178"/>
-      <c r="AO12" s="178"/>
-      <c r="AP12" s="178"/>
-      <c r="AQ12" s="178"/>
-      <c r="AR12" s="178"/>
-      <c r="AS12" s="148"/>
+      <c r="AF12" s="222"/>
+      <c r="AG12" s="222"/>
+      <c r="AH12" s="222"/>
+      <c r="AI12" s="222"/>
+      <c r="AJ12" s="222"/>
+      <c r="AK12" s="222"/>
+      <c r="AL12" s="222"/>
+      <c r="AM12" s="222"/>
+      <c r="AN12" s="222"/>
+      <c r="AO12" s="222"/>
+      <c r="AP12" s="222"/>
+      <c r="AQ12" s="222"/>
+      <c r="AR12" s="222"/>
+      <c r="AS12" s="193"/>
       <c r="AT12" s="73"/>
       <c r="AV12" s="72"/>
       <c r="AW12" s="1" t="s">
@@ -3108,7 +3162,7 @@
     </row>
     <row r="13" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="72"/>
-      <c r="C13" s="149"/>
+      <c r="C13" s="191"/>
       <c r="D13" s="44" t="s">
         <v>41</v>
       </c>
@@ -3123,9 +3177,9 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="148"/>
+      <c r="P13" s="193"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="149"/>
+      <c r="R13" s="191"/>
       <c r="S13" s="64" t="s">
         <v>34</v>
       </c>
@@ -3135,10 +3189,10 @@
       <c r="W13" s="64"/>
       <c r="X13" s="64"/>
       <c r="Y13" s="60"/>
-      <c r="Z13" s="148"/>
+      <c r="Z13" s="193"/>
       <c r="AA13" s="73"/>
       <c r="AC13" s="72"/>
-      <c r="AD13" s="149"/>
+      <c r="AD13" s="191"/>
       <c r="AE13" s="53" t="s">
         <v>24</v>
       </c>
@@ -3153,11 +3207,11 @@
       <c r="AN13" s="53"/>
       <c r="AO13" s="53"/>
       <c r="AP13" s="53"/>
-      <c r="AQ13" s="159">
+      <c r="AQ13" s="203">
         <v>0.37916666666666665</v>
       </c>
-      <c r="AR13" s="159"/>
-      <c r="AS13" s="148"/>
+      <c r="AR13" s="203"/>
+      <c r="AS13" s="193"/>
       <c r="AT13" s="73"/>
       <c r="AV13" s="72"/>
       <c r="AW13" s="1" t="s">
@@ -3184,7 +3238,7 @@
     </row>
     <row r="14" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="72"/>
-      <c r="C14" s="149"/>
+      <c r="C14" s="191"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -3197,9 +3251,9 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="148"/>
+      <c r="P14" s="193"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="149"/>
+      <c r="R14" s="191"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -3207,25 +3261,25 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="60"/>
-      <c r="Z14" s="148"/>
+      <c r="Z14" s="193"/>
       <c r="AA14" s="73"/>
       <c r="AC14" s="72"/>
-      <c r="AD14" s="149"/>
-      <c r="AE14" s="163"/>
-      <c r="AF14" s="163"/>
-      <c r="AG14" s="163"/>
-      <c r="AH14" s="163"/>
-      <c r="AI14" s="163"/>
-      <c r="AJ14" s="163"/>
-      <c r="AK14" s="163"/>
-      <c r="AL14" s="163"/>
-      <c r="AM14" s="163"/>
-      <c r="AN14" s="163"/>
-      <c r="AO14" s="163"/>
-      <c r="AP14" s="163"/>
-      <c r="AQ14" s="163"/>
-      <c r="AR14" s="163"/>
-      <c r="AS14" s="148"/>
+      <c r="AD14" s="191"/>
+      <c r="AE14" s="207"/>
+      <c r="AF14" s="207"/>
+      <c r="AG14" s="207"/>
+      <c r="AH14" s="207"/>
+      <c r="AI14" s="207"/>
+      <c r="AJ14" s="207"/>
+      <c r="AK14" s="207"/>
+      <c r="AL14" s="207"/>
+      <c r="AM14" s="207"/>
+      <c r="AN14" s="207"/>
+      <c r="AO14" s="207"/>
+      <c r="AP14" s="207"/>
+      <c r="AQ14" s="207"/>
+      <c r="AR14" s="207"/>
+      <c r="AS14" s="193"/>
       <c r="AT14" s="73"/>
       <c r="AV14" s="72"/>
       <c r="AW14" s="1"/>
@@ -3248,7 +3302,7 @@
     </row>
     <row r="15" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="72"/>
-      <c r="C15" s="149"/>
+      <c r="C15" s="191"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -3261,9 +3315,9 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="148"/>
+      <c r="P15" s="193"/>
       <c r="Q15" s="16"/>
-      <c r="R15" s="149"/>
+      <c r="R15" s="191"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -3271,25 +3325,25 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="60"/>
-      <c r="Z15" s="148"/>
+      <c r="Z15" s="193"/>
       <c r="AA15" s="73"/>
       <c r="AC15" s="72"/>
-      <c r="AD15" s="149"/>
-      <c r="AE15" s="164"/>
-      <c r="AF15" s="164"/>
-      <c r="AG15" s="164"/>
-      <c r="AH15" s="164"/>
-      <c r="AI15" s="164"/>
-      <c r="AJ15" s="164"/>
-      <c r="AK15" s="164"/>
-      <c r="AL15" s="164"/>
-      <c r="AM15" s="164"/>
-      <c r="AN15" s="164"/>
-      <c r="AO15" s="164"/>
-      <c r="AP15" s="164"/>
-      <c r="AQ15" s="164"/>
-      <c r="AR15" s="164"/>
-      <c r="AS15" s="148"/>
+      <c r="AD15" s="191"/>
+      <c r="AE15" s="208"/>
+      <c r="AF15" s="208"/>
+      <c r="AG15" s="208"/>
+      <c r="AH15" s="208"/>
+      <c r="AI15" s="208"/>
+      <c r="AJ15" s="208"/>
+      <c r="AK15" s="208"/>
+      <c r="AL15" s="208"/>
+      <c r="AM15" s="208"/>
+      <c r="AN15" s="208"/>
+      <c r="AO15" s="208"/>
+      <c r="AP15" s="208"/>
+      <c r="AQ15" s="208"/>
+      <c r="AR15" s="208"/>
+      <c r="AS15" s="193"/>
       <c r="AT15" s="73"/>
       <c r="AV15" s="72"/>
       <c r="AW15" s="1"/>
@@ -3312,7 +3366,7 @@
     </row>
     <row r="16" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="72"/>
-      <c r="C16" s="149"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="46" t="s">
         <v>45</v>
       </c>
@@ -3327,9 +3381,9 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="148"/>
+      <c r="P16" s="193"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="149"/>
+      <c r="R16" s="191"/>
       <c r="S16" s="65" t="s">
         <v>35</v>
       </c>
@@ -3339,27 +3393,27 @@
       <c r="W16" s="65"/>
       <c r="X16" s="65"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="148"/>
+      <c r="Z16" s="193"/>
       <c r="AA16" s="73"/>
       <c r="AC16" s="72"/>
-      <c r="AD16" s="149"/>
-      <c r="AE16" s="179" t="s">
+      <c r="AD16" s="191"/>
+      <c r="AE16" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="AF16" s="179"/>
-      <c r="AG16" s="179"/>
-      <c r="AH16" s="179"/>
-      <c r="AI16" s="179"/>
-      <c r="AJ16" s="179"/>
-      <c r="AK16" s="179"/>
-      <c r="AL16" s="179"/>
-      <c r="AM16" s="179"/>
-      <c r="AN16" s="179"/>
-      <c r="AO16" s="179"/>
-      <c r="AP16" s="179"/>
-      <c r="AQ16" s="179"/>
-      <c r="AR16" s="179"/>
-      <c r="AS16" s="148"/>
+      <c r="AF16" s="223"/>
+      <c r="AG16" s="223"/>
+      <c r="AH16" s="223"/>
+      <c r="AI16" s="223"/>
+      <c r="AJ16" s="223"/>
+      <c r="AK16" s="223"/>
+      <c r="AL16" s="223"/>
+      <c r="AM16" s="223"/>
+      <c r="AN16" s="223"/>
+      <c r="AO16" s="223"/>
+      <c r="AP16" s="223"/>
+      <c r="AQ16" s="223"/>
+      <c r="AR16" s="223"/>
+      <c r="AS16" s="193"/>
       <c r="AT16" s="73"/>
       <c r="AV16" s="72"/>
       <c r="AW16" s="1" t="s">
@@ -3386,7 +3440,7 @@
     </row>
     <row r="17" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="72"/>
-      <c r="C17" s="149"/>
+      <c r="C17" s="191"/>
       <c r="D17" s="13" t="s">
         <v>39</v>
       </c>
@@ -3401,9 +3455,9 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="148"/>
+      <c r="P17" s="193"/>
       <c r="Q17" s="19"/>
-      <c r="R17" s="149"/>
+      <c r="R17" s="191"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
@@ -3411,10 +3465,10 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="26"/>
-      <c r="Z17" s="148"/>
+      <c r="Z17" s="193"/>
       <c r="AA17" s="73"/>
       <c r="AC17" s="72"/>
-      <c r="AD17" s="149"/>
+      <c r="AD17" s="191"/>
       <c r="AE17" s="54" t="s">
         <v>25</v>
       </c>
@@ -3429,11 +3483,11 @@
       <c r="AN17" s="54"/>
       <c r="AO17" s="54"/>
       <c r="AP17" s="54"/>
-      <c r="AQ17" s="160">
+      <c r="AQ17" s="204">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR17" s="160"/>
-      <c r="AS17" s="148"/>
+      <c r="AR17" s="204"/>
+      <c r="AS17" s="193"/>
       <c r="AT17" s="73"/>
       <c r="AV17" s="72"/>
       <c r="AW17" s="2" t="s">
@@ -3460,7 +3514,7 @@
     </row>
     <row r="18" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
-      <c r="C18" s="149"/>
+      <c r="C18" s="191"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -3473,9 +3527,9 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="148"/>
+      <c r="P18" s="193"/>
       <c r="Q18" s="20"/>
-      <c r="R18" s="149"/>
+      <c r="R18" s="191"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
@@ -3483,25 +3537,25 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="26"/>
-      <c r="Z18" s="148"/>
+      <c r="Z18" s="193"/>
       <c r="AA18" s="73"/>
       <c r="AC18" s="72"/>
-      <c r="AD18" s="149"/>
-      <c r="AE18" s="165"/>
-      <c r="AF18" s="165"/>
-      <c r="AG18" s="165"/>
-      <c r="AH18" s="165"/>
-      <c r="AI18" s="165"/>
-      <c r="AJ18" s="165"/>
-      <c r="AK18" s="165"/>
-      <c r="AL18" s="165"/>
-      <c r="AM18" s="165"/>
-      <c r="AN18" s="165"/>
-      <c r="AO18" s="165"/>
-      <c r="AP18" s="165"/>
-      <c r="AQ18" s="165"/>
-      <c r="AR18" s="165"/>
-      <c r="AS18" s="148"/>
+      <c r="AD18" s="191"/>
+      <c r="AE18" s="209"/>
+      <c r="AF18" s="209"/>
+      <c r="AG18" s="209"/>
+      <c r="AH18" s="209"/>
+      <c r="AI18" s="209"/>
+      <c r="AJ18" s="209"/>
+      <c r="AK18" s="209"/>
+      <c r="AL18" s="209"/>
+      <c r="AM18" s="209"/>
+      <c r="AN18" s="209"/>
+      <c r="AO18" s="209"/>
+      <c r="AP18" s="209"/>
+      <c r="AQ18" s="209"/>
+      <c r="AR18" s="209"/>
+      <c r="AS18" s="193"/>
       <c r="AT18" s="73"/>
       <c r="AV18" s="72"/>
       <c r="AW18" s="1"/>
@@ -3524,7 +3578,7 @@
     </row>
     <row r="19" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="72"/>
-      <c r="C19" s="149"/>
+      <c r="C19" s="191"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -3537,9 +3591,9 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="148"/>
+      <c r="P19" s="193"/>
       <c r="Q19" s="20"/>
-      <c r="R19" s="149"/>
+      <c r="R19" s="191"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
@@ -3547,25 +3601,25 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="26"/>
-      <c r="Z19" s="148"/>
+      <c r="Z19" s="193"/>
       <c r="AA19" s="73"/>
       <c r="AC19" s="72"/>
-      <c r="AD19" s="149"/>
-      <c r="AE19" s="166"/>
-      <c r="AF19" s="166"/>
-      <c r="AG19" s="166"/>
-      <c r="AH19" s="166"/>
-      <c r="AI19" s="166"/>
-      <c r="AJ19" s="166"/>
-      <c r="AK19" s="166"/>
-      <c r="AL19" s="166"/>
-      <c r="AM19" s="166"/>
-      <c r="AN19" s="166"/>
-      <c r="AO19" s="166"/>
-      <c r="AP19" s="166"/>
-      <c r="AQ19" s="166"/>
-      <c r="AR19" s="166"/>
-      <c r="AS19" s="148"/>
+      <c r="AD19" s="191"/>
+      <c r="AE19" s="210"/>
+      <c r="AF19" s="210"/>
+      <c r="AG19" s="210"/>
+      <c r="AH19" s="210"/>
+      <c r="AI19" s="210"/>
+      <c r="AJ19" s="210"/>
+      <c r="AK19" s="210"/>
+      <c r="AL19" s="210"/>
+      <c r="AM19" s="210"/>
+      <c r="AN19" s="210"/>
+      <c r="AO19" s="210"/>
+      <c r="AP19" s="210"/>
+      <c r="AQ19" s="210"/>
+      <c r="AR19" s="210"/>
+      <c r="AS19" s="193"/>
       <c r="AT19" s="73"/>
       <c r="AV19" s="72"/>
       <c r="AW19" s="1"/>
@@ -3588,7 +3642,7 @@
     </row>
     <row r="20" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="72"/>
-      <c r="C20" s="149"/>
+      <c r="C20" s="191"/>
       <c r="D20" s="47" t="s">
         <v>101</v>
       </c>
@@ -3603,9 +3657,9 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="148"/>
+      <c r="P20" s="193"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="149"/>
+      <c r="R20" s="191"/>
       <c r="S20" s="10" t="s">
         <v>37</v>
       </c>
@@ -3615,30 +3669,30 @@
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="13"/>
-      <c r="Z20" s="148"/>
+      <c r="Z20" s="193"/>
       <c r="AA20" s="73"/>
       <c r="AC20" s="72"/>
-      <c r="AD20" s="149"/>
-      <c r="AE20" s="180" t="s">
+      <c r="AD20" s="191"/>
+      <c r="AE20" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="AF20" s="180"/>
-      <c r="AG20" s="180"/>
-      <c r="AH20" s="180"/>
-      <c r="AI20" s="180"/>
-      <c r="AJ20" s="180"/>
-      <c r="AK20" s="180"/>
-      <c r="AL20" s="180"/>
-      <c r="AM20" s="180"/>
-      <c r="AN20" s="180"/>
-      <c r="AO20" s="180"/>
-      <c r="AP20" s="180"/>
-      <c r="AQ20" s="180"/>
-      <c r="AR20" s="180"/>
-      <c r="AS20" s="148"/>
+      <c r="AF20" s="224"/>
+      <c r="AG20" s="224"/>
+      <c r="AH20" s="224"/>
+      <c r="AI20" s="224"/>
+      <c r="AJ20" s="224"/>
+      <c r="AK20" s="224"/>
+      <c r="AL20" s="224"/>
+      <c r="AM20" s="224"/>
+      <c r="AN20" s="224"/>
+      <c r="AO20" s="224"/>
+      <c r="AP20" s="224"/>
+      <c r="AQ20" s="224"/>
+      <c r="AR20" s="224"/>
+      <c r="AS20" s="193"/>
       <c r="AT20" s="73"/>
       <c r="AV20" s="72"/>
-      <c r="AW20" s="201" t="s">
+      <c r="AW20" s="135" t="s">
         <v>7</v>
       </c>
       <c r="AX20" s="30"/>
@@ -3649,7 +3703,7 @@
       <c r="BC20" s="30"/>
       <c r="BD20" s="73"/>
       <c r="BF20" s="72"/>
-      <c r="BG20" s="201" t="s">
+      <c r="BG20" s="135" t="s">
         <v>7</v>
       </c>
       <c r="BH20" s="30"/>
@@ -3662,7 +3716,7 @@
     </row>
     <row r="21" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="72"/>
-      <c r="C21" s="149"/>
+      <c r="C21" s="191"/>
       <c r="D21" s="48" t="s">
         <v>104</v>
       </c>
@@ -3677,9 +3731,9 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="148"/>
+      <c r="P21" s="193"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="149"/>
+      <c r="R21" s="191"/>
       <c r="S21" s="13" t="s">
         <v>36</v>
       </c>
@@ -3689,10 +3743,10 @@
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="26"/>
-      <c r="Z21" s="148"/>
+      <c r="Z21" s="193"/>
       <c r="AA21" s="73"/>
       <c r="AC21" s="72"/>
-      <c r="AD21" s="149"/>
+      <c r="AD21" s="191"/>
       <c r="AE21" s="55" t="s">
         <v>27</v>
       </c>
@@ -3707,11 +3761,11 @@
       <c r="AN21" s="55"/>
       <c r="AO21" s="55"/>
       <c r="AP21" s="55"/>
-      <c r="AQ21" s="161">
+      <c r="AQ21" s="205">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR21" s="161"/>
-      <c r="AS21" s="148"/>
+      <c r="AR21" s="205"/>
+      <c r="AS21" s="193"/>
       <c r="AT21" s="73"/>
       <c r="AV21" s="72"/>
       <c r="AW21" s="2" t="s">
@@ -3738,7 +3792,7 @@
     </row>
     <row r="22" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="72"/>
-      <c r="C22" s="149"/>
+      <c r="C22" s="191"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -3751,9 +3805,9 @@
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="148"/>
+      <c r="P22" s="193"/>
       <c r="Q22" s="22"/>
-      <c r="R22" s="149"/>
+      <c r="R22" s="191"/>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
@@ -3761,25 +3815,25 @@
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="26"/>
-      <c r="Z22" s="148"/>
+      <c r="Z22" s="193"/>
       <c r="AA22" s="73"/>
       <c r="AC22" s="72"/>
-      <c r="AD22" s="149"/>
-      <c r="AE22" s="167"/>
-      <c r="AF22" s="167"/>
-      <c r="AG22" s="167"/>
-      <c r="AH22" s="167"/>
-      <c r="AI22" s="167"/>
-      <c r="AJ22" s="167"/>
-      <c r="AK22" s="167"/>
-      <c r="AL22" s="167"/>
-      <c r="AM22" s="167"/>
-      <c r="AN22" s="167"/>
-      <c r="AO22" s="167"/>
-      <c r="AP22" s="167"/>
-      <c r="AQ22" s="167"/>
-      <c r="AR22" s="167"/>
-      <c r="AS22" s="148"/>
+      <c r="AD22" s="191"/>
+      <c r="AE22" s="211"/>
+      <c r="AF22" s="211"/>
+      <c r="AG22" s="211"/>
+      <c r="AH22" s="211"/>
+      <c r="AI22" s="211"/>
+      <c r="AJ22" s="211"/>
+      <c r="AK22" s="211"/>
+      <c r="AL22" s="211"/>
+      <c r="AM22" s="211"/>
+      <c r="AN22" s="211"/>
+      <c r="AO22" s="211"/>
+      <c r="AP22" s="211"/>
+      <c r="AQ22" s="211"/>
+      <c r="AR22" s="211"/>
+      <c r="AS22" s="193"/>
       <c r="AT22" s="73"/>
       <c r="AV22" s="72"/>
       <c r="AW22" s="3"/>
@@ -3802,7 +3856,7 @@
     </row>
     <row r="23" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="72"/>
-      <c r="C23" s="149"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -3815,9 +3869,9 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
-      <c r="P23" s="148"/>
+      <c r="P23" s="193"/>
       <c r="Q23" s="22"/>
-      <c r="R23" s="149"/>
+      <c r="R23" s="191"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -3825,25 +3879,25 @@
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="26"/>
-      <c r="Z23" s="148"/>
+      <c r="Z23" s="193"/>
       <c r="AA23" s="73"/>
       <c r="AC23" s="72"/>
-      <c r="AD23" s="149"/>
-      <c r="AE23" s="168"/>
-      <c r="AF23" s="168"/>
-      <c r="AG23" s="168"/>
-      <c r="AH23" s="168"/>
-      <c r="AI23" s="168"/>
-      <c r="AJ23" s="168"/>
-      <c r="AK23" s="168"/>
-      <c r="AL23" s="168"/>
-      <c r="AM23" s="168"/>
-      <c r="AN23" s="168"/>
-      <c r="AO23" s="168"/>
-      <c r="AP23" s="168"/>
-      <c r="AQ23" s="168"/>
-      <c r="AR23" s="168"/>
-      <c r="AS23" s="148"/>
+      <c r="AD23" s="191"/>
+      <c r="AE23" s="212"/>
+      <c r="AF23" s="212"/>
+      <c r="AG23" s="212"/>
+      <c r="AH23" s="212"/>
+      <c r="AI23" s="212"/>
+      <c r="AJ23" s="212"/>
+      <c r="AK23" s="212"/>
+      <c r="AL23" s="212"/>
+      <c r="AM23" s="212"/>
+      <c r="AN23" s="212"/>
+      <c r="AO23" s="212"/>
+      <c r="AP23" s="212"/>
+      <c r="AQ23" s="212"/>
+      <c r="AR23" s="212"/>
+      <c r="AS23" s="193"/>
       <c r="AT23" s="73"/>
       <c r="AV23" s="72"/>
       <c r="AW23" s="3"/>
@@ -3866,7 +3920,7 @@
     </row>
     <row r="24" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="72"/>
-      <c r="C24" s="149"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="49" t="s">
         <v>102</v>
       </c>
@@ -3881,9 +3935,9 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="26"/>
-      <c r="P24" s="148"/>
+      <c r="P24" s="193"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="149"/>
+      <c r="R24" s="191"/>
       <c r="S24" s="26"/>
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
@@ -3891,10 +3945,10 @@
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26"/>
-      <c r="Z24" s="148"/>
+      <c r="Z24" s="193"/>
       <c r="AA24" s="73"/>
       <c r="AC24" s="72"/>
-      <c r="AD24" s="149"/>
+      <c r="AD24" s="191"/>
       <c r="AE24" s="56" t="s">
         <v>26</v>
       </c>
@@ -3911,10 +3965,10 @@
       <c r="AP24" s="56"/>
       <c r="AQ24" s="56"/>
       <c r="AR24" s="57"/>
-      <c r="AS24" s="148"/>
+      <c r="AS24" s="193"/>
       <c r="AT24" s="73"/>
       <c r="AV24" s="72"/>
-      <c r="AW24" s="202" t="s">
+      <c r="AW24" s="136" t="s">
         <v>9</v>
       </c>
       <c r="AX24" s="31"/>
@@ -3925,7 +3979,7 @@
       <c r="BC24" s="31"/>
       <c r="BD24" s="73"/>
       <c r="BF24" s="72"/>
-      <c r="BG24" s="202" t="s">
+      <c r="BG24" s="136" t="s">
         <v>9</v>
       </c>
       <c r="BH24" s="31"/>
@@ -3938,7 +3992,7 @@
     </row>
     <row r="25" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="72"/>
-      <c r="C25" s="149"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="50" t="s">
         <v>103</v>
       </c>
@@ -3953,9 +4007,9 @@
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="148"/>
+      <c r="P25" s="193"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="149"/>
+      <c r="R25" s="191"/>
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
@@ -3963,10 +4017,10 @@
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
-      <c r="Z25" s="148"/>
+      <c r="Z25" s="193"/>
       <c r="AA25" s="73"/>
       <c r="AC25" s="72"/>
-      <c r="AD25" s="149"/>
+      <c r="AD25" s="191"/>
       <c r="AE25" s="58" t="s">
         <v>28</v>
       </c>
@@ -3981,14 +4035,14 @@
       <c r="AN25" s="58"/>
       <c r="AO25" s="58"/>
       <c r="AP25" s="58"/>
-      <c r="AQ25" s="162">
+      <c r="AQ25" s="206">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR25" s="162"/>
-      <c r="AS25" s="148"/>
+      <c r="AR25" s="206"/>
+      <c r="AS25" s="193"/>
       <c r="AT25" s="73"/>
       <c r="AV25" s="72"/>
-      <c r="AW25" s="203" t="s">
+      <c r="AW25" s="137" t="s">
         <v>10</v>
       </c>
       <c r="AX25" s="32"/>
@@ -3999,7 +4053,7 @@
       <c r="BC25" s="32"/>
       <c r="BD25" s="73"/>
       <c r="BF25" s="72"/>
-      <c r="BG25" s="203" t="s">
+      <c r="BG25" s="137" t="s">
         <v>10</v>
       </c>
       <c r="BH25" s="32"/>
@@ -4012,7 +4066,7 @@
     </row>
     <row r="26" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="72"/>
-      <c r="C26" s="149"/>
+      <c r="C26" s="191"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -4025,9 +4079,9 @@
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
-      <c r="P26" s="148"/>
+      <c r="P26" s="193"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="149"/>
+      <c r="R26" s="191"/>
       <c r="S26" s="26"/>
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
@@ -4035,25 +4089,25 @@
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
-      <c r="Z26" s="148"/>
+      <c r="Z26" s="193"/>
       <c r="AA26" s="73"/>
       <c r="AC26" s="72"/>
-      <c r="AD26" s="149"/>
-      <c r="AE26" s="145"/>
-      <c r="AF26" s="145"/>
-      <c r="AG26" s="145"/>
-      <c r="AH26" s="145"/>
-      <c r="AI26" s="145"/>
-      <c r="AJ26" s="145"/>
-      <c r="AK26" s="145"/>
-      <c r="AL26" s="145"/>
-      <c r="AM26" s="145"/>
-      <c r="AN26" s="145"/>
-      <c r="AO26" s="145"/>
-      <c r="AP26" s="145"/>
-      <c r="AQ26" s="145"/>
-      <c r="AR26" s="145"/>
-      <c r="AS26" s="148"/>
+      <c r="AD26" s="191"/>
+      <c r="AE26" s="189"/>
+      <c r="AF26" s="189"/>
+      <c r="AG26" s="189"/>
+      <c r="AH26" s="189"/>
+      <c r="AI26" s="189"/>
+      <c r="AJ26" s="189"/>
+      <c r="AK26" s="189"/>
+      <c r="AL26" s="189"/>
+      <c r="AM26" s="189"/>
+      <c r="AN26" s="189"/>
+      <c r="AO26" s="189"/>
+      <c r="AP26" s="189"/>
+      <c r="AQ26" s="189"/>
+      <c r="AR26" s="189"/>
+      <c r="AS26" s="193"/>
       <c r="AT26" s="73"/>
       <c r="AV26" s="72"/>
       <c r="AW26" s="5"/>
@@ -4076,7 +4130,7 @@
     </row>
     <row r="27" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="72"/>
-      <c r="C27" s="149"/>
+      <c r="C27" s="191"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -4089,9 +4143,9 @@
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="148"/>
+      <c r="P27" s="193"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="149"/>
+      <c r="R27" s="191"/>
       <c r="S27" s="26"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
@@ -4099,25 +4153,25 @@
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
-      <c r="Z27" s="148"/>
+      <c r="Z27" s="193"/>
       <c r="AA27" s="73"/>
       <c r="AC27" s="72"/>
-      <c r="AD27" s="149"/>
-      <c r="AE27" s="146"/>
-      <c r="AF27" s="146"/>
-      <c r="AG27" s="146"/>
-      <c r="AH27" s="146"/>
-      <c r="AI27" s="146"/>
-      <c r="AJ27" s="146"/>
-      <c r="AK27" s="146"/>
-      <c r="AL27" s="146"/>
-      <c r="AM27" s="146"/>
-      <c r="AN27" s="146"/>
-      <c r="AO27" s="146"/>
-      <c r="AP27" s="146"/>
-      <c r="AQ27" s="146"/>
-      <c r="AR27" s="146"/>
-      <c r="AS27" s="148"/>
+      <c r="AD27" s="191"/>
+      <c r="AE27" s="190"/>
+      <c r="AF27" s="190"/>
+      <c r="AG27" s="190"/>
+      <c r="AH27" s="190"/>
+      <c r="AI27" s="190"/>
+      <c r="AJ27" s="190"/>
+      <c r="AK27" s="190"/>
+      <c r="AL27" s="190"/>
+      <c r="AM27" s="190"/>
+      <c r="AN27" s="190"/>
+      <c r="AO27" s="190"/>
+      <c r="AP27" s="190"/>
+      <c r="AQ27" s="190"/>
+      <c r="AR27" s="190"/>
+      <c r="AS27" s="193"/>
       <c r="AT27" s="73"/>
       <c r="AV27" s="72"/>
       <c r="AW27" s="5"/>
@@ -4140,7 +4194,7 @@
     </row>
     <row r="28" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="72"/>
-      <c r="C28" s="149"/>
+      <c r="C28" s="191"/>
       <c r="D28" s="51" t="s">
         <v>43</v>
       </c>
@@ -4155,9 +4209,9 @@
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
       <c r="O28" s="26"/>
-      <c r="P28" s="148"/>
+      <c r="P28" s="193"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="149"/>
+      <c r="R28" s="191"/>
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
@@ -4165,10 +4219,10 @@
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="60"/>
-      <c r="Z28" s="148"/>
+      <c r="Z28" s="193"/>
       <c r="AA28" s="73"/>
       <c r="AC28" s="72"/>
-      <c r="AD28" s="149"/>
+      <c r="AD28" s="191"/>
       <c r="AE28" s="59" t="s">
         <v>29</v>
       </c>
@@ -4183,11 +4237,11 @@
       <c r="AN28" s="59"/>
       <c r="AO28" s="59"/>
       <c r="AP28" s="59"/>
-      <c r="AQ28" s="169">
+      <c r="AQ28" s="213">
         <v>0.38055555555555554</v>
       </c>
-      <c r="AR28" s="169"/>
-      <c r="AS28" s="148"/>
+      <c r="AR28" s="213"/>
+      <c r="AS28" s="193"/>
       <c r="AT28" s="73"/>
       <c r="AV28" s="72"/>
       <c r="AW28" s="6" t="s">
@@ -4214,7 +4268,7 @@
     </row>
     <row r="29" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="72"/>
-      <c r="C29" s="149"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
@@ -4227,9 +4281,9 @@
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="26"/>
-      <c r="P29" s="148"/>
+      <c r="P29" s="193"/>
       <c r="Q29" s="8"/>
-      <c r="R29" s="149"/>
+      <c r="R29" s="191"/>
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
@@ -4237,10 +4291,10 @@
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
-      <c r="Z29" s="148"/>
+      <c r="Z29" s="193"/>
       <c r="AA29" s="73"/>
       <c r="AC29" s="72"/>
-      <c r="AD29" s="149"/>
+      <c r="AD29" s="191"/>
       <c r="AE29" s="61"/>
       <c r="AF29" s="61"/>
       <c r="AG29" s="61"/>
@@ -4255,7 +4309,7 @@
       <c r="AP29" s="61"/>
       <c r="AQ29" s="61"/>
       <c r="AR29" s="62"/>
-      <c r="AS29" s="148"/>
+      <c r="AS29" s="193"/>
       <c r="AT29" s="73"/>
       <c r="AV29" s="72"/>
       <c r="AW29" s="6"/>
@@ -4278,7 +4332,7 @@
     </row>
     <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" s="72"/>
-      <c r="C30" s="149"/>
+      <c r="C30" s="191"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="26"/>
@@ -4291,9 +4345,9 @@
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="148"/>
+      <c r="P30" s="193"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="149"/>
+      <c r="R30" s="191"/>
       <c r="S30" s="26"/>
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
@@ -4301,10 +4355,10 @@
       <c r="W30" s="26"/>
       <c r="X30" s="26"/>
       <c r="Y30" s="26"/>
-      <c r="Z30" s="148"/>
+      <c r="Z30" s="193"/>
       <c r="AA30" s="73"/>
       <c r="AC30" s="72"/>
-      <c r="AD30" s="149"/>
+      <c r="AD30" s="191"/>
       <c r="AE30" s="63"/>
       <c r="AF30" s="63"/>
       <c r="AG30" s="63"/>
@@ -4319,7 +4373,7 @@
       <c r="AP30" s="63"/>
       <c r="AQ30" s="63"/>
       <c r="AR30" s="63"/>
-      <c r="AS30" s="148"/>
+      <c r="AS30" s="193"/>
       <c r="AT30" s="73"/>
       <c r="AV30" s="72"/>
       <c r="AW30" s="6" t="s">
@@ -4346,7 +4400,7 @@
     </row>
     <row r="31" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="72"/>
-      <c r="C31" s="149"/>
+      <c r="C31" s="191"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
@@ -4359,9 +4413,9 @@
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="148"/>
+      <c r="P31" s="193"/>
       <c r="Q31" s="8"/>
-      <c r="R31" s="149"/>
+      <c r="R31" s="191"/>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
@@ -4369,10 +4423,10 @@
       <c r="W31" s="26"/>
       <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
-      <c r="Z31" s="148"/>
+      <c r="Z31" s="193"/>
       <c r="AA31" s="73"/>
       <c r="AC31" s="72"/>
-      <c r="AD31" s="149"/>
+      <c r="AD31" s="191"/>
       <c r="AE31" s="63"/>
       <c r="AF31" s="63"/>
       <c r="AG31" s="63"/>
@@ -4387,7 +4441,7 @@
       <c r="AP31" s="63"/>
       <c r="AQ31" s="63"/>
       <c r="AR31" s="63"/>
-      <c r="AS31" s="148"/>
+      <c r="AS31" s="193"/>
       <c r="AT31" s="73"/>
       <c r="AV31" s="72"/>
       <c r="AW31" s="6"/>
@@ -4410,48 +4464,48 @@
     </row>
     <row r="32" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="72"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="176"/>
-      <c r="N32" s="176"/>
-      <c r="O32" s="176"/>
-      <c r="P32" s="176"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="220"/>
+      <c r="E32" s="220"/>
+      <c r="F32" s="220"/>
+      <c r="G32" s="220"/>
+      <c r="H32" s="220"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="220"/>
+      <c r="K32" s="220"/>
+      <c r="L32" s="220"/>
+      <c r="M32" s="220"/>
+      <c r="N32" s="220"/>
+      <c r="O32" s="220"/>
+      <c r="P32" s="220"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="149"/>
-      <c r="S32" s="176"/>
-      <c r="T32" s="176"/>
-      <c r="U32" s="176"/>
-      <c r="V32" s="176"/>
-      <c r="W32" s="176"/>
-      <c r="X32" s="176"/>
-      <c r="Y32" s="176"/>
-      <c r="Z32" s="176"/>
+      <c r="R32" s="191"/>
+      <c r="S32" s="220"/>
+      <c r="T32" s="220"/>
+      <c r="U32" s="220"/>
+      <c r="V32" s="220"/>
+      <c r="W32" s="220"/>
+      <c r="X32" s="220"/>
+      <c r="Y32" s="220"/>
+      <c r="Z32" s="220"/>
       <c r="AA32" s="73"/>
       <c r="AC32" s="72"/>
-      <c r="AD32" s="149"/>
-      <c r="AE32" s="148"/>
-      <c r="AF32" s="148"/>
-      <c r="AG32" s="148"/>
-      <c r="AH32" s="148"/>
-      <c r="AI32" s="148"/>
-      <c r="AJ32" s="148"/>
-      <c r="AK32" s="148"/>
-      <c r="AL32" s="148"/>
-      <c r="AM32" s="148"/>
-      <c r="AN32" s="148"/>
-      <c r="AO32" s="148"/>
-      <c r="AP32" s="148"/>
-      <c r="AQ32" s="148"/>
-      <c r="AR32" s="148"/>
-      <c r="AS32" s="148"/>
+      <c r="AD32" s="191"/>
+      <c r="AE32" s="193"/>
+      <c r="AF32" s="193"/>
+      <c r="AG32" s="193"/>
+      <c r="AH32" s="193"/>
+      <c r="AI32" s="193"/>
+      <c r="AJ32" s="193"/>
+      <c r="AK32" s="193"/>
+      <c r="AL32" s="193"/>
+      <c r="AM32" s="193"/>
+      <c r="AN32" s="193"/>
+      <c r="AO32" s="193"/>
+      <c r="AP32" s="193"/>
+      <c r="AQ32" s="193"/>
+      <c r="AR32" s="193"/>
+      <c r="AS32" s="193"/>
       <c r="AT32" s="73"/>
       <c r="AV32" s="72"/>
       <c r="AW32" s="6"/>
@@ -4542,48 +4596,48 @@
     </row>
     <row r="34" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="72"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="149"/>
-      <c r="P34" s="149"/>
-      <c r="Q34" s="149"/>
-      <c r="R34" s="149"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="149"/>
-      <c r="U34" s="149"/>
-      <c r="V34" s="149"/>
-      <c r="W34" s="149"/>
-      <c r="X34" s="149"/>
-      <c r="Y34" s="149"/>
-      <c r="Z34" s="149"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="191"/>
+      <c r="M34" s="191"/>
+      <c r="N34" s="191"/>
+      <c r="O34" s="191"/>
+      <c r="P34" s="191"/>
+      <c r="Q34" s="191"/>
+      <c r="R34" s="191"/>
+      <c r="S34" s="191"/>
+      <c r="T34" s="191"/>
+      <c r="U34" s="191"/>
+      <c r="V34" s="191"/>
+      <c r="W34" s="191"/>
+      <c r="X34" s="191"/>
+      <c r="Y34" s="191"/>
+      <c r="Z34" s="191"/>
       <c r="AA34" s="73"/>
       <c r="AC34" s="72"/>
-      <c r="AD34" s="149"/>
-      <c r="AE34" s="149"/>
-      <c r="AF34" s="149"/>
-      <c r="AG34" s="149"/>
-      <c r="AH34" s="149"/>
-      <c r="AI34" s="149"/>
-      <c r="AJ34" s="149"/>
-      <c r="AK34" s="149"/>
-      <c r="AL34" s="149"/>
-      <c r="AM34" s="149"/>
-      <c r="AN34" s="149"/>
-      <c r="AO34" s="149"/>
-      <c r="AP34" s="149"/>
-      <c r="AQ34" s="149"/>
-      <c r="AR34" s="149"/>
-      <c r="AS34" s="149"/>
+      <c r="AD34" s="191"/>
+      <c r="AE34" s="191"/>
+      <c r="AF34" s="191"/>
+      <c r="AG34" s="191"/>
+      <c r="AH34" s="191"/>
+      <c r="AI34" s="191"/>
+      <c r="AJ34" s="191"/>
+      <c r="AK34" s="191"/>
+      <c r="AL34" s="191"/>
+      <c r="AM34" s="191"/>
+      <c r="AN34" s="191"/>
+      <c r="AO34" s="191"/>
+      <c r="AP34" s="191"/>
+      <c r="AQ34" s="191"/>
+      <c r="AR34" s="191"/>
+      <c r="AS34" s="191"/>
       <c r="AT34" s="73"/>
       <c r="AV34" s="72"/>
       <c r="AW34" s="1"/>
@@ -4606,51 +4660,51 @@
     </row>
     <row r="35" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="72"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="150" t="s">
+      <c r="C35" s="191"/>
+      <c r="D35" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="150"/>
-      <c r="O35" s="150"/>
-      <c r="P35" s="150"/>
-      <c r="Q35" s="150"/>
-      <c r="R35" s="150"/>
-      <c r="S35" s="150"/>
-      <c r="T35" s="150"/>
-      <c r="U35" s="150"/>
-      <c r="V35" s="150"/>
-      <c r="W35" s="150"/>
-      <c r="X35" s="150"/>
-      <c r="Y35" s="150"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="194"/>
+      <c r="L35" s="194"/>
+      <c r="M35" s="194"/>
+      <c r="N35" s="194"/>
+      <c r="O35" s="194"/>
+      <c r="P35" s="194"/>
+      <c r="Q35" s="194"/>
+      <c r="R35" s="194"/>
+      <c r="S35" s="194"/>
+      <c r="T35" s="194"/>
+      <c r="U35" s="194"/>
+      <c r="V35" s="194"/>
+      <c r="W35" s="194"/>
+      <c r="X35" s="194"/>
+      <c r="Y35" s="194"/>
       <c r="Z35" s="66"/>
       <c r="AA35" s="73"/>
       <c r="AC35" s="72"/>
-      <c r="AD35" s="149"/>
-      <c r="AE35" s="150" t="s">
+      <c r="AD35" s="191"/>
+      <c r="AE35" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="AF35" s="150"/>
-      <c r="AG35" s="150"/>
-      <c r="AH35" s="150"/>
-      <c r="AI35" s="150"/>
-      <c r="AJ35" s="150"/>
-      <c r="AK35" s="150"/>
-      <c r="AL35" s="150"/>
-      <c r="AM35" s="150"/>
-      <c r="AN35" s="150"/>
-      <c r="AO35" s="150"/>
-      <c r="AP35" s="150"/>
-      <c r="AQ35" s="150"/>
-      <c r="AR35" s="150"/>
+      <c r="AF35" s="194"/>
+      <c r="AG35" s="194"/>
+      <c r="AH35" s="194"/>
+      <c r="AI35" s="194"/>
+      <c r="AJ35" s="194"/>
+      <c r="AK35" s="194"/>
+      <c r="AL35" s="194"/>
+      <c r="AM35" s="194"/>
+      <c r="AN35" s="194"/>
+      <c r="AO35" s="194"/>
+      <c r="AP35" s="194"/>
+      <c r="AQ35" s="194"/>
+      <c r="AR35" s="194"/>
       <c r="AS35" s="66"/>
       <c r="AT35" s="73"/>
       <c r="AV35" s="72"/>
@@ -4678,48 +4732,48 @@
     </row>
     <row r="36" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="72"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="148"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="148"/>
-      <c r="P36" s="148"/>
-      <c r="Q36" s="148"/>
-      <c r="R36" s="148"/>
-      <c r="S36" s="148"/>
-      <c r="T36" s="148"/>
-      <c r="U36" s="148"/>
-      <c r="V36" s="148"/>
-      <c r="W36" s="148"/>
-      <c r="X36" s="148"/>
-      <c r="Y36" s="148"/>
-      <c r="Z36" s="148"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="193"/>
+      <c r="E36" s="193"/>
+      <c r="F36" s="193"/>
+      <c r="G36" s="193"/>
+      <c r="H36" s="193"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="193"/>
+      <c r="K36" s="193"/>
+      <c r="L36" s="193"/>
+      <c r="M36" s="193"/>
+      <c r="N36" s="193"/>
+      <c r="O36" s="193"/>
+      <c r="P36" s="193"/>
+      <c r="Q36" s="193"/>
+      <c r="R36" s="193"/>
+      <c r="S36" s="193"/>
+      <c r="T36" s="193"/>
+      <c r="U36" s="193"/>
+      <c r="V36" s="193"/>
+      <c r="W36" s="193"/>
+      <c r="X36" s="193"/>
+      <c r="Y36" s="193"/>
+      <c r="Z36" s="193"/>
       <c r="AA36" s="73"/>
       <c r="AC36" s="72"/>
-      <c r="AD36" s="149"/>
-      <c r="AE36" s="148"/>
-      <c r="AF36" s="148"/>
-      <c r="AG36" s="148"/>
-      <c r="AH36" s="148"/>
-      <c r="AI36" s="148"/>
-      <c r="AJ36" s="148"/>
-      <c r="AK36" s="148"/>
-      <c r="AL36" s="148"/>
-      <c r="AM36" s="148"/>
-      <c r="AN36" s="148"/>
-      <c r="AO36" s="148"/>
-      <c r="AP36" s="148"/>
-      <c r="AQ36" s="148"/>
-      <c r="AR36" s="148"/>
-      <c r="AS36" s="148"/>
+      <c r="AD36" s="191"/>
+      <c r="AE36" s="193"/>
+      <c r="AF36" s="193"/>
+      <c r="AG36" s="193"/>
+      <c r="AH36" s="193"/>
+      <c r="AI36" s="193"/>
+      <c r="AJ36" s="193"/>
+      <c r="AK36" s="193"/>
+      <c r="AL36" s="193"/>
+      <c r="AM36" s="193"/>
+      <c r="AN36" s="193"/>
+      <c r="AO36" s="193"/>
+      <c r="AP36" s="193"/>
+      <c r="AQ36" s="193"/>
+      <c r="AR36" s="193"/>
+      <c r="AS36" s="193"/>
       <c r="AT36" s="73"/>
       <c r="AU36" s="77"/>
       <c r="AV36" s="72"/>
@@ -4832,11 +4886,11 @@
       <c r="Q39" s="77"/>
       <c r="R39" s="77"/>
       <c r="S39" s="36"/>
-      <c r="AC39" s="7" t="s">
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="33"/>
       <c r="AF39" s="33"/>
       <c r="AG39" s="33"/>
       <c r="AH39" s="33"/>
@@ -4897,11 +4951,11 @@
       <c r="Q40" s="77"/>
       <c r="R40" s="77"/>
       <c r="S40" s="36"/>
-      <c r="AC40" s="39" t="s">
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="40"/>
       <c r="AF40" s="40"/>
       <c r="AG40" s="40"/>
       <c r="AH40" s="40"/>
@@ -4943,13 +4997,13 @@
       <c r="B41" s="72"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="173"/>
+      <c r="E41" s="217"/>
+      <c r="F41" s="217"/>
+      <c r="G41" s="217"/>
+      <c r="H41" s="217"/>
+      <c r="I41" s="217"/>
+      <c r="J41" s="217"/>
+      <c r="K41" s="217"/>
       <c r="L41" s="73"/>
       <c r="M41" s="77"/>
       <c r="N41" s="77"/>
@@ -5019,11 +5073,11 @@
       <c r="Q42" s="77"/>
       <c r="R42" s="77"/>
       <c r="S42" s="36"/>
-      <c r="AC42" s="39" t="s">
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="40"/>
       <c r="AF42" s="40"/>
       <c r="AG42" s="40"/>
       <c r="AH42" s="40"/>
@@ -5061,719 +5115,719 @@
       <c r="S43" s="36"/>
     </row>
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B44" s="170" t="s">
+      <c r="B44" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="170"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="170"/>
-      <c r="K44" s="170"/>
-      <c r="L44" s="170"/>
-      <c r="M44" s="138" t="s">
+      <c r="C44" s="214"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="214"/>
+      <c r="F44" s="214"/>
+      <c r="G44" s="214"/>
+      <c r="H44" s="214"/>
+      <c r="I44" s="214"/>
+      <c r="J44" s="214"/>
+      <c r="K44" s="214"/>
+      <c r="L44" s="214"/>
+      <c r="M44" s="182" t="s">
         <v>58</v>
       </c>
-      <c r="N44" s="138"/>
-      <c r="O44" s="138"/>
-      <c r="P44" s="138"/>
-      <c r="Q44" s="138"/>
-      <c r="R44" s="138"/>
-      <c r="S44" s="138"/>
-      <c r="T44" s="138"/>
-      <c r="U44" s="138"/>
-      <c r="V44" s="136" t="s">
+      <c r="N44" s="182"/>
+      <c r="O44" s="182"/>
+      <c r="P44" s="182"/>
+      <c r="Q44" s="182"/>
+      <c r="R44" s="182"/>
+      <c r="S44" s="182"/>
+      <c r="T44" s="182"/>
+      <c r="U44" s="182"/>
+      <c r="V44" s="180" t="s">
         <v>98</v>
       </c>
-      <c r="W44" s="136"/>
-      <c r="X44" s="136"/>
-      <c r="Y44" s="136"/>
-      <c r="Z44" s="136"/>
-      <c r="AA44" s="136"/>
-      <c r="AB44" s="136"/>
-      <c r="AC44" s="136"/>
-      <c r="AD44" s="136"/>
-      <c r="AE44" s="136"/>
-      <c r="AF44" s="136"/>
-      <c r="AG44" s="136"/>
-      <c r="AH44" s="138" t="s">
+      <c r="W44" s="180"/>
+      <c r="X44" s="180"/>
+      <c r="Y44" s="180"/>
+      <c r="Z44" s="180"/>
+      <c r="AA44" s="180"/>
+      <c r="AB44" s="180"/>
+      <c r="AC44" s="180"/>
+      <c r="AD44" s="180"/>
+      <c r="AE44" s="180"/>
+      <c r="AF44" s="180"/>
+      <c r="AG44" s="180"/>
+      <c r="AH44" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="AI44" s="138"/>
-      <c r="AJ44" s="138"/>
-      <c r="AK44" s="138"/>
-      <c r="AL44" s="138"/>
-      <c r="AM44" s="138"/>
-      <c r="AN44" s="138"/>
-      <c r="AO44" s="138"/>
-      <c r="AP44" s="140" t="s">
+      <c r="AI44" s="182"/>
+      <c r="AJ44" s="182"/>
+      <c r="AK44" s="182"/>
+      <c r="AL44" s="182"/>
+      <c r="AM44" s="182"/>
+      <c r="AN44" s="182"/>
+      <c r="AO44" s="182"/>
+      <c r="AP44" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="AQ44" s="140"/>
-      <c r="AR44" s="140"/>
-      <c r="AS44" s="140"/>
-      <c r="AT44" s="140"/>
-      <c r="AU44" s="140"/>
-      <c r="AV44" s="140"/>
-      <c r="AW44" s="140"/>
-      <c r="AX44" s="140"/>
-      <c r="AY44" s="140"/>
-      <c r="AZ44" s="138" t="s">
+      <c r="AQ44" s="184"/>
+      <c r="AR44" s="184"/>
+      <c r="AS44" s="184"/>
+      <c r="AT44" s="184"/>
+      <c r="AU44" s="184"/>
+      <c r="AV44" s="184"/>
+      <c r="AW44" s="184"/>
+      <c r="AX44" s="184"/>
+      <c r="AY44" s="184"/>
+      <c r="AZ44" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="BA44" s="138"/>
-      <c r="BB44" s="138"/>
-      <c r="BC44" s="138"/>
-      <c r="BD44" s="138"/>
-      <c r="BE44" s="136" t="s">
+      <c r="BA44" s="182"/>
+      <c r="BB44" s="182"/>
+      <c r="BC44" s="182"/>
+      <c r="BD44" s="182"/>
+      <c r="BE44" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="BF44" s="136"/>
-      <c r="BG44" s="136"/>
-      <c r="BH44" s="136"/>
-      <c r="BI44" s="136"/>
-      <c r="BJ44" s="136"/>
-      <c r="BK44" s="136"/>
-      <c r="BL44" s="136"/>
-      <c r="BM44" s="138" t="s">
+      <c r="BF44" s="180"/>
+      <c r="BG44" s="180"/>
+      <c r="BH44" s="180"/>
+      <c r="BI44" s="180"/>
+      <c r="BJ44" s="180"/>
+      <c r="BK44" s="180"/>
+      <c r="BL44" s="180"/>
+      <c r="BM44" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="BN44" s="138"/>
-      <c r="BO44" s="138"/>
-      <c r="BP44" s="138"/>
-      <c r="BQ44" s="138"/>
+      <c r="BN44" s="182"/>
+      <c r="BO44" s="182"/>
+      <c r="BP44" s="182"/>
+      <c r="BQ44" s="182"/>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B45" s="170" t="s">
+      <c r="B45" s="214" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
-      <c r="J45" s="170"/>
-      <c r="K45" s="170"/>
-      <c r="L45" s="170"/>
-      <c r="M45" s="138"/>
-      <c r="N45" s="138"/>
-      <c r="O45" s="138"/>
-      <c r="P45" s="138"/>
-      <c r="Q45" s="138"/>
-      <c r="R45" s="138"/>
-      <c r="S45" s="138"/>
-      <c r="T45" s="138"/>
-      <c r="U45" s="138"/>
-      <c r="V45" s="157" t="s">
+      <c r="C45" s="214"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="214"/>
+      <c r="F45" s="214"/>
+      <c r="G45" s="214"/>
+      <c r="H45" s="214"/>
+      <c r="I45" s="214"/>
+      <c r="J45" s="214"/>
+      <c r="K45" s="214"/>
+      <c r="L45" s="214"/>
+      <c r="M45" s="182"/>
+      <c r="N45" s="182"/>
+      <c r="O45" s="182"/>
+      <c r="P45" s="182"/>
+      <c r="Q45" s="182"/>
+      <c r="R45" s="182"/>
+      <c r="S45" s="182"/>
+      <c r="T45" s="182"/>
+      <c r="U45" s="182"/>
+      <c r="V45" s="201" t="s">
         <v>77</v>
       </c>
-      <c r="W45" s="157"/>
-      <c r="X45" s="157"/>
-      <c r="Y45" s="157"/>
-      <c r="Z45" s="157"/>
-      <c r="AA45" s="157"/>
-      <c r="AB45" s="157"/>
-      <c r="AC45" s="157"/>
-      <c r="AD45" s="157"/>
-      <c r="AE45" s="157"/>
-      <c r="AF45" s="157"/>
-      <c r="AG45" s="157"/>
-      <c r="AH45" s="138" t="s">
+      <c r="W45" s="201"/>
+      <c r="X45" s="201"/>
+      <c r="Y45" s="201"/>
+      <c r="Z45" s="201"/>
+      <c r="AA45" s="201"/>
+      <c r="AB45" s="201"/>
+      <c r="AC45" s="201"/>
+      <c r="AD45" s="201"/>
+      <c r="AE45" s="201"/>
+      <c r="AF45" s="201"/>
+      <c r="AG45" s="201"/>
+      <c r="AH45" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="AI45" s="138"/>
-      <c r="AJ45" s="138"/>
-      <c r="AK45" s="138"/>
-      <c r="AL45" s="138"/>
-      <c r="AM45" s="138"/>
-      <c r="AN45" s="138"/>
-      <c r="AO45" s="138"/>
-      <c r="AP45" s="144" t="s">
+      <c r="AI45" s="182"/>
+      <c r="AJ45" s="182"/>
+      <c r="AK45" s="182"/>
+      <c r="AL45" s="182"/>
+      <c r="AM45" s="182"/>
+      <c r="AN45" s="182"/>
+      <c r="AO45" s="182"/>
+      <c r="AP45" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="AQ45" s="144"/>
-      <c r="AR45" s="144"/>
-      <c r="AS45" s="144"/>
-      <c r="AT45" s="144"/>
-      <c r="AU45" s="144"/>
-      <c r="AV45" s="144"/>
-      <c r="AW45" s="144"/>
-      <c r="AX45" s="144"/>
-      <c r="AY45" s="144"/>
-      <c r="AZ45" s="138"/>
-      <c r="BA45" s="138"/>
-      <c r="BB45" s="138"/>
-      <c r="BC45" s="138"/>
-      <c r="BD45" s="138"/>
-      <c r="BE45" s="140" t="s">
+      <c r="AQ45" s="188"/>
+      <c r="AR45" s="188"/>
+      <c r="AS45" s="188"/>
+      <c r="AT45" s="188"/>
+      <c r="AU45" s="188"/>
+      <c r="AV45" s="188"/>
+      <c r="AW45" s="188"/>
+      <c r="AX45" s="188"/>
+      <c r="AY45" s="188"/>
+      <c r="AZ45" s="182"/>
+      <c r="BA45" s="182"/>
+      <c r="BB45" s="182"/>
+      <c r="BC45" s="182"/>
+      <c r="BD45" s="182"/>
+      <c r="BE45" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="BF45" s="140"/>
-      <c r="BG45" s="140"/>
-      <c r="BH45" s="140"/>
-      <c r="BI45" s="140"/>
-      <c r="BJ45" s="140"/>
-      <c r="BK45" s="140"/>
-      <c r="BL45" s="140"/>
-      <c r="BM45" s="139" t="s">
+      <c r="BF45" s="184"/>
+      <c r="BG45" s="184"/>
+      <c r="BH45" s="184"/>
+      <c r="BI45" s="184"/>
+      <c r="BJ45" s="184"/>
+      <c r="BK45" s="184"/>
+      <c r="BL45" s="184"/>
+      <c r="BM45" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="BN45" s="138"/>
-      <c r="BO45" s="138"/>
-      <c r="BP45" s="138"/>
-      <c r="BQ45" s="138"/>
+      <c r="BN45" s="182"/>
+      <c r="BO45" s="182"/>
+      <c r="BP45" s="182"/>
+      <c r="BQ45" s="182"/>
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B46" s="171" t="s">
+      <c r="B46" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="171"/>
-      <c r="K46" s="171"/>
-      <c r="L46" s="171"/>
-      <c r="M46" s="138"/>
-      <c r="N46" s="138"/>
-      <c r="O46" s="138"/>
-      <c r="P46" s="138"/>
-      <c r="Q46" s="138"/>
-      <c r="R46" s="138"/>
-      <c r="S46" s="138"/>
-      <c r="T46" s="138"/>
-      <c r="U46" s="138"/>
-      <c r="V46" s="140" t="s">
+      <c r="C46" s="215"/>
+      <c r="D46" s="215"/>
+      <c r="E46" s="215"/>
+      <c r="F46" s="215"/>
+      <c r="G46" s="215"/>
+      <c r="H46" s="215"/>
+      <c r="I46" s="215"/>
+      <c r="J46" s="215"/>
+      <c r="K46" s="215"/>
+      <c r="L46" s="215"/>
+      <c r="M46" s="182"/>
+      <c r="N46" s="182"/>
+      <c r="O46" s="182"/>
+      <c r="P46" s="182"/>
+      <c r="Q46" s="182"/>
+      <c r="R46" s="182"/>
+      <c r="S46" s="182"/>
+      <c r="T46" s="182"/>
+      <c r="U46" s="182"/>
+      <c r="V46" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="W46" s="140"/>
-      <c r="X46" s="140"/>
-      <c r="Y46" s="140"/>
-      <c r="Z46" s="140"/>
-      <c r="AA46" s="140"/>
-      <c r="AB46" s="140"/>
-      <c r="AC46" s="140"/>
-      <c r="AD46" s="140"/>
-      <c r="AE46" s="140"/>
-      <c r="AF46" s="140"/>
-      <c r="AG46" s="140"/>
-      <c r="AH46" s="139" t="s">
+      <c r="W46" s="184"/>
+      <c r="X46" s="184"/>
+      <c r="Y46" s="184"/>
+      <c r="Z46" s="184"/>
+      <c r="AA46" s="184"/>
+      <c r="AB46" s="184"/>
+      <c r="AC46" s="184"/>
+      <c r="AD46" s="184"/>
+      <c r="AE46" s="184"/>
+      <c r="AF46" s="184"/>
+      <c r="AG46" s="184"/>
+      <c r="AH46" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="AI46" s="138"/>
-      <c r="AJ46" s="138"/>
-      <c r="AK46" s="138"/>
-      <c r="AL46" s="138"/>
-      <c r="AM46" s="138"/>
-      <c r="AN46" s="138"/>
-      <c r="AO46" s="138"/>
-      <c r="AP46" s="136" t="s">
+      <c r="AI46" s="182"/>
+      <c r="AJ46" s="182"/>
+      <c r="AK46" s="182"/>
+      <c r="AL46" s="182"/>
+      <c r="AM46" s="182"/>
+      <c r="AN46" s="182"/>
+      <c r="AO46" s="182"/>
+      <c r="AP46" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="AQ46" s="136"/>
-      <c r="AR46" s="136"/>
-      <c r="AS46" s="136"/>
-      <c r="AT46" s="136"/>
-      <c r="AU46" s="136"/>
-      <c r="AV46" s="136"/>
-      <c r="AW46" s="136"/>
-      <c r="AX46" s="136"/>
-      <c r="AY46" s="136"/>
-      <c r="AZ46" s="138"/>
-      <c r="BA46" s="138"/>
-      <c r="BB46" s="138"/>
-      <c r="BC46" s="138"/>
-      <c r="BD46" s="138"/>
-      <c r="BE46" s="140" t="s">
+      <c r="AQ46" s="180"/>
+      <c r="AR46" s="180"/>
+      <c r="AS46" s="180"/>
+      <c r="AT46" s="180"/>
+      <c r="AU46" s="180"/>
+      <c r="AV46" s="180"/>
+      <c r="AW46" s="180"/>
+      <c r="AX46" s="180"/>
+      <c r="AY46" s="180"/>
+      <c r="AZ46" s="182"/>
+      <c r="BA46" s="182"/>
+      <c r="BB46" s="182"/>
+      <c r="BC46" s="182"/>
+      <c r="BD46" s="182"/>
+      <c r="BE46" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="BF46" s="140"/>
-      <c r="BG46" s="140"/>
-      <c r="BH46" s="140"/>
-      <c r="BI46" s="140"/>
-      <c r="BJ46" s="140"/>
-      <c r="BK46" s="140"/>
-      <c r="BL46" s="140"/>
-      <c r="BM46" s="138"/>
-      <c r="BN46" s="138"/>
-      <c r="BO46" s="138"/>
-      <c r="BP46" s="138"/>
-      <c r="BQ46" s="138"/>
+      <c r="BF46" s="184"/>
+      <c r="BG46" s="184"/>
+      <c r="BH46" s="184"/>
+      <c r="BI46" s="184"/>
+      <c r="BJ46" s="184"/>
+      <c r="BK46" s="184"/>
+      <c r="BL46" s="184"/>
+      <c r="BM46" s="182"/>
+      <c r="BN46" s="182"/>
+      <c r="BO46" s="182"/>
+      <c r="BP46" s="182"/>
+      <c r="BQ46" s="182"/>
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B47" s="172" t="s">
+      <c r="B47" s="216" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="172"/>
-      <c r="D47" s="172"/>
-      <c r="E47" s="172"/>
-      <c r="F47" s="172"/>
-      <c r="G47" s="172"/>
-      <c r="H47" s="172"/>
-      <c r="I47" s="172"/>
-      <c r="J47" s="172"/>
-      <c r="K47" s="172"/>
-      <c r="L47" s="172"/>
-      <c r="M47" s="138"/>
-      <c r="N47" s="138"/>
-      <c r="O47" s="138"/>
-      <c r="P47" s="138"/>
-      <c r="Q47" s="138"/>
-      <c r="R47" s="138"/>
-      <c r="S47" s="138"/>
-      <c r="T47" s="138"/>
-      <c r="U47" s="138"/>
-      <c r="V47" s="142" t="s">
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="216"/>
+      <c r="K47" s="216"/>
+      <c r="L47" s="216"/>
+      <c r="M47" s="182"/>
+      <c r="N47" s="182"/>
+      <c r="O47" s="182"/>
+      <c r="P47" s="182"/>
+      <c r="Q47" s="182"/>
+      <c r="R47" s="182"/>
+      <c r="S47" s="182"/>
+      <c r="T47" s="182"/>
+      <c r="U47" s="182"/>
+      <c r="V47" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="W47" s="142"/>
-      <c r="X47" s="142"/>
-      <c r="Y47" s="142"/>
-      <c r="Z47" s="142"/>
-      <c r="AA47" s="142"/>
-      <c r="AB47" s="142"/>
-      <c r="AC47" s="142"/>
-      <c r="AD47" s="142"/>
-      <c r="AE47" s="142"/>
-      <c r="AF47" s="142"/>
-      <c r="AG47" s="142"/>
-      <c r="AH47" s="138"/>
-      <c r="AI47" s="138"/>
-      <c r="AJ47" s="138"/>
-      <c r="AK47" s="138"/>
-      <c r="AL47" s="138"/>
-      <c r="AM47" s="138"/>
-      <c r="AN47" s="138"/>
-      <c r="AO47" s="138"/>
-      <c r="AP47" s="142" t="s">
+      <c r="W47" s="186"/>
+      <c r="X47" s="186"/>
+      <c r="Y47" s="186"/>
+      <c r="Z47" s="186"/>
+      <c r="AA47" s="186"/>
+      <c r="AB47" s="186"/>
+      <c r="AC47" s="186"/>
+      <c r="AD47" s="186"/>
+      <c r="AE47" s="186"/>
+      <c r="AF47" s="186"/>
+      <c r="AG47" s="186"/>
+      <c r="AH47" s="182"/>
+      <c r="AI47" s="182"/>
+      <c r="AJ47" s="182"/>
+      <c r="AK47" s="182"/>
+      <c r="AL47" s="182"/>
+      <c r="AM47" s="182"/>
+      <c r="AN47" s="182"/>
+      <c r="AO47" s="182"/>
+      <c r="AP47" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="AQ47" s="142"/>
-      <c r="AR47" s="142"/>
-      <c r="AS47" s="142"/>
-      <c r="AT47" s="142"/>
-      <c r="AU47" s="142"/>
-      <c r="AV47" s="142"/>
-      <c r="AW47" s="142"/>
-      <c r="AX47" s="142"/>
-      <c r="AY47" s="142"/>
-      <c r="AZ47" s="138"/>
-      <c r="BA47" s="138"/>
-      <c r="BB47" s="138"/>
-      <c r="BC47" s="138"/>
-      <c r="BD47" s="138"/>
-      <c r="BE47" s="137" t="s">
+      <c r="AQ47" s="186"/>
+      <c r="AR47" s="186"/>
+      <c r="AS47" s="186"/>
+      <c r="AT47" s="186"/>
+      <c r="AU47" s="186"/>
+      <c r="AV47" s="186"/>
+      <c r="AW47" s="186"/>
+      <c r="AX47" s="186"/>
+      <c r="AY47" s="186"/>
+      <c r="AZ47" s="182"/>
+      <c r="BA47" s="182"/>
+      <c r="BB47" s="182"/>
+      <c r="BC47" s="182"/>
+      <c r="BD47" s="182"/>
+      <c r="BE47" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="BF47" s="137"/>
-      <c r="BG47" s="137"/>
-      <c r="BH47" s="137"/>
-      <c r="BI47" s="137"/>
-      <c r="BJ47" s="137"/>
-      <c r="BK47" s="137"/>
-      <c r="BL47" s="137"/>
-      <c r="BM47" s="138" t="s">
+      <c r="BF47" s="181"/>
+      <c r="BG47" s="181"/>
+      <c r="BH47" s="181"/>
+      <c r="BI47" s="181"/>
+      <c r="BJ47" s="181"/>
+      <c r="BK47" s="181"/>
+      <c r="BL47" s="181"/>
+      <c r="BM47" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="BN47" s="138"/>
-      <c r="BO47" s="138"/>
-      <c r="BP47" s="138"/>
-      <c r="BQ47" s="138"/>
+      <c r="BN47" s="182"/>
+      <c r="BO47" s="182"/>
+      <c r="BP47" s="182"/>
+      <c r="BQ47" s="182"/>
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B48" s="156" t="s">
+      <c r="B48" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="156"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="156"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="156"/>
-      <c r="H48" s="156"/>
-      <c r="I48" s="156"/>
-      <c r="J48" s="156"/>
-      <c r="K48" s="156"/>
-      <c r="L48" s="156"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
-      <c r="P48" s="138"/>
-      <c r="Q48" s="138"/>
-      <c r="R48" s="138"/>
-      <c r="S48" s="138"/>
-      <c r="T48" s="138"/>
-      <c r="U48" s="138"/>
-      <c r="V48" s="136" t="s">
+      <c r="C48" s="200"/>
+      <c r="D48" s="200"/>
+      <c r="E48" s="200"/>
+      <c r="F48" s="200"/>
+      <c r="G48" s="200"/>
+      <c r="H48" s="200"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="200"/>
+      <c r="K48" s="200"/>
+      <c r="L48" s="200"/>
+      <c r="M48" s="182"/>
+      <c r="N48" s="182"/>
+      <c r="O48" s="182"/>
+      <c r="P48" s="182"/>
+      <c r="Q48" s="182"/>
+      <c r="R48" s="182"/>
+      <c r="S48" s="182"/>
+      <c r="T48" s="182"/>
+      <c r="U48" s="182"/>
+      <c r="V48" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="W48" s="136"/>
-      <c r="X48" s="136"/>
-      <c r="Y48" s="136"/>
-      <c r="Z48" s="136"/>
-      <c r="AA48" s="136"/>
-      <c r="AB48" s="136"/>
-      <c r="AC48" s="136"/>
-      <c r="AD48" s="136"/>
-      <c r="AE48" s="136"/>
-      <c r="AF48" s="136"/>
-      <c r="AG48" s="136"/>
-      <c r="AH48" s="138"/>
-      <c r="AI48" s="138"/>
-      <c r="AJ48" s="138"/>
-      <c r="AK48" s="138"/>
-      <c r="AL48" s="138"/>
-      <c r="AM48" s="138"/>
-      <c r="AN48" s="138"/>
-      <c r="AO48" s="138"/>
-      <c r="AP48" s="142" t="s">
+      <c r="W48" s="180"/>
+      <c r="X48" s="180"/>
+      <c r="Y48" s="180"/>
+      <c r="Z48" s="180"/>
+      <c r="AA48" s="180"/>
+      <c r="AB48" s="180"/>
+      <c r="AC48" s="180"/>
+      <c r="AD48" s="180"/>
+      <c r="AE48" s="180"/>
+      <c r="AF48" s="180"/>
+      <c r="AG48" s="180"/>
+      <c r="AH48" s="182"/>
+      <c r="AI48" s="182"/>
+      <c r="AJ48" s="182"/>
+      <c r="AK48" s="182"/>
+      <c r="AL48" s="182"/>
+      <c r="AM48" s="182"/>
+      <c r="AN48" s="182"/>
+      <c r="AO48" s="182"/>
+      <c r="AP48" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="AQ48" s="142"/>
-      <c r="AR48" s="142"/>
-      <c r="AS48" s="142"/>
-      <c r="AT48" s="142"/>
-      <c r="AU48" s="142"/>
-      <c r="AV48" s="142"/>
-      <c r="AW48" s="142"/>
-      <c r="AX48" s="142"/>
-      <c r="AY48" s="142"/>
-      <c r="AZ48" s="138" t="s">
+      <c r="AQ48" s="186"/>
+      <c r="AR48" s="186"/>
+      <c r="AS48" s="186"/>
+      <c r="AT48" s="186"/>
+      <c r="AU48" s="186"/>
+      <c r="AV48" s="186"/>
+      <c r="AW48" s="186"/>
+      <c r="AX48" s="186"/>
+      <c r="AY48" s="186"/>
+      <c r="AZ48" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="BA48" s="138"/>
-      <c r="BB48" s="138"/>
-      <c r="BC48" s="138"/>
-      <c r="BD48" s="138"/>
-      <c r="BE48" s="141" t="s">
+      <c r="BA48" s="182"/>
+      <c r="BB48" s="182"/>
+      <c r="BC48" s="182"/>
+      <c r="BD48" s="182"/>
+      <c r="BE48" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="BF48" s="141"/>
-      <c r="BG48" s="141"/>
-      <c r="BH48" s="141"/>
-      <c r="BI48" s="141"/>
-      <c r="BJ48" s="141"/>
-      <c r="BK48" s="141"/>
-      <c r="BL48" s="141"/>
-      <c r="BM48" s="138"/>
-      <c r="BN48" s="138"/>
-      <c r="BO48" s="138"/>
-      <c r="BP48" s="138"/>
-      <c r="BQ48" s="138"/>
+      <c r="BF48" s="185"/>
+      <c r="BG48" s="185"/>
+      <c r="BH48" s="185"/>
+      <c r="BI48" s="185"/>
+      <c r="BJ48" s="185"/>
+      <c r="BK48" s="185"/>
+      <c r="BL48" s="185"/>
+      <c r="BM48" s="182"/>
+      <c r="BN48" s="182"/>
+      <c r="BO48" s="182"/>
+      <c r="BP48" s="182"/>
+      <c r="BQ48" s="182"/>
     </row>
     <row r="49" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B49" s="144" t="s">
+      <c r="B49" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="144"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="144"/>
-      <c r="K49" s="144"/>
-      <c r="L49" s="144"/>
-      <c r="M49" s="138"/>
-      <c r="N49" s="138"/>
-      <c r="O49" s="138"/>
-      <c r="P49" s="138"/>
-      <c r="Q49" s="138"/>
-      <c r="R49" s="138"/>
-      <c r="S49" s="138"/>
-      <c r="T49" s="138"/>
-      <c r="U49" s="138"/>
-      <c r="V49" s="137" t="s">
+      <c r="C49" s="188"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="188"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="188"/>
+      <c r="I49" s="188"/>
+      <c r="J49" s="188"/>
+      <c r="K49" s="188"/>
+      <c r="L49" s="188"/>
+      <c r="M49" s="182"/>
+      <c r="N49" s="182"/>
+      <c r="O49" s="182"/>
+      <c r="P49" s="182"/>
+      <c r="Q49" s="182"/>
+      <c r="R49" s="182"/>
+      <c r="S49" s="182"/>
+      <c r="T49" s="182"/>
+      <c r="U49" s="182"/>
+      <c r="V49" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="W49" s="137"/>
-      <c r="X49" s="137"/>
-      <c r="Y49" s="137"/>
-      <c r="Z49" s="137"/>
-      <c r="AA49" s="137"/>
-      <c r="AB49" s="137"/>
-      <c r="AC49" s="137"/>
-      <c r="AD49" s="137"/>
-      <c r="AE49" s="137"/>
-      <c r="AF49" s="137"/>
-      <c r="AG49" s="137"/>
-      <c r="AH49" s="138"/>
-      <c r="AI49" s="138"/>
-      <c r="AJ49" s="138"/>
-      <c r="AK49" s="138"/>
-      <c r="AL49" s="138"/>
-      <c r="AM49" s="138"/>
-      <c r="AN49" s="138"/>
-      <c r="AO49" s="138"/>
-      <c r="AP49" s="144" t="s">
+      <c r="W49" s="181"/>
+      <c r="X49" s="181"/>
+      <c r="Y49" s="181"/>
+      <c r="Z49" s="181"/>
+      <c r="AA49" s="181"/>
+      <c r="AB49" s="181"/>
+      <c r="AC49" s="181"/>
+      <c r="AD49" s="181"/>
+      <c r="AE49" s="181"/>
+      <c r="AF49" s="181"/>
+      <c r="AG49" s="181"/>
+      <c r="AH49" s="182"/>
+      <c r="AI49" s="182"/>
+      <c r="AJ49" s="182"/>
+      <c r="AK49" s="182"/>
+      <c r="AL49" s="182"/>
+      <c r="AM49" s="182"/>
+      <c r="AN49" s="182"/>
+      <c r="AO49" s="182"/>
+      <c r="AP49" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="AQ49" s="144"/>
-      <c r="AR49" s="144"/>
-      <c r="AS49" s="144"/>
-      <c r="AT49" s="144"/>
-      <c r="AU49" s="144"/>
-      <c r="AV49" s="144"/>
-      <c r="AW49" s="144"/>
-      <c r="AX49" s="144"/>
-      <c r="AY49" s="144"/>
-      <c r="AZ49" s="138"/>
-      <c r="BA49" s="138"/>
-      <c r="BB49" s="138"/>
-      <c r="BC49" s="138"/>
-      <c r="BD49" s="138"/>
-      <c r="BE49" s="135" t="s">
+      <c r="AQ49" s="188"/>
+      <c r="AR49" s="188"/>
+      <c r="AS49" s="188"/>
+      <c r="AT49" s="188"/>
+      <c r="AU49" s="188"/>
+      <c r="AV49" s="188"/>
+      <c r="AW49" s="188"/>
+      <c r="AX49" s="188"/>
+      <c r="AY49" s="188"/>
+      <c r="AZ49" s="182"/>
+      <c r="BA49" s="182"/>
+      <c r="BB49" s="182"/>
+      <c r="BC49" s="182"/>
+      <c r="BD49" s="182"/>
+      <c r="BE49" s="179" t="s">
         <v>78</v>
       </c>
-      <c r="BF49" s="135"/>
-      <c r="BG49" s="135"/>
-      <c r="BH49" s="135"/>
-      <c r="BI49" s="135"/>
-      <c r="BJ49" s="135"/>
-      <c r="BK49" s="135"/>
-      <c r="BL49" s="135"/>
-      <c r="BM49" s="138" t="s">
+      <c r="BF49" s="179"/>
+      <c r="BG49" s="179"/>
+      <c r="BH49" s="179"/>
+      <c r="BI49" s="179"/>
+      <c r="BJ49" s="179"/>
+      <c r="BK49" s="179"/>
+      <c r="BL49" s="179"/>
+      <c r="BM49" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="BN49" s="138"/>
-      <c r="BO49" s="138"/>
-      <c r="BP49" s="138"/>
-      <c r="BQ49" s="138"/>
+      <c r="BN49" s="182"/>
+      <c r="BO49" s="182"/>
+      <c r="BP49" s="182"/>
+      <c r="BQ49" s="182"/>
     </row>
     <row r="50" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B50" s="157" t="s">
+      <c r="B50" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="157"/>
-      <c r="D50" s="157"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="157"/>
-      <c r="K50" s="157"/>
-      <c r="L50" s="157"/>
-      <c r="M50" s="138"/>
-      <c r="N50" s="138"/>
-      <c r="O50" s="138"/>
-      <c r="P50" s="138"/>
-      <c r="Q50" s="138"/>
-      <c r="R50" s="138"/>
-      <c r="S50" s="138"/>
-      <c r="T50" s="138"/>
-      <c r="U50" s="138"/>
-      <c r="V50" s="157" t="s">
+      <c r="C50" s="201"/>
+      <c r="D50" s="201"/>
+      <c r="E50" s="201"/>
+      <c r="F50" s="201"/>
+      <c r="G50" s="201"/>
+      <c r="H50" s="201"/>
+      <c r="I50" s="201"/>
+      <c r="J50" s="201"/>
+      <c r="K50" s="201"/>
+      <c r="L50" s="201"/>
+      <c r="M50" s="182"/>
+      <c r="N50" s="182"/>
+      <c r="O50" s="182"/>
+      <c r="P50" s="182"/>
+      <c r="Q50" s="182"/>
+      <c r="R50" s="182"/>
+      <c r="S50" s="182"/>
+      <c r="T50" s="182"/>
+      <c r="U50" s="182"/>
+      <c r="V50" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="W50" s="157"/>
-      <c r="X50" s="157"/>
-      <c r="Y50" s="157"/>
-      <c r="Z50" s="157"/>
-      <c r="AA50" s="157"/>
-      <c r="AB50" s="157"/>
-      <c r="AC50" s="157"/>
-      <c r="AD50" s="157"/>
-      <c r="AE50" s="157"/>
-      <c r="AF50" s="157"/>
-      <c r="AG50" s="157"/>
-      <c r="AH50" s="138"/>
-      <c r="AI50" s="138"/>
-      <c r="AJ50" s="138"/>
-      <c r="AK50" s="138"/>
-      <c r="AL50" s="138"/>
-      <c r="AM50" s="138"/>
-      <c r="AN50" s="138"/>
-      <c r="AO50" s="138"/>
-      <c r="AP50" s="136" t="s">
+      <c r="W50" s="201"/>
+      <c r="X50" s="201"/>
+      <c r="Y50" s="201"/>
+      <c r="Z50" s="201"/>
+      <c r="AA50" s="201"/>
+      <c r="AB50" s="201"/>
+      <c r="AC50" s="201"/>
+      <c r="AD50" s="201"/>
+      <c r="AE50" s="201"/>
+      <c r="AF50" s="201"/>
+      <c r="AG50" s="201"/>
+      <c r="AH50" s="182"/>
+      <c r="AI50" s="182"/>
+      <c r="AJ50" s="182"/>
+      <c r="AK50" s="182"/>
+      <c r="AL50" s="182"/>
+      <c r="AM50" s="182"/>
+      <c r="AN50" s="182"/>
+      <c r="AO50" s="182"/>
+      <c r="AP50" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="AQ50" s="136"/>
-      <c r="AR50" s="136"/>
-      <c r="AS50" s="136"/>
-      <c r="AT50" s="136"/>
-      <c r="AU50" s="136"/>
-      <c r="AV50" s="136"/>
-      <c r="AW50" s="136"/>
-      <c r="AX50" s="136"/>
-      <c r="AY50" s="136"/>
-      <c r="AZ50" s="138"/>
-      <c r="BA50" s="138"/>
-      <c r="BB50" s="138"/>
-      <c r="BC50" s="138"/>
-      <c r="BD50" s="138"/>
-      <c r="BE50" s="136" t="s">
+      <c r="AQ50" s="180"/>
+      <c r="AR50" s="180"/>
+      <c r="AS50" s="180"/>
+      <c r="AT50" s="180"/>
+      <c r="AU50" s="180"/>
+      <c r="AV50" s="180"/>
+      <c r="AW50" s="180"/>
+      <c r="AX50" s="180"/>
+      <c r="AY50" s="180"/>
+      <c r="AZ50" s="182"/>
+      <c r="BA50" s="182"/>
+      <c r="BB50" s="182"/>
+      <c r="BC50" s="182"/>
+      <c r="BD50" s="182"/>
+      <c r="BE50" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="BF50" s="136"/>
-      <c r="BG50" s="136"/>
-      <c r="BH50" s="136"/>
-      <c r="BI50" s="136"/>
-      <c r="BJ50" s="136"/>
-      <c r="BK50" s="136"/>
-      <c r="BL50" s="136"/>
-      <c r="BM50" s="138" t="s">
+      <c r="BF50" s="180"/>
+      <c r="BG50" s="180"/>
+      <c r="BH50" s="180"/>
+      <c r="BI50" s="180"/>
+      <c r="BJ50" s="180"/>
+      <c r="BK50" s="180"/>
+      <c r="BL50" s="180"/>
+      <c r="BM50" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="BN50" s="138"/>
-      <c r="BO50" s="138"/>
-      <c r="BP50" s="138"/>
-      <c r="BQ50" s="138"/>
+      <c r="BN50" s="182"/>
+      <c r="BO50" s="182"/>
+      <c r="BP50" s="182"/>
+      <c r="BQ50" s="182"/>
     </row>
     <row r="51" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B51" s="136" t="s">
+      <c r="B51" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="136"/>
-      <c r="L51" s="136"/>
-      <c r="M51" s="138"/>
-      <c r="N51" s="138"/>
-      <c r="O51" s="138"/>
-      <c r="P51" s="138"/>
-      <c r="Q51" s="138"/>
-      <c r="R51" s="138"/>
-      <c r="S51" s="138"/>
-      <c r="T51" s="138"/>
-      <c r="U51" s="138"/>
-      <c r="V51" s="144" t="s">
+      <c r="C51" s="180"/>
+      <c r="D51" s="180"/>
+      <c r="E51" s="180"/>
+      <c r="F51" s="180"/>
+      <c r="G51" s="180"/>
+      <c r="H51" s="180"/>
+      <c r="I51" s="180"/>
+      <c r="J51" s="180"/>
+      <c r="K51" s="180"/>
+      <c r="L51" s="180"/>
+      <c r="M51" s="182"/>
+      <c r="N51" s="182"/>
+      <c r="O51" s="182"/>
+      <c r="P51" s="182"/>
+      <c r="Q51" s="182"/>
+      <c r="R51" s="182"/>
+      <c r="S51" s="182"/>
+      <c r="T51" s="182"/>
+      <c r="U51" s="182"/>
+      <c r="V51" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="W51" s="144"/>
-      <c r="X51" s="144"/>
-      <c r="Y51" s="144"/>
-      <c r="Z51" s="144"/>
-      <c r="AA51" s="144"/>
-      <c r="AB51" s="144"/>
-      <c r="AC51" s="144"/>
-      <c r="AD51" s="144"/>
-      <c r="AE51" s="144"/>
-      <c r="AF51" s="144"/>
-      <c r="AG51" s="144"/>
-      <c r="AH51" s="138"/>
-      <c r="AI51" s="138"/>
-      <c r="AJ51" s="138"/>
-      <c r="AK51" s="138"/>
-      <c r="AL51" s="138"/>
-      <c r="AM51" s="138"/>
-      <c r="AN51" s="138"/>
-      <c r="AO51" s="138"/>
-      <c r="AP51" s="137" t="s">
+      <c r="W51" s="188"/>
+      <c r="X51" s="188"/>
+      <c r="Y51" s="188"/>
+      <c r="Z51" s="188"/>
+      <c r="AA51" s="188"/>
+      <c r="AB51" s="188"/>
+      <c r="AC51" s="188"/>
+      <c r="AD51" s="188"/>
+      <c r="AE51" s="188"/>
+      <c r="AF51" s="188"/>
+      <c r="AG51" s="188"/>
+      <c r="AH51" s="182"/>
+      <c r="AI51" s="182"/>
+      <c r="AJ51" s="182"/>
+      <c r="AK51" s="182"/>
+      <c r="AL51" s="182"/>
+      <c r="AM51" s="182"/>
+      <c r="AN51" s="182"/>
+      <c r="AO51" s="182"/>
+      <c r="AP51" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="AQ51" s="137"/>
-      <c r="AR51" s="137"/>
-      <c r="AS51" s="137"/>
-      <c r="AT51" s="137"/>
-      <c r="AU51" s="137"/>
-      <c r="AV51" s="137"/>
-      <c r="AW51" s="137"/>
-      <c r="AX51" s="137"/>
-      <c r="AY51" s="137"/>
-      <c r="AZ51" s="138" t="s">
+      <c r="AQ51" s="181"/>
+      <c r="AR51" s="181"/>
+      <c r="AS51" s="181"/>
+      <c r="AT51" s="181"/>
+      <c r="AU51" s="181"/>
+      <c r="AV51" s="181"/>
+      <c r="AW51" s="181"/>
+      <c r="AX51" s="181"/>
+      <c r="AY51" s="181"/>
+      <c r="AZ51" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="BA51" s="138"/>
-      <c r="BB51" s="138"/>
-      <c r="BC51" s="138"/>
-      <c r="BD51" s="138"/>
-      <c r="BE51" s="137" t="s">
+      <c r="BA51" s="182"/>
+      <c r="BB51" s="182"/>
+      <c r="BC51" s="182"/>
+      <c r="BD51" s="182"/>
+      <c r="BE51" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="BF51" s="137"/>
-      <c r="BG51" s="137"/>
-      <c r="BH51" s="137"/>
-      <c r="BI51" s="137"/>
-      <c r="BJ51" s="137"/>
-      <c r="BK51" s="137"/>
-      <c r="BL51" s="137"/>
-      <c r="BM51" s="138" t="s">
+      <c r="BF51" s="181"/>
+      <c r="BG51" s="181"/>
+      <c r="BH51" s="181"/>
+      <c r="BI51" s="181"/>
+      <c r="BJ51" s="181"/>
+      <c r="BK51" s="181"/>
+      <c r="BL51" s="181"/>
+      <c r="BM51" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="BN51" s="138"/>
-      <c r="BO51" s="138"/>
-      <c r="BP51" s="138"/>
-      <c r="BQ51" s="138"/>
+      <c r="BN51" s="182"/>
+      <c r="BO51" s="182"/>
+      <c r="BP51" s="182"/>
+      <c r="BQ51" s="182"/>
     </row>
     <row r="52" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B52" s="142" t="s">
+      <c r="B52" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="142"/>
-      <c r="L52" s="142"/>
-      <c r="M52" s="147" t="s">
+      <c r="C52" s="186"/>
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="186"/>
+      <c r="H52" s="186"/>
+      <c r="I52" s="186"/>
+      <c r="J52" s="186"/>
+      <c r="K52" s="186"/>
+      <c r="L52" s="186"/>
+      <c r="M52" s="192" t="s">
         <v>105</v>
       </c>
-      <c r="N52" s="147"/>
-      <c r="O52" s="147"/>
-      <c r="P52" s="147"/>
-      <c r="Q52" s="147"/>
-      <c r="R52" s="147"/>
-      <c r="S52" s="147"/>
-      <c r="T52" s="147"/>
-      <c r="U52" s="147"/>
-      <c r="V52" s="151" t="s">
+      <c r="N52" s="192"/>
+      <c r="O52" s="192"/>
+      <c r="P52" s="192"/>
+      <c r="Q52" s="192"/>
+      <c r="R52" s="192"/>
+      <c r="S52" s="192"/>
+      <c r="T52" s="192"/>
+      <c r="U52" s="192"/>
+      <c r="V52" s="195" t="s">
         <v>91</v>
       </c>
-      <c r="W52" s="151"/>
-      <c r="X52" s="151"/>
-      <c r="Y52" s="151"/>
-      <c r="Z52" s="151"/>
-      <c r="AA52" s="151"/>
-      <c r="AB52" s="151"/>
-      <c r="AC52" s="151"/>
-      <c r="AD52" s="151"/>
-      <c r="AE52" s="151"/>
-      <c r="AF52" s="151"/>
-      <c r="AG52" s="151"/>
-      <c r="AH52" s="138"/>
-      <c r="AI52" s="138"/>
-      <c r="AJ52" s="138"/>
-      <c r="AK52" s="138"/>
-      <c r="AL52" s="138"/>
-      <c r="AM52" s="138"/>
-      <c r="AN52" s="138"/>
-      <c r="AO52" s="138"/>
-      <c r="AP52" s="136" t="s">
+      <c r="W52" s="195"/>
+      <c r="X52" s="195"/>
+      <c r="Y52" s="195"/>
+      <c r="Z52" s="195"/>
+      <c r="AA52" s="195"/>
+      <c r="AB52" s="195"/>
+      <c r="AC52" s="195"/>
+      <c r="AD52" s="195"/>
+      <c r="AE52" s="195"/>
+      <c r="AF52" s="195"/>
+      <c r="AG52" s="195"/>
+      <c r="AH52" s="182"/>
+      <c r="AI52" s="182"/>
+      <c r="AJ52" s="182"/>
+      <c r="AK52" s="182"/>
+      <c r="AL52" s="182"/>
+      <c r="AM52" s="182"/>
+      <c r="AN52" s="182"/>
+      <c r="AO52" s="182"/>
+      <c r="AP52" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="AQ52" s="136"/>
-      <c r="AR52" s="136"/>
-      <c r="AS52" s="136"/>
-      <c r="AT52" s="136"/>
-      <c r="AU52" s="136"/>
-      <c r="AV52" s="136"/>
-      <c r="AW52" s="136"/>
-      <c r="AX52" s="136"/>
-      <c r="AY52" s="136"/>
-      <c r="AZ52" s="138"/>
-      <c r="BA52" s="138"/>
-      <c r="BB52" s="138"/>
-      <c r="BC52" s="138"/>
-      <c r="BD52" s="138"/>
+      <c r="AQ52" s="180"/>
+      <c r="AR52" s="180"/>
+      <c r="AS52" s="180"/>
+      <c r="AT52" s="180"/>
+      <c r="AU52" s="180"/>
+      <c r="AV52" s="180"/>
+      <c r="AW52" s="180"/>
+      <c r="AX52" s="180"/>
+      <c r="AY52" s="180"/>
+      <c r="AZ52" s="182"/>
+      <c r="BA52" s="182"/>
+      <c r="BB52" s="182"/>
+      <c r="BC52" s="182"/>
+      <c r="BD52" s="182"/>
       <c r="BE52" s="34"/>
       <c r="BF52" s="34"/>
       <c r="BG52" s="34"/>
@@ -5786,69 +5840,69 @@
       <c r="BN52" s="35"/>
     </row>
     <row r="53" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B53" s="141" t="s">
+      <c r="B53" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="141"/>
-      <c r="J53" s="141"/>
-      <c r="K53" s="141"/>
-      <c r="L53" s="141"/>
-      <c r="M53" s="147" t="s">
+      <c r="C53" s="185"/>
+      <c r="D53" s="185"/>
+      <c r="E53" s="185"/>
+      <c r="F53" s="185"/>
+      <c r="G53" s="185"/>
+      <c r="H53" s="185"/>
+      <c r="I53" s="185"/>
+      <c r="J53" s="185"/>
+      <c r="K53" s="185"/>
+      <c r="L53" s="185"/>
+      <c r="M53" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="N53" s="147"/>
-      <c r="O53" s="147"/>
-      <c r="P53" s="147"/>
-      <c r="Q53" s="147"/>
-      <c r="R53" s="147"/>
-      <c r="S53" s="147"/>
-      <c r="T53" s="147"/>
-      <c r="U53" s="147"/>
-      <c r="V53" s="152" t="s">
+      <c r="N53" s="192"/>
+      <c r="O53" s="192"/>
+      <c r="P53" s="192"/>
+      <c r="Q53" s="192"/>
+      <c r="R53" s="192"/>
+      <c r="S53" s="192"/>
+      <c r="T53" s="192"/>
+      <c r="U53" s="192"/>
+      <c r="V53" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="152"/>
-      <c r="X53" s="152"/>
-      <c r="Y53" s="152"/>
-      <c r="Z53" s="152"/>
-      <c r="AA53" s="152"/>
-      <c r="AB53" s="152"/>
-      <c r="AC53" s="152"/>
-      <c r="AD53" s="152"/>
-      <c r="AE53" s="152"/>
-      <c r="AF53" s="152"/>
-      <c r="AG53" s="152"/>
-      <c r="AH53" s="138"/>
-      <c r="AI53" s="138"/>
-      <c r="AJ53" s="138"/>
-      <c r="AK53" s="138"/>
-      <c r="AL53" s="138"/>
-      <c r="AM53" s="138"/>
-      <c r="AN53" s="138"/>
-      <c r="AO53" s="138"/>
-      <c r="AP53" s="142" t="s">
+      <c r="W53" s="196"/>
+      <c r="X53" s="196"/>
+      <c r="Y53" s="196"/>
+      <c r="Z53" s="196"/>
+      <c r="AA53" s="196"/>
+      <c r="AB53" s="196"/>
+      <c r="AC53" s="196"/>
+      <c r="AD53" s="196"/>
+      <c r="AE53" s="196"/>
+      <c r="AF53" s="196"/>
+      <c r="AG53" s="196"/>
+      <c r="AH53" s="182"/>
+      <c r="AI53" s="182"/>
+      <c r="AJ53" s="182"/>
+      <c r="AK53" s="182"/>
+      <c r="AL53" s="182"/>
+      <c r="AM53" s="182"/>
+      <c r="AN53" s="182"/>
+      <c r="AO53" s="182"/>
+      <c r="AP53" s="186" t="s">
         <v>59</v>
       </c>
-      <c r="AQ53" s="142"/>
-      <c r="AR53" s="142"/>
-      <c r="AS53" s="142"/>
-      <c r="AT53" s="142"/>
-      <c r="AU53" s="142"/>
-      <c r="AV53" s="142"/>
-      <c r="AW53" s="142"/>
-      <c r="AX53" s="142"/>
-      <c r="AY53" s="142"/>
-      <c r="AZ53" s="138"/>
-      <c r="BA53" s="138"/>
-      <c r="BB53" s="138"/>
-      <c r="BC53" s="138"/>
-      <c r="BD53" s="138"/>
+      <c r="AQ53" s="186"/>
+      <c r="AR53" s="186"/>
+      <c r="AS53" s="186"/>
+      <c r="AT53" s="186"/>
+      <c r="AU53" s="186"/>
+      <c r="AV53" s="186"/>
+      <c r="AW53" s="186"/>
+      <c r="AX53" s="186"/>
+      <c r="AY53" s="186"/>
+      <c r="AZ53" s="182"/>
+      <c r="BA53" s="182"/>
+      <c r="BB53" s="182"/>
+      <c r="BC53" s="182"/>
+      <c r="BD53" s="182"/>
       <c r="BE53" s="34"/>
       <c r="BF53" s="34"/>
       <c r="BG53" s="34"/>
@@ -5861,71 +5915,71 @@
       <c r="BN53" s="34"/>
     </row>
     <row r="54" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="153" t="s">
+      <c r="B54" s="197" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="153"/>
-      <c r="D54" s="153"/>
-      <c r="E54" s="153"/>
-      <c r="F54" s="153"/>
-      <c r="G54" s="153"/>
-      <c r="H54" s="153"/>
-      <c r="I54" s="153"/>
-      <c r="J54" s="153"/>
-      <c r="K54" s="153"/>
-      <c r="L54" s="153"/>
-      <c r="M54" s="147" t="s">
+      <c r="C54" s="197"/>
+      <c r="D54" s="197"/>
+      <c r="E54" s="197"/>
+      <c r="F54" s="197"/>
+      <c r="G54" s="197"/>
+      <c r="H54" s="197"/>
+      <c r="I54" s="197"/>
+      <c r="J54" s="197"/>
+      <c r="K54" s="197"/>
+      <c r="L54" s="197"/>
+      <c r="M54" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="N54" s="147"/>
-      <c r="O54" s="147"/>
-      <c r="P54" s="147"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="147"/>
-      <c r="S54" s="147"/>
-      <c r="T54" s="147"/>
-      <c r="U54" s="147"/>
-      <c r="V54" s="143" t="s">
+      <c r="N54" s="192"/>
+      <c r="O54" s="192"/>
+      <c r="P54" s="192"/>
+      <c r="Q54" s="192"/>
+      <c r="R54" s="192"/>
+      <c r="S54" s="192"/>
+      <c r="T54" s="192"/>
+      <c r="U54" s="192"/>
+      <c r="V54" s="187" t="s">
         <v>106</v>
       </c>
-      <c r="W54" s="143"/>
-      <c r="X54" s="143"/>
-      <c r="Y54" s="143"/>
-      <c r="Z54" s="143"/>
-      <c r="AA54" s="143"/>
-      <c r="AB54" s="143"/>
-      <c r="AC54" s="143"/>
-      <c r="AD54" s="143"/>
-      <c r="AE54" s="143"/>
-      <c r="AF54" s="143"/>
-      <c r="AG54" s="143"/>
-      <c r="AH54" s="138"/>
-      <c r="AI54" s="138"/>
-      <c r="AJ54" s="138"/>
-      <c r="AK54" s="138"/>
-      <c r="AL54" s="138"/>
-      <c r="AM54" s="138"/>
-      <c r="AN54" s="138"/>
-      <c r="AO54" s="138"/>
-      <c r="AP54" s="143" t="s">
+      <c r="W54" s="187"/>
+      <c r="X54" s="187"/>
+      <c r="Y54" s="187"/>
+      <c r="Z54" s="187"/>
+      <c r="AA54" s="187"/>
+      <c r="AB54" s="187"/>
+      <c r="AC54" s="187"/>
+      <c r="AD54" s="187"/>
+      <c r="AE54" s="187"/>
+      <c r="AF54" s="187"/>
+      <c r="AG54" s="187"/>
+      <c r="AH54" s="182"/>
+      <c r="AI54" s="182"/>
+      <c r="AJ54" s="182"/>
+      <c r="AK54" s="182"/>
+      <c r="AL54" s="182"/>
+      <c r="AM54" s="182"/>
+      <c r="AN54" s="182"/>
+      <c r="AO54" s="182"/>
+      <c r="AP54" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="AQ54" s="143"/>
-      <c r="AR54" s="143"/>
-      <c r="AS54" s="143"/>
-      <c r="AT54" s="143"/>
-      <c r="AU54" s="143"/>
-      <c r="AV54" s="143"/>
-      <c r="AW54" s="143"/>
-      <c r="AX54" s="143"/>
-      <c r="AY54" s="143"/>
-      <c r="AZ54" s="139" t="s">
+      <c r="AQ54" s="187"/>
+      <c r="AR54" s="187"/>
+      <c r="AS54" s="187"/>
+      <c r="AT54" s="187"/>
+      <c r="AU54" s="187"/>
+      <c r="AV54" s="187"/>
+      <c r="AW54" s="187"/>
+      <c r="AX54" s="187"/>
+      <c r="AY54" s="187"/>
+      <c r="AZ54" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="BA54" s="139"/>
-      <c r="BB54" s="139"/>
-      <c r="BC54" s="139"/>
-      <c r="BD54" s="139"/>
+      <c r="BA54" s="183"/>
+      <c r="BB54" s="183"/>
+      <c r="BC54" s="183"/>
+      <c r="BD54" s="183"/>
       <c r="BE54" s="34"/>
       <c r="BF54" s="34"/>
       <c r="BG54" s="34"/>
@@ -5938,111 +5992,111 @@
       <c r="BN54" s="34"/>
     </row>
     <row r="55" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B55" s="143" t="s">
+      <c r="B55" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="143"/>
-      <c r="F55" s="143"/>
-      <c r="G55" s="143"/>
-      <c r="H55" s="143"/>
-      <c r="I55" s="143"/>
-      <c r="J55" s="143"/>
-      <c r="K55" s="143"/>
-      <c r="L55" s="143"/>
-      <c r="M55" s="147" t="s">
+      <c r="C55" s="187"/>
+      <c r="D55" s="187"/>
+      <c r="E55" s="187"/>
+      <c r="F55" s="187"/>
+      <c r="G55" s="187"/>
+      <c r="H55" s="187"/>
+      <c r="I55" s="187"/>
+      <c r="J55" s="187"/>
+      <c r="K55" s="187"/>
+      <c r="L55" s="187"/>
+      <c r="M55" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="N55" s="147"/>
-      <c r="O55" s="147"/>
-      <c r="P55" s="147"/>
-      <c r="Q55" s="147"/>
-      <c r="R55" s="147"/>
-      <c r="S55" s="147"/>
-      <c r="T55" s="147"/>
-      <c r="U55" s="147"/>
-      <c r="V55" s="143" t="s">
+      <c r="N55" s="192"/>
+      <c r="O55" s="192"/>
+      <c r="P55" s="192"/>
+      <c r="Q55" s="192"/>
+      <c r="R55" s="192"/>
+      <c r="S55" s="192"/>
+      <c r="T55" s="192"/>
+      <c r="U55" s="192"/>
+      <c r="V55" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="W55" s="143"/>
-      <c r="X55" s="143"/>
-      <c r="Y55" s="143"/>
-      <c r="Z55" s="143"/>
-      <c r="AA55" s="143"/>
-      <c r="AB55" s="143"/>
-      <c r="AC55" s="143"/>
-      <c r="AD55" s="143"/>
-      <c r="AE55" s="143"/>
-      <c r="AF55" s="143"/>
-      <c r="AG55" s="143"/>
-      <c r="AH55" s="138"/>
-      <c r="AI55" s="138"/>
-      <c r="AJ55" s="138"/>
-      <c r="AK55" s="138"/>
-      <c r="AL55" s="138"/>
-      <c r="AM55" s="138"/>
-      <c r="AN55" s="138"/>
-      <c r="AO55" s="138"/>
-      <c r="AP55" s="140" t="s">
+      <c r="W55" s="187"/>
+      <c r="X55" s="187"/>
+      <c r="Y55" s="187"/>
+      <c r="Z55" s="187"/>
+      <c r="AA55" s="187"/>
+      <c r="AB55" s="187"/>
+      <c r="AC55" s="187"/>
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="182"/>
+      <c r="AI55" s="182"/>
+      <c r="AJ55" s="182"/>
+      <c r="AK55" s="182"/>
+      <c r="AL55" s="182"/>
+      <c r="AM55" s="182"/>
+      <c r="AN55" s="182"/>
+      <c r="AO55" s="182"/>
+      <c r="AP55" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="AQ55" s="140"/>
-      <c r="AR55" s="140"/>
-      <c r="AS55" s="140"/>
-      <c r="AT55" s="140"/>
-      <c r="AU55" s="140"/>
-      <c r="AV55" s="140"/>
-      <c r="AW55" s="140"/>
-      <c r="AX55" s="140"/>
-      <c r="AY55" s="140"/>
-      <c r="AZ55" s="139"/>
-      <c r="BA55" s="139"/>
-      <c r="BB55" s="139"/>
-      <c r="BC55" s="139"/>
-      <c r="BD55" s="139"/>
+      <c r="AQ55" s="184"/>
+      <c r="AR55" s="184"/>
+      <c r="AS55" s="184"/>
+      <c r="AT55" s="184"/>
+      <c r="AU55" s="184"/>
+      <c r="AV55" s="184"/>
+      <c r="AW55" s="184"/>
+      <c r="AX55" s="184"/>
+      <c r="AY55" s="184"/>
+      <c r="AZ55" s="183"/>
+      <c r="BA55" s="183"/>
+      <c r="BB55" s="183"/>
+      <c r="BC55" s="183"/>
+      <c r="BD55" s="183"/>
       <c r="BN55" s="34"/>
     </row>
     <row r="56" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B56" s="154"/>
-      <c r="C56" s="154"/>
-      <c r="D56" s="154"/>
-      <c r="E56" s="154"/>
-      <c r="F56" s="154"/>
-      <c r="G56" s="154"/>
-      <c r="H56" s="154"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="154"/>
-      <c r="K56" s="154"/>
-      <c r="L56" s="154"/>
-      <c r="M56" s="147" t="s">
+      <c r="B56" s="198"/>
+      <c r="C56" s="198"/>
+      <c r="D56" s="198"/>
+      <c r="E56" s="198"/>
+      <c r="F56" s="198"/>
+      <c r="G56" s="198"/>
+      <c r="H56" s="198"/>
+      <c r="I56" s="198"/>
+      <c r="J56" s="198"/>
+      <c r="K56" s="198"/>
+      <c r="L56" s="198"/>
+      <c r="M56" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="N56" s="147"/>
-      <c r="O56" s="147"/>
-      <c r="P56" s="147"/>
-      <c r="Q56" s="147"/>
-      <c r="R56" s="147"/>
-      <c r="S56" s="147"/>
-      <c r="T56" s="147"/>
-      <c r="U56" s="147"/>
-      <c r="AP56" s="144" t="s">
+      <c r="N56" s="192"/>
+      <c r="O56" s="192"/>
+      <c r="P56" s="192"/>
+      <c r="Q56" s="192"/>
+      <c r="R56" s="192"/>
+      <c r="S56" s="192"/>
+      <c r="T56" s="192"/>
+      <c r="U56" s="192"/>
+      <c r="AP56" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="AQ56" s="144"/>
-      <c r="AR56" s="144"/>
-      <c r="AS56" s="144"/>
-      <c r="AT56" s="144"/>
-      <c r="AU56" s="144"/>
-      <c r="AV56" s="144"/>
-      <c r="AW56" s="144"/>
-      <c r="AX56" s="144"/>
-      <c r="AY56" s="144"/>
-      <c r="AZ56" s="139"/>
-      <c r="BA56" s="139"/>
-      <c r="BB56" s="139"/>
-      <c r="BC56" s="139"/>
-      <c r="BD56" s="139"/>
+      <c r="AQ56" s="188"/>
+      <c r="AR56" s="188"/>
+      <c r="AS56" s="188"/>
+      <c r="AT56" s="188"/>
+      <c r="AU56" s="188"/>
+      <c r="AV56" s="188"/>
+      <c r="AW56" s="188"/>
+      <c r="AX56" s="188"/>
+      <c r="AY56" s="188"/>
+      <c r="AZ56" s="183"/>
+      <c r="BA56" s="183"/>
+      <c r="BB56" s="183"/>
+      <c r="BC56" s="183"/>
+      <c r="BD56" s="183"/>
       <c r="BN56" s="34"/>
     </row>
     <row r="57" spans="2:69" x14ac:dyDescent="0.25">
@@ -6303,7 +6357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6516,22 +6570,22 @@
       <c r="AS4" s="100"/>
       <c r="AT4" s="105"/>
       <c r="AV4" s="104"/>
-      <c r="AW4" s="191"/>
-      <c r="AX4" s="191"/>
-      <c r="AY4" s="191"/>
-      <c r="AZ4" s="191"/>
-      <c r="BA4" s="191"/>
-      <c r="BB4" s="191"/>
-      <c r="BC4" s="191"/>
+      <c r="AW4" s="259"/>
+      <c r="AX4" s="259"/>
+      <c r="AY4" s="259"/>
+      <c r="AZ4" s="259"/>
+      <c r="BA4" s="259"/>
+      <c r="BB4" s="259"/>
+      <c r="BC4" s="259"/>
       <c r="BD4" s="105"/>
       <c r="BF4" s="104"/>
-      <c r="BG4" s="192"/>
-      <c r="BH4" s="192"/>
-      <c r="BI4" s="192"/>
-      <c r="BJ4" s="192"/>
-      <c r="BK4" s="192"/>
-      <c r="BL4" s="192"/>
-      <c r="BM4" s="192"/>
+      <c r="BG4" s="244"/>
+      <c r="BH4" s="244"/>
+      <c r="BI4" s="244"/>
+      <c r="BJ4" s="244"/>
+      <c r="BK4" s="244"/>
+      <c r="BL4" s="244"/>
+      <c r="BM4" s="244"/>
       <c r="BN4" s="105"/>
     </row>
     <row r="5" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6604,48 +6658,48 @@
     </row>
     <row r="6" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="104"/>
-      <c r="C6" s="248"/>
-      <c r="D6" s="248"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="248"/>
-      <c r="G6" s="248"/>
-      <c r="H6" s="248"/>
-      <c r="I6" s="248"/>
-      <c r="J6" s="248"/>
-      <c r="K6" s="248"/>
-      <c r="L6" s="248"/>
-      <c r="M6" s="248"/>
-      <c r="N6" s="248"/>
-      <c r="O6" s="248"/>
-      <c r="P6" s="248"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="225"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="225"/>
+      <c r="P6" s="225"/>
       <c r="Q6" s="100"/>
-      <c r="R6" s="248"/>
-      <c r="S6" s="248"/>
-      <c r="T6" s="248"/>
-      <c r="U6" s="248"/>
-      <c r="V6" s="248"/>
-      <c r="W6" s="248"/>
-      <c r="X6" s="248"/>
-      <c r="Y6" s="248"/>
-      <c r="Z6" s="248"/>
+      <c r="R6" s="225"/>
+      <c r="S6" s="225"/>
+      <c r="T6" s="225"/>
+      <c r="U6" s="225"/>
+      <c r="V6" s="225"/>
+      <c r="W6" s="225"/>
+      <c r="X6" s="225"/>
+      <c r="Y6" s="225"/>
+      <c r="Z6" s="225"/>
       <c r="AA6" s="105"/>
       <c r="AC6" s="104"/>
-      <c r="AD6" s="248"/>
-      <c r="AE6" s="248"/>
-      <c r="AF6" s="248"/>
-      <c r="AG6" s="248"/>
-      <c r="AH6" s="248"/>
-      <c r="AI6" s="248"/>
-      <c r="AJ6" s="248"/>
-      <c r="AK6" s="248"/>
-      <c r="AL6" s="248"/>
-      <c r="AM6" s="248"/>
-      <c r="AN6" s="248"/>
-      <c r="AO6" s="248"/>
-      <c r="AP6" s="248"/>
-      <c r="AQ6" s="248"/>
-      <c r="AR6" s="248"/>
-      <c r="AS6" s="248"/>
+      <c r="AD6" s="225"/>
+      <c r="AE6" s="225"/>
+      <c r="AF6" s="225"/>
+      <c r="AG6" s="225"/>
+      <c r="AH6" s="225"/>
+      <c r="AI6" s="225"/>
+      <c r="AJ6" s="225"/>
+      <c r="AK6" s="225"/>
+      <c r="AL6" s="225"/>
+      <c r="AM6" s="225"/>
+      <c r="AN6" s="225"/>
+      <c r="AO6" s="225"/>
+      <c r="AP6" s="225"/>
+      <c r="AQ6" s="225"/>
+      <c r="AR6" s="225"/>
+      <c r="AS6" s="225"/>
       <c r="AT6" s="105"/>
       <c r="AV6" s="104"/>
       <c r="AW6" s="89"/>
@@ -6668,48 +6722,48 @@
     </row>
     <row r="7" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="104"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="224"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="224"/>
-      <c r="L7" s="224"/>
-      <c r="M7" s="224"/>
-      <c r="N7" s="224"/>
-      <c r="O7" s="224"/>
-      <c r="P7" s="249"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="231"/>
+      <c r="K7" s="231"/>
+      <c r="L7" s="231"/>
+      <c r="M7" s="231"/>
+      <c r="N7" s="231"/>
+      <c r="O7" s="231"/>
+      <c r="P7" s="232"/>
       <c r="Q7" s="100"/>
-      <c r="R7" s="248"/>
-      <c r="S7" s="224"/>
-      <c r="T7" s="224"/>
-      <c r="U7" s="224"/>
-      <c r="V7" s="224"/>
-      <c r="W7" s="224"/>
-      <c r="X7" s="224"/>
-      <c r="Y7" s="224"/>
-      <c r="Z7" s="249"/>
+      <c r="R7" s="225"/>
+      <c r="S7" s="231"/>
+      <c r="T7" s="231"/>
+      <c r="U7" s="231"/>
+      <c r="V7" s="231"/>
+      <c r="W7" s="231"/>
+      <c r="X7" s="231"/>
+      <c r="Y7" s="231"/>
+      <c r="Z7" s="232"/>
       <c r="AA7" s="105"/>
       <c r="AC7" s="104"/>
-      <c r="AD7" s="248"/>
-      <c r="AE7" s="225"/>
-      <c r="AF7" s="225"/>
-      <c r="AG7" s="225"/>
-      <c r="AH7" s="225"/>
-      <c r="AI7" s="225"/>
-      <c r="AJ7" s="225"/>
-      <c r="AK7" s="225"/>
-      <c r="AL7" s="225"/>
-      <c r="AM7" s="225"/>
-      <c r="AN7" s="225"/>
-      <c r="AO7" s="225"/>
-      <c r="AP7" s="225"/>
-      <c r="AQ7" s="225"/>
-      <c r="AR7" s="225"/>
-      <c r="AS7" s="249"/>
+      <c r="AD7" s="225"/>
+      <c r="AE7" s="227"/>
+      <c r="AF7" s="227"/>
+      <c r="AG7" s="227"/>
+      <c r="AH7" s="227"/>
+      <c r="AI7" s="227"/>
+      <c r="AJ7" s="227"/>
+      <c r="AK7" s="227"/>
+      <c r="AL7" s="227"/>
+      <c r="AM7" s="227"/>
+      <c r="AN7" s="227"/>
+      <c r="AO7" s="227"/>
+      <c r="AP7" s="227"/>
+      <c r="AQ7" s="227"/>
+      <c r="AR7" s="227"/>
+      <c r="AS7" s="232"/>
       <c r="AT7" s="105"/>
       <c r="AV7" s="104"/>
       <c r="AW7" s="89"/>
@@ -6732,56 +6786,56 @@
     </row>
     <row r="8" spans="2:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="226">
+      <c r="C8" s="225"/>
+      <c r="D8" s="233">
         <v>0.37152777777777773</v>
       </c>
-      <c r="E8" s="226"/>
-      <c r="F8" s="227" t="s">
+      <c r="E8" s="233"/>
+      <c r="F8" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="227"/>
-      <c r="K8" s="227"/>
-      <c r="L8" s="227"/>
-      <c r="M8" s="227"/>
-      <c r="N8" s="227"/>
-      <c r="O8" s="228"/>
-      <c r="P8" s="249"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="232"/>
       <c r="Q8" s="113"/>
-      <c r="R8" s="248"/>
-      <c r="S8" s="229" t="s">
+      <c r="R8" s="225"/>
+      <c r="S8" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="229"/>
-      <c r="U8" s="229"/>
-      <c r="V8" s="229"/>
-      <c r="W8" s="229"/>
-      <c r="X8" s="229"/>
-      <c r="Y8" s="228"/>
-      <c r="Z8" s="249"/>
+      <c r="T8" s="151"/>
+      <c r="U8" s="151"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="151"/>
+      <c r="X8" s="151"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="232"/>
       <c r="AA8" s="105"/>
       <c r="AC8" s="104"/>
-      <c r="AD8" s="248"/>
-      <c r="AE8" s="252" t="s">
+      <c r="AD8" s="225"/>
+      <c r="AE8" s="263" t="s">
         <v>21</v>
       </c>
-      <c r="AF8" s="252"/>
-      <c r="AG8" s="252"/>
-      <c r="AH8" s="252"/>
-      <c r="AI8" s="252"/>
-      <c r="AJ8" s="252"/>
-      <c r="AK8" s="252"/>
-      <c r="AL8" s="252"/>
-      <c r="AM8" s="252"/>
-      <c r="AN8" s="252"/>
-      <c r="AO8" s="252"/>
-      <c r="AP8" s="252"/>
-      <c r="AQ8" s="252"/>
-      <c r="AR8" s="252"/>
-      <c r="AS8" s="249"/>
+      <c r="AF8" s="263"/>
+      <c r="AG8" s="263"/>
+      <c r="AH8" s="263"/>
+      <c r="AI8" s="263"/>
+      <c r="AJ8" s="263"/>
+      <c r="AK8" s="263"/>
+      <c r="AL8" s="263"/>
+      <c r="AM8" s="263"/>
+      <c r="AN8" s="263"/>
+      <c r="AO8" s="263"/>
+      <c r="AP8" s="263"/>
+      <c r="AQ8" s="263"/>
+      <c r="AR8" s="263"/>
+      <c r="AS8" s="232"/>
       <c r="AT8" s="105"/>
       <c r="AV8" s="104"/>
       <c r="AW8" s="129" t="s">
@@ -6808,56 +6862,56 @@
     </row>
     <row r="9" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="104"/>
-      <c r="C9" s="248"/>
-      <c r="D9" s="230" t="s">
+      <c r="C9" s="225"/>
+      <c r="D9" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="230"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="231"/>
-      <c r="L9" s="231"/>
-      <c r="M9" s="231"/>
-      <c r="N9" s="231"/>
-      <c r="O9" s="231"/>
-      <c r="P9" s="249"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="232"/>
       <c r="Q9" s="114"/>
-      <c r="R9" s="248"/>
-      <c r="S9" s="232" t="s">
+      <c r="R9" s="225"/>
+      <c r="S9" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="232"/>
-      <c r="U9" s="232"/>
-      <c r="V9" s="232"/>
-      <c r="W9" s="232"/>
-      <c r="X9" s="232"/>
-      <c r="Y9" s="233"/>
-      <c r="Z9" s="249"/>
+      <c r="T9" s="154"/>
+      <c r="U9" s="154"/>
+      <c r="V9" s="154"/>
+      <c r="W9" s="154"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="232"/>
       <c r="AA9" s="105"/>
       <c r="AC9" s="104"/>
-      <c r="AD9" s="248"/>
-      <c r="AE9" s="255" t="s">
+      <c r="AD9" s="225"/>
+      <c r="AE9" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="AF9" s="208"/>
-      <c r="AG9" s="208"/>
-      <c r="AH9" s="208"/>
-      <c r="AI9" s="208"/>
-      <c r="AJ9" s="208"/>
-      <c r="AK9" s="208"/>
-      <c r="AL9" s="208"/>
-      <c r="AM9" s="208"/>
-      <c r="AN9" s="208"/>
-      <c r="AO9" s="208"/>
-      <c r="AP9" s="208"/>
-      <c r="AQ9" s="209">
+      <c r="AF9" s="141"/>
+      <c r="AG9" s="141"/>
+      <c r="AH9" s="141"/>
+      <c r="AI9" s="141"/>
+      <c r="AJ9" s="141"/>
+      <c r="AK9" s="141"/>
+      <c r="AL9" s="141"/>
+      <c r="AM9" s="141"/>
+      <c r="AN9" s="141"/>
+      <c r="AO9" s="141"/>
+      <c r="AP9" s="141"/>
+      <c r="AQ9" s="258">
         <v>0.37847222222222227</v>
       </c>
-      <c r="AR9" s="209"/>
-      <c r="AS9" s="249"/>
+      <c r="AR9" s="258"/>
+      <c r="AS9" s="232"/>
       <c r="AT9" s="105"/>
       <c r="AV9" s="104"/>
       <c r="AW9" s="127" t="s">
@@ -6884,48 +6938,48 @@
     </row>
     <row r="10" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="104"/>
-      <c r="C10" s="248"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="234"/>
-      <c r="P10" s="249"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="232"/>
       <c r="Q10" s="115"/>
-      <c r="R10" s="248"/>
-      <c r="S10" s="234"/>
-      <c r="T10" s="234"/>
-      <c r="U10" s="234"/>
-      <c r="V10" s="234"/>
-      <c r="W10" s="234"/>
-      <c r="X10" s="234"/>
-      <c r="Y10" s="233"/>
-      <c r="Z10" s="249"/>
+      <c r="R10" s="225"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="232"/>
       <c r="AA10" s="105"/>
       <c r="AC10" s="104"/>
-      <c r="AD10" s="248"/>
-      <c r="AE10" s="210"/>
-      <c r="AF10" s="210"/>
-      <c r="AG10" s="210"/>
-      <c r="AH10" s="210"/>
-      <c r="AI10" s="210"/>
-      <c r="AJ10" s="210"/>
-      <c r="AK10" s="210"/>
-      <c r="AL10" s="210"/>
-      <c r="AM10" s="210"/>
-      <c r="AN10" s="210"/>
-      <c r="AO10" s="210"/>
-      <c r="AP10" s="210"/>
-      <c r="AQ10" s="210"/>
-      <c r="AR10" s="210"/>
-      <c r="AS10" s="249"/>
+      <c r="AD10" s="225"/>
+      <c r="AE10" s="230"/>
+      <c r="AF10" s="230"/>
+      <c r="AG10" s="230"/>
+      <c r="AH10" s="230"/>
+      <c r="AI10" s="230"/>
+      <c r="AJ10" s="230"/>
+      <c r="AK10" s="230"/>
+      <c r="AL10" s="230"/>
+      <c r="AM10" s="230"/>
+      <c r="AN10" s="230"/>
+      <c r="AO10" s="230"/>
+      <c r="AP10" s="230"/>
+      <c r="AQ10" s="230"/>
+      <c r="AR10" s="230"/>
+      <c r="AS10" s="232"/>
       <c r="AT10" s="105"/>
       <c r="AV10" s="104"/>
       <c r="AW10" s="89"/>
@@ -6948,48 +7002,48 @@
     </row>
     <row r="11" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="104"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="234"/>
-      <c r="I11" s="234"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
-      <c r="M11" s="234"/>
-      <c r="N11" s="234"/>
-      <c r="O11" s="234"/>
-      <c r="P11" s="249"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="232"/>
       <c r="Q11" s="115"/>
-      <c r="R11" s="248"/>
-      <c r="S11" s="234"/>
-      <c r="T11" s="234"/>
-      <c r="U11" s="234"/>
-      <c r="V11" s="234"/>
-      <c r="W11" s="234"/>
-      <c r="X11" s="234"/>
-      <c r="Y11" s="233"/>
-      <c r="Z11" s="249"/>
+      <c r="R11" s="225"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="155"/>
+      <c r="Z11" s="232"/>
       <c r="AA11" s="105"/>
       <c r="AC11" s="104"/>
-      <c r="AD11" s="248"/>
-      <c r="AE11" s="210"/>
-      <c r="AF11" s="210"/>
-      <c r="AG11" s="210"/>
-      <c r="AH11" s="210"/>
-      <c r="AI11" s="210"/>
-      <c r="AJ11" s="210"/>
-      <c r="AK11" s="210"/>
-      <c r="AL11" s="210"/>
-      <c r="AM11" s="210"/>
-      <c r="AN11" s="210"/>
-      <c r="AO11" s="210"/>
-      <c r="AP11" s="210"/>
-      <c r="AQ11" s="210"/>
-      <c r="AR11" s="210"/>
-      <c r="AS11" s="249"/>
+      <c r="AD11" s="225"/>
+      <c r="AE11" s="230"/>
+      <c r="AF11" s="230"/>
+      <c r="AG11" s="230"/>
+      <c r="AH11" s="230"/>
+      <c r="AI11" s="230"/>
+      <c r="AJ11" s="230"/>
+      <c r="AK11" s="230"/>
+      <c r="AL11" s="230"/>
+      <c r="AM11" s="230"/>
+      <c r="AN11" s="230"/>
+      <c r="AO11" s="230"/>
+      <c r="AP11" s="230"/>
+      <c r="AQ11" s="230"/>
+      <c r="AR11" s="230"/>
+      <c r="AS11" s="232"/>
       <c r="AT11" s="105"/>
       <c r="AV11" s="104"/>
       <c r="AW11" s="89"/>
@@ -7012,54 +7066,54 @@
     </row>
     <row r="12" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B12" s="104"/>
-      <c r="C12" s="248"/>
-      <c r="D12" s="235" t="s">
+      <c r="C12" s="225"/>
+      <c r="D12" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="235"/>
-      <c r="F12" s="236"/>
-      <c r="G12" s="236"/>
-      <c r="H12" s="236"/>
-      <c r="I12" s="236"/>
-      <c r="J12" s="236"/>
-      <c r="K12" s="236"/>
-      <c r="L12" s="236"/>
-      <c r="M12" s="236"/>
-      <c r="N12" s="236"/>
-      <c r="O12" s="236"/>
-      <c r="P12" s="249"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="232"/>
       <c r="Q12" s="117"/>
-      <c r="R12" s="248"/>
-      <c r="S12" s="237" t="s">
+      <c r="R12" s="225"/>
+      <c r="S12" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="237"/>
-      <c r="U12" s="237"/>
-      <c r="V12" s="237"/>
-      <c r="W12" s="237"/>
-      <c r="X12" s="237"/>
-      <c r="Y12" s="236"/>
-      <c r="Z12" s="249"/>
+      <c r="T12" s="159"/>
+      <c r="U12" s="159"/>
+      <c r="V12" s="159"/>
+      <c r="W12" s="159"/>
+      <c r="X12" s="159"/>
+      <c r="Y12" s="158"/>
+      <c r="Z12" s="232"/>
       <c r="AA12" s="105"/>
       <c r="AC12" s="104"/>
-      <c r="AD12" s="248"/>
-      <c r="AE12" s="253" t="s">
+      <c r="AD12" s="225"/>
+      <c r="AE12" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="AF12" s="253"/>
-      <c r="AG12" s="253"/>
-      <c r="AH12" s="253"/>
-      <c r="AI12" s="253"/>
-      <c r="AJ12" s="253"/>
-      <c r="AK12" s="253"/>
-      <c r="AL12" s="253"/>
-      <c r="AM12" s="253"/>
-      <c r="AN12" s="253"/>
-      <c r="AO12" s="253"/>
-      <c r="AP12" s="253"/>
-      <c r="AQ12" s="253"/>
-      <c r="AR12" s="253"/>
-      <c r="AS12" s="249"/>
+      <c r="AF12" s="254"/>
+      <c r="AG12" s="254"/>
+      <c r="AH12" s="254"/>
+      <c r="AI12" s="254"/>
+      <c r="AJ12" s="254"/>
+      <c r="AK12" s="254"/>
+      <c r="AL12" s="254"/>
+      <c r="AM12" s="254"/>
+      <c r="AN12" s="254"/>
+      <c r="AO12" s="254"/>
+      <c r="AP12" s="254"/>
+      <c r="AQ12" s="254"/>
+      <c r="AR12" s="254"/>
+      <c r="AS12" s="232"/>
       <c r="AT12" s="105"/>
       <c r="AV12" s="104"/>
       <c r="AW12" s="127" t="s">
@@ -7086,56 +7140,56 @@
     </row>
     <row r="13" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B13" s="104"/>
-      <c r="C13" s="248"/>
-      <c r="D13" s="230" t="s">
+      <c r="C13" s="225"/>
+      <c r="D13" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="230"/>
-      <c r="F13" s="231"/>
-      <c r="G13" s="231"/>
-      <c r="H13" s="231"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="231"/>
-      <c r="K13" s="231"/>
-      <c r="L13" s="231"/>
-      <c r="M13" s="231"/>
-      <c r="N13" s="231"/>
-      <c r="O13" s="231"/>
-      <c r="P13" s="249"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="232"/>
       <c r="Q13" s="114"/>
-      <c r="R13" s="248"/>
-      <c r="S13" s="238" t="s">
+      <c r="R13" s="225"/>
+      <c r="S13" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="T13" s="238"/>
-      <c r="U13" s="238"/>
-      <c r="V13" s="238"/>
-      <c r="W13" s="238"/>
-      <c r="X13" s="238"/>
-      <c r="Y13" s="233"/>
-      <c r="Z13" s="249"/>
+      <c r="T13" s="160"/>
+      <c r="U13" s="160"/>
+      <c r="V13" s="160"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="160"/>
+      <c r="Y13" s="155"/>
+      <c r="Z13" s="232"/>
       <c r="AA13" s="105"/>
       <c r="AC13" s="104"/>
-      <c r="AD13" s="248"/>
-      <c r="AE13" s="255" t="s">
+      <c r="AD13" s="225"/>
+      <c r="AE13" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="AF13" s="208"/>
-      <c r="AG13" s="208"/>
-      <c r="AH13" s="208"/>
-      <c r="AI13" s="208"/>
-      <c r="AJ13" s="208"/>
-      <c r="AK13" s="208"/>
-      <c r="AL13" s="208"/>
-      <c r="AM13" s="208"/>
-      <c r="AN13" s="208"/>
-      <c r="AO13" s="208"/>
-      <c r="AP13" s="208"/>
-      <c r="AQ13" s="209">
+      <c r="AF13" s="141"/>
+      <c r="AG13" s="141"/>
+      <c r="AH13" s="141"/>
+      <c r="AI13" s="141"/>
+      <c r="AJ13" s="141"/>
+      <c r="AK13" s="141"/>
+      <c r="AL13" s="141"/>
+      <c r="AM13" s="141"/>
+      <c r="AN13" s="141"/>
+      <c r="AO13" s="141"/>
+      <c r="AP13" s="141"/>
+      <c r="AQ13" s="258">
         <v>0.37916666666666665</v>
       </c>
-      <c r="AR13" s="209"/>
-      <c r="AS13" s="249"/>
+      <c r="AR13" s="258"/>
+      <c r="AS13" s="232"/>
       <c r="AT13" s="105"/>
       <c r="AV13" s="104"/>
       <c r="AW13" s="127" t="s">
@@ -7162,48 +7216,48 @@
     </row>
     <row r="14" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="104"/>
-      <c r="C14" s="248"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="234"/>
-      <c r="H14" s="234"/>
-      <c r="I14" s="234"/>
-      <c r="J14" s="234"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="234"/>
-      <c r="M14" s="234"/>
-      <c r="N14" s="234"/>
-      <c r="O14" s="234"/>
-      <c r="P14" s="249"/>
+      <c r="C14" s="225"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="232"/>
       <c r="Q14" s="115"/>
-      <c r="R14" s="248"/>
-      <c r="S14" s="234"/>
-      <c r="T14" s="234"/>
-      <c r="U14" s="234"/>
-      <c r="V14" s="234"/>
-      <c r="W14" s="234"/>
-      <c r="X14" s="234"/>
-      <c r="Y14" s="233"/>
-      <c r="Z14" s="249"/>
+      <c r="R14" s="225"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="155"/>
+      <c r="Z14" s="232"/>
       <c r="AA14" s="105"/>
       <c r="AC14" s="104"/>
-      <c r="AD14" s="248"/>
-      <c r="AE14" s="210"/>
-      <c r="AF14" s="210"/>
-      <c r="AG14" s="210"/>
-      <c r="AH14" s="210"/>
-      <c r="AI14" s="210"/>
-      <c r="AJ14" s="210"/>
-      <c r="AK14" s="210"/>
-      <c r="AL14" s="210"/>
-      <c r="AM14" s="210"/>
-      <c r="AN14" s="210"/>
-      <c r="AO14" s="210"/>
-      <c r="AP14" s="210"/>
-      <c r="AQ14" s="210"/>
-      <c r="AR14" s="210"/>
-      <c r="AS14" s="249"/>
+      <c r="AD14" s="225"/>
+      <c r="AE14" s="230"/>
+      <c r="AF14" s="230"/>
+      <c r="AG14" s="230"/>
+      <c r="AH14" s="230"/>
+      <c r="AI14" s="230"/>
+      <c r="AJ14" s="230"/>
+      <c r="AK14" s="230"/>
+      <c r="AL14" s="230"/>
+      <c r="AM14" s="230"/>
+      <c r="AN14" s="230"/>
+      <c r="AO14" s="230"/>
+      <c r="AP14" s="230"/>
+      <c r="AQ14" s="230"/>
+      <c r="AR14" s="230"/>
+      <c r="AS14" s="232"/>
       <c r="AT14" s="105"/>
       <c r="AV14" s="104"/>
       <c r="AW14" s="89"/>
@@ -7226,48 +7280,48 @@
     </row>
     <row r="15" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="104"/>
-      <c r="C15" s="248"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="234"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="234"/>
-      <c r="N15" s="234"/>
-      <c r="O15" s="234"/>
-      <c r="P15" s="249"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="232"/>
       <c r="Q15" s="115"/>
-      <c r="R15" s="248"/>
-      <c r="S15" s="234"/>
-      <c r="T15" s="234"/>
-      <c r="U15" s="234"/>
-      <c r="V15" s="234"/>
-      <c r="W15" s="234"/>
-      <c r="X15" s="234"/>
-      <c r="Y15" s="233"/>
-      <c r="Z15" s="249"/>
+      <c r="R15" s="225"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="155"/>
+      <c r="Z15" s="232"/>
       <c r="AA15" s="105"/>
       <c r="AC15" s="104"/>
-      <c r="AD15" s="248"/>
-      <c r="AE15" s="210"/>
-      <c r="AF15" s="210"/>
-      <c r="AG15" s="210"/>
-      <c r="AH15" s="210"/>
-      <c r="AI15" s="210"/>
-      <c r="AJ15" s="210"/>
-      <c r="AK15" s="210"/>
-      <c r="AL15" s="210"/>
-      <c r="AM15" s="210"/>
-      <c r="AN15" s="210"/>
-      <c r="AO15" s="210"/>
-      <c r="AP15" s="210"/>
-      <c r="AQ15" s="210"/>
-      <c r="AR15" s="210"/>
-      <c r="AS15" s="249"/>
+      <c r="AD15" s="225"/>
+      <c r="AE15" s="230"/>
+      <c r="AF15" s="230"/>
+      <c r="AG15" s="230"/>
+      <c r="AH15" s="230"/>
+      <c r="AI15" s="230"/>
+      <c r="AJ15" s="230"/>
+      <c r="AK15" s="230"/>
+      <c r="AL15" s="230"/>
+      <c r="AM15" s="230"/>
+      <c r="AN15" s="230"/>
+      <c r="AO15" s="230"/>
+      <c r="AP15" s="230"/>
+      <c r="AQ15" s="230"/>
+      <c r="AR15" s="230"/>
+      <c r="AS15" s="232"/>
       <c r="AT15" s="105"/>
       <c r="AV15" s="104"/>
       <c r="AW15" s="89"/>
@@ -7290,54 +7344,54 @@
     </row>
     <row r="16" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B16" s="104"/>
-      <c r="C16" s="248"/>
-      <c r="D16" s="237" t="s">
+      <c r="C16" s="225"/>
+      <c r="D16" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="237"/>
-      <c r="F16" s="239"/>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="239"/>
-      <c r="J16" s="239"/>
-      <c r="K16" s="239"/>
-      <c r="L16" s="239"/>
-      <c r="M16" s="239"/>
-      <c r="N16" s="239"/>
-      <c r="O16" s="239"/>
-      <c r="P16" s="249"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="232"/>
       <c r="Q16" s="119"/>
-      <c r="R16" s="248"/>
-      <c r="S16" s="240" t="s">
+      <c r="R16" s="225"/>
+      <c r="S16" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="T16" s="240"/>
-      <c r="U16" s="240"/>
-      <c r="V16" s="240"/>
-      <c r="W16" s="240"/>
-      <c r="X16" s="240"/>
-      <c r="Y16" s="239"/>
-      <c r="Z16" s="249"/>
+      <c r="T16" s="162"/>
+      <c r="U16" s="162"/>
+      <c r="V16" s="162"/>
+      <c r="W16" s="162"/>
+      <c r="X16" s="162"/>
+      <c r="Y16" s="161"/>
+      <c r="Z16" s="232"/>
       <c r="AA16" s="105"/>
       <c r="AC16" s="104"/>
-      <c r="AD16" s="248"/>
-      <c r="AE16" s="254" t="s">
+      <c r="AD16" s="225"/>
+      <c r="AE16" s="252" t="s">
         <v>26</v>
       </c>
-      <c r="AF16" s="254"/>
-      <c r="AG16" s="254"/>
-      <c r="AH16" s="254"/>
-      <c r="AI16" s="254"/>
-      <c r="AJ16" s="254"/>
-      <c r="AK16" s="254"/>
-      <c r="AL16" s="254"/>
-      <c r="AM16" s="254"/>
-      <c r="AN16" s="254"/>
-      <c r="AO16" s="254"/>
-      <c r="AP16" s="254"/>
-      <c r="AQ16" s="254"/>
-      <c r="AR16" s="254"/>
-      <c r="AS16" s="249"/>
+      <c r="AF16" s="252"/>
+      <c r="AG16" s="252"/>
+      <c r="AH16" s="252"/>
+      <c r="AI16" s="252"/>
+      <c r="AJ16" s="252"/>
+      <c r="AK16" s="252"/>
+      <c r="AL16" s="252"/>
+      <c r="AM16" s="252"/>
+      <c r="AN16" s="252"/>
+      <c r="AO16" s="252"/>
+      <c r="AP16" s="252"/>
+      <c r="AQ16" s="252"/>
+      <c r="AR16" s="252"/>
+      <c r="AS16" s="232"/>
       <c r="AT16" s="105"/>
       <c r="AV16" s="104"/>
       <c r="AW16" s="127" t="s">
@@ -7364,54 +7418,54 @@
     </row>
     <row r="17" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B17" s="104"/>
-      <c r="C17" s="248"/>
-      <c r="D17" s="236" t="s">
+      <c r="C17" s="225"/>
+      <c r="D17" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="236"/>
-      <c r="F17" s="239"/>
-      <c r="G17" s="239"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="239"/>
-      <c r="J17" s="239"/>
-      <c r="K17" s="239"/>
-      <c r="L17" s="239"/>
-      <c r="M17" s="239"/>
-      <c r="N17" s="239"/>
-      <c r="O17" s="239"/>
-      <c r="P17" s="249"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="232"/>
       <c r="Q17" s="118"/>
-      <c r="R17" s="248"/>
-      <c r="S17" s="231"/>
-      <c r="T17" s="231"/>
-      <c r="U17" s="231"/>
-      <c r="V17" s="231"/>
-      <c r="W17" s="231"/>
-      <c r="X17" s="231"/>
-      <c r="Y17" s="241"/>
-      <c r="Z17" s="249"/>
+      <c r="R17" s="225"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="153"/>
+      <c r="W17" s="153"/>
+      <c r="X17" s="153"/>
+      <c r="Y17" s="163"/>
+      <c r="Z17" s="232"/>
       <c r="AA17" s="105"/>
       <c r="AC17" s="104"/>
-      <c r="AD17" s="248"/>
-      <c r="AE17" s="256" t="s">
+      <c r="AD17" s="225"/>
+      <c r="AE17" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="AF17" s="211"/>
-      <c r="AG17" s="211"/>
-      <c r="AH17" s="211"/>
-      <c r="AI17" s="211"/>
-      <c r="AJ17" s="211"/>
-      <c r="AK17" s="211"/>
-      <c r="AL17" s="211"/>
-      <c r="AM17" s="211"/>
-      <c r="AN17" s="211"/>
-      <c r="AO17" s="211"/>
-      <c r="AP17" s="211"/>
-      <c r="AQ17" s="212">
+      <c r="AF17" s="142"/>
+      <c r="AG17" s="142"/>
+      <c r="AH17" s="142"/>
+      <c r="AI17" s="142"/>
+      <c r="AJ17" s="142"/>
+      <c r="AK17" s="142"/>
+      <c r="AL17" s="142"/>
+      <c r="AM17" s="142"/>
+      <c r="AN17" s="142"/>
+      <c r="AO17" s="142"/>
+      <c r="AP17" s="142"/>
+      <c r="AQ17" s="253">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR17" s="212"/>
-      <c r="AS17" s="249"/>
+      <c r="AR17" s="253"/>
+      <c r="AS17" s="232"/>
       <c r="AT17" s="105"/>
       <c r="AV17" s="104"/>
       <c r="AW17" s="128" t="s">
@@ -7438,48 +7492,48 @@
     </row>
     <row r="18" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104"/>
-      <c r="C18" s="248"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="242"/>
-      <c r="J18" s="242"/>
-      <c r="K18" s="242"/>
-      <c r="L18" s="242"/>
-      <c r="M18" s="242"/>
-      <c r="N18" s="242"/>
-      <c r="O18" s="242"/>
-      <c r="P18" s="249"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="232"/>
       <c r="Q18" s="120"/>
-      <c r="R18" s="248"/>
-      <c r="S18" s="242"/>
-      <c r="T18" s="242"/>
-      <c r="U18" s="242"/>
-      <c r="V18" s="242"/>
-      <c r="W18" s="242"/>
-      <c r="X18" s="242"/>
-      <c r="Y18" s="241"/>
-      <c r="Z18" s="249"/>
+      <c r="R18" s="225"/>
+      <c r="S18" s="164"/>
+      <c r="T18" s="164"/>
+      <c r="U18" s="164"/>
+      <c r="V18" s="164"/>
+      <c r="W18" s="164"/>
+      <c r="X18" s="164"/>
+      <c r="Y18" s="163"/>
+      <c r="Z18" s="232"/>
       <c r="AA18" s="105"/>
       <c r="AC18" s="104"/>
-      <c r="AD18" s="248"/>
-      <c r="AE18" s="213"/>
-      <c r="AF18" s="213"/>
-      <c r="AG18" s="213"/>
-      <c r="AH18" s="213"/>
-      <c r="AI18" s="213"/>
-      <c r="AJ18" s="213"/>
-      <c r="AK18" s="213"/>
-      <c r="AL18" s="213"/>
-      <c r="AM18" s="213"/>
-      <c r="AN18" s="213"/>
-      <c r="AO18" s="213"/>
-      <c r="AP18" s="213"/>
-      <c r="AQ18" s="213"/>
-      <c r="AR18" s="213"/>
-      <c r="AS18" s="249"/>
+      <c r="AD18" s="225"/>
+      <c r="AE18" s="228"/>
+      <c r="AF18" s="228"/>
+      <c r="AG18" s="228"/>
+      <c r="AH18" s="228"/>
+      <c r="AI18" s="228"/>
+      <c r="AJ18" s="228"/>
+      <c r="AK18" s="228"/>
+      <c r="AL18" s="228"/>
+      <c r="AM18" s="228"/>
+      <c r="AN18" s="228"/>
+      <c r="AO18" s="228"/>
+      <c r="AP18" s="228"/>
+      <c r="AQ18" s="228"/>
+      <c r="AR18" s="228"/>
+      <c r="AS18" s="232"/>
       <c r="AT18" s="105"/>
       <c r="AV18" s="104"/>
       <c r="AW18" s="89"/>
@@ -7502,48 +7556,48 @@
     </row>
     <row r="19" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="104"/>
-      <c r="C19" s="248"/>
-      <c r="D19" s="242"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="242"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="242"/>
-      <c r="J19" s="242"/>
-      <c r="K19" s="242"/>
-      <c r="L19" s="242"/>
-      <c r="M19" s="242"/>
-      <c r="N19" s="242"/>
-      <c r="O19" s="242"/>
-      <c r="P19" s="249"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="232"/>
       <c r="Q19" s="120"/>
-      <c r="R19" s="248"/>
-      <c r="S19" s="242"/>
-      <c r="T19" s="242"/>
-      <c r="U19" s="242"/>
-      <c r="V19" s="242"/>
-      <c r="W19" s="242"/>
-      <c r="X19" s="242"/>
-      <c r="Y19" s="241"/>
-      <c r="Z19" s="249"/>
+      <c r="R19" s="225"/>
+      <c r="S19" s="164"/>
+      <c r="T19" s="164"/>
+      <c r="U19" s="164"/>
+      <c r="V19" s="164"/>
+      <c r="W19" s="164"/>
+      <c r="X19" s="164"/>
+      <c r="Y19" s="163"/>
+      <c r="Z19" s="232"/>
       <c r="AA19" s="105"/>
       <c r="AC19" s="104"/>
-      <c r="AD19" s="248"/>
-      <c r="AE19" s="213"/>
-      <c r="AF19" s="213"/>
-      <c r="AG19" s="213"/>
-      <c r="AH19" s="213"/>
-      <c r="AI19" s="213"/>
-      <c r="AJ19" s="213"/>
-      <c r="AK19" s="213"/>
-      <c r="AL19" s="213"/>
-      <c r="AM19" s="213"/>
-      <c r="AN19" s="213"/>
-      <c r="AO19" s="213"/>
-      <c r="AP19" s="213"/>
-      <c r="AQ19" s="213"/>
-      <c r="AR19" s="213"/>
-      <c r="AS19" s="249"/>
+      <c r="AD19" s="225"/>
+      <c r="AE19" s="228"/>
+      <c r="AF19" s="228"/>
+      <c r="AG19" s="228"/>
+      <c r="AH19" s="228"/>
+      <c r="AI19" s="228"/>
+      <c r="AJ19" s="228"/>
+      <c r="AK19" s="228"/>
+      <c r="AL19" s="228"/>
+      <c r="AM19" s="228"/>
+      <c r="AN19" s="228"/>
+      <c r="AO19" s="228"/>
+      <c r="AP19" s="228"/>
+      <c r="AQ19" s="228"/>
+      <c r="AR19" s="228"/>
+      <c r="AS19" s="232"/>
       <c r="AT19" s="105"/>
       <c r="AV19" s="104"/>
       <c r="AW19" s="89"/>
@@ -7566,57 +7620,57 @@
     </row>
     <row r="20" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B20" s="104"/>
-      <c r="C20" s="248"/>
-      <c r="D20" s="229" t="s">
+      <c r="C20" s="225"/>
+      <c r="D20" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="229"/>
-      <c r="F20" s="231"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="231"/>
-      <c r="K20" s="231"/>
-      <c r="L20" s="231"/>
-      <c r="M20" s="231"/>
-      <c r="N20" s="231"/>
-      <c r="O20" s="236"/>
-      <c r="P20" s="249"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="232"/>
       <c r="Q20" s="117"/>
-      <c r="R20" s="248"/>
-      <c r="S20" s="231" t="s">
+      <c r="R20" s="225"/>
+      <c r="S20" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="T20" s="231"/>
-      <c r="U20" s="231"/>
-      <c r="V20" s="231"/>
-      <c r="W20" s="231"/>
-      <c r="X20" s="231"/>
-      <c r="Y20" s="236"/>
-      <c r="Z20" s="249"/>
+      <c r="T20" s="153"/>
+      <c r="U20" s="153"/>
+      <c r="V20" s="153"/>
+      <c r="W20" s="153"/>
+      <c r="X20" s="153"/>
+      <c r="Y20" s="158"/>
+      <c r="Z20" s="232"/>
       <c r="AA20" s="105"/>
       <c r="AC20" s="104"/>
-      <c r="AD20" s="248"/>
-      <c r="AE20" s="253" t="s">
+      <c r="AD20" s="225"/>
+      <c r="AE20" s="254" t="s">
         <v>26</v>
       </c>
-      <c r="AF20" s="253"/>
-      <c r="AG20" s="253"/>
-      <c r="AH20" s="253"/>
-      <c r="AI20" s="253"/>
-      <c r="AJ20" s="253"/>
-      <c r="AK20" s="253"/>
-      <c r="AL20" s="253"/>
-      <c r="AM20" s="253"/>
-      <c r="AN20" s="253"/>
-      <c r="AO20" s="253"/>
-      <c r="AP20" s="253"/>
-      <c r="AQ20" s="253"/>
-      <c r="AR20" s="253"/>
-      <c r="AS20" s="249"/>
+      <c r="AF20" s="254"/>
+      <c r="AG20" s="254"/>
+      <c r="AH20" s="254"/>
+      <c r="AI20" s="254"/>
+      <c r="AJ20" s="254"/>
+      <c r="AK20" s="254"/>
+      <c r="AL20" s="254"/>
+      <c r="AM20" s="254"/>
+      <c r="AN20" s="254"/>
+      <c r="AO20" s="254"/>
+      <c r="AP20" s="254"/>
+      <c r="AQ20" s="254"/>
+      <c r="AR20" s="254"/>
+      <c r="AS20" s="232"/>
       <c r="AT20" s="105"/>
       <c r="AV20" s="104"/>
-      <c r="AW20" s="204" t="s">
+      <c r="AW20" s="138" t="s">
         <v>7</v>
       </c>
       <c r="AX20" s="94"/>
@@ -7640,56 +7694,56 @@
     </row>
     <row r="21" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B21" s="104"/>
-      <c r="C21" s="248"/>
-      <c r="D21" s="232" t="s">
+      <c r="C21" s="225"/>
+      <c r="D21" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="232"/>
-      <c r="F21" s="236"/>
-      <c r="G21" s="236"/>
-      <c r="H21" s="236"/>
-      <c r="I21" s="236"/>
-      <c r="J21" s="236"/>
-      <c r="K21" s="236"/>
-      <c r="L21" s="236"/>
-      <c r="M21" s="236"/>
-      <c r="N21" s="236"/>
-      <c r="O21" s="236"/>
-      <c r="P21" s="249"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="232"/>
       <c r="Q21" s="116"/>
-      <c r="R21" s="248"/>
-      <c r="S21" s="236" t="s">
+      <c r="R21" s="225"/>
+      <c r="S21" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="T21" s="236"/>
-      <c r="U21" s="236"/>
-      <c r="V21" s="236"/>
-      <c r="W21" s="236"/>
-      <c r="X21" s="236"/>
-      <c r="Y21" s="241"/>
-      <c r="Z21" s="249"/>
+      <c r="T21" s="158"/>
+      <c r="U21" s="158"/>
+      <c r="V21" s="158"/>
+      <c r="W21" s="158"/>
+      <c r="X21" s="158"/>
+      <c r="Y21" s="163"/>
+      <c r="Z21" s="232"/>
       <c r="AA21" s="105"/>
       <c r="AC21" s="104"/>
-      <c r="AD21" s="248"/>
-      <c r="AE21" s="257" t="s">
+      <c r="AD21" s="225"/>
+      <c r="AE21" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="AF21" s="214"/>
-      <c r="AG21" s="214"/>
-      <c r="AH21" s="214"/>
-      <c r="AI21" s="214"/>
-      <c r="AJ21" s="214"/>
-      <c r="AK21" s="214"/>
-      <c r="AL21" s="214"/>
-      <c r="AM21" s="214"/>
-      <c r="AN21" s="214"/>
-      <c r="AO21" s="214"/>
-      <c r="AP21" s="214"/>
-      <c r="AQ21" s="215">
+      <c r="AF21" s="143"/>
+      <c r="AG21" s="143"/>
+      <c r="AH21" s="143"/>
+      <c r="AI21" s="143"/>
+      <c r="AJ21" s="143"/>
+      <c r="AK21" s="143"/>
+      <c r="AL21" s="143"/>
+      <c r="AM21" s="143"/>
+      <c r="AN21" s="143"/>
+      <c r="AO21" s="143"/>
+      <c r="AP21" s="143"/>
+      <c r="AQ21" s="255">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR21" s="215"/>
-      <c r="AS21" s="249"/>
+      <c r="AR21" s="255"/>
+      <c r="AS21" s="232"/>
       <c r="AT21" s="105"/>
       <c r="AV21" s="104"/>
       <c r="AW21" s="128" t="s">
@@ -7716,48 +7770,48 @@
     </row>
     <row r="22" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="104"/>
-      <c r="C22" s="248"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="214"/>
-      <c r="I22" s="214"/>
-      <c r="J22" s="214"/>
-      <c r="K22" s="214"/>
-      <c r="L22" s="214"/>
-      <c r="M22" s="214"/>
-      <c r="N22" s="214"/>
-      <c r="O22" s="214"/>
-      <c r="P22" s="249"/>
+      <c r="C22" s="225"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="232"/>
       <c r="Q22" s="109"/>
-      <c r="R22" s="248"/>
-      <c r="S22" s="214"/>
-      <c r="T22" s="214"/>
-      <c r="U22" s="214"/>
-      <c r="V22" s="214"/>
-      <c r="W22" s="214"/>
-      <c r="X22" s="214"/>
-      <c r="Y22" s="241"/>
-      <c r="Z22" s="249"/>
+      <c r="R22" s="225"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="143"/>
+      <c r="W22" s="143"/>
+      <c r="X22" s="143"/>
+      <c r="Y22" s="163"/>
+      <c r="Z22" s="232"/>
       <c r="AA22" s="105"/>
       <c r="AC22" s="104"/>
-      <c r="AD22" s="248"/>
-      <c r="AE22" s="216"/>
-      <c r="AF22" s="216"/>
-      <c r="AG22" s="216"/>
-      <c r="AH22" s="216"/>
-      <c r="AI22" s="216"/>
-      <c r="AJ22" s="216"/>
-      <c r="AK22" s="216"/>
-      <c r="AL22" s="216"/>
-      <c r="AM22" s="216"/>
-      <c r="AN22" s="216"/>
-      <c r="AO22" s="216"/>
-      <c r="AP22" s="216"/>
-      <c r="AQ22" s="216"/>
-      <c r="AR22" s="216"/>
-      <c r="AS22" s="249"/>
+      <c r="AD22" s="225"/>
+      <c r="AE22" s="229"/>
+      <c r="AF22" s="229"/>
+      <c r="AG22" s="229"/>
+      <c r="AH22" s="229"/>
+      <c r="AI22" s="229"/>
+      <c r="AJ22" s="229"/>
+      <c r="AK22" s="229"/>
+      <c r="AL22" s="229"/>
+      <c r="AM22" s="229"/>
+      <c r="AN22" s="229"/>
+      <c r="AO22" s="229"/>
+      <c r="AP22" s="229"/>
+      <c r="AQ22" s="229"/>
+      <c r="AR22" s="229"/>
+      <c r="AS22" s="232"/>
       <c r="AT22" s="105"/>
       <c r="AV22" s="104"/>
       <c r="AW22" s="95"/>
@@ -7780,48 +7834,48 @@
     </row>
     <row r="23" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="104"/>
-      <c r="C23" s="248"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="214"/>
-      <c r="J23" s="214"/>
-      <c r="K23" s="214"/>
-      <c r="L23" s="214"/>
-      <c r="M23" s="214"/>
-      <c r="N23" s="214"/>
-      <c r="O23" s="214"/>
-      <c r="P23" s="249"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="232"/>
       <c r="Q23" s="109"/>
-      <c r="R23" s="248"/>
-      <c r="S23" s="214"/>
-      <c r="T23" s="214"/>
-      <c r="U23" s="214"/>
-      <c r="V23" s="214"/>
-      <c r="W23" s="214"/>
-      <c r="X23" s="214"/>
-      <c r="Y23" s="241"/>
-      <c r="Z23" s="249"/>
+      <c r="R23" s="225"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="143"/>
+      <c r="W23" s="143"/>
+      <c r="X23" s="143"/>
+      <c r="Y23" s="163"/>
+      <c r="Z23" s="232"/>
       <c r="AA23" s="105"/>
       <c r="AC23" s="104"/>
-      <c r="AD23" s="248"/>
-      <c r="AE23" s="216"/>
-      <c r="AF23" s="216"/>
-      <c r="AG23" s="216"/>
-      <c r="AH23" s="216"/>
-      <c r="AI23" s="216"/>
-      <c r="AJ23" s="216"/>
-      <c r="AK23" s="216"/>
-      <c r="AL23" s="216"/>
-      <c r="AM23" s="216"/>
-      <c r="AN23" s="216"/>
-      <c r="AO23" s="216"/>
-      <c r="AP23" s="216"/>
-      <c r="AQ23" s="216"/>
-      <c r="AR23" s="216"/>
-      <c r="AS23" s="249"/>
+      <c r="AD23" s="225"/>
+      <c r="AE23" s="229"/>
+      <c r="AF23" s="229"/>
+      <c r="AG23" s="229"/>
+      <c r="AH23" s="229"/>
+      <c r="AI23" s="229"/>
+      <c r="AJ23" s="229"/>
+      <c r="AK23" s="229"/>
+      <c r="AL23" s="229"/>
+      <c r="AM23" s="229"/>
+      <c r="AN23" s="229"/>
+      <c r="AO23" s="229"/>
+      <c r="AP23" s="229"/>
+      <c r="AQ23" s="229"/>
+      <c r="AR23" s="229"/>
+      <c r="AS23" s="232"/>
       <c r="AT23" s="105"/>
       <c r="AV23" s="104"/>
       <c r="AW23" s="95"/>
@@ -7844,55 +7898,55 @@
     </row>
     <row r="24" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B24" s="104"/>
-      <c r="C24" s="248"/>
-      <c r="D24" s="243" t="s">
+      <c r="C24" s="225"/>
+      <c r="D24" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="243"/>
-      <c r="F24" s="231"/>
-      <c r="G24" s="231"/>
-      <c r="H24" s="231"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="231"/>
-      <c r="K24" s="231"/>
-      <c r="L24" s="231"/>
-      <c r="M24" s="231"/>
-      <c r="N24" s="231"/>
-      <c r="O24" s="241"/>
-      <c r="P24" s="249"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="232"/>
       <c r="Q24" s="100"/>
-      <c r="R24" s="248"/>
-      <c r="S24" s="241"/>
-      <c r="T24" s="241"/>
-      <c r="U24" s="241"/>
-      <c r="V24" s="241"/>
-      <c r="W24" s="241"/>
-      <c r="X24" s="241"/>
-      <c r="Y24" s="241"/>
-      <c r="Z24" s="249"/>
+      <c r="R24" s="225"/>
+      <c r="S24" s="163"/>
+      <c r="T24" s="163"/>
+      <c r="U24" s="163"/>
+      <c r="V24" s="163"/>
+      <c r="W24" s="163"/>
+      <c r="X24" s="163"/>
+      <c r="Y24" s="163"/>
+      <c r="Z24" s="232"/>
       <c r="AA24" s="105"/>
       <c r="AC24" s="104"/>
-      <c r="AD24" s="248"/>
-      <c r="AE24" s="258" t="s">
+      <c r="AD24" s="225"/>
+      <c r="AE24" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="AF24" s="217"/>
-      <c r="AG24" s="217"/>
-      <c r="AH24" s="217"/>
-      <c r="AI24" s="217"/>
-      <c r="AJ24" s="217"/>
-      <c r="AK24" s="217"/>
-      <c r="AL24" s="217"/>
-      <c r="AM24" s="217"/>
-      <c r="AN24" s="217"/>
-      <c r="AO24" s="217"/>
-      <c r="AP24" s="217"/>
-      <c r="AQ24" s="217"/>
-      <c r="AR24" s="218"/>
-      <c r="AS24" s="249"/>
+      <c r="AF24" s="144"/>
+      <c r="AG24" s="144"/>
+      <c r="AH24" s="144"/>
+      <c r="AI24" s="144"/>
+      <c r="AJ24" s="144"/>
+      <c r="AK24" s="144"/>
+      <c r="AL24" s="144"/>
+      <c r="AM24" s="144"/>
+      <c r="AN24" s="144"/>
+      <c r="AO24" s="144"/>
+      <c r="AP24" s="144"/>
+      <c r="AQ24" s="144"/>
+      <c r="AR24" s="145"/>
+      <c r="AS24" s="232"/>
       <c r="AT24" s="105"/>
       <c r="AV24" s="104"/>
-      <c r="AW24" s="205" t="s">
+      <c r="AW24" s="139" t="s">
         <v>9</v>
       </c>
       <c r="AX24" s="96"/>
@@ -7916,57 +7970,57 @@
     </row>
     <row r="25" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B25" s="104"/>
-      <c r="C25" s="248"/>
-      <c r="D25" s="244" t="s">
+      <c r="C25" s="225"/>
+      <c r="D25" s="166" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="244"/>
-      <c r="F25" s="245"/>
-      <c r="G25" s="245"/>
-      <c r="H25" s="245"/>
-      <c r="I25" s="245"/>
-      <c r="J25" s="245"/>
-      <c r="K25" s="245"/>
-      <c r="L25" s="245"/>
-      <c r="M25" s="245"/>
-      <c r="N25" s="245"/>
-      <c r="O25" s="241"/>
-      <c r="P25" s="249"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
+      <c r="K25" s="167"/>
+      <c r="L25" s="167"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="232"/>
       <c r="Q25" s="100"/>
-      <c r="R25" s="248"/>
-      <c r="S25" s="241"/>
-      <c r="T25" s="241"/>
-      <c r="U25" s="241"/>
-      <c r="V25" s="241"/>
-      <c r="W25" s="241"/>
-      <c r="X25" s="241"/>
-      <c r="Y25" s="241"/>
-      <c r="Z25" s="249"/>
+      <c r="R25" s="225"/>
+      <c r="S25" s="163"/>
+      <c r="T25" s="163"/>
+      <c r="U25" s="163"/>
+      <c r="V25" s="163"/>
+      <c r="W25" s="163"/>
+      <c r="X25" s="163"/>
+      <c r="Y25" s="163"/>
+      <c r="Z25" s="232"/>
       <c r="AA25" s="105"/>
       <c r="AC25" s="104"/>
-      <c r="AD25" s="248"/>
-      <c r="AE25" s="259" t="s">
+      <c r="AD25" s="225"/>
+      <c r="AE25" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="AF25" s="219"/>
-      <c r="AG25" s="219"/>
-      <c r="AH25" s="219"/>
-      <c r="AI25" s="219"/>
-      <c r="AJ25" s="219"/>
-      <c r="AK25" s="219"/>
-      <c r="AL25" s="219"/>
-      <c r="AM25" s="219"/>
-      <c r="AN25" s="219"/>
-      <c r="AO25" s="219"/>
-      <c r="AP25" s="219"/>
-      <c r="AQ25" s="220">
+      <c r="AF25" s="146"/>
+      <c r="AG25" s="146"/>
+      <c r="AH25" s="146"/>
+      <c r="AI25" s="146"/>
+      <c r="AJ25" s="146"/>
+      <c r="AK25" s="146"/>
+      <c r="AL25" s="146"/>
+      <c r="AM25" s="146"/>
+      <c r="AN25" s="146"/>
+      <c r="AO25" s="146"/>
+      <c r="AP25" s="146"/>
+      <c r="AQ25" s="256">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR25" s="220"/>
-      <c r="AS25" s="249"/>
+      <c r="AR25" s="256"/>
+      <c r="AS25" s="232"/>
       <c r="AT25" s="105"/>
       <c r="AV25" s="104"/>
-      <c r="AW25" s="206" t="s">
+      <c r="AW25" s="140" t="s">
         <v>10</v>
       </c>
       <c r="AX25" s="97"/>
@@ -7990,48 +8044,48 @@
     </row>
     <row r="26" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="104"/>
-      <c r="C26" s="248"/>
-      <c r="D26" s="245"/>
-      <c r="E26" s="245"/>
-      <c r="F26" s="245"/>
-      <c r="G26" s="245"/>
-      <c r="H26" s="245"/>
-      <c r="I26" s="245"/>
-      <c r="J26" s="245"/>
-      <c r="K26" s="245"/>
-      <c r="L26" s="245"/>
-      <c r="M26" s="245"/>
-      <c r="N26" s="245"/>
-      <c r="O26" s="241"/>
-      <c r="P26" s="249"/>
+      <c r="C26" s="225"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="167"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="167"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="232"/>
       <c r="Q26" s="100"/>
-      <c r="R26" s="248"/>
-      <c r="S26" s="241"/>
-      <c r="T26" s="241"/>
-      <c r="U26" s="241"/>
-      <c r="V26" s="241"/>
-      <c r="W26" s="241"/>
-      <c r="X26" s="241"/>
-      <c r="Y26" s="241"/>
-      <c r="Z26" s="249"/>
+      <c r="R26" s="225"/>
+      <c r="S26" s="163"/>
+      <c r="T26" s="163"/>
+      <c r="U26" s="163"/>
+      <c r="V26" s="163"/>
+      <c r="W26" s="163"/>
+      <c r="X26" s="163"/>
+      <c r="Y26" s="163"/>
+      <c r="Z26" s="232"/>
       <c r="AA26" s="105"/>
       <c r="AC26" s="104"/>
-      <c r="AD26" s="248"/>
-      <c r="AE26" s="221"/>
-      <c r="AF26" s="221"/>
-      <c r="AG26" s="221"/>
-      <c r="AH26" s="221"/>
-      <c r="AI26" s="221"/>
-      <c r="AJ26" s="221"/>
-      <c r="AK26" s="221"/>
-      <c r="AL26" s="221"/>
-      <c r="AM26" s="221"/>
-      <c r="AN26" s="221"/>
-      <c r="AO26" s="221"/>
-      <c r="AP26" s="221"/>
-      <c r="AQ26" s="221"/>
-      <c r="AR26" s="221"/>
-      <c r="AS26" s="249"/>
+      <c r="AD26" s="225"/>
+      <c r="AE26" s="257"/>
+      <c r="AF26" s="257"/>
+      <c r="AG26" s="257"/>
+      <c r="AH26" s="257"/>
+      <c r="AI26" s="257"/>
+      <c r="AJ26" s="257"/>
+      <c r="AK26" s="257"/>
+      <c r="AL26" s="257"/>
+      <c r="AM26" s="257"/>
+      <c r="AN26" s="257"/>
+      <c r="AO26" s="257"/>
+      <c r="AP26" s="257"/>
+      <c r="AQ26" s="257"/>
+      <c r="AR26" s="257"/>
+      <c r="AS26" s="232"/>
       <c r="AT26" s="105"/>
       <c r="AV26" s="104"/>
       <c r="AW26" s="98"/>
@@ -8054,48 +8108,48 @@
     </row>
     <row r="27" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="104"/>
-      <c r="C27" s="248"/>
-      <c r="D27" s="245"/>
-      <c r="E27" s="245"/>
-      <c r="F27" s="245"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="245"/>
-      <c r="I27" s="245"/>
-      <c r="J27" s="245"/>
-      <c r="K27" s="245"/>
-      <c r="L27" s="245"/>
-      <c r="M27" s="245"/>
-      <c r="N27" s="245"/>
-      <c r="O27" s="241"/>
-      <c r="P27" s="249"/>
+      <c r="C27" s="225"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
+      <c r="K27" s="167"/>
+      <c r="L27" s="167"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="167"/>
+      <c r="O27" s="163"/>
+      <c r="P27" s="232"/>
       <c r="Q27" s="100"/>
-      <c r="R27" s="248"/>
-      <c r="S27" s="241"/>
-      <c r="T27" s="241"/>
-      <c r="U27" s="241"/>
-      <c r="V27" s="241"/>
-      <c r="W27" s="241"/>
-      <c r="X27" s="241"/>
-      <c r="Y27" s="241"/>
-      <c r="Z27" s="249"/>
+      <c r="R27" s="225"/>
+      <c r="S27" s="163"/>
+      <c r="T27" s="163"/>
+      <c r="U27" s="163"/>
+      <c r="V27" s="163"/>
+      <c r="W27" s="163"/>
+      <c r="X27" s="163"/>
+      <c r="Y27" s="163"/>
+      <c r="Z27" s="232"/>
       <c r="AA27" s="105"/>
       <c r="AC27" s="104"/>
-      <c r="AD27" s="248"/>
-      <c r="AE27" s="221"/>
-      <c r="AF27" s="221"/>
-      <c r="AG27" s="221"/>
-      <c r="AH27" s="221"/>
-      <c r="AI27" s="221"/>
-      <c r="AJ27" s="221"/>
-      <c r="AK27" s="221"/>
-      <c r="AL27" s="221"/>
-      <c r="AM27" s="221"/>
-      <c r="AN27" s="221"/>
-      <c r="AO27" s="221"/>
-      <c r="AP27" s="221"/>
-      <c r="AQ27" s="221"/>
-      <c r="AR27" s="221"/>
-      <c r="AS27" s="249"/>
+      <c r="AD27" s="225"/>
+      <c r="AE27" s="257"/>
+      <c r="AF27" s="257"/>
+      <c r="AG27" s="257"/>
+      <c r="AH27" s="257"/>
+      <c r="AI27" s="257"/>
+      <c r="AJ27" s="257"/>
+      <c r="AK27" s="257"/>
+      <c r="AL27" s="257"/>
+      <c r="AM27" s="257"/>
+      <c r="AN27" s="257"/>
+      <c r="AO27" s="257"/>
+      <c r="AP27" s="257"/>
+      <c r="AQ27" s="257"/>
+      <c r="AR27" s="257"/>
+      <c r="AS27" s="232"/>
       <c r="AT27" s="105"/>
       <c r="AV27" s="104"/>
       <c r="AW27" s="98"/>
@@ -8118,54 +8172,54 @@
     </row>
     <row r="28" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B28" s="104"/>
-      <c r="C28" s="248"/>
-      <c r="D28" s="246" t="s">
+      <c r="C28" s="225"/>
+      <c r="D28" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="246"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="223"/>
-      <c r="L28" s="223"/>
-      <c r="M28" s="223"/>
-      <c r="N28" s="223"/>
-      <c r="O28" s="241"/>
-      <c r="P28" s="249"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="163"/>
+      <c r="P28" s="232"/>
       <c r="Q28" s="100"/>
-      <c r="R28" s="248"/>
-      <c r="S28" s="241"/>
-      <c r="T28" s="241"/>
-      <c r="U28" s="241"/>
-      <c r="V28" s="241"/>
-      <c r="W28" s="241"/>
-      <c r="X28" s="241"/>
-      <c r="Y28" s="233"/>
-      <c r="Z28" s="249"/>
+      <c r="R28" s="225"/>
+      <c r="S28" s="163"/>
+      <c r="T28" s="163"/>
+      <c r="U28" s="163"/>
+      <c r="V28" s="163"/>
+      <c r="W28" s="163"/>
+      <c r="X28" s="163"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="232"/>
       <c r="AA28" s="105"/>
       <c r="AC28" s="104"/>
-      <c r="AD28" s="248"/>
-      <c r="AE28" s="260" t="s">
+      <c r="AD28" s="225"/>
+      <c r="AE28" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="AF28" s="222"/>
-      <c r="AG28" s="222"/>
-      <c r="AH28" s="222"/>
-      <c r="AI28" s="222"/>
-      <c r="AJ28" s="222"/>
-      <c r="AK28" s="222"/>
-      <c r="AL28" s="222"/>
-      <c r="AM28" s="222"/>
-      <c r="AN28" s="222"/>
-      <c r="AO28" s="222"/>
-      <c r="AP28" s="222"/>
-      <c r="AQ28" s="209">
+      <c r="AF28" s="147"/>
+      <c r="AG28" s="147"/>
+      <c r="AH28" s="147"/>
+      <c r="AI28" s="147"/>
+      <c r="AJ28" s="147"/>
+      <c r="AK28" s="147"/>
+      <c r="AL28" s="147"/>
+      <c r="AM28" s="147"/>
+      <c r="AN28" s="147"/>
+      <c r="AO28" s="147"/>
+      <c r="AP28" s="147"/>
+      <c r="AQ28" s="258">
         <v>0.38055555555555554</v>
       </c>
-      <c r="AR28" s="209"/>
-      <c r="AS28" s="249"/>
+      <c r="AR28" s="258"/>
+      <c r="AS28" s="232"/>
       <c r="AT28" s="105"/>
       <c r="AV28" s="104"/>
       <c r="AW28" s="133" t="s">
@@ -8192,48 +8246,48 @@
     </row>
     <row r="29" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="104"/>
-      <c r="C29" s="248"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="223"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="223"/>
-      <c r="K29" s="223"/>
-      <c r="L29" s="223"/>
-      <c r="M29" s="223"/>
-      <c r="N29" s="223"/>
-      <c r="O29" s="241"/>
-      <c r="P29" s="249"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+      <c r="N29" s="148"/>
+      <c r="O29" s="163"/>
+      <c r="P29" s="232"/>
       <c r="Q29" s="100"/>
-      <c r="R29" s="248"/>
-      <c r="S29" s="241"/>
-      <c r="T29" s="241"/>
-      <c r="U29" s="241"/>
-      <c r="V29" s="241"/>
-      <c r="W29" s="241"/>
-      <c r="X29" s="241"/>
-      <c r="Y29" s="241"/>
-      <c r="Z29" s="249"/>
+      <c r="R29" s="225"/>
+      <c r="S29" s="163"/>
+      <c r="T29" s="163"/>
+      <c r="U29" s="163"/>
+      <c r="V29" s="163"/>
+      <c r="W29" s="163"/>
+      <c r="X29" s="163"/>
+      <c r="Y29" s="163"/>
+      <c r="Z29" s="232"/>
       <c r="AA29" s="105"/>
       <c r="AC29" s="104"/>
-      <c r="AD29" s="248"/>
-      <c r="AE29" s="223"/>
-      <c r="AF29" s="223"/>
-      <c r="AG29" s="223"/>
-      <c r="AH29" s="223"/>
-      <c r="AI29" s="223"/>
-      <c r="AJ29" s="223"/>
-      <c r="AK29" s="223"/>
-      <c r="AL29" s="223"/>
-      <c r="AM29" s="223"/>
-      <c r="AN29" s="223"/>
-      <c r="AO29" s="223"/>
-      <c r="AP29" s="223"/>
-      <c r="AQ29" s="223"/>
-      <c r="AR29" s="218"/>
-      <c r="AS29" s="249"/>
+      <c r="AD29" s="225"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="148"/>
+      <c r="AG29" s="148"/>
+      <c r="AH29" s="148"/>
+      <c r="AI29" s="148"/>
+      <c r="AJ29" s="148"/>
+      <c r="AK29" s="148"/>
+      <c r="AL29" s="148"/>
+      <c r="AM29" s="148"/>
+      <c r="AN29" s="148"/>
+      <c r="AO29" s="148"/>
+      <c r="AP29" s="148"/>
+      <c r="AQ29" s="148"/>
+      <c r="AR29" s="145"/>
+      <c r="AS29" s="232"/>
       <c r="AT29" s="105"/>
       <c r="AV29" s="104"/>
       <c r="AW29" s="99"/>
@@ -8256,48 +8310,48 @@
     </row>
     <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" s="104"/>
-      <c r="C30" s="248"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="228"/>
-      <c r="F30" s="241"/>
-      <c r="G30" s="241"/>
-      <c r="H30" s="241"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="241"/>
-      <c r="L30" s="241"/>
-      <c r="M30" s="241"/>
-      <c r="N30" s="241"/>
-      <c r="O30" s="241"/>
-      <c r="P30" s="249"/>
+      <c r="C30" s="225"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="163"/>
+      <c r="P30" s="232"/>
       <c r="Q30" s="100"/>
-      <c r="R30" s="248"/>
-      <c r="S30" s="241"/>
-      <c r="T30" s="241"/>
-      <c r="U30" s="241"/>
-      <c r="V30" s="241"/>
-      <c r="W30" s="241"/>
-      <c r="X30" s="241"/>
-      <c r="Y30" s="241"/>
-      <c r="Z30" s="249"/>
+      <c r="R30" s="225"/>
+      <c r="S30" s="163"/>
+      <c r="T30" s="163"/>
+      <c r="U30" s="163"/>
+      <c r="V30" s="163"/>
+      <c r="W30" s="163"/>
+      <c r="X30" s="163"/>
+      <c r="Y30" s="163"/>
+      <c r="Z30" s="232"/>
       <c r="AA30" s="105"/>
       <c r="AC30" s="104"/>
-      <c r="AD30" s="248"/>
-      <c r="AE30" s="218"/>
-      <c r="AF30" s="218"/>
-      <c r="AG30" s="218"/>
-      <c r="AH30" s="218"/>
-      <c r="AI30" s="218"/>
-      <c r="AJ30" s="218"/>
-      <c r="AK30" s="218"/>
-      <c r="AL30" s="218"/>
-      <c r="AM30" s="218"/>
-      <c r="AN30" s="218"/>
-      <c r="AO30" s="218"/>
-      <c r="AP30" s="218"/>
-      <c r="AQ30" s="218"/>
-      <c r="AR30" s="218"/>
-      <c r="AS30" s="249"/>
+      <c r="AD30" s="225"/>
+      <c r="AE30" s="145"/>
+      <c r="AF30" s="145"/>
+      <c r="AG30" s="145"/>
+      <c r="AH30" s="145"/>
+      <c r="AI30" s="145"/>
+      <c r="AJ30" s="145"/>
+      <c r="AK30" s="145"/>
+      <c r="AL30" s="145"/>
+      <c r="AM30" s="145"/>
+      <c r="AN30" s="145"/>
+      <c r="AO30" s="145"/>
+      <c r="AP30" s="145"/>
+      <c r="AQ30" s="145"/>
+      <c r="AR30" s="145"/>
+      <c r="AS30" s="232"/>
       <c r="AT30" s="105"/>
       <c r="AV30" s="104"/>
       <c r="AW30" s="133" t="s">
@@ -8324,48 +8378,48 @@
     </row>
     <row r="31" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B31" s="104"/>
-      <c r="C31" s="248"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="241"/>
-      <c r="F31" s="241"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="241"/>
-      <c r="I31" s="241"/>
-      <c r="J31" s="241"/>
-      <c r="K31" s="241"/>
-      <c r="L31" s="241"/>
-      <c r="M31" s="241"/>
-      <c r="N31" s="241"/>
-      <c r="O31" s="241"/>
-      <c r="P31" s="249"/>
+      <c r="C31" s="225"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
+      <c r="P31" s="232"/>
       <c r="Q31" s="100"/>
-      <c r="R31" s="248"/>
-      <c r="S31" s="241"/>
-      <c r="T31" s="241"/>
-      <c r="U31" s="241"/>
-      <c r="V31" s="241"/>
-      <c r="W31" s="241"/>
-      <c r="X31" s="241"/>
-      <c r="Y31" s="241"/>
-      <c r="Z31" s="249"/>
+      <c r="R31" s="225"/>
+      <c r="S31" s="163"/>
+      <c r="T31" s="163"/>
+      <c r="U31" s="163"/>
+      <c r="V31" s="163"/>
+      <c r="W31" s="163"/>
+      <c r="X31" s="163"/>
+      <c r="Y31" s="163"/>
+      <c r="Z31" s="232"/>
       <c r="AA31" s="105"/>
       <c r="AC31" s="104"/>
-      <c r="AD31" s="248"/>
-      <c r="AE31" s="218"/>
-      <c r="AF31" s="218"/>
-      <c r="AG31" s="218"/>
-      <c r="AH31" s="218"/>
-      <c r="AI31" s="218"/>
-      <c r="AJ31" s="218"/>
-      <c r="AK31" s="218"/>
-      <c r="AL31" s="218"/>
-      <c r="AM31" s="218"/>
-      <c r="AN31" s="218"/>
-      <c r="AO31" s="218"/>
-      <c r="AP31" s="218"/>
-      <c r="AQ31" s="218"/>
-      <c r="AR31" s="218"/>
-      <c r="AS31" s="249"/>
+      <c r="AD31" s="225"/>
+      <c r="AE31" s="145"/>
+      <c r="AF31" s="145"/>
+      <c r="AG31" s="145"/>
+      <c r="AH31" s="145"/>
+      <c r="AI31" s="145"/>
+      <c r="AJ31" s="145"/>
+      <c r="AK31" s="145"/>
+      <c r="AL31" s="145"/>
+      <c r="AM31" s="145"/>
+      <c r="AN31" s="145"/>
+      <c r="AO31" s="145"/>
+      <c r="AP31" s="145"/>
+      <c r="AQ31" s="145"/>
+      <c r="AR31" s="145"/>
+      <c r="AS31" s="232"/>
       <c r="AT31" s="105"/>
       <c r="AV31" s="104"/>
       <c r="AW31" s="99"/>
@@ -8388,48 +8442,48 @@
     </row>
     <row r="32" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="104"/>
-      <c r="C32" s="248"/>
-      <c r="D32" s="251"/>
-      <c r="E32" s="251"/>
-      <c r="F32" s="251"/>
-      <c r="G32" s="251"/>
-      <c r="H32" s="251"/>
-      <c r="I32" s="251"/>
-      <c r="J32" s="251"/>
-      <c r="K32" s="251"/>
-      <c r="L32" s="251"/>
-      <c r="M32" s="251"/>
-      <c r="N32" s="251"/>
-      <c r="O32" s="251"/>
-      <c r="P32" s="251"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="261"/>
+      <c r="G32" s="261"/>
+      <c r="H32" s="261"/>
+      <c r="I32" s="261"/>
+      <c r="J32" s="261"/>
+      <c r="K32" s="261"/>
+      <c r="L32" s="261"/>
+      <c r="M32" s="261"/>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="261"/>
       <c r="Q32" s="100"/>
-      <c r="R32" s="248"/>
-      <c r="S32" s="251"/>
-      <c r="T32" s="251"/>
-      <c r="U32" s="251"/>
-      <c r="V32" s="251"/>
-      <c r="W32" s="251"/>
-      <c r="X32" s="251"/>
-      <c r="Y32" s="251"/>
-      <c r="Z32" s="251"/>
+      <c r="R32" s="225"/>
+      <c r="S32" s="261"/>
+      <c r="T32" s="261"/>
+      <c r="U32" s="261"/>
+      <c r="V32" s="261"/>
+      <c r="W32" s="261"/>
+      <c r="X32" s="261"/>
+      <c r="Y32" s="261"/>
+      <c r="Z32" s="261"/>
       <c r="AA32" s="105"/>
       <c r="AC32" s="104"/>
-      <c r="AD32" s="248"/>
-      <c r="AE32" s="249"/>
-      <c r="AF32" s="249"/>
-      <c r="AG32" s="249"/>
-      <c r="AH32" s="249"/>
-      <c r="AI32" s="249"/>
-      <c r="AJ32" s="249"/>
-      <c r="AK32" s="249"/>
-      <c r="AL32" s="249"/>
-      <c r="AM32" s="249"/>
-      <c r="AN32" s="249"/>
-      <c r="AO32" s="249"/>
-      <c r="AP32" s="249"/>
-      <c r="AQ32" s="249"/>
-      <c r="AR32" s="249"/>
-      <c r="AS32" s="249"/>
+      <c r="AD32" s="225"/>
+      <c r="AE32" s="232"/>
+      <c r="AF32" s="232"/>
+      <c r="AG32" s="232"/>
+      <c r="AH32" s="232"/>
+      <c r="AI32" s="232"/>
+      <c r="AJ32" s="232"/>
+      <c r="AK32" s="232"/>
+      <c r="AL32" s="232"/>
+      <c r="AM32" s="232"/>
+      <c r="AN32" s="232"/>
+      <c r="AO32" s="232"/>
+      <c r="AP32" s="232"/>
+      <c r="AQ32" s="232"/>
+      <c r="AR32" s="232"/>
+      <c r="AS32" s="232"/>
       <c r="AT32" s="105"/>
       <c r="AV32" s="104"/>
       <c r="AW32" s="99"/>
@@ -8520,48 +8574,48 @@
     </row>
     <row r="34" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="104"/>
-      <c r="C34" s="248"/>
-      <c r="D34" s="248"/>
-      <c r="E34" s="248"/>
-      <c r="F34" s="248"/>
-      <c r="G34" s="248"/>
-      <c r="H34" s="248"/>
-      <c r="I34" s="248"/>
-      <c r="J34" s="248"/>
-      <c r="K34" s="248"/>
-      <c r="L34" s="248"/>
-      <c r="M34" s="248"/>
-      <c r="N34" s="248"/>
-      <c r="O34" s="248"/>
-      <c r="P34" s="248"/>
-      <c r="Q34" s="248"/>
-      <c r="R34" s="248"/>
-      <c r="S34" s="248"/>
-      <c r="T34" s="248"/>
-      <c r="U34" s="248"/>
-      <c r="V34" s="248"/>
-      <c r="W34" s="248"/>
-      <c r="X34" s="248"/>
-      <c r="Y34" s="248"/>
-      <c r="Z34" s="248"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="225"/>
+      <c r="F34" s="225"/>
+      <c r="G34" s="225"/>
+      <c r="H34" s="225"/>
+      <c r="I34" s="225"/>
+      <c r="J34" s="225"/>
+      <c r="K34" s="225"/>
+      <c r="L34" s="225"/>
+      <c r="M34" s="225"/>
+      <c r="N34" s="225"/>
+      <c r="O34" s="225"/>
+      <c r="P34" s="225"/>
+      <c r="Q34" s="225"/>
+      <c r="R34" s="225"/>
+      <c r="S34" s="225"/>
+      <c r="T34" s="225"/>
+      <c r="U34" s="225"/>
+      <c r="V34" s="225"/>
+      <c r="W34" s="225"/>
+      <c r="X34" s="225"/>
+      <c r="Y34" s="225"/>
+      <c r="Z34" s="225"/>
       <c r="AA34" s="105"/>
       <c r="AC34" s="104"/>
-      <c r="AD34" s="248"/>
-      <c r="AE34" s="248"/>
-      <c r="AF34" s="248"/>
-      <c r="AG34" s="248"/>
-      <c r="AH34" s="248"/>
-      <c r="AI34" s="248"/>
-      <c r="AJ34" s="248"/>
-      <c r="AK34" s="248"/>
-      <c r="AL34" s="248"/>
-      <c r="AM34" s="248"/>
-      <c r="AN34" s="248"/>
-      <c r="AO34" s="248"/>
-      <c r="AP34" s="248"/>
-      <c r="AQ34" s="248"/>
-      <c r="AR34" s="248"/>
-      <c r="AS34" s="248"/>
+      <c r="AD34" s="225"/>
+      <c r="AE34" s="225"/>
+      <c r="AF34" s="225"/>
+      <c r="AG34" s="225"/>
+      <c r="AH34" s="225"/>
+      <c r="AI34" s="225"/>
+      <c r="AJ34" s="225"/>
+      <c r="AK34" s="225"/>
+      <c r="AL34" s="225"/>
+      <c r="AM34" s="225"/>
+      <c r="AN34" s="225"/>
+      <c r="AO34" s="225"/>
+      <c r="AP34" s="225"/>
+      <c r="AQ34" s="225"/>
+      <c r="AR34" s="225"/>
+      <c r="AS34" s="225"/>
       <c r="AT34" s="105"/>
       <c r="AV34" s="104"/>
       <c r="AW34" s="89"/>
@@ -8584,52 +8638,52 @@
     </row>
     <row r="35" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B35" s="104"/>
-      <c r="C35" s="248"/>
-      <c r="D35" s="247" t="s">
+      <c r="C35" s="225"/>
+      <c r="D35" s="226" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="247"/>
-      <c r="F35" s="247"/>
-      <c r="G35" s="247"/>
-      <c r="H35" s="247"/>
-      <c r="I35" s="247"/>
-      <c r="J35" s="247"/>
-      <c r="K35" s="247"/>
-      <c r="L35" s="247"/>
-      <c r="M35" s="247"/>
-      <c r="N35" s="247"/>
-      <c r="O35" s="247"/>
-      <c r="P35" s="247"/>
-      <c r="Q35" s="247"/>
-      <c r="R35" s="247"/>
-      <c r="S35" s="247"/>
-      <c r="T35" s="247"/>
-      <c r="U35" s="247"/>
-      <c r="V35" s="247"/>
-      <c r="W35" s="247"/>
-      <c r="X35" s="247"/>
-      <c r="Y35" s="247"/>
-      <c r="Z35" s="250"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="226"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="226"/>
+      <c r="K35" s="226"/>
+      <c r="L35" s="226"/>
+      <c r="M35" s="226"/>
+      <c r="N35" s="226"/>
+      <c r="O35" s="226"/>
+      <c r="P35" s="226"/>
+      <c r="Q35" s="226"/>
+      <c r="R35" s="226"/>
+      <c r="S35" s="226"/>
+      <c r="T35" s="226"/>
+      <c r="U35" s="226"/>
+      <c r="V35" s="226"/>
+      <c r="W35" s="226"/>
+      <c r="X35" s="226"/>
+      <c r="Y35" s="226"/>
+      <c r="Z35" s="169"/>
       <c r="AA35" s="105"/>
       <c r="AC35" s="104"/>
-      <c r="AD35" s="248"/>
-      <c r="AE35" s="247" t="s">
+      <c r="AD35" s="225"/>
+      <c r="AE35" s="226" t="s">
         <v>30</v>
       </c>
-      <c r="AF35" s="247"/>
-      <c r="AG35" s="247"/>
-      <c r="AH35" s="247"/>
-      <c r="AI35" s="247"/>
-      <c r="AJ35" s="247"/>
-      <c r="AK35" s="247"/>
-      <c r="AL35" s="247"/>
-      <c r="AM35" s="247"/>
-      <c r="AN35" s="247"/>
-      <c r="AO35" s="247"/>
-      <c r="AP35" s="247"/>
-      <c r="AQ35" s="247"/>
-      <c r="AR35" s="247"/>
-      <c r="AS35" s="250"/>
+      <c r="AF35" s="226"/>
+      <c r="AG35" s="226"/>
+      <c r="AH35" s="226"/>
+      <c r="AI35" s="226"/>
+      <c r="AJ35" s="226"/>
+      <c r="AK35" s="226"/>
+      <c r="AL35" s="226"/>
+      <c r="AM35" s="226"/>
+      <c r="AN35" s="226"/>
+      <c r="AO35" s="226"/>
+      <c r="AP35" s="226"/>
+      <c r="AQ35" s="226"/>
+      <c r="AR35" s="226"/>
+      <c r="AS35" s="169"/>
       <c r="AT35" s="105"/>
       <c r="AV35" s="104"/>
       <c r="AW35" s="134" t="s">
@@ -8656,48 +8710,48 @@
     </row>
     <row r="36" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="104"/>
-      <c r="C36" s="248"/>
-      <c r="D36" s="249"/>
-      <c r="E36" s="249"/>
-      <c r="F36" s="249"/>
-      <c r="G36" s="249"/>
-      <c r="H36" s="249"/>
-      <c r="I36" s="249"/>
-      <c r="J36" s="249"/>
-      <c r="K36" s="249"/>
-      <c r="L36" s="249"/>
-      <c r="M36" s="249"/>
-      <c r="N36" s="249"/>
-      <c r="O36" s="249"/>
-      <c r="P36" s="249"/>
-      <c r="Q36" s="249"/>
-      <c r="R36" s="249"/>
-      <c r="S36" s="249"/>
-      <c r="T36" s="249"/>
-      <c r="U36" s="249"/>
-      <c r="V36" s="249"/>
-      <c r="W36" s="249"/>
-      <c r="X36" s="249"/>
-      <c r="Y36" s="249"/>
-      <c r="Z36" s="249"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="232"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="232"/>
+      <c r="G36" s="232"/>
+      <c r="H36" s="232"/>
+      <c r="I36" s="232"/>
+      <c r="J36" s="232"/>
+      <c r="K36" s="232"/>
+      <c r="L36" s="232"/>
+      <c r="M36" s="232"/>
+      <c r="N36" s="232"/>
+      <c r="O36" s="232"/>
+      <c r="P36" s="232"/>
+      <c r="Q36" s="232"/>
+      <c r="R36" s="232"/>
+      <c r="S36" s="232"/>
+      <c r="T36" s="232"/>
+      <c r="U36" s="232"/>
+      <c r="V36" s="232"/>
+      <c r="W36" s="232"/>
+      <c r="X36" s="232"/>
+      <c r="Y36" s="232"/>
+      <c r="Z36" s="232"/>
       <c r="AA36" s="105"/>
       <c r="AC36" s="104"/>
-      <c r="AD36" s="248"/>
-      <c r="AE36" s="249"/>
-      <c r="AF36" s="249"/>
-      <c r="AG36" s="249"/>
-      <c r="AH36" s="249"/>
-      <c r="AI36" s="249"/>
-      <c r="AJ36" s="249"/>
-      <c r="AK36" s="249"/>
-      <c r="AL36" s="249"/>
-      <c r="AM36" s="249"/>
-      <c r="AN36" s="249"/>
-      <c r="AO36" s="249"/>
-      <c r="AP36" s="249"/>
-      <c r="AQ36" s="249"/>
-      <c r="AR36" s="249"/>
-      <c r="AS36" s="249"/>
+      <c r="AD36" s="225"/>
+      <c r="AE36" s="232"/>
+      <c r="AF36" s="232"/>
+      <c r="AG36" s="232"/>
+      <c r="AH36" s="232"/>
+      <c r="AI36" s="232"/>
+      <c r="AJ36" s="232"/>
+      <c r="AK36" s="232"/>
+      <c r="AL36" s="232"/>
+      <c r="AM36" s="232"/>
+      <c r="AN36" s="232"/>
+      <c r="AO36" s="232"/>
+      <c r="AP36" s="232"/>
+      <c r="AQ36" s="232"/>
+      <c r="AR36" s="232"/>
+      <c r="AS36" s="232"/>
       <c r="AT36" s="105"/>
       <c r="AU36" s="77"/>
       <c r="AV36" s="104"/>
@@ -8793,7 +8847,7 @@
       <c r="B39" s="101"/>
       <c r="C39" s="102"/>
       <c r="D39" s="102"/>
-      <c r="E39" s="121" t="s">
+      <c r="E39" s="125" t="s">
         <v>48</v>
       </c>
       <c r="F39" s="102"/>
@@ -8810,26 +8864,26 @@
       <c r="Q39" s="77"/>
       <c r="R39" s="77"/>
       <c r="S39" s="36"/>
-      <c r="AC39" s="261" t="s">
+      <c r="AC39" s="176"/>
+      <c r="AD39" s="177"/>
+      <c r="AE39" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="33"/>
-      <c r="AG39" s="33"/>
-      <c r="AH39" s="33"/>
-      <c r="AI39" s="33"/>
-      <c r="AJ39" s="33"/>
-      <c r="AK39" s="33"/>
-      <c r="AL39" s="33"/>
-      <c r="AM39" s="33"/>
-      <c r="AN39" s="33"/>
-      <c r="AO39" s="33"/>
-      <c r="AP39" s="33"/>
-      <c r="AQ39" s="33"/>
-      <c r="AR39" s="33"/>
-      <c r="AS39" s="33"/>
-      <c r="AT39" s="33"/>
+      <c r="AF39" s="178"/>
+      <c r="AG39" s="178"/>
+      <c r="AH39" s="178"/>
+      <c r="AI39" s="178"/>
+      <c r="AJ39" s="178"/>
+      <c r="AK39" s="178"/>
+      <c r="AL39" s="178"/>
+      <c r="AM39" s="178"/>
+      <c r="AN39" s="178"/>
+      <c r="AO39" s="178"/>
+      <c r="AP39" s="178"/>
+      <c r="AQ39" s="178"/>
+      <c r="AR39" s="178"/>
+      <c r="AS39" s="178"/>
+      <c r="AT39" s="178"/>
       <c r="AV39" s="101"/>
       <c r="AW39" s="125" t="s">
         <v>49</v>
@@ -8875,26 +8929,26 @@
       <c r="Q40" s="77"/>
       <c r="R40" s="77"/>
       <c r="S40" s="36"/>
-      <c r="AC40" s="39" t="s">
+      <c r="AC40" s="264"/>
+      <c r="AD40" s="265"/>
+      <c r="AE40" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="40"/>
-      <c r="AF40" s="40"/>
-      <c r="AG40" s="40"/>
-      <c r="AH40" s="40"/>
-      <c r="AI40" s="40"/>
-      <c r="AJ40" s="40"/>
-      <c r="AK40" s="40"/>
-      <c r="AL40" s="40"/>
-      <c r="AM40" s="40"/>
-      <c r="AN40" s="40"/>
-      <c r="AO40" s="40"/>
-      <c r="AP40" s="40"/>
-      <c r="AQ40" s="40"/>
-      <c r="AR40" s="40"/>
-      <c r="AS40" s="40"/>
-      <c r="AT40" s="40"/>
+      <c r="AF40" s="266"/>
+      <c r="AG40" s="266"/>
+      <c r="AH40" s="266"/>
+      <c r="AI40" s="266"/>
+      <c r="AJ40" s="266"/>
+      <c r="AK40" s="266"/>
+      <c r="AL40" s="266"/>
+      <c r="AM40" s="266"/>
+      <c r="AN40" s="266"/>
+      <c r="AO40" s="266"/>
+      <c r="AP40" s="266"/>
+      <c r="AQ40" s="266"/>
+      <c r="AR40" s="266"/>
+      <c r="AS40" s="266"/>
+      <c r="AT40" s="266"/>
       <c r="AV40" s="106"/>
       <c r="AW40" s="126" t="s">
         <v>51</v>
@@ -8921,13 +8975,13 @@
       <c r="B41" s="104"/>
       <c r="C41" s="100"/>
       <c r="D41" s="100"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="207"/>
-      <c r="G41" s="207"/>
-      <c r="H41" s="207"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="207"/>
-      <c r="K41" s="207"/>
+      <c r="E41" s="262"/>
+      <c r="F41" s="262"/>
+      <c r="G41" s="262"/>
+      <c r="H41" s="262"/>
+      <c r="I41" s="262"/>
+      <c r="J41" s="262"/>
+      <c r="K41" s="262"/>
       <c r="L41" s="105"/>
       <c r="M41" s="77"/>
       <c r="N41" s="77"/>
@@ -8936,24 +8990,24 @@
       <c r="Q41" s="77"/>
       <c r="R41" s="77"/>
       <c r="S41" s="36"/>
-      <c r="AC41" s="39"/>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="40"/>
-      <c r="AF41" s="40"/>
-      <c r="AG41" s="40"/>
-      <c r="AH41" s="40"/>
-      <c r="AI41" s="40"/>
-      <c r="AJ41" s="40"/>
-      <c r="AK41" s="40"/>
-      <c r="AL41" s="40"/>
-      <c r="AM41" s="40"/>
-      <c r="AN41" s="40"/>
-      <c r="AO41" s="40"/>
-      <c r="AP41" s="40"/>
-      <c r="AQ41" s="40"/>
-      <c r="AR41" s="40"/>
-      <c r="AS41" s="40"/>
-      <c r="AT41" s="40"/>
+      <c r="AC41" s="265"/>
+      <c r="AD41" s="265"/>
+      <c r="AE41" s="266"/>
+      <c r="AF41" s="266"/>
+      <c r="AG41" s="266"/>
+      <c r="AH41" s="266"/>
+      <c r="AI41" s="266"/>
+      <c r="AJ41" s="266"/>
+      <c r="AK41" s="266"/>
+      <c r="AL41" s="266"/>
+      <c r="AM41" s="266"/>
+      <c r="AN41" s="266"/>
+      <c r="AO41" s="266"/>
+      <c r="AP41" s="266"/>
+      <c r="AQ41" s="266"/>
+      <c r="AR41" s="266"/>
+      <c r="AS41" s="266"/>
+      <c r="AT41" s="266"/>
       <c r="AV41" s="77"/>
       <c r="AW41" s="83"/>
       <c r="AX41" s="83"/>
@@ -8997,26 +9051,26 @@
       <c r="Q42" s="77"/>
       <c r="R42" s="77"/>
       <c r="S42" s="36"/>
-      <c r="AC42" s="39" t="s">
+      <c r="AC42" s="264"/>
+      <c r="AD42" s="265"/>
+      <c r="AE42" s="264" t="s">
         <v>18</v>
       </c>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="40"/>
-      <c r="AF42" s="40"/>
-      <c r="AG42" s="40"/>
-      <c r="AH42" s="40"/>
-      <c r="AI42" s="40"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="40"/>
-      <c r="AL42" s="40"/>
-      <c r="AM42" s="40"/>
-      <c r="AN42" s="40"/>
-      <c r="AO42" s="40"/>
-      <c r="AP42" s="40"/>
-      <c r="AQ42" s="40"/>
-      <c r="AR42" s="40"/>
-      <c r="AS42" s="40"/>
-      <c r="AT42" s="40"/>
+      <c r="AF42" s="266"/>
+      <c r="AG42" s="266"/>
+      <c r="AH42" s="266"/>
+      <c r="AI42" s="266"/>
+      <c r="AJ42" s="266"/>
+      <c r="AK42" s="266"/>
+      <c r="AL42" s="266"/>
+      <c r="AM42" s="266"/>
+      <c r="AN42" s="266"/>
+      <c r="AO42" s="266"/>
+      <c r="AP42" s="266"/>
+      <c r="AQ42" s="266"/>
+      <c r="AR42" s="266"/>
+      <c r="AS42" s="266"/>
+      <c r="AT42" s="266"/>
     </row>
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B43" s="36"/>
@@ -9039,719 +9093,719 @@
       <c r="S43" s="36"/>
     </row>
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B44" s="186" t="s">
+      <c r="B44" s="239" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="186"/>
-      <c r="D44" s="186"/>
-      <c r="E44" s="186"/>
-      <c r="F44" s="186"/>
-      <c r="G44" s="186"/>
-      <c r="H44" s="186"/>
-      <c r="I44" s="186"/>
-      <c r="J44" s="186"/>
-      <c r="K44" s="186"/>
-      <c r="L44" s="186"/>
-      <c r="M44" s="138" t="s">
+      <c r="C44" s="239"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="239"/>
+      <c r="F44" s="239"/>
+      <c r="G44" s="239"/>
+      <c r="H44" s="239"/>
+      <c r="I44" s="239"/>
+      <c r="J44" s="239"/>
+      <c r="K44" s="239"/>
+      <c r="L44" s="239"/>
+      <c r="M44" s="182" t="s">
         <v>58</v>
       </c>
-      <c r="N44" s="138"/>
-      <c r="O44" s="138"/>
-      <c r="P44" s="138"/>
-      <c r="Q44" s="138"/>
-      <c r="R44" s="138"/>
-      <c r="S44" s="138"/>
-      <c r="T44" s="138"/>
-      <c r="U44" s="138"/>
-      <c r="V44" s="181" t="s">
+      <c r="N44" s="182"/>
+      <c r="O44" s="182"/>
+      <c r="P44" s="182"/>
+      <c r="Q44" s="182"/>
+      <c r="R44" s="182"/>
+      <c r="S44" s="182"/>
+      <c r="T44" s="182"/>
+      <c r="U44" s="182"/>
+      <c r="V44" s="234" t="s">
         <v>98</v>
       </c>
-      <c r="W44" s="181"/>
-      <c r="X44" s="181"/>
-      <c r="Y44" s="181"/>
-      <c r="Z44" s="181"/>
-      <c r="AA44" s="181"/>
-      <c r="AB44" s="181"/>
-      <c r="AC44" s="181"/>
-      <c r="AD44" s="181"/>
-      <c r="AE44" s="181"/>
-      <c r="AF44" s="181"/>
-      <c r="AG44" s="181"/>
-      <c r="AH44" s="138" t="s">
+      <c r="W44" s="234"/>
+      <c r="X44" s="234"/>
+      <c r="Y44" s="234"/>
+      <c r="Z44" s="234"/>
+      <c r="AA44" s="234"/>
+      <c r="AB44" s="234"/>
+      <c r="AC44" s="234"/>
+      <c r="AD44" s="234"/>
+      <c r="AE44" s="234"/>
+      <c r="AF44" s="234"/>
+      <c r="AG44" s="234"/>
+      <c r="AH44" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="AI44" s="138"/>
-      <c r="AJ44" s="138"/>
-      <c r="AK44" s="138"/>
-      <c r="AL44" s="138"/>
-      <c r="AM44" s="138"/>
-      <c r="AN44" s="138"/>
-      <c r="AO44" s="138"/>
-      <c r="AP44" s="187" t="s">
+      <c r="AI44" s="182"/>
+      <c r="AJ44" s="182"/>
+      <c r="AK44" s="182"/>
+      <c r="AL44" s="182"/>
+      <c r="AM44" s="182"/>
+      <c r="AN44" s="182"/>
+      <c r="AO44" s="182"/>
+      <c r="AP44" s="240" t="s">
         <v>74</v>
       </c>
-      <c r="AQ44" s="187"/>
-      <c r="AR44" s="187"/>
-      <c r="AS44" s="187"/>
-      <c r="AT44" s="187"/>
-      <c r="AU44" s="187"/>
-      <c r="AV44" s="187"/>
-      <c r="AW44" s="187"/>
-      <c r="AX44" s="187"/>
-      <c r="AY44" s="187"/>
-      <c r="AZ44" s="138" t="s">
+      <c r="AQ44" s="240"/>
+      <c r="AR44" s="240"/>
+      <c r="AS44" s="240"/>
+      <c r="AT44" s="240"/>
+      <c r="AU44" s="240"/>
+      <c r="AV44" s="240"/>
+      <c r="AW44" s="240"/>
+      <c r="AX44" s="240"/>
+      <c r="AY44" s="240"/>
+      <c r="AZ44" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="BA44" s="138"/>
-      <c r="BB44" s="138"/>
-      <c r="BC44" s="138"/>
-      <c r="BD44" s="138"/>
-      <c r="BE44" s="181" t="s">
+      <c r="BA44" s="182"/>
+      <c r="BB44" s="182"/>
+      <c r="BC44" s="182"/>
+      <c r="BD44" s="182"/>
+      <c r="BE44" s="234" t="s">
         <v>50</v>
       </c>
-      <c r="BF44" s="181"/>
-      <c r="BG44" s="181"/>
-      <c r="BH44" s="181"/>
-      <c r="BI44" s="181"/>
-      <c r="BJ44" s="181"/>
-      <c r="BK44" s="181"/>
-      <c r="BL44" s="181"/>
-      <c r="BM44" s="138" t="s">
+      <c r="BF44" s="234"/>
+      <c r="BG44" s="234"/>
+      <c r="BH44" s="234"/>
+      <c r="BI44" s="234"/>
+      <c r="BJ44" s="234"/>
+      <c r="BK44" s="234"/>
+      <c r="BL44" s="234"/>
+      <c r="BM44" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="BN44" s="138"/>
-      <c r="BO44" s="138"/>
-      <c r="BP44" s="138"/>
-      <c r="BQ44" s="138"/>
+      <c r="BN44" s="182"/>
+      <c r="BO44" s="182"/>
+      <c r="BP44" s="182"/>
+      <c r="BQ44" s="182"/>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B45" s="186" t="s">
+      <c r="B45" s="239" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="186"/>
-      <c r="D45" s="186"/>
-      <c r="E45" s="186"/>
-      <c r="F45" s="186"/>
-      <c r="G45" s="186"/>
-      <c r="H45" s="186"/>
-      <c r="I45" s="186"/>
-      <c r="J45" s="186"/>
-      <c r="K45" s="186"/>
-      <c r="L45" s="186"/>
-      <c r="M45" s="138"/>
-      <c r="N45" s="138"/>
-      <c r="O45" s="138"/>
-      <c r="P45" s="138"/>
-      <c r="Q45" s="138"/>
-      <c r="R45" s="138"/>
-      <c r="S45" s="138"/>
-      <c r="T45" s="138"/>
-      <c r="U45" s="138"/>
-      <c r="V45" s="188" t="s">
+      <c r="C45" s="239"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="239"/>
+      <c r="F45" s="239"/>
+      <c r="G45" s="239"/>
+      <c r="H45" s="239"/>
+      <c r="I45" s="239"/>
+      <c r="J45" s="239"/>
+      <c r="K45" s="239"/>
+      <c r="L45" s="239"/>
+      <c r="M45" s="182"/>
+      <c r="N45" s="182"/>
+      <c r="O45" s="182"/>
+      <c r="P45" s="182"/>
+      <c r="Q45" s="182"/>
+      <c r="R45" s="182"/>
+      <c r="S45" s="182"/>
+      <c r="T45" s="182"/>
+      <c r="U45" s="182"/>
+      <c r="V45" s="241" t="s">
         <v>77</v>
       </c>
-      <c r="W45" s="188"/>
-      <c r="X45" s="188"/>
-      <c r="Y45" s="188"/>
-      <c r="Z45" s="188"/>
-      <c r="AA45" s="188"/>
-      <c r="AB45" s="188"/>
-      <c r="AC45" s="188"/>
-      <c r="AD45" s="188"/>
-      <c r="AE45" s="188"/>
-      <c r="AF45" s="188"/>
-      <c r="AG45" s="188"/>
-      <c r="AH45" s="138" t="s">
+      <c r="W45" s="241"/>
+      <c r="X45" s="241"/>
+      <c r="Y45" s="241"/>
+      <c r="Z45" s="241"/>
+      <c r="AA45" s="241"/>
+      <c r="AB45" s="241"/>
+      <c r="AC45" s="241"/>
+      <c r="AD45" s="241"/>
+      <c r="AE45" s="241"/>
+      <c r="AF45" s="241"/>
+      <c r="AG45" s="241"/>
+      <c r="AH45" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="AI45" s="138"/>
-      <c r="AJ45" s="138"/>
-      <c r="AK45" s="138"/>
-      <c r="AL45" s="138"/>
-      <c r="AM45" s="138"/>
-      <c r="AN45" s="138"/>
-      <c r="AO45" s="138"/>
-      <c r="AP45" s="189" t="s">
+      <c r="AI45" s="182"/>
+      <c r="AJ45" s="182"/>
+      <c r="AK45" s="182"/>
+      <c r="AL45" s="182"/>
+      <c r="AM45" s="182"/>
+      <c r="AN45" s="182"/>
+      <c r="AO45" s="182"/>
+      <c r="AP45" s="242" t="s">
         <v>66</v>
       </c>
-      <c r="AQ45" s="189"/>
-      <c r="AR45" s="189"/>
-      <c r="AS45" s="189"/>
-      <c r="AT45" s="189"/>
-      <c r="AU45" s="189"/>
-      <c r="AV45" s="189"/>
-      <c r="AW45" s="189"/>
-      <c r="AX45" s="189"/>
-      <c r="AY45" s="189"/>
-      <c r="AZ45" s="138"/>
-      <c r="BA45" s="138"/>
-      <c r="BB45" s="138"/>
-      <c r="BC45" s="138"/>
-      <c r="BD45" s="138"/>
-      <c r="BE45" s="187" t="s">
+      <c r="AQ45" s="242"/>
+      <c r="AR45" s="242"/>
+      <c r="AS45" s="242"/>
+      <c r="AT45" s="242"/>
+      <c r="AU45" s="242"/>
+      <c r="AV45" s="242"/>
+      <c r="AW45" s="242"/>
+      <c r="AX45" s="242"/>
+      <c r="AY45" s="242"/>
+      <c r="AZ45" s="182"/>
+      <c r="BA45" s="182"/>
+      <c r="BB45" s="182"/>
+      <c r="BC45" s="182"/>
+      <c r="BD45" s="182"/>
+      <c r="BE45" s="240" t="s">
         <v>63</v>
       </c>
-      <c r="BF45" s="187"/>
-      <c r="BG45" s="187"/>
-      <c r="BH45" s="187"/>
-      <c r="BI45" s="187"/>
-      <c r="BJ45" s="187"/>
-      <c r="BK45" s="187"/>
-      <c r="BL45" s="187"/>
-      <c r="BM45" s="139" t="s">
+      <c r="BF45" s="240"/>
+      <c r="BG45" s="240"/>
+      <c r="BH45" s="240"/>
+      <c r="BI45" s="240"/>
+      <c r="BJ45" s="240"/>
+      <c r="BK45" s="240"/>
+      <c r="BL45" s="240"/>
+      <c r="BM45" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="BN45" s="138"/>
-      <c r="BO45" s="138"/>
-      <c r="BP45" s="138"/>
-      <c r="BQ45" s="138"/>
+      <c r="BN45" s="182"/>
+      <c r="BO45" s="182"/>
+      <c r="BP45" s="182"/>
+      <c r="BQ45" s="182"/>
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B46" s="190" t="s">
+      <c r="B46" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="190"/>
-      <c r="D46" s="190"/>
-      <c r="E46" s="190"/>
-      <c r="F46" s="190"/>
-      <c r="G46" s="190"/>
-      <c r="H46" s="190"/>
-      <c r="I46" s="190"/>
-      <c r="J46" s="190"/>
-      <c r="K46" s="190"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="138"/>
-      <c r="N46" s="138"/>
-      <c r="O46" s="138"/>
-      <c r="P46" s="138"/>
-      <c r="Q46" s="138"/>
-      <c r="R46" s="138"/>
-      <c r="S46" s="138"/>
-      <c r="T46" s="138"/>
-      <c r="U46" s="138"/>
-      <c r="V46" s="187" t="s">
+      <c r="C46" s="243"/>
+      <c r="D46" s="243"/>
+      <c r="E46" s="243"/>
+      <c r="F46" s="243"/>
+      <c r="G46" s="243"/>
+      <c r="H46" s="243"/>
+      <c r="I46" s="243"/>
+      <c r="J46" s="243"/>
+      <c r="K46" s="243"/>
+      <c r="L46" s="243"/>
+      <c r="M46" s="182"/>
+      <c r="N46" s="182"/>
+      <c r="O46" s="182"/>
+      <c r="P46" s="182"/>
+      <c r="Q46" s="182"/>
+      <c r="R46" s="182"/>
+      <c r="S46" s="182"/>
+      <c r="T46" s="182"/>
+      <c r="U46" s="182"/>
+      <c r="V46" s="240" t="s">
         <v>85</v>
       </c>
-      <c r="W46" s="187"/>
-      <c r="X46" s="187"/>
-      <c r="Y46" s="187"/>
-      <c r="Z46" s="187"/>
-      <c r="AA46" s="187"/>
-      <c r="AB46" s="187"/>
-      <c r="AC46" s="187"/>
-      <c r="AD46" s="187"/>
-      <c r="AE46" s="187"/>
-      <c r="AF46" s="187"/>
-      <c r="AG46" s="187"/>
-      <c r="AH46" s="139" t="s">
+      <c r="W46" s="240"/>
+      <c r="X46" s="240"/>
+      <c r="Y46" s="240"/>
+      <c r="Z46" s="240"/>
+      <c r="AA46" s="240"/>
+      <c r="AB46" s="240"/>
+      <c r="AC46" s="240"/>
+      <c r="AD46" s="240"/>
+      <c r="AE46" s="240"/>
+      <c r="AF46" s="240"/>
+      <c r="AG46" s="240"/>
+      <c r="AH46" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="AI46" s="138"/>
-      <c r="AJ46" s="138"/>
-      <c r="AK46" s="138"/>
-      <c r="AL46" s="138"/>
-      <c r="AM46" s="138"/>
-      <c r="AN46" s="138"/>
-      <c r="AO46" s="138"/>
-      <c r="AP46" s="181" t="s">
+      <c r="AI46" s="182"/>
+      <c r="AJ46" s="182"/>
+      <c r="AK46" s="182"/>
+      <c r="AL46" s="182"/>
+      <c r="AM46" s="182"/>
+      <c r="AN46" s="182"/>
+      <c r="AO46" s="182"/>
+      <c r="AP46" s="234" t="s">
         <v>73</v>
       </c>
-      <c r="AQ46" s="181"/>
-      <c r="AR46" s="181"/>
-      <c r="AS46" s="181"/>
-      <c r="AT46" s="181"/>
-      <c r="AU46" s="181"/>
-      <c r="AV46" s="181"/>
-      <c r="AW46" s="181"/>
-      <c r="AX46" s="181"/>
-      <c r="AY46" s="181"/>
-      <c r="AZ46" s="138"/>
-      <c r="BA46" s="138"/>
-      <c r="BB46" s="138"/>
-      <c r="BC46" s="138"/>
-      <c r="BD46" s="138"/>
-      <c r="BE46" s="187" t="s">
+      <c r="AQ46" s="234"/>
+      <c r="AR46" s="234"/>
+      <c r="AS46" s="234"/>
+      <c r="AT46" s="234"/>
+      <c r="AU46" s="234"/>
+      <c r="AV46" s="234"/>
+      <c r="AW46" s="234"/>
+      <c r="AX46" s="234"/>
+      <c r="AY46" s="234"/>
+      <c r="AZ46" s="182"/>
+      <c r="BA46" s="182"/>
+      <c r="BB46" s="182"/>
+      <c r="BC46" s="182"/>
+      <c r="BD46" s="182"/>
+      <c r="BE46" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="BF46" s="187"/>
-      <c r="BG46" s="187"/>
-      <c r="BH46" s="187"/>
-      <c r="BI46" s="187"/>
-      <c r="BJ46" s="187"/>
-      <c r="BK46" s="187"/>
-      <c r="BL46" s="187"/>
-      <c r="BM46" s="138"/>
-      <c r="BN46" s="138"/>
-      <c r="BO46" s="138"/>
-      <c r="BP46" s="138"/>
-      <c r="BQ46" s="138"/>
+      <c r="BF46" s="240"/>
+      <c r="BG46" s="240"/>
+      <c r="BH46" s="240"/>
+      <c r="BI46" s="240"/>
+      <c r="BJ46" s="240"/>
+      <c r="BK46" s="240"/>
+      <c r="BL46" s="240"/>
+      <c r="BM46" s="182"/>
+      <c r="BN46" s="182"/>
+      <c r="BO46" s="182"/>
+      <c r="BP46" s="182"/>
+      <c r="BQ46" s="182"/>
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B47" s="199" t="s">
+      <c r="B47" s="251" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="199"/>
-      <c r="D47" s="199"/>
-      <c r="E47" s="199"/>
-      <c r="F47" s="199"/>
-      <c r="G47" s="199"/>
-      <c r="H47" s="199"/>
-      <c r="I47" s="199"/>
-      <c r="J47" s="199"/>
-      <c r="K47" s="199"/>
-      <c r="L47" s="199"/>
-      <c r="M47" s="138"/>
-      <c r="N47" s="138"/>
-      <c r="O47" s="138"/>
-      <c r="P47" s="138"/>
-      <c r="Q47" s="138"/>
-      <c r="R47" s="138"/>
-      <c r="S47" s="138"/>
-      <c r="T47" s="138"/>
-      <c r="U47" s="138"/>
-      <c r="V47" s="184" t="s">
+      <c r="C47" s="251"/>
+      <c r="D47" s="251"/>
+      <c r="E47" s="251"/>
+      <c r="F47" s="251"/>
+      <c r="G47" s="251"/>
+      <c r="H47" s="251"/>
+      <c r="I47" s="251"/>
+      <c r="J47" s="251"/>
+      <c r="K47" s="251"/>
+      <c r="L47" s="251"/>
+      <c r="M47" s="182"/>
+      <c r="N47" s="182"/>
+      <c r="O47" s="182"/>
+      <c r="P47" s="182"/>
+      <c r="Q47" s="182"/>
+      <c r="R47" s="182"/>
+      <c r="S47" s="182"/>
+      <c r="T47" s="182"/>
+      <c r="U47" s="182"/>
+      <c r="V47" s="237" t="s">
         <v>86</v>
       </c>
-      <c r="W47" s="184"/>
-      <c r="X47" s="184"/>
-      <c r="Y47" s="184"/>
-      <c r="Z47" s="184"/>
-      <c r="AA47" s="184"/>
-      <c r="AB47" s="184"/>
-      <c r="AC47" s="184"/>
-      <c r="AD47" s="184"/>
-      <c r="AE47" s="184"/>
-      <c r="AF47" s="184"/>
-      <c r="AG47" s="184"/>
-      <c r="AH47" s="138"/>
-      <c r="AI47" s="138"/>
-      <c r="AJ47" s="138"/>
-      <c r="AK47" s="138"/>
-      <c r="AL47" s="138"/>
-      <c r="AM47" s="138"/>
-      <c r="AN47" s="138"/>
-      <c r="AO47" s="138"/>
-      <c r="AP47" s="184" t="s">
+      <c r="W47" s="237"/>
+      <c r="X47" s="237"/>
+      <c r="Y47" s="237"/>
+      <c r="Z47" s="237"/>
+      <c r="AA47" s="237"/>
+      <c r="AB47" s="237"/>
+      <c r="AC47" s="237"/>
+      <c r="AD47" s="237"/>
+      <c r="AE47" s="237"/>
+      <c r="AF47" s="237"/>
+      <c r="AG47" s="237"/>
+      <c r="AH47" s="182"/>
+      <c r="AI47" s="182"/>
+      <c r="AJ47" s="182"/>
+      <c r="AK47" s="182"/>
+      <c r="AL47" s="182"/>
+      <c r="AM47" s="182"/>
+      <c r="AN47" s="182"/>
+      <c r="AO47" s="182"/>
+      <c r="AP47" s="237" t="s">
         <v>75</v>
       </c>
-      <c r="AQ47" s="184"/>
-      <c r="AR47" s="184"/>
-      <c r="AS47" s="184"/>
-      <c r="AT47" s="184"/>
-      <c r="AU47" s="184"/>
-      <c r="AV47" s="184"/>
-      <c r="AW47" s="184"/>
-      <c r="AX47" s="184"/>
-      <c r="AY47" s="184"/>
-      <c r="AZ47" s="138"/>
-      <c r="BA47" s="138"/>
-      <c r="BB47" s="138"/>
-      <c r="BC47" s="138"/>
-      <c r="BD47" s="138"/>
-      <c r="BE47" s="182" t="s">
+      <c r="AQ47" s="237"/>
+      <c r="AR47" s="237"/>
+      <c r="AS47" s="237"/>
+      <c r="AT47" s="237"/>
+      <c r="AU47" s="237"/>
+      <c r="AV47" s="237"/>
+      <c r="AW47" s="237"/>
+      <c r="AX47" s="237"/>
+      <c r="AY47" s="237"/>
+      <c r="AZ47" s="182"/>
+      <c r="BA47" s="182"/>
+      <c r="BB47" s="182"/>
+      <c r="BC47" s="182"/>
+      <c r="BD47" s="182"/>
+      <c r="BE47" s="235" t="s">
         <v>80</v>
       </c>
-      <c r="BF47" s="182"/>
-      <c r="BG47" s="182"/>
-      <c r="BH47" s="182"/>
-      <c r="BI47" s="182"/>
-      <c r="BJ47" s="182"/>
-      <c r="BK47" s="182"/>
-      <c r="BL47" s="182"/>
-      <c r="BM47" s="138" t="s">
+      <c r="BF47" s="235"/>
+      <c r="BG47" s="235"/>
+      <c r="BH47" s="235"/>
+      <c r="BI47" s="235"/>
+      <c r="BJ47" s="235"/>
+      <c r="BK47" s="235"/>
+      <c r="BL47" s="235"/>
+      <c r="BM47" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="BN47" s="138"/>
-      <c r="BO47" s="138"/>
-      <c r="BP47" s="138"/>
-      <c r="BQ47" s="138"/>
+      <c r="BN47" s="182"/>
+      <c r="BO47" s="182"/>
+      <c r="BP47" s="182"/>
+      <c r="BQ47" s="182"/>
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B48" s="183" t="s">
+      <c r="B48" s="236" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="183"/>
-      <c r="D48" s="183"/>
-      <c r="E48" s="183"/>
-      <c r="F48" s="183"/>
-      <c r="G48" s="183"/>
-      <c r="H48" s="183"/>
-      <c r="I48" s="183"/>
-      <c r="J48" s="183"/>
-      <c r="K48" s="183"/>
-      <c r="L48" s="183"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
-      <c r="P48" s="138"/>
-      <c r="Q48" s="138"/>
-      <c r="R48" s="138"/>
-      <c r="S48" s="138"/>
-      <c r="T48" s="138"/>
-      <c r="U48" s="138"/>
-      <c r="V48" s="181" t="s">
+      <c r="C48" s="236"/>
+      <c r="D48" s="236"/>
+      <c r="E48" s="236"/>
+      <c r="F48" s="236"/>
+      <c r="G48" s="236"/>
+      <c r="H48" s="236"/>
+      <c r="I48" s="236"/>
+      <c r="J48" s="236"/>
+      <c r="K48" s="236"/>
+      <c r="L48" s="236"/>
+      <c r="M48" s="182"/>
+      <c r="N48" s="182"/>
+      <c r="O48" s="182"/>
+      <c r="P48" s="182"/>
+      <c r="Q48" s="182"/>
+      <c r="R48" s="182"/>
+      <c r="S48" s="182"/>
+      <c r="T48" s="182"/>
+      <c r="U48" s="182"/>
+      <c r="V48" s="234" t="s">
         <v>87</v>
       </c>
-      <c r="W48" s="181"/>
-      <c r="X48" s="181"/>
-      <c r="Y48" s="181"/>
-      <c r="Z48" s="181"/>
-      <c r="AA48" s="181"/>
-      <c r="AB48" s="181"/>
-      <c r="AC48" s="181"/>
-      <c r="AD48" s="181"/>
-      <c r="AE48" s="181"/>
-      <c r="AF48" s="181"/>
-      <c r="AG48" s="181"/>
-      <c r="AH48" s="138"/>
-      <c r="AI48" s="138"/>
-      <c r="AJ48" s="138"/>
-      <c r="AK48" s="138"/>
-      <c r="AL48" s="138"/>
-      <c r="AM48" s="138"/>
-      <c r="AN48" s="138"/>
-      <c r="AO48" s="138"/>
-      <c r="AP48" s="184" t="s">
+      <c r="W48" s="234"/>
+      <c r="X48" s="234"/>
+      <c r="Y48" s="234"/>
+      <c r="Z48" s="234"/>
+      <c r="AA48" s="234"/>
+      <c r="AB48" s="234"/>
+      <c r="AC48" s="234"/>
+      <c r="AD48" s="234"/>
+      <c r="AE48" s="234"/>
+      <c r="AF48" s="234"/>
+      <c r="AG48" s="234"/>
+      <c r="AH48" s="182"/>
+      <c r="AI48" s="182"/>
+      <c r="AJ48" s="182"/>
+      <c r="AK48" s="182"/>
+      <c r="AL48" s="182"/>
+      <c r="AM48" s="182"/>
+      <c r="AN48" s="182"/>
+      <c r="AO48" s="182"/>
+      <c r="AP48" s="237" t="s">
         <v>71</v>
       </c>
-      <c r="AQ48" s="184"/>
-      <c r="AR48" s="184"/>
-      <c r="AS48" s="184"/>
-      <c r="AT48" s="184"/>
-      <c r="AU48" s="184"/>
-      <c r="AV48" s="184"/>
-      <c r="AW48" s="184"/>
-      <c r="AX48" s="184"/>
-      <c r="AY48" s="184"/>
-      <c r="AZ48" s="138" t="s">
+      <c r="AQ48" s="237"/>
+      <c r="AR48" s="237"/>
+      <c r="AS48" s="237"/>
+      <c r="AT48" s="237"/>
+      <c r="AU48" s="237"/>
+      <c r="AV48" s="237"/>
+      <c r="AW48" s="237"/>
+      <c r="AX48" s="237"/>
+      <c r="AY48" s="237"/>
+      <c r="AZ48" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="BA48" s="138"/>
-      <c r="BB48" s="138"/>
-      <c r="BC48" s="138"/>
-      <c r="BD48" s="138"/>
-      <c r="BE48" s="185" t="s">
+      <c r="BA48" s="182"/>
+      <c r="BB48" s="182"/>
+      <c r="BC48" s="182"/>
+      <c r="BD48" s="182"/>
+      <c r="BE48" s="238" t="s">
         <v>81</v>
       </c>
-      <c r="BF48" s="185"/>
-      <c r="BG48" s="185"/>
-      <c r="BH48" s="185"/>
-      <c r="BI48" s="185"/>
-      <c r="BJ48" s="185"/>
-      <c r="BK48" s="185"/>
-      <c r="BL48" s="185"/>
-      <c r="BM48" s="138"/>
-      <c r="BN48" s="138"/>
-      <c r="BO48" s="138"/>
-      <c r="BP48" s="138"/>
-      <c r="BQ48" s="138"/>
+      <c r="BF48" s="238"/>
+      <c r="BG48" s="238"/>
+      <c r="BH48" s="238"/>
+      <c r="BI48" s="238"/>
+      <c r="BJ48" s="238"/>
+      <c r="BK48" s="238"/>
+      <c r="BL48" s="238"/>
+      <c r="BM48" s="182"/>
+      <c r="BN48" s="182"/>
+      <c r="BO48" s="182"/>
+      <c r="BP48" s="182"/>
+      <c r="BQ48" s="182"/>
     </row>
     <row r="49" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B49" s="189" t="s">
+      <c r="B49" s="242" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="189"/>
-      <c r="D49" s="189"/>
-      <c r="E49" s="189"/>
-      <c r="F49" s="189"/>
-      <c r="G49" s="189"/>
-      <c r="H49" s="189"/>
-      <c r="I49" s="189"/>
-      <c r="J49" s="189"/>
-      <c r="K49" s="189"/>
-      <c r="L49" s="189"/>
-      <c r="M49" s="138"/>
-      <c r="N49" s="138"/>
-      <c r="O49" s="138"/>
-      <c r="P49" s="138"/>
-      <c r="Q49" s="138"/>
-      <c r="R49" s="138"/>
-      <c r="S49" s="138"/>
-      <c r="T49" s="138"/>
-      <c r="U49" s="138"/>
-      <c r="V49" s="182" t="s">
+      <c r="C49" s="242"/>
+      <c r="D49" s="242"/>
+      <c r="E49" s="242"/>
+      <c r="F49" s="242"/>
+      <c r="G49" s="242"/>
+      <c r="H49" s="242"/>
+      <c r="I49" s="242"/>
+      <c r="J49" s="242"/>
+      <c r="K49" s="242"/>
+      <c r="L49" s="242"/>
+      <c r="M49" s="182"/>
+      <c r="N49" s="182"/>
+      <c r="O49" s="182"/>
+      <c r="P49" s="182"/>
+      <c r="Q49" s="182"/>
+      <c r="R49" s="182"/>
+      <c r="S49" s="182"/>
+      <c r="T49" s="182"/>
+      <c r="U49" s="182"/>
+      <c r="V49" s="235" t="s">
         <v>88</v>
       </c>
-      <c r="W49" s="182"/>
-      <c r="X49" s="182"/>
-      <c r="Y49" s="182"/>
-      <c r="Z49" s="182"/>
-      <c r="AA49" s="182"/>
-      <c r="AB49" s="182"/>
-      <c r="AC49" s="182"/>
-      <c r="AD49" s="182"/>
-      <c r="AE49" s="182"/>
-      <c r="AF49" s="182"/>
-      <c r="AG49" s="182"/>
-      <c r="AH49" s="138"/>
-      <c r="AI49" s="138"/>
-      <c r="AJ49" s="138"/>
-      <c r="AK49" s="138"/>
-      <c r="AL49" s="138"/>
-      <c r="AM49" s="138"/>
-      <c r="AN49" s="138"/>
-      <c r="AO49" s="138"/>
-      <c r="AP49" s="189" t="s">
+      <c r="W49" s="235"/>
+      <c r="X49" s="235"/>
+      <c r="Y49" s="235"/>
+      <c r="Z49" s="235"/>
+      <c r="AA49" s="235"/>
+      <c r="AB49" s="235"/>
+      <c r="AC49" s="235"/>
+      <c r="AD49" s="235"/>
+      <c r="AE49" s="235"/>
+      <c r="AF49" s="235"/>
+      <c r="AG49" s="235"/>
+      <c r="AH49" s="182"/>
+      <c r="AI49" s="182"/>
+      <c r="AJ49" s="182"/>
+      <c r="AK49" s="182"/>
+      <c r="AL49" s="182"/>
+      <c r="AM49" s="182"/>
+      <c r="AN49" s="182"/>
+      <c r="AO49" s="182"/>
+      <c r="AP49" s="242" t="s">
         <v>66</v>
       </c>
-      <c r="AQ49" s="189"/>
-      <c r="AR49" s="189"/>
-      <c r="AS49" s="189"/>
-      <c r="AT49" s="189"/>
-      <c r="AU49" s="189"/>
-      <c r="AV49" s="189"/>
-      <c r="AW49" s="189"/>
-      <c r="AX49" s="189"/>
-      <c r="AY49" s="189"/>
-      <c r="AZ49" s="138"/>
-      <c r="BA49" s="138"/>
-      <c r="BB49" s="138"/>
-      <c r="BC49" s="138"/>
-      <c r="BD49" s="138"/>
-      <c r="BE49" s="198" t="s">
+      <c r="AQ49" s="242"/>
+      <c r="AR49" s="242"/>
+      <c r="AS49" s="242"/>
+      <c r="AT49" s="242"/>
+      <c r="AU49" s="242"/>
+      <c r="AV49" s="242"/>
+      <c r="AW49" s="242"/>
+      <c r="AX49" s="242"/>
+      <c r="AY49" s="242"/>
+      <c r="AZ49" s="182"/>
+      <c r="BA49" s="182"/>
+      <c r="BB49" s="182"/>
+      <c r="BC49" s="182"/>
+      <c r="BD49" s="182"/>
+      <c r="BE49" s="250" t="s">
         <v>78</v>
       </c>
-      <c r="BF49" s="198"/>
-      <c r="BG49" s="198"/>
-      <c r="BH49" s="198"/>
-      <c r="BI49" s="198"/>
-      <c r="BJ49" s="198"/>
-      <c r="BK49" s="198"/>
-      <c r="BL49" s="198"/>
-      <c r="BM49" s="138" t="s">
+      <c r="BF49" s="250"/>
+      <c r="BG49" s="250"/>
+      <c r="BH49" s="250"/>
+      <c r="BI49" s="250"/>
+      <c r="BJ49" s="250"/>
+      <c r="BK49" s="250"/>
+      <c r="BL49" s="250"/>
+      <c r="BM49" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="BN49" s="138"/>
-      <c r="BO49" s="138"/>
-      <c r="BP49" s="138"/>
-      <c r="BQ49" s="138"/>
+      <c r="BN49" s="182"/>
+      <c r="BO49" s="182"/>
+      <c r="BP49" s="182"/>
+      <c r="BQ49" s="182"/>
     </row>
     <row r="50" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B50" s="188" t="s">
+      <c r="B50" s="241" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="188"/>
-      <c r="D50" s="188"/>
-      <c r="E50" s="188"/>
-      <c r="F50" s="188"/>
-      <c r="G50" s="188"/>
-      <c r="H50" s="188"/>
-      <c r="I50" s="188"/>
-      <c r="J50" s="188"/>
-      <c r="K50" s="188"/>
-      <c r="L50" s="188"/>
-      <c r="M50" s="138"/>
-      <c r="N50" s="138"/>
-      <c r="O50" s="138"/>
-      <c r="P50" s="138"/>
-      <c r="Q50" s="138"/>
-      <c r="R50" s="138"/>
-      <c r="S50" s="138"/>
-      <c r="T50" s="138"/>
-      <c r="U50" s="138"/>
-      <c r="V50" s="188" t="s">
+      <c r="C50" s="241"/>
+      <c r="D50" s="241"/>
+      <c r="E50" s="241"/>
+      <c r="F50" s="241"/>
+      <c r="G50" s="241"/>
+      <c r="H50" s="241"/>
+      <c r="I50" s="241"/>
+      <c r="J50" s="241"/>
+      <c r="K50" s="241"/>
+      <c r="L50" s="241"/>
+      <c r="M50" s="182"/>
+      <c r="N50" s="182"/>
+      <c r="O50" s="182"/>
+      <c r="P50" s="182"/>
+      <c r="Q50" s="182"/>
+      <c r="R50" s="182"/>
+      <c r="S50" s="182"/>
+      <c r="T50" s="182"/>
+      <c r="U50" s="182"/>
+      <c r="V50" s="241" t="s">
         <v>89</v>
       </c>
-      <c r="W50" s="188"/>
-      <c r="X50" s="188"/>
-      <c r="Y50" s="188"/>
-      <c r="Z50" s="188"/>
-      <c r="AA50" s="188"/>
-      <c r="AB50" s="188"/>
-      <c r="AC50" s="188"/>
-      <c r="AD50" s="188"/>
-      <c r="AE50" s="188"/>
-      <c r="AF50" s="188"/>
-      <c r="AG50" s="188"/>
-      <c r="AH50" s="138"/>
-      <c r="AI50" s="138"/>
-      <c r="AJ50" s="138"/>
-      <c r="AK50" s="138"/>
-      <c r="AL50" s="138"/>
-      <c r="AM50" s="138"/>
-      <c r="AN50" s="138"/>
-      <c r="AO50" s="138"/>
-      <c r="AP50" s="181" t="s">
+      <c r="W50" s="241"/>
+      <c r="X50" s="241"/>
+      <c r="Y50" s="241"/>
+      <c r="Z50" s="241"/>
+      <c r="AA50" s="241"/>
+      <c r="AB50" s="241"/>
+      <c r="AC50" s="241"/>
+      <c r="AD50" s="241"/>
+      <c r="AE50" s="241"/>
+      <c r="AF50" s="241"/>
+      <c r="AG50" s="241"/>
+      <c r="AH50" s="182"/>
+      <c r="AI50" s="182"/>
+      <c r="AJ50" s="182"/>
+      <c r="AK50" s="182"/>
+      <c r="AL50" s="182"/>
+      <c r="AM50" s="182"/>
+      <c r="AN50" s="182"/>
+      <c r="AO50" s="182"/>
+      <c r="AP50" s="234" t="s">
         <v>73</v>
       </c>
-      <c r="AQ50" s="181"/>
-      <c r="AR50" s="181"/>
-      <c r="AS50" s="181"/>
-      <c r="AT50" s="181"/>
-      <c r="AU50" s="181"/>
-      <c r="AV50" s="181"/>
-      <c r="AW50" s="181"/>
-      <c r="AX50" s="181"/>
-      <c r="AY50" s="181"/>
-      <c r="AZ50" s="138"/>
-      <c r="BA50" s="138"/>
-      <c r="BB50" s="138"/>
-      <c r="BC50" s="138"/>
-      <c r="BD50" s="138"/>
-      <c r="BE50" s="181" t="s">
+      <c r="AQ50" s="234"/>
+      <c r="AR50" s="234"/>
+      <c r="AS50" s="234"/>
+      <c r="AT50" s="234"/>
+      <c r="AU50" s="234"/>
+      <c r="AV50" s="234"/>
+      <c r="AW50" s="234"/>
+      <c r="AX50" s="234"/>
+      <c r="AY50" s="234"/>
+      <c r="AZ50" s="182"/>
+      <c r="BA50" s="182"/>
+      <c r="BB50" s="182"/>
+      <c r="BC50" s="182"/>
+      <c r="BD50" s="182"/>
+      <c r="BE50" s="234" t="s">
         <v>50</v>
       </c>
-      <c r="BF50" s="181"/>
-      <c r="BG50" s="181"/>
-      <c r="BH50" s="181"/>
-      <c r="BI50" s="181"/>
-      <c r="BJ50" s="181"/>
-      <c r="BK50" s="181"/>
-      <c r="BL50" s="181"/>
-      <c r="BM50" s="138" t="s">
+      <c r="BF50" s="234"/>
+      <c r="BG50" s="234"/>
+      <c r="BH50" s="234"/>
+      <c r="BI50" s="234"/>
+      <c r="BJ50" s="234"/>
+      <c r="BK50" s="234"/>
+      <c r="BL50" s="234"/>
+      <c r="BM50" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="BN50" s="138"/>
-      <c r="BO50" s="138"/>
-      <c r="BP50" s="138"/>
-      <c r="BQ50" s="138"/>
+      <c r="BN50" s="182"/>
+      <c r="BO50" s="182"/>
+      <c r="BP50" s="182"/>
+      <c r="BQ50" s="182"/>
     </row>
     <row r="51" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B51" s="181" t="s">
+      <c r="B51" s="234" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="181"/>
-      <c r="G51" s="181"/>
-      <c r="H51" s="181"/>
-      <c r="I51" s="181"/>
-      <c r="J51" s="181"/>
-      <c r="K51" s="181"/>
-      <c r="L51" s="181"/>
-      <c r="M51" s="138"/>
-      <c r="N51" s="138"/>
-      <c r="O51" s="138"/>
-      <c r="P51" s="138"/>
-      <c r="Q51" s="138"/>
-      <c r="R51" s="138"/>
-      <c r="S51" s="138"/>
-      <c r="T51" s="138"/>
-      <c r="U51" s="138"/>
-      <c r="V51" s="189" t="s">
+      <c r="C51" s="234"/>
+      <c r="D51" s="234"/>
+      <c r="E51" s="234"/>
+      <c r="F51" s="234"/>
+      <c r="G51" s="234"/>
+      <c r="H51" s="234"/>
+      <c r="I51" s="234"/>
+      <c r="J51" s="234"/>
+      <c r="K51" s="234"/>
+      <c r="L51" s="234"/>
+      <c r="M51" s="182"/>
+      <c r="N51" s="182"/>
+      <c r="O51" s="182"/>
+      <c r="P51" s="182"/>
+      <c r="Q51" s="182"/>
+      <c r="R51" s="182"/>
+      <c r="S51" s="182"/>
+      <c r="T51" s="182"/>
+      <c r="U51" s="182"/>
+      <c r="V51" s="242" t="s">
         <v>90</v>
       </c>
-      <c r="W51" s="189"/>
-      <c r="X51" s="189"/>
-      <c r="Y51" s="189"/>
-      <c r="Z51" s="189"/>
-      <c r="AA51" s="189"/>
-      <c r="AB51" s="189"/>
-      <c r="AC51" s="189"/>
-      <c r="AD51" s="189"/>
-      <c r="AE51" s="189"/>
-      <c r="AF51" s="189"/>
-      <c r="AG51" s="189"/>
-      <c r="AH51" s="138"/>
-      <c r="AI51" s="138"/>
-      <c r="AJ51" s="138"/>
-      <c r="AK51" s="138"/>
-      <c r="AL51" s="138"/>
-      <c r="AM51" s="138"/>
-      <c r="AN51" s="138"/>
-      <c r="AO51" s="138"/>
-      <c r="AP51" s="182" t="s">
+      <c r="W51" s="242"/>
+      <c r="X51" s="242"/>
+      <c r="Y51" s="242"/>
+      <c r="Z51" s="242"/>
+      <c r="AA51" s="242"/>
+      <c r="AB51" s="242"/>
+      <c r="AC51" s="242"/>
+      <c r="AD51" s="242"/>
+      <c r="AE51" s="242"/>
+      <c r="AF51" s="242"/>
+      <c r="AG51" s="242"/>
+      <c r="AH51" s="182"/>
+      <c r="AI51" s="182"/>
+      <c r="AJ51" s="182"/>
+      <c r="AK51" s="182"/>
+      <c r="AL51" s="182"/>
+      <c r="AM51" s="182"/>
+      <c r="AN51" s="182"/>
+      <c r="AO51" s="182"/>
+      <c r="AP51" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="AQ51" s="182"/>
-      <c r="AR51" s="182"/>
-      <c r="AS51" s="182"/>
-      <c r="AT51" s="182"/>
-      <c r="AU51" s="182"/>
-      <c r="AV51" s="182"/>
-      <c r="AW51" s="182"/>
-      <c r="AX51" s="182"/>
-      <c r="AY51" s="182"/>
-      <c r="AZ51" s="138" t="s">
+      <c r="AQ51" s="235"/>
+      <c r="AR51" s="235"/>
+      <c r="AS51" s="235"/>
+      <c r="AT51" s="235"/>
+      <c r="AU51" s="235"/>
+      <c r="AV51" s="235"/>
+      <c r="AW51" s="235"/>
+      <c r="AX51" s="235"/>
+      <c r="AY51" s="235"/>
+      <c r="AZ51" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="BA51" s="138"/>
-      <c r="BB51" s="138"/>
-      <c r="BC51" s="138"/>
-      <c r="BD51" s="138"/>
-      <c r="BE51" s="182" t="s">
+      <c r="BA51" s="182"/>
+      <c r="BB51" s="182"/>
+      <c r="BC51" s="182"/>
+      <c r="BD51" s="182"/>
+      <c r="BE51" s="235" t="s">
         <v>80</v>
       </c>
-      <c r="BF51" s="182"/>
-      <c r="BG51" s="182"/>
-      <c r="BH51" s="182"/>
-      <c r="BI51" s="182"/>
-      <c r="BJ51" s="182"/>
-      <c r="BK51" s="182"/>
-      <c r="BL51" s="182"/>
-      <c r="BM51" s="138" t="s">
+      <c r="BF51" s="235"/>
+      <c r="BG51" s="235"/>
+      <c r="BH51" s="235"/>
+      <c r="BI51" s="235"/>
+      <c r="BJ51" s="235"/>
+      <c r="BK51" s="235"/>
+      <c r="BL51" s="235"/>
+      <c r="BM51" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="BN51" s="138"/>
-      <c r="BO51" s="138"/>
-      <c r="BP51" s="138"/>
-      <c r="BQ51" s="138"/>
+      <c r="BN51" s="182"/>
+      <c r="BO51" s="182"/>
+      <c r="BP51" s="182"/>
+      <c r="BQ51" s="182"/>
     </row>
     <row r="52" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B52" s="184" t="s">
+      <c r="B52" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="184"/>
-      <c r="D52" s="184"/>
-      <c r="E52" s="184"/>
-      <c r="F52" s="184"/>
-      <c r="G52" s="184"/>
-      <c r="H52" s="184"/>
-      <c r="I52" s="184"/>
-      <c r="J52" s="184"/>
-      <c r="K52" s="184"/>
-      <c r="L52" s="184"/>
-      <c r="M52" s="147" t="s">
+      <c r="C52" s="237"/>
+      <c r="D52" s="237"/>
+      <c r="E52" s="237"/>
+      <c r="F52" s="237"/>
+      <c r="G52" s="237"/>
+      <c r="H52" s="237"/>
+      <c r="I52" s="237"/>
+      <c r="J52" s="237"/>
+      <c r="K52" s="237"/>
+      <c r="L52" s="237"/>
+      <c r="M52" s="192" t="s">
         <v>105</v>
       </c>
-      <c r="N52" s="147"/>
-      <c r="O52" s="147"/>
-      <c r="P52" s="147"/>
-      <c r="Q52" s="147"/>
-      <c r="R52" s="147"/>
-      <c r="S52" s="147"/>
-      <c r="T52" s="147"/>
-      <c r="U52" s="147"/>
-      <c r="V52" s="197" t="s">
+      <c r="N52" s="192"/>
+      <c r="O52" s="192"/>
+      <c r="P52" s="192"/>
+      <c r="Q52" s="192"/>
+      <c r="R52" s="192"/>
+      <c r="S52" s="192"/>
+      <c r="T52" s="192"/>
+      <c r="U52" s="192"/>
+      <c r="V52" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="W52" s="197"/>
-      <c r="X52" s="197"/>
-      <c r="Y52" s="197"/>
-      <c r="Z52" s="197"/>
-      <c r="AA52" s="197"/>
-      <c r="AB52" s="197"/>
-      <c r="AC52" s="197"/>
-      <c r="AD52" s="197"/>
-      <c r="AE52" s="197"/>
-      <c r="AF52" s="197"/>
-      <c r="AG52" s="197"/>
-      <c r="AH52" s="138"/>
-      <c r="AI52" s="138"/>
-      <c r="AJ52" s="138"/>
-      <c r="AK52" s="138"/>
-      <c r="AL52" s="138"/>
-      <c r="AM52" s="138"/>
-      <c r="AN52" s="138"/>
-      <c r="AO52" s="138"/>
-      <c r="AP52" s="181" t="s">
+      <c r="W52" s="249"/>
+      <c r="X52" s="249"/>
+      <c r="Y52" s="249"/>
+      <c r="Z52" s="249"/>
+      <c r="AA52" s="249"/>
+      <c r="AB52" s="249"/>
+      <c r="AC52" s="249"/>
+      <c r="AD52" s="249"/>
+      <c r="AE52" s="249"/>
+      <c r="AF52" s="249"/>
+      <c r="AG52" s="249"/>
+      <c r="AH52" s="182"/>
+      <c r="AI52" s="182"/>
+      <c r="AJ52" s="182"/>
+      <c r="AK52" s="182"/>
+      <c r="AL52" s="182"/>
+      <c r="AM52" s="182"/>
+      <c r="AN52" s="182"/>
+      <c r="AO52" s="182"/>
+      <c r="AP52" s="234" t="s">
         <v>56</v>
       </c>
-      <c r="AQ52" s="181"/>
-      <c r="AR52" s="181"/>
-      <c r="AS52" s="181"/>
-      <c r="AT52" s="181"/>
-      <c r="AU52" s="181"/>
-      <c r="AV52" s="181"/>
-      <c r="AW52" s="181"/>
-      <c r="AX52" s="181"/>
-      <c r="AY52" s="181"/>
-      <c r="AZ52" s="138"/>
-      <c r="BA52" s="138"/>
-      <c r="BB52" s="138"/>
-      <c r="BC52" s="138"/>
-      <c r="BD52" s="138"/>
+      <c r="AQ52" s="234"/>
+      <c r="AR52" s="234"/>
+      <c r="AS52" s="234"/>
+      <c r="AT52" s="234"/>
+      <c r="AU52" s="234"/>
+      <c r="AV52" s="234"/>
+      <c r="AW52" s="234"/>
+      <c r="AX52" s="234"/>
+      <c r="AY52" s="234"/>
+      <c r="AZ52" s="182"/>
+      <c r="BA52" s="182"/>
+      <c r="BB52" s="182"/>
+      <c r="BC52" s="182"/>
+      <c r="BD52" s="182"/>
       <c r="BE52" s="34"/>
       <c r="BF52" s="34"/>
       <c r="BG52" s="34"/>
@@ -9764,69 +9818,69 @@
       <c r="BN52" s="35"/>
     </row>
     <row r="53" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B53" s="185" t="s">
+      <c r="B53" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="185"/>
-      <c r="D53" s="185"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="185"/>
-      <c r="G53" s="185"/>
-      <c r="H53" s="185"/>
-      <c r="I53" s="185"/>
-      <c r="J53" s="185"/>
-      <c r="K53" s="185"/>
-      <c r="L53" s="185"/>
-      <c r="M53" s="147" t="s">
+      <c r="C53" s="238"/>
+      <c r="D53" s="238"/>
+      <c r="E53" s="238"/>
+      <c r="F53" s="238"/>
+      <c r="G53" s="238"/>
+      <c r="H53" s="238"/>
+      <c r="I53" s="238"/>
+      <c r="J53" s="238"/>
+      <c r="K53" s="238"/>
+      <c r="L53" s="238"/>
+      <c r="M53" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="N53" s="147"/>
-      <c r="O53" s="147"/>
-      <c r="P53" s="147"/>
-      <c r="Q53" s="147"/>
-      <c r="R53" s="147"/>
-      <c r="S53" s="147"/>
-      <c r="T53" s="147"/>
-      <c r="U53" s="147"/>
-      <c r="V53" s="193" t="s">
+      <c r="N53" s="192"/>
+      <c r="O53" s="192"/>
+      <c r="P53" s="192"/>
+      <c r="Q53" s="192"/>
+      <c r="R53" s="192"/>
+      <c r="S53" s="192"/>
+      <c r="T53" s="192"/>
+      <c r="U53" s="192"/>
+      <c r="V53" s="245" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="193"/>
-      <c r="X53" s="193"/>
-      <c r="Y53" s="193"/>
-      <c r="Z53" s="193"/>
-      <c r="AA53" s="193"/>
-      <c r="AB53" s="193"/>
-      <c r="AC53" s="193"/>
-      <c r="AD53" s="193"/>
-      <c r="AE53" s="193"/>
-      <c r="AF53" s="193"/>
-      <c r="AG53" s="193"/>
-      <c r="AH53" s="138"/>
-      <c r="AI53" s="138"/>
-      <c r="AJ53" s="138"/>
-      <c r="AK53" s="138"/>
-      <c r="AL53" s="138"/>
-      <c r="AM53" s="138"/>
-      <c r="AN53" s="138"/>
-      <c r="AO53" s="138"/>
-      <c r="AP53" s="184" t="s">
+      <c r="W53" s="245"/>
+      <c r="X53" s="245"/>
+      <c r="Y53" s="245"/>
+      <c r="Z53" s="245"/>
+      <c r="AA53" s="245"/>
+      <c r="AB53" s="245"/>
+      <c r="AC53" s="245"/>
+      <c r="AD53" s="245"/>
+      <c r="AE53" s="245"/>
+      <c r="AF53" s="245"/>
+      <c r="AG53" s="245"/>
+      <c r="AH53" s="182"/>
+      <c r="AI53" s="182"/>
+      <c r="AJ53" s="182"/>
+      <c r="AK53" s="182"/>
+      <c r="AL53" s="182"/>
+      <c r="AM53" s="182"/>
+      <c r="AN53" s="182"/>
+      <c r="AO53" s="182"/>
+      <c r="AP53" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="AQ53" s="184"/>
-      <c r="AR53" s="184"/>
-      <c r="AS53" s="184"/>
-      <c r="AT53" s="184"/>
-      <c r="AU53" s="184"/>
-      <c r="AV53" s="184"/>
-      <c r="AW53" s="184"/>
-      <c r="AX53" s="184"/>
-      <c r="AY53" s="184"/>
-      <c r="AZ53" s="138"/>
-      <c r="BA53" s="138"/>
-      <c r="BB53" s="138"/>
-      <c r="BC53" s="138"/>
-      <c r="BD53" s="138"/>
+      <c r="AQ53" s="237"/>
+      <c r="AR53" s="237"/>
+      <c r="AS53" s="237"/>
+      <c r="AT53" s="237"/>
+      <c r="AU53" s="237"/>
+      <c r="AV53" s="237"/>
+      <c r="AW53" s="237"/>
+      <c r="AX53" s="237"/>
+      <c r="AY53" s="237"/>
+      <c r="AZ53" s="182"/>
+      <c r="BA53" s="182"/>
+      <c r="BB53" s="182"/>
+      <c r="BC53" s="182"/>
+      <c r="BD53" s="182"/>
       <c r="BE53" s="34"/>
       <c r="BF53" s="34"/>
       <c r="BG53" s="34"/>
@@ -9839,71 +9893,71 @@
       <c r="BN53" s="34"/>
     </row>
     <row r="54" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B54" s="194" t="s">
+      <c r="B54" s="246" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="194"/>
-      <c r="D54" s="194"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="194"/>
-      <c r="H54" s="194"/>
-      <c r="I54" s="194"/>
-      <c r="J54" s="194"/>
-      <c r="K54" s="194"/>
-      <c r="L54" s="194"/>
-      <c r="M54" s="147" t="s">
+      <c r="C54" s="246"/>
+      <c r="D54" s="246"/>
+      <c r="E54" s="246"/>
+      <c r="F54" s="246"/>
+      <c r="G54" s="246"/>
+      <c r="H54" s="246"/>
+      <c r="I54" s="246"/>
+      <c r="J54" s="246"/>
+      <c r="K54" s="246"/>
+      <c r="L54" s="246"/>
+      <c r="M54" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="N54" s="147"/>
-      <c r="O54" s="147"/>
-      <c r="P54" s="147"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="147"/>
-      <c r="S54" s="147"/>
-      <c r="T54" s="147"/>
-      <c r="U54" s="147"/>
-      <c r="V54" s="195" t="s">
+      <c r="N54" s="192"/>
+      <c r="O54" s="192"/>
+      <c r="P54" s="192"/>
+      <c r="Q54" s="192"/>
+      <c r="R54" s="192"/>
+      <c r="S54" s="192"/>
+      <c r="T54" s="192"/>
+      <c r="U54" s="192"/>
+      <c r="V54" s="247" t="s">
         <v>106</v>
       </c>
-      <c r="W54" s="195"/>
-      <c r="X54" s="195"/>
-      <c r="Y54" s="195"/>
-      <c r="Z54" s="195"/>
-      <c r="AA54" s="195"/>
-      <c r="AB54" s="195"/>
-      <c r="AC54" s="195"/>
-      <c r="AD54" s="195"/>
-      <c r="AE54" s="195"/>
-      <c r="AF54" s="195"/>
-      <c r="AG54" s="195"/>
-      <c r="AH54" s="138"/>
-      <c r="AI54" s="138"/>
-      <c r="AJ54" s="138"/>
-      <c r="AK54" s="138"/>
-      <c r="AL54" s="138"/>
-      <c r="AM54" s="138"/>
-      <c r="AN54" s="138"/>
-      <c r="AO54" s="138"/>
-      <c r="AP54" s="196" t="s">
+      <c r="W54" s="247"/>
+      <c r="X54" s="247"/>
+      <c r="Y54" s="247"/>
+      <c r="Z54" s="247"/>
+      <c r="AA54" s="247"/>
+      <c r="AB54" s="247"/>
+      <c r="AC54" s="247"/>
+      <c r="AD54" s="247"/>
+      <c r="AE54" s="247"/>
+      <c r="AF54" s="247"/>
+      <c r="AG54" s="247"/>
+      <c r="AH54" s="182"/>
+      <c r="AI54" s="182"/>
+      <c r="AJ54" s="182"/>
+      <c r="AK54" s="182"/>
+      <c r="AL54" s="182"/>
+      <c r="AM54" s="182"/>
+      <c r="AN54" s="182"/>
+      <c r="AO54" s="182"/>
+      <c r="AP54" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="AQ54" s="196"/>
-      <c r="AR54" s="196"/>
-      <c r="AS54" s="196"/>
-      <c r="AT54" s="196"/>
-      <c r="AU54" s="196"/>
-      <c r="AV54" s="196"/>
-      <c r="AW54" s="196"/>
-      <c r="AX54" s="196"/>
-      <c r="AY54" s="196"/>
-      <c r="AZ54" s="139" t="s">
+      <c r="AQ54" s="248"/>
+      <c r="AR54" s="248"/>
+      <c r="AS54" s="248"/>
+      <c r="AT54" s="248"/>
+      <c r="AU54" s="248"/>
+      <c r="AV54" s="248"/>
+      <c r="AW54" s="248"/>
+      <c r="AX54" s="248"/>
+      <c r="AY54" s="248"/>
+      <c r="AZ54" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="BA54" s="139"/>
-      <c r="BB54" s="139"/>
-      <c r="BC54" s="139"/>
-      <c r="BD54" s="139"/>
+      <c r="BA54" s="183"/>
+      <c r="BB54" s="183"/>
+      <c r="BC54" s="183"/>
+      <c r="BD54" s="183"/>
       <c r="BE54" s="34"/>
       <c r="BF54" s="34"/>
       <c r="BG54" s="34"/>
@@ -9916,111 +9970,111 @@
       <c r="BN54" s="34"/>
     </row>
     <row r="55" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B55" s="196" t="s">
+      <c r="B55" s="248" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="196"/>
-      <c r="D55" s="196"/>
-      <c r="E55" s="196"/>
-      <c r="F55" s="196"/>
-      <c r="G55" s="196"/>
-      <c r="H55" s="196"/>
-      <c r="I55" s="196"/>
-      <c r="J55" s="196"/>
-      <c r="K55" s="196"/>
-      <c r="L55" s="196"/>
-      <c r="M55" s="147" t="s">
+      <c r="C55" s="248"/>
+      <c r="D55" s="248"/>
+      <c r="E55" s="248"/>
+      <c r="F55" s="248"/>
+      <c r="G55" s="248"/>
+      <c r="H55" s="248"/>
+      <c r="I55" s="248"/>
+      <c r="J55" s="248"/>
+      <c r="K55" s="248"/>
+      <c r="L55" s="248"/>
+      <c r="M55" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="N55" s="147"/>
-      <c r="O55" s="147"/>
-      <c r="P55" s="147"/>
-      <c r="Q55" s="147"/>
-      <c r="R55" s="147"/>
-      <c r="S55" s="147"/>
-      <c r="T55" s="147"/>
-      <c r="U55" s="147"/>
-      <c r="V55" s="196" t="s">
+      <c r="N55" s="192"/>
+      <c r="O55" s="192"/>
+      <c r="P55" s="192"/>
+      <c r="Q55" s="192"/>
+      <c r="R55" s="192"/>
+      <c r="S55" s="192"/>
+      <c r="T55" s="192"/>
+      <c r="U55" s="192"/>
+      <c r="V55" s="248" t="s">
         <v>93</v>
       </c>
-      <c r="W55" s="196"/>
-      <c r="X55" s="196"/>
-      <c r="Y55" s="196"/>
-      <c r="Z55" s="196"/>
-      <c r="AA55" s="196"/>
-      <c r="AB55" s="196"/>
-      <c r="AC55" s="196"/>
-      <c r="AD55" s="196"/>
-      <c r="AE55" s="196"/>
-      <c r="AF55" s="196"/>
-      <c r="AG55" s="196"/>
-      <c r="AH55" s="138"/>
-      <c r="AI55" s="138"/>
-      <c r="AJ55" s="138"/>
-      <c r="AK55" s="138"/>
-      <c r="AL55" s="138"/>
-      <c r="AM55" s="138"/>
-      <c r="AN55" s="138"/>
-      <c r="AO55" s="138"/>
-      <c r="AP55" s="187" t="s">
+      <c r="W55" s="248"/>
+      <c r="X55" s="248"/>
+      <c r="Y55" s="248"/>
+      <c r="Z55" s="248"/>
+      <c r="AA55" s="248"/>
+      <c r="AB55" s="248"/>
+      <c r="AC55" s="248"/>
+      <c r="AD55" s="248"/>
+      <c r="AE55" s="248"/>
+      <c r="AF55" s="248"/>
+      <c r="AG55" s="248"/>
+      <c r="AH55" s="182"/>
+      <c r="AI55" s="182"/>
+      <c r="AJ55" s="182"/>
+      <c r="AK55" s="182"/>
+      <c r="AL55" s="182"/>
+      <c r="AM55" s="182"/>
+      <c r="AN55" s="182"/>
+      <c r="AO55" s="182"/>
+      <c r="AP55" s="240" t="s">
         <v>64</v>
       </c>
-      <c r="AQ55" s="187"/>
-      <c r="AR55" s="187"/>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="139"/>
-      <c r="BA55" s="139"/>
-      <c r="BB55" s="139"/>
-      <c r="BC55" s="139"/>
-      <c r="BD55" s="139"/>
+      <c r="AQ55" s="240"/>
+      <c r="AR55" s="240"/>
+      <c r="AS55" s="240"/>
+      <c r="AT55" s="240"/>
+      <c r="AU55" s="240"/>
+      <c r="AV55" s="240"/>
+      <c r="AW55" s="240"/>
+      <c r="AX55" s="240"/>
+      <c r="AY55" s="240"/>
+      <c r="AZ55" s="183"/>
+      <c r="BA55" s="183"/>
+      <c r="BB55" s="183"/>
+      <c r="BC55" s="183"/>
+      <c r="BD55" s="183"/>
       <c r="BN55" s="34"/>
     </row>
     <row r="56" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B56" s="200"/>
-      <c r="C56" s="200"/>
-      <c r="D56" s="200"/>
-      <c r="E56" s="200"/>
-      <c r="F56" s="200"/>
-      <c r="G56" s="200"/>
-      <c r="H56" s="200"/>
-      <c r="I56" s="200"/>
-      <c r="J56" s="200"/>
-      <c r="K56" s="200"/>
-      <c r="L56" s="200"/>
-      <c r="M56" s="147" t="s">
+      <c r="B56" s="260"/>
+      <c r="C56" s="260"/>
+      <c r="D56" s="260"/>
+      <c r="E56" s="260"/>
+      <c r="F56" s="260"/>
+      <c r="G56" s="260"/>
+      <c r="H56" s="260"/>
+      <c r="I56" s="260"/>
+      <c r="J56" s="260"/>
+      <c r="K56" s="260"/>
+      <c r="L56" s="260"/>
+      <c r="M56" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="N56" s="147"/>
-      <c r="O56" s="147"/>
-      <c r="P56" s="147"/>
-      <c r="Q56" s="147"/>
-      <c r="R56" s="147"/>
-      <c r="S56" s="147"/>
-      <c r="T56" s="147"/>
-      <c r="U56" s="147"/>
-      <c r="AP56" s="189" t="s">
+      <c r="N56" s="192"/>
+      <c r="O56" s="192"/>
+      <c r="P56" s="192"/>
+      <c r="Q56" s="192"/>
+      <c r="R56" s="192"/>
+      <c r="S56" s="192"/>
+      <c r="T56" s="192"/>
+      <c r="U56" s="192"/>
+      <c r="AP56" s="242" t="s">
         <v>66</v>
       </c>
-      <c r="AQ56" s="189"/>
-      <c r="AR56" s="189"/>
-      <c r="AS56" s="189"/>
-      <c r="AT56" s="189"/>
-      <c r="AU56" s="189"/>
-      <c r="AV56" s="189"/>
-      <c r="AW56" s="189"/>
-      <c r="AX56" s="189"/>
-      <c r="AY56" s="189"/>
-      <c r="AZ56" s="139"/>
-      <c r="BA56" s="139"/>
-      <c r="BB56" s="139"/>
-      <c r="BC56" s="139"/>
-      <c r="BD56" s="139"/>
+      <c r="AQ56" s="242"/>
+      <c r="AR56" s="242"/>
+      <c r="AS56" s="242"/>
+      <c r="AT56" s="242"/>
+      <c r="AU56" s="242"/>
+      <c r="AV56" s="242"/>
+      <c r="AW56" s="242"/>
+      <c r="AX56" s="242"/>
+      <c r="AY56" s="242"/>
+      <c r="AZ56" s="183"/>
+      <c r="BA56" s="183"/>
+      <c r="BB56" s="183"/>
+      <c r="BC56" s="183"/>
+      <c r="BD56" s="183"/>
       <c r="BN56" s="34"/>
     </row>
   </sheetData>
@@ -10036,6 +10090,27 @@
     <mergeCell ref="C7:C32"/>
     <mergeCell ref="R7:R32"/>
     <mergeCell ref="AD7:AD32"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="S32:Z32"/>
+    <mergeCell ref="AE15:AR15"/>
+    <mergeCell ref="AE26:AR26"/>
+    <mergeCell ref="AE32:AS32"/>
+    <mergeCell ref="D36:Z36"/>
+    <mergeCell ref="AE36:AS36"/>
+    <mergeCell ref="E41:K41"/>
+    <mergeCell ref="M44:U51"/>
+    <mergeCell ref="AE8:AR8"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AE12:AR12"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AQ17:AR17"/>
+    <mergeCell ref="AE20:AR20"/>
+    <mergeCell ref="AQ21:AR21"/>
+    <mergeCell ref="AE23:AR23"/>
+    <mergeCell ref="AQ25:AR25"/>
+    <mergeCell ref="AE27:AR27"/>
+    <mergeCell ref="AQ28:AR28"/>
+    <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="BM45:BQ46"/>
     <mergeCell ref="AH46:AO55"/>
     <mergeCell ref="BM47:BQ48"/>
@@ -10045,29 +10120,8 @@
     <mergeCell ref="BM51:BQ51"/>
     <mergeCell ref="AZ54:BD56"/>
     <mergeCell ref="V55:AG55"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="S32:Z32"/>
-    <mergeCell ref="AE15:AR15"/>
-    <mergeCell ref="AE26:AR26"/>
-    <mergeCell ref="AE32:AS32"/>
-    <mergeCell ref="D36:Z36"/>
-    <mergeCell ref="AE36:AS36"/>
-    <mergeCell ref="E41:K41"/>
-    <mergeCell ref="M44:U51"/>
     <mergeCell ref="AH45:AO45"/>
-    <mergeCell ref="AE8:AR8"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AE12:AR12"/>
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AE16:AR16"/>
-    <mergeCell ref="AQ17:AR17"/>
-    <mergeCell ref="AE20:AR20"/>
-    <mergeCell ref="AQ21:AR21"/>
-    <mergeCell ref="AE23:AR23"/>
-    <mergeCell ref="AQ25:AR25"/>
-    <mergeCell ref="AE27:AR27"/>
-    <mergeCell ref="AQ28:AR28"/>
-    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BM50:BQ50"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="B53:L53"/>
     <mergeCell ref="M53:U53"/>
@@ -10092,7 +10146,6 @@
     <mergeCell ref="AP47:AY47"/>
     <mergeCell ref="B50:L50"/>
     <mergeCell ref="BE50:BL50"/>
-    <mergeCell ref="BM50:BQ50"/>
     <mergeCell ref="B51:L51"/>
     <mergeCell ref="BE47:BL47"/>
     <mergeCell ref="B48:L48"/>
@@ -10137,7 +10190,20 @@
     <mergeCell ref="Z7:Z31"/>
     <mergeCell ref="AS7:AS31"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="AE16:AR16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C18059-ED65-43D8-B0B9-F3E4205E6D66}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UserSet/Colors.xlsx
+++ b/UserSet/Colors.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Manager\HotCoffee\UserSet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AA76AC-2FDE-4BA9-A474-7507B63035E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="GA_L" sheetId="1" r:id="rId1"/>
     <sheet name="GA_D" sheetId="2" r:id="rId2"/>
     <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -367,7 +361,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="88" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1770,264 +1764,264 @@
     <xf numFmtId="0" fontId="86" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="46" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="45" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="52" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="48" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="48" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="46" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="45" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="52" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="87" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="48" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="46" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="45" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="52" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="46" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="45" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="52" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="48" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2036,16 +2030,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFADAB"/>
+      <color rgb="FFCE9D8A"/>
+      <color rgb="FF8A9DCE"/>
+      <color rgb="FF8198BB"/>
+      <color rgb="FFBB9881"/>
+      <color rgb="FFBB8181"/>
+      <color rgb="FF9C6B6B"/>
       <color rgb="FF405261"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FF506779"/>
-      <color rgb="FFD0E0EA"/>
-      <color rgb="FF9F9F9F"/>
-      <color rgb="FFC9C9C9"/>
-      <color rgb="FF8EA4B0"/>
-      <color rgb="FFF4F6F8"/>
-      <color rgb="FFB9C8D0"/>
-      <color rgb="FF25323E"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2102,7 +2096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2135,26 +2129,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2187,23 +2164,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2379,8 +2339,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BQ66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2592,22 +2552,22 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="73"/>
       <c r="AV4" s="72"/>
-      <c r="AW4" s="219"/>
-      <c r="AX4" s="219"/>
-      <c r="AY4" s="219"/>
-      <c r="AZ4" s="219"/>
-      <c r="BA4" s="219"/>
-      <c r="BB4" s="219"/>
-      <c r="BC4" s="219"/>
+      <c r="AW4" s="185"/>
+      <c r="AX4" s="185"/>
+      <c r="AY4" s="185"/>
+      <c r="AZ4" s="185"/>
+      <c r="BA4" s="185"/>
+      <c r="BB4" s="185"/>
+      <c r="BC4" s="185"/>
       <c r="BD4" s="73"/>
       <c r="BF4" s="72"/>
-      <c r="BG4" s="219"/>
-      <c r="BH4" s="219"/>
-      <c r="BI4" s="219"/>
-      <c r="BJ4" s="219"/>
-      <c r="BK4" s="219"/>
-      <c r="BL4" s="219"/>
-      <c r="BM4" s="219"/>
+      <c r="BG4" s="185"/>
+      <c r="BH4" s="185"/>
+      <c r="BI4" s="185"/>
+      <c r="BJ4" s="185"/>
+      <c r="BK4" s="185"/>
+      <c r="BL4" s="185"/>
+      <c r="BM4" s="185"/>
       <c r="BN4" s="73"/>
     </row>
     <row r="5" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2680,48 +2640,48 @@
     </row>
     <row r="6" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="72"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="186"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="191"/>
-      <c r="W6" s="191"/>
-      <c r="X6" s="191"/>
-      <c r="Y6" s="191"/>
-      <c r="Z6" s="191"/>
+      <c r="R6" s="186"/>
+      <c r="S6" s="186"/>
+      <c r="T6" s="186"/>
+      <c r="U6" s="186"/>
+      <c r="V6" s="186"/>
+      <c r="W6" s="186"/>
+      <c r="X6" s="186"/>
+      <c r="Y6" s="186"/>
+      <c r="Z6" s="186"/>
       <c r="AA6" s="73"/>
       <c r="AC6" s="72"/>
-      <c r="AD6" s="191"/>
-      <c r="AE6" s="191"/>
-      <c r="AF6" s="191"/>
-      <c r="AG6" s="191"/>
-      <c r="AH6" s="191"/>
-      <c r="AI6" s="191"/>
-      <c r="AJ6" s="191"/>
-      <c r="AK6" s="191"/>
-      <c r="AL6" s="191"/>
-      <c r="AM6" s="191"/>
-      <c r="AN6" s="191"/>
-      <c r="AO6" s="191"/>
-      <c r="AP6" s="191"/>
-      <c r="AQ6" s="191"/>
-      <c r="AR6" s="191"/>
-      <c r="AS6" s="191"/>
+      <c r="AD6" s="186"/>
+      <c r="AE6" s="186"/>
+      <c r="AF6" s="186"/>
+      <c r="AG6" s="186"/>
+      <c r="AH6" s="186"/>
+      <c r="AI6" s="186"/>
+      <c r="AJ6" s="186"/>
+      <c r="AK6" s="186"/>
+      <c r="AL6" s="186"/>
+      <c r="AM6" s="186"/>
+      <c r="AN6" s="186"/>
+      <c r="AO6" s="186"/>
+      <c r="AP6" s="186"/>
+      <c r="AQ6" s="186"/>
+      <c r="AR6" s="186"/>
+      <c r="AS6" s="186"/>
       <c r="AT6" s="73"/>
       <c r="AV6" s="72"/>
       <c r="AW6" s="1"/>
@@ -2744,48 +2704,48 @@
     </row>
     <row r="7" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="72"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="193"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="184"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="191"/>
-      <c r="S7" s="218"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218"/>
-      <c r="V7" s="218"/>
-      <c r="W7" s="218"/>
-      <c r="X7" s="218"/>
-      <c r="Y7" s="218"/>
-      <c r="Z7" s="193"/>
+      <c r="R7" s="186"/>
+      <c r="S7" s="183"/>
+      <c r="T7" s="183"/>
+      <c r="U7" s="183"/>
+      <c r="V7" s="183"/>
+      <c r="W7" s="183"/>
+      <c r="X7" s="183"/>
+      <c r="Y7" s="183"/>
+      <c r="Z7" s="184"/>
       <c r="AA7" s="73"/>
       <c r="AC7" s="72"/>
-      <c r="AD7" s="191"/>
-      <c r="AE7" s="193"/>
-      <c r="AF7" s="193"/>
-      <c r="AG7" s="193"/>
-      <c r="AH7" s="193"/>
-      <c r="AI7" s="193"/>
-      <c r="AJ7" s="193"/>
-      <c r="AK7" s="193"/>
-      <c r="AL7" s="193"/>
-      <c r="AM7" s="193"/>
-      <c r="AN7" s="193"/>
-      <c r="AO7" s="193"/>
-      <c r="AP7" s="193"/>
-      <c r="AQ7" s="193"/>
-      <c r="AR7" s="193"/>
-      <c r="AS7" s="193"/>
+      <c r="AD7" s="186"/>
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184"/>
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="184"/>
+      <c r="AO7" s="184"/>
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="184"/>
+      <c r="AR7" s="184"/>
+      <c r="AS7" s="184"/>
       <c r="AT7" s="73"/>
       <c r="AV7" s="72"/>
       <c r="AW7" s="1"/>
@@ -2808,11 +2768,11 @@
     </row>
     <row r="8" spans="2:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="72"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="199">
+      <c r="C8" s="186"/>
+      <c r="D8" s="202">
         <v>0.37152777777777773</v>
       </c>
-      <c r="E8" s="199"/>
+      <c r="E8" s="202"/>
       <c r="F8" s="42" t="s">
         <v>22</v>
       </c>
@@ -2825,9 +2785,9 @@
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="O8" s="43"/>
-      <c r="P8" s="193"/>
+      <c r="P8" s="184"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="191"/>
+      <c r="R8" s="186"/>
       <c r="S8" s="47" t="s">
         <v>32</v>
       </c>
@@ -2837,27 +2797,27 @@
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
       <c r="Y8" s="43"/>
-      <c r="Z8" s="193"/>
+      <c r="Z8" s="184"/>
       <c r="AA8" s="73"/>
       <c r="AC8" s="72"/>
-      <c r="AD8" s="191"/>
-      <c r="AE8" s="221" t="s">
+      <c r="AD8" s="186"/>
+      <c r="AE8" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="AF8" s="221"/>
-      <c r="AG8" s="221"/>
-      <c r="AH8" s="221"/>
-      <c r="AI8" s="221"/>
-      <c r="AJ8" s="221"/>
-      <c r="AK8" s="221"/>
-      <c r="AL8" s="221"/>
-      <c r="AM8" s="221"/>
-      <c r="AN8" s="221"/>
-      <c r="AO8" s="221"/>
-      <c r="AP8" s="221"/>
-      <c r="AQ8" s="221"/>
-      <c r="AR8" s="221"/>
-      <c r="AS8" s="193"/>
+      <c r="AF8" s="188"/>
+      <c r="AG8" s="188"/>
+      <c r="AH8" s="188"/>
+      <c r="AI8" s="188"/>
+      <c r="AJ8" s="188"/>
+      <c r="AK8" s="188"/>
+      <c r="AL8" s="188"/>
+      <c r="AM8" s="188"/>
+      <c r="AN8" s="188"/>
+      <c r="AO8" s="188"/>
+      <c r="AP8" s="188"/>
+      <c r="AQ8" s="188"/>
+      <c r="AR8" s="188"/>
+      <c r="AS8" s="184"/>
       <c r="AT8" s="73"/>
       <c r="AV8" s="72"/>
       <c r="AW8" s="4" t="s">
@@ -2884,7 +2844,7 @@
     </row>
     <row r="9" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="72"/>
-      <c r="C9" s="191"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="44" t="s">
         <v>44</v>
       </c>
@@ -2899,9 +2859,9 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="193"/>
+      <c r="P9" s="184"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="191"/>
+      <c r="R9" s="186"/>
       <c r="S9" s="48" t="s">
         <v>33</v>
       </c>
@@ -2911,10 +2871,10 @@
       <c r="W9" s="48"/>
       <c r="X9" s="48"/>
       <c r="Y9" s="60"/>
-      <c r="Z9" s="193"/>
+      <c r="Z9" s="184"/>
       <c r="AA9" s="73"/>
       <c r="AC9" s="72"/>
-      <c r="AD9" s="191"/>
+      <c r="AD9" s="186"/>
       <c r="AE9" s="52" t="s">
         <v>23</v>
       </c>
@@ -2929,11 +2889,11 @@
       <c r="AN9" s="52"/>
       <c r="AO9" s="52"/>
       <c r="AP9" s="52"/>
-      <c r="AQ9" s="202">
+      <c r="AQ9" s="204">
         <v>0.37847222222222227</v>
       </c>
-      <c r="AR9" s="202"/>
-      <c r="AS9" s="193"/>
+      <c r="AR9" s="204"/>
+      <c r="AS9" s="184"/>
       <c r="AT9" s="73"/>
       <c r="AV9" s="72"/>
       <c r="AW9" s="1" t="s">
@@ -2960,7 +2920,7 @@
     </row>
     <row r="10" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="72"/>
-      <c r="C10" s="191"/>
+      <c r="C10" s="186"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -2973,9 +2933,9 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="193"/>
+      <c r="P10" s="184"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="191"/>
+      <c r="R10" s="186"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -2983,25 +2943,25 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="60"/>
-      <c r="Z10" s="193"/>
+      <c r="Z10" s="184"/>
       <c r="AA10" s="73"/>
       <c r="AC10" s="72"/>
-      <c r="AD10" s="191"/>
-      <c r="AE10" s="207"/>
-      <c r="AF10" s="207"/>
-      <c r="AG10" s="207"/>
-      <c r="AH10" s="207"/>
-      <c r="AI10" s="207"/>
-      <c r="AJ10" s="207"/>
-      <c r="AK10" s="207"/>
-      <c r="AL10" s="207"/>
-      <c r="AM10" s="207"/>
-      <c r="AN10" s="207"/>
-      <c r="AO10" s="207"/>
-      <c r="AP10" s="207"/>
-      <c r="AQ10" s="207"/>
-      <c r="AR10" s="207"/>
-      <c r="AS10" s="193"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="209"/>
+      <c r="AF10" s="209"/>
+      <c r="AG10" s="209"/>
+      <c r="AH10" s="209"/>
+      <c r="AI10" s="209"/>
+      <c r="AJ10" s="209"/>
+      <c r="AK10" s="209"/>
+      <c r="AL10" s="209"/>
+      <c r="AM10" s="209"/>
+      <c r="AN10" s="209"/>
+      <c r="AO10" s="209"/>
+      <c r="AP10" s="209"/>
+      <c r="AQ10" s="209"/>
+      <c r="AR10" s="209"/>
+      <c r="AS10" s="184"/>
       <c r="AT10" s="73"/>
       <c r="AV10" s="72"/>
       <c r="AW10" s="1"/>
@@ -3024,7 +2984,7 @@
     </row>
     <row r="11" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="72"/>
-      <c r="C11" s="191"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -3037,9 +2997,9 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="193"/>
+      <c r="P11" s="184"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="191"/>
+      <c r="R11" s="186"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -3047,25 +3007,25 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="60"/>
-      <c r="Z11" s="193"/>
+      <c r="Z11" s="184"/>
       <c r="AA11" s="73"/>
       <c r="AC11" s="72"/>
-      <c r="AD11" s="191"/>
-      <c r="AE11" s="208"/>
-      <c r="AF11" s="208"/>
-      <c r="AG11" s="208"/>
-      <c r="AH11" s="208"/>
-      <c r="AI11" s="208"/>
-      <c r="AJ11" s="208"/>
-      <c r="AK11" s="208"/>
-      <c r="AL11" s="208"/>
-      <c r="AM11" s="208"/>
-      <c r="AN11" s="208"/>
-      <c r="AO11" s="208"/>
-      <c r="AP11" s="208"/>
-      <c r="AQ11" s="208"/>
-      <c r="AR11" s="208"/>
-      <c r="AS11" s="193"/>
+      <c r="AD11" s="186"/>
+      <c r="AE11" s="210"/>
+      <c r="AF11" s="210"/>
+      <c r="AG11" s="210"/>
+      <c r="AH11" s="210"/>
+      <c r="AI11" s="210"/>
+      <c r="AJ11" s="210"/>
+      <c r="AK11" s="210"/>
+      <c r="AL11" s="210"/>
+      <c r="AM11" s="210"/>
+      <c r="AN11" s="210"/>
+      <c r="AO11" s="210"/>
+      <c r="AP11" s="210"/>
+      <c r="AQ11" s="210"/>
+      <c r="AR11" s="210"/>
+      <c r="AS11" s="184"/>
       <c r="AT11" s="73"/>
       <c r="AV11" s="72"/>
       <c r="AW11" s="1"/>
@@ -3088,7 +3048,7 @@
     </row>
     <row r="12" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="72"/>
-      <c r="C12" s="191"/>
+      <c r="C12" s="186"/>
       <c r="D12" s="45" t="s">
         <v>42</v>
       </c>
@@ -3103,9 +3063,9 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="193"/>
+      <c r="P12" s="184"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="191"/>
+      <c r="R12" s="186"/>
       <c r="S12" s="46" t="s">
         <v>38</v>
       </c>
@@ -3115,27 +3075,27 @@
       <c r="W12" s="46"/>
       <c r="X12" s="46"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="193"/>
+      <c r="Z12" s="184"/>
       <c r="AA12" s="73"/>
       <c r="AC12" s="72"/>
-      <c r="AD12" s="191"/>
-      <c r="AE12" s="222" t="s">
+      <c r="AD12" s="186"/>
+      <c r="AE12" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="AF12" s="222"/>
-      <c r="AG12" s="222"/>
-      <c r="AH12" s="222"/>
-      <c r="AI12" s="222"/>
-      <c r="AJ12" s="222"/>
-      <c r="AK12" s="222"/>
-      <c r="AL12" s="222"/>
-      <c r="AM12" s="222"/>
-      <c r="AN12" s="222"/>
-      <c r="AO12" s="222"/>
-      <c r="AP12" s="222"/>
-      <c r="AQ12" s="222"/>
-      <c r="AR12" s="222"/>
-      <c r="AS12" s="193"/>
+      <c r="AF12" s="189"/>
+      <c r="AG12" s="189"/>
+      <c r="AH12" s="189"/>
+      <c r="AI12" s="189"/>
+      <c r="AJ12" s="189"/>
+      <c r="AK12" s="189"/>
+      <c r="AL12" s="189"/>
+      <c r="AM12" s="189"/>
+      <c r="AN12" s="189"/>
+      <c r="AO12" s="189"/>
+      <c r="AP12" s="189"/>
+      <c r="AQ12" s="189"/>
+      <c r="AR12" s="189"/>
+      <c r="AS12" s="184"/>
       <c r="AT12" s="73"/>
       <c r="AV12" s="72"/>
       <c r="AW12" s="1" t="s">
@@ -3162,7 +3122,7 @@
     </row>
     <row r="13" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="72"/>
-      <c r="C13" s="191"/>
+      <c r="C13" s="186"/>
       <c r="D13" s="44" t="s">
         <v>41</v>
       </c>
@@ -3177,9 +3137,9 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="193"/>
+      <c r="P13" s="184"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="191"/>
+      <c r="R13" s="186"/>
       <c r="S13" s="64" t="s">
         <v>34</v>
       </c>
@@ -3189,10 +3149,10 @@
       <c r="W13" s="64"/>
       <c r="X13" s="64"/>
       <c r="Y13" s="60"/>
-      <c r="Z13" s="193"/>
+      <c r="Z13" s="184"/>
       <c r="AA13" s="73"/>
       <c r="AC13" s="72"/>
-      <c r="AD13" s="191"/>
+      <c r="AD13" s="186"/>
       <c r="AE13" s="53" t="s">
         <v>24</v>
       </c>
@@ -3207,11 +3167,11 @@
       <c r="AN13" s="53"/>
       <c r="AO13" s="53"/>
       <c r="AP13" s="53"/>
-      <c r="AQ13" s="203">
+      <c r="AQ13" s="205">
         <v>0.37916666666666665</v>
       </c>
-      <c r="AR13" s="203"/>
-      <c r="AS13" s="193"/>
+      <c r="AR13" s="205"/>
+      <c r="AS13" s="184"/>
       <c r="AT13" s="73"/>
       <c r="AV13" s="72"/>
       <c r="AW13" s="1" t="s">
@@ -3238,7 +3198,7 @@
     </row>
     <row r="14" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="72"/>
-      <c r="C14" s="191"/>
+      <c r="C14" s="186"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -3251,9 +3211,9 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="193"/>
+      <c r="P14" s="184"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="191"/>
+      <c r="R14" s="186"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -3261,25 +3221,25 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="60"/>
-      <c r="Z14" s="193"/>
+      <c r="Z14" s="184"/>
       <c r="AA14" s="73"/>
       <c r="AC14" s="72"/>
-      <c r="AD14" s="191"/>
-      <c r="AE14" s="207"/>
-      <c r="AF14" s="207"/>
-      <c r="AG14" s="207"/>
-      <c r="AH14" s="207"/>
-      <c r="AI14" s="207"/>
-      <c r="AJ14" s="207"/>
-      <c r="AK14" s="207"/>
-      <c r="AL14" s="207"/>
-      <c r="AM14" s="207"/>
-      <c r="AN14" s="207"/>
-      <c r="AO14" s="207"/>
-      <c r="AP14" s="207"/>
-      <c r="AQ14" s="207"/>
-      <c r="AR14" s="207"/>
-      <c r="AS14" s="193"/>
+      <c r="AD14" s="186"/>
+      <c r="AE14" s="209"/>
+      <c r="AF14" s="209"/>
+      <c r="AG14" s="209"/>
+      <c r="AH14" s="209"/>
+      <c r="AI14" s="209"/>
+      <c r="AJ14" s="209"/>
+      <c r="AK14" s="209"/>
+      <c r="AL14" s="209"/>
+      <c r="AM14" s="209"/>
+      <c r="AN14" s="209"/>
+      <c r="AO14" s="209"/>
+      <c r="AP14" s="209"/>
+      <c r="AQ14" s="209"/>
+      <c r="AR14" s="209"/>
+      <c r="AS14" s="184"/>
       <c r="AT14" s="73"/>
       <c r="AV14" s="72"/>
       <c r="AW14" s="1"/>
@@ -3302,7 +3262,7 @@
     </row>
     <row r="15" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="72"/>
-      <c r="C15" s="191"/>
+      <c r="C15" s="186"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -3315,9 +3275,9 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="193"/>
+      <c r="P15" s="184"/>
       <c r="Q15" s="16"/>
-      <c r="R15" s="191"/>
+      <c r="R15" s="186"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -3325,25 +3285,25 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="60"/>
-      <c r="Z15" s="193"/>
+      <c r="Z15" s="184"/>
       <c r="AA15" s="73"/>
       <c r="AC15" s="72"/>
-      <c r="AD15" s="191"/>
-      <c r="AE15" s="208"/>
-      <c r="AF15" s="208"/>
-      <c r="AG15" s="208"/>
-      <c r="AH15" s="208"/>
-      <c r="AI15" s="208"/>
-      <c r="AJ15" s="208"/>
-      <c r="AK15" s="208"/>
-      <c r="AL15" s="208"/>
-      <c r="AM15" s="208"/>
-      <c r="AN15" s="208"/>
-      <c r="AO15" s="208"/>
-      <c r="AP15" s="208"/>
-      <c r="AQ15" s="208"/>
-      <c r="AR15" s="208"/>
-      <c r="AS15" s="193"/>
+      <c r="AD15" s="186"/>
+      <c r="AE15" s="210"/>
+      <c r="AF15" s="210"/>
+      <c r="AG15" s="210"/>
+      <c r="AH15" s="210"/>
+      <c r="AI15" s="210"/>
+      <c r="AJ15" s="210"/>
+      <c r="AK15" s="210"/>
+      <c r="AL15" s="210"/>
+      <c r="AM15" s="210"/>
+      <c r="AN15" s="210"/>
+      <c r="AO15" s="210"/>
+      <c r="AP15" s="210"/>
+      <c r="AQ15" s="210"/>
+      <c r="AR15" s="210"/>
+      <c r="AS15" s="184"/>
       <c r="AT15" s="73"/>
       <c r="AV15" s="72"/>
       <c r="AW15" s="1"/>
@@ -3366,7 +3326,7 @@
     </row>
     <row r="16" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="72"/>
-      <c r="C16" s="191"/>
+      <c r="C16" s="186"/>
       <c r="D16" s="46" t="s">
         <v>45</v>
       </c>
@@ -3381,9 +3341,9 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="193"/>
+      <c r="P16" s="184"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="191"/>
+      <c r="R16" s="186"/>
       <c r="S16" s="65" t="s">
         <v>35</v>
       </c>
@@ -3393,27 +3353,27 @@
       <c r="W16" s="65"/>
       <c r="X16" s="65"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="193"/>
+      <c r="Z16" s="184"/>
       <c r="AA16" s="73"/>
       <c r="AC16" s="72"/>
-      <c r="AD16" s="191"/>
-      <c r="AE16" s="223" t="s">
+      <c r="AD16" s="186"/>
+      <c r="AE16" s="190" t="s">
         <v>26</v>
       </c>
-      <c r="AF16" s="223"/>
-      <c r="AG16" s="223"/>
-      <c r="AH16" s="223"/>
-      <c r="AI16" s="223"/>
-      <c r="AJ16" s="223"/>
-      <c r="AK16" s="223"/>
-      <c r="AL16" s="223"/>
-      <c r="AM16" s="223"/>
-      <c r="AN16" s="223"/>
-      <c r="AO16" s="223"/>
-      <c r="AP16" s="223"/>
-      <c r="AQ16" s="223"/>
-      <c r="AR16" s="223"/>
-      <c r="AS16" s="193"/>
+      <c r="AF16" s="190"/>
+      <c r="AG16" s="190"/>
+      <c r="AH16" s="190"/>
+      <c r="AI16" s="190"/>
+      <c r="AJ16" s="190"/>
+      <c r="AK16" s="190"/>
+      <c r="AL16" s="190"/>
+      <c r="AM16" s="190"/>
+      <c r="AN16" s="190"/>
+      <c r="AO16" s="190"/>
+      <c r="AP16" s="190"/>
+      <c r="AQ16" s="190"/>
+      <c r="AR16" s="190"/>
+      <c r="AS16" s="184"/>
       <c r="AT16" s="73"/>
       <c r="AV16" s="72"/>
       <c r="AW16" s="1" t="s">
@@ -3440,7 +3400,7 @@
     </row>
     <row r="17" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="72"/>
-      <c r="C17" s="191"/>
+      <c r="C17" s="186"/>
       <c r="D17" s="13" t="s">
         <v>39</v>
       </c>
@@ -3455,9 +3415,9 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="193"/>
+      <c r="P17" s="184"/>
       <c r="Q17" s="19"/>
-      <c r="R17" s="191"/>
+      <c r="R17" s="186"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
@@ -3465,10 +3425,10 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="26"/>
-      <c r="Z17" s="193"/>
+      <c r="Z17" s="184"/>
       <c r="AA17" s="73"/>
       <c r="AC17" s="72"/>
-      <c r="AD17" s="191"/>
+      <c r="AD17" s="186"/>
       <c r="AE17" s="54" t="s">
         <v>25</v>
       </c>
@@ -3483,11 +3443,11 @@
       <c r="AN17" s="54"/>
       <c r="AO17" s="54"/>
       <c r="AP17" s="54"/>
-      <c r="AQ17" s="204">
+      <c r="AQ17" s="206">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR17" s="204"/>
-      <c r="AS17" s="193"/>
+      <c r="AR17" s="206"/>
+      <c r="AS17" s="184"/>
       <c r="AT17" s="73"/>
       <c r="AV17" s="72"/>
       <c r="AW17" s="2" t="s">
@@ -3514,7 +3474,7 @@
     </row>
     <row r="18" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
-      <c r="C18" s="191"/>
+      <c r="C18" s="186"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -3527,9 +3487,9 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="193"/>
+      <c r="P18" s="184"/>
       <c r="Q18" s="20"/>
-      <c r="R18" s="191"/>
+      <c r="R18" s="186"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
@@ -3537,25 +3497,25 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="26"/>
-      <c r="Z18" s="193"/>
+      <c r="Z18" s="184"/>
       <c r="AA18" s="73"/>
       <c r="AC18" s="72"/>
-      <c r="AD18" s="191"/>
-      <c r="AE18" s="209"/>
-      <c r="AF18" s="209"/>
-      <c r="AG18" s="209"/>
-      <c r="AH18" s="209"/>
-      <c r="AI18" s="209"/>
-      <c r="AJ18" s="209"/>
-      <c r="AK18" s="209"/>
-      <c r="AL18" s="209"/>
-      <c r="AM18" s="209"/>
-      <c r="AN18" s="209"/>
-      <c r="AO18" s="209"/>
-      <c r="AP18" s="209"/>
-      <c r="AQ18" s="209"/>
-      <c r="AR18" s="209"/>
-      <c r="AS18" s="193"/>
+      <c r="AD18" s="186"/>
+      <c r="AE18" s="211"/>
+      <c r="AF18" s="211"/>
+      <c r="AG18" s="211"/>
+      <c r="AH18" s="211"/>
+      <c r="AI18" s="211"/>
+      <c r="AJ18" s="211"/>
+      <c r="AK18" s="211"/>
+      <c r="AL18" s="211"/>
+      <c r="AM18" s="211"/>
+      <c r="AN18" s="211"/>
+      <c r="AO18" s="211"/>
+      <c r="AP18" s="211"/>
+      <c r="AQ18" s="211"/>
+      <c r="AR18" s="211"/>
+      <c r="AS18" s="184"/>
       <c r="AT18" s="73"/>
       <c r="AV18" s="72"/>
       <c r="AW18" s="1"/>
@@ -3578,7 +3538,7 @@
     </row>
     <row r="19" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="72"/>
-      <c r="C19" s="191"/>
+      <c r="C19" s="186"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -3591,9 +3551,9 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="193"/>
+      <c r="P19" s="184"/>
       <c r="Q19" s="20"/>
-      <c r="R19" s="191"/>
+      <c r="R19" s="186"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
@@ -3601,25 +3561,25 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="26"/>
-      <c r="Z19" s="193"/>
+      <c r="Z19" s="184"/>
       <c r="AA19" s="73"/>
       <c r="AC19" s="72"/>
-      <c r="AD19" s="191"/>
-      <c r="AE19" s="210"/>
-      <c r="AF19" s="210"/>
-      <c r="AG19" s="210"/>
-      <c r="AH19" s="210"/>
-      <c r="AI19" s="210"/>
-      <c r="AJ19" s="210"/>
-      <c r="AK19" s="210"/>
-      <c r="AL19" s="210"/>
-      <c r="AM19" s="210"/>
-      <c r="AN19" s="210"/>
-      <c r="AO19" s="210"/>
-      <c r="AP19" s="210"/>
-      <c r="AQ19" s="210"/>
-      <c r="AR19" s="210"/>
-      <c r="AS19" s="193"/>
+      <c r="AD19" s="186"/>
+      <c r="AE19" s="212"/>
+      <c r="AF19" s="212"/>
+      <c r="AG19" s="212"/>
+      <c r="AH19" s="212"/>
+      <c r="AI19" s="212"/>
+      <c r="AJ19" s="212"/>
+      <c r="AK19" s="212"/>
+      <c r="AL19" s="212"/>
+      <c r="AM19" s="212"/>
+      <c r="AN19" s="212"/>
+      <c r="AO19" s="212"/>
+      <c r="AP19" s="212"/>
+      <c r="AQ19" s="212"/>
+      <c r="AR19" s="212"/>
+      <c r="AS19" s="184"/>
       <c r="AT19" s="73"/>
       <c r="AV19" s="72"/>
       <c r="AW19" s="1"/>
@@ -3642,7 +3602,7 @@
     </row>
     <row r="20" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="72"/>
-      <c r="C20" s="191"/>
+      <c r="C20" s="186"/>
       <c r="D20" s="47" t="s">
         <v>101</v>
       </c>
@@ -3657,9 +3617,9 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="193"/>
+      <c r="P20" s="184"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="191"/>
+      <c r="R20" s="186"/>
       <c r="S20" s="10" t="s">
         <v>37</v>
       </c>
@@ -3669,27 +3629,27 @@
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="13"/>
-      <c r="Z20" s="193"/>
+      <c r="Z20" s="184"/>
       <c r="AA20" s="73"/>
       <c r="AC20" s="72"/>
-      <c r="AD20" s="191"/>
-      <c r="AE20" s="224" t="s">
+      <c r="AD20" s="186"/>
+      <c r="AE20" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="AF20" s="224"/>
-      <c r="AG20" s="224"/>
-      <c r="AH20" s="224"/>
-      <c r="AI20" s="224"/>
-      <c r="AJ20" s="224"/>
-      <c r="AK20" s="224"/>
-      <c r="AL20" s="224"/>
-      <c r="AM20" s="224"/>
-      <c r="AN20" s="224"/>
-      <c r="AO20" s="224"/>
-      <c r="AP20" s="224"/>
-      <c r="AQ20" s="224"/>
-      <c r="AR20" s="224"/>
-      <c r="AS20" s="193"/>
+      <c r="AF20" s="191"/>
+      <c r="AG20" s="191"/>
+      <c r="AH20" s="191"/>
+      <c r="AI20" s="191"/>
+      <c r="AJ20" s="191"/>
+      <c r="AK20" s="191"/>
+      <c r="AL20" s="191"/>
+      <c r="AM20" s="191"/>
+      <c r="AN20" s="191"/>
+      <c r="AO20" s="191"/>
+      <c r="AP20" s="191"/>
+      <c r="AQ20" s="191"/>
+      <c r="AR20" s="191"/>
+      <c r="AS20" s="184"/>
       <c r="AT20" s="73"/>
       <c r="AV20" s="72"/>
       <c r="AW20" s="135" t="s">
@@ -3716,7 +3676,7 @@
     </row>
     <row r="21" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="72"/>
-      <c r="C21" s="191"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="48" t="s">
         <v>104</v>
       </c>
@@ -3731,9 +3691,9 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="193"/>
+      <c r="P21" s="184"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="191"/>
+      <c r="R21" s="186"/>
       <c r="S21" s="13" t="s">
         <v>36</v>
       </c>
@@ -3743,10 +3703,10 @@
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="26"/>
-      <c r="Z21" s="193"/>
+      <c r="Z21" s="184"/>
       <c r="AA21" s="73"/>
       <c r="AC21" s="72"/>
-      <c r="AD21" s="191"/>
+      <c r="AD21" s="186"/>
       <c r="AE21" s="55" t="s">
         <v>27</v>
       </c>
@@ -3761,11 +3721,11 @@
       <c r="AN21" s="55"/>
       <c r="AO21" s="55"/>
       <c r="AP21" s="55"/>
-      <c r="AQ21" s="205">
+      <c r="AQ21" s="207">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR21" s="205"/>
-      <c r="AS21" s="193"/>
+      <c r="AR21" s="207"/>
+      <c r="AS21" s="184"/>
       <c r="AT21" s="73"/>
       <c r="AV21" s="72"/>
       <c r="AW21" s="2" t="s">
@@ -3792,7 +3752,7 @@
     </row>
     <row r="22" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="72"/>
-      <c r="C22" s="191"/>
+      <c r="C22" s="186"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -3805,9 +3765,9 @@
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="193"/>
+      <c r="P22" s="184"/>
       <c r="Q22" s="22"/>
-      <c r="R22" s="191"/>
+      <c r="R22" s="186"/>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
@@ -3815,25 +3775,25 @@
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="26"/>
-      <c r="Z22" s="193"/>
+      <c r="Z22" s="184"/>
       <c r="AA22" s="73"/>
       <c r="AC22" s="72"/>
-      <c r="AD22" s="191"/>
-      <c r="AE22" s="211"/>
-      <c r="AF22" s="211"/>
-      <c r="AG22" s="211"/>
-      <c r="AH22" s="211"/>
-      <c r="AI22" s="211"/>
-      <c r="AJ22" s="211"/>
-      <c r="AK22" s="211"/>
-      <c r="AL22" s="211"/>
-      <c r="AM22" s="211"/>
-      <c r="AN22" s="211"/>
-      <c r="AO22" s="211"/>
-      <c r="AP22" s="211"/>
-      <c r="AQ22" s="211"/>
-      <c r="AR22" s="211"/>
-      <c r="AS22" s="193"/>
+      <c r="AD22" s="186"/>
+      <c r="AE22" s="213"/>
+      <c r="AF22" s="213"/>
+      <c r="AG22" s="213"/>
+      <c r="AH22" s="213"/>
+      <c r="AI22" s="213"/>
+      <c r="AJ22" s="213"/>
+      <c r="AK22" s="213"/>
+      <c r="AL22" s="213"/>
+      <c r="AM22" s="213"/>
+      <c r="AN22" s="213"/>
+      <c r="AO22" s="213"/>
+      <c r="AP22" s="213"/>
+      <c r="AQ22" s="213"/>
+      <c r="AR22" s="213"/>
+      <c r="AS22" s="184"/>
       <c r="AT22" s="73"/>
       <c r="AV22" s="72"/>
       <c r="AW22" s="3"/>
@@ -3856,7 +3816,7 @@
     </row>
     <row r="23" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="72"/>
-      <c r="C23" s="191"/>
+      <c r="C23" s="186"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -3869,9 +3829,9 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
-      <c r="P23" s="193"/>
+      <c r="P23" s="184"/>
       <c r="Q23" s="22"/>
-      <c r="R23" s="191"/>
+      <c r="R23" s="186"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -3879,25 +3839,25 @@
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="26"/>
-      <c r="Z23" s="193"/>
+      <c r="Z23" s="184"/>
       <c r="AA23" s="73"/>
       <c r="AC23" s="72"/>
-      <c r="AD23" s="191"/>
-      <c r="AE23" s="212"/>
-      <c r="AF23" s="212"/>
-      <c r="AG23" s="212"/>
-      <c r="AH23" s="212"/>
-      <c r="AI23" s="212"/>
-      <c r="AJ23" s="212"/>
-      <c r="AK23" s="212"/>
-      <c r="AL23" s="212"/>
-      <c r="AM23" s="212"/>
-      <c r="AN23" s="212"/>
-      <c r="AO23" s="212"/>
-      <c r="AP23" s="212"/>
-      <c r="AQ23" s="212"/>
-      <c r="AR23" s="212"/>
-      <c r="AS23" s="193"/>
+      <c r="AD23" s="186"/>
+      <c r="AE23" s="214"/>
+      <c r="AF23" s="214"/>
+      <c r="AG23" s="214"/>
+      <c r="AH23" s="214"/>
+      <c r="AI23" s="214"/>
+      <c r="AJ23" s="214"/>
+      <c r="AK23" s="214"/>
+      <c r="AL23" s="214"/>
+      <c r="AM23" s="214"/>
+      <c r="AN23" s="214"/>
+      <c r="AO23" s="214"/>
+      <c r="AP23" s="214"/>
+      <c r="AQ23" s="214"/>
+      <c r="AR23" s="214"/>
+      <c r="AS23" s="184"/>
       <c r="AT23" s="73"/>
       <c r="AV23" s="72"/>
       <c r="AW23" s="3"/>
@@ -3920,7 +3880,7 @@
     </row>
     <row r="24" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="72"/>
-      <c r="C24" s="191"/>
+      <c r="C24" s="186"/>
       <c r="D24" s="49" t="s">
         <v>102</v>
       </c>
@@ -3935,9 +3895,9 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="26"/>
-      <c r="P24" s="193"/>
+      <c r="P24" s="184"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="191"/>
+      <c r="R24" s="186"/>
       <c r="S24" s="26"/>
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
@@ -3945,10 +3905,10 @@
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26"/>
-      <c r="Z24" s="193"/>
+      <c r="Z24" s="184"/>
       <c r="AA24" s="73"/>
       <c r="AC24" s="72"/>
-      <c r="AD24" s="191"/>
+      <c r="AD24" s="186"/>
       <c r="AE24" s="56" t="s">
         <v>26</v>
       </c>
@@ -3965,7 +3925,7 @@
       <c r="AP24" s="56"/>
       <c r="AQ24" s="56"/>
       <c r="AR24" s="57"/>
-      <c r="AS24" s="193"/>
+      <c r="AS24" s="184"/>
       <c r="AT24" s="73"/>
       <c r="AV24" s="72"/>
       <c r="AW24" s="136" t="s">
@@ -3992,7 +3952,7 @@
     </row>
     <row r="25" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="72"/>
-      <c r="C25" s="191"/>
+      <c r="C25" s="186"/>
       <c r="D25" s="50" t="s">
         <v>103</v>
       </c>
@@ -4007,9 +3967,9 @@
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="193"/>
+      <c r="P25" s="184"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="191"/>
+      <c r="R25" s="186"/>
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
@@ -4017,10 +3977,10 @@
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
-      <c r="Z25" s="193"/>
+      <c r="Z25" s="184"/>
       <c r="AA25" s="73"/>
       <c r="AC25" s="72"/>
-      <c r="AD25" s="191"/>
+      <c r="AD25" s="186"/>
       <c r="AE25" s="58" t="s">
         <v>28</v>
       </c>
@@ -4035,11 +3995,11 @@
       <c r="AN25" s="58"/>
       <c r="AO25" s="58"/>
       <c r="AP25" s="58"/>
-      <c r="AQ25" s="206">
+      <c r="AQ25" s="208">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR25" s="206"/>
-      <c r="AS25" s="193"/>
+      <c r="AR25" s="208"/>
+      <c r="AS25" s="184"/>
       <c r="AT25" s="73"/>
       <c r="AV25" s="72"/>
       <c r="AW25" s="137" t="s">
@@ -4066,7 +4026,7 @@
     </row>
     <row r="26" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="72"/>
-      <c r="C26" s="191"/>
+      <c r="C26" s="186"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -4079,9 +4039,9 @@
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
-      <c r="P26" s="193"/>
+      <c r="P26" s="184"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="191"/>
+      <c r="R26" s="186"/>
       <c r="S26" s="26"/>
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
@@ -4089,25 +4049,25 @@
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
-      <c r="Z26" s="193"/>
+      <c r="Z26" s="184"/>
       <c r="AA26" s="73"/>
       <c r="AC26" s="72"/>
-      <c r="AD26" s="191"/>
-      <c r="AE26" s="189"/>
-      <c r="AF26" s="189"/>
-      <c r="AG26" s="189"/>
-      <c r="AH26" s="189"/>
-      <c r="AI26" s="189"/>
-      <c r="AJ26" s="189"/>
-      <c r="AK26" s="189"/>
-      <c r="AL26" s="189"/>
-      <c r="AM26" s="189"/>
-      <c r="AN26" s="189"/>
-      <c r="AO26" s="189"/>
-      <c r="AP26" s="189"/>
-      <c r="AQ26" s="189"/>
-      <c r="AR26" s="189"/>
-      <c r="AS26" s="193"/>
+      <c r="AD26" s="186"/>
+      <c r="AE26" s="225"/>
+      <c r="AF26" s="225"/>
+      <c r="AG26" s="225"/>
+      <c r="AH26" s="225"/>
+      <c r="AI26" s="225"/>
+      <c r="AJ26" s="225"/>
+      <c r="AK26" s="225"/>
+      <c r="AL26" s="225"/>
+      <c r="AM26" s="225"/>
+      <c r="AN26" s="225"/>
+      <c r="AO26" s="225"/>
+      <c r="AP26" s="225"/>
+      <c r="AQ26" s="225"/>
+      <c r="AR26" s="225"/>
+      <c r="AS26" s="184"/>
       <c r="AT26" s="73"/>
       <c r="AV26" s="72"/>
       <c r="AW26" s="5"/>
@@ -4130,7 +4090,7 @@
     </row>
     <row r="27" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="72"/>
-      <c r="C27" s="191"/>
+      <c r="C27" s="186"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -4143,9 +4103,9 @@
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="193"/>
+      <c r="P27" s="184"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="191"/>
+      <c r="R27" s="186"/>
       <c r="S27" s="26"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
@@ -4153,25 +4113,25 @@
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
-      <c r="Z27" s="193"/>
+      <c r="Z27" s="184"/>
       <c r="AA27" s="73"/>
       <c r="AC27" s="72"/>
-      <c r="AD27" s="191"/>
-      <c r="AE27" s="190"/>
-      <c r="AF27" s="190"/>
-      <c r="AG27" s="190"/>
-      <c r="AH27" s="190"/>
-      <c r="AI27" s="190"/>
-      <c r="AJ27" s="190"/>
-      <c r="AK27" s="190"/>
-      <c r="AL27" s="190"/>
-      <c r="AM27" s="190"/>
-      <c r="AN27" s="190"/>
-      <c r="AO27" s="190"/>
-      <c r="AP27" s="190"/>
-      <c r="AQ27" s="190"/>
-      <c r="AR27" s="190"/>
-      <c r="AS27" s="193"/>
+      <c r="AD27" s="186"/>
+      <c r="AE27" s="226"/>
+      <c r="AF27" s="226"/>
+      <c r="AG27" s="226"/>
+      <c r="AH27" s="226"/>
+      <c r="AI27" s="226"/>
+      <c r="AJ27" s="226"/>
+      <c r="AK27" s="226"/>
+      <c r="AL27" s="226"/>
+      <c r="AM27" s="226"/>
+      <c r="AN27" s="226"/>
+      <c r="AO27" s="226"/>
+      <c r="AP27" s="226"/>
+      <c r="AQ27" s="226"/>
+      <c r="AR27" s="226"/>
+      <c r="AS27" s="184"/>
       <c r="AT27" s="73"/>
       <c r="AV27" s="72"/>
       <c r="AW27" s="5"/>
@@ -4194,7 +4154,7 @@
     </row>
     <row r="28" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="72"/>
-      <c r="C28" s="191"/>
+      <c r="C28" s="186"/>
       <c r="D28" s="51" t="s">
         <v>43</v>
       </c>
@@ -4209,9 +4169,9 @@
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
       <c r="O28" s="26"/>
-      <c r="P28" s="193"/>
+      <c r="P28" s="184"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="191"/>
+      <c r="R28" s="186"/>
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
@@ -4219,10 +4179,10 @@
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="60"/>
-      <c r="Z28" s="193"/>
+      <c r="Z28" s="184"/>
       <c r="AA28" s="73"/>
       <c r="AC28" s="72"/>
-      <c r="AD28" s="191"/>
+      <c r="AD28" s="186"/>
       <c r="AE28" s="59" t="s">
         <v>29</v>
       </c>
@@ -4237,11 +4197,11 @@
       <c r="AN28" s="59"/>
       <c r="AO28" s="59"/>
       <c r="AP28" s="59"/>
-      <c r="AQ28" s="213">
+      <c r="AQ28" s="215">
         <v>0.38055555555555554</v>
       </c>
-      <c r="AR28" s="213"/>
-      <c r="AS28" s="193"/>
+      <c r="AR28" s="215"/>
+      <c r="AS28" s="184"/>
       <c r="AT28" s="73"/>
       <c r="AV28" s="72"/>
       <c r="AW28" s="6" t="s">
@@ -4268,7 +4228,7 @@
     </row>
     <row r="29" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="72"/>
-      <c r="C29" s="191"/>
+      <c r="C29" s="186"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
@@ -4281,9 +4241,9 @@
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="26"/>
-      <c r="P29" s="193"/>
+      <c r="P29" s="184"/>
       <c r="Q29" s="8"/>
-      <c r="R29" s="191"/>
+      <c r="R29" s="186"/>
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
@@ -4291,10 +4251,10 @@
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
-      <c r="Z29" s="193"/>
+      <c r="Z29" s="184"/>
       <c r="AA29" s="73"/>
       <c r="AC29" s="72"/>
-      <c r="AD29" s="191"/>
+      <c r="AD29" s="186"/>
       <c r="AE29" s="61"/>
       <c r="AF29" s="61"/>
       <c r="AG29" s="61"/>
@@ -4309,7 +4269,7 @@
       <c r="AP29" s="61"/>
       <c r="AQ29" s="61"/>
       <c r="AR29" s="62"/>
-      <c r="AS29" s="193"/>
+      <c r="AS29" s="184"/>
       <c r="AT29" s="73"/>
       <c r="AV29" s="72"/>
       <c r="AW29" s="6"/>
@@ -4332,7 +4292,7 @@
     </row>
     <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" s="72"/>
-      <c r="C30" s="191"/>
+      <c r="C30" s="186"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="26"/>
@@ -4345,9 +4305,9 @@
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="193"/>
+      <c r="P30" s="184"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="191"/>
+      <c r="R30" s="186"/>
       <c r="S30" s="26"/>
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
@@ -4355,10 +4315,10 @@
       <c r="W30" s="26"/>
       <c r="X30" s="26"/>
       <c r="Y30" s="26"/>
-      <c r="Z30" s="193"/>
+      <c r="Z30" s="184"/>
       <c r="AA30" s="73"/>
       <c r="AC30" s="72"/>
-      <c r="AD30" s="191"/>
+      <c r="AD30" s="186"/>
       <c r="AE30" s="63"/>
       <c r="AF30" s="63"/>
       <c r="AG30" s="63"/>
@@ -4373,7 +4333,7 @@
       <c r="AP30" s="63"/>
       <c r="AQ30" s="63"/>
       <c r="AR30" s="63"/>
-      <c r="AS30" s="193"/>
+      <c r="AS30" s="184"/>
       <c r="AT30" s="73"/>
       <c r="AV30" s="72"/>
       <c r="AW30" s="6" t="s">
@@ -4400,7 +4360,7 @@
     </row>
     <row r="31" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="72"/>
-      <c r="C31" s="191"/>
+      <c r="C31" s="186"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
@@ -4413,9 +4373,9 @@
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="193"/>
+      <c r="P31" s="184"/>
       <c r="Q31" s="8"/>
-      <c r="R31" s="191"/>
+      <c r="R31" s="186"/>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
@@ -4423,10 +4383,10 @@
       <c r="W31" s="26"/>
       <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
-      <c r="Z31" s="193"/>
+      <c r="Z31" s="184"/>
       <c r="AA31" s="73"/>
       <c r="AC31" s="72"/>
-      <c r="AD31" s="191"/>
+      <c r="AD31" s="186"/>
       <c r="AE31" s="63"/>
       <c r="AF31" s="63"/>
       <c r="AG31" s="63"/>
@@ -4441,7 +4401,7 @@
       <c r="AP31" s="63"/>
       <c r="AQ31" s="63"/>
       <c r="AR31" s="63"/>
-      <c r="AS31" s="193"/>
+      <c r="AS31" s="184"/>
       <c r="AT31" s="73"/>
       <c r="AV31" s="72"/>
       <c r="AW31" s="6"/>
@@ -4464,48 +4424,48 @@
     </row>
     <row r="32" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="72"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="220"/>
-      <c r="L32" s="220"/>
-      <c r="M32" s="220"/>
-      <c r="N32" s="220"/>
-      <c r="O32" s="220"/>
-      <c r="P32" s="220"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="187"/>
+      <c r="N32" s="187"/>
+      <c r="O32" s="187"/>
+      <c r="P32" s="187"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="191"/>
-      <c r="S32" s="220"/>
-      <c r="T32" s="220"/>
-      <c r="U32" s="220"/>
-      <c r="V32" s="220"/>
-      <c r="W32" s="220"/>
-      <c r="X32" s="220"/>
-      <c r="Y32" s="220"/>
-      <c r="Z32" s="220"/>
+      <c r="R32" s="186"/>
+      <c r="S32" s="187"/>
+      <c r="T32" s="187"/>
+      <c r="U32" s="187"/>
+      <c r="V32" s="187"/>
+      <c r="W32" s="187"/>
+      <c r="X32" s="187"/>
+      <c r="Y32" s="187"/>
+      <c r="Z32" s="187"/>
       <c r="AA32" s="73"/>
       <c r="AC32" s="72"/>
-      <c r="AD32" s="191"/>
-      <c r="AE32" s="193"/>
-      <c r="AF32" s="193"/>
-      <c r="AG32" s="193"/>
-      <c r="AH32" s="193"/>
-      <c r="AI32" s="193"/>
-      <c r="AJ32" s="193"/>
-      <c r="AK32" s="193"/>
-      <c r="AL32" s="193"/>
-      <c r="AM32" s="193"/>
-      <c r="AN32" s="193"/>
-      <c r="AO32" s="193"/>
-      <c r="AP32" s="193"/>
-      <c r="AQ32" s="193"/>
-      <c r="AR32" s="193"/>
-      <c r="AS32" s="193"/>
+      <c r="AD32" s="186"/>
+      <c r="AE32" s="184"/>
+      <c r="AF32" s="184"/>
+      <c r="AG32" s="184"/>
+      <c r="AH32" s="184"/>
+      <c r="AI32" s="184"/>
+      <c r="AJ32" s="184"/>
+      <c r="AK32" s="184"/>
+      <c r="AL32" s="184"/>
+      <c r="AM32" s="184"/>
+      <c r="AN32" s="184"/>
+      <c r="AO32" s="184"/>
+      <c r="AP32" s="184"/>
+      <c r="AQ32" s="184"/>
+      <c r="AR32" s="184"/>
+      <c r="AS32" s="184"/>
       <c r="AT32" s="73"/>
       <c r="AV32" s="72"/>
       <c r="AW32" s="6"/>
@@ -4596,48 +4556,48 @@
     </row>
     <row r="34" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="72"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="191"/>
-      <c r="H34" s="191"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="191"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="191"/>
-      <c r="M34" s="191"/>
-      <c r="N34" s="191"/>
-      <c r="O34" s="191"/>
-      <c r="P34" s="191"/>
-      <c r="Q34" s="191"/>
-      <c r="R34" s="191"/>
-      <c r="S34" s="191"/>
-      <c r="T34" s="191"/>
-      <c r="U34" s="191"/>
-      <c r="V34" s="191"/>
-      <c r="W34" s="191"/>
-      <c r="X34" s="191"/>
-      <c r="Y34" s="191"/>
-      <c r="Z34" s="191"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="186"/>
+      <c r="K34" s="186"/>
+      <c r="L34" s="186"/>
+      <c r="M34" s="186"/>
+      <c r="N34" s="186"/>
+      <c r="O34" s="186"/>
+      <c r="P34" s="186"/>
+      <c r="Q34" s="186"/>
+      <c r="R34" s="186"/>
+      <c r="S34" s="186"/>
+      <c r="T34" s="186"/>
+      <c r="U34" s="186"/>
+      <c r="V34" s="186"/>
+      <c r="W34" s="186"/>
+      <c r="X34" s="186"/>
+      <c r="Y34" s="186"/>
+      <c r="Z34" s="186"/>
       <c r="AA34" s="73"/>
       <c r="AC34" s="72"/>
-      <c r="AD34" s="191"/>
-      <c r="AE34" s="191"/>
-      <c r="AF34" s="191"/>
-      <c r="AG34" s="191"/>
-      <c r="AH34" s="191"/>
-      <c r="AI34" s="191"/>
-      <c r="AJ34" s="191"/>
-      <c r="AK34" s="191"/>
-      <c r="AL34" s="191"/>
-      <c r="AM34" s="191"/>
-      <c r="AN34" s="191"/>
-      <c r="AO34" s="191"/>
-      <c r="AP34" s="191"/>
-      <c r="AQ34" s="191"/>
-      <c r="AR34" s="191"/>
-      <c r="AS34" s="191"/>
+      <c r="AD34" s="186"/>
+      <c r="AE34" s="186"/>
+      <c r="AF34" s="186"/>
+      <c r="AG34" s="186"/>
+      <c r="AH34" s="186"/>
+      <c r="AI34" s="186"/>
+      <c r="AJ34" s="186"/>
+      <c r="AK34" s="186"/>
+      <c r="AL34" s="186"/>
+      <c r="AM34" s="186"/>
+      <c r="AN34" s="186"/>
+      <c r="AO34" s="186"/>
+      <c r="AP34" s="186"/>
+      <c r="AQ34" s="186"/>
+      <c r="AR34" s="186"/>
+      <c r="AS34" s="186"/>
       <c r="AT34" s="73"/>
       <c r="AV34" s="72"/>
       <c r="AW34" s="1"/>
@@ -4660,51 +4620,51 @@
     </row>
     <row r="35" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="72"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="194" t="s">
+      <c r="C35" s="186"/>
+      <c r="D35" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="194"/>
-      <c r="L35" s="194"/>
-      <c r="M35" s="194"/>
-      <c r="N35" s="194"/>
-      <c r="O35" s="194"/>
-      <c r="P35" s="194"/>
-      <c r="Q35" s="194"/>
-      <c r="R35" s="194"/>
-      <c r="S35" s="194"/>
-      <c r="T35" s="194"/>
-      <c r="U35" s="194"/>
-      <c r="V35" s="194"/>
-      <c r="W35" s="194"/>
-      <c r="X35" s="194"/>
-      <c r="Y35" s="194"/>
+      <c r="E35" s="219"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
+      <c r="K35" s="219"/>
+      <c r="L35" s="219"/>
+      <c r="M35" s="219"/>
+      <c r="N35" s="219"/>
+      <c r="O35" s="219"/>
+      <c r="P35" s="219"/>
+      <c r="Q35" s="219"/>
+      <c r="R35" s="219"/>
+      <c r="S35" s="219"/>
+      <c r="T35" s="219"/>
+      <c r="U35" s="219"/>
+      <c r="V35" s="219"/>
+      <c r="W35" s="219"/>
+      <c r="X35" s="219"/>
+      <c r="Y35" s="219"/>
       <c r="Z35" s="66"/>
       <c r="AA35" s="73"/>
       <c r="AC35" s="72"/>
-      <c r="AD35" s="191"/>
-      <c r="AE35" s="194" t="s">
+      <c r="AD35" s="186"/>
+      <c r="AE35" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="AF35" s="194"/>
-      <c r="AG35" s="194"/>
-      <c r="AH35" s="194"/>
-      <c r="AI35" s="194"/>
-      <c r="AJ35" s="194"/>
-      <c r="AK35" s="194"/>
-      <c r="AL35" s="194"/>
-      <c r="AM35" s="194"/>
-      <c r="AN35" s="194"/>
-      <c r="AO35" s="194"/>
-      <c r="AP35" s="194"/>
-      <c r="AQ35" s="194"/>
-      <c r="AR35" s="194"/>
+      <c r="AF35" s="219"/>
+      <c r="AG35" s="219"/>
+      <c r="AH35" s="219"/>
+      <c r="AI35" s="219"/>
+      <c r="AJ35" s="219"/>
+      <c r="AK35" s="219"/>
+      <c r="AL35" s="219"/>
+      <c r="AM35" s="219"/>
+      <c r="AN35" s="219"/>
+      <c r="AO35" s="219"/>
+      <c r="AP35" s="219"/>
+      <c r="AQ35" s="219"/>
+      <c r="AR35" s="219"/>
       <c r="AS35" s="66"/>
       <c r="AT35" s="73"/>
       <c r="AV35" s="72"/>
@@ -4732,48 +4692,48 @@
     </row>
     <row r="36" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="72"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="193"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="193"/>
-      <c r="L36" s="193"/>
-      <c r="M36" s="193"/>
-      <c r="N36" s="193"/>
-      <c r="O36" s="193"/>
-      <c r="P36" s="193"/>
-      <c r="Q36" s="193"/>
-      <c r="R36" s="193"/>
-      <c r="S36" s="193"/>
-      <c r="T36" s="193"/>
-      <c r="U36" s="193"/>
-      <c r="V36" s="193"/>
-      <c r="W36" s="193"/>
-      <c r="X36" s="193"/>
-      <c r="Y36" s="193"/>
-      <c r="Z36" s="193"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="184"/>
+      <c r="J36" s="184"/>
+      <c r="K36" s="184"/>
+      <c r="L36" s="184"/>
+      <c r="M36" s="184"/>
+      <c r="N36" s="184"/>
+      <c r="O36" s="184"/>
+      <c r="P36" s="184"/>
+      <c r="Q36" s="184"/>
+      <c r="R36" s="184"/>
+      <c r="S36" s="184"/>
+      <c r="T36" s="184"/>
+      <c r="U36" s="184"/>
+      <c r="V36" s="184"/>
+      <c r="W36" s="184"/>
+      <c r="X36" s="184"/>
+      <c r="Y36" s="184"/>
+      <c r="Z36" s="184"/>
       <c r="AA36" s="73"/>
       <c r="AC36" s="72"/>
-      <c r="AD36" s="191"/>
-      <c r="AE36" s="193"/>
-      <c r="AF36" s="193"/>
-      <c r="AG36" s="193"/>
-      <c r="AH36" s="193"/>
-      <c r="AI36" s="193"/>
-      <c r="AJ36" s="193"/>
-      <c r="AK36" s="193"/>
-      <c r="AL36" s="193"/>
-      <c r="AM36" s="193"/>
-      <c r="AN36" s="193"/>
-      <c r="AO36" s="193"/>
-      <c r="AP36" s="193"/>
-      <c r="AQ36" s="193"/>
-      <c r="AR36" s="193"/>
-      <c r="AS36" s="193"/>
+      <c r="AD36" s="186"/>
+      <c r="AE36" s="184"/>
+      <c r="AF36" s="184"/>
+      <c r="AG36" s="184"/>
+      <c r="AH36" s="184"/>
+      <c r="AI36" s="184"/>
+      <c r="AJ36" s="184"/>
+      <c r="AK36" s="184"/>
+      <c r="AL36" s="184"/>
+      <c r="AM36" s="184"/>
+      <c r="AN36" s="184"/>
+      <c r="AO36" s="184"/>
+      <c r="AP36" s="184"/>
+      <c r="AQ36" s="184"/>
+      <c r="AR36" s="184"/>
+      <c r="AS36" s="184"/>
       <c r="AT36" s="73"/>
       <c r="AU36" s="77"/>
       <c r="AV36" s="72"/>
@@ -4997,13 +4957,13 @@
       <c r="B41" s="72"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="217"/>
-      <c r="F41" s="217"/>
-      <c r="G41" s="217"/>
-      <c r="H41" s="217"/>
-      <c r="I41" s="217"/>
-      <c r="J41" s="217"/>
-      <c r="K41" s="217"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="182"/>
+      <c r="H41" s="182"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="182"/>
       <c r="L41" s="73"/>
       <c r="M41" s="77"/>
       <c r="N41" s="77"/>
@@ -5115,719 +5075,719 @@
       <c r="S43" s="36"/>
     </row>
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B44" s="214" t="s">
+      <c r="B44" s="216" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="214"/>
-      <c r="D44" s="214"/>
-      <c r="E44" s="214"/>
-      <c r="F44" s="214"/>
-      <c r="G44" s="214"/>
-      <c r="H44" s="214"/>
-      <c r="I44" s="214"/>
-      <c r="J44" s="214"/>
-      <c r="K44" s="214"/>
-      <c r="L44" s="214"/>
-      <c r="M44" s="182" t="s">
+      <c r="C44" s="216"/>
+      <c r="D44" s="216"/>
+      <c r="E44" s="216"/>
+      <c r="F44" s="216"/>
+      <c r="G44" s="216"/>
+      <c r="H44" s="216"/>
+      <c r="I44" s="216"/>
+      <c r="J44" s="216"/>
+      <c r="K44" s="216"/>
+      <c r="L44" s="216"/>
+      <c r="M44" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="N44" s="182"/>
-      <c r="O44" s="182"/>
-      <c r="P44" s="182"/>
-      <c r="Q44" s="182"/>
-      <c r="R44" s="182"/>
-      <c r="S44" s="182"/>
-      <c r="T44" s="182"/>
-      <c r="U44" s="182"/>
-      <c r="V44" s="180" t="s">
+      <c r="N44" s="193"/>
+      <c r="O44" s="193"/>
+      <c r="P44" s="193"/>
+      <c r="Q44" s="193"/>
+      <c r="R44" s="193"/>
+      <c r="S44" s="193"/>
+      <c r="T44" s="193"/>
+      <c r="U44" s="193"/>
+      <c r="V44" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="W44" s="180"/>
-      <c r="X44" s="180"/>
-      <c r="Y44" s="180"/>
-      <c r="Z44" s="180"/>
-      <c r="AA44" s="180"/>
-      <c r="AB44" s="180"/>
-      <c r="AC44" s="180"/>
-      <c r="AD44" s="180"/>
-      <c r="AE44" s="180"/>
-      <c r="AF44" s="180"/>
-      <c r="AG44" s="180"/>
-      <c r="AH44" s="182" t="s">
+      <c r="W44" s="194"/>
+      <c r="X44" s="194"/>
+      <c r="Y44" s="194"/>
+      <c r="Z44" s="194"/>
+      <c r="AA44" s="194"/>
+      <c r="AB44" s="194"/>
+      <c r="AC44" s="194"/>
+      <c r="AD44" s="194"/>
+      <c r="AE44" s="194"/>
+      <c r="AF44" s="194"/>
+      <c r="AG44" s="194"/>
+      <c r="AH44" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="AI44" s="182"/>
-      <c r="AJ44" s="182"/>
-      <c r="AK44" s="182"/>
-      <c r="AL44" s="182"/>
-      <c r="AM44" s="182"/>
-      <c r="AN44" s="182"/>
-      <c r="AO44" s="182"/>
-      <c r="AP44" s="184" t="s">
+      <c r="AI44" s="193"/>
+      <c r="AJ44" s="193"/>
+      <c r="AK44" s="193"/>
+      <c r="AL44" s="193"/>
+      <c r="AM44" s="193"/>
+      <c r="AN44" s="193"/>
+      <c r="AO44" s="193"/>
+      <c r="AP44" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="AQ44" s="184"/>
-      <c r="AR44" s="184"/>
-      <c r="AS44" s="184"/>
-      <c r="AT44" s="184"/>
-      <c r="AU44" s="184"/>
-      <c r="AV44" s="184"/>
-      <c r="AW44" s="184"/>
-      <c r="AX44" s="184"/>
-      <c r="AY44" s="184"/>
-      <c r="AZ44" s="182" t="s">
+      <c r="AQ44" s="196"/>
+      <c r="AR44" s="196"/>
+      <c r="AS44" s="196"/>
+      <c r="AT44" s="196"/>
+      <c r="AU44" s="196"/>
+      <c r="AV44" s="196"/>
+      <c r="AW44" s="196"/>
+      <c r="AX44" s="196"/>
+      <c r="AY44" s="196"/>
+      <c r="AZ44" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="BA44" s="182"/>
-      <c r="BB44" s="182"/>
-      <c r="BC44" s="182"/>
-      <c r="BD44" s="182"/>
-      <c r="BE44" s="180" t="s">
+      <c r="BA44" s="193"/>
+      <c r="BB44" s="193"/>
+      <c r="BC44" s="193"/>
+      <c r="BD44" s="193"/>
+      <c r="BE44" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="BF44" s="180"/>
-      <c r="BG44" s="180"/>
-      <c r="BH44" s="180"/>
-      <c r="BI44" s="180"/>
-      <c r="BJ44" s="180"/>
-      <c r="BK44" s="180"/>
-      <c r="BL44" s="180"/>
-      <c r="BM44" s="182" t="s">
+      <c r="BF44" s="194"/>
+      <c r="BG44" s="194"/>
+      <c r="BH44" s="194"/>
+      <c r="BI44" s="194"/>
+      <c r="BJ44" s="194"/>
+      <c r="BK44" s="194"/>
+      <c r="BL44" s="194"/>
+      <c r="BM44" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="BN44" s="182"/>
-      <c r="BO44" s="182"/>
-      <c r="BP44" s="182"/>
-      <c r="BQ44" s="182"/>
+      <c r="BN44" s="193"/>
+      <c r="BO44" s="193"/>
+      <c r="BP44" s="193"/>
+      <c r="BQ44" s="193"/>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B45" s="214" t="s">
+      <c r="B45" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="214"/>
-      <c r="D45" s="214"/>
-      <c r="E45" s="214"/>
-      <c r="F45" s="214"/>
-      <c r="G45" s="214"/>
-      <c r="H45" s="214"/>
-      <c r="I45" s="214"/>
-      <c r="J45" s="214"/>
-      <c r="K45" s="214"/>
-      <c r="L45" s="214"/>
-      <c r="M45" s="182"/>
-      <c r="N45" s="182"/>
-      <c r="O45" s="182"/>
-      <c r="P45" s="182"/>
-      <c r="Q45" s="182"/>
-      <c r="R45" s="182"/>
-      <c r="S45" s="182"/>
-      <c r="T45" s="182"/>
-      <c r="U45" s="182"/>
-      <c r="V45" s="201" t="s">
+      <c r="C45" s="216"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="216"/>
+      <c r="H45" s="216"/>
+      <c r="I45" s="216"/>
+      <c r="J45" s="216"/>
+      <c r="K45" s="216"/>
+      <c r="L45" s="216"/>
+      <c r="M45" s="193"/>
+      <c r="N45" s="193"/>
+      <c r="O45" s="193"/>
+      <c r="P45" s="193"/>
+      <c r="Q45" s="193"/>
+      <c r="R45" s="193"/>
+      <c r="S45" s="193"/>
+      <c r="T45" s="193"/>
+      <c r="U45" s="193"/>
+      <c r="V45" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="W45" s="201"/>
-      <c r="X45" s="201"/>
-      <c r="Y45" s="201"/>
-      <c r="Z45" s="201"/>
-      <c r="AA45" s="201"/>
-      <c r="AB45" s="201"/>
-      <c r="AC45" s="201"/>
-      <c r="AD45" s="201"/>
-      <c r="AE45" s="201"/>
-      <c r="AF45" s="201"/>
-      <c r="AG45" s="201"/>
-      <c r="AH45" s="182" t="s">
+      <c r="W45" s="195"/>
+      <c r="X45" s="195"/>
+      <c r="Y45" s="195"/>
+      <c r="Z45" s="195"/>
+      <c r="AA45" s="195"/>
+      <c r="AB45" s="195"/>
+      <c r="AC45" s="195"/>
+      <c r="AD45" s="195"/>
+      <c r="AE45" s="195"/>
+      <c r="AF45" s="195"/>
+      <c r="AG45" s="195"/>
+      <c r="AH45" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="AI45" s="182"/>
-      <c r="AJ45" s="182"/>
-      <c r="AK45" s="182"/>
-      <c r="AL45" s="182"/>
-      <c r="AM45" s="182"/>
-      <c r="AN45" s="182"/>
-      <c r="AO45" s="182"/>
-      <c r="AP45" s="188" t="s">
+      <c r="AI45" s="193"/>
+      <c r="AJ45" s="193"/>
+      <c r="AK45" s="193"/>
+      <c r="AL45" s="193"/>
+      <c r="AM45" s="193"/>
+      <c r="AN45" s="193"/>
+      <c r="AO45" s="193"/>
+      <c r="AP45" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="AQ45" s="188"/>
-      <c r="AR45" s="188"/>
-      <c r="AS45" s="188"/>
-      <c r="AT45" s="188"/>
-      <c r="AU45" s="188"/>
-      <c r="AV45" s="188"/>
-      <c r="AW45" s="188"/>
-      <c r="AX45" s="188"/>
-      <c r="AY45" s="188"/>
-      <c r="AZ45" s="182"/>
-      <c r="BA45" s="182"/>
-      <c r="BB45" s="182"/>
-      <c r="BC45" s="182"/>
-      <c r="BD45" s="182"/>
-      <c r="BE45" s="184" t="s">
+      <c r="AQ45" s="199"/>
+      <c r="AR45" s="199"/>
+      <c r="AS45" s="199"/>
+      <c r="AT45" s="199"/>
+      <c r="AU45" s="199"/>
+      <c r="AV45" s="199"/>
+      <c r="AW45" s="199"/>
+      <c r="AX45" s="199"/>
+      <c r="AY45" s="199"/>
+      <c r="AZ45" s="193"/>
+      <c r="BA45" s="193"/>
+      <c r="BB45" s="193"/>
+      <c r="BC45" s="193"/>
+      <c r="BD45" s="193"/>
+      <c r="BE45" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="BF45" s="184"/>
-      <c r="BG45" s="184"/>
-      <c r="BH45" s="184"/>
-      <c r="BI45" s="184"/>
-      <c r="BJ45" s="184"/>
-      <c r="BK45" s="184"/>
-      <c r="BL45" s="184"/>
-      <c r="BM45" s="183" t="s">
+      <c r="BF45" s="196"/>
+      <c r="BG45" s="196"/>
+      <c r="BH45" s="196"/>
+      <c r="BI45" s="196"/>
+      <c r="BJ45" s="196"/>
+      <c r="BK45" s="196"/>
+      <c r="BL45" s="196"/>
+      <c r="BM45" s="224" t="s">
         <v>109</v>
       </c>
-      <c r="BN45" s="182"/>
-      <c r="BO45" s="182"/>
-      <c r="BP45" s="182"/>
-      <c r="BQ45" s="182"/>
+      <c r="BN45" s="193"/>
+      <c r="BO45" s="193"/>
+      <c r="BP45" s="193"/>
+      <c r="BQ45" s="193"/>
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B46" s="215" t="s">
+      <c r="B46" s="217" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="215"/>
-      <c r="D46" s="215"/>
-      <c r="E46" s="215"/>
-      <c r="F46" s="215"/>
-      <c r="G46" s="215"/>
-      <c r="H46" s="215"/>
-      <c r="I46" s="215"/>
-      <c r="J46" s="215"/>
-      <c r="K46" s="215"/>
-      <c r="L46" s="215"/>
-      <c r="M46" s="182"/>
-      <c r="N46" s="182"/>
-      <c r="O46" s="182"/>
-      <c r="P46" s="182"/>
-      <c r="Q46" s="182"/>
-      <c r="R46" s="182"/>
-      <c r="S46" s="182"/>
-      <c r="T46" s="182"/>
-      <c r="U46" s="182"/>
-      <c r="V46" s="184" t="s">
+      <c r="C46" s="217"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="217"/>
+      <c r="F46" s="217"/>
+      <c r="G46" s="217"/>
+      <c r="H46" s="217"/>
+      <c r="I46" s="217"/>
+      <c r="J46" s="217"/>
+      <c r="K46" s="217"/>
+      <c r="L46" s="217"/>
+      <c r="M46" s="193"/>
+      <c r="N46" s="193"/>
+      <c r="O46" s="193"/>
+      <c r="P46" s="193"/>
+      <c r="Q46" s="193"/>
+      <c r="R46" s="193"/>
+      <c r="S46" s="193"/>
+      <c r="T46" s="193"/>
+      <c r="U46" s="193"/>
+      <c r="V46" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="W46" s="184"/>
-      <c r="X46" s="184"/>
-      <c r="Y46" s="184"/>
-      <c r="Z46" s="184"/>
-      <c r="AA46" s="184"/>
-      <c r="AB46" s="184"/>
-      <c r="AC46" s="184"/>
-      <c r="AD46" s="184"/>
-      <c r="AE46" s="184"/>
-      <c r="AF46" s="184"/>
-      <c r="AG46" s="184"/>
-      <c r="AH46" s="183" t="s">
+      <c r="W46" s="196"/>
+      <c r="X46" s="196"/>
+      <c r="Y46" s="196"/>
+      <c r="Z46" s="196"/>
+      <c r="AA46" s="196"/>
+      <c r="AB46" s="196"/>
+      <c r="AC46" s="196"/>
+      <c r="AD46" s="196"/>
+      <c r="AE46" s="196"/>
+      <c r="AF46" s="196"/>
+      <c r="AG46" s="196"/>
+      <c r="AH46" s="224" t="s">
         <v>107</v>
       </c>
-      <c r="AI46" s="182"/>
-      <c r="AJ46" s="182"/>
-      <c r="AK46" s="182"/>
-      <c r="AL46" s="182"/>
-      <c r="AM46" s="182"/>
-      <c r="AN46" s="182"/>
-      <c r="AO46" s="182"/>
-      <c r="AP46" s="180" t="s">
+      <c r="AI46" s="193"/>
+      <c r="AJ46" s="193"/>
+      <c r="AK46" s="193"/>
+      <c r="AL46" s="193"/>
+      <c r="AM46" s="193"/>
+      <c r="AN46" s="193"/>
+      <c r="AO46" s="193"/>
+      <c r="AP46" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="AQ46" s="180"/>
-      <c r="AR46" s="180"/>
-      <c r="AS46" s="180"/>
-      <c r="AT46" s="180"/>
-      <c r="AU46" s="180"/>
-      <c r="AV46" s="180"/>
-      <c r="AW46" s="180"/>
-      <c r="AX46" s="180"/>
-      <c r="AY46" s="180"/>
-      <c r="AZ46" s="182"/>
-      <c r="BA46" s="182"/>
-      <c r="BB46" s="182"/>
-      <c r="BC46" s="182"/>
-      <c r="BD46" s="182"/>
-      <c r="BE46" s="184" t="s">
+      <c r="AQ46" s="194"/>
+      <c r="AR46" s="194"/>
+      <c r="AS46" s="194"/>
+      <c r="AT46" s="194"/>
+      <c r="AU46" s="194"/>
+      <c r="AV46" s="194"/>
+      <c r="AW46" s="194"/>
+      <c r="AX46" s="194"/>
+      <c r="AY46" s="194"/>
+      <c r="AZ46" s="193"/>
+      <c r="BA46" s="193"/>
+      <c r="BB46" s="193"/>
+      <c r="BC46" s="193"/>
+      <c r="BD46" s="193"/>
+      <c r="BE46" s="196" t="s">
         <v>67</v>
       </c>
-      <c r="BF46" s="184"/>
-      <c r="BG46" s="184"/>
-      <c r="BH46" s="184"/>
-      <c r="BI46" s="184"/>
-      <c r="BJ46" s="184"/>
-      <c r="BK46" s="184"/>
-      <c r="BL46" s="184"/>
-      <c r="BM46" s="182"/>
-      <c r="BN46" s="182"/>
-      <c r="BO46" s="182"/>
-      <c r="BP46" s="182"/>
-      <c r="BQ46" s="182"/>
+      <c r="BF46" s="196"/>
+      <c r="BG46" s="196"/>
+      <c r="BH46" s="196"/>
+      <c r="BI46" s="196"/>
+      <c r="BJ46" s="196"/>
+      <c r="BK46" s="196"/>
+      <c r="BL46" s="196"/>
+      <c r="BM46" s="193"/>
+      <c r="BN46" s="193"/>
+      <c r="BO46" s="193"/>
+      <c r="BP46" s="193"/>
+      <c r="BQ46" s="193"/>
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B47" s="216" t="s">
+      <c r="B47" s="192" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="216"/>
-      <c r="D47" s="216"/>
-      <c r="E47" s="216"/>
-      <c r="F47" s="216"/>
-      <c r="G47" s="216"/>
-      <c r="H47" s="216"/>
-      <c r="I47" s="216"/>
-      <c r="J47" s="216"/>
-      <c r="K47" s="216"/>
-      <c r="L47" s="216"/>
-      <c r="M47" s="182"/>
-      <c r="N47" s="182"/>
-      <c r="O47" s="182"/>
-      <c r="P47" s="182"/>
-      <c r="Q47" s="182"/>
-      <c r="R47" s="182"/>
-      <c r="S47" s="182"/>
-      <c r="T47" s="182"/>
-      <c r="U47" s="182"/>
-      <c r="V47" s="186" t="s">
+      <c r="C47" s="192"/>
+      <c r="D47" s="192"/>
+      <c r="E47" s="192"/>
+      <c r="F47" s="192"/>
+      <c r="G47" s="192"/>
+      <c r="H47" s="192"/>
+      <c r="I47" s="192"/>
+      <c r="J47" s="192"/>
+      <c r="K47" s="192"/>
+      <c r="L47" s="192"/>
+      <c r="M47" s="193"/>
+      <c r="N47" s="193"/>
+      <c r="O47" s="193"/>
+      <c r="P47" s="193"/>
+      <c r="Q47" s="193"/>
+      <c r="R47" s="193"/>
+      <c r="S47" s="193"/>
+      <c r="T47" s="193"/>
+      <c r="U47" s="193"/>
+      <c r="V47" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="W47" s="186"/>
-      <c r="X47" s="186"/>
-      <c r="Y47" s="186"/>
-      <c r="Z47" s="186"/>
-      <c r="AA47" s="186"/>
-      <c r="AB47" s="186"/>
-      <c r="AC47" s="186"/>
-      <c r="AD47" s="186"/>
-      <c r="AE47" s="186"/>
-      <c r="AF47" s="186"/>
-      <c r="AG47" s="186"/>
-      <c r="AH47" s="182"/>
-      <c r="AI47" s="182"/>
-      <c r="AJ47" s="182"/>
-      <c r="AK47" s="182"/>
-      <c r="AL47" s="182"/>
-      <c r="AM47" s="182"/>
-      <c r="AN47" s="182"/>
-      <c r="AO47" s="182"/>
-      <c r="AP47" s="186" t="s">
+      <c r="W47" s="197"/>
+      <c r="X47" s="197"/>
+      <c r="Y47" s="197"/>
+      <c r="Z47" s="197"/>
+      <c r="AA47" s="197"/>
+      <c r="AB47" s="197"/>
+      <c r="AC47" s="197"/>
+      <c r="AD47" s="197"/>
+      <c r="AE47" s="197"/>
+      <c r="AF47" s="197"/>
+      <c r="AG47" s="197"/>
+      <c r="AH47" s="193"/>
+      <c r="AI47" s="193"/>
+      <c r="AJ47" s="193"/>
+      <c r="AK47" s="193"/>
+      <c r="AL47" s="193"/>
+      <c r="AM47" s="193"/>
+      <c r="AN47" s="193"/>
+      <c r="AO47" s="193"/>
+      <c r="AP47" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="AQ47" s="186"/>
-      <c r="AR47" s="186"/>
-      <c r="AS47" s="186"/>
-      <c r="AT47" s="186"/>
-      <c r="AU47" s="186"/>
-      <c r="AV47" s="186"/>
-      <c r="AW47" s="186"/>
-      <c r="AX47" s="186"/>
-      <c r="AY47" s="186"/>
-      <c r="AZ47" s="182"/>
-      <c r="BA47" s="182"/>
-      <c r="BB47" s="182"/>
-      <c r="BC47" s="182"/>
-      <c r="BD47" s="182"/>
-      <c r="BE47" s="181" t="s">
+      <c r="AQ47" s="197"/>
+      <c r="AR47" s="197"/>
+      <c r="AS47" s="197"/>
+      <c r="AT47" s="197"/>
+      <c r="AU47" s="197"/>
+      <c r="AV47" s="197"/>
+      <c r="AW47" s="197"/>
+      <c r="AX47" s="197"/>
+      <c r="AY47" s="197"/>
+      <c r="AZ47" s="193"/>
+      <c r="BA47" s="193"/>
+      <c r="BB47" s="193"/>
+      <c r="BC47" s="193"/>
+      <c r="BD47" s="193"/>
+      <c r="BE47" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="BF47" s="181"/>
-      <c r="BG47" s="181"/>
-      <c r="BH47" s="181"/>
-      <c r="BI47" s="181"/>
-      <c r="BJ47" s="181"/>
-      <c r="BK47" s="181"/>
-      <c r="BL47" s="181"/>
-      <c r="BM47" s="182" t="s">
+      <c r="BF47" s="198"/>
+      <c r="BG47" s="198"/>
+      <c r="BH47" s="198"/>
+      <c r="BI47" s="198"/>
+      <c r="BJ47" s="198"/>
+      <c r="BK47" s="198"/>
+      <c r="BL47" s="198"/>
+      <c r="BM47" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="BN47" s="182"/>
-      <c r="BO47" s="182"/>
-      <c r="BP47" s="182"/>
-      <c r="BQ47" s="182"/>
+      <c r="BN47" s="193"/>
+      <c r="BO47" s="193"/>
+      <c r="BP47" s="193"/>
+      <c r="BQ47" s="193"/>
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B48" s="200" t="s">
+      <c r="B48" s="203" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="200"/>
-      <c r="D48" s="200"/>
-      <c r="E48" s="200"/>
-      <c r="F48" s="200"/>
-      <c r="G48" s="200"/>
-      <c r="H48" s="200"/>
-      <c r="I48" s="200"/>
-      <c r="J48" s="200"/>
-      <c r="K48" s="200"/>
-      <c r="L48" s="200"/>
-      <c r="M48" s="182"/>
-      <c r="N48" s="182"/>
-      <c r="O48" s="182"/>
-      <c r="P48" s="182"/>
-      <c r="Q48" s="182"/>
-      <c r="R48" s="182"/>
-      <c r="S48" s="182"/>
-      <c r="T48" s="182"/>
-      <c r="U48" s="182"/>
-      <c r="V48" s="180" t="s">
+      <c r="C48" s="203"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="203"/>
+      <c r="G48" s="203"/>
+      <c r="H48" s="203"/>
+      <c r="I48" s="203"/>
+      <c r="J48" s="203"/>
+      <c r="K48" s="203"/>
+      <c r="L48" s="203"/>
+      <c r="M48" s="193"/>
+      <c r="N48" s="193"/>
+      <c r="O48" s="193"/>
+      <c r="P48" s="193"/>
+      <c r="Q48" s="193"/>
+      <c r="R48" s="193"/>
+      <c r="S48" s="193"/>
+      <c r="T48" s="193"/>
+      <c r="U48" s="193"/>
+      <c r="V48" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="W48" s="180"/>
-      <c r="X48" s="180"/>
-      <c r="Y48" s="180"/>
-      <c r="Z48" s="180"/>
-      <c r="AA48" s="180"/>
-      <c r="AB48" s="180"/>
-      <c r="AC48" s="180"/>
-      <c r="AD48" s="180"/>
-      <c r="AE48" s="180"/>
-      <c r="AF48" s="180"/>
-      <c r="AG48" s="180"/>
-      <c r="AH48" s="182"/>
-      <c r="AI48" s="182"/>
-      <c r="AJ48" s="182"/>
-      <c r="AK48" s="182"/>
-      <c r="AL48" s="182"/>
-      <c r="AM48" s="182"/>
-      <c r="AN48" s="182"/>
-      <c r="AO48" s="182"/>
-      <c r="AP48" s="186" t="s">
+      <c r="W48" s="194"/>
+      <c r="X48" s="194"/>
+      <c r="Y48" s="194"/>
+      <c r="Z48" s="194"/>
+      <c r="AA48" s="194"/>
+      <c r="AB48" s="194"/>
+      <c r="AC48" s="194"/>
+      <c r="AD48" s="194"/>
+      <c r="AE48" s="194"/>
+      <c r="AF48" s="194"/>
+      <c r="AG48" s="194"/>
+      <c r="AH48" s="193"/>
+      <c r="AI48" s="193"/>
+      <c r="AJ48" s="193"/>
+      <c r="AK48" s="193"/>
+      <c r="AL48" s="193"/>
+      <c r="AM48" s="193"/>
+      <c r="AN48" s="193"/>
+      <c r="AO48" s="193"/>
+      <c r="AP48" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="AQ48" s="186"/>
-      <c r="AR48" s="186"/>
-      <c r="AS48" s="186"/>
-      <c r="AT48" s="186"/>
-      <c r="AU48" s="186"/>
-      <c r="AV48" s="186"/>
-      <c r="AW48" s="186"/>
-      <c r="AX48" s="186"/>
-      <c r="AY48" s="186"/>
-      <c r="AZ48" s="182" t="s">
+      <c r="AQ48" s="197"/>
+      <c r="AR48" s="197"/>
+      <c r="AS48" s="197"/>
+      <c r="AT48" s="197"/>
+      <c r="AU48" s="197"/>
+      <c r="AV48" s="197"/>
+      <c r="AW48" s="197"/>
+      <c r="AX48" s="197"/>
+      <c r="AY48" s="197"/>
+      <c r="AZ48" s="193" t="s">
         <v>72</v>
       </c>
-      <c r="BA48" s="182"/>
-      <c r="BB48" s="182"/>
-      <c r="BC48" s="182"/>
-      <c r="BD48" s="182"/>
-      <c r="BE48" s="185" t="s">
+      <c r="BA48" s="193"/>
+      <c r="BB48" s="193"/>
+      <c r="BC48" s="193"/>
+      <c r="BD48" s="193"/>
+      <c r="BE48" s="222" t="s">
         <v>81</v>
       </c>
-      <c r="BF48" s="185"/>
-      <c r="BG48" s="185"/>
-      <c r="BH48" s="185"/>
-      <c r="BI48" s="185"/>
-      <c r="BJ48" s="185"/>
-      <c r="BK48" s="185"/>
-      <c r="BL48" s="185"/>
-      <c r="BM48" s="182"/>
-      <c r="BN48" s="182"/>
-      <c r="BO48" s="182"/>
-      <c r="BP48" s="182"/>
-      <c r="BQ48" s="182"/>
+      <c r="BF48" s="222"/>
+      <c r="BG48" s="222"/>
+      <c r="BH48" s="222"/>
+      <c r="BI48" s="222"/>
+      <c r="BJ48" s="222"/>
+      <c r="BK48" s="222"/>
+      <c r="BL48" s="222"/>
+      <c r="BM48" s="193"/>
+      <c r="BN48" s="193"/>
+      <c r="BO48" s="193"/>
+      <c r="BP48" s="193"/>
+      <c r="BQ48" s="193"/>
     </row>
     <row r="49" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B49" s="188" t="s">
+      <c r="B49" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="188"/>
-      <c r="D49" s="188"/>
-      <c r="E49" s="188"/>
-      <c r="F49" s="188"/>
-      <c r="G49" s="188"/>
-      <c r="H49" s="188"/>
-      <c r="I49" s="188"/>
-      <c r="J49" s="188"/>
-      <c r="K49" s="188"/>
-      <c r="L49" s="188"/>
-      <c r="M49" s="182"/>
-      <c r="N49" s="182"/>
-      <c r="O49" s="182"/>
-      <c r="P49" s="182"/>
-      <c r="Q49" s="182"/>
-      <c r="R49" s="182"/>
-      <c r="S49" s="182"/>
-      <c r="T49" s="182"/>
-      <c r="U49" s="182"/>
-      <c r="V49" s="181" t="s">
+      <c r="C49" s="199"/>
+      <c r="D49" s="199"/>
+      <c r="E49" s="199"/>
+      <c r="F49" s="199"/>
+      <c r="G49" s="199"/>
+      <c r="H49" s="199"/>
+      <c r="I49" s="199"/>
+      <c r="J49" s="199"/>
+      <c r="K49" s="199"/>
+      <c r="L49" s="199"/>
+      <c r="M49" s="193"/>
+      <c r="N49" s="193"/>
+      <c r="O49" s="193"/>
+      <c r="P49" s="193"/>
+      <c r="Q49" s="193"/>
+      <c r="R49" s="193"/>
+      <c r="S49" s="193"/>
+      <c r="T49" s="193"/>
+      <c r="U49" s="193"/>
+      <c r="V49" s="198" t="s">
         <v>88</v>
       </c>
-      <c r="W49" s="181"/>
-      <c r="X49" s="181"/>
-      <c r="Y49" s="181"/>
-      <c r="Z49" s="181"/>
-      <c r="AA49" s="181"/>
-      <c r="AB49" s="181"/>
-      <c r="AC49" s="181"/>
-      <c r="AD49" s="181"/>
-      <c r="AE49" s="181"/>
-      <c r="AF49" s="181"/>
-      <c r="AG49" s="181"/>
-      <c r="AH49" s="182"/>
-      <c r="AI49" s="182"/>
-      <c r="AJ49" s="182"/>
-      <c r="AK49" s="182"/>
-      <c r="AL49" s="182"/>
-      <c r="AM49" s="182"/>
-      <c r="AN49" s="182"/>
-      <c r="AO49" s="182"/>
-      <c r="AP49" s="188" t="s">
+      <c r="W49" s="198"/>
+      <c r="X49" s="198"/>
+      <c r="Y49" s="198"/>
+      <c r="Z49" s="198"/>
+      <c r="AA49" s="198"/>
+      <c r="AB49" s="198"/>
+      <c r="AC49" s="198"/>
+      <c r="AD49" s="198"/>
+      <c r="AE49" s="198"/>
+      <c r="AF49" s="198"/>
+      <c r="AG49" s="198"/>
+      <c r="AH49" s="193"/>
+      <c r="AI49" s="193"/>
+      <c r="AJ49" s="193"/>
+      <c r="AK49" s="193"/>
+      <c r="AL49" s="193"/>
+      <c r="AM49" s="193"/>
+      <c r="AN49" s="193"/>
+      <c r="AO49" s="193"/>
+      <c r="AP49" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="AQ49" s="188"/>
-      <c r="AR49" s="188"/>
-      <c r="AS49" s="188"/>
-      <c r="AT49" s="188"/>
-      <c r="AU49" s="188"/>
-      <c r="AV49" s="188"/>
-      <c r="AW49" s="188"/>
-      <c r="AX49" s="188"/>
-      <c r="AY49" s="188"/>
-      <c r="AZ49" s="182"/>
-      <c r="BA49" s="182"/>
-      <c r="BB49" s="182"/>
-      <c r="BC49" s="182"/>
-      <c r="BD49" s="182"/>
-      <c r="BE49" s="179" t="s">
+      <c r="AQ49" s="199"/>
+      <c r="AR49" s="199"/>
+      <c r="AS49" s="199"/>
+      <c r="AT49" s="199"/>
+      <c r="AU49" s="199"/>
+      <c r="AV49" s="199"/>
+      <c r="AW49" s="199"/>
+      <c r="AX49" s="199"/>
+      <c r="AY49" s="199"/>
+      <c r="AZ49" s="193"/>
+      <c r="BA49" s="193"/>
+      <c r="BB49" s="193"/>
+      <c r="BC49" s="193"/>
+      <c r="BD49" s="193"/>
+      <c r="BE49" s="227" t="s">
         <v>78</v>
       </c>
-      <c r="BF49" s="179"/>
-      <c r="BG49" s="179"/>
-      <c r="BH49" s="179"/>
-      <c r="BI49" s="179"/>
-      <c r="BJ49" s="179"/>
-      <c r="BK49" s="179"/>
-      <c r="BL49" s="179"/>
-      <c r="BM49" s="182" t="s">
+      <c r="BF49" s="227"/>
+      <c r="BG49" s="227"/>
+      <c r="BH49" s="227"/>
+      <c r="BI49" s="227"/>
+      <c r="BJ49" s="227"/>
+      <c r="BK49" s="227"/>
+      <c r="BL49" s="227"/>
+      <c r="BM49" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="BN49" s="182"/>
-      <c r="BO49" s="182"/>
-      <c r="BP49" s="182"/>
-      <c r="BQ49" s="182"/>
+      <c r="BN49" s="193"/>
+      <c r="BO49" s="193"/>
+      <c r="BP49" s="193"/>
+      <c r="BQ49" s="193"/>
     </row>
     <row r="50" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B50" s="201" t="s">
+      <c r="B50" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="201"/>
-      <c r="D50" s="201"/>
-      <c r="E50" s="201"/>
-      <c r="F50" s="201"/>
-      <c r="G50" s="201"/>
-      <c r="H50" s="201"/>
-      <c r="I50" s="201"/>
-      <c r="J50" s="201"/>
-      <c r="K50" s="201"/>
-      <c r="L50" s="201"/>
-      <c r="M50" s="182"/>
-      <c r="N50" s="182"/>
-      <c r="O50" s="182"/>
-      <c r="P50" s="182"/>
-      <c r="Q50" s="182"/>
-      <c r="R50" s="182"/>
-      <c r="S50" s="182"/>
-      <c r="T50" s="182"/>
-      <c r="U50" s="182"/>
-      <c r="V50" s="201" t="s">
+      <c r="C50" s="195"/>
+      <c r="D50" s="195"/>
+      <c r="E50" s="195"/>
+      <c r="F50" s="195"/>
+      <c r="G50" s="195"/>
+      <c r="H50" s="195"/>
+      <c r="I50" s="195"/>
+      <c r="J50" s="195"/>
+      <c r="K50" s="195"/>
+      <c r="L50" s="195"/>
+      <c r="M50" s="193"/>
+      <c r="N50" s="193"/>
+      <c r="O50" s="193"/>
+      <c r="P50" s="193"/>
+      <c r="Q50" s="193"/>
+      <c r="R50" s="193"/>
+      <c r="S50" s="193"/>
+      <c r="T50" s="193"/>
+      <c r="U50" s="193"/>
+      <c r="V50" s="195" t="s">
         <v>89</v>
       </c>
-      <c r="W50" s="201"/>
-      <c r="X50" s="201"/>
-      <c r="Y50" s="201"/>
-      <c r="Z50" s="201"/>
-      <c r="AA50" s="201"/>
-      <c r="AB50" s="201"/>
-      <c r="AC50" s="201"/>
-      <c r="AD50" s="201"/>
-      <c r="AE50" s="201"/>
-      <c r="AF50" s="201"/>
-      <c r="AG50" s="201"/>
-      <c r="AH50" s="182"/>
-      <c r="AI50" s="182"/>
-      <c r="AJ50" s="182"/>
-      <c r="AK50" s="182"/>
-      <c r="AL50" s="182"/>
-      <c r="AM50" s="182"/>
-      <c r="AN50" s="182"/>
-      <c r="AO50" s="182"/>
-      <c r="AP50" s="180" t="s">
+      <c r="W50" s="195"/>
+      <c r="X50" s="195"/>
+      <c r="Y50" s="195"/>
+      <c r="Z50" s="195"/>
+      <c r="AA50" s="195"/>
+      <c r="AB50" s="195"/>
+      <c r="AC50" s="195"/>
+      <c r="AD50" s="195"/>
+      <c r="AE50" s="195"/>
+      <c r="AF50" s="195"/>
+      <c r="AG50" s="195"/>
+      <c r="AH50" s="193"/>
+      <c r="AI50" s="193"/>
+      <c r="AJ50" s="193"/>
+      <c r="AK50" s="193"/>
+      <c r="AL50" s="193"/>
+      <c r="AM50" s="193"/>
+      <c r="AN50" s="193"/>
+      <c r="AO50" s="193"/>
+      <c r="AP50" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="AQ50" s="180"/>
-      <c r="AR50" s="180"/>
-      <c r="AS50" s="180"/>
-      <c r="AT50" s="180"/>
-      <c r="AU50" s="180"/>
-      <c r="AV50" s="180"/>
-      <c r="AW50" s="180"/>
-      <c r="AX50" s="180"/>
-      <c r="AY50" s="180"/>
-      <c r="AZ50" s="182"/>
-      <c r="BA50" s="182"/>
-      <c r="BB50" s="182"/>
-      <c r="BC50" s="182"/>
-      <c r="BD50" s="182"/>
-      <c r="BE50" s="180" t="s">
+      <c r="AQ50" s="194"/>
+      <c r="AR50" s="194"/>
+      <c r="AS50" s="194"/>
+      <c r="AT50" s="194"/>
+      <c r="AU50" s="194"/>
+      <c r="AV50" s="194"/>
+      <c r="AW50" s="194"/>
+      <c r="AX50" s="194"/>
+      <c r="AY50" s="194"/>
+      <c r="AZ50" s="193"/>
+      <c r="BA50" s="193"/>
+      <c r="BB50" s="193"/>
+      <c r="BC50" s="193"/>
+      <c r="BD50" s="193"/>
+      <c r="BE50" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="BF50" s="180"/>
-      <c r="BG50" s="180"/>
-      <c r="BH50" s="180"/>
-      <c r="BI50" s="180"/>
-      <c r="BJ50" s="180"/>
-      <c r="BK50" s="180"/>
-      <c r="BL50" s="180"/>
-      <c r="BM50" s="182" t="s">
+      <c r="BF50" s="194"/>
+      <c r="BG50" s="194"/>
+      <c r="BH50" s="194"/>
+      <c r="BI50" s="194"/>
+      <c r="BJ50" s="194"/>
+      <c r="BK50" s="194"/>
+      <c r="BL50" s="194"/>
+      <c r="BM50" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="BN50" s="182"/>
-      <c r="BO50" s="182"/>
-      <c r="BP50" s="182"/>
-      <c r="BQ50" s="182"/>
+      <c r="BN50" s="193"/>
+      <c r="BO50" s="193"/>
+      <c r="BP50" s="193"/>
+      <c r="BQ50" s="193"/>
     </row>
     <row r="51" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B51" s="180" t="s">
+      <c r="B51" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="180"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="180"/>
-      <c r="F51" s="180"/>
-      <c r="G51" s="180"/>
-      <c r="H51" s="180"/>
-      <c r="I51" s="180"/>
-      <c r="J51" s="180"/>
-      <c r="K51" s="180"/>
-      <c r="L51" s="180"/>
-      <c r="M51" s="182"/>
-      <c r="N51" s="182"/>
-      <c r="O51" s="182"/>
-      <c r="P51" s="182"/>
-      <c r="Q51" s="182"/>
-      <c r="R51" s="182"/>
-      <c r="S51" s="182"/>
-      <c r="T51" s="182"/>
-      <c r="U51" s="182"/>
-      <c r="V51" s="188" t="s">
+      <c r="C51" s="194"/>
+      <c r="D51" s="194"/>
+      <c r="E51" s="194"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="194"/>
+      <c r="J51" s="194"/>
+      <c r="K51" s="194"/>
+      <c r="L51" s="194"/>
+      <c r="M51" s="193"/>
+      <c r="N51" s="193"/>
+      <c r="O51" s="193"/>
+      <c r="P51" s="193"/>
+      <c r="Q51" s="193"/>
+      <c r="R51" s="193"/>
+      <c r="S51" s="193"/>
+      <c r="T51" s="193"/>
+      <c r="U51" s="193"/>
+      <c r="V51" s="199" t="s">
         <v>90</v>
       </c>
-      <c r="W51" s="188"/>
-      <c r="X51" s="188"/>
-      <c r="Y51" s="188"/>
-      <c r="Z51" s="188"/>
-      <c r="AA51" s="188"/>
-      <c r="AB51" s="188"/>
-      <c r="AC51" s="188"/>
-      <c r="AD51" s="188"/>
-      <c r="AE51" s="188"/>
-      <c r="AF51" s="188"/>
-      <c r="AG51" s="188"/>
-      <c r="AH51" s="182"/>
-      <c r="AI51" s="182"/>
-      <c r="AJ51" s="182"/>
-      <c r="AK51" s="182"/>
-      <c r="AL51" s="182"/>
-      <c r="AM51" s="182"/>
-      <c r="AN51" s="182"/>
-      <c r="AO51" s="182"/>
-      <c r="AP51" s="181" t="s">
+      <c r="W51" s="199"/>
+      <c r="X51" s="199"/>
+      <c r="Y51" s="199"/>
+      <c r="Z51" s="199"/>
+      <c r="AA51" s="199"/>
+      <c r="AB51" s="199"/>
+      <c r="AC51" s="199"/>
+      <c r="AD51" s="199"/>
+      <c r="AE51" s="199"/>
+      <c r="AF51" s="199"/>
+      <c r="AG51" s="199"/>
+      <c r="AH51" s="193"/>
+      <c r="AI51" s="193"/>
+      <c r="AJ51" s="193"/>
+      <c r="AK51" s="193"/>
+      <c r="AL51" s="193"/>
+      <c r="AM51" s="193"/>
+      <c r="AN51" s="193"/>
+      <c r="AO51" s="193"/>
+      <c r="AP51" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="AQ51" s="181"/>
-      <c r="AR51" s="181"/>
-      <c r="AS51" s="181"/>
-      <c r="AT51" s="181"/>
-      <c r="AU51" s="181"/>
-      <c r="AV51" s="181"/>
-      <c r="AW51" s="181"/>
-      <c r="AX51" s="181"/>
-      <c r="AY51" s="181"/>
-      <c r="AZ51" s="182" t="s">
+      <c r="AQ51" s="198"/>
+      <c r="AR51" s="198"/>
+      <c r="AS51" s="198"/>
+      <c r="AT51" s="198"/>
+      <c r="AU51" s="198"/>
+      <c r="AV51" s="198"/>
+      <c r="AW51" s="198"/>
+      <c r="AX51" s="198"/>
+      <c r="AY51" s="198"/>
+      <c r="AZ51" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="BA51" s="182"/>
-      <c r="BB51" s="182"/>
-      <c r="BC51" s="182"/>
-      <c r="BD51" s="182"/>
-      <c r="BE51" s="181" t="s">
+      <c r="BA51" s="193"/>
+      <c r="BB51" s="193"/>
+      <c r="BC51" s="193"/>
+      <c r="BD51" s="193"/>
+      <c r="BE51" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="BF51" s="181"/>
-      <c r="BG51" s="181"/>
-      <c r="BH51" s="181"/>
-      <c r="BI51" s="181"/>
-      <c r="BJ51" s="181"/>
-      <c r="BK51" s="181"/>
-      <c r="BL51" s="181"/>
-      <c r="BM51" s="182" t="s">
+      <c r="BF51" s="198"/>
+      <c r="BG51" s="198"/>
+      <c r="BH51" s="198"/>
+      <c r="BI51" s="198"/>
+      <c r="BJ51" s="198"/>
+      <c r="BK51" s="198"/>
+      <c r="BL51" s="198"/>
+      <c r="BM51" s="193" t="s">
         <v>94</v>
       </c>
-      <c r="BN51" s="182"/>
-      <c r="BO51" s="182"/>
-      <c r="BP51" s="182"/>
-      <c r="BQ51" s="182"/>
+      <c r="BN51" s="193"/>
+      <c r="BO51" s="193"/>
+      <c r="BP51" s="193"/>
+      <c r="BQ51" s="193"/>
     </row>
     <row r="52" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B52" s="186" t="s">
+      <c r="B52" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="186"/>
-      <c r="D52" s="186"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="186"/>
-      <c r="G52" s="186"/>
-      <c r="H52" s="186"/>
-      <c r="I52" s="186"/>
-      <c r="J52" s="186"/>
-      <c r="K52" s="186"/>
-      <c r="L52" s="186"/>
-      <c r="M52" s="192" t="s">
+      <c r="C52" s="197"/>
+      <c r="D52" s="197"/>
+      <c r="E52" s="197"/>
+      <c r="F52" s="197"/>
+      <c r="G52" s="197"/>
+      <c r="H52" s="197"/>
+      <c r="I52" s="197"/>
+      <c r="J52" s="197"/>
+      <c r="K52" s="197"/>
+      <c r="L52" s="197"/>
+      <c r="M52" s="218" t="s">
         <v>105</v>
       </c>
-      <c r="N52" s="192"/>
-      <c r="O52" s="192"/>
-      <c r="P52" s="192"/>
-      <c r="Q52" s="192"/>
-      <c r="R52" s="192"/>
-      <c r="S52" s="192"/>
-      <c r="T52" s="192"/>
-      <c r="U52" s="192"/>
-      <c r="V52" s="195" t="s">
+      <c r="N52" s="218"/>
+      <c r="O52" s="218"/>
+      <c r="P52" s="218"/>
+      <c r="Q52" s="218"/>
+      <c r="R52" s="218"/>
+      <c r="S52" s="218"/>
+      <c r="T52" s="218"/>
+      <c r="U52" s="218"/>
+      <c r="V52" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="W52" s="195"/>
-      <c r="X52" s="195"/>
-      <c r="Y52" s="195"/>
-      <c r="Z52" s="195"/>
-      <c r="AA52" s="195"/>
-      <c r="AB52" s="195"/>
-      <c r="AC52" s="195"/>
-      <c r="AD52" s="195"/>
-      <c r="AE52" s="195"/>
-      <c r="AF52" s="195"/>
-      <c r="AG52" s="195"/>
-      <c r="AH52" s="182"/>
-      <c r="AI52" s="182"/>
-      <c r="AJ52" s="182"/>
-      <c r="AK52" s="182"/>
-      <c r="AL52" s="182"/>
-      <c r="AM52" s="182"/>
-      <c r="AN52" s="182"/>
-      <c r="AO52" s="182"/>
-      <c r="AP52" s="180" t="s">
+      <c r="W52" s="220"/>
+      <c r="X52" s="220"/>
+      <c r="Y52" s="220"/>
+      <c r="Z52" s="220"/>
+      <c r="AA52" s="220"/>
+      <c r="AB52" s="220"/>
+      <c r="AC52" s="220"/>
+      <c r="AD52" s="220"/>
+      <c r="AE52" s="220"/>
+      <c r="AF52" s="220"/>
+      <c r="AG52" s="220"/>
+      <c r="AH52" s="193"/>
+      <c r="AI52" s="193"/>
+      <c r="AJ52" s="193"/>
+      <c r="AK52" s="193"/>
+      <c r="AL52" s="193"/>
+      <c r="AM52" s="193"/>
+      <c r="AN52" s="193"/>
+      <c r="AO52" s="193"/>
+      <c r="AP52" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="AQ52" s="180"/>
-      <c r="AR52" s="180"/>
-      <c r="AS52" s="180"/>
-      <c r="AT52" s="180"/>
-      <c r="AU52" s="180"/>
-      <c r="AV52" s="180"/>
-      <c r="AW52" s="180"/>
-      <c r="AX52" s="180"/>
-      <c r="AY52" s="180"/>
-      <c r="AZ52" s="182"/>
-      <c r="BA52" s="182"/>
-      <c r="BB52" s="182"/>
-      <c r="BC52" s="182"/>
-      <c r="BD52" s="182"/>
+      <c r="AQ52" s="194"/>
+      <c r="AR52" s="194"/>
+      <c r="AS52" s="194"/>
+      <c r="AT52" s="194"/>
+      <c r="AU52" s="194"/>
+      <c r="AV52" s="194"/>
+      <c r="AW52" s="194"/>
+      <c r="AX52" s="194"/>
+      <c r="AY52" s="194"/>
+      <c r="AZ52" s="193"/>
+      <c r="BA52" s="193"/>
+      <c r="BB52" s="193"/>
+      <c r="BC52" s="193"/>
+      <c r="BD52" s="193"/>
       <c r="BE52" s="34"/>
       <c r="BF52" s="34"/>
       <c r="BG52" s="34"/>
@@ -5840,69 +5800,69 @@
       <c r="BN52" s="35"/>
     </row>
     <row r="53" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B53" s="185" t="s">
+      <c r="B53" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="185"/>
-      <c r="D53" s="185"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="185"/>
-      <c r="G53" s="185"/>
-      <c r="H53" s="185"/>
-      <c r="I53" s="185"/>
-      <c r="J53" s="185"/>
-      <c r="K53" s="185"/>
-      <c r="L53" s="185"/>
-      <c r="M53" s="192" t="s">
+      <c r="C53" s="222"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="222"/>
+      <c r="F53" s="222"/>
+      <c r="G53" s="222"/>
+      <c r="H53" s="222"/>
+      <c r="I53" s="222"/>
+      <c r="J53" s="222"/>
+      <c r="K53" s="222"/>
+      <c r="L53" s="222"/>
+      <c r="M53" s="218" t="s">
         <v>62</v>
       </c>
-      <c r="N53" s="192"/>
-      <c r="O53" s="192"/>
-      <c r="P53" s="192"/>
-      <c r="Q53" s="192"/>
-      <c r="R53" s="192"/>
-      <c r="S53" s="192"/>
-      <c r="T53" s="192"/>
-      <c r="U53" s="192"/>
-      <c r="V53" s="196" t="s">
+      <c r="N53" s="218"/>
+      <c r="O53" s="218"/>
+      <c r="P53" s="218"/>
+      <c r="Q53" s="218"/>
+      <c r="R53" s="218"/>
+      <c r="S53" s="218"/>
+      <c r="T53" s="218"/>
+      <c r="U53" s="218"/>
+      <c r="V53" s="221" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="196"/>
-      <c r="X53" s="196"/>
-      <c r="Y53" s="196"/>
-      <c r="Z53" s="196"/>
-      <c r="AA53" s="196"/>
-      <c r="AB53" s="196"/>
-      <c r="AC53" s="196"/>
-      <c r="AD53" s="196"/>
-      <c r="AE53" s="196"/>
-      <c r="AF53" s="196"/>
-      <c r="AG53" s="196"/>
-      <c r="AH53" s="182"/>
-      <c r="AI53" s="182"/>
-      <c r="AJ53" s="182"/>
-      <c r="AK53" s="182"/>
-      <c r="AL53" s="182"/>
-      <c r="AM53" s="182"/>
-      <c r="AN53" s="182"/>
-      <c r="AO53" s="182"/>
-      <c r="AP53" s="186" t="s">
+      <c r="W53" s="221"/>
+      <c r="X53" s="221"/>
+      <c r="Y53" s="221"/>
+      <c r="Z53" s="221"/>
+      <c r="AA53" s="221"/>
+      <c r="AB53" s="221"/>
+      <c r="AC53" s="221"/>
+      <c r="AD53" s="221"/>
+      <c r="AE53" s="221"/>
+      <c r="AF53" s="221"/>
+      <c r="AG53" s="221"/>
+      <c r="AH53" s="193"/>
+      <c r="AI53" s="193"/>
+      <c r="AJ53" s="193"/>
+      <c r="AK53" s="193"/>
+      <c r="AL53" s="193"/>
+      <c r="AM53" s="193"/>
+      <c r="AN53" s="193"/>
+      <c r="AO53" s="193"/>
+      <c r="AP53" s="197" t="s">
         <v>59</v>
       </c>
-      <c r="AQ53" s="186"/>
-      <c r="AR53" s="186"/>
-      <c r="AS53" s="186"/>
-      <c r="AT53" s="186"/>
-      <c r="AU53" s="186"/>
-      <c r="AV53" s="186"/>
-      <c r="AW53" s="186"/>
-      <c r="AX53" s="186"/>
-      <c r="AY53" s="186"/>
-      <c r="AZ53" s="182"/>
-      <c r="BA53" s="182"/>
-      <c r="BB53" s="182"/>
-      <c r="BC53" s="182"/>
-      <c r="BD53" s="182"/>
+      <c r="AQ53" s="197"/>
+      <c r="AR53" s="197"/>
+      <c r="AS53" s="197"/>
+      <c r="AT53" s="197"/>
+      <c r="AU53" s="197"/>
+      <c r="AV53" s="197"/>
+      <c r="AW53" s="197"/>
+      <c r="AX53" s="197"/>
+      <c r="AY53" s="197"/>
+      <c r="AZ53" s="193"/>
+      <c r="BA53" s="193"/>
+      <c r="BB53" s="193"/>
+      <c r="BC53" s="193"/>
+      <c r="BD53" s="193"/>
       <c r="BE53" s="34"/>
       <c r="BF53" s="34"/>
       <c r="BG53" s="34"/>
@@ -5915,71 +5875,71 @@
       <c r="BN53" s="34"/>
     </row>
     <row r="54" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="197" t="s">
+      <c r="B54" s="223" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="197"/>
-      <c r="D54" s="197"/>
-      <c r="E54" s="197"/>
-      <c r="F54" s="197"/>
-      <c r="G54" s="197"/>
-      <c r="H54" s="197"/>
-      <c r="I54" s="197"/>
-      <c r="J54" s="197"/>
-      <c r="K54" s="197"/>
-      <c r="L54" s="197"/>
-      <c r="M54" s="192" t="s">
+      <c r="C54" s="223"/>
+      <c r="D54" s="223"/>
+      <c r="E54" s="223"/>
+      <c r="F54" s="223"/>
+      <c r="G54" s="223"/>
+      <c r="H54" s="223"/>
+      <c r="I54" s="223"/>
+      <c r="J54" s="223"/>
+      <c r="K54" s="223"/>
+      <c r="L54" s="223"/>
+      <c r="M54" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="N54" s="192"/>
-      <c r="O54" s="192"/>
-      <c r="P54" s="192"/>
-      <c r="Q54" s="192"/>
-      <c r="R54" s="192"/>
-      <c r="S54" s="192"/>
-      <c r="T54" s="192"/>
-      <c r="U54" s="192"/>
-      <c r="V54" s="187" t="s">
+      <c r="N54" s="218"/>
+      <c r="O54" s="218"/>
+      <c r="P54" s="218"/>
+      <c r="Q54" s="218"/>
+      <c r="R54" s="218"/>
+      <c r="S54" s="218"/>
+      <c r="T54" s="218"/>
+      <c r="U54" s="218"/>
+      <c r="V54" s="200" t="s">
         <v>106</v>
       </c>
-      <c r="W54" s="187"/>
-      <c r="X54" s="187"/>
-      <c r="Y54" s="187"/>
-      <c r="Z54" s="187"/>
-      <c r="AA54" s="187"/>
-      <c r="AB54" s="187"/>
-      <c r="AC54" s="187"/>
-      <c r="AD54" s="187"/>
-      <c r="AE54" s="187"/>
-      <c r="AF54" s="187"/>
-      <c r="AG54" s="187"/>
-      <c r="AH54" s="182"/>
-      <c r="AI54" s="182"/>
-      <c r="AJ54" s="182"/>
-      <c r="AK54" s="182"/>
-      <c r="AL54" s="182"/>
-      <c r="AM54" s="182"/>
-      <c r="AN54" s="182"/>
-      <c r="AO54" s="182"/>
-      <c r="AP54" s="187" t="s">
+      <c r="W54" s="200"/>
+      <c r="X54" s="200"/>
+      <c r="Y54" s="200"/>
+      <c r="Z54" s="200"/>
+      <c r="AA54" s="200"/>
+      <c r="AB54" s="200"/>
+      <c r="AC54" s="200"/>
+      <c r="AD54" s="200"/>
+      <c r="AE54" s="200"/>
+      <c r="AF54" s="200"/>
+      <c r="AG54" s="200"/>
+      <c r="AH54" s="193"/>
+      <c r="AI54" s="193"/>
+      <c r="AJ54" s="193"/>
+      <c r="AK54" s="193"/>
+      <c r="AL54" s="193"/>
+      <c r="AM54" s="193"/>
+      <c r="AN54" s="193"/>
+      <c r="AO54" s="193"/>
+      <c r="AP54" s="200" t="s">
         <v>31</v>
       </c>
-      <c r="AQ54" s="187"/>
-      <c r="AR54" s="187"/>
-      <c r="AS54" s="187"/>
-      <c r="AT54" s="187"/>
-      <c r="AU54" s="187"/>
-      <c r="AV54" s="187"/>
-      <c r="AW54" s="187"/>
-      <c r="AX54" s="187"/>
-      <c r="AY54" s="187"/>
-      <c r="AZ54" s="183" t="s">
+      <c r="AQ54" s="200"/>
+      <c r="AR54" s="200"/>
+      <c r="AS54" s="200"/>
+      <c r="AT54" s="200"/>
+      <c r="AU54" s="200"/>
+      <c r="AV54" s="200"/>
+      <c r="AW54" s="200"/>
+      <c r="AX54" s="200"/>
+      <c r="AY54" s="200"/>
+      <c r="AZ54" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="BA54" s="183"/>
-      <c r="BB54" s="183"/>
-      <c r="BC54" s="183"/>
-      <c r="BD54" s="183"/>
+      <c r="BA54" s="224"/>
+      <c r="BB54" s="224"/>
+      <c r="BC54" s="224"/>
+      <c r="BD54" s="224"/>
       <c r="BE54" s="34"/>
       <c r="BF54" s="34"/>
       <c r="BG54" s="34"/>
@@ -5992,111 +5952,111 @@
       <c r="BN54" s="34"/>
     </row>
     <row r="55" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B55" s="187" t="s">
+      <c r="B55" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="187"/>
-      <c r="D55" s="187"/>
-      <c r="E55" s="187"/>
-      <c r="F55" s="187"/>
-      <c r="G55" s="187"/>
-      <c r="H55" s="187"/>
-      <c r="I55" s="187"/>
-      <c r="J55" s="187"/>
-      <c r="K55" s="187"/>
-      <c r="L55" s="187"/>
-      <c r="M55" s="192" t="s">
+      <c r="C55" s="200"/>
+      <c r="D55" s="200"/>
+      <c r="E55" s="200"/>
+      <c r="F55" s="200"/>
+      <c r="G55" s="200"/>
+      <c r="H55" s="200"/>
+      <c r="I55" s="200"/>
+      <c r="J55" s="200"/>
+      <c r="K55" s="200"/>
+      <c r="L55" s="200"/>
+      <c r="M55" s="218" t="s">
         <v>95</v>
       </c>
-      <c r="N55" s="192"/>
-      <c r="O55" s="192"/>
-      <c r="P55" s="192"/>
-      <c r="Q55" s="192"/>
-      <c r="R55" s="192"/>
-      <c r="S55" s="192"/>
-      <c r="T55" s="192"/>
-      <c r="U55" s="192"/>
-      <c r="V55" s="187" t="s">
+      <c r="N55" s="218"/>
+      <c r="O55" s="218"/>
+      <c r="P55" s="218"/>
+      <c r="Q55" s="218"/>
+      <c r="R55" s="218"/>
+      <c r="S55" s="218"/>
+      <c r="T55" s="218"/>
+      <c r="U55" s="218"/>
+      <c r="V55" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="W55" s="187"/>
-      <c r="X55" s="187"/>
-      <c r="Y55" s="187"/>
-      <c r="Z55" s="187"/>
-      <c r="AA55" s="187"/>
-      <c r="AB55" s="187"/>
-      <c r="AC55" s="187"/>
-      <c r="AD55" s="187"/>
-      <c r="AE55" s="187"/>
-      <c r="AF55" s="187"/>
-      <c r="AG55" s="187"/>
-      <c r="AH55" s="182"/>
-      <c r="AI55" s="182"/>
-      <c r="AJ55" s="182"/>
-      <c r="AK55" s="182"/>
-      <c r="AL55" s="182"/>
-      <c r="AM55" s="182"/>
-      <c r="AN55" s="182"/>
-      <c r="AO55" s="182"/>
-      <c r="AP55" s="184" t="s">
+      <c r="W55" s="200"/>
+      <c r="X55" s="200"/>
+      <c r="Y55" s="200"/>
+      <c r="Z55" s="200"/>
+      <c r="AA55" s="200"/>
+      <c r="AB55" s="200"/>
+      <c r="AC55" s="200"/>
+      <c r="AD55" s="200"/>
+      <c r="AE55" s="200"/>
+      <c r="AF55" s="200"/>
+      <c r="AG55" s="200"/>
+      <c r="AH55" s="193"/>
+      <c r="AI55" s="193"/>
+      <c r="AJ55" s="193"/>
+      <c r="AK55" s="193"/>
+      <c r="AL55" s="193"/>
+      <c r="AM55" s="193"/>
+      <c r="AN55" s="193"/>
+      <c r="AO55" s="193"/>
+      <c r="AP55" s="196" t="s">
         <v>64</v>
       </c>
-      <c r="AQ55" s="184"/>
-      <c r="AR55" s="184"/>
-      <c r="AS55" s="184"/>
-      <c r="AT55" s="184"/>
-      <c r="AU55" s="184"/>
-      <c r="AV55" s="184"/>
-      <c r="AW55" s="184"/>
-      <c r="AX55" s="184"/>
-      <c r="AY55" s="184"/>
-      <c r="AZ55" s="183"/>
-      <c r="BA55" s="183"/>
-      <c r="BB55" s="183"/>
-      <c r="BC55" s="183"/>
-      <c r="BD55" s="183"/>
+      <c r="AQ55" s="196"/>
+      <c r="AR55" s="196"/>
+      <c r="AS55" s="196"/>
+      <c r="AT55" s="196"/>
+      <c r="AU55" s="196"/>
+      <c r="AV55" s="196"/>
+      <c r="AW55" s="196"/>
+      <c r="AX55" s="196"/>
+      <c r="AY55" s="196"/>
+      <c r="AZ55" s="224"/>
+      <c r="BA55" s="224"/>
+      <c r="BB55" s="224"/>
+      <c r="BC55" s="224"/>
+      <c r="BD55" s="224"/>
       <c r="BN55" s="34"/>
     </row>
     <row r="56" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B56" s="198"/>
-      <c r="C56" s="198"/>
-      <c r="D56" s="198"/>
-      <c r="E56" s="198"/>
-      <c r="F56" s="198"/>
-      <c r="G56" s="198"/>
-      <c r="H56" s="198"/>
-      <c r="I56" s="198"/>
-      <c r="J56" s="198"/>
-      <c r="K56" s="198"/>
-      <c r="L56" s="198"/>
-      <c r="M56" s="192" t="s">
+      <c r="B56" s="201"/>
+      <c r="C56" s="201"/>
+      <c r="D56" s="201"/>
+      <c r="E56" s="201"/>
+      <c r="F56" s="201"/>
+      <c r="G56" s="201"/>
+      <c r="H56" s="201"/>
+      <c r="I56" s="201"/>
+      <c r="J56" s="201"/>
+      <c r="K56" s="201"/>
+      <c r="L56" s="201"/>
+      <c r="M56" s="218" t="s">
         <v>96</v>
       </c>
-      <c r="N56" s="192"/>
-      <c r="O56" s="192"/>
-      <c r="P56" s="192"/>
-      <c r="Q56" s="192"/>
-      <c r="R56" s="192"/>
-      <c r="S56" s="192"/>
-      <c r="T56" s="192"/>
-      <c r="U56" s="192"/>
-      <c r="AP56" s="188" t="s">
+      <c r="N56" s="218"/>
+      <c r="O56" s="218"/>
+      <c r="P56" s="218"/>
+      <c r="Q56" s="218"/>
+      <c r="R56" s="218"/>
+      <c r="S56" s="218"/>
+      <c r="T56" s="218"/>
+      <c r="U56" s="218"/>
+      <c r="AP56" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="AQ56" s="188"/>
-      <c r="AR56" s="188"/>
-      <c r="AS56" s="188"/>
-      <c r="AT56" s="188"/>
-      <c r="AU56" s="188"/>
-      <c r="AV56" s="188"/>
-      <c r="AW56" s="188"/>
-      <c r="AX56" s="188"/>
-      <c r="AY56" s="188"/>
-      <c r="AZ56" s="183"/>
-      <c r="BA56" s="183"/>
-      <c r="BB56" s="183"/>
-      <c r="BC56" s="183"/>
-      <c r="BD56" s="183"/>
+      <c r="AQ56" s="199"/>
+      <c r="AR56" s="199"/>
+      <c r="AS56" s="199"/>
+      <c r="AT56" s="199"/>
+      <c r="AU56" s="199"/>
+      <c r="AV56" s="199"/>
+      <c r="AW56" s="199"/>
+      <c r="AX56" s="199"/>
+      <c r="AY56" s="199"/>
+      <c r="AZ56" s="224"/>
+      <c r="BA56" s="224"/>
+      <c r="BB56" s="224"/>
+      <c r="BC56" s="224"/>
+      <c r="BD56" s="224"/>
       <c r="BN56" s="34"/>
     </row>
     <row r="57" spans="2:69" x14ac:dyDescent="0.25">
@@ -6118,157 +6078,144 @@
       <c r="BN62" s="34"/>
     </row>
     <row r="63" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="AV63" s="34"/>
+      <c r="AW63" s="34"/>
+      <c r="AX63" s="34"/>
+      <c r="AY63" s="34"/>
+      <c r="AZ63" s="34"/>
+      <c r="BA63" s="34"/>
+      <c r="BB63" s="34"/>
+      <c r="BC63" s="34"/>
+      <c r="BD63" s="34"/>
+      <c r="BF63" s="34"/>
+      <c r="BG63" s="34"/>
+      <c r="BH63" s="34"/>
+      <c r="BI63" s="34"/>
+      <c r="BJ63" s="34"/>
+      <c r="BK63" s="34"/>
+      <c r="BL63" s="34"/>
+      <c r="BM63" s="34"/>
       <c r="BN63" s="34"/>
     </row>
     <row r="64" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="AV64" s="34"/>
+      <c r="AW64" s="34"/>
+      <c r="AX64" s="34"/>
+      <c r="AY64" s="34"/>
+      <c r="AZ64" s="34"/>
+      <c r="BA64" s="34"/>
+      <c r="BB64" s="34"/>
+      <c r="BC64" s="34"/>
+      <c r="BD64" s="34"/>
+      <c r="BF64" s="34"/>
+      <c r="BG64" s="34"/>
+      <c r="BH64" s="34"/>
+      <c r="BI64" s="34"/>
+      <c r="BJ64" s="34"/>
+      <c r="BK64" s="34"/>
+      <c r="BL64" s="34"/>
+      <c r="BM64" s="34"/>
       <c r="BN64" s="34"/>
     </row>
     <row r="65" spans="48:66" x14ac:dyDescent="0.25">
+      <c r="AV65" s="34"/>
+      <c r="AW65" s="34"/>
+      <c r="AX65" s="34"/>
+      <c r="AY65" s="34"/>
+      <c r="AZ65" s="34"/>
+      <c r="BA65" s="34"/>
+      <c r="BB65" s="34"/>
+      <c r="BC65" s="34"/>
+      <c r="BD65" s="34"/>
+      <c r="BF65" s="34"/>
+      <c r="BG65" s="34"/>
+      <c r="BH65" s="34"/>
+      <c r="BI65" s="34"/>
+      <c r="BJ65" s="34"/>
+      <c r="BK65" s="34"/>
+      <c r="BL65" s="34"/>
+      <c r="BM65" s="34"/>
       <c r="BN65" s="34"/>
     </row>
     <row r="66" spans="48:66" x14ac:dyDescent="0.25">
+      <c r="AV66" s="34"/>
+      <c r="AW66" s="34"/>
+      <c r="AX66" s="34"/>
+      <c r="AY66" s="34"/>
+      <c r="AZ66" s="34"/>
+      <c r="BA66" s="34"/>
+      <c r="BB66" s="34"/>
+      <c r="BC66" s="34"/>
+      <c r="BD66" s="34"/>
+      <c r="BF66" s="34"/>
+      <c r="BG66" s="34"/>
+      <c r="BH66" s="34"/>
+      <c r="BI66" s="34"/>
+      <c r="BJ66" s="34"/>
+      <c r="BK66" s="34"/>
+      <c r="BL66" s="34"/>
+      <c r="BM66" s="34"/>
       <c r="BN66" s="34"/>
-    </row>
-    <row r="67" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="BN67" s="34"/>
-    </row>
-    <row r="68" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="BN68" s="34"/>
-    </row>
-    <row r="69" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="BN69" s="34"/>
-    </row>
-    <row r="70" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="BN70" s="34"/>
-    </row>
-    <row r="71" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="BN71" s="34"/>
-    </row>
-    <row r="72" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="BN72" s="34"/>
-    </row>
-    <row r="73" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="BN73" s="34"/>
-    </row>
-    <row r="74" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="BN74" s="34"/>
-    </row>
-    <row r="75" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="BN75" s="34"/>
-    </row>
-    <row r="76" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="AV76" s="34"/>
-      <c r="AW76" s="34"/>
-      <c r="AX76" s="34"/>
-      <c r="AY76" s="34"/>
-      <c r="AZ76" s="34"/>
-      <c r="BA76" s="34"/>
-      <c r="BB76" s="34"/>
-      <c r="BC76" s="34"/>
-      <c r="BD76" s="34"/>
-      <c r="BF76" s="34"/>
-      <c r="BG76" s="34"/>
-      <c r="BH76" s="34"/>
-      <c r="BI76" s="34"/>
-      <c r="BJ76" s="34"/>
-      <c r="BK76" s="34"/>
-      <c r="BL76" s="34"/>
-      <c r="BM76" s="34"/>
-      <c r="BN76" s="34"/>
-    </row>
-    <row r="77" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="AV77" s="34"/>
-      <c r="AW77" s="34"/>
-      <c r="AX77" s="34"/>
-      <c r="AY77" s="34"/>
-      <c r="AZ77" s="34"/>
-      <c r="BA77" s="34"/>
-      <c r="BB77" s="34"/>
-      <c r="BC77" s="34"/>
-      <c r="BD77" s="34"/>
-      <c r="BF77" s="34"/>
-      <c r="BG77" s="34"/>
-      <c r="BH77" s="34"/>
-      <c r="BI77" s="34"/>
-      <c r="BJ77" s="34"/>
-      <c r="BK77" s="34"/>
-      <c r="BL77" s="34"/>
-      <c r="BM77" s="34"/>
-      <c r="BN77" s="34"/>
-    </row>
-    <row r="78" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="AV78" s="34"/>
-      <c r="AW78" s="34"/>
-      <c r="AX78" s="34"/>
-      <c r="AY78" s="34"/>
-      <c r="AZ78" s="34"/>
-      <c r="BA78" s="34"/>
-      <c r="BB78" s="34"/>
-      <c r="BC78" s="34"/>
-      <c r="BD78" s="34"/>
-      <c r="BF78" s="34"/>
-      <c r="BG78" s="34"/>
-      <c r="BH78" s="34"/>
-      <c r="BI78" s="34"/>
-      <c r="BJ78" s="34"/>
-      <c r="BK78" s="34"/>
-      <c r="BL78" s="34"/>
-      <c r="BM78" s="34"/>
-      <c r="BN78" s="34"/>
-    </row>
-    <row r="79" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="AV79" s="34"/>
-      <c r="AW79" s="34"/>
-      <c r="AX79" s="34"/>
-      <c r="AY79" s="34"/>
-      <c r="AZ79" s="34"/>
-      <c r="BA79" s="34"/>
-      <c r="BB79" s="34"/>
-      <c r="BC79" s="34"/>
-      <c r="BD79" s="34"/>
-      <c r="BF79" s="34"/>
-      <c r="BG79" s="34"/>
-      <c r="BH79" s="34"/>
-      <c r="BI79" s="34"/>
-      <c r="BJ79" s="34"/>
-      <c r="BK79" s="34"/>
-      <c r="BL79" s="34"/>
-      <c r="BM79" s="34"/>
-      <c r="BN79" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="E41:K41"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="AE7:AR7"/>
-    <mergeCell ref="P7:P31"/>
-    <mergeCell ref="Z7:Z31"/>
-    <mergeCell ref="AS7:AS31"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BG4:BM4"/>
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="AD6:AS6"/>
-    <mergeCell ref="S32:Z32"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="AE32:AS32"/>
-    <mergeCell ref="R6:Z6"/>
-    <mergeCell ref="AE8:AR8"/>
-    <mergeCell ref="AE12:AR12"/>
-    <mergeCell ref="AE16:AR16"/>
-    <mergeCell ref="AE20:AR20"/>
-    <mergeCell ref="C7:C32"/>
-    <mergeCell ref="R7:R32"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="M44:U51"/>
-    <mergeCell ref="V44:AG44"/>
-    <mergeCell ref="V45:AG45"/>
-    <mergeCell ref="V46:AG46"/>
-    <mergeCell ref="V47:AG47"/>
-    <mergeCell ref="V48:AG48"/>
-    <mergeCell ref="V49:AG49"/>
-    <mergeCell ref="V50:AG50"/>
-    <mergeCell ref="V51:AG51"/>
+    <mergeCell ref="BE49:BL49"/>
+    <mergeCell ref="BE50:BL50"/>
+    <mergeCell ref="BE51:BL51"/>
+    <mergeCell ref="BM44:BQ44"/>
+    <mergeCell ref="BM45:BQ46"/>
+    <mergeCell ref="BM47:BQ48"/>
+    <mergeCell ref="BM49:BQ49"/>
+    <mergeCell ref="BM50:BQ50"/>
+    <mergeCell ref="BM51:BQ51"/>
+    <mergeCell ref="BE44:BL44"/>
+    <mergeCell ref="BE45:BL45"/>
+    <mergeCell ref="BE46:BL46"/>
+    <mergeCell ref="BE47:BL47"/>
+    <mergeCell ref="BE48:BL48"/>
+    <mergeCell ref="AP53:AY53"/>
+    <mergeCell ref="AP54:AY54"/>
+    <mergeCell ref="AP55:AY55"/>
+    <mergeCell ref="AP56:AY56"/>
+    <mergeCell ref="AZ44:BD47"/>
+    <mergeCell ref="AZ48:BD50"/>
+    <mergeCell ref="AZ51:BD53"/>
+    <mergeCell ref="AZ54:BD56"/>
+    <mergeCell ref="AE26:AR26"/>
+    <mergeCell ref="AE27:AR27"/>
+    <mergeCell ref="AP44:AY44"/>
+    <mergeCell ref="AP45:AY45"/>
+    <mergeCell ref="AP46:AY46"/>
+    <mergeCell ref="V54:AG54"/>
+    <mergeCell ref="V55:AG55"/>
+    <mergeCell ref="AH44:AO44"/>
+    <mergeCell ref="AH45:AO45"/>
+    <mergeCell ref="AH46:AO55"/>
+    <mergeCell ref="AD7:AD32"/>
+    <mergeCell ref="M55:U55"/>
+    <mergeCell ref="M56:U56"/>
+    <mergeCell ref="D36:Z36"/>
+    <mergeCell ref="AD34:AS34"/>
+    <mergeCell ref="C34:Z34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AE36:AS36"/>
+    <mergeCell ref="D35:Y35"/>
+    <mergeCell ref="AE35:AR35"/>
+    <mergeCell ref="AP47:AY47"/>
+    <mergeCell ref="AP48:AY48"/>
+    <mergeCell ref="AP49:AY49"/>
+    <mergeCell ref="AP50:AY50"/>
+    <mergeCell ref="AP51:AY51"/>
+    <mergeCell ref="AP52:AY52"/>
+    <mergeCell ref="M52:U52"/>
+    <mergeCell ref="M53:U53"/>
+    <mergeCell ref="V52:AG52"/>
+    <mergeCell ref="V53:AG53"/>
+    <mergeCell ref="M54:U54"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="B54:L54"/>
     <mergeCell ref="B55:L55"/>
     <mergeCell ref="B56:L56"/>
     <mergeCell ref="D8:E8"/>
@@ -6293,63 +6240,37 @@
     <mergeCell ref="B44:L44"/>
     <mergeCell ref="B45:L45"/>
     <mergeCell ref="B46:L46"/>
-    <mergeCell ref="M55:U55"/>
-    <mergeCell ref="M56:U56"/>
-    <mergeCell ref="D36:Z36"/>
-    <mergeCell ref="AD34:AS34"/>
-    <mergeCell ref="C34:Z34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AE36:AS36"/>
-    <mergeCell ref="D35:Y35"/>
-    <mergeCell ref="AE35:AR35"/>
-    <mergeCell ref="AP47:AY47"/>
-    <mergeCell ref="AP48:AY48"/>
-    <mergeCell ref="AP49:AY49"/>
-    <mergeCell ref="AP50:AY50"/>
-    <mergeCell ref="AP51:AY51"/>
-    <mergeCell ref="AP52:AY52"/>
-    <mergeCell ref="M52:U52"/>
-    <mergeCell ref="M53:U53"/>
-    <mergeCell ref="V52:AG52"/>
-    <mergeCell ref="V53:AG53"/>
-    <mergeCell ref="M54:U54"/>
-    <mergeCell ref="B52:L52"/>
-    <mergeCell ref="B53:L53"/>
-    <mergeCell ref="B54:L54"/>
-    <mergeCell ref="AP53:AY53"/>
-    <mergeCell ref="AP54:AY54"/>
-    <mergeCell ref="AP55:AY55"/>
-    <mergeCell ref="AP56:AY56"/>
-    <mergeCell ref="AZ44:BD47"/>
-    <mergeCell ref="AZ48:BD50"/>
-    <mergeCell ref="AZ51:BD53"/>
-    <mergeCell ref="AZ54:BD56"/>
-    <mergeCell ref="AE26:AR26"/>
-    <mergeCell ref="AE27:AR27"/>
-    <mergeCell ref="AP44:AY44"/>
-    <mergeCell ref="AP45:AY45"/>
-    <mergeCell ref="AP46:AY46"/>
-    <mergeCell ref="V54:AG54"/>
-    <mergeCell ref="V55:AG55"/>
-    <mergeCell ref="AH44:AO44"/>
-    <mergeCell ref="AH45:AO45"/>
-    <mergeCell ref="AH46:AO55"/>
-    <mergeCell ref="AD7:AD32"/>
-    <mergeCell ref="BE49:BL49"/>
-    <mergeCell ref="BE50:BL50"/>
-    <mergeCell ref="BE51:BL51"/>
-    <mergeCell ref="BM44:BQ44"/>
-    <mergeCell ref="BM45:BQ46"/>
-    <mergeCell ref="BM47:BQ48"/>
-    <mergeCell ref="BM49:BQ49"/>
-    <mergeCell ref="BM50:BQ50"/>
-    <mergeCell ref="BM51:BQ51"/>
-    <mergeCell ref="BE44:BL44"/>
-    <mergeCell ref="BE45:BL45"/>
-    <mergeCell ref="BE46:BL46"/>
-    <mergeCell ref="BE47:BL47"/>
-    <mergeCell ref="BE48:BL48"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="M44:U51"/>
+    <mergeCell ref="V44:AG44"/>
+    <mergeCell ref="V45:AG45"/>
+    <mergeCell ref="V46:AG46"/>
+    <mergeCell ref="V47:AG47"/>
+    <mergeCell ref="V48:AG48"/>
+    <mergeCell ref="V49:AG49"/>
+    <mergeCell ref="V50:AG50"/>
+    <mergeCell ref="V51:AG51"/>
+    <mergeCell ref="E41:K41"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="AE7:AR7"/>
+    <mergeCell ref="P7:P31"/>
+    <mergeCell ref="Z7:Z31"/>
+    <mergeCell ref="AS7:AS31"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BG4:BM4"/>
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="AD6:AS6"/>
+    <mergeCell ref="S32:Z32"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="AE32:AS32"/>
+    <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="AE8:AR8"/>
+    <mergeCell ref="AE12:AR12"/>
+    <mergeCell ref="AE16:AR16"/>
+    <mergeCell ref="AE20:AR20"/>
+    <mergeCell ref="C7:C32"/>
+    <mergeCell ref="R7:R32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6357,7 +6278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6570,22 +6491,22 @@
       <c r="AS4" s="100"/>
       <c r="AT4" s="105"/>
       <c r="AV4" s="104"/>
-      <c r="AW4" s="259"/>
-      <c r="AX4" s="259"/>
-      <c r="AY4" s="259"/>
-      <c r="AZ4" s="259"/>
-      <c r="BA4" s="259"/>
-      <c r="BB4" s="259"/>
-      <c r="BC4" s="259"/>
+      <c r="AW4" s="247"/>
+      <c r="AX4" s="247"/>
+      <c r="AY4" s="247"/>
+      <c r="AZ4" s="247"/>
+      <c r="BA4" s="247"/>
+      <c r="BB4" s="247"/>
+      <c r="BC4" s="247"/>
       <c r="BD4" s="105"/>
       <c r="BF4" s="104"/>
-      <c r="BG4" s="244"/>
-      <c r="BH4" s="244"/>
-      <c r="BI4" s="244"/>
-      <c r="BJ4" s="244"/>
-      <c r="BK4" s="244"/>
-      <c r="BL4" s="244"/>
-      <c r="BM4" s="244"/>
+      <c r="BG4" s="249"/>
+      <c r="BH4" s="249"/>
+      <c r="BI4" s="249"/>
+      <c r="BJ4" s="249"/>
+      <c r="BK4" s="249"/>
+      <c r="BL4" s="249"/>
+      <c r="BM4" s="249"/>
       <c r="BN4" s="105"/>
     </row>
     <row r="5" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6658,48 +6579,48 @@
     </row>
     <row r="6" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="104"/>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="225"/>
-      <c r="L6" s="225"/>
-      <c r="M6" s="225"/>
-      <c r="N6" s="225"/>
-      <c r="O6" s="225"/>
-      <c r="P6" s="225"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="234"/>
+      <c r="I6" s="234"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="234"/>
+      <c r="L6" s="234"/>
+      <c r="M6" s="234"/>
+      <c r="N6" s="234"/>
+      <c r="O6" s="234"/>
+      <c r="P6" s="234"/>
       <c r="Q6" s="100"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="225"/>
-      <c r="U6" s="225"/>
-      <c r="V6" s="225"/>
-      <c r="W6" s="225"/>
-      <c r="X6" s="225"/>
-      <c r="Y6" s="225"/>
-      <c r="Z6" s="225"/>
+      <c r="R6" s="234"/>
+      <c r="S6" s="234"/>
+      <c r="T6" s="234"/>
+      <c r="U6" s="234"/>
+      <c r="V6" s="234"/>
+      <c r="W6" s="234"/>
+      <c r="X6" s="234"/>
+      <c r="Y6" s="234"/>
+      <c r="Z6" s="234"/>
       <c r="AA6" s="105"/>
       <c r="AC6" s="104"/>
-      <c r="AD6" s="225"/>
-      <c r="AE6" s="225"/>
-      <c r="AF6" s="225"/>
-      <c r="AG6" s="225"/>
-      <c r="AH6" s="225"/>
-      <c r="AI6" s="225"/>
-      <c r="AJ6" s="225"/>
-      <c r="AK6" s="225"/>
-      <c r="AL6" s="225"/>
-      <c r="AM6" s="225"/>
-      <c r="AN6" s="225"/>
-      <c r="AO6" s="225"/>
-      <c r="AP6" s="225"/>
-      <c r="AQ6" s="225"/>
-      <c r="AR6" s="225"/>
-      <c r="AS6" s="225"/>
+      <c r="AD6" s="234"/>
+      <c r="AE6" s="234"/>
+      <c r="AF6" s="234"/>
+      <c r="AG6" s="234"/>
+      <c r="AH6" s="234"/>
+      <c r="AI6" s="234"/>
+      <c r="AJ6" s="234"/>
+      <c r="AK6" s="234"/>
+      <c r="AL6" s="234"/>
+      <c r="AM6" s="234"/>
+      <c r="AN6" s="234"/>
+      <c r="AO6" s="234"/>
+      <c r="AP6" s="234"/>
+      <c r="AQ6" s="234"/>
+      <c r="AR6" s="234"/>
+      <c r="AS6" s="234"/>
       <c r="AT6" s="105"/>
       <c r="AV6" s="104"/>
       <c r="AW6" s="89"/>
@@ -6722,48 +6643,48 @@
     </row>
     <row r="7" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="104"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="231"/>
-      <c r="L7" s="231"/>
-      <c r="M7" s="231"/>
-      <c r="N7" s="231"/>
-      <c r="O7" s="231"/>
-      <c r="P7" s="232"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="264"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="264"/>
+      <c r="K7" s="264"/>
+      <c r="L7" s="264"/>
+      <c r="M7" s="264"/>
+      <c r="N7" s="264"/>
+      <c r="O7" s="264"/>
+      <c r="P7" s="238"/>
       <c r="Q7" s="100"/>
-      <c r="R7" s="225"/>
-      <c r="S7" s="231"/>
-      <c r="T7" s="231"/>
-      <c r="U7" s="231"/>
-      <c r="V7" s="231"/>
-      <c r="W7" s="231"/>
-      <c r="X7" s="231"/>
-      <c r="Y7" s="231"/>
-      <c r="Z7" s="232"/>
+      <c r="R7" s="234"/>
+      <c r="S7" s="264"/>
+      <c r="T7" s="264"/>
+      <c r="U7" s="264"/>
+      <c r="V7" s="264"/>
+      <c r="W7" s="264"/>
+      <c r="X7" s="264"/>
+      <c r="Y7" s="264"/>
+      <c r="Z7" s="238"/>
       <c r="AA7" s="105"/>
       <c r="AC7" s="104"/>
-      <c r="AD7" s="225"/>
-      <c r="AE7" s="227"/>
-      <c r="AF7" s="227"/>
-      <c r="AG7" s="227"/>
-      <c r="AH7" s="227"/>
-      <c r="AI7" s="227"/>
-      <c r="AJ7" s="227"/>
-      <c r="AK7" s="227"/>
-      <c r="AL7" s="227"/>
-      <c r="AM7" s="227"/>
-      <c r="AN7" s="227"/>
-      <c r="AO7" s="227"/>
-      <c r="AP7" s="227"/>
-      <c r="AQ7" s="227"/>
-      <c r="AR7" s="227"/>
-      <c r="AS7" s="232"/>
+      <c r="AD7" s="234"/>
+      <c r="AE7" s="262"/>
+      <c r="AF7" s="262"/>
+      <c r="AG7" s="262"/>
+      <c r="AH7" s="262"/>
+      <c r="AI7" s="262"/>
+      <c r="AJ7" s="262"/>
+      <c r="AK7" s="262"/>
+      <c r="AL7" s="262"/>
+      <c r="AM7" s="262"/>
+      <c r="AN7" s="262"/>
+      <c r="AO7" s="262"/>
+      <c r="AP7" s="262"/>
+      <c r="AQ7" s="262"/>
+      <c r="AR7" s="262"/>
+      <c r="AS7" s="238"/>
       <c r="AT7" s="105"/>
       <c r="AV7" s="104"/>
       <c r="AW7" s="89"/>
@@ -6786,11 +6707,11 @@
     </row>
     <row r="8" spans="2:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="233">
+      <c r="C8" s="234"/>
+      <c r="D8" s="265">
         <v>0.37152777777777773</v>
       </c>
-      <c r="E8" s="233"/>
+      <c r="E8" s="265"/>
       <c r="F8" s="149" t="s">
         <v>22</v>
       </c>
@@ -6803,9 +6724,9 @@
       <c r="M8" s="149"/>
       <c r="N8" s="149"/>
       <c r="O8" s="150"/>
-      <c r="P8" s="232"/>
+      <c r="P8" s="238"/>
       <c r="Q8" s="113"/>
-      <c r="R8" s="225"/>
+      <c r="R8" s="234"/>
       <c r="S8" s="151" t="s">
         <v>32</v>
       </c>
@@ -6815,27 +6736,27 @@
       <c r="W8" s="151"/>
       <c r="X8" s="151"/>
       <c r="Y8" s="150"/>
-      <c r="Z8" s="232"/>
+      <c r="Z8" s="238"/>
       <c r="AA8" s="105"/>
       <c r="AC8" s="104"/>
-      <c r="AD8" s="225"/>
-      <c r="AE8" s="263" t="s">
+      <c r="AD8" s="234"/>
+      <c r="AE8" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="263"/>
-      <c r="AH8" s="263"/>
-      <c r="AI8" s="263"/>
-      <c r="AJ8" s="263"/>
-      <c r="AK8" s="263"/>
-      <c r="AL8" s="263"/>
-      <c r="AM8" s="263"/>
-      <c r="AN8" s="263"/>
-      <c r="AO8" s="263"/>
-      <c r="AP8" s="263"/>
-      <c r="AQ8" s="263"/>
-      <c r="AR8" s="263"/>
-      <c r="AS8" s="232"/>
+      <c r="AF8" s="240"/>
+      <c r="AG8" s="240"/>
+      <c r="AH8" s="240"/>
+      <c r="AI8" s="240"/>
+      <c r="AJ8" s="240"/>
+      <c r="AK8" s="240"/>
+      <c r="AL8" s="240"/>
+      <c r="AM8" s="240"/>
+      <c r="AN8" s="240"/>
+      <c r="AO8" s="240"/>
+      <c r="AP8" s="240"/>
+      <c r="AQ8" s="240"/>
+      <c r="AR8" s="240"/>
+      <c r="AS8" s="238"/>
       <c r="AT8" s="105"/>
       <c r="AV8" s="104"/>
       <c r="AW8" s="129" t="s">
@@ -6862,7 +6783,7 @@
     </row>
     <row r="9" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="104"/>
-      <c r="C9" s="225"/>
+      <c r="C9" s="234"/>
       <c r="D9" s="152" t="s">
         <v>44</v>
       </c>
@@ -6877,9 +6798,9 @@
       <c r="M9" s="153"/>
       <c r="N9" s="153"/>
       <c r="O9" s="153"/>
-      <c r="P9" s="232"/>
+      <c r="P9" s="238"/>
       <c r="Q9" s="114"/>
-      <c r="R9" s="225"/>
+      <c r="R9" s="234"/>
       <c r="S9" s="154" t="s">
         <v>33</v>
       </c>
@@ -6889,10 +6810,10 @@
       <c r="W9" s="154"/>
       <c r="X9" s="154"/>
       <c r="Y9" s="155"/>
-      <c r="Z9" s="232"/>
+      <c r="Z9" s="238"/>
       <c r="AA9" s="105"/>
       <c r="AC9" s="104"/>
-      <c r="AD9" s="225"/>
+      <c r="AD9" s="234"/>
       <c r="AE9" s="170" t="s">
         <v>23</v>
       </c>
@@ -6907,11 +6828,11 @@
       <c r="AN9" s="141"/>
       <c r="AO9" s="141"/>
       <c r="AP9" s="141"/>
-      <c r="AQ9" s="258">
+      <c r="AQ9" s="241">
         <v>0.37847222222222227</v>
       </c>
-      <c r="AR9" s="258"/>
-      <c r="AS9" s="232"/>
+      <c r="AR9" s="241"/>
+      <c r="AS9" s="238"/>
       <c r="AT9" s="105"/>
       <c r="AV9" s="104"/>
       <c r="AW9" s="127" t="s">
@@ -6938,7 +6859,7 @@
     </row>
     <row r="10" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="104"/>
-      <c r="C10" s="225"/>
+      <c r="C10" s="234"/>
       <c r="D10" s="156"/>
       <c r="E10" s="156"/>
       <c r="F10" s="156"/>
@@ -6951,9 +6872,9 @@
       <c r="M10" s="156"/>
       <c r="N10" s="156"/>
       <c r="O10" s="156"/>
-      <c r="P10" s="232"/>
+      <c r="P10" s="238"/>
       <c r="Q10" s="115"/>
-      <c r="R10" s="225"/>
+      <c r="R10" s="234"/>
       <c r="S10" s="156"/>
       <c r="T10" s="156"/>
       <c r="U10" s="156"/>
@@ -6961,25 +6882,25 @@
       <c r="W10" s="156"/>
       <c r="X10" s="156"/>
       <c r="Y10" s="155"/>
-      <c r="Z10" s="232"/>
+      <c r="Z10" s="238"/>
       <c r="AA10" s="105"/>
       <c r="AC10" s="104"/>
-      <c r="AD10" s="225"/>
-      <c r="AE10" s="230"/>
-      <c r="AF10" s="230"/>
-      <c r="AG10" s="230"/>
-      <c r="AH10" s="230"/>
-      <c r="AI10" s="230"/>
-      <c r="AJ10" s="230"/>
-      <c r="AK10" s="230"/>
-      <c r="AL10" s="230"/>
-      <c r="AM10" s="230"/>
-      <c r="AN10" s="230"/>
-      <c r="AO10" s="230"/>
-      <c r="AP10" s="230"/>
-      <c r="AQ10" s="230"/>
-      <c r="AR10" s="230"/>
-      <c r="AS10" s="232"/>
+      <c r="AD10" s="234"/>
+      <c r="AE10" s="236"/>
+      <c r="AF10" s="236"/>
+      <c r="AG10" s="236"/>
+      <c r="AH10" s="236"/>
+      <c r="AI10" s="236"/>
+      <c r="AJ10" s="236"/>
+      <c r="AK10" s="236"/>
+      <c r="AL10" s="236"/>
+      <c r="AM10" s="236"/>
+      <c r="AN10" s="236"/>
+      <c r="AO10" s="236"/>
+      <c r="AP10" s="236"/>
+      <c r="AQ10" s="236"/>
+      <c r="AR10" s="236"/>
+      <c r="AS10" s="238"/>
       <c r="AT10" s="105"/>
       <c r="AV10" s="104"/>
       <c r="AW10" s="89"/>
@@ -7002,7 +6923,7 @@
     </row>
     <row r="11" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="104"/>
-      <c r="C11" s="225"/>
+      <c r="C11" s="234"/>
       <c r="D11" s="156"/>
       <c r="E11" s="156"/>
       <c r="F11" s="156"/>
@@ -7015,9 +6936,9 @@
       <c r="M11" s="156"/>
       <c r="N11" s="156"/>
       <c r="O11" s="156"/>
-      <c r="P11" s="232"/>
+      <c r="P11" s="238"/>
       <c r="Q11" s="115"/>
-      <c r="R11" s="225"/>
+      <c r="R11" s="234"/>
       <c r="S11" s="156"/>
       <c r="T11" s="156"/>
       <c r="U11" s="156"/>
@@ -7025,25 +6946,25 @@
       <c r="W11" s="156"/>
       <c r="X11" s="156"/>
       <c r="Y11" s="155"/>
-      <c r="Z11" s="232"/>
+      <c r="Z11" s="238"/>
       <c r="AA11" s="105"/>
       <c r="AC11" s="104"/>
-      <c r="AD11" s="225"/>
-      <c r="AE11" s="230"/>
-      <c r="AF11" s="230"/>
-      <c r="AG11" s="230"/>
-      <c r="AH11" s="230"/>
-      <c r="AI11" s="230"/>
-      <c r="AJ11" s="230"/>
-      <c r="AK11" s="230"/>
-      <c r="AL11" s="230"/>
-      <c r="AM11" s="230"/>
-      <c r="AN11" s="230"/>
-      <c r="AO11" s="230"/>
-      <c r="AP11" s="230"/>
-      <c r="AQ11" s="230"/>
-      <c r="AR11" s="230"/>
-      <c r="AS11" s="232"/>
+      <c r="AD11" s="234"/>
+      <c r="AE11" s="236"/>
+      <c r="AF11" s="236"/>
+      <c r="AG11" s="236"/>
+      <c r="AH11" s="236"/>
+      <c r="AI11" s="236"/>
+      <c r="AJ11" s="236"/>
+      <c r="AK11" s="236"/>
+      <c r="AL11" s="236"/>
+      <c r="AM11" s="236"/>
+      <c r="AN11" s="236"/>
+      <c r="AO11" s="236"/>
+      <c r="AP11" s="236"/>
+      <c r="AQ11" s="236"/>
+      <c r="AR11" s="236"/>
+      <c r="AS11" s="238"/>
       <c r="AT11" s="105"/>
       <c r="AV11" s="104"/>
       <c r="AW11" s="89"/>
@@ -7066,7 +6987,7 @@
     </row>
     <row r="12" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B12" s="104"/>
-      <c r="C12" s="225"/>
+      <c r="C12" s="234"/>
       <c r="D12" s="157" t="s">
         <v>42</v>
       </c>
@@ -7081,9 +7002,9 @@
       <c r="M12" s="158"/>
       <c r="N12" s="158"/>
       <c r="O12" s="158"/>
-      <c r="P12" s="232"/>
+      <c r="P12" s="238"/>
       <c r="Q12" s="117"/>
-      <c r="R12" s="225"/>
+      <c r="R12" s="234"/>
       <c r="S12" s="159" t="s">
         <v>38</v>
       </c>
@@ -7093,27 +7014,27 @@
       <c r="W12" s="159"/>
       <c r="X12" s="159"/>
       <c r="Y12" s="158"/>
-      <c r="Z12" s="232"/>
+      <c r="Z12" s="238"/>
       <c r="AA12" s="105"/>
       <c r="AC12" s="104"/>
-      <c r="AD12" s="225"/>
-      <c r="AE12" s="254" t="s">
+      <c r="AD12" s="234"/>
+      <c r="AE12" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="AF12" s="254"/>
-      <c r="AG12" s="254"/>
-      <c r="AH12" s="254"/>
-      <c r="AI12" s="254"/>
-      <c r="AJ12" s="254"/>
-      <c r="AK12" s="254"/>
-      <c r="AL12" s="254"/>
-      <c r="AM12" s="254"/>
-      <c r="AN12" s="254"/>
-      <c r="AO12" s="254"/>
-      <c r="AP12" s="254"/>
-      <c r="AQ12" s="254"/>
-      <c r="AR12" s="254"/>
-      <c r="AS12" s="232"/>
+      <c r="AF12" s="242"/>
+      <c r="AG12" s="242"/>
+      <c r="AH12" s="242"/>
+      <c r="AI12" s="242"/>
+      <c r="AJ12" s="242"/>
+      <c r="AK12" s="242"/>
+      <c r="AL12" s="242"/>
+      <c r="AM12" s="242"/>
+      <c r="AN12" s="242"/>
+      <c r="AO12" s="242"/>
+      <c r="AP12" s="242"/>
+      <c r="AQ12" s="242"/>
+      <c r="AR12" s="242"/>
+      <c r="AS12" s="238"/>
       <c r="AT12" s="105"/>
       <c r="AV12" s="104"/>
       <c r="AW12" s="127" t="s">
@@ -7140,7 +7061,7 @@
     </row>
     <row r="13" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B13" s="104"/>
-      <c r="C13" s="225"/>
+      <c r="C13" s="234"/>
       <c r="D13" s="152" t="s">
         <v>41</v>
       </c>
@@ -7155,9 +7076,9 @@
       <c r="M13" s="153"/>
       <c r="N13" s="153"/>
       <c r="O13" s="153"/>
-      <c r="P13" s="232"/>
+      <c r="P13" s="238"/>
       <c r="Q13" s="114"/>
-      <c r="R13" s="225"/>
+      <c r="R13" s="234"/>
       <c r="S13" s="160" t="s">
         <v>34</v>
       </c>
@@ -7167,10 +7088,10 @@
       <c r="W13" s="160"/>
       <c r="X13" s="160"/>
       <c r="Y13" s="155"/>
-      <c r="Z13" s="232"/>
+      <c r="Z13" s="238"/>
       <c r="AA13" s="105"/>
       <c r="AC13" s="104"/>
-      <c r="AD13" s="225"/>
+      <c r="AD13" s="234"/>
       <c r="AE13" s="170" t="s">
         <v>24</v>
       </c>
@@ -7185,11 +7106,11 @@
       <c r="AN13" s="141"/>
       <c r="AO13" s="141"/>
       <c r="AP13" s="141"/>
-      <c r="AQ13" s="258">
+      <c r="AQ13" s="241">
         <v>0.37916666666666665</v>
       </c>
-      <c r="AR13" s="258"/>
-      <c r="AS13" s="232"/>
+      <c r="AR13" s="241"/>
+      <c r="AS13" s="238"/>
       <c r="AT13" s="105"/>
       <c r="AV13" s="104"/>
       <c r="AW13" s="127" t="s">
@@ -7216,7 +7137,7 @@
     </row>
     <row r="14" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="104"/>
-      <c r="C14" s="225"/>
+      <c r="C14" s="234"/>
       <c r="D14" s="156"/>
       <c r="E14" s="156"/>
       <c r="F14" s="156"/>
@@ -7229,9 +7150,9 @@
       <c r="M14" s="156"/>
       <c r="N14" s="156"/>
       <c r="O14" s="156"/>
-      <c r="P14" s="232"/>
+      <c r="P14" s="238"/>
       <c r="Q14" s="115"/>
-      <c r="R14" s="225"/>
+      <c r="R14" s="234"/>
       <c r="S14" s="156"/>
       <c r="T14" s="156"/>
       <c r="U14" s="156"/>
@@ -7239,25 +7160,25 @@
       <c r="W14" s="156"/>
       <c r="X14" s="156"/>
       <c r="Y14" s="155"/>
-      <c r="Z14" s="232"/>
+      <c r="Z14" s="238"/>
       <c r="AA14" s="105"/>
       <c r="AC14" s="104"/>
-      <c r="AD14" s="225"/>
-      <c r="AE14" s="230"/>
-      <c r="AF14" s="230"/>
-      <c r="AG14" s="230"/>
-      <c r="AH14" s="230"/>
-      <c r="AI14" s="230"/>
-      <c r="AJ14" s="230"/>
-      <c r="AK14" s="230"/>
-      <c r="AL14" s="230"/>
-      <c r="AM14" s="230"/>
-      <c r="AN14" s="230"/>
-      <c r="AO14" s="230"/>
-      <c r="AP14" s="230"/>
-      <c r="AQ14" s="230"/>
-      <c r="AR14" s="230"/>
-      <c r="AS14" s="232"/>
+      <c r="AD14" s="234"/>
+      <c r="AE14" s="236"/>
+      <c r="AF14" s="236"/>
+      <c r="AG14" s="236"/>
+      <c r="AH14" s="236"/>
+      <c r="AI14" s="236"/>
+      <c r="AJ14" s="236"/>
+      <c r="AK14" s="236"/>
+      <c r="AL14" s="236"/>
+      <c r="AM14" s="236"/>
+      <c r="AN14" s="236"/>
+      <c r="AO14" s="236"/>
+      <c r="AP14" s="236"/>
+      <c r="AQ14" s="236"/>
+      <c r="AR14" s="236"/>
+      <c r="AS14" s="238"/>
       <c r="AT14" s="105"/>
       <c r="AV14" s="104"/>
       <c r="AW14" s="89"/>
@@ -7280,7 +7201,7 @@
     </row>
     <row r="15" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="104"/>
-      <c r="C15" s="225"/>
+      <c r="C15" s="234"/>
       <c r="D15" s="156"/>
       <c r="E15" s="156"/>
       <c r="F15" s="156"/>
@@ -7293,9 +7214,9 @@
       <c r="M15" s="156"/>
       <c r="N15" s="156"/>
       <c r="O15" s="156"/>
-      <c r="P15" s="232"/>
+      <c r="P15" s="238"/>
       <c r="Q15" s="115"/>
-      <c r="R15" s="225"/>
+      <c r="R15" s="234"/>
       <c r="S15" s="156"/>
       <c r="T15" s="156"/>
       <c r="U15" s="156"/>
@@ -7303,25 +7224,25 @@
       <c r="W15" s="156"/>
       <c r="X15" s="156"/>
       <c r="Y15" s="155"/>
-      <c r="Z15" s="232"/>
+      <c r="Z15" s="238"/>
       <c r="AA15" s="105"/>
       <c r="AC15" s="104"/>
-      <c r="AD15" s="225"/>
-      <c r="AE15" s="230"/>
-      <c r="AF15" s="230"/>
-      <c r="AG15" s="230"/>
-      <c r="AH15" s="230"/>
-      <c r="AI15" s="230"/>
-      <c r="AJ15" s="230"/>
-      <c r="AK15" s="230"/>
-      <c r="AL15" s="230"/>
-      <c r="AM15" s="230"/>
-      <c r="AN15" s="230"/>
-      <c r="AO15" s="230"/>
-      <c r="AP15" s="230"/>
-      <c r="AQ15" s="230"/>
-      <c r="AR15" s="230"/>
-      <c r="AS15" s="232"/>
+      <c r="AD15" s="234"/>
+      <c r="AE15" s="236"/>
+      <c r="AF15" s="236"/>
+      <c r="AG15" s="236"/>
+      <c r="AH15" s="236"/>
+      <c r="AI15" s="236"/>
+      <c r="AJ15" s="236"/>
+      <c r="AK15" s="236"/>
+      <c r="AL15" s="236"/>
+      <c r="AM15" s="236"/>
+      <c r="AN15" s="236"/>
+      <c r="AO15" s="236"/>
+      <c r="AP15" s="236"/>
+      <c r="AQ15" s="236"/>
+      <c r="AR15" s="236"/>
+      <c r="AS15" s="238"/>
       <c r="AT15" s="105"/>
       <c r="AV15" s="104"/>
       <c r="AW15" s="89"/>
@@ -7344,7 +7265,7 @@
     </row>
     <row r="16" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B16" s="104"/>
-      <c r="C16" s="225"/>
+      <c r="C16" s="234"/>
       <c r="D16" s="159" t="s">
         <v>45</v>
       </c>
@@ -7359,9 +7280,9 @@
       <c r="M16" s="161"/>
       <c r="N16" s="161"/>
       <c r="O16" s="161"/>
-      <c r="P16" s="232"/>
+      <c r="P16" s="238"/>
       <c r="Q16" s="119"/>
-      <c r="R16" s="225"/>
+      <c r="R16" s="234"/>
       <c r="S16" s="162" t="s">
         <v>35</v>
       </c>
@@ -7371,27 +7292,27 @@
       <c r="W16" s="162"/>
       <c r="X16" s="162"/>
       <c r="Y16" s="161"/>
-      <c r="Z16" s="232"/>
+      <c r="Z16" s="238"/>
       <c r="AA16" s="105"/>
       <c r="AC16" s="104"/>
-      <c r="AD16" s="225"/>
-      <c r="AE16" s="252" t="s">
+      <c r="AD16" s="234"/>
+      <c r="AE16" s="266" t="s">
         <v>26</v>
       </c>
-      <c r="AF16" s="252"/>
-      <c r="AG16" s="252"/>
-      <c r="AH16" s="252"/>
-      <c r="AI16" s="252"/>
-      <c r="AJ16" s="252"/>
-      <c r="AK16" s="252"/>
-      <c r="AL16" s="252"/>
-      <c r="AM16" s="252"/>
-      <c r="AN16" s="252"/>
-      <c r="AO16" s="252"/>
-      <c r="AP16" s="252"/>
-      <c r="AQ16" s="252"/>
-      <c r="AR16" s="252"/>
-      <c r="AS16" s="232"/>
+      <c r="AF16" s="266"/>
+      <c r="AG16" s="266"/>
+      <c r="AH16" s="266"/>
+      <c r="AI16" s="266"/>
+      <c r="AJ16" s="266"/>
+      <c r="AK16" s="266"/>
+      <c r="AL16" s="266"/>
+      <c r="AM16" s="266"/>
+      <c r="AN16" s="266"/>
+      <c r="AO16" s="266"/>
+      <c r="AP16" s="266"/>
+      <c r="AQ16" s="266"/>
+      <c r="AR16" s="266"/>
+      <c r="AS16" s="238"/>
       <c r="AT16" s="105"/>
       <c r="AV16" s="104"/>
       <c r="AW16" s="127" t="s">
@@ -7418,7 +7339,7 @@
     </row>
     <row r="17" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B17" s="104"/>
-      <c r="C17" s="225"/>
+      <c r="C17" s="234"/>
       <c r="D17" s="158" t="s">
         <v>39</v>
       </c>
@@ -7433,9 +7354,9 @@
       <c r="M17" s="161"/>
       <c r="N17" s="161"/>
       <c r="O17" s="161"/>
-      <c r="P17" s="232"/>
+      <c r="P17" s="238"/>
       <c r="Q17" s="118"/>
-      <c r="R17" s="225"/>
+      <c r="R17" s="234"/>
       <c r="S17" s="153"/>
       <c r="T17" s="153"/>
       <c r="U17" s="153"/>
@@ -7443,10 +7364,10 @@
       <c r="W17" s="153"/>
       <c r="X17" s="153"/>
       <c r="Y17" s="163"/>
-      <c r="Z17" s="232"/>
+      <c r="Z17" s="238"/>
       <c r="AA17" s="105"/>
       <c r="AC17" s="104"/>
-      <c r="AD17" s="225"/>
+      <c r="AD17" s="234"/>
       <c r="AE17" s="171" t="s">
         <v>25</v>
       </c>
@@ -7461,11 +7382,11 @@
       <c r="AN17" s="142"/>
       <c r="AO17" s="142"/>
       <c r="AP17" s="142"/>
-      <c r="AQ17" s="253">
+      <c r="AQ17" s="243">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR17" s="253"/>
-      <c r="AS17" s="232"/>
+      <c r="AR17" s="243"/>
+      <c r="AS17" s="238"/>
       <c r="AT17" s="105"/>
       <c r="AV17" s="104"/>
       <c r="AW17" s="128" t="s">
@@ -7492,7 +7413,7 @@
     </row>
     <row r="18" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104"/>
-      <c r="C18" s="225"/>
+      <c r="C18" s="234"/>
       <c r="D18" s="164"/>
       <c r="E18" s="164"/>
       <c r="F18" s="164"/>
@@ -7505,9 +7426,9 @@
       <c r="M18" s="164"/>
       <c r="N18" s="164"/>
       <c r="O18" s="164"/>
-      <c r="P18" s="232"/>
+      <c r="P18" s="238"/>
       <c r="Q18" s="120"/>
-      <c r="R18" s="225"/>
+      <c r="R18" s="234"/>
       <c r="S18" s="164"/>
       <c r="T18" s="164"/>
       <c r="U18" s="164"/>
@@ -7515,25 +7436,25 @@
       <c r="W18" s="164"/>
       <c r="X18" s="164"/>
       <c r="Y18" s="163"/>
-      <c r="Z18" s="232"/>
+      <c r="Z18" s="238"/>
       <c r="AA18" s="105"/>
       <c r="AC18" s="104"/>
-      <c r="AD18" s="225"/>
-      <c r="AE18" s="228"/>
-      <c r="AF18" s="228"/>
-      <c r="AG18" s="228"/>
-      <c r="AH18" s="228"/>
-      <c r="AI18" s="228"/>
-      <c r="AJ18" s="228"/>
-      <c r="AK18" s="228"/>
-      <c r="AL18" s="228"/>
-      <c r="AM18" s="228"/>
-      <c r="AN18" s="228"/>
-      <c r="AO18" s="228"/>
-      <c r="AP18" s="228"/>
-      <c r="AQ18" s="228"/>
-      <c r="AR18" s="228"/>
-      <c r="AS18" s="232"/>
+      <c r="AD18" s="234"/>
+      <c r="AE18" s="263"/>
+      <c r="AF18" s="263"/>
+      <c r="AG18" s="263"/>
+      <c r="AH18" s="263"/>
+      <c r="AI18" s="263"/>
+      <c r="AJ18" s="263"/>
+      <c r="AK18" s="263"/>
+      <c r="AL18" s="263"/>
+      <c r="AM18" s="263"/>
+      <c r="AN18" s="263"/>
+      <c r="AO18" s="263"/>
+      <c r="AP18" s="263"/>
+      <c r="AQ18" s="263"/>
+      <c r="AR18" s="263"/>
+      <c r="AS18" s="238"/>
       <c r="AT18" s="105"/>
       <c r="AV18" s="104"/>
       <c r="AW18" s="89"/>
@@ -7556,7 +7477,7 @@
     </row>
     <row r="19" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="104"/>
-      <c r="C19" s="225"/>
+      <c r="C19" s="234"/>
       <c r="D19" s="164"/>
       <c r="E19" s="164"/>
       <c r="F19" s="164"/>
@@ -7569,9 +7490,9 @@
       <c r="M19" s="164"/>
       <c r="N19" s="164"/>
       <c r="O19" s="164"/>
-      <c r="P19" s="232"/>
+      <c r="P19" s="238"/>
       <c r="Q19" s="120"/>
-      <c r="R19" s="225"/>
+      <c r="R19" s="234"/>
       <c r="S19" s="164"/>
       <c r="T19" s="164"/>
       <c r="U19" s="164"/>
@@ -7579,25 +7500,25 @@
       <c r="W19" s="164"/>
       <c r="X19" s="164"/>
       <c r="Y19" s="163"/>
-      <c r="Z19" s="232"/>
+      <c r="Z19" s="238"/>
       <c r="AA19" s="105"/>
       <c r="AC19" s="104"/>
-      <c r="AD19" s="225"/>
-      <c r="AE19" s="228"/>
-      <c r="AF19" s="228"/>
-      <c r="AG19" s="228"/>
-      <c r="AH19" s="228"/>
-      <c r="AI19" s="228"/>
-      <c r="AJ19" s="228"/>
-      <c r="AK19" s="228"/>
-      <c r="AL19" s="228"/>
-      <c r="AM19" s="228"/>
-      <c r="AN19" s="228"/>
-      <c r="AO19" s="228"/>
-      <c r="AP19" s="228"/>
-      <c r="AQ19" s="228"/>
-      <c r="AR19" s="228"/>
-      <c r="AS19" s="232"/>
+      <c r="AD19" s="234"/>
+      <c r="AE19" s="263"/>
+      <c r="AF19" s="263"/>
+      <c r="AG19" s="263"/>
+      <c r="AH19" s="263"/>
+      <c r="AI19" s="263"/>
+      <c r="AJ19" s="263"/>
+      <c r="AK19" s="263"/>
+      <c r="AL19" s="263"/>
+      <c r="AM19" s="263"/>
+      <c r="AN19" s="263"/>
+      <c r="AO19" s="263"/>
+      <c r="AP19" s="263"/>
+      <c r="AQ19" s="263"/>
+      <c r="AR19" s="263"/>
+      <c r="AS19" s="238"/>
       <c r="AT19" s="105"/>
       <c r="AV19" s="104"/>
       <c r="AW19" s="89"/>
@@ -7620,7 +7541,7 @@
     </row>
     <row r="20" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B20" s="104"/>
-      <c r="C20" s="225"/>
+      <c r="C20" s="234"/>
       <c r="D20" s="151" t="s">
         <v>101</v>
       </c>
@@ -7635,9 +7556,9 @@
       <c r="M20" s="153"/>
       <c r="N20" s="153"/>
       <c r="O20" s="158"/>
-      <c r="P20" s="232"/>
+      <c r="P20" s="238"/>
       <c r="Q20" s="117"/>
-      <c r="R20" s="225"/>
+      <c r="R20" s="234"/>
       <c r="S20" s="153" t="s">
         <v>37</v>
       </c>
@@ -7647,27 +7568,27 @@
       <c r="W20" s="153"/>
       <c r="X20" s="153"/>
       <c r="Y20" s="158"/>
-      <c r="Z20" s="232"/>
+      <c r="Z20" s="238"/>
       <c r="AA20" s="105"/>
       <c r="AC20" s="104"/>
-      <c r="AD20" s="225"/>
-      <c r="AE20" s="254" t="s">
+      <c r="AD20" s="234"/>
+      <c r="AE20" s="242" t="s">
         <v>26</v>
       </c>
-      <c r="AF20" s="254"/>
-      <c r="AG20" s="254"/>
-      <c r="AH20" s="254"/>
-      <c r="AI20" s="254"/>
-      <c r="AJ20" s="254"/>
-      <c r="AK20" s="254"/>
-      <c r="AL20" s="254"/>
-      <c r="AM20" s="254"/>
-      <c r="AN20" s="254"/>
-      <c r="AO20" s="254"/>
-      <c r="AP20" s="254"/>
-      <c r="AQ20" s="254"/>
-      <c r="AR20" s="254"/>
-      <c r="AS20" s="232"/>
+      <c r="AF20" s="242"/>
+      <c r="AG20" s="242"/>
+      <c r="AH20" s="242"/>
+      <c r="AI20" s="242"/>
+      <c r="AJ20" s="242"/>
+      <c r="AK20" s="242"/>
+      <c r="AL20" s="242"/>
+      <c r="AM20" s="242"/>
+      <c r="AN20" s="242"/>
+      <c r="AO20" s="242"/>
+      <c r="AP20" s="242"/>
+      <c r="AQ20" s="242"/>
+      <c r="AR20" s="242"/>
+      <c r="AS20" s="238"/>
       <c r="AT20" s="105"/>
       <c r="AV20" s="104"/>
       <c r="AW20" s="138" t="s">
@@ -7694,7 +7615,7 @@
     </row>
     <row r="21" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B21" s="104"/>
-      <c r="C21" s="225"/>
+      <c r="C21" s="234"/>
       <c r="D21" s="154" t="s">
         <v>104</v>
       </c>
@@ -7709,9 +7630,9 @@
       <c r="M21" s="158"/>
       <c r="N21" s="158"/>
       <c r="O21" s="158"/>
-      <c r="P21" s="232"/>
+      <c r="P21" s="238"/>
       <c r="Q21" s="116"/>
-      <c r="R21" s="225"/>
+      <c r="R21" s="234"/>
       <c r="S21" s="158" t="s">
         <v>36</v>
       </c>
@@ -7721,10 +7642,10 @@
       <c r="W21" s="158"/>
       <c r="X21" s="158"/>
       <c r="Y21" s="163"/>
-      <c r="Z21" s="232"/>
+      <c r="Z21" s="238"/>
       <c r="AA21" s="105"/>
       <c r="AC21" s="104"/>
-      <c r="AD21" s="225"/>
+      <c r="AD21" s="234"/>
       <c r="AE21" s="172" t="s">
         <v>27</v>
       </c>
@@ -7739,11 +7660,11 @@
       <c r="AN21" s="143"/>
       <c r="AO21" s="143"/>
       <c r="AP21" s="143"/>
-      <c r="AQ21" s="255">
+      <c r="AQ21" s="244">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR21" s="255"/>
-      <c r="AS21" s="232"/>
+      <c r="AR21" s="244"/>
+      <c r="AS21" s="238"/>
       <c r="AT21" s="105"/>
       <c r="AV21" s="104"/>
       <c r="AW21" s="128" t="s">
@@ -7770,7 +7691,7 @@
     </row>
     <row r="22" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="104"/>
-      <c r="C22" s="225"/>
+      <c r="C22" s="234"/>
       <c r="D22" s="143"/>
       <c r="E22" s="143"/>
       <c r="F22" s="143"/>
@@ -7783,9 +7704,9 @@
       <c r="M22" s="143"/>
       <c r="N22" s="143"/>
       <c r="O22" s="143"/>
-      <c r="P22" s="232"/>
+      <c r="P22" s="238"/>
       <c r="Q22" s="109"/>
-      <c r="R22" s="225"/>
+      <c r="R22" s="234"/>
       <c r="S22" s="143"/>
       <c r="T22" s="143"/>
       <c r="U22" s="143"/>
@@ -7793,25 +7714,25 @@
       <c r="W22" s="143"/>
       <c r="X22" s="143"/>
       <c r="Y22" s="163"/>
-      <c r="Z22" s="232"/>
+      <c r="Z22" s="238"/>
       <c r="AA22" s="105"/>
       <c r="AC22" s="104"/>
-      <c r="AD22" s="225"/>
-      <c r="AE22" s="229"/>
-      <c r="AF22" s="229"/>
-      <c r="AG22" s="229"/>
-      <c r="AH22" s="229"/>
-      <c r="AI22" s="229"/>
-      <c r="AJ22" s="229"/>
-      <c r="AK22" s="229"/>
-      <c r="AL22" s="229"/>
-      <c r="AM22" s="229"/>
-      <c r="AN22" s="229"/>
-      <c r="AO22" s="229"/>
-      <c r="AP22" s="229"/>
-      <c r="AQ22" s="229"/>
-      <c r="AR22" s="229"/>
-      <c r="AS22" s="232"/>
+      <c r="AD22" s="234"/>
+      <c r="AE22" s="245"/>
+      <c r="AF22" s="245"/>
+      <c r="AG22" s="245"/>
+      <c r="AH22" s="245"/>
+      <c r="AI22" s="245"/>
+      <c r="AJ22" s="245"/>
+      <c r="AK22" s="245"/>
+      <c r="AL22" s="245"/>
+      <c r="AM22" s="245"/>
+      <c r="AN22" s="245"/>
+      <c r="AO22" s="245"/>
+      <c r="AP22" s="245"/>
+      <c r="AQ22" s="245"/>
+      <c r="AR22" s="245"/>
+      <c r="AS22" s="238"/>
       <c r="AT22" s="105"/>
       <c r="AV22" s="104"/>
       <c r="AW22" s="95"/>
@@ -7834,7 +7755,7 @@
     </row>
     <row r="23" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="104"/>
-      <c r="C23" s="225"/>
+      <c r="C23" s="234"/>
       <c r="D23" s="143"/>
       <c r="E23" s="143"/>
       <c r="F23" s="143"/>
@@ -7847,9 +7768,9 @@
       <c r="M23" s="143"/>
       <c r="N23" s="143"/>
       <c r="O23" s="143"/>
-      <c r="P23" s="232"/>
+      <c r="P23" s="238"/>
       <c r="Q23" s="109"/>
-      <c r="R23" s="225"/>
+      <c r="R23" s="234"/>
       <c r="S23" s="143"/>
       <c r="T23" s="143"/>
       <c r="U23" s="143"/>
@@ -7857,25 +7778,25 @@
       <c r="W23" s="143"/>
       <c r="X23" s="143"/>
       <c r="Y23" s="163"/>
-      <c r="Z23" s="232"/>
+      <c r="Z23" s="238"/>
       <c r="AA23" s="105"/>
       <c r="AC23" s="104"/>
-      <c r="AD23" s="225"/>
-      <c r="AE23" s="229"/>
-      <c r="AF23" s="229"/>
-      <c r="AG23" s="229"/>
-      <c r="AH23" s="229"/>
-      <c r="AI23" s="229"/>
-      <c r="AJ23" s="229"/>
-      <c r="AK23" s="229"/>
-      <c r="AL23" s="229"/>
-      <c r="AM23" s="229"/>
-      <c r="AN23" s="229"/>
-      <c r="AO23" s="229"/>
-      <c r="AP23" s="229"/>
-      <c r="AQ23" s="229"/>
-      <c r="AR23" s="229"/>
-      <c r="AS23" s="232"/>
+      <c r="AD23" s="234"/>
+      <c r="AE23" s="245"/>
+      <c r="AF23" s="245"/>
+      <c r="AG23" s="245"/>
+      <c r="AH23" s="245"/>
+      <c r="AI23" s="245"/>
+      <c r="AJ23" s="245"/>
+      <c r="AK23" s="245"/>
+      <c r="AL23" s="245"/>
+      <c r="AM23" s="245"/>
+      <c r="AN23" s="245"/>
+      <c r="AO23" s="245"/>
+      <c r="AP23" s="245"/>
+      <c r="AQ23" s="245"/>
+      <c r="AR23" s="245"/>
+      <c r="AS23" s="238"/>
       <c r="AT23" s="105"/>
       <c r="AV23" s="104"/>
       <c r="AW23" s="95"/>
@@ -7898,7 +7819,7 @@
     </row>
     <row r="24" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B24" s="104"/>
-      <c r="C24" s="225"/>
+      <c r="C24" s="234"/>
       <c r="D24" s="165" t="s">
         <v>102</v>
       </c>
@@ -7913,9 +7834,9 @@
       <c r="M24" s="153"/>
       <c r="N24" s="153"/>
       <c r="O24" s="163"/>
-      <c r="P24" s="232"/>
+      <c r="P24" s="238"/>
       <c r="Q24" s="100"/>
-      <c r="R24" s="225"/>
+      <c r="R24" s="234"/>
       <c r="S24" s="163"/>
       <c r="T24" s="163"/>
       <c r="U24" s="163"/>
@@ -7923,10 +7844,10 @@
       <c r="W24" s="163"/>
       <c r="X24" s="163"/>
       <c r="Y24" s="163"/>
-      <c r="Z24" s="232"/>
+      <c r="Z24" s="238"/>
       <c r="AA24" s="105"/>
       <c r="AC24" s="104"/>
-      <c r="AD24" s="225"/>
+      <c r="AD24" s="234"/>
       <c r="AE24" s="173" t="s">
         <v>26</v>
       </c>
@@ -7943,7 +7864,7 @@
       <c r="AP24" s="144"/>
       <c r="AQ24" s="144"/>
       <c r="AR24" s="145"/>
-      <c r="AS24" s="232"/>
+      <c r="AS24" s="238"/>
       <c r="AT24" s="105"/>
       <c r="AV24" s="104"/>
       <c r="AW24" s="139" t="s">
@@ -7970,7 +7891,7 @@
     </row>
     <row r="25" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B25" s="104"/>
-      <c r="C25" s="225"/>
+      <c r="C25" s="234"/>
       <c r="D25" s="166" t="s">
         <v>103</v>
       </c>
@@ -7985,9 +7906,9 @@
       <c r="M25" s="167"/>
       <c r="N25" s="167"/>
       <c r="O25" s="163"/>
-      <c r="P25" s="232"/>
+      <c r="P25" s="238"/>
       <c r="Q25" s="100"/>
-      <c r="R25" s="225"/>
+      <c r="R25" s="234"/>
       <c r="S25" s="163"/>
       <c r="T25" s="163"/>
       <c r="U25" s="163"/>
@@ -7995,10 +7916,10 @@
       <c r="W25" s="163"/>
       <c r="X25" s="163"/>
       <c r="Y25" s="163"/>
-      <c r="Z25" s="232"/>
+      <c r="Z25" s="238"/>
       <c r="AA25" s="105"/>
       <c r="AC25" s="104"/>
-      <c r="AD25" s="225"/>
+      <c r="AD25" s="234"/>
       <c r="AE25" s="174" t="s">
         <v>28</v>
       </c>
@@ -8013,11 +7934,11 @@
       <c r="AN25" s="146"/>
       <c r="AO25" s="146"/>
       <c r="AP25" s="146"/>
-      <c r="AQ25" s="256">
+      <c r="AQ25" s="246">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR25" s="256"/>
-      <c r="AS25" s="232"/>
+      <c r="AR25" s="246"/>
+      <c r="AS25" s="238"/>
       <c r="AT25" s="105"/>
       <c r="AV25" s="104"/>
       <c r="AW25" s="140" t="s">
@@ -8044,7 +7965,7 @@
     </row>
     <row r="26" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="104"/>
-      <c r="C26" s="225"/>
+      <c r="C26" s="234"/>
       <c r="D26" s="167"/>
       <c r="E26" s="167"/>
       <c r="F26" s="167"/>
@@ -8057,9 +7978,9 @@
       <c r="M26" s="167"/>
       <c r="N26" s="167"/>
       <c r="O26" s="163"/>
-      <c r="P26" s="232"/>
+      <c r="P26" s="238"/>
       <c r="Q26" s="100"/>
-      <c r="R26" s="225"/>
+      <c r="R26" s="234"/>
       <c r="S26" s="163"/>
       <c r="T26" s="163"/>
       <c r="U26" s="163"/>
@@ -8067,25 +7988,25 @@
       <c r="W26" s="163"/>
       <c r="X26" s="163"/>
       <c r="Y26" s="163"/>
-      <c r="Z26" s="232"/>
+      <c r="Z26" s="238"/>
       <c r="AA26" s="105"/>
       <c r="AC26" s="104"/>
-      <c r="AD26" s="225"/>
-      <c r="AE26" s="257"/>
-      <c r="AF26" s="257"/>
-      <c r="AG26" s="257"/>
-      <c r="AH26" s="257"/>
-      <c r="AI26" s="257"/>
-      <c r="AJ26" s="257"/>
-      <c r="AK26" s="257"/>
-      <c r="AL26" s="257"/>
-      <c r="AM26" s="257"/>
-      <c r="AN26" s="257"/>
-      <c r="AO26" s="257"/>
-      <c r="AP26" s="257"/>
-      <c r="AQ26" s="257"/>
-      <c r="AR26" s="257"/>
-      <c r="AS26" s="232"/>
+      <c r="AD26" s="234"/>
+      <c r="AE26" s="237"/>
+      <c r="AF26" s="237"/>
+      <c r="AG26" s="237"/>
+      <c r="AH26" s="237"/>
+      <c r="AI26" s="237"/>
+      <c r="AJ26" s="237"/>
+      <c r="AK26" s="237"/>
+      <c r="AL26" s="237"/>
+      <c r="AM26" s="237"/>
+      <c r="AN26" s="237"/>
+      <c r="AO26" s="237"/>
+      <c r="AP26" s="237"/>
+      <c r="AQ26" s="237"/>
+      <c r="AR26" s="237"/>
+      <c r="AS26" s="238"/>
       <c r="AT26" s="105"/>
       <c r="AV26" s="104"/>
       <c r="AW26" s="98"/>
@@ -8108,7 +8029,7 @@
     </row>
     <row r="27" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="104"/>
-      <c r="C27" s="225"/>
+      <c r="C27" s="234"/>
       <c r="D27" s="167"/>
       <c r="E27" s="167"/>
       <c r="F27" s="167"/>
@@ -8121,9 +8042,9 @@
       <c r="M27" s="167"/>
       <c r="N27" s="167"/>
       <c r="O27" s="163"/>
-      <c r="P27" s="232"/>
+      <c r="P27" s="238"/>
       <c r="Q27" s="100"/>
-      <c r="R27" s="225"/>
+      <c r="R27" s="234"/>
       <c r="S27" s="163"/>
       <c r="T27" s="163"/>
       <c r="U27" s="163"/>
@@ -8131,25 +8052,25 @@
       <c r="W27" s="163"/>
       <c r="X27" s="163"/>
       <c r="Y27" s="163"/>
-      <c r="Z27" s="232"/>
+      <c r="Z27" s="238"/>
       <c r="AA27" s="105"/>
       <c r="AC27" s="104"/>
-      <c r="AD27" s="225"/>
-      <c r="AE27" s="257"/>
-      <c r="AF27" s="257"/>
-      <c r="AG27" s="257"/>
-      <c r="AH27" s="257"/>
-      <c r="AI27" s="257"/>
-      <c r="AJ27" s="257"/>
-      <c r="AK27" s="257"/>
-      <c r="AL27" s="257"/>
-      <c r="AM27" s="257"/>
-      <c r="AN27" s="257"/>
-      <c r="AO27" s="257"/>
-      <c r="AP27" s="257"/>
-      <c r="AQ27" s="257"/>
-      <c r="AR27" s="257"/>
-      <c r="AS27" s="232"/>
+      <c r="AD27" s="234"/>
+      <c r="AE27" s="237"/>
+      <c r="AF27" s="237"/>
+      <c r="AG27" s="237"/>
+      <c r="AH27" s="237"/>
+      <c r="AI27" s="237"/>
+      <c r="AJ27" s="237"/>
+      <c r="AK27" s="237"/>
+      <c r="AL27" s="237"/>
+      <c r="AM27" s="237"/>
+      <c r="AN27" s="237"/>
+      <c r="AO27" s="237"/>
+      <c r="AP27" s="237"/>
+      <c r="AQ27" s="237"/>
+      <c r="AR27" s="237"/>
+      <c r="AS27" s="238"/>
       <c r="AT27" s="105"/>
       <c r="AV27" s="104"/>
       <c r="AW27" s="98"/>
@@ -8172,7 +8093,7 @@
     </row>
     <row r="28" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B28" s="104"/>
-      <c r="C28" s="225"/>
+      <c r="C28" s="234"/>
       <c r="D28" s="168" t="s">
         <v>43</v>
       </c>
@@ -8187,9 +8108,9 @@
       <c r="M28" s="148"/>
       <c r="N28" s="148"/>
       <c r="O28" s="163"/>
-      <c r="P28" s="232"/>
+      <c r="P28" s="238"/>
       <c r="Q28" s="100"/>
-      <c r="R28" s="225"/>
+      <c r="R28" s="234"/>
       <c r="S28" s="163"/>
       <c r="T28" s="163"/>
       <c r="U28" s="163"/>
@@ -8197,10 +8118,10 @@
       <c r="W28" s="163"/>
       <c r="X28" s="163"/>
       <c r="Y28" s="155"/>
-      <c r="Z28" s="232"/>
+      <c r="Z28" s="238"/>
       <c r="AA28" s="105"/>
       <c r="AC28" s="104"/>
-      <c r="AD28" s="225"/>
+      <c r="AD28" s="234"/>
       <c r="AE28" s="175" t="s">
         <v>29</v>
       </c>
@@ -8215,11 +8136,11 @@
       <c r="AN28" s="147"/>
       <c r="AO28" s="147"/>
       <c r="AP28" s="147"/>
-      <c r="AQ28" s="258">
+      <c r="AQ28" s="241">
         <v>0.38055555555555554</v>
       </c>
-      <c r="AR28" s="258"/>
-      <c r="AS28" s="232"/>
+      <c r="AR28" s="241"/>
+      <c r="AS28" s="238"/>
       <c r="AT28" s="105"/>
       <c r="AV28" s="104"/>
       <c r="AW28" s="133" t="s">
@@ -8246,7 +8167,7 @@
     </row>
     <row r="29" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="104"/>
-      <c r="C29" s="225"/>
+      <c r="C29" s="234"/>
       <c r="D29" s="148"/>
       <c r="E29" s="148"/>
       <c r="F29" s="148"/>
@@ -8259,9 +8180,9 @@
       <c r="M29" s="148"/>
       <c r="N29" s="148"/>
       <c r="O29" s="163"/>
-      <c r="P29" s="232"/>
+      <c r="P29" s="238"/>
       <c r="Q29" s="100"/>
-      <c r="R29" s="225"/>
+      <c r="R29" s="234"/>
       <c r="S29" s="163"/>
       <c r="T29" s="163"/>
       <c r="U29" s="163"/>
@@ -8269,10 +8190,10 @@
       <c r="W29" s="163"/>
       <c r="X29" s="163"/>
       <c r="Y29" s="163"/>
-      <c r="Z29" s="232"/>
+      <c r="Z29" s="238"/>
       <c r="AA29" s="105"/>
       <c r="AC29" s="104"/>
-      <c r="AD29" s="225"/>
+      <c r="AD29" s="234"/>
       <c r="AE29" s="148"/>
       <c r="AF29" s="148"/>
       <c r="AG29" s="148"/>
@@ -8287,7 +8208,7 @@
       <c r="AP29" s="148"/>
       <c r="AQ29" s="148"/>
       <c r="AR29" s="145"/>
-      <c r="AS29" s="232"/>
+      <c r="AS29" s="238"/>
       <c r="AT29" s="105"/>
       <c r="AV29" s="104"/>
       <c r="AW29" s="99"/>
@@ -8310,7 +8231,7 @@
     </row>
     <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" s="104"/>
-      <c r="C30" s="225"/>
+      <c r="C30" s="234"/>
       <c r="D30" s="150"/>
       <c r="E30" s="150"/>
       <c r="F30" s="163"/>
@@ -8323,9 +8244,9 @@
       <c r="M30" s="163"/>
       <c r="N30" s="163"/>
       <c r="O30" s="163"/>
-      <c r="P30" s="232"/>
+      <c r="P30" s="238"/>
       <c r="Q30" s="100"/>
-      <c r="R30" s="225"/>
+      <c r="R30" s="234"/>
       <c r="S30" s="163"/>
       <c r="T30" s="163"/>
       <c r="U30" s="163"/>
@@ -8333,10 +8254,10 @@
       <c r="W30" s="163"/>
       <c r="X30" s="163"/>
       <c r="Y30" s="163"/>
-      <c r="Z30" s="232"/>
+      <c r="Z30" s="238"/>
       <c r="AA30" s="105"/>
       <c r="AC30" s="104"/>
-      <c r="AD30" s="225"/>
+      <c r="AD30" s="234"/>
       <c r="AE30" s="145"/>
       <c r="AF30" s="145"/>
       <c r="AG30" s="145"/>
@@ -8351,7 +8272,7 @@
       <c r="AP30" s="145"/>
       <c r="AQ30" s="145"/>
       <c r="AR30" s="145"/>
-      <c r="AS30" s="232"/>
+      <c r="AS30" s="238"/>
       <c r="AT30" s="105"/>
       <c r="AV30" s="104"/>
       <c r="AW30" s="133" t="s">
@@ -8378,7 +8299,7 @@
     </row>
     <row r="31" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B31" s="104"/>
-      <c r="C31" s="225"/>
+      <c r="C31" s="234"/>
       <c r="D31" s="163"/>
       <c r="E31" s="163"/>
       <c r="F31" s="163"/>
@@ -8391,9 +8312,9 @@
       <c r="M31" s="163"/>
       <c r="N31" s="163"/>
       <c r="O31" s="163"/>
-      <c r="P31" s="232"/>
+      <c r="P31" s="238"/>
       <c r="Q31" s="100"/>
-      <c r="R31" s="225"/>
+      <c r="R31" s="234"/>
       <c r="S31" s="163"/>
       <c r="T31" s="163"/>
       <c r="U31" s="163"/>
@@ -8401,10 +8322,10 @@
       <c r="W31" s="163"/>
       <c r="X31" s="163"/>
       <c r="Y31" s="163"/>
-      <c r="Z31" s="232"/>
+      <c r="Z31" s="238"/>
       <c r="AA31" s="105"/>
       <c r="AC31" s="104"/>
-      <c r="AD31" s="225"/>
+      <c r="AD31" s="234"/>
       <c r="AE31" s="145"/>
       <c r="AF31" s="145"/>
       <c r="AG31" s="145"/>
@@ -8419,7 +8340,7 @@
       <c r="AP31" s="145"/>
       <c r="AQ31" s="145"/>
       <c r="AR31" s="145"/>
-      <c r="AS31" s="232"/>
+      <c r="AS31" s="238"/>
       <c r="AT31" s="105"/>
       <c r="AV31" s="104"/>
       <c r="AW31" s="99"/>
@@ -8442,48 +8363,48 @@
     </row>
     <row r="32" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="104"/>
-      <c r="C32" s="225"/>
-      <c r="D32" s="261"/>
-      <c r="E32" s="261"/>
-      <c r="F32" s="261"/>
-      <c r="G32" s="261"/>
-      <c r="H32" s="261"/>
-      <c r="I32" s="261"/>
-      <c r="J32" s="261"/>
-      <c r="K32" s="261"/>
-      <c r="L32" s="261"/>
-      <c r="M32" s="261"/>
-      <c r="N32" s="261"/>
-      <c r="O32" s="261"/>
-      <c r="P32" s="261"/>
+      <c r="C32" s="234"/>
+      <c r="D32" s="235"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235"/>
+      <c r="K32" s="235"/>
+      <c r="L32" s="235"/>
+      <c r="M32" s="235"/>
+      <c r="N32" s="235"/>
+      <c r="O32" s="235"/>
+      <c r="P32" s="235"/>
       <c r="Q32" s="100"/>
-      <c r="R32" s="225"/>
-      <c r="S32" s="261"/>
-      <c r="T32" s="261"/>
-      <c r="U32" s="261"/>
-      <c r="V32" s="261"/>
-      <c r="W32" s="261"/>
-      <c r="X32" s="261"/>
-      <c r="Y32" s="261"/>
-      <c r="Z32" s="261"/>
+      <c r="R32" s="234"/>
+      <c r="S32" s="235"/>
+      <c r="T32" s="235"/>
+      <c r="U32" s="235"/>
+      <c r="V32" s="235"/>
+      <c r="W32" s="235"/>
+      <c r="X32" s="235"/>
+      <c r="Y32" s="235"/>
+      <c r="Z32" s="235"/>
       <c r="AA32" s="105"/>
       <c r="AC32" s="104"/>
-      <c r="AD32" s="225"/>
-      <c r="AE32" s="232"/>
-      <c r="AF32" s="232"/>
-      <c r="AG32" s="232"/>
-      <c r="AH32" s="232"/>
-      <c r="AI32" s="232"/>
-      <c r="AJ32" s="232"/>
-      <c r="AK32" s="232"/>
-      <c r="AL32" s="232"/>
-      <c r="AM32" s="232"/>
-      <c r="AN32" s="232"/>
-      <c r="AO32" s="232"/>
-      <c r="AP32" s="232"/>
-      <c r="AQ32" s="232"/>
-      <c r="AR32" s="232"/>
-      <c r="AS32" s="232"/>
+      <c r="AD32" s="234"/>
+      <c r="AE32" s="238"/>
+      <c r="AF32" s="238"/>
+      <c r="AG32" s="238"/>
+      <c r="AH32" s="238"/>
+      <c r="AI32" s="238"/>
+      <c r="AJ32" s="238"/>
+      <c r="AK32" s="238"/>
+      <c r="AL32" s="238"/>
+      <c r="AM32" s="238"/>
+      <c r="AN32" s="238"/>
+      <c r="AO32" s="238"/>
+      <c r="AP32" s="238"/>
+      <c r="AQ32" s="238"/>
+      <c r="AR32" s="238"/>
+      <c r="AS32" s="238"/>
       <c r="AT32" s="105"/>
       <c r="AV32" s="104"/>
       <c r="AW32" s="99"/>
@@ -8574,48 +8495,48 @@
     </row>
     <row r="34" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="104"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="225"/>
-      <c r="F34" s="225"/>
-      <c r="G34" s="225"/>
-      <c r="H34" s="225"/>
-      <c r="I34" s="225"/>
-      <c r="J34" s="225"/>
-      <c r="K34" s="225"/>
-      <c r="L34" s="225"/>
-      <c r="M34" s="225"/>
-      <c r="N34" s="225"/>
-      <c r="O34" s="225"/>
-      <c r="P34" s="225"/>
-      <c r="Q34" s="225"/>
-      <c r="R34" s="225"/>
-      <c r="S34" s="225"/>
-      <c r="T34" s="225"/>
-      <c r="U34" s="225"/>
-      <c r="V34" s="225"/>
-      <c r="W34" s="225"/>
-      <c r="X34" s="225"/>
-      <c r="Y34" s="225"/>
-      <c r="Z34" s="225"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="234"/>
+      <c r="E34" s="234"/>
+      <c r="F34" s="234"/>
+      <c r="G34" s="234"/>
+      <c r="H34" s="234"/>
+      <c r="I34" s="234"/>
+      <c r="J34" s="234"/>
+      <c r="K34" s="234"/>
+      <c r="L34" s="234"/>
+      <c r="M34" s="234"/>
+      <c r="N34" s="234"/>
+      <c r="O34" s="234"/>
+      <c r="P34" s="234"/>
+      <c r="Q34" s="234"/>
+      <c r="R34" s="234"/>
+      <c r="S34" s="234"/>
+      <c r="T34" s="234"/>
+      <c r="U34" s="234"/>
+      <c r="V34" s="234"/>
+      <c r="W34" s="234"/>
+      <c r="X34" s="234"/>
+      <c r="Y34" s="234"/>
+      <c r="Z34" s="234"/>
       <c r="AA34" s="105"/>
       <c r="AC34" s="104"/>
-      <c r="AD34" s="225"/>
-      <c r="AE34" s="225"/>
-      <c r="AF34" s="225"/>
-      <c r="AG34" s="225"/>
-      <c r="AH34" s="225"/>
-      <c r="AI34" s="225"/>
-      <c r="AJ34" s="225"/>
-      <c r="AK34" s="225"/>
-      <c r="AL34" s="225"/>
-      <c r="AM34" s="225"/>
-      <c r="AN34" s="225"/>
-      <c r="AO34" s="225"/>
-      <c r="AP34" s="225"/>
-      <c r="AQ34" s="225"/>
-      <c r="AR34" s="225"/>
-      <c r="AS34" s="225"/>
+      <c r="AD34" s="234"/>
+      <c r="AE34" s="234"/>
+      <c r="AF34" s="234"/>
+      <c r="AG34" s="234"/>
+      <c r="AH34" s="234"/>
+      <c r="AI34" s="234"/>
+      <c r="AJ34" s="234"/>
+      <c r="AK34" s="234"/>
+      <c r="AL34" s="234"/>
+      <c r="AM34" s="234"/>
+      <c r="AN34" s="234"/>
+      <c r="AO34" s="234"/>
+      <c r="AP34" s="234"/>
+      <c r="AQ34" s="234"/>
+      <c r="AR34" s="234"/>
+      <c r="AS34" s="234"/>
       <c r="AT34" s="105"/>
       <c r="AV34" s="104"/>
       <c r="AW34" s="89"/>
@@ -8638,51 +8559,51 @@
     </row>
     <row r="35" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B35" s="104"/>
-      <c r="C35" s="225"/>
-      <c r="D35" s="226" t="s">
+      <c r="C35" s="234"/>
+      <c r="D35" s="261" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="226"/>
-      <c r="F35" s="226"/>
-      <c r="G35" s="226"/>
-      <c r="H35" s="226"/>
-      <c r="I35" s="226"/>
-      <c r="J35" s="226"/>
-      <c r="K35" s="226"/>
-      <c r="L35" s="226"/>
-      <c r="M35" s="226"/>
-      <c r="N35" s="226"/>
-      <c r="O35" s="226"/>
-      <c r="P35" s="226"/>
-      <c r="Q35" s="226"/>
-      <c r="R35" s="226"/>
-      <c r="S35" s="226"/>
-      <c r="T35" s="226"/>
-      <c r="U35" s="226"/>
-      <c r="V35" s="226"/>
-      <c r="W35" s="226"/>
-      <c r="X35" s="226"/>
-      <c r="Y35" s="226"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="261"/>
+      <c r="G35" s="261"/>
+      <c r="H35" s="261"/>
+      <c r="I35" s="261"/>
+      <c r="J35" s="261"/>
+      <c r="K35" s="261"/>
+      <c r="L35" s="261"/>
+      <c r="M35" s="261"/>
+      <c r="N35" s="261"/>
+      <c r="O35" s="261"/>
+      <c r="P35" s="261"/>
+      <c r="Q35" s="261"/>
+      <c r="R35" s="261"/>
+      <c r="S35" s="261"/>
+      <c r="T35" s="261"/>
+      <c r="U35" s="261"/>
+      <c r="V35" s="261"/>
+      <c r="W35" s="261"/>
+      <c r="X35" s="261"/>
+      <c r="Y35" s="261"/>
       <c r="Z35" s="169"/>
       <c r="AA35" s="105"/>
       <c r="AC35" s="104"/>
-      <c r="AD35" s="225"/>
-      <c r="AE35" s="226" t="s">
+      <c r="AD35" s="234"/>
+      <c r="AE35" s="261" t="s">
         <v>30</v>
       </c>
-      <c r="AF35" s="226"/>
-      <c r="AG35" s="226"/>
-      <c r="AH35" s="226"/>
-      <c r="AI35" s="226"/>
-      <c r="AJ35" s="226"/>
-      <c r="AK35" s="226"/>
-      <c r="AL35" s="226"/>
-      <c r="AM35" s="226"/>
-      <c r="AN35" s="226"/>
-      <c r="AO35" s="226"/>
-      <c r="AP35" s="226"/>
-      <c r="AQ35" s="226"/>
-      <c r="AR35" s="226"/>
+      <c r="AF35" s="261"/>
+      <c r="AG35" s="261"/>
+      <c r="AH35" s="261"/>
+      <c r="AI35" s="261"/>
+      <c r="AJ35" s="261"/>
+      <c r="AK35" s="261"/>
+      <c r="AL35" s="261"/>
+      <c r="AM35" s="261"/>
+      <c r="AN35" s="261"/>
+      <c r="AO35" s="261"/>
+      <c r="AP35" s="261"/>
+      <c r="AQ35" s="261"/>
+      <c r="AR35" s="261"/>
       <c r="AS35" s="169"/>
       <c r="AT35" s="105"/>
       <c r="AV35" s="104"/>
@@ -8710,48 +8631,48 @@
     </row>
     <row r="36" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="104"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="232"/>
-      <c r="E36" s="232"/>
-      <c r="F36" s="232"/>
-      <c r="G36" s="232"/>
-      <c r="H36" s="232"/>
-      <c r="I36" s="232"/>
-      <c r="J36" s="232"/>
-      <c r="K36" s="232"/>
-      <c r="L36" s="232"/>
-      <c r="M36" s="232"/>
-      <c r="N36" s="232"/>
-      <c r="O36" s="232"/>
-      <c r="P36" s="232"/>
-      <c r="Q36" s="232"/>
-      <c r="R36" s="232"/>
-      <c r="S36" s="232"/>
-      <c r="T36" s="232"/>
-      <c r="U36" s="232"/>
-      <c r="V36" s="232"/>
-      <c r="W36" s="232"/>
-      <c r="X36" s="232"/>
-      <c r="Y36" s="232"/>
-      <c r="Z36" s="232"/>
+      <c r="C36" s="234"/>
+      <c r="D36" s="238"/>
+      <c r="E36" s="238"/>
+      <c r="F36" s="238"/>
+      <c r="G36" s="238"/>
+      <c r="H36" s="238"/>
+      <c r="I36" s="238"/>
+      <c r="J36" s="238"/>
+      <c r="K36" s="238"/>
+      <c r="L36" s="238"/>
+      <c r="M36" s="238"/>
+      <c r="N36" s="238"/>
+      <c r="O36" s="238"/>
+      <c r="P36" s="238"/>
+      <c r="Q36" s="238"/>
+      <c r="R36" s="238"/>
+      <c r="S36" s="238"/>
+      <c r="T36" s="238"/>
+      <c r="U36" s="238"/>
+      <c r="V36" s="238"/>
+      <c r="W36" s="238"/>
+      <c r="X36" s="238"/>
+      <c r="Y36" s="238"/>
+      <c r="Z36" s="238"/>
       <c r="AA36" s="105"/>
       <c r="AC36" s="104"/>
-      <c r="AD36" s="225"/>
-      <c r="AE36" s="232"/>
-      <c r="AF36" s="232"/>
-      <c r="AG36" s="232"/>
-      <c r="AH36" s="232"/>
-      <c r="AI36" s="232"/>
-      <c r="AJ36" s="232"/>
-      <c r="AK36" s="232"/>
-      <c r="AL36" s="232"/>
-      <c r="AM36" s="232"/>
-      <c r="AN36" s="232"/>
-      <c r="AO36" s="232"/>
-      <c r="AP36" s="232"/>
-      <c r="AQ36" s="232"/>
-      <c r="AR36" s="232"/>
-      <c r="AS36" s="232"/>
+      <c r="AD36" s="234"/>
+      <c r="AE36" s="238"/>
+      <c r="AF36" s="238"/>
+      <c r="AG36" s="238"/>
+      <c r="AH36" s="238"/>
+      <c r="AI36" s="238"/>
+      <c r="AJ36" s="238"/>
+      <c r="AK36" s="238"/>
+      <c r="AL36" s="238"/>
+      <c r="AM36" s="238"/>
+      <c r="AN36" s="238"/>
+      <c r="AO36" s="238"/>
+      <c r="AP36" s="238"/>
+      <c r="AQ36" s="238"/>
+      <c r="AR36" s="238"/>
+      <c r="AS36" s="238"/>
       <c r="AT36" s="105"/>
       <c r="AU36" s="77"/>
       <c r="AV36" s="104"/>
@@ -8929,26 +8850,26 @@
       <c r="Q40" s="77"/>
       <c r="R40" s="77"/>
       <c r="S40" s="36"/>
-      <c r="AC40" s="264"/>
-      <c r="AD40" s="265"/>
-      <c r="AE40" s="264" t="s">
+      <c r="AC40" s="179"/>
+      <c r="AD40" s="180"/>
+      <c r="AE40" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="AF40" s="266"/>
-      <c r="AG40" s="266"/>
-      <c r="AH40" s="266"/>
-      <c r="AI40" s="266"/>
-      <c r="AJ40" s="266"/>
-      <c r="AK40" s="266"/>
-      <c r="AL40" s="266"/>
-      <c r="AM40" s="266"/>
-      <c r="AN40" s="266"/>
-      <c r="AO40" s="266"/>
-      <c r="AP40" s="266"/>
-      <c r="AQ40" s="266"/>
-      <c r="AR40" s="266"/>
-      <c r="AS40" s="266"/>
-      <c r="AT40" s="266"/>
+      <c r="AF40" s="181"/>
+      <c r="AG40" s="181"/>
+      <c r="AH40" s="181"/>
+      <c r="AI40" s="181"/>
+      <c r="AJ40" s="181"/>
+      <c r="AK40" s="181"/>
+      <c r="AL40" s="181"/>
+      <c r="AM40" s="181"/>
+      <c r="AN40" s="181"/>
+      <c r="AO40" s="181"/>
+      <c r="AP40" s="181"/>
+      <c r="AQ40" s="181"/>
+      <c r="AR40" s="181"/>
+      <c r="AS40" s="181"/>
+      <c r="AT40" s="181"/>
       <c r="AV40" s="106"/>
       <c r="AW40" s="126" t="s">
         <v>51</v>
@@ -8975,13 +8896,13 @@
       <c r="B41" s="104"/>
       <c r="C41" s="100"/>
       <c r="D41" s="100"/>
-      <c r="E41" s="262"/>
-      <c r="F41" s="262"/>
-      <c r="G41" s="262"/>
-      <c r="H41" s="262"/>
-      <c r="I41" s="262"/>
-      <c r="J41" s="262"/>
-      <c r="K41" s="262"/>
+      <c r="E41" s="239"/>
+      <c r="F41" s="239"/>
+      <c r="G41" s="239"/>
+      <c r="H41" s="239"/>
+      <c r="I41" s="239"/>
+      <c r="J41" s="239"/>
+      <c r="K41" s="239"/>
       <c r="L41" s="105"/>
       <c r="M41" s="77"/>
       <c r="N41" s="77"/>
@@ -8990,24 +8911,24 @@
       <c r="Q41" s="77"/>
       <c r="R41" s="77"/>
       <c r="S41" s="36"/>
-      <c r="AC41" s="265"/>
-      <c r="AD41" s="265"/>
-      <c r="AE41" s="266"/>
-      <c r="AF41" s="266"/>
-      <c r="AG41" s="266"/>
-      <c r="AH41" s="266"/>
-      <c r="AI41" s="266"/>
-      <c r="AJ41" s="266"/>
-      <c r="AK41" s="266"/>
-      <c r="AL41" s="266"/>
-      <c r="AM41" s="266"/>
-      <c r="AN41" s="266"/>
-      <c r="AO41" s="266"/>
-      <c r="AP41" s="266"/>
-      <c r="AQ41" s="266"/>
-      <c r="AR41" s="266"/>
-      <c r="AS41" s="266"/>
-      <c r="AT41" s="266"/>
+      <c r="AC41" s="180"/>
+      <c r="AD41" s="180"/>
+      <c r="AE41" s="181"/>
+      <c r="AF41" s="181"/>
+      <c r="AG41" s="181"/>
+      <c r="AH41" s="181"/>
+      <c r="AI41" s="181"/>
+      <c r="AJ41" s="181"/>
+      <c r="AK41" s="181"/>
+      <c r="AL41" s="181"/>
+      <c r="AM41" s="181"/>
+      <c r="AN41" s="181"/>
+      <c r="AO41" s="181"/>
+      <c r="AP41" s="181"/>
+      <c r="AQ41" s="181"/>
+      <c r="AR41" s="181"/>
+      <c r="AS41" s="181"/>
+      <c r="AT41" s="181"/>
       <c r="AV41" s="77"/>
       <c r="AW41" s="83"/>
       <c r="AX41" s="83"/>
@@ -9051,26 +8972,26 @@
       <c r="Q42" s="77"/>
       <c r="R42" s="77"/>
       <c r="S42" s="36"/>
-      <c r="AC42" s="264"/>
-      <c r="AD42" s="265"/>
-      <c r="AE42" s="264" t="s">
+      <c r="AC42" s="179"/>
+      <c r="AD42" s="180"/>
+      <c r="AE42" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="AF42" s="266"/>
-      <c r="AG42" s="266"/>
-      <c r="AH42" s="266"/>
-      <c r="AI42" s="266"/>
-      <c r="AJ42" s="266"/>
-      <c r="AK42" s="266"/>
-      <c r="AL42" s="266"/>
-      <c r="AM42" s="266"/>
-      <c r="AN42" s="266"/>
-      <c r="AO42" s="266"/>
-      <c r="AP42" s="266"/>
-      <c r="AQ42" s="266"/>
-      <c r="AR42" s="266"/>
-      <c r="AS42" s="266"/>
-      <c r="AT42" s="266"/>
+      <c r="AF42" s="181"/>
+      <c r="AG42" s="181"/>
+      <c r="AH42" s="181"/>
+      <c r="AI42" s="181"/>
+      <c r="AJ42" s="181"/>
+      <c r="AK42" s="181"/>
+      <c r="AL42" s="181"/>
+      <c r="AM42" s="181"/>
+      <c r="AN42" s="181"/>
+      <c r="AO42" s="181"/>
+      <c r="AP42" s="181"/>
+      <c r="AQ42" s="181"/>
+      <c r="AR42" s="181"/>
+      <c r="AS42" s="181"/>
+      <c r="AT42" s="181"/>
     </row>
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B43" s="36"/>
@@ -9093,719 +9014,719 @@
       <c r="S43" s="36"/>
     </row>
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B44" s="239" t="s">
+      <c r="B44" s="259" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="239"/>
-      <c r="D44" s="239"/>
-      <c r="E44" s="239"/>
-      <c r="F44" s="239"/>
-      <c r="G44" s="239"/>
-      <c r="H44" s="239"/>
-      <c r="I44" s="239"/>
-      <c r="J44" s="239"/>
-      <c r="K44" s="239"/>
-      <c r="L44" s="239"/>
-      <c r="M44" s="182" t="s">
+      <c r="C44" s="259"/>
+      <c r="D44" s="259"/>
+      <c r="E44" s="259"/>
+      <c r="F44" s="259"/>
+      <c r="G44" s="259"/>
+      <c r="H44" s="259"/>
+      <c r="I44" s="259"/>
+      <c r="J44" s="259"/>
+      <c r="K44" s="259"/>
+      <c r="L44" s="259"/>
+      <c r="M44" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="N44" s="182"/>
-      <c r="O44" s="182"/>
-      <c r="P44" s="182"/>
-      <c r="Q44" s="182"/>
-      <c r="R44" s="182"/>
-      <c r="S44" s="182"/>
-      <c r="T44" s="182"/>
-      <c r="U44" s="182"/>
-      <c r="V44" s="234" t="s">
+      <c r="N44" s="193"/>
+      <c r="O44" s="193"/>
+      <c r="P44" s="193"/>
+      <c r="Q44" s="193"/>
+      <c r="R44" s="193"/>
+      <c r="S44" s="193"/>
+      <c r="T44" s="193"/>
+      <c r="U44" s="193"/>
+      <c r="V44" s="233" t="s">
         <v>98</v>
       </c>
-      <c r="W44" s="234"/>
-      <c r="X44" s="234"/>
-      <c r="Y44" s="234"/>
-      <c r="Z44" s="234"/>
-      <c r="AA44" s="234"/>
-      <c r="AB44" s="234"/>
-      <c r="AC44" s="234"/>
-      <c r="AD44" s="234"/>
-      <c r="AE44" s="234"/>
-      <c r="AF44" s="234"/>
-      <c r="AG44" s="234"/>
-      <c r="AH44" s="182" t="s">
+      <c r="W44" s="233"/>
+      <c r="X44" s="233"/>
+      <c r="Y44" s="233"/>
+      <c r="Z44" s="233"/>
+      <c r="AA44" s="233"/>
+      <c r="AB44" s="233"/>
+      <c r="AC44" s="233"/>
+      <c r="AD44" s="233"/>
+      <c r="AE44" s="233"/>
+      <c r="AF44" s="233"/>
+      <c r="AG44" s="233"/>
+      <c r="AH44" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="AI44" s="182"/>
-      <c r="AJ44" s="182"/>
-      <c r="AK44" s="182"/>
-      <c r="AL44" s="182"/>
-      <c r="AM44" s="182"/>
-      <c r="AN44" s="182"/>
-      <c r="AO44" s="182"/>
-      <c r="AP44" s="240" t="s">
+      <c r="AI44" s="193"/>
+      <c r="AJ44" s="193"/>
+      <c r="AK44" s="193"/>
+      <c r="AL44" s="193"/>
+      <c r="AM44" s="193"/>
+      <c r="AN44" s="193"/>
+      <c r="AO44" s="193"/>
+      <c r="AP44" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="AQ44" s="240"/>
-      <c r="AR44" s="240"/>
-      <c r="AS44" s="240"/>
-      <c r="AT44" s="240"/>
-      <c r="AU44" s="240"/>
-      <c r="AV44" s="240"/>
-      <c r="AW44" s="240"/>
-      <c r="AX44" s="240"/>
-      <c r="AY44" s="240"/>
-      <c r="AZ44" s="182" t="s">
+      <c r="AQ44" s="230"/>
+      <c r="AR44" s="230"/>
+      <c r="AS44" s="230"/>
+      <c r="AT44" s="230"/>
+      <c r="AU44" s="230"/>
+      <c r="AV44" s="230"/>
+      <c r="AW44" s="230"/>
+      <c r="AX44" s="230"/>
+      <c r="AY44" s="230"/>
+      <c r="AZ44" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="BA44" s="182"/>
-      <c r="BB44" s="182"/>
-      <c r="BC44" s="182"/>
-      <c r="BD44" s="182"/>
-      <c r="BE44" s="234" t="s">
+      <c r="BA44" s="193"/>
+      <c r="BB44" s="193"/>
+      <c r="BC44" s="193"/>
+      <c r="BD44" s="193"/>
+      <c r="BE44" s="233" t="s">
         <v>50</v>
       </c>
-      <c r="BF44" s="234"/>
-      <c r="BG44" s="234"/>
-      <c r="BH44" s="234"/>
-      <c r="BI44" s="234"/>
-      <c r="BJ44" s="234"/>
-      <c r="BK44" s="234"/>
-      <c r="BL44" s="234"/>
-      <c r="BM44" s="182" t="s">
+      <c r="BF44" s="233"/>
+      <c r="BG44" s="233"/>
+      <c r="BH44" s="233"/>
+      <c r="BI44" s="233"/>
+      <c r="BJ44" s="233"/>
+      <c r="BK44" s="233"/>
+      <c r="BL44" s="233"/>
+      <c r="BM44" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="BN44" s="182"/>
-      <c r="BO44" s="182"/>
-      <c r="BP44" s="182"/>
-      <c r="BQ44" s="182"/>
+      <c r="BN44" s="193"/>
+      <c r="BO44" s="193"/>
+      <c r="BP44" s="193"/>
+      <c r="BQ44" s="193"/>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B45" s="239" t="s">
+      <c r="B45" s="259" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="239"/>
-      <c r="D45" s="239"/>
-      <c r="E45" s="239"/>
-      <c r="F45" s="239"/>
-      <c r="G45" s="239"/>
-      <c r="H45" s="239"/>
-      <c r="I45" s="239"/>
-      <c r="J45" s="239"/>
-      <c r="K45" s="239"/>
-      <c r="L45" s="239"/>
-      <c r="M45" s="182"/>
-      <c r="N45" s="182"/>
-      <c r="O45" s="182"/>
-      <c r="P45" s="182"/>
-      <c r="Q45" s="182"/>
-      <c r="R45" s="182"/>
-      <c r="S45" s="182"/>
-      <c r="T45" s="182"/>
-      <c r="U45" s="182"/>
-      <c r="V45" s="241" t="s">
+      <c r="C45" s="259"/>
+      <c r="D45" s="259"/>
+      <c r="E45" s="259"/>
+      <c r="F45" s="259"/>
+      <c r="G45" s="259"/>
+      <c r="H45" s="259"/>
+      <c r="I45" s="259"/>
+      <c r="J45" s="259"/>
+      <c r="K45" s="259"/>
+      <c r="L45" s="259"/>
+      <c r="M45" s="193"/>
+      <c r="N45" s="193"/>
+      <c r="O45" s="193"/>
+      <c r="P45" s="193"/>
+      <c r="Q45" s="193"/>
+      <c r="R45" s="193"/>
+      <c r="S45" s="193"/>
+      <c r="T45" s="193"/>
+      <c r="U45" s="193"/>
+      <c r="V45" s="232" t="s">
         <v>77</v>
       </c>
-      <c r="W45" s="241"/>
-      <c r="X45" s="241"/>
-      <c r="Y45" s="241"/>
-      <c r="Z45" s="241"/>
-      <c r="AA45" s="241"/>
-      <c r="AB45" s="241"/>
-      <c r="AC45" s="241"/>
-      <c r="AD45" s="241"/>
-      <c r="AE45" s="241"/>
-      <c r="AF45" s="241"/>
-      <c r="AG45" s="241"/>
-      <c r="AH45" s="182" t="s">
+      <c r="W45" s="232"/>
+      <c r="X45" s="232"/>
+      <c r="Y45" s="232"/>
+      <c r="Z45" s="232"/>
+      <c r="AA45" s="232"/>
+      <c r="AB45" s="232"/>
+      <c r="AC45" s="232"/>
+      <c r="AD45" s="232"/>
+      <c r="AE45" s="232"/>
+      <c r="AF45" s="232"/>
+      <c r="AG45" s="232"/>
+      <c r="AH45" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="AI45" s="182"/>
-      <c r="AJ45" s="182"/>
-      <c r="AK45" s="182"/>
-      <c r="AL45" s="182"/>
-      <c r="AM45" s="182"/>
-      <c r="AN45" s="182"/>
-      <c r="AO45" s="182"/>
-      <c r="AP45" s="242" t="s">
+      <c r="AI45" s="193"/>
+      <c r="AJ45" s="193"/>
+      <c r="AK45" s="193"/>
+      <c r="AL45" s="193"/>
+      <c r="AM45" s="193"/>
+      <c r="AN45" s="193"/>
+      <c r="AO45" s="193"/>
+      <c r="AP45" s="229" t="s">
         <v>66</v>
       </c>
-      <c r="AQ45" s="242"/>
-      <c r="AR45" s="242"/>
-      <c r="AS45" s="242"/>
-      <c r="AT45" s="242"/>
-      <c r="AU45" s="242"/>
-      <c r="AV45" s="242"/>
-      <c r="AW45" s="242"/>
-      <c r="AX45" s="242"/>
-      <c r="AY45" s="242"/>
-      <c r="AZ45" s="182"/>
-      <c r="BA45" s="182"/>
-      <c r="BB45" s="182"/>
-      <c r="BC45" s="182"/>
-      <c r="BD45" s="182"/>
-      <c r="BE45" s="240" t="s">
+      <c r="AQ45" s="229"/>
+      <c r="AR45" s="229"/>
+      <c r="AS45" s="229"/>
+      <c r="AT45" s="229"/>
+      <c r="AU45" s="229"/>
+      <c r="AV45" s="229"/>
+      <c r="AW45" s="229"/>
+      <c r="AX45" s="229"/>
+      <c r="AY45" s="229"/>
+      <c r="AZ45" s="193"/>
+      <c r="BA45" s="193"/>
+      <c r="BB45" s="193"/>
+      <c r="BC45" s="193"/>
+      <c r="BD45" s="193"/>
+      <c r="BE45" s="230" t="s">
         <v>63</v>
       </c>
-      <c r="BF45" s="240"/>
-      <c r="BG45" s="240"/>
-      <c r="BH45" s="240"/>
-      <c r="BI45" s="240"/>
-      <c r="BJ45" s="240"/>
-      <c r="BK45" s="240"/>
-      <c r="BL45" s="240"/>
-      <c r="BM45" s="183" t="s">
+      <c r="BF45" s="230"/>
+      <c r="BG45" s="230"/>
+      <c r="BH45" s="230"/>
+      <c r="BI45" s="230"/>
+      <c r="BJ45" s="230"/>
+      <c r="BK45" s="230"/>
+      <c r="BL45" s="230"/>
+      <c r="BM45" s="224" t="s">
         <v>109</v>
       </c>
-      <c r="BN45" s="182"/>
-      <c r="BO45" s="182"/>
-      <c r="BP45" s="182"/>
-      <c r="BQ45" s="182"/>
+      <c r="BN45" s="193"/>
+      <c r="BO45" s="193"/>
+      <c r="BP45" s="193"/>
+      <c r="BQ45" s="193"/>
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B46" s="243" t="s">
+      <c r="B46" s="260" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="243"/>
-      <c r="D46" s="243"/>
-      <c r="E46" s="243"/>
-      <c r="F46" s="243"/>
-      <c r="G46" s="243"/>
-      <c r="H46" s="243"/>
-      <c r="I46" s="243"/>
-      <c r="J46" s="243"/>
-      <c r="K46" s="243"/>
-      <c r="L46" s="243"/>
-      <c r="M46" s="182"/>
-      <c r="N46" s="182"/>
-      <c r="O46" s="182"/>
-      <c r="P46" s="182"/>
-      <c r="Q46" s="182"/>
-      <c r="R46" s="182"/>
-      <c r="S46" s="182"/>
-      <c r="T46" s="182"/>
-      <c r="U46" s="182"/>
-      <c r="V46" s="240" t="s">
+      <c r="C46" s="260"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="260"/>
+      <c r="F46" s="260"/>
+      <c r="G46" s="260"/>
+      <c r="H46" s="260"/>
+      <c r="I46" s="260"/>
+      <c r="J46" s="260"/>
+      <c r="K46" s="260"/>
+      <c r="L46" s="260"/>
+      <c r="M46" s="193"/>
+      <c r="N46" s="193"/>
+      <c r="O46" s="193"/>
+      <c r="P46" s="193"/>
+      <c r="Q46" s="193"/>
+      <c r="R46" s="193"/>
+      <c r="S46" s="193"/>
+      <c r="T46" s="193"/>
+      <c r="U46" s="193"/>
+      <c r="V46" s="230" t="s">
         <v>85</v>
       </c>
-      <c r="W46" s="240"/>
-      <c r="X46" s="240"/>
-      <c r="Y46" s="240"/>
-      <c r="Z46" s="240"/>
-      <c r="AA46" s="240"/>
-      <c r="AB46" s="240"/>
-      <c r="AC46" s="240"/>
-      <c r="AD46" s="240"/>
-      <c r="AE46" s="240"/>
-      <c r="AF46" s="240"/>
-      <c r="AG46" s="240"/>
-      <c r="AH46" s="183" t="s">
+      <c r="W46" s="230"/>
+      <c r="X46" s="230"/>
+      <c r="Y46" s="230"/>
+      <c r="Z46" s="230"/>
+      <c r="AA46" s="230"/>
+      <c r="AB46" s="230"/>
+      <c r="AC46" s="230"/>
+      <c r="AD46" s="230"/>
+      <c r="AE46" s="230"/>
+      <c r="AF46" s="230"/>
+      <c r="AG46" s="230"/>
+      <c r="AH46" s="224" t="s">
         <v>107</v>
       </c>
-      <c r="AI46" s="182"/>
-      <c r="AJ46" s="182"/>
-      <c r="AK46" s="182"/>
-      <c r="AL46" s="182"/>
-      <c r="AM46" s="182"/>
-      <c r="AN46" s="182"/>
-      <c r="AO46" s="182"/>
-      <c r="AP46" s="234" t="s">
+      <c r="AI46" s="193"/>
+      <c r="AJ46" s="193"/>
+      <c r="AK46" s="193"/>
+      <c r="AL46" s="193"/>
+      <c r="AM46" s="193"/>
+      <c r="AN46" s="193"/>
+      <c r="AO46" s="193"/>
+      <c r="AP46" s="233" t="s">
         <v>73</v>
       </c>
-      <c r="AQ46" s="234"/>
-      <c r="AR46" s="234"/>
-      <c r="AS46" s="234"/>
-      <c r="AT46" s="234"/>
-      <c r="AU46" s="234"/>
-      <c r="AV46" s="234"/>
-      <c r="AW46" s="234"/>
-      <c r="AX46" s="234"/>
-      <c r="AY46" s="234"/>
-      <c r="AZ46" s="182"/>
-      <c r="BA46" s="182"/>
-      <c r="BB46" s="182"/>
-      <c r="BC46" s="182"/>
-      <c r="BD46" s="182"/>
-      <c r="BE46" s="240" t="s">
+      <c r="AQ46" s="233"/>
+      <c r="AR46" s="233"/>
+      <c r="AS46" s="233"/>
+      <c r="AT46" s="233"/>
+      <c r="AU46" s="233"/>
+      <c r="AV46" s="233"/>
+      <c r="AW46" s="233"/>
+      <c r="AX46" s="233"/>
+      <c r="AY46" s="233"/>
+      <c r="AZ46" s="193"/>
+      <c r="BA46" s="193"/>
+      <c r="BB46" s="193"/>
+      <c r="BC46" s="193"/>
+      <c r="BD46" s="193"/>
+      <c r="BE46" s="230" t="s">
         <v>67</v>
       </c>
-      <c r="BF46" s="240"/>
-      <c r="BG46" s="240"/>
-      <c r="BH46" s="240"/>
-      <c r="BI46" s="240"/>
-      <c r="BJ46" s="240"/>
-      <c r="BK46" s="240"/>
-      <c r="BL46" s="240"/>
-      <c r="BM46" s="182"/>
-      <c r="BN46" s="182"/>
-      <c r="BO46" s="182"/>
-      <c r="BP46" s="182"/>
-      <c r="BQ46" s="182"/>
+      <c r="BF46" s="230"/>
+      <c r="BG46" s="230"/>
+      <c r="BH46" s="230"/>
+      <c r="BI46" s="230"/>
+      <c r="BJ46" s="230"/>
+      <c r="BK46" s="230"/>
+      <c r="BL46" s="230"/>
+      <c r="BM46" s="193"/>
+      <c r="BN46" s="193"/>
+      <c r="BO46" s="193"/>
+      <c r="BP46" s="193"/>
+      <c r="BQ46" s="193"/>
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B47" s="251" t="s">
+      <c r="B47" s="257" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="251"/>
-      <c r="D47" s="251"/>
-      <c r="E47" s="251"/>
-      <c r="F47" s="251"/>
-      <c r="G47" s="251"/>
-      <c r="H47" s="251"/>
-      <c r="I47" s="251"/>
-      <c r="J47" s="251"/>
-      <c r="K47" s="251"/>
-      <c r="L47" s="251"/>
-      <c r="M47" s="182"/>
-      <c r="N47" s="182"/>
-      <c r="O47" s="182"/>
-      <c r="P47" s="182"/>
-      <c r="Q47" s="182"/>
-      <c r="R47" s="182"/>
-      <c r="S47" s="182"/>
-      <c r="T47" s="182"/>
-      <c r="U47" s="182"/>
-      <c r="V47" s="237" t="s">
+      <c r="C47" s="257"/>
+      <c r="D47" s="257"/>
+      <c r="E47" s="257"/>
+      <c r="F47" s="257"/>
+      <c r="G47" s="257"/>
+      <c r="H47" s="257"/>
+      <c r="I47" s="257"/>
+      <c r="J47" s="257"/>
+      <c r="K47" s="257"/>
+      <c r="L47" s="257"/>
+      <c r="M47" s="193"/>
+      <c r="N47" s="193"/>
+      <c r="O47" s="193"/>
+      <c r="P47" s="193"/>
+      <c r="Q47" s="193"/>
+      <c r="R47" s="193"/>
+      <c r="S47" s="193"/>
+      <c r="T47" s="193"/>
+      <c r="U47" s="193"/>
+      <c r="V47" s="252" t="s">
         <v>86</v>
       </c>
-      <c r="W47" s="237"/>
-      <c r="X47" s="237"/>
-      <c r="Y47" s="237"/>
-      <c r="Z47" s="237"/>
-      <c r="AA47" s="237"/>
-      <c r="AB47" s="237"/>
-      <c r="AC47" s="237"/>
-      <c r="AD47" s="237"/>
-      <c r="AE47" s="237"/>
-      <c r="AF47" s="237"/>
-      <c r="AG47" s="237"/>
-      <c r="AH47" s="182"/>
-      <c r="AI47" s="182"/>
-      <c r="AJ47" s="182"/>
-      <c r="AK47" s="182"/>
-      <c r="AL47" s="182"/>
-      <c r="AM47" s="182"/>
-      <c r="AN47" s="182"/>
-      <c r="AO47" s="182"/>
-      <c r="AP47" s="237" t="s">
+      <c r="W47" s="252"/>
+      <c r="X47" s="252"/>
+      <c r="Y47" s="252"/>
+      <c r="Z47" s="252"/>
+      <c r="AA47" s="252"/>
+      <c r="AB47" s="252"/>
+      <c r="AC47" s="252"/>
+      <c r="AD47" s="252"/>
+      <c r="AE47" s="252"/>
+      <c r="AF47" s="252"/>
+      <c r="AG47" s="252"/>
+      <c r="AH47" s="193"/>
+      <c r="AI47" s="193"/>
+      <c r="AJ47" s="193"/>
+      <c r="AK47" s="193"/>
+      <c r="AL47" s="193"/>
+      <c r="AM47" s="193"/>
+      <c r="AN47" s="193"/>
+      <c r="AO47" s="193"/>
+      <c r="AP47" s="252" t="s">
         <v>75</v>
       </c>
-      <c r="AQ47" s="237"/>
-      <c r="AR47" s="237"/>
-      <c r="AS47" s="237"/>
-      <c r="AT47" s="237"/>
-      <c r="AU47" s="237"/>
-      <c r="AV47" s="237"/>
-      <c r="AW47" s="237"/>
-      <c r="AX47" s="237"/>
-      <c r="AY47" s="237"/>
-      <c r="AZ47" s="182"/>
-      <c r="BA47" s="182"/>
-      <c r="BB47" s="182"/>
-      <c r="BC47" s="182"/>
-      <c r="BD47" s="182"/>
-      <c r="BE47" s="235" t="s">
+      <c r="AQ47" s="252"/>
+      <c r="AR47" s="252"/>
+      <c r="AS47" s="252"/>
+      <c r="AT47" s="252"/>
+      <c r="AU47" s="252"/>
+      <c r="AV47" s="252"/>
+      <c r="AW47" s="252"/>
+      <c r="AX47" s="252"/>
+      <c r="AY47" s="252"/>
+      <c r="AZ47" s="193"/>
+      <c r="BA47" s="193"/>
+      <c r="BB47" s="193"/>
+      <c r="BC47" s="193"/>
+      <c r="BD47" s="193"/>
+      <c r="BE47" s="248" t="s">
         <v>80</v>
       </c>
-      <c r="BF47" s="235"/>
-      <c r="BG47" s="235"/>
-      <c r="BH47" s="235"/>
-      <c r="BI47" s="235"/>
-      <c r="BJ47" s="235"/>
-      <c r="BK47" s="235"/>
-      <c r="BL47" s="235"/>
-      <c r="BM47" s="182" t="s">
+      <c r="BF47" s="248"/>
+      <c r="BG47" s="248"/>
+      <c r="BH47" s="248"/>
+      <c r="BI47" s="248"/>
+      <c r="BJ47" s="248"/>
+      <c r="BK47" s="248"/>
+      <c r="BL47" s="248"/>
+      <c r="BM47" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="BN47" s="182"/>
-      <c r="BO47" s="182"/>
-      <c r="BP47" s="182"/>
-      <c r="BQ47" s="182"/>
+      <c r="BN47" s="193"/>
+      <c r="BO47" s="193"/>
+      <c r="BP47" s="193"/>
+      <c r="BQ47" s="193"/>
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B48" s="236" t="s">
+      <c r="B48" s="258" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="236"/>
-      <c r="D48" s="236"/>
-      <c r="E48" s="236"/>
-      <c r="F48" s="236"/>
-      <c r="G48" s="236"/>
-      <c r="H48" s="236"/>
-      <c r="I48" s="236"/>
-      <c r="J48" s="236"/>
-      <c r="K48" s="236"/>
-      <c r="L48" s="236"/>
-      <c r="M48" s="182"/>
-      <c r="N48" s="182"/>
-      <c r="O48" s="182"/>
-      <c r="P48" s="182"/>
-      <c r="Q48" s="182"/>
-      <c r="R48" s="182"/>
-      <c r="S48" s="182"/>
-      <c r="T48" s="182"/>
-      <c r="U48" s="182"/>
-      <c r="V48" s="234" t="s">
+      <c r="C48" s="258"/>
+      <c r="D48" s="258"/>
+      <c r="E48" s="258"/>
+      <c r="F48" s="258"/>
+      <c r="G48" s="258"/>
+      <c r="H48" s="258"/>
+      <c r="I48" s="258"/>
+      <c r="J48" s="258"/>
+      <c r="K48" s="258"/>
+      <c r="L48" s="258"/>
+      <c r="M48" s="193"/>
+      <c r="N48" s="193"/>
+      <c r="O48" s="193"/>
+      <c r="P48" s="193"/>
+      <c r="Q48" s="193"/>
+      <c r="R48" s="193"/>
+      <c r="S48" s="193"/>
+      <c r="T48" s="193"/>
+      <c r="U48" s="193"/>
+      <c r="V48" s="233" t="s">
         <v>87</v>
       </c>
-      <c r="W48" s="234"/>
-      <c r="X48" s="234"/>
-      <c r="Y48" s="234"/>
-      <c r="Z48" s="234"/>
-      <c r="AA48" s="234"/>
-      <c r="AB48" s="234"/>
-      <c r="AC48" s="234"/>
-      <c r="AD48" s="234"/>
-      <c r="AE48" s="234"/>
-      <c r="AF48" s="234"/>
-      <c r="AG48" s="234"/>
-      <c r="AH48" s="182"/>
-      <c r="AI48" s="182"/>
-      <c r="AJ48" s="182"/>
-      <c r="AK48" s="182"/>
-      <c r="AL48" s="182"/>
-      <c r="AM48" s="182"/>
-      <c r="AN48" s="182"/>
-      <c r="AO48" s="182"/>
-      <c r="AP48" s="237" t="s">
+      <c r="W48" s="233"/>
+      <c r="X48" s="233"/>
+      <c r="Y48" s="233"/>
+      <c r="Z48" s="233"/>
+      <c r="AA48" s="233"/>
+      <c r="AB48" s="233"/>
+      <c r="AC48" s="233"/>
+      <c r="AD48" s="233"/>
+      <c r="AE48" s="233"/>
+      <c r="AF48" s="233"/>
+      <c r="AG48" s="233"/>
+      <c r="AH48" s="193"/>
+      <c r="AI48" s="193"/>
+      <c r="AJ48" s="193"/>
+      <c r="AK48" s="193"/>
+      <c r="AL48" s="193"/>
+      <c r="AM48" s="193"/>
+      <c r="AN48" s="193"/>
+      <c r="AO48" s="193"/>
+      <c r="AP48" s="252" t="s">
         <v>71</v>
       </c>
-      <c r="AQ48" s="237"/>
-      <c r="AR48" s="237"/>
-      <c r="AS48" s="237"/>
-      <c r="AT48" s="237"/>
-      <c r="AU48" s="237"/>
-      <c r="AV48" s="237"/>
-      <c r="AW48" s="237"/>
-      <c r="AX48" s="237"/>
-      <c r="AY48" s="237"/>
-      <c r="AZ48" s="182" t="s">
+      <c r="AQ48" s="252"/>
+      <c r="AR48" s="252"/>
+      <c r="AS48" s="252"/>
+      <c r="AT48" s="252"/>
+      <c r="AU48" s="252"/>
+      <c r="AV48" s="252"/>
+      <c r="AW48" s="252"/>
+      <c r="AX48" s="252"/>
+      <c r="AY48" s="252"/>
+      <c r="AZ48" s="193" t="s">
         <v>72</v>
       </c>
-      <c r="BA48" s="182"/>
-      <c r="BB48" s="182"/>
-      <c r="BC48" s="182"/>
-      <c r="BD48" s="182"/>
-      <c r="BE48" s="238" t="s">
+      <c r="BA48" s="193"/>
+      <c r="BB48" s="193"/>
+      <c r="BC48" s="193"/>
+      <c r="BD48" s="193"/>
+      <c r="BE48" s="250" t="s">
         <v>81</v>
       </c>
-      <c r="BF48" s="238"/>
-      <c r="BG48" s="238"/>
-      <c r="BH48" s="238"/>
-      <c r="BI48" s="238"/>
-      <c r="BJ48" s="238"/>
-      <c r="BK48" s="238"/>
-      <c r="BL48" s="238"/>
-      <c r="BM48" s="182"/>
-      <c r="BN48" s="182"/>
-      <c r="BO48" s="182"/>
-      <c r="BP48" s="182"/>
-      <c r="BQ48" s="182"/>
+      <c r="BF48" s="250"/>
+      <c r="BG48" s="250"/>
+      <c r="BH48" s="250"/>
+      <c r="BI48" s="250"/>
+      <c r="BJ48" s="250"/>
+      <c r="BK48" s="250"/>
+      <c r="BL48" s="250"/>
+      <c r="BM48" s="193"/>
+      <c r="BN48" s="193"/>
+      <c r="BO48" s="193"/>
+      <c r="BP48" s="193"/>
+      <c r="BQ48" s="193"/>
     </row>
     <row r="49" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B49" s="242" t="s">
+      <c r="B49" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="242"/>
-      <c r="D49" s="242"/>
-      <c r="E49" s="242"/>
-      <c r="F49" s="242"/>
-      <c r="G49" s="242"/>
-      <c r="H49" s="242"/>
-      <c r="I49" s="242"/>
-      <c r="J49" s="242"/>
-      <c r="K49" s="242"/>
-      <c r="L49" s="242"/>
-      <c r="M49" s="182"/>
-      <c r="N49" s="182"/>
-      <c r="O49" s="182"/>
-      <c r="P49" s="182"/>
-      <c r="Q49" s="182"/>
-      <c r="R49" s="182"/>
-      <c r="S49" s="182"/>
-      <c r="T49" s="182"/>
-      <c r="U49" s="182"/>
-      <c r="V49" s="235" t="s">
+      <c r="C49" s="229"/>
+      <c r="D49" s="229"/>
+      <c r="E49" s="229"/>
+      <c r="F49" s="229"/>
+      <c r="G49" s="229"/>
+      <c r="H49" s="229"/>
+      <c r="I49" s="229"/>
+      <c r="J49" s="229"/>
+      <c r="K49" s="229"/>
+      <c r="L49" s="229"/>
+      <c r="M49" s="193"/>
+      <c r="N49" s="193"/>
+      <c r="O49" s="193"/>
+      <c r="P49" s="193"/>
+      <c r="Q49" s="193"/>
+      <c r="R49" s="193"/>
+      <c r="S49" s="193"/>
+      <c r="T49" s="193"/>
+      <c r="U49" s="193"/>
+      <c r="V49" s="248" t="s">
         <v>88</v>
       </c>
-      <c r="W49" s="235"/>
-      <c r="X49" s="235"/>
-      <c r="Y49" s="235"/>
-      <c r="Z49" s="235"/>
-      <c r="AA49" s="235"/>
-      <c r="AB49" s="235"/>
-      <c r="AC49" s="235"/>
-      <c r="AD49" s="235"/>
-      <c r="AE49" s="235"/>
-      <c r="AF49" s="235"/>
-      <c r="AG49" s="235"/>
-      <c r="AH49" s="182"/>
-      <c r="AI49" s="182"/>
-      <c r="AJ49" s="182"/>
-      <c r="AK49" s="182"/>
-      <c r="AL49" s="182"/>
-      <c r="AM49" s="182"/>
-      <c r="AN49" s="182"/>
-      <c r="AO49" s="182"/>
-      <c r="AP49" s="242" t="s">
+      <c r="W49" s="248"/>
+      <c r="X49" s="248"/>
+      <c r="Y49" s="248"/>
+      <c r="Z49" s="248"/>
+      <c r="AA49" s="248"/>
+      <c r="AB49" s="248"/>
+      <c r="AC49" s="248"/>
+      <c r="AD49" s="248"/>
+      <c r="AE49" s="248"/>
+      <c r="AF49" s="248"/>
+      <c r="AG49" s="248"/>
+      <c r="AH49" s="193"/>
+      <c r="AI49" s="193"/>
+      <c r="AJ49" s="193"/>
+      <c r="AK49" s="193"/>
+      <c r="AL49" s="193"/>
+      <c r="AM49" s="193"/>
+      <c r="AN49" s="193"/>
+      <c r="AO49" s="193"/>
+      <c r="AP49" s="229" t="s">
         <v>66</v>
       </c>
-      <c r="AQ49" s="242"/>
-      <c r="AR49" s="242"/>
-      <c r="AS49" s="242"/>
-      <c r="AT49" s="242"/>
-      <c r="AU49" s="242"/>
-      <c r="AV49" s="242"/>
-      <c r="AW49" s="242"/>
-      <c r="AX49" s="242"/>
-      <c r="AY49" s="242"/>
-      <c r="AZ49" s="182"/>
-      <c r="BA49" s="182"/>
-      <c r="BB49" s="182"/>
-      <c r="BC49" s="182"/>
-      <c r="BD49" s="182"/>
-      <c r="BE49" s="250" t="s">
+      <c r="AQ49" s="229"/>
+      <c r="AR49" s="229"/>
+      <c r="AS49" s="229"/>
+      <c r="AT49" s="229"/>
+      <c r="AU49" s="229"/>
+      <c r="AV49" s="229"/>
+      <c r="AW49" s="229"/>
+      <c r="AX49" s="229"/>
+      <c r="AY49" s="229"/>
+      <c r="AZ49" s="193"/>
+      <c r="BA49" s="193"/>
+      <c r="BB49" s="193"/>
+      <c r="BC49" s="193"/>
+      <c r="BD49" s="193"/>
+      <c r="BE49" s="256" t="s">
         <v>78</v>
       </c>
-      <c r="BF49" s="250"/>
-      <c r="BG49" s="250"/>
-      <c r="BH49" s="250"/>
-      <c r="BI49" s="250"/>
-      <c r="BJ49" s="250"/>
-      <c r="BK49" s="250"/>
-      <c r="BL49" s="250"/>
-      <c r="BM49" s="182" t="s">
+      <c r="BF49" s="256"/>
+      <c r="BG49" s="256"/>
+      <c r="BH49" s="256"/>
+      <c r="BI49" s="256"/>
+      <c r="BJ49" s="256"/>
+      <c r="BK49" s="256"/>
+      <c r="BL49" s="256"/>
+      <c r="BM49" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="BN49" s="182"/>
-      <c r="BO49" s="182"/>
-      <c r="BP49" s="182"/>
-      <c r="BQ49" s="182"/>
+      <c r="BN49" s="193"/>
+      <c r="BO49" s="193"/>
+      <c r="BP49" s="193"/>
+      <c r="BQ49" s="193"/>
     </row>
     <row r="50" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B50" s="241" t="s">
+      <c r="B50" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="241"/>
-      <c r="D50" s="241"/>
-      <c r="E50" s="241"/>
-      <c r="F50" s="241"/>
-      <c r="G50" s="241"/>
-      <c r="H50" s="241"/>
-      <c r="I50" s="241"/>
-      <c r="J50" s="241"/>
-      <c r="K50" s="241"/>
-      <c r="L50" s="241"/>
-      <c r="M50" s="182"/>
-      <c r="N50" s="182"/>
-      <c r="O50" s="182"/>
-      <c r="P50" s="182"/>
-      <c r="Q50" s="182"/>
-      <c r="R50" s="182"/>
-      <c r="S50" s="182"/>
-      <c r="T50" s="182"/>
-      <c r="U50" s="182"/>
-      <c r="V50" s="241" t="s">
+      <c r="C50" s="232"/>
+      <c r="D50" s="232"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="232"/>
+      <c r="G50" s="232"/>
+      <c r="H50" s="232"/>
+      <c r="I50" s="232"/>
+      <c r="J50" s="232"/>
+      <c r="K50" s="232"/>
+      <c r="L50" s="232"/>
+      <c r="M50" s="193"/>
+      <c r="N50" s="193"/>
+      <c r="O50" s="193"/>
+      <c r="P50" s="193"/>
+      <c r="Q50" s="193"/>
+      <c r="R50" s="193"/>
+      <c r="S50" s="193"/>
+      <c r="T50" s="193"/>
+      <c r="U50" s="193"/>
+      <c r="V50" s="232" t="s">
         <v>89</v>
       </c>
-      <c r="W50" s="241"/>
-      <c r="X50" s="241"/>
-      <c r="Y50" s="241"/>
-      <c r="Z50" s="241"/>
-      <c r="AA50" s="241"/>
-      <c r="AB50" s="241"/>
-      <c r="AC50" s="241"/>
-      <c r="AD50" s="241"/>
-      <c r="AE50" s="241"/>
-      <c r="AF50" s="241"/>
-      <c r="AG50" s="241"/>
-      <c r="AH50" s="182"/>
-      <c r="AI50" s="182"/>
-      <c r="AJ50" s="182"/>
-      <c r="AK50" s="182"/>
-      <c r="AL50" s="182"/>
-      <c r="AM50" s="182"/>
-      <c r="AN50" s="182"/>
-      <c r="AO50" s="182"/>
-      <c r="AP50" s="234" t="s">
+      <c r="W50" s="232"/>
+      <c r="X50" s="232"/>
+      <c r="Y50" s="232"/>
+      <c r="Z50" s="232"/>
+      <c r="AA50" s="232"/>
+      <c r="AB50" s="232"/>
+      <c r="AC50" s="232"/>
+      <c r="AD50" s="232"/>
+      <c r="AE50" s="232"/>
+      <c r="AF50" s="232"/>
+      <c r="AG50" s="232"/>
+      <c r="AH50" s="193"/>
+      <c r="AI50" s="193"/>
+      <c r="AJ50" s="193"/>
+      <c r="AK50" s="193"/>
+      <c r="AL50" s="193"/>
+      <c r="AM50" s="193"/>
+      <c r="AN50" s="193"/>
+      <c r="AO50" s="193"/>
+      <c r="AP50" s="233" t="s">
         <v>73</v>
       </c>
-      <c r="AQ50" s="234"/>
-      <c r="AR50" s="234"/>
-      <c r="AS50" s="234"/>
-      <c r="AT50" s="234"/>
-      <c r="AU50" s="234"/>
-      <c r="AV50" s="234"/>
-      <c r="AW50" s="234"/>
-      <c r="AX50" s="234"/>
-      <c r="AY50" s="234"/>
-      <c r="AZ50" s="182"/>
-      <c r="BA50" s="182"/>
-      <c r="BB50" s="182"/>
-      <c r="BC50" s="182"/>
-      <c r="BD50" s="182"/>
-      <c r="BE50" s="234" t="s">
+      <c r="AQ50" s="233"/>
+      <c r="AR50" s="233"/>
+      <c r="AS50" s="233"/>
+      <c r="AT50" s="233"/>
+      <c r="AU50" s="233"/>
+      <c r="AV50" s="233"/>
+      <c r="AW50" s="233"/>
+      <c r="AX50" s="233"/>
+      <c r="AY50" s="233"/>
+      <c r="AZ50" s="193"/>
+      <c r="BA50" s="193"/>
+      <c r="BB50" s="193"/>
+      <c r="BC50" s="193"/>
+      <c r="BD50" s="193"/>
+      <c r="BE50" s="233" t="s">
         <v>50</v>
       </c>
-      <c r="BF50" s="234"/>
-      <c r="BG50" s="234"/>
-      <c r="BH50" s="234"/>
-      <c r="BI50" s="234"/>
-      <c r="BJ50" s="234"/>
-      <c r="BK50" s="234"/>
-      <c r="BL50" s="234"/>
-      <c r="BM50" s="182" t="s">
+      <c r="BF50" s="233"/>
+      <c r="BG50" s="233"/>
+      <c r="BH50" s="233"/>
+      <c r="BI50" s="233"/>
+      <c r="BJ50" s="233"/>
+      <c r="BK50" s="233"/>
+      <c r="BL50" s="233"/>
+      <c r="BM50" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="BN50" s="182"/>
-      <c r="BO50" s="182"/>
-      <c r="BP50" s="182"/>
-      <c r="BQ50" s="182"/>
+      <c r="BN50" s="193"/>
+      <c r="BO50" s="193"/>
+      <c r="BP50" s="193"/>
+      <c r="BQ50" s="193"/>
     </row>
     <row r="51" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B51" s="234" t="s">
+      <c r="B51" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="234"/>
-      <c r="D51" s="234"/>
-      <c r="E51" s="234"/>
-      <c r="F51" s="234"/>
-      <c r="G51" s="234"/>
-      <c r="H51" s="234"/>
-      <c r="I51" s="234"/>
-      <c r="J51" s="234"/>
-      <c r="K51" s="234"/>
-      <c r="L51" s="234"/>
-      <c r="M51" s="182"/>
-      <c r="N51" s="182"/>
-      <c r="O51" s="182"/>
-      <c r="P51" s="182"/>
-      <c r="Q51" s="182"/>
-      <c r="R51" s="182"/>
-      <c r="S51" s="182"/>
-      <c r="T51" s="182"/>
-      <c r="U51" s="182"/>
-      <c r="V51" s="242" t="s">
+      <c r="C51" s="233"/>
+      <c r="D51" s="233"/>
+      <c r="E51" s="233"/>
+      <c r="F51" s="233"/>
+      <c r="G51" s="233"/>
+      <c r="H51" s="233"/>
+      <c r="I51" s="233"/>
+      <c r="J51" s="233"/>
+      <c r="K51" s="233"/>
+      <c r="L51" s="233"/>
+      <c r="M51" s="193"/>
+      <c r="N51" s="193"/>
+      <c r="O51" s="193"/>
+      <c r="P51" s="193"/>
+      <c r="Q51" s="193"/>
+      <c r="R51" s="193"/>
+      <c r="S51" s="193"/>
+      <c r="T51" s="193"/>
+      <c r="U51" s="193"/>
+      <c r="V51" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="W51" s="242"/>
-      <c r="X51" s="242"/>
-      <c r="Y51" s="242"/>
-      <c r="Z51" s="242"/>
-      <c r="AA51" s="242"/>
-      <c r="AB51" s="242"/>
-      <c r="AC51" s="242"/>
-      <c r="AD51" s="242"/>
-      <c r="AE51" s="242"/>
-      <c r="AF51" s="242"/>
-      <c r="AG51" s="242"/>
-      <c r="AH51" s="182"/>
-      <c r="AI51" s="182"/>
-      <c r="AJ51" s="182"/>
-      <c r="AK51" s="182"/>
-      <c r="AL51" s="182"/>
-      <c r="AM51" s="182"/>
-      <c r="AN51" s="182"/>
-      <c r="AO51" s="182"/>
-      <c r="AP51" s="235" t="s">
+      <c r="W51" s="229"/>
+      <c r="X51" s="229"/>
+      <c r="Y51" s="229"/>
+      <c r="Z51" s="229"/>
+      <c r="AA51" s="229"/>
+      <c r="AB51" s="229"/>
+      <c r="AC51" s="229"/>
+      <c r="AD51" s="229"/>
+      <c r="AE51" s="229"/>
+      <c r="AF51" s="229"/>
+      <c r="AG51" s="229"/>
+      <c r="AH51" s="193"/>
+      <c r="AI51" s="193"/>
+      <c r="AJ51" s="193"/>
+      <c r="AK51" s="193"/>
+      <c r="AL51" s="193"/>
+      <c r="AM51" s="193"/>
+      <c r="AN51" s="193"/>
+      <c r="AO51" s="193"/>
+      <c r="AP51" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="AQ51" s="235"/>
-      <c r="AR51" s="235"/>
-      <c r="AS51" s="235"/>
-      <c r="AT51" s="235"/>
-      <c r="AU51" s="235"/>
-      <c r="AV51" s="235"/>
-      <c r="AW51" s="235"/>
-      <c r="AX51" s="235"/>
-      <c r="AY51" s="235"/>
-      <c r="AZ51" s="182" t="s">
+      <c r="AQ51" s="248"/>
+      <c r="AR51" s="248"/>
+      <c r="AS51" s="248"/>
+      <c r="AT51" s="248"/>
+      <c r="AU51" s="248"/>
+      <c r="AV51" s="248"/>
+      <c r="AW51" s="248"/>
+      <c r="AX51" s="248"/>
+      <c r="AY51" s="248"/>
+      <c r="AZ51" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="BA51" s="182"/>
-      <c r="BB51" s="182"/>
-      <c r="BC51" s="182"/>
-      <c r="BD51" s="182"/>
-      <c r="BE51" s="235" t="s">
+      <c r="BA51" s="193"/>
+      <c r="BB51" s="193"/>
+      <c r="BC51" s="193"/>
+      <c r="BD51" s="193"/>
+      <c r="BE51" s="248" t="s">
         <v>80</v>
       </c>
-      <c r="BF51" s="235"/>
-      <c r="BG51" s="235"/>
-      <c r="BH51" s="235"/>
-      <c r="BI51" s="235"/>
-      <c r="BJ51" s="235"/>
-      <c r="BK51" s="235"/>
-      <c r="BL51" s="235"/>
-      <c r="BM51" s="182" t="s">
+      <c r="BF51" s="248"/>
+      <c r="BG51" s="248"/>
+      <c r="BH51" s="248"/>
+      <c r="BI51" s="248"/>
+      <c r="BJ51" s="248"/>
+      <c r="BK51" s="248"/>
+      <c r="BL51" s="248"/>
+      <c r="BM51" s="193" t="s">
         <v>94</v>
       </c>
-      <c r="BN51" s="182"/>
-      <c r="BO51" s="182"/>
-      <c r="BP51" s="182"/>
-      <c r="BQ51" s="182"/>
+      <c r="BN51" s="193"/>
+      <c r="BO51" s="193"/>
+      <c r="BP51" s="193"/>
+      <c r="BQ51" s="193"/>
     </row>
     <row r="52" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B52" s="237" t="s">
+      <c r="B52" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="237"/>
-      <c r="D52" s="237"/>
-      <c r="E52" s="237"/>
-      <c r="F52" s="237"/>
-      <c r="G52" s="237"/>
-      <c r="H52" s="237"/>
-      <c r="I52" s="237"/>
-      <c r="J52" s="237"/>
-      <c r="K52" s="237"/>
-      <c r="L52" s="237"/>
-      <c r="M52" s="192" t="s">
+      <c r="C52" s="252"/>
+      <c r="D52" s="252"/>
+      <c r="E52" s="252"/>
+      <c r="F52" s="252"/>
+      <c r="G52" s="252"/>
+      <c r="H52" s="252"/>
+      <c r="I52" s="252"/>
+      <c r="J52" s="252"/>
+      <c r="K52" s="252"/>
+      <c r="L52" s="252"/>
+      <c r="M52" s="218" t="s">
         <v>105</v>
       </c>
-      <c r="N52" s="192"/>
-      <c r="O52" s="192"/>
-      <c r="P52" s="192"/>
-      <c r="Q52" s="192"/>
-      <c r="R52" s="192"/>
-      <c r="S52" s="192"/>
-      <c r="T52" s="192"/>
-      <c r="U52" s="192"/>
-      <c r="V52" s="249" t="s">
+      <c r="N52" s="218"/>
+      <c r="O52" s="218"/>
+      <c r="P52" s="218"/>
+      <c r="Q52" s="218"/>
+      <c r="R52" s="218"/>
+      <c r="S52" s="218"/>
+      <c r="T52" s="218"/>
+      <c r="U52" s="218"/>
+      <c r="V52" s="255" t="s">
         <v>91</v>
       </c>
-      <c r="W52" s="249"/>
-      <c r="X52" s="249"/>
-      <c r="Y52" s="249"/>
-      <c r="Z52" s="249"/>
-      <c r="AA52" s="249"/>
-      <c r="AB52" s="249"/>
-      <c r="AC52" s="249"/>
-      <c r="AD52" s="249"/>
-      <c r="AE52" s="249"/>
-      <c r="AF52" s="249"/>
-      <c r="AG52" s="249"/>
-      <c r="AH52" s="182"/>
-      <c r="AI52" s="182"/>
-      <c r="AJ52" s="182"/>
-      <c r="AK52" s="182"/>
-      <c r="AL52" s="182"/>
-      <c r="AM52" s="182"/>
-      <c r="AN52" s="182"/>
-      <c r="AO52" s="182"/>
-      <c r="AP52" s="234" t="s">
+      <c r="W52" s="255"/>
+      <c r="X52" s="255"/>
+      <c r="Y52" s="255"/>
+      <c r="Z52" s="255"/>
+      <c r="AA52" s="255"/>
+      <c r="AB52" s="255"/>
+      <c r="AC52" s="255"/>
+      <c r="AD52" s="255"/>
+      <c r="AE52" s="255"/>
+      <c r="AF52" s="255"/>
+      <c r="AG52" s="255"/>
+      <c r="AH52" s="193"/>
+      <c r="AI52" s="193"/>
+      <c r="AJ52" s="193"/>
+      <c r="AK52" s="193"/>
+      <c r="AL52" s="193"/>
+      <c r="AM52" s="193"/>
+      <c r="AN52" s="193"/>
+      <c r="AO52" s="193"/>
+      <c r="AP52" s="233" t="s">
         <v>56</v>
       </c>
-      <c r="AQ52" s="234"/>
-      <c r="AR52" s="234"/>
-      <c r="AS52" s="234"/>
-      <c r="AT52" s="234"/>
-      <c r="AU52" s="234"/>
-      <c r="AV52" s="234"/>
-      <c r="AW52" s="234"/>
-      <c r="AX52" s="234"/>
-      <c r="AY52" s="234"/>
-      <c r="AZ52" s="182"/>
-      <c r="BA52" s="182"/>
-      <c r="BB52" s="182"/>
-      <c r="BC52" s="182"/>
-      <c r="BD52" s="182"/>
+      <c r="AQ52" s="233"/>
+      <c r="AR52" s="233"/>
+      <c r="AS52" s="233"/>
+      <c r="AT52" s="233"/>
+      <c r="AU52" s="233"/>
+      <c r="AV52" s="233"/>
+      <c r="AW52" s="233"/>
+      <c r="AX52" s="233"/>
+      <c r="AY52" s="233"/>
+      <c r="AZ52" s="193"/>
+      <c r="BA52" s="193"/>
+      <c r="BB52" s="193"/>
+      <c r="BC52" s="193"/>
+      <c r="BD52" s="193"/>
       <c r="BE52" s="34"/>
       <c r="BF52" s="34"/>
       <c r="BG52" s="34"/>
@@ -9818,69 +9739,69 @@
       <c r="BN52" s="35"/>
     </row>
     <row r="53" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B53" s="238" t="s">
+      <c r="B53" s="250" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="238"/>
-      <c r="D53" s="238"/>
-      <c r="E53" s="238"/>
-      <c r="F53" s="238"/>
-      <c r="G53" s="238"/>
-      <c r="H53" s="238"/>
-      <c r="I53" s="238"/>
-      <c r="J53" s="238"/>
-      <c r="K53" s="238"/>
-      <c r="L53" s="238"/>
-      <c r="M53" s="192" t="s">
+      <c r="C53" s="250"/>
+      <c r="D53" s="250"/>
+      <c r="E53" s="250"/>
+      <c r="F53" s="250"/>
+      <c r="G53" s="250"/>
+      <c r="H53" s="250"/>
+      <c r="I53" s="250"/>
+      <c r="J53" s="250"/>
+      <c r="K53" s="250"/>
+      <c r="L53" s="250"/>
+      <c r="M53" s="218" t="s">
         <v>62</v>
       </c>
-      <c r="N53" s="192"/>
-      <c r="O53" s="192"/>
-      <c r="P53" s="192"/>
-      <c r="Q53" s="192"/>
-      <c r="R53" s="192"/>
-      <c r="S53" s="192"/>
-      <c r="T53" s="192"/>
-      <c r="U53" s="192"/>
-      <c r="V53" s="245" t="s">
+      <c r="N53" s="218"/>
+      <c r="O53" s="218"/>
+      <c r="P53" s="218"/>
+      <c r="Q53" s="218"/>
+      <c r="R53" s="218"/>
+      <c r="S53" s="218"/>
+      <c r="T53" s="218"/>
+      <c r="U53" s="218"/>
+      <c r="V53" s="251" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="245"/>
-      <c r="X53" s="245"/>
-      <c r="Y53" s="245"/>
-      <c r="Z53" s="245"/>
-      <c r="AA53" s="245"/>
-      <c r="AB53" s="245"/>
-      <c r="AC53" s="245"/>
-      <c r="AD53" s="245"/>
-      <c r="AE53" s="245"/>
-      <c r="AF53" s="245"/>
-      <c r="AG53" s="245"/>
-      <c r="AH53" s="182"/>
-      <c r="AI53" s="182"/>
-      <c r="AJ53" s="182"/>
-      <c r="AK53" s="182"/>
-      <c r="AL53" s="182"/>
-      <c r="AM53" s="182"/>
-      <c r="AN53" s="182"/>
-      <c r="AO53" s="182"/>
-      <c r="AP53" s="237" t="s">
+      <c r="W53" s="251"/>
+      <c r="X53" s="251"/>
+      <c r="Y53" s="251"/>
+      <c r="Z53" s="251"/>
+      <c r="AA53" s="251"/>
+      <c r="AB53" s="251"/>
+      <c r="AC53" s="251"/>
+      <c r="AD53" s="251"/>
+      <c r="AE53" s="251"/>
+      <c r="AF53" s="251"/>
+      <c r="AG53" s="251"/>
+      <c r="AH53" s="193"/>
+      <c r="AI53" s="193"/>
+      <c r="AJ53" s="193"/>
+      <c r="AK53" s="193"/>
+      <c r="AL53" s="193"/>
+      <c r="AM53" s="193"/>
+      <c r="AN53" s="193"/>
+      <c r="AO53" s="193"/>
+      <c r="AP53" s="252" t="s">
         <v>59</v>
       </c>
-      <c r="AQ53" s="237"/>
-      <c r="AR53" s="237"/>
-      <c r="AS53" s="237"/>
-      <c r="AT53" s="237"/>
-      <c r="AU53" s="237"/>
-      <c r="AV53" s="237"/>
-      <c r="AW53" s="237"/>
-      <c r="AX53" s="237"/>
-      <c r="AY53" s="237"/>
-      <c r="AZ53" s="182"/>
-      <c r="BA53" s="182"/>
-      <c r="BB53" s="182"/>
-      <c r="BC53" s="182"/>
-      <c r="BD53" s="182"/>
+      <c r="AQ53" s="252"/>
+      <c r="AR53" s="252"/>
+      <c r="AS53" s="252"/>
+      <c r="AT53" s="252"/>
+      <c r="AU53" s="252"/>
+      <c r="AV53" s="252"/>
+      <c r="AW53" s="252"/>
+      <c r="AX53" s="252"/>
+      <c r="AY53" s="252"/>
+      <c r="AZ53" s="193"/>
+      <c r="BA53" s="193"/>
+      <c r="BB53" s="193"/>
+      <c r="BC53" s="193"/>
+      <c r="BD53" s="193"/>
       <c r="BE53" s="34"/>
       <c r="BF53" s="34"/>
       <c r="BG53" s="34"/>
@@ -9893,71 +9814,71 @@
       <c r="BN53" s="34"/>
     </row>
     <row r="54" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B54" s="246" t="s">
+      <c r="B54" s="253" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="246"/>
-      <c r="D54" s="246"/>
-      <c r="E54" s="246"/>
-      <c r="F54" s="246"/>
-      <c r="G54" s="246"/>
-      <c r="H54" s="246"/>
-      <c r="I54" s="246"/>
-      <c r="J54" s="246"/>
-      <c r="K54" s="246"/>
-      <c r="L54" s="246"/>
-      <c r="M54" s="192" t="s">
+      <c r="C54" s="253"/>
+      <c r="D54" s="253"/>
+      <c r="E54" s="253"/>
+      <c r="F54" s="253"/>
+      <c r="G54" s="253"/>
+      <c r="H54" s="253"/>
+      <c r="I54" s="253"/>
+      <c r="J54" s="253"/>
+      <c r="K54" s="253"/>
+      <c r="L54" s="253"/>
+      <c r="M54" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="N54" s="192"/>
-      <c r="O54" s="192"/>
-      <c r="P54" s="192"/>
-      <c r="Q54" s="192"/>
-      <c r="R54" s="192"/>
-      <c r="S54" s="192"/>
-      <c r="T54" s="192"/>
-      <c r="U54" s="192"/>
-      <c r="V54" s="247" t="s">
+      <c r="N54" s="218"/>
+      <c r="O54" s="218"/>
+      <c r="P54" s="218"/>
+      <c r="Q54" s="218"/>
+      <c r="R54" s="218"/>
+      <c r="S54" s="218"/>
+      <c r="T54" s="218"/>
+      <c r="U54" s="218"/>
+      <c r="V54" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="W54" s="247"/>
-      <c r="X54" s="247"/>
-      <c r="Y54" s="247"/>
-      <c r="Z54" s="247"/>
-      <c r="AA54" s="247"/>
-      <c r="AB54" s="247"/>
-      <c r="AC54" s="247"/>
-      <c r="AD54" s="247"/>
-      <c r="AE54" s="247"/>
-      <c r="AF54" s="247"/>
-      <c r="AG54" s="247"/>
-      <c r="AH54" s="182"/>
-      <c r="AI54" s="182"/>
-      <c r="AJ54" s="182"/>
-      <c r="AK54" s="182"/>
-      <c r="AL54" s="182"/>
-      <c r="AM54" s="182"/>
-      <c r="AN54" s="182"/>
-      <c r="AO54" s="182"/>
-      <c r="AP54" s="248" t="s">
+      <c r="W54" s="254"/>
+      <c r="X54" s="254"/>
+      <c r="Y54" s="254"/>
+      <c r="Z54" s="254"/>
+      <c r="AA54" s="254"/>
+      <c r="AB54" s="254"/>
+      <c r="AC54" s="254"/>
+      <c r="AD54" s="254"/>
+      <c r="AE54" s="254"/>
+      <c r="AF54" s="254"/>
+      <c r="AG54" s="254"/>
+      <c r="AH54" s="193"/>
+      <c r="AI54" s="193"/>
+      <c r="AJ54" s="193"/>
+      <c r="AK54" s="193"/>
+      <c r="AL54" s="193"/>
+      <c r="AM54" s="193"/>
+      <c r="AN54" s="193"/>
+      <c r="AO54" s="193"/>
+      <c r="AP54" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="AQ54" s="248"/>
-      <c r="AR54" s="248"/>
-      <c r="AS54" s="248"/>
-      <c r="AT54" s="248"/>
-      <c r="AU54" s="248"/>
-      <c r="AV54" s="248"/>
-      <c r="AW54" s="248"/>
-      <c r="AX54" s="248"/>
-      <c r="AY54" s="248"/>
-      <c r="AZ54" s="183" t="s">
+      <c r="AQ54" s="231"/>
+      <c r="AR54" s="231"/>
+      <c r="AS54" s="231"/>
+      <c r="AT54" s="231"/>
+      <c r="AU54" s="231"/>
+      <c r="AV54" s="231"/>
+      <c r="AW54" s="231"/>
+      <c r="AX54" s="231"/>
+      <c r="AY54" s="231"/>
+      <c r="AZ54" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="BA54" s="183"/>
-      <c r="BB54" s="183"/>
-      <c r="BC54" s="183"/>
-      <c r="BD54" s="183"/>
+      <c r="BA54" s="224"/>
+      <c r="BB54" s="224"/>
+      <c r="BC54" s="224"/>
+      <c r="BD54" s="224"/>
       <c r="BE54" s="34"/>
       <c r="BF54" s="34"/>
       <c r="BG54" s="34"/>
@@ -9970,115 +9891,203 @@
       <c r="BN54" s="34"/>
     </row>
     <row r="55" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B55" s="248" t="s">
+      <c r="B55" s="231" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="248"/>
-      <c r="D55" s="248"/>
-      <c r="E55" s="248"/>
-      <c r="F55" s="248"/>
-      <c r="G55" s="248"/>
-      <c r="H55" s="248"/>
-      <c r="I55" s="248"/>
-      <c r="J55" s="248"/>
-      <c r="K55" s="248"/>
-      <c r="L55" s="248"/>
-      <c r="M55" s="192" t="s">
+      <c r="C55" s="231"/>
+      <c r="D55" s="231"/>
+      <c r="E55" s="231"/>
+      <c r="F55" s="231"/>
+      <c r="G55" s="231"/>
+      <c r="H55" s="231"/>
+      <c r="I55" s="231"/>
+      <c r="J55" s="231"/>
+      <c r="K55" s="231"/>
+      <c r="L55" s="231"/>
+      <c r="M55" s="218" t="s">
         <v>95</v>
       </c>
-      <c r="N55" s="192"/>
-      <c r="O55" s="192"/>
-      <c r="P55" s="192"/>
-      <c r="Q55" s="192"/>
-      <c r="R55" s="192"/>
-      <c r="S55" s="192"/>
-      <c r="T55" s="192"/>
-      <c r="U55" s="192"/>
-      <c r="V55" s="248" t="s">
+      <c r="N55" s="218"/>
+      <c r="O55" s="218"/>
+      <c r="P55" s="218"/>
+      <c r="Q55" s="218"/>
+      <c r="R55" s="218"/>
+      <c r="S55" s="218"/>
+      <c r="T55" s="218"/>
+      <c r="U55" s="218"/>
+      <c r="V55" s="231" t="s">
         <v>93</v>
       </c>
-      <c r="W55" s="248"/>
-      <c r="X55" s="248"/>
-      <c r="Y55" s="248"/>
-      <c r="Z55" s="248"/>
-      <c r="AA55" s="248"/>
-      <c r="AB55" s="248"/>
-      <c r="AC55" s="248"/>
-      <c r="AD55" s="248"/>
-      <c r="AE55" s="248"/>
-      <c r="AF55" s="248"/>
-      <c r="AG55" s="248"/>
-      <c r="AH55" s="182"/>
-      <c r="AI55" s="182"/>
-      <c r="AJ55" s="182"/>
-      <c r="AK55" s="182"/>
-      <c r="AL55" s="182"/>
-      <c r="AM55" s="182"/>
-      <c r="AN55" s="182"/>
-      <c r="AO55" s="182"/>
-      <c r="AP55" s="240" t="s">
+      <c r="W55" s="231"/>
+      <c r="X55" s="231"/>
+      <c r="Y55" s="231"/>
+      <c r="Z55" s="231"/>
+      <c r="AA55" s="231"/>
+      <c r="AB55" s="231"/>
+      <c r="AC55" s="231"/>
+      <c r="AD55" s="231"/>
+      <c r="AE55" s="231"/>
+      <c r="AF55" s="231"/>
+      <c r="AG55" s="231"/>
+      <c r="AH55" s="193"/>
+      <c r="AI55" s="193"/>
+      <c r="AJ55" s="193"/>
+      <c r="AK55" s="193"/>
+      <c r="AL55" s="193"/>
+      <c r="AM55" s="193"/>
+      <c r="AN55" s="193"/>
+      <c r="AO55" s="193"/>
+      <c r="AP55" s="230" t="s">
         <v>64</v>
       </c>
-      <c r="AQ55" s="240"/>
-      <c r="AR55" s="240"/>
-      <c r="AS55" s="240"/>
-      <c r="AT55" s="240"/>
-      <c r="AU55" s="240"/>
-      <c r="AV55" s="240"/>
-      <c r="AW55" s="240"/>
-      <c r="AX55" s="240"/>
-      <c r="AY55" s="240"/>
-      <c r="AZ55" s="183"/>
-      <c r="BA55" s="183"/>
-      <c r="BB55" s="183"/>
-      <c r="BC55" s="183"/>
-      <c r="BD55" s="183"/>
+      <c r="AQ55" s="230"/>
+      <c r="AR55" s="230"/>
+      <c r="AS55" s="230"/>
+      <c r="AT55" s="230"/>
+      <c r="AU55" s="230"/>
+      <c r="AV55" s="230"/>
+      <c r="AW55" s="230"/>
+      <c r="AX55" s="230"/>
+      <c r="AY55" s="230"/>
+      <c r="AZ55" s="224"/>
+      <c r="BA55" s="224"/>
+      <c r="BB55" s="224"/>
+      <c r="BC55" s="224"/>
+      <c r="BD55" s="224"/>
       <c r="BN55" s="34"/>
     </row>
     <row r="56" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B56" s="260"/>
-      <c r="C56" s="260"/>
-      <c r="D56" s="260"/>
-      <c r="E56" s="260"/>
-      <c r="F56" s="260"/>
-      <c r="G56" s="260"/>
-      <c r="H56" s="260"/>
-      <c r="I56" s="260"/>
-      <c r="J56" s="260"/>
-      <c r="K56" s="260"/>
-      <c r="L56" s="260"/>
-      <c r="M56" s="192" t="s">
+      <c r="B56" s="228"/>
+      <c r="C56" s="228"/>
+      <c r="D56" s="228"/>
+      <c r="E56" s="228"/>
+      <c r="F56" s="228"/>
+      <c r="G56" s="228"/>
+      <c r="H56" s="228"/>
+      <c r="I56" s="228"/>
+      <c r="J56" s="228"/>
+      <c r="K56" s="228"/>
+      <c r="L56" s="228"/>
+      <c r="M56" s="218" t="s">
         <v>96</v>
       </c>
-      <c r="N56" s="192"/>
-      <c r="O56" s="192"/>
-      <c r="P56" s="192"/>
-      <c r="Q56" s="192"/>
-      <c r="R56" s="192"/>
-      <c r="S56" s="192"/>
-      <c r="T56" s="192"/>
-      <c r="U56" s="192"/>
-      <c r="AP56" s="242" t="s">
+      <c r="N56" s="218"/>
+      <c r="O56" s="218"/>
+      <c r="P56" s="218"/>
+      <c r="Q56" s="218"/>
+      <c r="R56" s="218"/>
+      <c r="S56" s="218"/>
+      <c r="T56" s="218"/>
+      <c r="U56" s="218"/>
+      <c r="AP56" s="229" t="s">
         <v>66</v>
       </c>
-      <c r="AQ56" s="242"/>
-      <c r="AR56" s="242"/>
-      <c r="AS56" s="242"/>
-      <c r="AT56" s="242"/>
-      <c r="AU56" s="242"/>
-      <c r="AV56" s="242"/>
-      <c r="AW56" s="242"/>
-      <c r="AX56" s="242"/>
-      <c r="AY56" s="242"/>
-      <c r="AZ56" s="183"/>
-      <c r="BA56" s="183"/>
-      <c r="BB56" s="183"/>
-      <c r="BC56" s="183"/>
-      <c r="BD56" s="183"/>
+      <c r="AQ56" s="229"/>
+      <c r="AR56" s="229"/>
+      <c r="AS56" s="229"/>
+      <c r="AT56" s="229"/>
+      <c r="AU56" s="229"/>
+      <c r="AV56" s="229"/>
+      <c r="AW56" s="229"/>
+      <c r="AX56" s="229"/>
+      <c r="AY56" s="229"/>
+      <c r="AZ56" s="224"/>
+      <c r="BA56" s="224"/>
+      <c r="BB56" s="224"/>
+      <c r="BC56" s="224"/>
+      <c r="BD56" s="224"/>
       <c r="BN56" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="BM44:BQ44"/>
+    <mergeCell ref="C34:Z34"/>
+    <mergeCell ref="AD34:AS34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:Y35"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AE35:AR35"/>
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="AD6:AS6"/>
+    <mergeCell ref="AE7:AR7"/>
+    <mergeCell ref="AE18:AR18"/>
+    <mergeCell ref="AE19:AR19"/>
+    <mergeCell ref="AE22:AR22"/>
+    <mergeCell ref="AE10:AR10"/>
+    <mergeCell ref="AE11:AR11"/>
+    <mergeCell ref="AE14:AR14"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:P31"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="Z7:Z31"/>
+    <mergeCell ref="AS7:AS31"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="AE16:AR16"/>
+    <mergeCell ref="B44:L44"/>
+    <mergeCell ref="V44:AG44"/>
+    <mergeCell ref="AH44:AO44"/>
+    <mergeCell ref="AP44:AY44"/>
+    <mergeCell ref="BE44:BL44"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="V45:AG45"/>
+    <mergeCell ref="AP45:AY45"/>
+    <mergeCell ref="B49:L49"/>
+    <mergeCell ref="V49:AG49"/>
+    <mergeCell ref="BE45:BL45"/>
+    <mergeCell ref="B46:L46"/>
+    <mergeCell ref="V46:AG46"/>
+    <mergeCell ref="AP46:AY46"/>
+    <mergeCell ref="AZ44:BD47"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="V47:AG47"/>
+    <mergeCell ref="AP47:AY47"/>
+    <mergeCell ref="B50:L50"/>
+    <mergeCell ref="BE50:BL50"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="BE47:BL47"/>
+    <mergeCell ref="B48:L48"/>
+    <mergeCell ref="V48:AG48"/>
+    <mergeCell ref="AP48:AY48"/>
+    <mergeCell ref="BE48:BL48"/>
+    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="M53:U53"/>
+    <mergeCell ref="V53:AG53"/>
+    <mergeCell ref="AP53:AY53"/>
+    <mergeCell ref="B54:L54"/>
+    <mergeCell ref="M54:U54"/>
+    <mergeCell ref="V54:AG54"/>
+    <mergeCell ref="AP54:AY54"/>
+    <mergeCell ref="V51:AG51"/>
+    <mergeCell ref="AP51:AY51"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="M52:U52"/>
+    <mergeCell ref="V52:AG52"/>
+    <mergeCell ref="AP52:AY52"/>
+    <mergeCell ref="AQ17:AR17"/>
+    <mergeCell ref="AE20:AR20"/>
+    <mergeCell ref="AQ21:AR21"/>
+    <mergeCell ref="AE23:AR23"/>
+    <mergeCell ref="AQ25:AR25"/>
+    <mergeCell ref="AE27:AR27"/>
+    <mergeCell ref="AQ28:AR28"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BM45:BQ46"/>
+    <mergeCell ref="AH46:AO55"/>
+    <mergeCell ref="BM47:BQ48"/>
+    <mergeCell ref="AZ48:BD50"/>
+    <mergeCell ref="AZ51:BD53"/>
+    <mergeCell ref="BE51:BL51"/>
+    <mergeCell ref="BM51:BQ51"/>
+    <mergeCell ref="AZ54:BD56"/>
+    <mergeCell ref="V55:AG55"/>
+    <mergeCell ref="AH45:AO45"/>
+    <mergeCell ref="BM50:BQ50"/>
+    <mergeCell ref="BG4:BM4"/>
+    <mergeCell ref="AP49:AY49"/>
+    <mergeCell ref="BE49:BL49"/>
+    <mergeCell ref="BM49:BQ49"/>
+    <mergeCell ref="BE46:BL46"/>
     <mergeCell ref="B56:L56"/>
     <mergeCell ref="M56:U56"/>
     <mergeCell ref="AP56:AY56"/>
@@ -10103,101 +10112,13 @@
     <mergeCell ref="AQ9:AR9"/>
     <mergeCell ref="AE12:AR12"/>
     <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AQ17:AR17"/>
-    <mergeCell ref="AE20:AR20"/>
-    <mergeCell ref="AQ21:AR21"/>
-    <mergeCell ref="AE23:AR23"/>
-    <mergeCell ref="AQ25:AR25"/>
-    <mergeCell ref="AE27:AR27"/>
-    <mergeCell ref="AQ28:AR28"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BM45:BQ46"/>
-    <mergeCell ref="AH46:AO55"/>
-    <mergeCell ref="BM47:BQ48"/>
-    <mergeCell ref="AZ48:BD50"/>
-    <mergeCell ref="AZ51:BD53"/>
-    <mergeCell ref="BE51:BL51"/>
-    <mergeCell ref="BM51:BQ51"/>
-    <mergeCell ref="AZ54:BD56"/>
-    <mergeCell ref="V55:AG55"/>
-    <mergeCell ref="AH45:AO45"/>
-    <mergeCell ref="BM50:BQ50"/>
-    <mergeCell ref="BG4:BM4"/>
-    <mergeCell ref="B53:L53"/>
-    <mergeCell ref="M53:U53"/>
-    <mergeCell ref="V53:AG53"/>
-    <mergeCell ref="AP53:AY53"/>
-    <mergeCell ref="B54:L54"/>
-    <mergeCell ref="M54:U54"/>
-    <mergeCell ref="V54:AG54"/>
-    <mergeCell ref="AP54:AY54"/>
-    <mergeCell ref="V51:AG51"/>
-    <mergeCell ref="AP51:AY51"/>
-    <mergeCell ref="B52:L52"/>
-    <mergeCell ref="M52:U52"/>
-    <mergeCell ref="V52:AG52"/>
-    <mergeCell ref="AP52:AY52"/>
-    <mergeCell ref="AP49:AY49"/>
-    <mergeCell ref="BE49:BL49"/>
-    <mergeCell ref="BM49:BQ49"/>
-    <mergeCell ref="BE46:BL46"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="V47:AG47"/>
-    <mergeCell ref="AP47:AY47"/>
-    <mergeCell ref="B50:L50"/>
-    <mergeCell ref="BE50:BL50"/>
-    <mergeCell ref="B51:L51"/>
-    <mergeCell ref="BE47:BL47"/>
-    <mergeCell ref="B48:L48"/>
-    <mergeCell ref="V48:AG48"/>
-    <mergeCell ref="AP48:AY48"/>
-    <mergeCell ref="BE48:BL48"/>
-    <mergeCell ref="B44:L44"/>
-    <mergeCell ref="V44:AG44"/>
-    <mergeCell ref="AH44:AO44"/>
-    <mergeCell ref="AP44:AY44"/>
-    <mergeCell ref="BE44:BL44"/>
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="V45:AG45"/>
-    <mergeCell ref="AP45:AY45"/>
-    <mergeCell ref="B49:L49"/>
-    <mergeCell ref="V49:AG49"/>
-    <mergeCell ref="BE45:BL45"/>
-    <mergeCell ref="B46:L46"/>
-    <mergeCell ref="V46:AG46"/>
-    <mergeCell ref="AP46:AY46"/>
-    <mergeCell ref="AZ44:BD47"/>
-    <mergeCell ref="BM44:BQ44"/>
-    <mergeCell ref="C34:Z34"/>
-    <mergeCell ref="AD34:AS34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:Y35"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AE35:AR35"/>
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="R6:Z6"/>
-    <mergeCell ref="AD6:AS6"/>
-    <mergeCell ref="AE7:AR7"/>
-    <mergeCell ref="AE18:AR18"/>
-    <mergeCell ref="AE19:AR19"/>
-    <mergeCell ref="AE22:AR22"/>
-    <mergeCell ref="AE10:AR10"/>
-    <mergeCell ref="AE11:AR11"/>
-    <mergeCell ref="AE14:AR14"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:P31"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="Z7:Z31"/>
-    <mergeCell ref="AS7:AS31"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="AE16:AR16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C18059-ED65-43D8-B0B9-F3E4205E6D66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/UserSet/Colors.xlsx
+++ b/UserSet/Colors.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="110">
   <si>
     <t>В сети</t>
   </si>
@@ -362,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="88" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,14 +813,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF2C353F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF254525"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1101,8 +1093,40 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4F2451"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF253545"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00456A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF114837"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,12 +1309,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8A9DB3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF9E9E9E"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1304,12 +1322,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD37E7E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9797BB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,6 +1370,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF748DA3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB485B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF829EBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8F8FC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF61A5C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF68AC93"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,7 +1576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1645,128 +1687,131 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="67" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="70" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="71" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="76" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="48" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="4" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="65" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="65" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="67" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="69" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="70" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="73" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="78" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="48" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="4" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="84" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="85" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="83" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="84" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="85" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="86" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="87" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="61" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1809,28 +1854,28 @@
     <xf numFmtId="0" fontId="29" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1869,10 +1914,7 @@
     <xf numFmtId="20" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1881,16 +1923,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1902,7 +1944,10 @@
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1923,53 +1968,71 @@
     <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="46" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="46" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="45" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="45" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="52" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="52" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1977,50 +2040,38 @@
     <xf numFmtId="0" fontId="42" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="48" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="48" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2030,16 +2081,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFADAB"/>
-      <color rgb="FFCE9D8A"/>
-      <color rgb="FF8A9DCE"/>
-      <color rgb="FF8198BB"/>
-      <color rgb="FFBB9881"/>
-      <color rgb="FFBB8181"/>
-      <color rgb="FF9C6B6B"/>
-      <color rgb="FF405261"/>
-      <color rgb="FFFFFFFF"/>
-      <color rgb="FF506779"/>
+      <color rgb="FF254525"/>
+      <color rgb="FF75B375"/>
+      <color rgb="FF114837"/>
+      <color rgb="FF68AC93"/>
+      <color rgb="FF00456A"/>
+      <color rgb="FF61A5C9"/>
+      <color rgb="FF16285F"/>
+      <color rgb="FF8698CC"/>
+      <color rgb="FF8F8FC2"/>
+      <color rgb="FF253545"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2340,7 +2391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ66"/>
+  <dimension ref="A1:BQ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2552,22 +2603,22 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="73"/>
       <c r="AV4" s="72"/>
-      <c r="AW4" s="185"/>
-      <c r="AX4" s="185"/>
-      <c r="AY4" s="185"/>
-      <c r="AZ4" s="185"/>
-      <c r="BA4" s="185"/>
-      <c r="BB4" s="185"/>
-      <c r="BC4" s="185"/>
+      <c r="AW4" s="186"/>
+      <c r="AX4" s="186"/>
+      <c r="AY4" s="186"/>
+      <c r="AZ4" s="186"/>
+      <c r="BA4" s="186"/>
+      <c r="BB4" s="186"/>
+      <c r="BC4" s="186"/>
       <c r="BD4" s="73"/>
       <c r="BF4" s="72"/>
-      <c r="BG4" s="185"/>
-      <c r="BH4" s="185"/>
-      <c r="BI4" s="185"/>
-      <c r="BJ4" s="185"/>
-      <c r="BK4" s="185"/>
-      <c r="BL4" s="185"/>
-      <c r="BM4" s="185"/>
+      <c r="BG4" s="186"/>
+      <c r="BH4" s="186"/>
+      <c r="BI4" s="186"/>
+      <c r="BJ4" s="186"/>
+      <c r="BK4" s="186"/>
+      <c r="BL4" s="186"/>
+      <c r="BM4" s="186"/>
       <c r="BN4" s="73"/>
     </row>
     <row r="5" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2640,48 +2691,48 @@
     </row>
     <row r="6" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="72"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="186"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="187"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="186"/>
-      <c r="S6" s="186"/>
-      <c r="T6" s="186"/>
-      <c r="U6" s="186"/>
-      <c r="V6" s="186"/>
-      <c r="W6" s="186"/>
-      <c r="X6" s="186"/>
-      <c r="Y6" s="186"/>
-      <c r="Z6" s="186"/>
+      <c r="R6" s="187"/>
+      <c r="S6" s="187"/>
+      <c r="T6" s="187"/>
+      <c r="U6" s="187"/>
+      <c r="V6" s="187"/>
+      <c r="W6" s="187"/>
+      <c r="X6" s="187"/>
+      <c r="Y6" s="187"/>
+      <c r="Z6" s="187"/>
       <c r="AA6" s="73"/>
       <c r="AC6" s="72"/>
-      <c r="AD6" s="186"/>
-      <c r="AE6" s="186"/>
-      <c r="AF6" s="186"/>
-      <c r="AG6" s="186"/>
-      <c r="AH6" s="186"/>
-      <c r="AI6" s="186"/>
-      <c r="AJ6" s="186"/>
-      <c r="AK6" s="186"/>
-      <c r="AL6" s="186"/>
-      <c r="AM6" s="186"/>
-      <c r="AN6" s="186"/>
-      <c r="AO6" s="186"/>
-      <c r="AP6" s="186"/>
-      <c r="AQ6" s="186"/>
-      <c r="AR6" s="186"/>
-      <c r="AS6" s="186"/>
+      <c r="AD6" s="187"/>
+      <c r="AE6" s="187"/>
+      <c r="AF6" s="187"/>
+      <c r="AG6" s="187"/>
+      <c r="AH6" s="187"/>
+      <c r="AI6" s="187"/>
+      <c r="AJ6" s="187"/>
+      <c r="AK6" s="187"/>
+      <c r="AL6" s="187"/>
+      <c r="AM6" s="187"/>
+      <c r="AN6" s="187"/>
+      <c r="AO6" s="187"/>
+      <c r="AP6" s="187"/>
+      <c r="AQ6" s="187"/>
+      <c r="AR6" s="187"/>
+      <c r="AS6" s="187"/>
       <c r="AT6" s="73"/>
       <c r="AV6" s="72"/>
       <c r="AW6" s="1"/>
@@ -2704,48 +2755,48 @@
     </row>
     <row r="7" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="72"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="184"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="185"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="186"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183"/>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="184"/>
+      <c r="R7" s="187"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184"/>
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="185"/>
       <c r="AA7" s="73"/>
       <c r="AC7" s="72"/>
-      <c r="AD7" s="186"/>
-      <c r="AE7" s="184"/>
-      <c r="AF7" s="184"/>
-      <c r="AG7" s="184"/>
-      <c r="AH7" s="184"/>
-      <c r="AI7" s="184"/>
-      <c r="AJ7" s="184"/>
-      <c r="AK7" s="184"/>
-      <c r="AL7" s="184"/>
-      <c r="AM7" s="184"/>
-      <c r="AN7" s="184"/>
-      <c r="AO7" s="184"/>
-      <c r="AP7" s="184"/>
-      <c r="AQ7" s="184"/>
-      <c r="AR7" s="184"/>
-      <c r="AS7" s="184"/>
+      <c r="AD7" s="187"/>
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185"/>
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185"/>
+      <c r="AS7" s="185"/>
       <c r="AT7" s="73"/>
       <c r="AV7" s="72"/>
       <c r="AW7" s="1"/>
@@ -2768,11 +2819,11 @@
     </row>
     <row r="8" spans="2:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="72"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="202">
+      <c r="C8" s="187"/>
+      <c r="D8" s="203">
         <v>0.37152777777777773</v>
       </c>
-      <c r="E8" s="202"/>
+      <c r="E8" s="203"/>
       <c r="F8" s="42" t="s">
         <v>22</v>
       </c>
@@ -2785,9 +2836,9 @@
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="O8" s="43"/>
-      <c r="P8" s="184"/>
+      <c r="P8" s="185"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="186"/>
+      <c r="R8" s="187"/>
       <c r="S8" s="47" t="s">
         <v>32</v>
       </c>
@@ -2797,27 +2848,27 @@
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
       <c r="Y8" s="43"/>
-      <c r="Z8" s="184"/>
+      <c r="Z8" s="185"/>
       <c r="AA8" s="73"/>
       <c r="AC8" s="72"/>
-      <c r="AD8" s="186"/>
-      <c r="AE8" s="188" t="s">
+      <c r="AD8" s="187"/>
+      <c r="AE8" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="AF8" s="188"/>
-      <c r="AG8" s="188"/>
-      <c r="AH8" s="188"/>
-      <c r="AI8" s="188"/>
-      <c r="AJ8" s="188"/>
-      <c r="AK8" s="188"/>
-      <c r="AL8" s="188"/>
-      <c r="AM8" s="188"/>
-      <c r="AN8" s="188"/>
-      <c r="AO8" s="188"/>
-      <c r="AP8" s="188"/>
-      <c r="AQ8" s="188"/>
-      <c r="AR8" s="188"/>
-      <c r="AS8" s="184"/>
+      <c r="AF8" s="189"/>
+      <c r="AG8" s="189"/>
+      <c r="AH8" s="189"/>
+      <c r="AI8" s="189"/>
+      <c r="AJ8" s="189"/>
+      <c r="AK8" s="189"/>
+      <c r="AL8" s="189"/>
+      <c r="AM8" s="189"/>
+      <c r="AN8" s="189"/>
+      <c r="AO8" s="189"/>
+      <c r="AP8" s="189"/>
+      <c r="AQ8" s="189"/>
+      <c r="AR8" s="189"/>
+      <c r="AS8" s="185"/>
       <c r="AT8" s="73"/>
       <c r="AV8" s="72"/>
       <c r="AW8" s="4" t="s">
@@ -2844,7 +2895,7 @@
     </row>
     <row r="9" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="72"/>
-      <c r="C9" s="186"/>
+      <c r="C9" s="187"/>
       <c r="D9" s="44" t="s">
         <v>44</v>
       </c>
@@ -2859,9 +2910,9 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="184"/>
+      <c r="P9" s="185"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="186"/>
+      <c r="R9" s="187"/>
       <c r="S9" s="48" t="s">
         <v>33</v>
       </c>
@@ -2871,10 +2922,10 @@
       <c r="W9" s="48"/>
       <c r="X9" s="48"/>
       <c r="Y9" s="60"/>
-      <c r="Z9" s="184"/>
+      <c r="Z9" s="185"/>
       <c r="AA9" s="73"/>
       <c r="AC9" s="72"/>
-      <c r="AD9" s="186"/>
+      <c r="AD9" s="187"/>
       <c r="AE9" s="52" t="s">
         <v>23</v>
       </c>
@@ -2889,11 +2940,11 @@
       <c r="AN9" s="52"/>
       <c r="AO9" s="52"/>
       <c r="AP9" s="52"/>
-      <c r="AQ9" s="204">
+      <c r="AQ9" s="205">
         <v>0.37847222222222227</v>
       </c>
-      <c r="AR9" s="204"/>
-      <c r="AS9" s="184"/>
+      <c r="AR9" s="205"/>
+      <c r="AS9" s="185"/>
       <c r="AT9" s="73"/>
       <c r="AV9" s="72"/>
       <c r="AW9" s="1" t="s">
@@ -2920,7 +2971,7 @@
     </row>
     <row r="10" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="72"/>
-      <c r="C10" s="186"/>
+      <c r="C10" s="187"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -2933,9 +2984,9 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="184"/>
+      <c r="P10" s="185"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="186"/>
+      <c r="R10" s="187"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -2943,25 +2994,25 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="60"/>
-      <c r="Z10" s="184"/>
+      <c r="Z10" s="185"/>
       <c r="AA10" s="73"/>
       <c r="AC10" s="72"/>
-      <c r="AD10" s="186"/>
-      <c r="AE10" s="209"/>
-      <c r="AF10" s="209"/>
-      <c r="AG10" s="209"/>
-      <c r="AH10" s="209"/>
-      <c r="AI10" s="209"/>
-      <c r="AJ10" s="209"/>
-      <c r="AK10" s="209"/>
-      <c r="AL10" s="209"/>
-      <c r="AM10" s="209"/>
-      <c r="AN10" s="209"/>
-      <c r="AO10" s="209"/>
-      <c r="AP10" s="209"/>
-      <c r="AQ10" s="209"/>
-      <c r="AR10" s="209"/>
-      <c r="AS10" s="184"/>
+      <c r="AD10" s="187"/>
+      <c r="AE10" s="210"/>
+      <c r="AF10" s="210"/>
+      <c r="AG10" s="210"/>
+      <c r="AH10" s="210"/>
+      <c r="AI10" s="210"/>
+      <c r="AJ10" s="210"/>
+      <c r="AK10" s="210"/>
+      <c r="AL10" s="210"/>
+      <c r="AM10" s="210"/>
+      <c r="AN10" s="210"/>
+      <c r="AO10" s="210"/>
+      <c r="AP10" s="210"/>
+      <c r="AQ10" s="210"/>
+      <c r="AR10" s="210"/>
+      <c r="AS10" s="185"/>
       <c r="AT10" s="73"/>
       <c r="AV10" s="72"/>
       <c r="AW10" s="1"/>
@@ -2984,7 +3035,7 @@
     </row>
     <row r="11" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="72"/>
-      <c r="C11" s="186"/>
+      <c r="C11" s="187"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -2997,9 +3048,9 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="184"/>
+      <c r="P11" s="185"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="186"/>
+      <c r="R11" s="187"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -3007,25 +3058,25 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="60"/>
-      <c r="Z11" s="184"/>
+      <c r="Z11" s="185"/>
       <c r="AA11" s="73"/>
       <c r="AC11" s="72"/>
-      <c r="AD11" s="186"/>
-      <c r="AE11" s="210"/>
-      <c r="AF11" s="210"/>
-      <c r="AG11" s="210"/>
-      <c r="AH11" s="210"/>
-      <c r="AI11" s="210"/>
-      <c r="AJ11" s="210"/>
-      <c r="AK11" s="210"/>
-      <c r="AL11" s="210"/>
-      <c r="AM11" s="210"/>
-      <c r="AN11" s="210"/>
-      <c r="AO11" s="210"/>
-      <c r="AP11" s="210"/>
-      <c r="AQ11" s="210"/>
-      <c r="AR11" s="210"/>
-      <c r="AS11" s="184"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="211"/>
+      <c r="AF11" s="211"/>
+      <c r="AG11" s="211"/>
+      <c r="AH11" s="211"/>
+      <c r="AI11" s="211"/>
+      <c r="AJ11" s="211"/>
+      <c r="AK11" s="211"/>
+      <c r="AL11" s="211"/>
+      <c r="AM11" s="211"/>
+      <c r="AN11" s="211"/>
+      <c r="AO11" s="211"/>
+      <c r="AP11" s="211"/>
+      <c r="AQ11" s="211"/>
+      <c r="AR11" s="211"/>
+      <c r="AS11" s="185"/>
       <c r="AT11" s="73"/>
       <c r="AV11" s="72"/>
       <c r="AW11" s="1"/>
@@ -3048,7 +3099,7 @@
     </row>
     <row r="12" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="72"/>
-      <c r="C12" s="186"/>
+      <c r="C12" s="187"/>
       <c r="D12" s="45" t="s">
         <v>42</v>
       </c>
@@ -3063,9 +3114,9 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="184"/>
+      <c r="P12" s="185"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="186"/>
+      <c r="R12" s="187"/>
       <c r="S12" s="46" t="s">
         <v>38</v>
       </c>
@@ -3075,27 +3126,27 @@
       <c r="W12" s="46"/>
       <c r="X12" s="46"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="184"/>
+      <c r="Z12" s="185"/>
       <c r="AA12" s="73"/>
       <c r="AC12" s="72"/>
-      <c r="AD12" s="186"/>
-      <c r="AE12" s="189" t="s">
+      <c r="AD12" s="187"/>
+      <c r="AE12" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="AF12" s="189"/>
-      <c r="AG12" s="189"/>
-      <c r="AH12" s="189"/>
-      <c r="AI12" s="189"/>
-      <c r="AJ12" s="189"/>
-      <c r="AK12" s="189"/>
-      <c r="AL12" s="189"/>
-      <c r="AM12" s="189"/>
-      <c r="AN12" s="189"/>
-      <c r="AO12" s="189"/>
-      <c r="AP12" s="189"/>
-      <c r="AQ12" s="189"/>
-      <c r="AR12" s="189"/>
-      <c r="AS12" s="184"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="190"/>
+      <c r="AH12" s="190"/>
+      <c r="AI12" s="190"/>
+      <c r="AJ12" s="190"/>
+      <c r="AK12" s="190"/>
+      <c r="AL12" s="190"/>
+      <c r="AM12" s="190"/>
+      <c r="AN12" s="190"/>
+      <c r="AO12" s="190"/>
+      <c r="AP12" s="190"/>
+      <c r="AQ12" s="190"/>
+      <c r="AR12" s="190"/>
+      <c r="AS12" s="185"/>
       <c r="AT12" s="73"/>
       <c r="AV12" s="72"/>
       <c r="AW12" s="1" t="s">
@@ -3122,7 +3173,7 @@
     </row>
     <row r="13" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="72"/>
-      <c r="C13" s="186"/>
+      <c r="C13" s="187"/>
       <c r="D13" s="44" t="s">
         <v>41</v>
       </c>
@@ -3137,9 +3188,9 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="184"/>
+      <c r="P13" s="185"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="186"/>
+      <c r="R13" s="187"/>
       <c r="S13" s="64" t="s">
         <v>34</v>
       </c>
@@ -3149,10 +3200,10 @@
       <c r="W13" s="64"/>
       <c r="X13" s="64"/>
       <c r="Y13" s="60"/>
-      <c r="Z13" s="184"/>
+      <c r="Z13" s="185"/>
       <c r="AA13" s="73"/>
       <c r="AC13" s="72"/>
-      <c r="AD13" s="186"/>
+      <c r="AD13" s="187"/>
       <c r="AE13" s="53" t="s">
         <v>24</v>
       </c>
@@ -3167,11 +3218,11 @@
       <c r="AN13" s="53"/>
       <c r="AO13" s="53"/>
       <c r="AP13" s="53"/>
-      <c r="AQ13" s="205">
+      <c r="AQ13" s="206">
         <v>0.37916666666666665</v>
       </c>
-      <c r="AR13" s="205"/>
-      <c r="AS13" s="184"/>
+      <c r="AR13" s="206"/>
+      <c r="AS13" s="185"/>
       <c r="AT13" s="73"/>
       <c r="AV13" s="72"/>
       <c r="AW13" s="1" t="s">
@@ -3198,7 +3249,7 @@
     </row>
     <row r="14" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="72"/>
-      <c r="C14" s="186"/>
+      <c r="C14" s="187"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -3211,9 +3262,9 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="184"/>
+      <c r="P14" s="185"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="186"/>
+      <c r="R14" s="187"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -3221,25 +3272,25 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="60"/>
-      <c r="Z14" s="184"/>
+      <c r="Z14" s="185"/>
       <c r="AA14" s="73"/>
       <c r="AC14" s="72"/>
-      <c r="AD14" s="186"/>
-      <c r="AE14" s="209"/>
-      <c r="AF14" s="209"/>
-      <c r="AG14" s="209"/>
-      <c r="AH14" s="209"/>
-      <c r="AI14" s="209"/>
-      <c r="AJ14" s="209"/>
-      <c r="AK14" s="209"/>
-      <c r="AL14" s="209"/>
-      <c r="AM14" s="209"/>
-      <c r="AN14" s="209"/>
-      <c r="AO14" s="209"/>
-      <c r="AP14" s="209"/>
-      <c r="AQ14" s="209"/>
-      <c r="AR14" s="209"/>
-      <c r="AS14" s="184"/>
+      <c r="AD14" s="187"/>
+      <c r="AE14" s="210"/>
+      <c r="AF14" s="210"/>
+      <c r="AG14" s="210"/>
+      <c r="AH14" s="210"/>
+      <c r="AI14" s="210"/>
+      <c r="AJ14" s="210"/>
+      <c r="AK14" s="210"/>
+      <c r="AL14" s="210"/>
+      <c r="AM14" s="210"/>
+      <c r="AN14" s="210"/>
+      <c r="AO14" s="210"/>
+      <c r="AP14" s="210"/>
+      <c r="AQ14" s="210"/>
+      <c r="AR14" s="210"/>
+      <c r="AS14" s="185"/>
       <c r="AT14" s="73"/>
       <c r="AV14" s="72"/>
       <c r="AW14" s="1"/>
@@ -3262,7 +3313,7 @@
     </row>
     <row r="15" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="72"/>
-      <c r="C15" s="186"/>
+      <c r="C15" s="187"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -3275,9 +3326,9 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="184"/>
+      <c r="P15" s="185"/>
       <c r="Q15" s="16"/>
-      <c r="R15" s="186"/>
+      <c r="R15" s="187"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -3285,25 +3336,25 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="60"/>
-      <c r="Z15" s="184"/>
+      <c r="Z15" s="185"/>
       <c r="AA15" s="73"/>
       <c r="AC15" s="72"/>
-      <c r="AD15" s="186"/>
-      <c r="AE15" s="210"/>
-      <c r="AF15" s="210"/>
-      <c r="AG15" s="210"/>
-      <c r="AH15" s="210"/>
-      <c r="AI15" s="210"/>
-      <c r="AJ15" s="210"/>
-      <c r="AK15" s="210"/>
-      <c r="AL15" s="210"/>
-      <c r="AM15" s="210"/>
-      <c r="AN15" s="210"/>
-      <c r="AO15" s="210"/>
-      <c r="AP15" s="210"/>
-      <c r="AQ15" s="210"/>
-      <c r="AR15" s="210"/>
-      <c r="AS15" s="184"/>
+      <c r="AD15" s="187"/>
+      <c r="AE15" s="211"/>
+      <c r="AF15" s="211"/>
+      <c r="AG15" s="211"/>
+      <c r="AH15" s="211"/>
+      <c r="AI15" s="211"/>
+      <c r="AJ15" s="211"/>
+      <c r="AK15" s="211"/>
+      <c r="AL15" s="211"/>
+      <c r="AM15" s="211"/>
+      <c r="AN15" s="211"/>
+      <c r="AO15" s="211"/>
+      <c r="AP15" s="211"/>
+      <c r="AQ15" s="211"/>
+      <c r="AR15" s="211"/>
+      <c r="AS15" s="185"/>
       <c r="AT15" s="73"/>
       <c r="AV15" s="72"/>
       <c r="AW15" s="1"/>
@@ -3326,7 +3377,7 @@
     </row>
     <row r="16" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="72"/>
-      <c r="C16" s="186"/>
+      <c r="C16" s="187"/>
       <c r="D16" s="46" t="s">
         <v>45</v>
       </c>
@@ -3341,9 +3392,9 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="184"/>
+      <c r="P16" s="185"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="186"/>
+      <c r="R16" s="187"/>
       <c r="S16" s="65" t="s">
         <v>35</v>
       </c>
@@ -3353,27 +3404,27 @@
       <c r="W16" s="65"/>
       <c r="X16" s="65"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="184"/>
+      <c r="Z16" s="185"/>
       <c r="AA16" s="73"/>
       <c r="AC16" s="72"/>
-      <c r="AD16" s="186"/>
-      <c r="AE16" s="190" t="s">
+      <c r="AD16" s="187"/>
+      <c r="AE16" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="AF16" s="190"/>
-      <c r="AG16" s="190"/>
-      <c r="AH16" s="190"/>
-      <c r="AI16" s="190"/>
-      <c r="AJ16" s="190"/>
-      <c r="AK16" s="190"/>
-      <c r="AL16" s="190"/>
-      <c r="AM16" s="190"/>
-      <c r="AN16" s="190"/>
-      <c r="AO16" s="190"/>
-      <c r="AP16" s="190"/>
-      <c r="AQ16" s="190"/>
-      <c r="AR16" s="190"/>
-      <c r="AS16" s="184"/>
+      <c r="AF16" s="191"/>
+      <c r="AG16" s="191"/>
+      <c r="AH16" s="191"/>
+      <c r="AI16" s="191"/>
+      <c r="AJ16" s="191"/>
+      <c r="AK16" s="191"/>
+      <c r="AL16" s="191"/>
+      <c r="AM16" s="191"/>
+      <c r="AN16" s="191"/>
+      <c r="AO16" s="191"/>
+      <c r="AP16" s="191"/>
+      <c r="AQ16" s="191"/>
+      <c r="AR16" s="191"/>
+      <c r="AS16" s="185"/>
       <c r="AT16" s="73"/>
       <c r="AV16" s="72"/>
       <c r="AW16" s="1" t="s">
@@ -3400,7 +3451,7 @@
     </row>
     <row r="17" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="72"/>
-      <c r="C17" s="186"/>
+      <c r="C17" s="187"/>
       <c r="D17" s="13" t="s">
         <v>39</v>
       </c>
@@ -3415,9 +3466,9 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="184"/>
+      <c r="P17" s="185"/>
       <c r="Q17" s="19"/>
-      <c r="R17" s="186"/>
+      <c r="R17" s="187"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
@@ -3425,10 +3476,10 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="26"/>
-      <c r="Z17" s="184"/>
+      <c r="Z17" s="185"/>
       <c r="AA17" s="73"/>
       <c r="AC17" s="72"/>
-      <c r="AD17" s="186"/>
+      <c r="AD17" s="187"/>
       <c r="AE17" s="54" t="s">
         <v>25</v>
       </c>
@@ -3443,11 +3494,11 @@
       <c r="AN17" s="54"/>
       <c r="AO17" s="54"/>
       <c r="AP17" s="54"/>
-      <c r="AQ17" s="206">
+      <c r="AQ17" s="207">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR17" s="206"/>
-      <c r="AS17" s="184"/>
+      <c r="AR17" s="207"/>
+      <c r="AS17" s="185"/>
       <c r="AT17" s="73"/>
       <c r="AV17" s="72"/>
       <c r="AW17" s="2" t="s">
@@ -3474,7 +3525,7 @@
     </row>
     <row r="18" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
-      <c r="C18" s="186"/>
+      <c r="C18" s="187"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -3487,9 +3538,9 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="184"/>
+      <c r="P18" s="185"/>
       <c r="Q18" s="20"/>
-      <c r="R18" s="186"/>
+      <c r="R18" s="187"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
@@ -3497,25 +3548,25 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="26"/>
-      <c r="Z18" s="184"/>
+      <c r="Z18" s="185"/>
       <c r="AA18" s="73"/>
       <c r="AC18" s="72"/>
-      <c r="AD18" s="186"/>
-      <c r="AE18" s="211"/>
-      <c r="AF18" s="211"/>
-      <c r="AG18" s="211"/>
-      <c r="AH18" s="211"/>
-      <c r="AI18" s="211"/>
-      <c r="AJ18" s="211"/>
-      <c r="AK18" s="211"/>
-      <c r="AL18" s="211"/>
-      <c r="AM18" s="211"/>
-      <c r="AN18" s="211"/>
-      <c r="AO18" s="211"/>
-      <c r="AP18" s="211"/>
-      <c r="AQ18" s="211"/>
-      <c r="AR18" s="211"/>
-      <c r="AS18" s="184"/>
+      <c r="AD18" s="187"/>
+      <c r="AE18" s="212"/>
+      <c r="AF18" s="212"/>
+      <c r="AG18" s="212"/>
+      <c r="AH18" s="212"/>
+      <c r="AI18" s="212"/>
+      <c r="AJ18" s="212"/>
+      <c r="AK18" s="212"/>
+      <c r="AL18" s="212"/>
+      <c r="AM18" s="212"/>
+      <c r="AN18" s="212"/>
+      <c r="AO18" s="212"/>
+      <c r="AP18" s="212"/>
+      <c r="AQ18" s="212"/>
+      <c r="AR18" s="212"/>
+      <c r="AS18" s="185"/>
       <c r="AT18" s="73"/>
       <c r="AV18" s="72"/>
       <c r="AW18" s="1"/>
@@ -3538,7 +3589,7 @@
     </row>
     <row r="19" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="72"/>
-      <c r="C19" s="186"/>
+      <c r="C19" s="187"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -3551,9 +3602,9 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="184"/>
+      <c r="P19" s="185"/>
       <c r="Q19" s="20"/>
-      <c r="R19" s="186"/>
+      <c r="R19" s="187"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
@@ -3561,25 +3612,25 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="26"/>
-      <c r="Z19" s="184"/>
+      <c r="Z19" s="185"/>
       <c r="AA19" s="73"/>
       <c r="AC19" s="72"/>
-      <c r="AD19" s="186"/>
-      <c r="AE19" s="212"/>
-      <c r="AF19" s="212"/>
-      <c r="AG19" s="212"/>
-      <c r="AH19" s="212"/>
-      <c r="AI19" s="212"/>
-      <c r="AJ19" s="212"/>
-      <c r="AK19" s="212"/>
-      <c r="AL19" s="212"/>
-      <c r="AM19" s="212"/>
-      <c r="AN19" s="212"/>
-      <c r="AO19" s="212"/>
-      <c r="AP19" s="212"/>
-      <c r="AQ19" s="212"/>
-      <c r="AR19" s="212"/>
-      <c r="AS19" s="184"/>
+      <c r="AD19" s="187"/>
+      <c r="AE19" s="213"/>
+      <c r="AF19" s="213"/>
+      <c r="AG19" s="213"/>
+      <c r="AH19" s="213"/>
+      <c r="AI19" s="213"/>
+      <c r="AJ19" s="213"/>
+      <c r="AK19" s="213"/>
+      <c r="AL19" s="213"/>
+      <c r="AM19" s="213"/>
+      <c r="AN19" s="213"/>
+      <c r="AO19" s="213"/>
+      <c r="AP19" s="213"/>
+      <c r="AQ19" s="213"/>
+      <c r="AR19" s="213"/>
+      <c r="AS19" s="185"/>
       <c r="AT19" s="73"/>
       <c r="AV19" s="72"/>
       <c r="AW19" s="1"/>
@@ -3602,7 +3653,7 @@
     </row>
     <row r="20" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="72"/>
-      <c r="C20" s="186"/>
+      <c r="C20" s="187"/>
       <c r="D20" s="47" t="s">
         <v>101</v>
       </c>
@@ -3617,9 +3668,9 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="184"/>
+      <c r="P20" s="185"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="186"/>
+      <c r="R20" s="187"/>
       <c r="S20" s="10" t="s">
         <v>37</v>
       </c>
@@ -3629,27 +3680,27 @@
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="13"/>
-      <c r="Z20" s="184"/>
+      <c r="Z20" s="185"/>
       <c r="AA20" s="73"/>
       <c r="AC20" s="72"/>
-      <c r="AD20" s="186"/>
-      <c r="AE20" s="191" t="s">
+      <c r="AD20" s="187"/>
+      <c r="AE20" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="AF20" s="191"/>
-      <c r="AG20" s="191"/>
-      <c r="AH20" s="191"/>
-      <c r="AI20" s="191"/>
-      <c r="AJ20" s="191"/>
-      <c r="AK20" s="191"/>
-      <c r="AL20" s="191"/>
-      <c r="AM20" s="191"/>
-      <c r="AN20" s="191"/>
-      <c r="AO20" s="191"/>
-      <c r="AP20" s="191"/>
-      <c r="AQ20" s="191"/>
-      <c r="AR20" s="191"/>
-      <c r="AS20" s="184"/>
+      <c r="AF20" s="192"/>
+      <c r="AG20" s="192"/>
+      <c r="AH20" s="192"/>
+      <c r="AI20" s="192"/>
+      <c r="AJ20" s="192"/>
+      <c r="AK20" s="192"/>
+      <c r="AL20" s="192"/>
+      <c r="AM20" s="192"/>
+      <c r="AN20" s="192"/>
+      <c r="AO20" s="192"/>
+      <c r="AP20" s="192"/>
+      <c r="AQ20" s="192"/>
+      <c r="AR20" s="192"/>
+      <c r="AS20" s="185"/>
       <c r="AT20" s="73"/>
       <c r="AV20" s="72"/>
       <c r="AW20" s="135" t="s">
@@ -3676,7 +3727,7 @@
     </row>
     <row r="21" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="72"/>
-      <c r="C21" s="186"/>
+      <c r="C21" s="187"/>
       <c r="D21" s="48" t="s">
         <v>104</v>
       </c>
@@ -3691,9 +3742,9 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="184"/>
+      <c r="P21" s="185"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="186"/>
+      <c r="R21" s="187"/>
       <c r="S21" s="13" t="s">
         <v>36</v>
       </c>
@@ -3703,10 +3754,10 @@
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="26"/>
-      <c r="Z21" s="184"/>
+      <c r="Z21" s="185"/>
       <c r="AA21" s="73"/>
       <c r="AC21" s="72"/>
-      <c r="AD21" s="186"/>
+      <c r="AD21" s="187"/>
       <c r="AE21" s="55" t="s">
         <v>27</v>
       </c>
@@ -3721,11 +3772,11 @@
       <c r="AN21" s="55"/>
       <c r="AO21" s="55"/>
       <c r="AP21" s="55"/>
-      <c r="AQ21" s="207">
+      <c r="AQ21" s="208">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR21" s="207"/>
-      <c r="AS21" s="184"/>
+      <c r="AR21" s="208"/>
+      <c r="AS21" s="185"/>
       <c r="AT21" s="73"/>
       <c r="AV21" s="72"/>
       <c r="AW21" s="2" t="s">
@@ -3752,7 +3803,7 @@
     </row>
     <row r="22" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="72"/>
-      <c r="C22" s="186"/>
+      <c r="C22" s="187"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -3765,9 +3816,9 @@
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="184"/>
+      <c r="P22" s="185"/>
       <c r="Q22" s="22"/>
-      <c r="R22" s="186"/>
+      <c r="R22" s="187"/>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
@@ -3775,25 +3826,25 @@
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="26"/>
-      <c r="Z22" s="184"/>
+      <c r="Z22" s="185"/>
       <c r="AA22" s="73"/>
       <c r="AC22" s="72"/>
-      <c r="AD22" s="186"/>
-      <c r="AE22" s="213"/>
-      <c r="AF22" s="213"/>
-      <c r="AG22" s="213"/>
-      <c r="AH22" s="213"/>
-      <c r="AI22" s="213"/>
-      <c r="AJ22" s="213"/>
-      <c r="AK22" s="213"/>
-      <c r="AL22" s="213"/>
-      <c r="AM22" s="213"/>
-      <c r="AN22" s="213"/>
-      <c r="AO22" s="213"/>
-      <c r="AP22" s="213"/>
-      <c r="AQ22" s="213"/>
-      <c r="AR22" s="213"/>
-      <c r="AS22" s="184"/>
+      <c r="AD22" s="187"/>
+      <c r="AE22" s="214"/>
+      <c r="AF22" s="214"/>
+      <c r="AG22" s="214"/>
+      <c r="AH22" s="214"/>
+      <c r="AI22" s="214"/>
+      <c r="AJ22" s="214"/>
+      <c r="AK22" s="214"/>
+      <c r="AL22" s="214"/>
+      <c r="AM22" s="214"/>
+      <c r="AN22" s="214"/>
+      <c r="AO22" s="214"/>
+      <c r="AP22" s="214"/>
+      <c r="AQ22" s="214"/>
+      <c r="AR22" s="214"/>
+      <c r="AS22" s="185"/>
       <c r="AT22" s="73"/>
       <c r="AV22" s="72"/>
       <c r="AW22" s="3"/>
@@ -3816,7 +3867,7 @@
     </row>
     <row r="23" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="72"/>
-      <c r="C23" s="186"/>
+      <c r="C23" s="187"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -3829,9 +3880,9 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
-      <c r="P23" s="184"/>
+      <c r="P23" s="185"/>
       <c r="Q23" s="22"/>
-      <c r="R23" s="186"/>
+      <c r="R23" s="187"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -3839,25 +3890,25 @@
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="26"/>
-      <c r="Z23" s="184"/>
+      <c r="Z23" s="185"/>
       <c r="AA23" s="73"/>
       <c r="AC23" s="72"/>
-      <c r="AD23" s="186"/>
-      <c r="AE23" s="214"/>
-      <c r="AF23" s="214"/>
-      <c r="AG23" s="214"/>
-      <c r="AH23" s="214"/>
-      <c r="AI23" s="214"/>
-      <c r="AJ23" s="214"/>
-      <c r="AK23" s="214"/>
-      <c r="AL23" s="214"/>
-      <c r="AM23" s="214"/>
-      <c r="AN23" s="214"/>
-      <c r="AO23" s="214"/>
-      <c r="AP23" s="214"/>
-      <c r="AQ23" s="214"/>
-      <c r="AR23" s="214"/>
-      <c r="AS23" s="184"/>
+      <c r="AD23" s="187"/>
+      <c r="AE23" s="215"/>
+      <c r="AF23" s="215"/>
+      <c r="AG23" s="215"/>
+      <c r="AH23" s="215"/>
+      <c r="AI23" s="215"/>
+      <c r="AJ23" s="215"/>
+      <c r="AK23" s="215"/>
+      <c r="AL23" s="215"/>
+      <c r="AM23" s="215"/>
+      <c r="AN23" s="215"/>
+      <c r="AO23" s="215"/>
+      <c r="AP23" s="215"/>
+      <c r="AQ23" s="215"/>
+      <c r="AR23" s="215"/>
+      <c r="AS23" s="185"/>
       <c r="AT23" s="73"/>
       <c r="AV23" s="72"/>
       <c r="AW23" s="3"/>
@@ -3880,7 +3931,7 @@
     </row>
     <row r="24" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="72"/>
-      <c r="C24" s="186"/>
+      <c r="C24" s="187"/>
       <c r="D24" s="49" t="s">
         <v>102</v>
       </c>
@@ -3895,9 +3946,9 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="26"/>
-      <c r="P24" s="184"/>
+      <c r="P24" s="185"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="186"/>
+      <c r="R24" s="187"/>
       <c r="S24" s="26"/>
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
@@ -3905,10 +3956,10 @@
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26"/>
-      <c r="Z24" s="184"/>
+      <c r="Z24" s="185"/>
       <c r="AA24" s="73"/>
       <c r="AC24" s="72"/>
-      <c r="AD24" s="186"/>
+      <c r="AD24" s="187"/>
       <c r="AE24" s="56" t="s">
         <v>26</v>
       </c>
@@ -3925,7 +3976,7 @@
       <c r="AP24" s="56"/>
       <c r="AQ24" s="56"/>
       <c r="AR24" s="57"/>
-      <c r="AS24" s="184"/>
+      <c r="AS24" s="185"/>
       <c r="AT24" s="73"/>
       <c r="AV24" s="72"/>
       <c r="AW24" s="136" t="s">
@@ -3952,7 +4003,7 @@
     </row>
     <row r="25" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="72"/>
-      <c r="C25" s="186"/>
+      <c r="C25" s="187"/>
       <c r="D25" s="50" t="s">
         <v>103</v>
       </c>
@@ -3967,9 +4018,9 @@
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="184"/>
+      <c r="P25" s="185"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="186"/>
+      <c r="R25" s="187"/>
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
@@ -3977,10 +4028,10 @@
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
-      <c r="Z25" s="184"/>
+      <c r="Z25" s="185"/>
       <c r="AA25" s="73"/>
       <c r="AC25" s="72"/>
-      <c r="AD25" s="186"/>
+      <c r="AD25" s="187"/>
       <c r="AE25" s="58" t="s">
         <v>28</v>
       </c>
@@ -3995,11 +4046,11 @@
       <c r="AN25" s="58"/>
       <c r="AO25" s="58"/>
       <c r="AP25" s="58"/>
-      <c r="AQ25" s="208">
+      <c r="AQ25" s="209">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR25" s="208"/>
-      <c r="AS25" s="184"/>
+      <c r="AR25" s="209"/>
+      <c r="AS25" s="185"/>
       <c r="AT25" s="73"/>
       <c r="AV25" s="72"/>
       <c r="AW25" s="137" t="s">
@@ -4026,7 +4077,7 @@
     </row>
     <row r="26" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="72"/>
-      <c r="C26" s="186"/>
+      <c r="C26" s="187"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -4039,9 +4090,9 @@
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
-      <c r="P26" s="184"/>
+      <c r="P26" s="185"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="186"/>
+      <c r="R26" s="187"/>
       <c r="S26" s="26"/>
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
@@ -4049,10 +4100,10 @@
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
-      <c r="Z26" s="184"/>
+      <c r="Z26" s="185"/>
       <c r="AA26" s="73"/>
       <c r="AC26" s="72"/>
-      <c r="AD26" s="186"/>
+      <c r="AD26" s="187"/>
       <c r="AE26" s="225"/>
       <c r="AF26" s="225"/>
       <c r="AG26" s="225"/>
@@ -4067,7 +4118,7 @@
       <c r="AP26" s="225"/>
       <c r="AQ26" s="225"/>
       <c r="AR26" s="225"/>
-      <c r="AS26" s="184"/>
+      <c r="AS26" s="185"/>
       <c r="AT26" s="73"/>
       <c r="AV26" s="72"/>
       <c r="AW26" s="5"/>
@@ -4090,7 +4141,7 @@
     </row>
     <row r="27" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="72"/>
-      <c r="C27" s="186"/>
+      <c r="C27" s="187"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -4103,9 +4154,9 @@
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="184"/>
+      <c r="P27" s="185"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="186"/>
+      <c r="R27" s="187"/>
       <c r="S27" s="26"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
@@ -4113,10 +4164,10 @@
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
-      <c r="Z27" s="184"/>
+      <c r="Z27" s="185"/>
       <c r="AA27" s="73"/>
       <c r="AC27" s="72"/>
-      <c r="AD27" s="186"/>
+      <c r="AD27" s="187"/>
       <c r="AE27" s="226"/>
       <c r="AF27" s="226"/>
       <c r="AG27" s="226"/>
@@ -4131,7 +4182,7 @@
       <c r="AP27" s="226"/>
       <c r="AQ27" s="226"/>
       <c r="AR27" s="226"/>
-      <c r="AS27" s="184"/>
+      <c r="AS27" s="185"/>
       <c r="AT27" s="73"/>
       <c r="AV27" s="72"/>
       <c r="AW27" s="5"/>
@@ -4154,7 +4205,7 @@
     </row>
     <row r="28" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="72"/>
-      <c r="C28" s="186"/>
+      <c r="C28" s="187"/>
       <c r="D28" s="51" t="s">
         <v>43</v>
       </c>
@@ -4169,9 +4220,9 @@
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
       <c r="O28" s="26"/>
-      <c r="P28" s="184"/>
+      <c r="P28" s="185"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="186"/>
+      <c r="R28" s="187"/>
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
@@ -4179,10 +4230,10 @@
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="60"/>
-      <c r="Z28" s="184"/>
+      <c r="Z28" s="185"/>
       <c r="AA28" s="73"/>
       <c r="AC28" s="72"/>
-      <c r="AD28" s="186"/>
+      <c r="AD28" s="187"/>
       <c r="AE28" s="59" t="s">
         <v>29</v>
       </c>
@@ -4197,11 +4248,11 @@
       <c r="AN28" s="59"/>
       <c r="AO28" s="59"/>
       <c r="AP28" s="59"/>
-      <c r="AQ28" s="215">
+      <c r="AQ28" s="216">
         <v>0.38055555555555554</v>
       </c>
-      <c r="AR28" s="215"/>
-      <c r="AS28" s="184"/>
+      <c r="AR28" s="216"/>
+      <c r="AS28" s="185"/>
       <c r="AT28" s="73"/>
       <c r="AV28" s="72"/>
       <c r="AW28" s="6" t="s">
@@ -4228,7 +4279,7 @@
     </row>
     <row r="29" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="72"/>
-      <c r="C29" s="186"/>
+      <c r="C29" s="187"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
@@ -4241,9 +4292,9 @@
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="26"/>
-      <c r="P29" s="184"/>
+      <c r="P29" s="185"/>
       <c r="Q29" s="8"/>
-      <c r="R29" s="186"/>
+      <c r="R29" s="187"/>
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
@@ -4251,10 +4302,10 @@
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
-      <c r="Z29" s="184"/>
+      <c r="Z29" s="185"/>
       <c r="AA29" s="73"/>
       <c r="AC29" s="72"/>
-      <c r="AD29" s="186"/>
+      <c r="AD29" s="187"/>
       <c r="AE29" s="61"/>
       <c r="AF29" s="61"/>
       <c r="AG29" s="61"/>
@@ -4269,7 +4320,7 @@
       <c r="AP29" s="61"/>
       <c r="AQ29" s="61"/>
       <c r="AR29" s="62"/>
-      <c r="AS29" s="184"/>
+      <c r="AS29" s="185"/>
       <c r="AT29" s="73"/>
       <c r="AV29" s="72"/>
       <c r="AW29" s="6"/>
@@ -4292,7 +4343,7 @@
     </row>
     <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" s="72"/>
-      <c r="C30" s="186"/>
+      <c r="C30" s="187"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="26"/>
@@ -4305,9 +4356,9 @@
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="184"/>
+      <c r="P30" s="185"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="186"/>
+      <c r="R30" s="187"/>
       <c r="S30" s="26"/>
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
@@ -4315,10 +4366,10 @@
       <c r="W30" s="26"/>
       <c r="X30" s="26"/>
       <c r="Y30" s="26"/>
-      <c r="Z30" s="184"/>
+      <c r="Z30" s="185"/>
       <c r="AA30" s="73"/>
       <c r="AC30" s="72"/>
-      <c r="AD30" s="186"/>
+      <c r="AD30" s="187"/>
       <c r="AE30" s="63"/>
       <c r="AF30" s="63"/>
       <c r="AG30" s="63"/>
@@ -4333,7 +4384,7 @@
       <c r="AP30" s="63"/>
       <c r="AQ30" s="63"/>
       <c r="AR30" s="63"/>
-      <c r="AS30" s="184"/>
+      <c r="AS30" s="185"/>
       <c r="AT30" s="73"/>
       <c r="AV30" s="72"/>
       <c r="AW30" s="6" t="s">
@@ -4360,7 +4411,7 @@
     </row>
     <row r="31" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="72"/>
-      <c r="C31" s="186"/>
+      <c r="C31" s="187"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
@@ -4373,9 +4424,9 @@
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="184"/>
+      <c r="P31" s="185"/>
       <c r="Q31" s="8"/>
-      <c r="R31" s="186"/>
+      <c r="R31" s="187"/>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
@@ -4383,10 +4434,10 @@
       <c r="W31" s="26"/>
       <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
-      <c r="Z31" s="184"/>
+      <c r="Z31" s="185"/>
       <c r="AA31" s="73"/>
       <c r="AC31" s="72"/>
-      <c r="AD31" s="186"/>
+      <c r="AD31" s="187"/>
       <c r="AE31" s="63"/>
       <c r="AF31" s="63"/>
       <c r="AG31" s="63"/>
@@ -4401,7 +4452,7 @@
       <c r="AP31" s="63"/>
       <c r="AQ31" s="63"/>
       <c r="AR31" s="63"/>
-      <c r="AS31" s="184"/>
+      <c r="AS31" s="185"/>
       <c r="AT31" s="73"/>
       <c r="AV31" s="72"/>
       <c r="AW31" s="6"/>
@@ -4424,48 +4475,48 @@
     </row>
     <row r="32" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="72"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="187"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="187"/>
-      <c r="M32" s="187"/>
-      <c r="N32" s="187"/>
-      <c r="O32" s="187"/>
-      <c r="P32" s="187"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="188"/>
+      <c r="K32" s="188"/>
+      <c r="L32" s="188"/>
+      <c r="M32" s="188"/>
+      <c r="N32" s="188"/>
+      <c r="O32" s="188"/>
+      <c r="P32" s="188"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="186"/>
-      <c r="S32" s="187"/>
-      <c r="T32" s="187"/>
-      <c r="U32" s="187"/>
-      <c r="V32" s="187"/>
-      <c r="W32" s="187"/>
-      <c r="X32" s="187"/>
-      <c r="Y32" s="187"/>
-      <c r="Z32" s="187"/>
+      <c r="R32" s="187"/>
+      <c r="S32" s="188"/>
+      <c r="T32" s="188"/>
+      <c r="U32" s="188"/>
+      <c r="V32" s="188"/>
+      <c r="W32" s="188"/>
+      <c r="X32" s="188"/>
+      <c r="Y32" s="188"/>
+      <c r="Z32" s="188"/>
       <c r="AA32" s="73"/>
       <c r="AC32" s="72"/>
-      <c r="AD32" s="186"/>
-      <c r="AE32" s="184"/>
-      <c r="AF32" s="184"/>
-      <c r="AG32" s="184"/>
-      <c r="AH32" s="184"/>
-      <c r="AI32" s="184"/>
-      <c r="AJ32" s="184"/>
-      <c r="AK32" s="184"/>
-      <c r="AL32" s="184"/>
-      <c r="AM32" s="184"/>
-      <c r="AN32" s="184"/>
-      <c r="AO32" s="184"/>
-      <c r="AP32" s="184"/>
-      <c r="AQ32" s="184"/>
-      <c r="AR32" s="184"/>
-      <c r="AS32" s="184"/>
+      <c r="AD32" s="187"/>
+      <c r="AE32" s="185"/>
+      <c r="AF32" s="185"/>
+      <c r="AG32" s="185"/>
+      <c r="AH32" s="185"/>
+      <c r="AI32" s="185"/>
+      <c r="AJ32" s="185"/>
+      <c r="AK32" s="185"/>
+      <c r="AL32" s="185"/>
+      <c r="AM32" s="185"/>
+      <c r="AN32" s="185"/>
+      <c r="AO32" s="185"/>
+      <c r="AP32" s="185"/>
+      <c r="AQ32" s="185"/>
+      <c r="AR32" s="185"/>
+      <c r="AS32" s="185"/>
       <c r="AT32" s="73"/>
       <c r="AV32" s="72"/>
       <c r="AW32" s="6"/>
@@ -4556,48 +4607,48 @@
     </row>
     <row r="34" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="72"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="186"/>
-      <c r="L34" s="186"/>
-      <c r="M34" s="186"/>
-      <c r="N34" s="186"/>
-      <c r="O34" s="186"/>
-      <c r="P34" s="186"/>
-      <c r="Q34" s="186"/>
-      <c r="R34" s="186"/>
-      <c r="S34" s="186"/>
-      <c r="T34" s="186"/>
-      <c r="U34" s="186"/>
-      <c r="V34" s="186"/>
-      <c r="W34" s="186"/>
-      <c r="X34" s="186"/>
-      <c r="Y34" s="186"/>
-      <c r="Z34" s="186"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="187"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="187"/>
+      <c r="O34" s="187"/>
+      <c r="P34" s="187"/>
+      <c r="Q34" s="187"/>
+      <c r="R34" s="187"/>
+      <c r="S34" s="187"/>
+      <c r="T34" s="187"/>
+      <c r="U34" s="187"/>
+      <c r="V34" s="187"/>
+      <c r="W34" s="187"/>
+      <c r="X34" s="187"/>
+      <c r="Y34" s="187"/>
+      <c r="Z34" s="187"/>
       <c r="AA34" s="73"/>
       <c r="AC34" s="72"/>
-      <c r="AD34" s="186"/>
-      <c r="AE34" s="186"/>
-      <c r="AF34" s="186"/>
-      <c r="AG34" s="186"/>
-      <c r="AH34" s="186"/>
-      <c r="AI34" s="186"/>
-      <c r="AJ34" s="186"/>
-      <c r="AK34" s="186"/>
-      <c r="AL34" s="186"/>
-      <c r="AM34" s="186"/>
-      <c r="AN34" s="186"/>
-      <c r="AO34" s="186"/>
-      <c r="AP34" s="186"/>
-      <c r="AQ34" s="186"/>
-      <c r="AR34" s="186"/>
-      <c r="AS34" s="186"/>
+      <c r="AD34" s="187"/>
+      <c r="AE34" s="187"/>
+      <c r="AF34" s="187"/>
+      <c r="AG34" s="187"/>
+      <c r="AH34" s="187"/>
+      <c r="AI34" s="187"/>
+      <c r="AJ34" s="187"/>
+      <c r="AK34" s="187"/>
+      <c r="AL34" s="187"/>
+      <c r="AM34" s="187"/>
+      <c r="AN34" s="187"/>
+      <c r="AO34" s="187"/>
+      <c r="AP34" s="187"/>
+      <c r="AQ34" s="187"/>
+      <c r="AR34" s="187"/>
+      <c r="AS34" s="187"/>
       <c r="AT34" s="73"/>
       <c r="AV34" s="72"/>
       <c r="AW34" s="1"/>
@@ -4620,7 +4671,7 @@
     </row>
     <row r="35" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="72"/>
-      <c r="C35" s="186"/>
+      <c r="C35" s="187"/>
       <c r="D35" s="219" t="s">
         <v>30</v>
       </c>
@@ -4648,7 +4699,7 @@
       <c r="Z35" s="66"/>
       <c r="AA35" s="73"/>
       <c r="AC35" s="72"/>
-      <c r="AD35" s="186"/>
+      <c r="AD35" s="187"/>
       <c r="AE35" s="219" t="s">
         <v>30</v>
       </c>
@@ -4692,48 +4743,48 @@
     </row>
     <row r="36" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="72"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="184"/>
-      <c r="J36" s="184"/>
-      <c r="K36" s="184"/>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
-      <c r="N36" s="184"/>
-      <c r="O36" s="184"/>
-      <c r="P36" s="184"/>
-      <c r="Q36" s="184"/>
-      <c r="R36" s="184"/>
-      <c r="S36" s="184"/>
-      <c r="T36" s="184"/>
-      <c r="U36" s="184"/>
-      <c r="V36" s="184"/>
-      <c r="W36" s="184"/>
-      <c r="X36" s="184"/>
-      <c r="Y36" s="184"/>
-      <c r="Z36" s="184"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="185"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="185"/>
+      <c r="I36" s="185"/>
+      <c r="J36" s="185"/>
+      <c r="K36" s="185"/>
+      <c r="L36" s="185"/>
+      <c r="M36" s="185"/>
+      <c r="N36" s="185"/>
+      <c r="O36" s="185"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
+      <c r="S36" s="185"/>
+      <c r="T36" s="185"/>
+      <c r="U36" s="185"/>
+      <c r="V36" s="185"/>
+      <c r="W36" s="185"/>
+      <c r="X36" s="185"/>
+      <c r="Y36" s="185"/>
+      <c r="Z36" s="185"/>
       <c r="AA36" s="73"/>
       <c r="AC36" s="72"/>
-      <c r="AD36" s="186"/>
-      <c r="AE36" s="184"/>
-      <c r="AF36" s="184"/>
-      <c r="AG36" s="184"/>
-      <c r="AH36" s="184"/>
-      <c r="AI36" s="184"/>
-      <c r="AJ36" s="184"/>
-      <c r="AK36" s="184"/>
-      <c r="AL36" s="184"/>
-      <c r="AM36" s="184"/>
-      <c r="AN36" s="184"/>
-      <c r="AO36" s="184"/>
-      <c r="AP36" s="184"/>
-      <c r="AQ36" s="184"/>
-      <c r="AR36" s="184"/>
-      <c r="AS36" s="184"/>
+      <c r="AD36" s="187"/>
+      <c r="AE36" s="185"/>
+      <c r="AF36" s="185"/>
+      <c r="AG36" s="185"/>
+      <c r="AH36" s="185"/>
+      <c r="AI36" s="185"/>
+      <c r="AJ36" s="185"/>
+      <c r="AK36" s="185"/>
+      <c r="AL36" s="185"/>
+      <c r="AM36" s="185"/>
+      <c r="AN36" s="185"/>
+      <c r="AO36" s="185"/>
+      <c r="AP36" s="185"/>
+      <c r="AQ36" s="185"/>
+      <c r="AR36" s="185"/>
+      <c r="AS36" s="185"/>
       <c r="AT36" s="73"/>
       <c r="AU36" s="77"/>
       <c r="AV36" s="72"/>
@@ -4957,13 +5008,13 @@
       <c r="B41" s="72"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="182"/>
-      <c r="G41" s="182"/>
-      <c r="H41" s="182"/>
-      <c r="I41" s="182"/>
-      <c r="J41" s="182"/>
-      <c r="K41" s="182"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
       <c r="L41" s="73"/>
       <c r="M41" s="77"/>
       <c r="N41" s="77"/>
@@ -5075,397 +5126,397 @@
       <c r="S43" s="36"/>
     </row>
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B44" s="216" t="s">
+      <c r="B44" s="217" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="216"/>
-      <c r="D44" s="216"/>
-      <c r="E44" s="216"/>
-      <c r="F44" s="216"/>
-      <c r="G44" s="216"/>
-      <c r="H44" s="216"/>
-      <c r="I44" s="216"/>
-      <c r="J44" s="216"/>
-      <c r="K44" s="216"/>
-      <c r="L44" s="216"/>
-      <c r="M44" s="193" t="s">
+      <c r="C44" s="217"/>
+      <c r="D44" s="217"/>
+      <c r="E44" s="217"/>
+      <c r="F44" s="217"/>
+      <c r="G44" s="217"/>
+      <c r="H44" s="217"/>
+      <c r="I44" s="217"/>
+      <c r="J44" s="217"/>
+      <c r="K44" s="217"/>
+      <c r="L44" s="217"/>
+      <c r="M44" s="194" t="s">
         <v>58</v>
       </c>
-      <c r="N44" s="193"/>
-      <c r="O44" s="193"/>
-      <c r="P44" s="193"/>
-      <c r="Q44" s="193"/>
-      <c r="R44" s="193"/>
-      <c r="S44" s="193"/>
-      <c r="T44" s="193"/>
-      <c r="U44" s="193"/>
-      <c r="V44" s="194" t="s">
+      <c r="N44" s="194"/>
+      <c r="O44" s="194"/>
+      <c r="P44" s="194"/>
+      <c r="Q44" s="194"/>
+      <c r="R44" s="194"/>
+      <c r="S44" s="194"/>
+      <c r="T44" s="194"/>
+      <c r="U44" s="194"/>
+      <c r="V44" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="W44" s="194"/>
-      <c r="X44" s="194"/>
-      <c r="Y44" s="194"/>
-      <c r="Z44" s="194"/>
-      <c r="AA44" s="194"/>
-      <c r="AB44" s="194"/>
-      <c r="AC44" s="194"/>
-      <c r="AD44" s="194"/>
-      <c r="AE44" s="194"/>
-      <c r="AF44" s="194"/>
-      <c r="AG44" s="194"/>
-      <c r="AH44" s="193" t="s">
+      <c r="W44" s="195"/>
+      <c r="X44" s="195"/>
+      <c r="Y44" s="195"/>
+      <c r="Z44" s="195"/>
+      <c r="AA44" s="195"/>
+      <c r="AB44" s="195"/>
+      <c r="AC44" s="195"/>
+      <c r="AD44" s="195"/>
+      <c r="AE44" s="195"/>
+      <c r="AF44" s="195"/>
+      <c r="AG44" s="195"/>
+      <c r="AH44" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="AI44" s="193"/>
-      <c r="AJ44" s="193"/>
-      <c r="AK44" s="193"/>
-      <c r="AL44" s="193"/>
-      <c r="AM44" s="193"/>
-      <c r="AN44" s="193"/>
-      <c r="AO44" s="193"/>
-      <c r="AP44" s="196" t="s">
+      <c r="AI44" s="194"/>
+      <c r="AJ44" s="194"/>
+      <c r="AK44" s="194"/>
+      <c r="AL44" s="194"/>
+      <c r="AM44" s="194"/>
+      <c r="AN44" s="194"/>
+      <c r="AO44" s="194"/>
+      <c r="AP44" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="AQ44" s="196"/>
-      <c r="AR44" s="196"/>
-      <c r="AS44" s="196"/>
-      <c r="AT44" s="196"/>
-      <c r="AU44" s="196"/>
-      <c r="AV44" s="196"/>
-      <c r="AW44" s="196"/>
-      <c r="AX44" s="196"/>
-      <c r="AY44" s="196"/>
-      <c r="AZ44" s="193" t="s">
+      <c r="AQ44" s="197"/>
+      <c r="AR44" s="197"/>
+      <c r="AS44" s="197"/>
+      <c r="AT44" s="197"/>
+      <c r="AU44" s="197"/>
+      <c r="AV44" s="197"/>
+      <c r="AW44" s="197"/>
+      <c r="AX44" s="197"/>
+      <c r="AY44" s="197"/>
+      <c r="AZ44" s="194" t="s">
         <v>76</v>
       </c>
-      <c r="BA44" s="193"/>
-      <c r="BB44" s="193"/>
-      <c r="BC44" s="193"/>
-      <c r="BD44" s="193"/>
-      <c r="BE44" s="194" t="s">
+      <c r="BA44" s="194"/>
+      <c r="BB44" s="194"/>
+      <c r="BC44" s="194"/>
+      <c r="BD44" s="194"/>
+      <c r="BE44" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="BF44" s="194"/>
-      <c r="BG44" s="194"/>
-      <c r="BH44" s="194"/>
-      <c r="BI44" s="194"/>
-      <c r="BJ44" s="194"/>
-      <c r="BK44" s="194"/>
-      <c r="BL44" s="194"/>
-      <c r="BM44" s="193" t="s">
+      <c r="BF44" s="195"/>
+      <c r="BG44" s="195"/>
+      <c r="BH44" s="195"/>
+      <c r="BI44" s="195"/>
+      <c r="BJ44" s="195"/>
+      <c r="BK44" s="195"/>
+      <c r="BL44" s="195"/>
+      <c r="BM44" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="BN44" s="193"/>
-      <c r="BO44" s="193"/>
-      <c r="BP44" s="193"/>
-      <c r="BQ44" s="193"/>
+      <c r="BN44" s="194"/>
+      <c r="BO44" s="194"/>
+      <c r="BP44" s="194"/>
+      <c r="BQ44" s="194"/>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B45" s="216" t="s">
+      <c r="B45" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="216"/>
-      <c r="D45" s="216"/>
-      <c r="E45" s="216"/>
-      <c r="F45" s="216"/>
-      <c r="G45" s="216"/>
-      <c r="H45" s="216"/>
-      <c r="I45" s="216"/>
-      <c r="J45" s="216"/>
-      <c r="K45" s="216"/>
-      <c r="L45" s="216"/>
-      <c r="M45" s="193"/>
-      <c r="N45" s="193"/>
-      <c r="O45" s="193"/>
-      <c r="P45" s="193"/>
-      <c r="Q45" s="193"/>
-      <c r="R45" s="193"/>
-      <c r="S45" s="193"/>
-      <c r="T45" s="193"/>
-      <c r="U45" s="193"/>
-      <c r="V45" s="195" t="s">
+      <c r="C45" s="217"/>
+      <c r="D45" s="217"/>
+      <c r="E45" s="217"/>
+      <c r="F45" s="217"/>
+      <c r="G45" s="217"/>
+      <c r="H45" s="217"/>
+      <c r="I45" s="217"/>
+      <c r="J45" s="217"/>
+      <c r="K45" s="217"/>
+      <c r="L45" s="217"/>
+      <c r="M45" s="194"/>
+      <c r="N45" s="194"/>
+      <c r="O45" s="194"/>
+      <c r="P45" s="194"/>
+      <c r="Q45" s="194"/>
+      <c r="R45" s="194"/>
+      <c r="S45" s="194"/>
+      <c r="T45" s="194"/>
+      <c r="U45" s="194"/>
+      <c r="V45" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="W45" s="195"/>
-      <c r="X45" s="195"/>
-      <c r="Y45" s="195"/>
-      <c r="Z45" s="195"/>
-      <c r="AA45" s="195"/>
-      <c r="AB45" s="195"/>
-      <c r="AC45" s="195"/>
-      <c r="AD45" s="195"/>
-      <c r="AE45" s="195"/>
-      <c r="AF45" s="195"/>
-      <c r="AG45" s="195"/>
-      <c r="AH45" s="193" t="s">
+      <c r="W45" s="196"/>
+      <c r="X45" s="196"/>
+      <c r="Y45" s="196"/>
+      <c r="Z45" s="196"/>
+      <c r="AA45" s="196"/>
+      <c r="AB45" s="196"/>
+      <c r="AC45" s="196"/>
+      <c r="AD45" s="196"/>
+      <c r="AE45" s="196"/>
+      <c r="AF45" s="196"/>
+      <c r="AG45" s="196"/>
+      <c r="AH45" s="194" t="s">
         <v>99</v>
       </c>
-      <c r="AI45" s="193"/>
-      <c r="AJ45" s="193"/>
-      <c r="AK45" s="193"/>
-      <c r="AL45" s="193"/>
-      <c r="AM45" s="193"/>
-      <c r="AN45" s="193"/>
-      <c r="AO45" s="193"/>
-      <c r="AP45" s="199" t="s">
+      <c r="AI45" s="194"/>
+      <c r="AJ45" s="194"/>
+      <c r="AK45" s="194"/>
+      <c r="AL45" s="194"/>
+      <c r="AM45" s="194"/>
+      <c r="AN45" s="194"/>
+      <c r="AO45" s="194"/>
+      <c r="AP45" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="AQ45" s="199"/>
-      <c r="AR45" s="199"/>
-      <c r="AS45" s="199"/>
-      <c r="AT45" s="199"/>
-      <c r="AU45" s="199"/>
-      <c r="AV45" s="199"/>
-      <c r="AW45" s="199"/>
-      <c r="AX45" s="199"/>
-      <c r="AY45" s="199"/>
-      <c r="AZ45" s="193"/>
-      <c r="BA45" s="193"/>
-      <c r="BB45" s="193"/>
-      <c r="BC45" s="193"/>
-      <c r="BD45" s="193"/>
-      <c r="BE45" s="196" t="s">
+      <c r="AQ45" s="200"/>
+      <c r="AR45" s="200"/>
+      <c r="AS45" s="200"/>
+      <c r="AT45" s="200"/>
+      <c r="AU45" s="200"/>
+      <c r="AV45" s="200"/>
+      <c r="AW45" s="200"/>
+      <c r="AX45" s="200"/>
+      <c r="AY45" s="200"/>
+      <c r="AZ45" s="194"/>
+      <c r="BA45" s="194"/>
+      <c r="BB45" s="194"/>
+      <c r="BC45" s="194"/>
+      <c r="BD45" s="194"/>
+      <c r="BE45" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="BF45" s="196"/>
-      <c r="BG45" s="196"/>
-      <c r="BH45" s="196"/>
-      <c r="BI45" s="196"/>
-      <c r="BJ45" s="196"/>
-      <c r="BK45" s="196"/>
-      <c r="BL45" s="196"/>
+      <c r="BF45" s="197"/>
+      <c r="BG45" s="197"/>
+      <c r="BH45" s="197"/>
+      <c r="BI45" s="197"/>
+      <c r="BJ45" s="197"/>
+      <c r="BK45" s="197"/>
+      <c r="BL45" s="197"/>
       <c r="BM45" s="224" t="s">
         <v>109</v>
       </c>
-      <c r="BN45" s="193"/>
-      <c r="BO45" s="193"/>
-      <c r="BP45" s="193"/>
-      <c r="BQ45" s="193"/>
+      <c r="BN45" s="194"/>
+      <c r="BO45" s="194"/>
+      <c r="BP45" s="194"/>
+      <c r="BQ45" s="194"/>
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B46" s="217" t="s">
+      <c r="B46" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="217"/>
-      <c r="D46" s="217"/>
-      <c r="E46" s="217"/>
-      <c r="F46" s="217"/>
-      <c r="G46" s="217"/>
-      <c r="H46" s="217"/>
-      <c r="I46" s="217"/>
-      <c r="J46" s="217"/>
-      <c r="K46" s="217"/>
-      <c r="L46" s="217"/>
-      <c r="M46" s="193"/>
-      <c r="N46" s="193"/>
-      <c r="O46" s="193"/>
-      <c r="P46" s="193"/>
-      <c r="Q46" s="193"/>
-      <c r="R46" s="193"/>
-      <c r="S46" s="193"/>
-      <c r="T46" s="193"/>
-      <c r="U46" s="193"/>
-      <c r="V46" s="196" t="s">
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="182"/>
+      <c r="F46" s="182"/>
+      <c r="G46" s="182"/>
+      <c r="H46" s="182"/>
+      <c r="I46" s="182"/>
+      <c r="J46" s="182"/>
+      <c r="K46" s="182"/>
+      <c r="L46" s="182"/>
+      <c r="M46" s="194"/>
+      <c r="N46" s="194"/>
+      <c r="O46" s="194"/>
+      <c r="P46" s="194"/>
+      <c r="Q46" s="194"/>
+      <c r="R46" s="194"/>
+      <c r="S46" s="194"/>
+      <c r="T46" s="194"/>
+      <c r="U46" s="194"/>
+      <c r="V46" s="197" t="s">
         <v>85</v>
       </c>
-      <c r="W46" s="196"/>
-      <c r="X46" s="196"/>
-      <c r="Y46" s="196"/>
-      <c r="Z46" s="196"/>
-      <c r="AA46" s="196"/>
-      <c r="AB46" s="196"/>
-      <c r="AC46" s="196"/>
-      <c r="AD46" s="196"/>
-      <c r="AE46" s="196"/>
-      <c r="AF46" s="196"/>
-      <c r="AG46" s="196"/>
+      <c r="W46" s="197"/>
+      <c r="X46" s="197"/>
+      <c r="Y46" s="197"/>
+      <c r="Z46" s="197"/>
+      <c r="AA46" s="197"/>
+      <c r="AB46" s="197"/>
+      <c r="AC46" s="197"/>
+      <c r="AD46" s="197"/>
+      <c r="AE46" s="197"/>
+      <c r="AF46" s="197"/>
+      <c r="AG46" s="197"/>
       <c r="AH46" s="224" t="s">
         <v>107</v>
       </c>
-      <c r="AI46" s="193"/>
-      <c r="AJ46" s="193"/>
-      <c r="AK46" s="193"/>
-      <c r="AL46" s="193"/>
-      <c r="AM46" s="193"/>
-      <c r="AN46" s="193"/>
-      <c r="AO46" s="193"/>
-      <c r="AP46" s="194" t="s">
+      <c r="AI46" s="194"/>
+      <c r="AJ46" s="194"/>
+      <c r="AK46" s="194"/>
+      <c r="AL46" s="194"/>
+      <c r="AM46" s="194"/>
+      <c r="AN46" s="194"/>
+      <c r="AO46" s="194"/>
+      <c r="AP46" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="AQ46" s="194"/>
-      <c r="AR46" s="194"/>
-      <c r="AS46" s="194"/>
-      <c r="AT46" s="194"/>
-      <c r="AU46" s="194"/>
-      <c r="AV46" s="194"/>
-      <c r="AW46" s="194"/>
-      <c r="AX46" s="194"/>
-      <c r="AY46" s="194"/>
-      <c r="AZ46" s="193"/>
-      <c r="BA46" s="193"/>
-      <c r="BB46" s="193"/>
-      <c r="BC46" s="193"/>
-      <c r="BD46" s="193"/>
-      <c r="BE46" s="196" t="s">
+      <c r="AQ46" s="195"/>
+      <c r="AR46" s="195"/>
+      <c r="AS46" s="195"/>
+      <c r="AT46" s="195"/>
+      <c r="AU46" s="195"/>
+      <c r="AV46" s="195"/>
+      <c r="AW46" s="195"/>
+      <c r="AX46" s="195"/>
+      <c r="AY46" s="195"/>
+      <c r="AZ46" s="194"/>
+      <c r="BA46" s="194"/>
+      <c r="BB46" s="194"/>
+      <c r="BC46" s="194"/>
+      <c r="BD46" s="194"/>
+      <c r="BE46" s="197" t="s">
         <v>67</v>
       </c>
-      <c r="BF46" s="196"/>
-      <c r="BG46" s="196"/>
-      <c r="BH46" s="196"/>
-      <c r="BI46" s="196"/>
-      <c r="BJ46" s="196"/>
-      <c r="BK46" s="196"/>
-      <c r="BL46" s="196"/>
-      <c r="BM46" s="193"/>
-      <c r="BN46" s="193"/>
-      <c r="BO46" s="193"/>
-      <c r="BP46" s="193"/>
-      <c r="BQ46" s="193"/>
+      <c r="BF46" s="197"/>
+      <c r="BG46" s="197"/>
+      <c r="BH46" s="197"/>
+      <c r="BI46" s="197"/>
+      <c r="BJ46" s="197"/>
+      <c r="BK46" s="197"/>
+      <c r="BL46" s="197"/>
+      <c r="BM46" s="194"/>
+      <c r="BN46" s="194"/>
+      <c r="BO46" s="194"/>
+      <c r="BP46" s="194"/>
+      <c r="BQ46" s="194"/>
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B47" s="192" t="s">
+      <c r="B47" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="192"/>
-      <c r="D47" s="192"/>
-      <c r="E47" s="192"/>
-      <c r="F47" s="192"/>
-      <c r="G47" s="192"/>
-      <c r="H47" s="192"/>
-      <c r="I47" s="192"/>
-      <c r="J47" s="192"/>
-      <c r="K47" s="192"/>
-      <c r="L47" s="192"/>
-      <c r="M47" s="193"/>
-      <c r="N47" s="193"/>
-      <c r="O47" s="193"/>
-      <c r="P47" s="193"/>
-      <c r="Q47" s="193"/>
-      <c r="R47" s="193"/>
-      <c r="S47" s="193"/>
-      <c r="T47" s="193"/>
-      <c r="U47" s="193"/>
-      <c r="V47" s="197" t="s">
+      <c r="C47" s="193"/>
+      <c r="D47" s="193"/>
+      <c r="E47" s="193"/>
+      <c r="F47" s="193"/>
+      <c r="G47" s="193"/>
+      <c r="H47" s="193"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="193"/>
+      <c r="K47" s="193"/>
+      <c r="L47" s="193"/>
+      <c r="M47" s="194"/>
+      <c r="N47" s="194"/>
+      <c r="O47" s="194"/>
+      <c r="P47" s="194"/>
+      <c r="Q47" s="194"/>
+      <c r="R47" s="194"/>
+      <c r="S47" s="194"/>
+      <c r="T47" s="194"/>
+      <c r="U47" s="194"/>
+      <c r="V47" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="W47" s="197"/>
-      <c r="X47" s="197"/>
-      <c r="Y47" s="197"/>
-      <c r="Z47" s="197"/>
-      <c r="AA47" s="197"/>
-      <c r="AB47" s="197"/>
-      <c r="AC47" s="197"/>
-      <c r="AD47" s="197"/>
-      <c r="AE47" s="197"/>
-      <c r="AF47" s="197"/>
-      <c r="AG47" s="197"/>
-      <c r="AH47" s="193"/>
-      <c r="AI47" s="193"/>
-      <c r="AJ47" s="193"/>
-      <c r="AK47" s="193"/>
-      <c r="AL47" s="193"/>
-      <c r="AM47" s="193"/>
-      <c r="AN47" s="193"/>
-      <c r="AO47" s="193"/>
-      <c r="AP47" s="197" t="s">
+      <c r="W47" s="198"/>
+      <c r="X47" s="198"/>
+      <c r="Y47" s="198"/>
+      <c r="Z47" s="198"/>
+      <c r="AA47" s="198"/>
+      <c r="AB47" s="198"/>
+      <c r="AC47" s="198"/>
+      <c r="AD47" s="198"/>
+      <c r="AE47" s="198"/>
+      <c r="AF47" s="198"/>
+      <c r="AG47" s="198"/>
+      <c r="AH47" s="194"/>
+      <c r="AI47" s="194"/>
+      <c r="AJ47" s="194"/>
+      <c r="AK47" s="194"/>
+      <c r="AL47" s="194"/>
+      <c r="AM47" s="194"/>
+      <c r="AN47" s="194"/>
+      <c r="AO47" s="194"/>
+      <c r="AP47" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="AQ47" s="197"/>
-      <c r="AR47" s="197"/>
-      <c r="AS47" s="197"/>
-      <c r="AT47" s="197"/>
-      <c r="AU47" s="197"/>
-      <c r="AV47" s="197"/>
-      <c r="AW47" s="197"/>
-      <c r="AX47" s="197"/>
-      <c r="AY47" s="197"/>
-      <c r="AZ47" s="193"/>
-      <c r="BA47" s="193"/>
-      <c r="BB47" s="193"/>
-      <c r="BC47" s="193"/>
-      <c r="BD47" s="193"/>
-      <c r="BE47" s="198" t="s">
+      <c r="AQ47" s="198"/>
+      <c r="AR47" s="198"/>
+      <c r="AS47" s="198"/>
+      <c r="AT47" s="198"/>
+      <c r="AU47" s="198"/>
+      <c r="AV47" s="198"/>
+      <c r="AW47" s="198"/>
+      <c r="AX47" s="198"/>
+      <c r="AY47" s="198"/>
+      <c r="AZ47" s="194"/>
+      <c r="BA47" s="194"/>
+      <c r="BB47" s="194"/>
+      <c r="BC47" s="194"/>
+      <c r="BD47" s="194"/>
+      <c r="BE47" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="BF47" s="198"/>
-      <c r="BG47" s="198"/>
-      <c r="BH47" s="198"/>
-      <c r="BI47" s="198"/>
-      <c r="BJ47" s="198"/>
-      <c r="BK47" s="198"/>
-      <c r="BL47" s="198"/>
-      <c r="BM47" s="193" t="s">
+      <c r="BF47" s="199"/>
+      <c r="BG47" s="199"/>
+      <c r="BH47" s="199"/>
+      <c r="BI47" s="199"/>
+      <c r="BJ47" s="199"/>
+      <c r="BK47" s="199"/>
+      <c r="BL47" s="199"/>
+      <c r="BM47" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="BN47" s="193"/>
-      <c r="BO47" s="193"/>
-      <c r="BP47" s="193"/>
-      <c r="BQ47" s="193"/>
+      <c r="BN47" s="194"/>
+      <c r="BO47" s="194"/>
+      <c r="BP47" s="194"/>
+      <c r="BQ47" s="194"/>
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B48" s="203" t="s">
+      <c r="B48" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="203"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="203"/>
-      <c r="G48" s="203"/>
-      <c r="H48" s="203"/>
-      <c r="I48" s="203"/>
-      <c r="J48" s="203"/>
-      <c r="K48" s="203"/>
-      <c r="L48" s="203"/>
-      <c r="M48" s="193"/>
-      <c r="N48" s="193"/>
-      <c r="O48" s="193"/>
-      <c r="P48" s="193"/>
-      <c r="Q48" s="193"/>
-      <c r="R48" s="193"/>
-      <c r="S48" s="193"/>
-      <c r="T48" s="193"/>
-      <c r="U48" s="193"/>
-      <c r="V48" s="194" t="s">
+      <c r="C48" s="204"/>
+      <c r="D48" s="204"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="204"/>
+      <c r="G48" s="204"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="204"/>
+      <c r="K48" s="204"/>
+      <c r="L48" s="204"/>
+      <c r="M48" s="194"/>
+      <c r="N48" s="194"/>
+      <c r="O48" s="194"/>
+      <c r="P48" s="194"/>
+      <c r="Q48" s="194"/>
+      <c r="R48" s="194"/>
+      <c r="S48" s="194"/>
+      <c r="T48" s="194"/>
+      <c r="U48" s="194"/>
+      <c r="V48" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="W48" s="194"/>
-      <c r="X48" s="194"/>
-      <c r="Y48" s="194"/>
-      <c r="Z48" s="194"/>
-      <c r="AA48" s="194"/>
-      <c r="AB48" s="194"/>
-      <c r="AC48" s="194"/>
-      <c r="AD48" s="194"/>
-      <c r="AE48" s="194"/>
-      <c r="AF48" s="194"/>
-      <c r="AG48" s="194"/>
-      <c r="AH48" s="193"/>
-      <c r="AI48" s="193"/>
-      <c r="AJ48" s="193"/>
-      <c r="AK48" s="193"/>
-      <c r="AL48" s="193"/>
-      <c r="AM48" s="193"/>
-      <c r="AN48" s="193"/>
-      <c r="AO48" s="193"/>
-      <c r="AP48" s="197" t="s">
+      <c r="W48" s="195"/>
+      <c r="X48" s="195"/>
+      <c r="Y48" s="195"/>
+      <c r="Z48" s="195"/>
+      <c r="AA48" s="195"/>
+      <c r="AB48" s="195"/>
+      <c r="AC48" s="195"/>
+      <c r="AD48" s="195"/>
+      <c r="AE48" s="195"/>
+      <c r="AF48" s="195"/>
+      <c r="AG48" s="195"/>
+      <c r="AH48" s="194"/>
+      <c r="AI48" s="194"/>
+      <c r="AJ48" s="194"/>
+      <c r="AK48" s="194"/>
+      <c r="AL48" s="194"/>
+      <c r="AM48" s="194"/>
+      <c r="AN48" s="194"/>
+      <c r="AO48" s="194"/>
+      <c r="AP48" s="198" t="s">
         <v>71</v>
       </c>
-      <c r="AQ48" s="197"/>
-      <c r="AR48" s="197"/>
-      <c r="AS48" s="197"/>
-      <c r="AT48" s="197"/>
-      <c r="AU48" s="197"/>
-      <c r="AV48" s="197"/>
-      <c r="AW48" s="197"/>
-      <c r="AX48" s="197"/>
-      <c r="AY48" s="197"/>
-      <c r="AZ48" s="193" t="s">
+      <c r="AQ48" s="198"/>
+      <c r="AR48" s="198"/>
+      <c r="AS48" s="198"/>
+      <c r="AT48" s="198"/>
+      <c r="AU48" s="198"/>
+      <c r="AV48" s="198"/>
+      <c r="AW48" s="198"/>
+      <c r="AX48" s="198"/>
+      <c r="AY48" s="198"/>
+      <c r="AZ48" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="BA48" s="193"/>
-      <c r="BB48" s="193"/>
-      <c r="BC48" s="193"/>
-      <c r="BD48" s="193"/>
+      <c r="BA48" s="194"/>
+      <c r="BB48" s="194"/>
+      <c r="BC48" s="194"/>
+      <c r="BD48" s="194"/>
       <c r="BE48" s="222" t="s">
         <v>81</v>
       </c>
@@ -5476,74 +5527,74 @@
       <c r="BJ48" s="222"/>
       <c r="BK48" s="222"/>
       <c r="BL48" s="222"/>
-      <c r="BM48" s="193"/>
-      <c r="BN48" s="193"/>
-      <c r="BO48" s="193"/>
-      <c r="BP48" s="193"/>
-      <c r="BQ48" s="193"/>
+      <c r="BM48" s="194"/>
+      <c r="BN48" s="194"/>
+      <c r="BO48" s="194"/>
+      <c r="BP48" s="194"/>
+      <c r="BQ48" s="194"/>
     </row>
     <row r="49" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B49" s="199" t="s">
+      <c r="B49" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="199"/>
-      <c r="D49" s="199"/>
-      <c r="E49" s="199"/>
-      <c r="F49" s="199"/>
-      <c r="G49" s="199"/>
-      <c r="H49" s="199"/>
-      <c r="I49" s="199"/>
-      <c r="J49" s="199"/>
-      <c r="K49" s="199"/>
-      <c r="L49" s="199"/>
-      <c r="M49" s="193"/>
-      <c r="N49" s="193"/>
-      <c r="O49" s="193"/>
-      <c r="P49" s="193"/>
-      <c r="Q49" s="193"/>
-      <c r="R49" s="193"/>
-      <c r="S49" s="193"/>
-      <c r="T49" s="193"/>
-      <c r="U49" s="193"/>
-      <c r="V49" s="198" t="s">
+      <c r="C49" s="200"/>
+      <c r="D49" s="200"/>
+      <c r="E49" s="200"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
+      <c r="H49" s="200"/>
+      <c r="I49" s="200"/>
+      <c r="J49" s="200"/>
+      <c r="K49" s="200"/>
+      <c r="L49" s="200"/>
+      <c r="M49" s="194"/>
+      <c r="N49" s="194"/>
+      <c r="O49" s="194"/>
+      <c r="P49" s="194"/>
+      <c r="Q49" s="194"/>
+      <c r="R49" s="194"/>
+      <c r="S49" s="194"/>
+      <c r="T49" s="194"/>
+      <c r="U49" s="194"/>
+      <c r="V49" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="W49" s="198"/>
-      <c r="X49" s="198"/>
-      <c r="Y49" s="198"/>
-      <c r="Z49" s="198"/>
-      <c r="AA49" s="198"/>
-      <c r="AB49" s="198"/>
-      <c r="AC49" s="198"/>
-      <c r="AD49" s="198"/>
-      <c r="AE49" s="198"/>
-      <c r="AF49" s="198"/>
-      <c r="AG49" s="198"/>
-      <c r="AH49" s="193"/>
-      <c r="AI49" s="193"/>
-      <c r="AJ49" s="193"/>
-      <c r="AK49" s="193"/>
-      <c r="AL49" s="193"/>
-      <c r="AM49" s="193"/>
-      <c r="AN49" s="193"/>
-      <c r="AO49" s="193"/>
-      <c r="AP49" s="199" t="s">
+      <c r="W49" s="199"/>
+      <c r="X49" s="199"/>
+      <c r="Y49" s="199"/>
+      <c r="Z49" s="199"/>
+      <c r="AA49" s="199"/>
+      <c r="AB49" s="199"/>
+      <c r="AC49" s="199"/>
+      <c r="AD49" s="199"/>
+      <c r="AE49" s="199"/>
+      <c r="AF49" s="199"/>
+      <c r="AG49" s="199"/>
+      <c r="AH49" s="194"/>
+      <c r="AI49" s="194"/>
+      <c r="AJ49" s="194"/>
+      <c r="AK49" s="194"/>
+      <c r="AL49" s="194"/>
+      <c r="AM49" s="194"/>
+      <c r="AN49" s="194"/>
+      <c r="AO49" s="194"/>
+      <c r="AP49" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="AQ49" s="199"/>
-      <c r="AR49" s="199"/>
-      <c r="AS49" s="199"/>
-      <c r="AT49" s="199"/>
-      <c r="AU49" s="199"/>
-      <c r="AV49" s="199"/>
-      <c r="AW49" s="199"/>
-      <c r="AX49" s="199"/>
-      <c r="AY49" s="199"/>
-      <c r="AZ49" s="193"/>
-      <c r="BA49" s="193"/>
-      <c r="BB49" s="193"/>
-      <c r="BC49" s="193"/>
-      <c r="BD49" s="193"/>
+      <c r="AQ49" s="200"/>
+      <c r="AR49" s="200"/>
+      <c r="AS49" s="200"/>
+      <c r="AT49" s="200"/>
+      <c r="AU49" s="200"/>
+      <c r="AV49" s="200"/>
+      <c r="AW49" s="200"/>
+      <c r="AX49" s="200"/>
+      <c r="AY49" s="200"/>
+      <c r="AZ49" s="194"/>
+      <c r="BA49" s="194"/>
+      <c r="BB49" s="194"/>
+      <c r="BC49" s="194"/>
+      <c r="BD49" s="194"/>
       <c r="BE49" s="227" t="s">
         <v>78</v>
       </c>
@@ -5554,190 +5605,190 @@
       <c r="BJ49" s="227"/>
       <c r="BK49" s="227"/>
       <c r="BL49" s="227"/>
-      <c r="BM49" s="193" t="s">
+      <c r="BM49" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="BN49" s="193"/>
-      <c r="BO49" s="193"/>
-      <c r="BP49" s="193"/>
-      <c r="BQ49" s="193"/>
+      <c r="BN49" s="194"/>
+      <c r="BO49" s="194"/>
+      <c r="BP49" s="194"/>
+      <c r="BQ49" s="194"/>
     </row>
     <row r="50" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B50" s="195" t="s">
+      <c r="B50" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="195"/>
-      <c r="D50" s="195"/>
-      <c r="E50" s="195"/>
-      <c r="F50" s="195"/>
-      <c r="G50" s="195"/>
-      <c r="H50" s="195"/>
-      <c r="I50" s="195"/>
-      <c r="J50" s="195"/>
-      <c r="K50" s="195"/>
-      <c r="L50" s="195"/>
-      <c r="M50" s="193"/>
-      <c r="N50" s="193"/>
-      <c r="O50" s="193"/>
-      <c r="P50" s="193"/>
-      <c r="Q50" s="193"/>
-      <c r="R50" s="193"/>
-      <c r="S50" s="193"/>
-      <c r="T50" s="193"/>
-      <c r="U50" s="193"/>
-      <c r="V50" s="195" t="s">
+      <c r="C50" s="196"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="196"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="196"/>
+      <c r="I50" s="196"/>
+      <c r="J50" s="196"/>
+      <c r="K50" s="196"/>
+      <c r="L50" s="196"/>
+      <c r="M50" s="194"/>
+      <c r="N50" s="194"/>
+      <c r="O50" s="194"/>
+      <c r="P50" s="194"/>
+      <c r="Q50" s="194"/>
+      <c r="R50" s="194"/>
+      <c r="S50" s="194"/>
+      <c r="T50" s="194"/>
+      <c r="U50" s="194"/>
+      <c r="V50" s="196" t="s">
         <v>89</v>
       </c>
-      <c r="W50" s="195"/>
-      <c r="X50" s="195"/>
-      <c r="Y50" s="195"/>
-      <c r="Z50" s="195"/>
-      <c r="AA50" s="195"/>
-      <c r="AB50" s="195"/>
-      <c r="AC50" s="195"/>
-      <c r="AD50" s="195"/>
-      <c r="AE50" s="195"/>
-      <c r="AF50" s="195"/>
-      <c r="AG50" s="195"/>
-      <c r="AH50" s="193"/>
-      <c r="AI50" s="193"/>
-      <c r="AJ50" s="193"/>
-      <c r="AK50" s="193"/>
-      <c r="AL50" s="193"/>
-      <c r="AM50" s="193"/>
-      <c r="AN50" s="193"/>
-      <c r="AO50" s="193"/>
-      <c r="AP50" s="194" t="s">
+      <c r="W50" s="196"/>
+      <c r="X50" s="196"/>
+      <c r="Y50" s="196"/>
+      <c r="Z50" s="196"/>
+      <c r="AA50" s="196"/>
+      <c r="AB50" s="196"/>
+      <c r="AC50" s="196"/>
+      <c r="AD50" s="196"/>
+      <c r="AE50" s="196"/>
+      <c r="AF50" s="196"/>
+      <c r="AG50" s="196"/>
+      <c r="AH50" s="194"/>
+      <c r="AI50" s="194"/>
+      <c r="AJ50" s="194"/>
+      <c r="AK50" s="194"/>
+      <c r="AL50" s="194"/>
+      <c r="AM50" s="194"/>
+      <c r="AN50" s="194"/>
+      <c r="AO50" s="194"/>
+      <c r="AP50" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="AQ50" s="194"/>
-      <c r="AR50" s="194"/>
-      <c r="AS50" s="194"/>
-      <c r="AT50" s="194"/>
-      <c r="AU50" s="194"/>
-      <c r="AV50" s="194"/>
-      <c r="AW50" s="194"/>
-      <c r="AX50" s="194"/>
-      <c r="AY50" s="194"/>
-      <c r="AZ50" s="193"/>
-      <c r="BA50" s="193"/>
-      <c r="BB50" s="193"/>
-      <c r="BC50" s="193"/>
-      <c r="BD50" s="193"/>
-      <c r="BE50" s="194" t="s">
+      <c r="AQ50" s="195"/>
+      <c r="AR50" s="195"/>
+      <c r="AS50" s="195"/>
+      <c r="AT50" s="195"/>
+      <c r="AU50" s="195"/>
+      <c r="AV50" s="195"/>
+      <c r="AW50" s="195"/>
+      <c r="AX50" s="195"/>
+      <c r="AY50" s="195"/>
+      <c r="AZ50" s="194"/>
+      <c r="BA50" s="194"/>
+      <c r="BB50" s="194"/>
+      <c r="BC50" s="194"/>
+      <c r="BD50" s="194"/>
+      <c r="BE50" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="BF50" s="194"/>
-      <c r="BG50" s="194"/>
-      <c r="BH50" s="194"/>
-      <c r="BI50" s="194"/>
-      <c r="BJ50" s="194"/>
-      <c r="BK50" s="194"/>
-      <c r="BL50" s="194"/>
-      <c r="BM50" s="193" t="s">
+      <c r="BF50" s="195"/>
+      <c r="BG50" s="195"/>
+      <c r="BH50" s="195"/>
+      <c r="BI50" s="195"/>
+      <c r="BJ50" s="195"/>
+      <c r="BK50" s="195"/>
+      <c r="BL50" s="195"/>
+      <c r="BM50" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="BN50" s="193"/>
-      <c r="BO50" s="193"/>
-      <c r="BP50" s="193"/>
-      <c r="BQ50" s="193"/>
+      <c r="BN50" s="194"/>
+      <c r="BO50" s="194"/>
+      <c r="BP50" s="194"/>
+      <c r="BQ50" s="194"/>
     </row>
     <row r="51" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B51" s="194" t="s">
+      <c r="B51" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="194"/>
-      <c r="D51" s="194"/>
-      <c r="E51" s="194"/>
-      <c r="F51" s="194"/>
-      <c r="G51" s="194"/>
-      <c r="H51" s="194"/>
-      <c r="I51" s="194"/>
-      <c r="J51" s="194"/>
-      <c r="K51" s="194"/>
-      <c r="L51" s="194"/>
-      <c r="M51" s="193"/>
-      <c r="N51" s="193"/>
-      <c r="O51" s="193"/>
-      <c r="P51" s="193"/>
-      <c r="Q51" s="193"/>
-      <c r="R51" s="193"/>
-      <c r="S51" s="193"/>
-      <c r="T51" s="193"/>
-      <c r="U51" s="193"/>
-      <c r="V51" s="199" t="s">
+      <c r="C51" s="195"/>
+      <c r="D51" s="195"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="195"/>
+      <c r="G51" s="195"/>
+      <c r="H51" s="195"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="195"/>
+      <c r="K51" s="195"/>
+      <c r="L51" s="195"/>
+      <c r="M51" s="194"/>
+      <c r="N51" s="194"/>
+      <c r="O51" s="194"/>
+      <c r="P51" s="194"/>
+      <c r="Q51" s="194"/>
+      <c r="R51" s="194"/>
+      <c r="S51" s="194"/>
+      <c r="T51" s="194"/>
+      <c r="U51" s="194"/>
+      <c r="V51" s="200" t="s">
         <v>90</v>
       </c>
-      <c r="W51" s="199"/>
-      <c r="X51" s="199"/>
-      <c r="Y51" s="199"/>
-      <c r="Z51" s="199"/>
-      <c r="AA51" s="199"/>
-      <c r="AB51" s="199"/>
-      <c r="AC51" s="199"/>
-      <c r="AD51" s="199"/>
-      <c r="AE51" s="199"/>
-      <c r="AF51" s="199"/>
-      <c r="AG51" s="199"/>
-      <c r="AH51" s="193"/>
-      <c r="AI51" s="193"/>
-      <c r="AJ51" s="193"/>
-      <c r="AK51" s="193"/>
-      <c r="AL51" s="193"/>
-      <c r="AM51" s="193"/>
-      <c r="AN51" s="193"/>
-      <c r="AO51" s="193"/>
-      <c r="AP51" s="198" t="s">
+      <c r="W51" s="200"/>
+      <c r="X51" s="200"/>
+      <c r="Y51" s="200"/>
+      <c r="Z51" s="200"/>
+      <c r="AA51" s="200"/>
+      <c r="AB51" s="200"/>
+      <c r="AC51" s="200"/>
+      <c r="AD51" s="200"/>
+      <c r="AE51" s="200"/>
+      <c r="AF51" s="200"/>
+      <c r="AG51" s="200"/>
+      <c r="AH51" s="194"/>
+      <c r="AI51" s="194"/>
+      <c r="AJ51" s="194"/>
+      <c r="AK51" s="194"/>
+      <c r="AL51" s="194"/>
+      <c r="AM51" s="194"/>
+      <c r="AN51" s="194"/>
+      <c r="AO51" s="194"/>
+      <c r="AP51" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="AQ51" s="198"/>
-      <c r="AR51" s="198"/>
-      <c r="AS51" s="198"/>
-      <c r="AT51" s="198"/>
-      <c r="AU51" s="198"/>
-      <c r="AV51" s="198"/>
-      <c r="AW51" s="198"/>
-      <c r="AX51" s="198"/>
-      <c r="AY51" s="198"/>
-      <c r="AZ51" s="193" t="s">
+      <c r="AQ51" s="199"/>
+      <c r="AR51" s="199"/>
+      <c r="AS51" s="199"/>
+      <c r="AT51" s="199"/>
+      <c r="AU51" s="199"/>
+      <c r="AV51" s="199"/>
+      <c r="AW51" s="199"/>
+      <c r="AX51" s="199"/>
+      <c r="AY51" s="199"/>
+      <c r="AZ51" s="194" t="s">
         <v>57</v>
       </c>
-      <c r="BA51" s="193"/>
-      <c r="BB51" s="193"/>
-      <c r="BC51" s="193"/>
-      <c r="BD51" s="193"/>
-      <c r="BE51" s="198" t="s">
+      <c r="BA51" s="194"/>
+      <c r="BB51" s="194"/>
+      <c r="BC51" s="194"/>
+      <c r="BD51" s="194"/>
+      <c r="BE51" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="BF51" s="198"/>
-      <c r="BG51" s="198"/>
-      <c r="BH51" s="198"/>
-      <c r="BI51" s="198"/>
-      <c r="BJ51" s="198"/>
-      <c r="BK51" s="198"/>
-      <c r="BL51" s="198"/>
-      <c r="BM51" s="193" t="s">
+      <c r="BF51" s="199"/>
+      <c r="BG51" s="199"/>
+      <c r="BH51" s="199"/>
+      <c r="BI51" s="199"/>
+      <c r="BJ51" s="199"/>
+      <c r="BK51" s="199"/>
+      <c r="BL51" s="199"/>
+      <c r="BM51" s="194" t="s">
         <v>94</v>
       </c>
-      <c r="BN51" s="193"/>
-      <c r="BO51" s="193"/>
-      <c r="BP51" s="193"/>
-      <c r="BQ51" s="193"/>
+      <c r="BN51" s="194"/>
+      <c r="BO51" s="194"/>
+      <c r="BP51" s="194"/>
+      <c r="BQ51" s="194"/>
     </row>
     <row r="52" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B52" s="197" t="s">
+      <c r="B52" s="198" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="197"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="197"/>
-      <c r="F52" s="197"/>
-      <c r="G52" s="197"/>
-      <c r="H52" s="197"/>
-      <c r="I52" s="197"/>
-      <c r="J52" s="197"/>
-      <c r="K52" s="197"/>
-      <c r="L52" s="197"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="198"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="198"/>
+      <c r="L52" s="198"/>
       <c r="M52" s="218" t="s">
         <v>105</v>
       </c>
@@ -5763,31 +5814,31 @@
       <c r="AE52" s="220"/>
       <c r="AF52" s="220"/>
       <c r="AG52" s="220"/>
-      <c r="AH52" s="193"/>
-      <c r="AI52" s="193"/>
-      <c r="AJ52" s="193"/>
-      <c r="AK52" s="193"/>
-      <c r="AL52" s="193"/>
-      <c r="AM52" s="193"/>
-      <c r="AN52" s="193"/>
-      <c r="AO52" s="193"/>
-      <c r="AP52" s="194" t="s">
+      <c r="AH52" s="194"/>
+      <c r="AI52" s="194"/>
+      <c r="AJ52" s="194"/>
+      <c r="AK52" s="194"/>
+      <c r="AL52" s="194"/>
+      <c r="AM52" s="194"/>
+      <c r="AN52" s="194"/>
+      <c r="AO52" s="194"/>
+      <c r="AP52" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="AQ52" s="194"/>
-      <c r="AR52" s="194"/>
-      <c r="AS52" s="194"/>
-      <c r="AT52" s="194"/>
-      <c r="AU52" s="194"/>
-      <c r="AV52" s="194"/>
-      <c r="AW52" s="194"/>
-      <c r="AX52" s="194"/>
-      <c r="AY52" s="194"/>
-      <c r="AZ52" s="193"/>
-      <c r="BA52" s="193"/>
-      <c r="BB52" s="193"/>
-      <c r="BC52" s="193"/>
-      <c r="BD52" s="193"/>
+      <c r="AQ52" s="195"/>
+      <c r="AR52" s="195"/>
+      <c r="AS52" s="195"/>
+      <c r="AT52" s="195"/>
+      <c r="AU52" s="195"/>
+      <c r="AV52" s="195"/>
+      <c r="AW52" s="195"/>
+      <c r="AX52" s="195"/>
+      <c r="AY52" s="195"/>
+      <c r="AZ52" s="194"/>
+      <c r="BA52" s="194"/>
+      <c r="BB52" s="194"/>
+      <c r="BC52" s="194"/>
+      <c r="BD52" s="194"/>
       <c r="BE52" s="34"/>
       <c r="BF52" s="34"/>
       <c r="BG52" s="34"/>
@@ -5838,31 +5889,31 @@
       <c r="AE53" s="221"/>
       <c r="AF53" s="221"/>
       <c r="AG53" s="221"/>
-      <c r="AH53" s="193"/>
-      <c r="AI53" s="193"/>
-      <c r="AJ53" s="193"/>
-      <c r="AK53" s="193"/>
-      <c r="AL53" s="193"/>
-      <c r="AM53" s="193"/>
-      <c r="AN53" s="193"/>
-      <c r="AO53" s="193"/>
-      <c r="AP53" s="197" t="s">
+      <c r="AH53" s="194"/>
+      <c r="AI53" s="194"/>
+      <c r="AJ53" s="194"/>
+      <c r="AK53" s="194"/>
+      <c r="AL53" s="194"/>
+      <c r="AM53" s="194"/>
+      <c r="AN53" s="194"/>
+      <c r="AO53" s="194"/>
+      <c r="AP53" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="AQ53" s="197"/>
-      <c r="AR53" s="197"/>
-      <c r="AS53" s="197"/>
-      <c r="AT53" s="197"/>
-      <c r="AU53" s="197"/>
-      <c r="AV53" s="197"/>
-      <c r="AW53" s="197"/>
-      <c r="AX53" s="197"/>
-      <c r="AY53" s="197"/>
-      <c r="AZ53" s="193"/>
-      <c r="BA53" s="193"/>
-      <c r="BB53" s="193"/>
-      <c r="BC53" s="193"/>
-      <c r="BD53" s="193"/>
+      <c r="AQ53" s="198"/>
+      <c r="AR53" s="198"/>
+      <c r="AS53" s="198"/>
+      <c r="AT53" s="198"/>
+      <c r="AU53" s="198"/>
+      <c r="AV53" s="198"/>
+      <c r="AW53" s="198"/>
+      <c r="AX53" s="198"/>
+      <c r="AY53" s="198"/>
+      <c r="AZ53" s="194"/>
+      <c r="BA53" s="194"/>
+      <c r="BB53" s="194"/>
+      <c r="BC53" s="194"/>
+      <c r="BD53" s="194"/>
       <c r="BE53" s="34"/>
       <c r="BF53" s="34"/>
       <c r="BG53" s="34"/>
@@ -5899,40 +5950,40 @@
       <c r="S54" s="218"/>
       <c r="T54" s="218"/>
       <c r="U54" s="218"/>
-      <c r="V54" s="200" t="s">
+      <c r="V54" s="201" t="s">
         <v>106</v>
       </c>
-      <c r="W54" s="200"/>
-      <c r="X54" s="200"/>
-      <c r="Y54" s="200"/>
-      <c r="Z54" s="200"/>
-      <c r="AA54" s="200"/>
-      <c r="AB54" s="200"/>
-      <c r="AC54" s="200"/>
-      <c r="AD54" s="200"/>
-      <c r="AE54" s="200"/>
-      <c r="AF54" s="200"/>
-      <c r="AG54" s="200"/>
-      <c r="AH54" s="193"/>
-      <c r="AI54" s="193"/>
-      <c r="AJ54" s="193"/>
-      <c r="AK54" s="193"/>
-      <c r="AL54" s="193"/>
-      <c r="AM54" s="193"/>
-      <c r="AN54" s="193"/>
-      <c r="AO54" s="193"/>
-      <c r="AP54" s="200" t="s">
+      <c r="W54" s="201"/>
+      <c r="X54" s="201"/>
+      <c r="Y54" s="201"/>
+      <c r="Z54" s="201"/>
+      <c r="AA54" s="201"/>
+      <c r="AB54" s="201"/>
+      <c r="AC54" s="201"/>
+      <c r="AD54" s="201"/>
+      <c r="AE54" s="201"/>
+      <c r="AF54" s="201"/>
+      <c r="AG54" s="201"/>
+      <c r="AH54" s="194"/>
+      <c r="AI54" s="194"/>
+      <c r="AJ54" s="194"/>
+      <c r="AK54" s="194"/>
+      <c r="AL54" s="194"/>
+      <c r="AM54" s="194"/>
+      <c r="AN54" s="194"/>
+      <c r="AO54" s="194"/>
+      <c r="AP54" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="AQ54" s="200"/>
-      <c r="AR54" s="200"/>
-      <c r="AS54" s="200"/>
-      <c r="AT54" s="200"/>
-      <c r="AU54" s="200"/>
-      <c r="AV54" s="200"/>
-      <c r="AW54" s="200"/>
-      <c r="AX54" s="200"/>
-      <c r="AY54" s="200"/>
+      <c r="AQ54" s="201"/>
+      <c r="AR54" s="201"/>
+      <c r="AS54" s="201"/>
+      <c r="AT54" s="201"/>
+      <c r="AU54" s="201"/>
+      <c r="AV54" s="201"/>
+      <c r="AW54" s="201"/>
+      <c r="AX54" s="201"/>
+      <c r="AY54" s="201"/>
       <c r="AZ54" s="224" t="s">
         <v>108</v>
       </c>
@@ -5952,19 +6003,19 @@
       <c r="BN54" s="34"/>
     </row>
     <row r="55" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B55" s="200" t="s">
+      <c r="B55" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="200"/>
-      <c r="D55" s="200"/>
-      <c r="E55" s="200"/>
-      <c r="F55" s="200"/>
-      <c r="G55" s="200"/>
-      <c r="H55" s="200"/>
-      <c r="I55" s="200"/>
-      <c r="J55" s="200"/>
-      <c r="K55" s="200"/>
-      <c r="L55" s="200"/>
+      <c r="C55" s="201"/>
+      <c r="D55" s="201"/>
+      <c r="E55" s="201"/>
+      <c r="F55" s="201"/>
+      <c r="G55" s="201"/>
+      <c r="H55" s="201"/>
+      <c r="I55" s="201"/>
+      <c r="J55" s="201"/>
+      <c r="K55" s="201"/>
+      <c r="L55" s="201"/>
       <c r="M55" s="218" t="s">
         <v>95</v>
       </c>
@@ -5976,40 +6027,40 @@
       <c r="S55" s="218"/>
       <c r="T55" s="218"/>
       <c r="U55" s="218"/>
-      <c r="V55" s="200" t="s">
+      <c r="V55" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="W55" s="200"/>
-      <c r="X55" s="200"/>
-      <c r="Y55" s="200"/>
-      <c r="Z55" s="200"/>
-      <c r="AA55" s="200"/>
-      <c r="AB55" s="200"/>
-      <c r="AC55" s="200"/>
-      <c r="AD55" s="200"/>
-      <c r="AE55" s="200"/>
-      <c r="AF55" s="200"/>
-      <c r="AG55" s="200"/>
-      <c r="AH55" s="193"/>
-      <c r="AI55" s="193"/>
-      <c r="AJ55" s="193"/>
-      <c r="AK55" s="193"/>
-      <c r="AL55" s="193"/>
-      <c r="AM55" s="193"/>
-      <c r="AN55" s="193"/>
-      <c r="AO55" s="193"/>
-      <c r="AP55" s="196" t="s">
+      <c r="W55" s="201"/>
+      <c r="X55" s="201"/>
+      <c r="Y55" s="201"/>
+      <c r="Z55" s="201"/>
+      <c r="AA55" s="201"/>
+      <c r="AB55" s="201"/>
+      <c r="AC55" s="201"/>
+      <c r="AD55" s="201"/>
+      <c r="AE55" s="201"/>
+      <c r="AF55" s="201"/>
+      <c r="AG55" s="201"/>
+      <c r="AH55" s="194"/>
+      <c r="AI55" s="194"/>
+      <c r="AJ55" s="194"/>
+      <c r="AK55" s="194"/>
+      <c r="AL55" s="194"/>
+      <c r="AM55" s="194"/>
+      <c r="AN55" s="194"/>
+      <c r="AO55" s="194"/>
+      <c r="AP55" s="197" t="s">
         <v>64</v>
       </c>
-      <c r="AQ55" s="196"/>
-      <c r="AR55" s="196"/>
-      <c r="AS55" s="196"/>
-      <c r="AT55" s="196"/>
-      <c r="AU55" s="196"/>
-      <c r="AV55" s="196"/>
-      <c r="AW55" s="196"/>
-      <c r="AX55" s="196"/>
-      <c r="AY55" s="196"/>
+      <c r="AQ55" s="197"/>
+      <c r="AR55" s="197"/>
+      <c r="AS55" s="197"/>
+      <c r="AT55" s="197"/>
+      <c r="AU55" s="197"/>
+      <c r="AV55" s="197"/>
+      <c r="AW55" s="197"/>
+      <c r="AX55" s="197"/>
+      <c r="AY55" s="197"/>
       <c r="AZ55" s="224"/>
       <c r="BA55" s="224"/>
       <c r="BB55" s="224"/>
@@ -6018,17 +6069,17 @@
       <c r="BN55" s="34"/>
     </row>
     <row r="56" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B56" s="201"/>
-      <c r="C56" s="201"/>
-      <c r="D56" s="201"/>
-      <c r="E56" s="201"/>
-      <c r="F56" s="201"/>
-      <c r="G56" s="201"/>
-      <c r="H56" s="201"/>
-      <c r="I56" s="201"/>
-      <c r="J56" s="201"/>
-      <c r="K56" s="201"/>
-      <c r="L56" s="201"/>
+      <c r="B56" s="202"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="202"/>
+      <c r="E56" s="202"/>
+      <c r="F56" s="202"/>
+      <c r="G56" s="202"/>
+      <c r="H56" s="202"/>
+      <c r="I56" s="202"/>
+      <c r="J56" s="202"/>
+      <c r="K56" s="202"/>
+      <c r="L56" s="202"/>
       <c r="M56" s="218" t="s">
         <v>96</v>
       </c>
@@ -6040,18 +6091,18 @@
       <c r="S56" s="218"/>
       <c r="T56" s="218"/>
       <c r="U56" s="218"/>
-      <c r="AP56" s="199" t="s">
+      <c r="AP56" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="AQ56" s="199"/>
-      <c r="AR56" s="199"/>
-      <c r="AS56" s="199"/>
-      <c r="AT56" s="199"/>
-      <c r="AU56" s="199"/>
-      <c r="AV56" s="199"/>
-      <c r="AW56" s="199"/>
-      <c r="AX56" s="199"/>
-      <c r="AY56" s="199"/>
+      <c r="AQ56" s="200"/>
+      <c r="AR56" s="200"/>
+      <c r="AS56" s="200"/>
+      <c r="AT56" s="200"/>
+      <c r="AU56" s="200"/>
+      <c r="AV56" s="200"/>
+      <c r="AW56" s="200"/>
+      <c r="AX56" s="200"/>
+      <c r="AY56" s="200"/>
       <c r="AZ56" s="224"/>
       <c r="BA56" s="224"/>
       <c r="BB56" s="224"/>
@@ -6063,102 +6114,337 @@
       <c r="BN57" s="34"/>
     </row>
     <row r="58" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="BN58" s="34"/>
+      <c r="B58" s="182" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="182"/>
+      <c r="D58" s="182"/>
+      <c r="E58" s="182"/>
+      <c r="F58" s="182"/>
+      <c r="G58" s="182"/>
+      <c r="H58" s="182"/>
+      <c r="I58" s="182"/>
+      <c r="J58" s="182"/>
+      <c r="K58" s="182"/>
+      <c r="L58" s="182"/>
+      <c r="N58" s="199" t="s">
+        <v>51</v>
+      </c>
+      <c r="O58" s="199"/>
+      <c r="P58" s="199"/>
+      <c r="Q58" s="199"/>
+      <c r="R58" s="199"/>
+      <c r="S58" s="199"/>
+      <c r="T58" s="199"/>
+      <c r="U58" s="199"/>
+      <c r="V58" s="199"/>
+      <c r="W58" s="199"/>
+      <c r="X58" s="199"/>
     </row>
     <row r="59" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="BN59" s="34"/>
+      <c r="B59" s="223" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="223"/>
+      <c r="D59" s="223"/>
+      <c r="E59" s="223"/>
+      <c r="F59" s="223"/>
+      <c r="G59" s="223"/>
+      <c r="H59" s="223"/>
+      <c r="I59" s="223"/>
+      <c r="J59" s="223"/>
+      <c r="K59" s="223"/>
+      <c r="L59" s="223"/>
+      <c r="N59" s="228" t="s">
+        <v>51</v>
+      </c>
+      <c r="O59" s="228"/>
+      <c r="P59" s="228"/>
+      <c r="Q59" s="228"/>
+      <c r="R59" s="228"/>
+      <c r="S59" s="228"/>
+      <c r="T59" s="228"/>
+      <c r="U59" s="228"/>
+      <c r="V59" s="228"/>
+      <c r="W59" s="228"/>
+      <c r="X59" s="228"/>
     </row>
     <row r="60" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="BN60" s="34"/>
+      <c r="B60" s="195" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="195"/>
+      <c r="D60" s="195"/>
+      <c r="E60" s="195"/>
+      <c r="F60" s="195"/>
+      <c r="G60" s="195"/>
+      <c r="H60" s="195"/>
+      <c r="I60" s="195"/>
+      <c r="J60" s="195"/>
+      <c r="K60" s="195"/>
+      <c r="L60" s="195"/>
+      <c r="N60" s="200" t="s">
+        <v>51</v>
+      </c>
+      <c r="O60" s="200"/>
+      <c r="P60" s="200"/>
+      <c r="Q60" s="200"/>
+      <c r="R60" s="200"/>
+      <c r="S60" s="200"/>
+      <c r="T60" s="200"/>
+      <c r="U60" s="200"/>
+      <c r="V60" s="200"/>
+      <c r="W60" s="200"/>
+      <c r="X60" s="200"/>
     </row>
     <row r="61" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="BN61" s="34"/>
+      <c r="B61" s="268" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="268"/>
+      <c r="D61" s="268"/>
+      <c r="E61" s="268"/>
+      <c r="F61" s="268"/>
+      <c r="G61" s="268"/>
+      <c r="H61" s="268"/>
+      <c r="I61" s="268"/>
+      <c r="J61" s="268"/>
+      <c r="K61" s="268"/>
+      <c r="L61" s="268"/>
+      <c r="N61" s="196" t="s">
+        <v>51</v>
+      </c>
+      <c r="O61" s="196"/>
+      <c r="P61" s="196"/>
+      <c r="Q61" s="196"/>
+      <c r="R61" s="196"/>
+      <c r="S61" s="196"/>
+      <c r="T61" s="196"/>
+      <c r="U61" s="196"/>
+      <c r="V61" s="196"/>
+      <c r="W61" s="196"/>
+      <c r="X61" s="196"/>
     </row>
     <row r="62" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="BN62" s="34"/>
+      <c r="B62" s="269" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="269"/>
+      <c r="D62" s="269"/>
+      <c r="E62" s="269"/>
+      <c r="F62" s="269"/>
+      <c r="G62" s="269"/>
+      <c r="H62" s="269"/>
+      <c r="I62" s="269"/>
+      <c r="J62" s="269"/>
+      <c r="K62" s="269"/>
+      <c r="L62" s="269"/>
+      <c r="N62" s="201" t="s">
+        <v>51</v>
+      </c>
+      <c r="O62" s="201"/>
+      <c r="P62" s="201"/>
+      <c r="Q62" s="201"/>
+      <c r="R62" s="201"/>
+      <c r="S62" s="201"/>
+      <c r="T62" s="201"/>
+      <c r="U62" s="201"/>
+      <c r="V62" s="201"/>
+      <c r="W62" s="201"/>
+      <c r="X62" s="201"/>
     </row>
     <row r="63" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="AV63" s="34"/>
-      <c r="AW63" s="34"/>
-      <c r="AX63" s="34"/>
-      <c r="AY63" s="34"/>
-      <c r="AZ63" s="34"/>
-      <c r="BA63" s="34"/>
-      <c r="BB63" s="34"/>
-      <c r="BC63" s="34"/>
-      <c r="BD63" s="34"/>
-      <c r="BF63" s="34"/>
-      <c r="BG63" s="34"/>
-      <c r="BH63" s="34"/>
-      <c r="BI63" s="34"/>
-      <c r="BJ63" s="34"/>
-      <c r="BK63" s="34"/>
-      <c r="BL63" s="34"/>
-      <c r="BM63" s="34"/>
-      <c r="BN63" s="34"/>
+      <c r="B63" s="198" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="198"/>
+      <c r="D63" s="198"/>
+      <c r="E63" s="198"/>
+      <c r="F63" s="198"/>
+      <c r="G63" s="198"/>
+      <c r="H63" s="198"/>
+      <c r="I63" s="198"/>
+      <c r="J63" s="198"/>
+      <c r="K63" s="198"/>
+      <c r="L63" s="198"/>
+      <c r="N63" s="198" t="s">
+        <v>51</v>
+      </c>
+      <c r="O63" s="198"/>
+      <c r="P63" s="198"/>
+      <c r="Q63" s="198"/>
+      <c r="R63" s="198"/>
+      <c r="S63" s="198"/>
+      <c r="T63" s="198"/>
+      <c r="U63" s="198"/>
+      <c r="V63" s="198"/>
+      <c r="W63" s="198"/>
+      <c r="X63" s="198"/>
     </row>
     <row r="64" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="AV64" s="34"/>
-      <c r="AW64" s="34"/>
-      <c r="AX64" s="34"/>
-      <c r="AY64" s="34"/>
-      <c r="AZ64" s="34"/>
-      <c r="BA64" s="34"/>
-      <c r="BB64" s="34"/>
-      <c r="BC64" s="34"/>
-      <c r="BD64" s="34"/>
-      <c r="BF64" s="34"/>
-      <c r="BG64" s="34"/>
-      <c r="BH64" s="34"/>
-      <c r="BI64" s="34"/>
-      <c r="BJ64" s="34"/>
-      <c r="BK64" s="34"/>
-      <c r="BL64" s="34"/>
-      <c r="BM64" s="34"/>
-      <c r="BN64" s="34"/>
-    </row>
-    <row r="65" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="AV65" s="34"/>
-      <c r="AW65" s="34"/>
-      <c r="AX65" s="34"/>
-      <c r="AY65" s="34"/>
-      <c r="AZ65" s="34"/>
-      <c r="BA65" s="34"/>
-      <c r="BB65" s="34"/>
-      <c r="BC65" s="34"/>
-      <c r="BD65" s="34"/>
-      <c r="BF65" s="34"/>
-      <c r="BG65" s="34"/>
-      <c r="BH65" s="34"/>
-      <c r="BI65" s="34"/>
-      <c r="BJ65" s="34"/>
-      <c r="BK65" s="34"/>
-      <c r="BL65" s="34"/>
-      <c r="BM65" s="34"/>
-      <c r="BN65" s="34"/>
-    </row>
-    <row r="66" spans="48:66" x14ac:dyDescent="0.25">
-      <c r="AV66" s="34"/>
-      <c r="AW66" s="34"/>
-      <c r="AX66" s="34"/>
-      <c r="AY66" s="34"/>
-      <c r="AZ66" s="34"/>
-      <c r="BA66" s="34"/>
-      <c r="BB66" s="34"/>
-      <c r="BC66" s="34"/>
-      <c r="BD66" s="34"/>
-      <c r="BF66" s="34"/>
-      <c r="BG66" s="34"/>
-      <c r="BH66" s="34"/>
-      <c r="BI66" s="34"/>
-      <c r="BJ66" s="34"/>
-      <c r="BK66" s="34"/>
-      <c r="BL66" s="34"/>
-      <c r="BM66" s="34"/>
-      <c r="BN66" s="34"/>
+      <c r="B64" s="201" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="201"/>
+      <c r="D64" s="201"/>
+      <c r="E64" s="201"/>
+      <c r="F64" s="201"/>
+      <c r="G64" s="201"/>
+      <c r="H64" s="201"/>
+      <c r="I64" s="201"/>
+      <c r="J64" s="201"/>
+      <c r="K64" s="201"/>
+      <c r="L64" s="201"/>
+      <c r="N64" s="222" t="s">
+        <v>51</v>
+      </c>
+      <c r="O64" s="222"/>
+      <c r="P64" s="222"/>
+      <c r="Q64" s="222"/>
+      <c r="R64" s="222"/>
+      <c r="S64" s="222"/>
+      <c r="T64" s="222"/>
+      <c r="U64" s="222"/>
+      <c r="V64" s="222"/>
+      <c r="W64" s="222"/>
+      <c r="X64" s="222"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B65" s="196" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="196"/>
+      <c r="D65" s="196"/>
+      <c r="E65" s="196"/>
+      <c r="F65" s="196"/>
+      <c r="G65" s="196"/>
+      <c r="H65" s="196"/>
+      <c r="I65" s="196"/>
+      <c r="J65" s="196"/>
+      <c r="K65" s="196"/>
+      <c r="L65" s="196"/>
+      <c r="N65" s="268" t="s">
+        <v>51</v>
+      </c>
+      <c r="O65" s="268"/>
+      <c r="P65" s="268"/>
+      <c r="Q65" s="268"/>
+      <c r="R65" s="268"/>
+      <c r="S65" s="268"/>
+      <c r="T65" s="268"/>
+      <c r="U65" s="268"/>
+      <c r="V65" s="268"/>
+      <c r="W65" s="268"/>
+      <c r="X65" s="268"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B66" s="200" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="200"/>
+      <c r="D66" s="200"/>
+      <c r="E66" s="200"/>
+      <c r="F66" s="200"/>
+      <c r="G66" s="200"/>
+      <c r="H66" s="200"/>
+      <c r="I66" s="200"/>
+      <c r="J66" s="200"/>
+      <c r="K66" s="200"/>
+      <c r="L66" s="200"/>
+      <c r="N66" s="195" t="s">
+        <v>51</v>
+      </c>
+      <c r="O66" s="195"/>
+      <c r="P66" s="195"/>
+      <c r="Q66" s="195"/>
+      <c r="R66" s="195"/>
+      <c r="S66" s="195"/>
+      <c r="T66" s="195"/>
+      <c r="U66" s="195"/>
+      <c r="V66" s="195"/>
+      <c r="W66" s="195"/>
+      <c r="X66" s="195"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B67" s="228" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="228"/>
+      <c r="D67" s="228"/>
+      <c r="E67" s="228"/>
+      <c r="F67" s="228"/>
+      <c r="G67" s="228"/>
+      <c r="H67" s="228"/>
+      <c r="I67" s="228"/>
+      <c r="J67" s="228"/>
+      <c r="K67" s="228"/>
+      <c r="L67" s="228"/>
+      <c r="N67" s="223" t="s">
+        <v>51</v>
+      </c>
+      <c r="O67" s="223"/>
+      <c r="P67" s="223"/>
+      <c r="Q67" s="223"/>
+      <c r="R67" s="223"/>
+      <c r="S67" s="223"/>
+      <c r="T67" s="223"/>
+      <c r="U67" s="223"/>
+      <c r="V67" s="223"/>
+      <c r="W67" s="223"/>
+      <c r="X67" s="223"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B68" s="199" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="199"/>
+      <c r="D68" s="199"/>
+      <c r="E68" s="199"/>
+      <c r="F68" s="199"/>
+      <c r="G68" s="199"/>
+      <c r="H68" s="199"/>
+      <c r="I68" s="199"/>
+      <c r="J68" s="199"/>
+      <c r="K68" s="199"/>
+      <c r="L68" s="199"/>
+      <c r="N68" s="182" t="s">
+        <v>51</v>
+      </c>
+      <c r="O68" s="182"/>
+      <c r="P68" s="182"/>
+      <c r="Q68" s="182"/>
+      <c r="R68" s="182"/>
+      <c r="S68" s="182"/>
+      <c r="T68" s="182"/>
+      <c r="U68" s="182"/>
+      <c r="V68" s="182"/>
+      <c r="W68" s="182"/>
+      <c r="X68" s="182"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="134">
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="N65:X65"/>
+    <mergeCell ref="B62:L62"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="N68:X68"/>
+    <mergeCell ref="B68:L68"/>
+    <mergeCell ref="B67:L67"/>
+    <mergeCell ref="B66:L66"/>
+    <mergeCell ref="B65:L65"/>
+    <mergeCell ref="B64:L64"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="N58:X58"/>
+    <mergeCell ref="N59:X59"/>
+    <mergeCell ref="N60:X60"/>
+    <mergeCell ref="N61:X61"/>
+    <mergeCell ref="N62:X62"/>
+    <mergeCell ref="N63:X63"/>
+    <mergeCell ref="N64:X64"/>
+    <mergeCell ref="N66:X66"/>
+    <mergeCell ref="N67:X67"/>
     <mergeCell ref="BE49:BL49"/>
     <mergeCell ref="BE50:BL50"/>
     <mergeCell ref="BE51:BL51"/>
@@ -6173,7 +6459,6 @@
     <mergeCell ref="BE46:BL46"/>
     <mergeCell ref="BE47:BL47"/>
     <mergeCell ref="BE48:BL48"/>
-    <mergeCell ref="AP53:AY53"/>
     <mergeCell ref="AP54:AY54"/>
     <mergeCell ref="AP55:AY55"/>
     <mergeCell ref="AP56:AY56"/>
@@ -6192,7 +6477,6 @@
     <mergeCell ref="AH45:AO45"/>
     <mergeCell ref="AH46:AO55"/>
     <mergeCell ref="AD7:AD32"/>
-    <mergeCell ref="M55:U55"/>
     <mergeCell ref="M56:U56"/>
     <mergeCell ref="D36:Z36"/>
     <mergeCell ref="AD34:AS34"/>
@@ -6216,7 +6500,7 @@
     <mergeCell ref="B52:L52"/>
     <mergeCell ref="B53:L53"/>
     <mergeCell ref="B54:L54"/>
-    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="AP53:AY53"/>
     <mergeCell ref="B56:L56"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B48:L48"/>
@@ -6240,22 +6524,7 @@
     <mergeCell ref="B44:L44"/>
     <mergeCell ref="B45:L45"/>
     <mergeCell ref="B46:L46"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="M44:U51"/>
-    <mergeCell ref="V44:AG44"/>
-    <mergeCell ref="V45:AG45"/>
-    <mergeCell ref="V46:AG46"/>
-    <mergeCell ref="V47:AG47"/>
-    <mergeCell ref="V48:AG48"/>
-    <mergeCell ref="V49:AG49"/>
-    <mergeCell ref="V50:AG50"/>
-    <mergeCell ref="V51:AG51"/>
-    <mergeCell ref="E41:K41"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="AE7:AR7"/>
-    <mergeCell ref="P7:P31"/>
-    <mergeCell ref="Z7:Z31"/>
+    <mergeCell ref="M55:U55"/>
     <mergeCell ref="AS7:AS31"/>
     <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="BG4:BM4"/>
@@ -6271,6 +6540,23 @@
     <mergeCell ref="AE20:AR20"/>
     <mergeCell ref="C7:C32"/>
     <mergeCell ref="R7:R32"/>
+    <mergeCell ref="E41:K41"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="AE7:AR7"/>
+    <mergeCell ref="P7:P31"/>
+    <mergeCell ref="Z7:Z31"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="M44:U51"/>
+    <mergeCell ref="V44:AG44"/>
+    <mergeCell ref="V45:AG45"/>
+    <mergeCell ref="V46:AG46"/>
+    <mergeCell ref="V47:AG47"/>
+    <mergeCell ref="V48:AG48"/>
+    <mergeCell ref="V49:AG49"/>
+    <mergeCell ref="V50:AG50"/>
+    <mergeCell ref="V51:AG51"/>
+    <mergeCell ref="B55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6491,22 +6777,22 @@
       <c r="AS4" s="100"/>
       <c r="AT4" s="105"/>
       <c r="AV4" s="104"/>
-      <c r="AW4" s="247"/>
-      <c r="AX4" s="247"/>
-      <c r="AY4" s="247"/>
-      <c r="AZ4" s="247"/>
-      <c r="BA4" s="247"/>
-      <c r="BB4" s="247"/>
-      <c r="BC4" s="247"/>
+      <c r="AW4" s="248"/>
+      <c r="AX4" s="248"/>
+      <c r="AY4" s="248"/>
+      <c r="AZ4" s="248"/>
+      <c r="BA4" s="248"/>
+      <c r="BB4" s="248"/>
+      <c r="BC4" s="248"/>
       <c r="BD4" s="105"/>
       <c r="BF4" s="104"/>
-      <c r="BG4" s="249"/>
-      <c r="BH4" s="249"/>
-      <c r="BI4" s="249"/>
-      <c r="BJ4" s="249"/>
-      <c r="BK4" s="249"/>
-      <c r="BL4" s="249"/>
-      <c r="BM4" s="249"/>
+      <c r="BG4" s="250"/>
+      <c r="BH4" s="250"/>
+      <c r="BI4" s="250"/>
+      <c r="BJ4" s="250"/>
+      <c r="BK4" s="250"/>
+      <c r="BL4" s="250"/>
+      <c r="BM4" s="250"/>
       <c r="BN4" s="105"/>
     </row>
     <row r="5" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6579,48 +6865,48 @@
     </row>
     <row r="6" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="104"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="234"/>
-      <c r="P6" s="234"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="235"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="235"/>
+      <c r="P6" s="235"/>
       <c r="Q6" s="100"/>
-      <c r="R6" s="234"/>
-      <c r="S6" s="234"/>
-      <c r="T6" s="234"/>
-      <c r="U6" s="234"/>
-      <c r="V6" s="234"/>
-      <c r="W6" s="234"/>
-      <c r="X6" s="234"/>
-      <c r="Y6" s="234"/>
-      <c r="Z6" s="234"/>
+      <c r="R6" s="235"/>
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
+      <c r="U6" s="235"/>
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="235"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="235"/>
       <c r="AA6" s="105"/>
       <c r="AC6" s="104"/>
-      <c r="AD6" s="234"/>
-      <c r="AE6" s="234"/>
-      <c r="AF6" s="234"/>
-      <c r="AG6" s="234"/>
-      <c r="AH6" s="234"/>
-      <c r="AI6" s="234"/>
-      <c r="AJ6" s="234"/>
-      <c r="AK6" s="234"/>
-      <c r="AL6" s="234"/>
-      <c r="AM6" s="234"/>
-      <c r="AN6" s="234"/>
-      <c r="AO6" s="234"/>
-      <c r="AP6" s="234"/>
-      <c r="AQ6" s="234"/>
-      <c r="AR6" s="234"/>
-      <c r="AS6" s="234"/>
+      <c r="AD6" s="235"/>
+      <c r="AE6" s="235"/>
+      <c r="AF6" s="235"/>
+      <c r="AG6" s="235"/>
+      <c r="AH6" s="235"/>
+      <c r="AI6" s="235"/>
+      <c r="AJ6" s="235"/>
+      <c r="AK6" s="235"/>
+      <c r="AL6" s="235"/>
+      <c r="AM6" s="235"/>
+      <c r="AN6" s="235"/>
+      <c r="AO6" s="235"/>
+      <c r="AP6" s="235"/>
+      <c r="AQ6" s="235"/>
+      <c r="AR6" s="235"/>
+      <c r="AS6" s="235"/>
       <c r="AT6" s="105"/>
       <c r="AV6" s="104"/>
       <c r="AW6" s="89"/>
@@ -6643,48 +6929,48 @@
     </row>
     <row r="7" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="104"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="264"/>
-      <c r="E7" s="264"/>
-      <c r="F7" s="264"/>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="264"/>
-      <c r="K7" s="264"/>
-      <c r="L7" s="264"/>
-      <c r="M7" s="264"/>
-      <c r="N7" s="264"/>
-      <c r="O7" s="264"/>
-      <c r="P7" s="238"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="265"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="265"/>
+      <c r="K7" s="265"/>
+      <c r="L7" s="265"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="265"/>
+      <c r="P7" s="239"/>
       <c r="Q7" s="100"/>
-      <c r="R7" s="234"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="264"/>
-      <c r="U7" s="264"/>
-      <c r="V7" s="264"/>
-      <c r="W7" s="264"/>
-      <c r="X7" s="264"/>
-      <c r="Y7" s="264"/>
-      <c r="Z7" s="238"/>
+      <c r="R7" s="235"/>
+      <c r="S7" s="265"/>
+      <c r="T7" s="265"/>
+      <c r="U7" s="265"/>
+      <c r="V7" s="265"/>
+      <c r="W7" s="265"/>
+      <c r="X7" s="265"/>
+      <c r="Y7" s="265"/>
+      <c r="Z7" s="239"/>
       <c r="AA7" s="105"/>
       <c r="AC7" s="104"/>
-      <c r="AD7" s="234"/>
-      <c r="AE7" s="262"/>
-      <c r="AF7" s="262"/>
-      <c r="AG7" s="262"/>
-      <c r="AH7" s="262"/>
-      <c r="AI7" s="262"/>
-      <c r="AJ7" s="262"/>
-      <c r="AK7" s="262"/>
-      <c r="AL7" s="262"/>
-      <c r="AM7" s="262"/>
-      <c r="AN7" s="262"/>
-      <c r="AO7" s="262"/>
-      <c r="AP7" s="262"/>
-      <c r="AQ7" s="262"/>
-      <c r="AR7" s="262"/>
-      <c r="AS7" s="238"/>
+      <c r="AD7" s="235"/>
+      <c r="AE7" s="263"/>
+      <c r="AF7" s="263"/>
+      <c r="AG7" s="263"/>
+      <c r="AH7" s="263"/>
+      <c r="AI7" s="263"/>
+      <c r="AJ7" s="263"/>
+      <c r="AK7" s="263"/>
+      <c r="AL7" s="263"/>
+      <c r="AM7" s="263"/>
+      <c r="AN7" s="263"/>
+      <c r="AO7" s="263"/>
+      <c r="AP7" s="263"/>
+      <c r="AQ7" s="263"/>
+      <c r="AR7" s="263"/>
+      <c r="AS7" s="239"/>
       <c r="AT7" s="105"/>
       <c r="AV7" s="104"/>
       <c r="AW7" s="89"/>
@@ -6707,11 +6993,11 @@
     </row>
     <row r="8" spans="2:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="265">
+      <c r="C8" s="235"/>
+      <c r="D8" s="266">
         <v>0.37152777777777773</v>
       </c>
-      <c r="E8" s="265"/>
+      <c r="E8" s="266"/>
       <c r="F8" s="149" t="s">
         <v>22</v>
       </c>
@@ -6724,9 +7010,9 @@
       <c r="M8" s="149"/>
       <c r="N8" s="149"/>
       <c r="O8" s="150"/>
-      <c r="P8" s="238"/>
+      <c r="P8" s="239"/>
       <c r="Q8" s="113"/>
-      <c r="R8" s="234"/>
+      <c r="R8" s="235"/>
       <c r="S8" s="151" t="s">
         <v>32</v>
       </c>
@@ -6736,27 +7022,27 @@
       <c r="W8" s="151"/>
       <c r="X8" s="151"/>
       <c r="Y8" s="150"/>
-      <c r="Z8" s="238"/>
+      <c r="Z8" s="239"/>
       <c r="AA8" s="105"/>
       <c r="AC8" s="104"/>
-      <c r="AD8" s="234"/>
-      <c r="AE8" s="240" t="s">
+      <c r="AD8" s="235"/>
+      <c r="AE8" s="241" t="s">
         <v>21</v>
       </c>
-      <c r="AF8" s="240"/>
-      <c r="AG8" s="240"/>
-      <c r="AH8" s="240"/>
-      <c r="AI8" s="240"/>
-      <c r="AJ8" s="240"/>
-      <c r="AK8" s="240"/>
-      <c r="AL8" s="240"/>
-      <c r="AM8" s="240"/>
-      <c r="AN8" s="240"/>
-      <c r="AO8" s="240"/>
-      <c r="AP8" s="240"/>
-      <c r="AQ8" s="240"/>
-      <c r="AR8" s="240"/>
-      <c r="AS8" s="238"/>
+      <c r="AF8" s="241"/>
+      <c r="AG8" s="241"/>
+      <c r="AH8" s="241"/>
+      <c r="AI8" s="241"/>
+      <c r="AJ8" s="241"/>
+      <c r="AK8" s="241"/>
+      <c r="AL8" s="241"/>
+      <c r="AM8" s="241"/>
+      <c r="AN8" s="241"/>
+      <c r="AO8" s="241"/>
+      <c r="AP8" s="241"/>
+      <c r="AQ8" s="241"/>
+      <c r="AR8" s="241"/>
+      <c r="AS8" s="239"/>
       <c r="AT8" s="105"/>
       <c r="AV8" s="104"/>
       <c r="AW8" s="129" t="s">
@@ -6783,7 +7069,7 @@
     </row>
     <row r="9" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="104"/>
-      <c r="C9" s="234"/>
+      <c r="C9" s="235"/>
       <c r="D9" s="152" t="s">
         <v>44</v>
       </c>
@@ -6798,9 +7084,9 @@
       <c r="M9" s="153"/>
       <c r="N9" s="153"/>
       <c r="O9" s="153"/>
-      <c r="P9" s="238"/>
+      <c r="P9" s="239"/>
       <c r="Q9" s="114"/>
-      <c r="R9" s="234"/>
+      <c r="R9" s="235"/>
       <c r="S9" s="154" t="s">
         <v>33</v>
       </c>
@@ -6810,10 +7096,10 @@
       <c r="W9" s="154"/>
       <c r="X9" s="154"/>
       <c r="Y9" s="155"/>
-      <c r="Z9" s="238"/>
+      <c r="Z9" s="239"/>
       <c r="AA9" s="105"/>
       <c r="AC9" s="104"/>
-      <c r="AD9" s="234"/>
+      <c r="AD9" s="235"/>
       <c r="AE9" s="170" t="s">
         <v>23</v>
       </c>
@@ -6828,11 +7114,11 @@
       <c r="AN9" s="141"/>
       <c r="AO9" s="141"/>
       <c r="AP9" s="141"/>
-      <c r="AQ9" s="241">
+      <c r="AQ9" s="242">
         <v>0.37847222222222227</v>
       </c>
-      <c r="AR9" s="241"/>
-      <c r="AS9" s="238"/>
+      <c r="AR9" s="242"/>
+      <c r="AS9" s="239"/>
       <c r="AT9" s="105"/>
       <c r="AV9" s="104"/>
       <c r="AW9" s="127" t="s">
@@ -6859,7 +7145,7 @@
     </row>
     <row r="10" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="104"/>
-      <c r="C10" s="234"/>
+      <c r="C10" s="235"/>
       <c r="D10" s="156"/>
       <c r="E10" s="156"/>
       <c r="F10" s="156"/>
@@ -6872,9 +7158,9 @@
       <c r="M10" s="156"/>
       <c r="N10" s="156"/>
       <c r="O10" s="156"/>
-      <c r="P10" s="238"/>
+      <c r="P10" s="239"/>
       <c r="Q10" s="115"/>
-      <c r="R10" s="234"/>
+      <c r="R10" s="235"/>
       <c r="S10" s="156"/>
       <c r="T10" s="156"/>
       <c r="U10" s="156"/>
@@ -6882,25 +7168,25 @@
       <c r="W10" s="156"/>
       <c r="X10" s="156"/>
       <c r="Y10" s="155"/>
-      <c r="Z10" s="238"/>
+      <c r="Z10" s="239"/>
       <c r="AA10" s="105"/>
       <c r="AC10" s="104"/>
-      <c r="AD10" s="234"/>
-      <c r="AE10" s="236"/>
-      <c r="AF10" s="236"/>
-      <c r="AG10" s="236"/>
-      <c r="AH10" s="236"/>
-      <c r="AI10" s="236"/>
-      <c r="AJ10" s="236"/>
-      <c r="AK10" s="236"/>
-      <c r="AL10" s="236"/>
-      <c r="AM10" s="236"/>
-      <c r="AN10" s="236"/>
-      <c r="AO10" s="236"/>
-      <c r="AP10" s="236"/>
-      <c r="AQ10" s="236"/>
-      <c r="AR10" s="236"/>
-      <c r="AS10" s="238"/>
+      <c r="AD10" s="235"/>
+      <c r="AE10" s="237"/>
+      <c r="AF10" s="237"/>
+      <c r="AG10" s="237"/>
+      <c r="AH10" s="237"/>
+      <c r="AI10" s="237"/>
+      <c r="AJ10" s="237"/>
+      <c r="AK10" s="237"/>
+      <c r="AL10" s="237"/>
+      <c r="AM10" s="237"/>
+      <c r="AN10" s="237"/>
+      <c r="AO10" s="237"/>
+      <c r="AP10" s="237"/>
+      <c r="AQ10" s="237"/>
+      <c r="AR10" s="237"/>
+      <c r="AS10" s="239"/>
       <c r="AT10" s="105"/>
       <c r="AV10" s="104"/>
       <c r="AW10" s="89"/>
@@ -6923,7 +7209,7 @@
     </row>
     <row r="11" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="104"/>
-      <c r="C11" s="234"/>
+      <c r="C11" s="235"/>
       <c r="D11" s="156"/>
       <c r="E11" s="156"/>
       <c r="F11" s="156"/>
@@ -6936,9 +7222,9 @@
       <c r="M11" s="156"/>
       <c r="N11" s="156"/>
       <c r="O11" s="156"/>
-      <c r="P11" s="238"/>
+      <c r="P11" s="239"/>
       <c r="Q11" s="115"/>
-      <c r="R11" s="234"/>
+      <c r="R11" s="235"/>
       <c r="S11" s="156"/>
       <c r="T11" s="156"/>
       <c r="U11" s="156"/>
@@ -6946,25 +7232,25 @@
       <c r="W11" s="156"/>
       <c r="X11" s="156"/>
       <c r="Y11" s="155"/>
-      <c r="Z11" s="238"/>
+      <c r="Z11" s="239"/>
       <c r="AA11" s="105"/>
       <c r="AC11" s="104"/>
-      <c r="AD11" s="234"/>
-      <c r="AE11" s="236"/>
-      <c r="AF11" s="236"/>
-      <c r="AG11" s="236"/>
-      <c r="AH11" s="236"/>
-      <c r="AI11" s="236"/>
-      <c r="AJ11" s="236"/>
-      <c r="AK11" s="236"/>
-      <c r="AL11" s="236"/>
-      <c r="AM11" s="236"/>
-      <c r="AN11" s="236"/>
-      <c r="AO11" s="236"/>
-      <c r="AP11" s="236"/>
-      <c r="AQ11" s="236"/>
-      <c r="AR11" s="236"/>
-      <c r="AS11" s="238"/>
+      <c r="AD11" s="235"/>
+      <c r="AE11" s="237"/>
+      <c r="AF11" s="237"/>
+      <c r="AG11" s="237"/>
+      <c r="AH11" s="237"/>
+      <c r="AI11" s="237"/>
+      <c r="AJ11" s="237"/>
+      <c r="AK11" s="237"/>
+      <c r="AL11" s="237"/>
+      <c r="AM11" s="237"/>
+      <c r="AN11" s="237"/>
+      <c r="AO11" s="237"/>
+      <c r="AP11" s="237"/>
+      <c r="AQ11" s="237"/>
+      <c r="AR11" s="237"/>
+      <c r="AS11" s="239"/>
       <c r="AT11" s="105"/>
       <c r="AV11" s="104"/>
       <c r="AW11" s="89"/>
@@ -6987,7 +7273,7 @@
     </row>
     <row r="12" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B12" s="104"/>
-      <c r="C12" s="234"/>
+      <c r="C12" s="235"/>
       <c r="D12" s="157" t="s">
         <v>42</v>
       </c>
@@ -7002,9 +7288,9 @@
       <c r="M12" s="158"/>
       <c r="N12" s="158"/>
       <c r="O12" s="158"/>
-      <c r="P12" s="238"/>
+      <c r="P12" s="239"/>
       <c r="Q12" s="117"/>
-      <c r="R12" s="234"/>
+      <c r="R12" s="235"/>
       <c r="S12" s="159" t="s">
         <v>38</v>
       </c>
@@ -7014,27 +7300,27 @@
       <c r="W12" s="159"/>
       <c r="X12" s="159"/>
       <c r="Y12" s="158"/>
-      <c r="Z12" s="238"/>
+      <c r="Z12" s="239"/>
       <c r="AA12" s="105"/>
       <c r="AC12" s="104"/>
-      <c r="AD12" s="234"/>
-      <c r="AE12" s="242" t="s">
+      <c r="AD12" s="235"/>
+      <c r="AE12" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="AF12" s="242"/>
-      <c r="AG12" s="242"/>
-      <c r="AH12" s="242"/>
-      <c r="AI12" s="242"/>
-      <c r="AJ12" s="242"/>
-      <c r="AK12" s="242"/>
-      <c r="AL12" s="242"/>
-      <c r="AM12" s="242"/>
-      <c r="AN12" s="242"/>
-      <c r="AO12" s="242"/>
-      <c r="AP12" s="242"/>
-      <c r="AQ12" s="242"/>
-      <c r="AR12" s="242"/>
-      <c r="AS12" s="238"/>
+      <c r="AF12" s="243"/>
+      <c r="AG12" s="243"/>
+      <c r="AH12" s="243"/>
+      <c r="AI12" s="243"/>
+      <c r="AJ12" s="243"/>
+      <c r="AK12" s="243"/>
+      <c r="AL12" s="243"/>
+      <c r="AM12" s="243"/>
+      <c r="AN12" s="243"/>
+      <c r="AO12" s="243"/>
+      <c r="AP12" s="243"/>
+      <c r="AQ12" s="243"/>
+      <c r="AR12" s="243"/>
+      <c r="AS12" s="239"/>
       <c r="AT12" s="105"/>
       <c r="AV12" s="104"/>
       <c r="AW12" s="127" t="s">
@@ -7061,7 +7347,7 @@
     </row>
     <row r="13" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B13" s="104"/>
-      <c r="C13" s="234"/>
+      <c r="C13" s="235"/>
       <c r="D13" s="152" t="s">
         <v>41</v>
       </c>
@@ -7076,9 +7362,9 @@
       <c r="M13" s="153"/>
       <c r="N13" s="153"/>
       <c r="O13" s="153"/>
-      <c r="P13" s="238"/>
+      <c r="P13" s="239"/>
       <c r="Q13" s="114"/>
-      <c r="R13" s="234"/>
+      <c r="R13" s="235"/>
       <c r="S13" s="160" t="s">
         <v>34</v>
       </c>
@@ -7088,10 +7374,10 @@
       <c r="W13" s="160"/>
       <c r="X13" s="160"/>
       <c r="Y13" s="155"/>
-      <c r="Z13" s="238"/>
+      <c r="Z13" s="239"/>
       <c r="AA13" s="105"/>
       <c r="AC13" s="104"/>
-      <c r="AD13" s="234"/>
+      <c r="AD13" s="235"/>
       <c r="AE13" s="170" t="s">
         <v>24</v>
       </c>
@@ -7106,11 +7392,11 @@
       <c r="AN13" s="141"/>
       <c r="AO13" s="141"/>
       <c r="AP13" s="141"/>
-      <c r="AQ13" s="241">
+      <c r="AQ13" s="242">
         <v>0.37916666666666665</v>
       </c>
-      <c r="AR13" s="241"/>
-      <c r="AS13" s="238"/>
+      <c r="AR13" s="242"/>
+      <c r="AS13" s="239"/>
       <c r="AT13" s="105"/>
       <c r="AV13" s="104"/>
       <c r="AW13" s="127" t="s">
@@ -7137,7 +7423,7 @@
     </row>
     <row r="14" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="104"/>
-      <c r="C14" s="234"/>
+      <c r="C14" s="235"/>
       <c r="D14" s="156"/>
       <c r="E14" s="156"/>
       <c r="F14" s="156"/>
@@ -7150,9 +7436,9 @@
       <c r="M14" s="156"/>
       <c r="N14" s="156"/>
       <c r="O14" s="156"/>
-      <c r="P14" s="238"/>
+      <c r="P14" s="239"/>
       <c r="Q14" s="115"/>
-      <c r="R14" s="234"/>
+      <c r="R14" s="235"/>
       <c r="S14" s="156"/>
       <c r="T14" s="156"/>
       <c r="U14" s="156"/>
@@ -7160,25 +7446,25 @@
       <c r="W14" s="156"/>
       <c r="X14" s="156"/>
       <c r="Y14" s="155"/>
-      <c r="Z14" s="238"/>
+      <c r="Z14" s="239"/>
       <c r="AA14" s="105"/>
       <c r="AC14" s="104"/>
-      <c r="AD14" s="234"/>
-      <c r="AE14" s="236"/>
-      <c r="AF14" s="236"/>
-      <c r="AG14" s="236"/>
-      <c r="AH14" s="236"/>
-      <c r="AI14" s="236"/>
-      <c r="AJ14" s="236"/>
-      <c r="AK14" s="236"/>
-      <c r="AL14" s="236"/>
-      <c r="AM14" s="236"/>
-      <c r="AN14" s="236"/>
-      <c r="AO14" s="236"/>
-      <c r="AP14" s="236"/>
-      <c r="AQ14" s="236"/>
-      <c r="AR14" s="236"/>
-      <c r="AS14" s="238"/>
+      <c r="AD14" s="235"/>
+      <c r="AE14" s="237"/>
+      <c r="AF14" s="237"/>
+      <c r="AG14" s="237"/>
+      <c r="AH14" s="237"/>
+      <c r="AI14" s="237"/>
+      <c r="AJ14" s="237"/>
+      <c r="AK14" s="237"/>
+      <c r="AL14" s="237"/>
+      <c r="AM14" s="237"/>
+      <c r="AN14" s="237"/>
+      <c r="AO14" s="237"/>
+      <c r="AP14" s="237"/>
+      <c r="AQ14" s="237"/>
+      <c r="AR14" s="237"/>
+      <c r="AS14" s="239"/>
       <c r="AT14" s="105"/>
       <c r="AV14" s="104"/>
       <c r="AW14" s="89"/>
@@ -7201,7 +7487,7 @@
     </row>
     <row r="15" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="104"/>
-      <c r="C15" s="234"/>
+      <c r="C15" s="235"/>
       <c r="D15" s="156"/>
       <c r="E15" s="156"/>
       <c r="F15" s="156"/>
@@ -7214,9 +7500,9 @@
       <c r="M15" s="156"/>
       <c r="N15" s="156"/>
       <c r="O15" s="156"/>
-      <c r="P15" s="238"/>
+      <c r="P15" s="239"/>
       <c r="Q15" s="115"/>
-      <c r="R15" s="234"/>
+      <c r="R15" s="235"/>
       <c r="S15" s="156"/>
       <c r="T15" s="156"/>
       <c r="U15" s="156"/>
@@ -7224,25 +7510,25 @@
       <c r="W15" s="156"/>
       <c r="X15" s="156"/>
       <c r="Y15" s="155"/>
-      <c r="Z15" s="238"/>
+      <c r="Z15" s="239"/>
       <c r="AA15" s="105"/>
       <c r="AC15" s="104"/>
-      <c r="AD15" s="234"/>
-      <c r="AE15" s="236"/>
-      <c r="AF15" s="236"/>
-      <c r="AG15" s="236"/>
-      <c r="AH15" s="236"/>
-      <c r="AI15" s="236"/>
-      <c r="AJ15" s="236"/>
-      <c r="AK15" s="236"/>
-      <c r="AL15" s="236"/>
-      <c r="AM15" s="236"/>
-      <c r="AN15" s="236"/>
-      <c r="AO15" s="236"/>
-      <c r="AP15" s="236"/>
-      <c r="AQ15" s="236"/>
-      <c r="AR15" s="236"/>
-      <c r="AS15" s="238"/>
+      <c r="AD15" s="235"/>
+      <c r="AE15" s="237"/>
+      <c r="AF15" s="237"/>
+      <c r="AG15" s="237"/>
+      <c r="AH15" s="237"/>
+      <c r="AI15" s="237"/>
+      <c r="AJ15" s="237"/>
+      <c r="AK15" s="237"/>
+      <c r="AL15" s="237"/>
+      <c r="AM15" s="237"/>
+      <c r="AN15" s="237"/>
+      <c r="AO15" s="237"/>
+      <c r="AP15" s="237"/>
+      <c r="AQ15" s="237"/>
+      <c r="AR15" s="237"/>
+      <c r="AS15" s="239"/>
       <c r="AT15" s="105"/>
       <c r="AV15" s="104"/>
       <c r="AW15" s="89"/>
@@ -7265,7 +7551,7 @@
     </row>
     <row r="16" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B16" s="104"/>
-      <c r="C16" s="234"/>
+      <c r="C16" s="235"/>
       <c r="D16" s="159" t="s">
         <v>45</v>
       </c>
@@ -7280,9 +7566,9 @@
       <c r="M16" s="161"/>
       <c r="N16" s="161"/>
       <c r="O16" s="161"/>
-      <c r="P16" s="238"/>
+      <c r="P16" s="239"/>
       <c r="Q16" s="119"/>
-      <c r="R16" s="234"/>
+      <c r="R16" s="235"/>
       <c r="S16" s="162" t="s">
         <v>35</v>
       </c>
@@ -7292,27 +7578,27 @@
       <c r="W16" s="162"/>
       <c r="X16" s="162"/>
       <c r="Y16" s="161"/>
-      <c r="Z16" s="238"/>
+      <c r="Z16" s="239"/>
       <c r="AA16" s="105"/>
       <c r="AC16" s="104"/>
-      <c r="AD16" s="234"/>
-      <c r="AE16" s="266" t="s">
+      <c r="AD16" s="235"/>
+      <c r="AE16" s="267" t="s">
         <v>26</v>
       </c>
-      <c r="AF16" s="266"/>
-      <c r="AG16" s="266"/>
-      <c r="AH16" s="266"/>
-      <c r="AI16" s="266"/>
-      <c r="AJ16" s="266"/>
-      <c r="AK16" s="266"/>
-      <c r="AL16" s="266"/>
-      <c r="AM16" s="266"/>
-      <c r="AN16" s="266"/>
-      <c r="AO16" s="266"/>
-      <c r="AP16" s="266"/>
-      <c r="AQ16" s="266"/>
-      <c r="AR16" s="266"/>
-      <c r="AS16" s="238"/>
+      <c r="AF16" s="267"/>
+      <c r="AG16" s="267"/>
+      <c r="AH16" s="267"/>
+      <c r="AI16" s="267"/>
+      <c r="AJ16" s="267"/>
+      <c r="AK16" s="267"/>
+      <c r="AL16" s="267"/>
+      <c r="AM16" s="267"/>
+      <c r="AN16" s="267"/>
+      <c r="AO16" s="267"/>
+      <c r="AP16" s="267"/>
+      <c r="AQ16" s="267"/>
+      <c r="AR16" s="267"/>
+      <c r="AS16" s="239"/>
       <c r="AT16" s="105"/>
       <c r="AV16" s="104"/>
       <c r="AW16" s="127" t="s">
@@ -7339,7 +7625,7 @@
     </row>
     <row r="17" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B17" s="104"/>
-      <c r="C17" s="234"/>
+      <c r="C17" s="235"/>
       <c r="D17" s="158" t="s">
         <v>39</v>
       </c>
@@ -7354,9 +7640,9 @@
       <c r="M17" s="161"/>
       <c r="N17" s="161"/>
       <c r="O17" s="161"/>
-      <c r="P17" s="238"/>
+      <c r="P17" s="239"/>
       <c r="Q17" s="118"/>
-      <c r="R17" s="234"/>
+      <c r="R17" s="235"/>
       <c r="S17" s="153"/>
       <c r="T17" s="153"/>
       <c r="U17" s="153"/>
@@ -7364,10 +7650,10 @@
       <c r="W17" s="153"/>
       <c r="X17" s="153"/>
       <c r="Y17" s="163"/>
-      <c r="Z17" s="238"/>
+      <c r="Z17" s="239"/>
       <c r="AA17" s="105"/>
       <c r="AC17" s="104"/>
-      <c r="AD17" s="234"/>
+      <c r="AD17" s="235"/>
       <c r="AE17" s="171" t="s">
         <v>25</v>
       </c>
@@ -7382,11 +7668,11 @@
       <c r="AN17" s="142"/>
       <c r="AO17" s="142"/>
       <c r="AP17" s="142"/>
-      <c r="AQ17" s="243">
+      <c r="AQ17" s="244">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR17" s="243"/>
-      <c r="AS17" s="238"/>
+      <c r="AR17" s="244"/>
+      <c r="AS17" s="239"/>
       <c r="AT17" s="105"/>
       <c r="AV17" s="104"/>
       <c r="AW17" s="128" t="s">
@@ -7413,7 +7699,7 @@
     </row>
     <row r="18" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104"/>
-      <c r="C18" s="234"/>
+      <c r="C18" s="235"/>
       <c r="D18" s="164"/>
       <c r="E18" s="164"/>
       <c r="F18" s="164"/>
@@ -7426,9 +7712,9 @@
       <c r="M18" s="164"/>
       <c r="N18" s="164"/>
       <c r="O18" s="164"/>
-      <c r="P18" s="238"/>
+      <c r="P18" s="239"/>
       <c r="Q18" s="120"/>
-      <c r="R18" s="234"/>
+      <c r="R18" s="235"/>
       <c r="S18" s="164"/>
       <c r="T18" s="164"/>
       <c r="U18" s="164"/>
@@ -7436,25 +7722,25 @@
       <c r="W18" s="164"/>
       <c r="X18" s="164"/>
       <c r="Y18" s="163"/>
-      <c r="Z18" s="238"/>
+      <c r="Z18" s="239"/>
       <c r="AA18" s="105"/>
       <c r="AC18" s="104"/>
-      <c r="AD18" s="234"/>
-      <c r="AE18" s="263"/>
-      <c r="AF18" s="263"/>
-      <c r="AG18" s="263"/>
-      <c r="AH18" s="263"/>
-      <c r="AI18" s="263"/>
-      <c r="AJ18" s="263"/>
-      <c r="AK18" s="263"/>
-      <c r="AL18" s="263"/>
-      <c r="AM18" s="263"/>
-      <c r="AN18" s="263"/>
-      <c r="AO18" s="263"/>
-      <c r="AP18" s="263"/>
-      <c r="AQ18" s="263"/>
-      <c r="AR18" s="263"/>
-      <c r="AS18" s="238"/>
+      <c r="AD18" s="235"/>
+      <c r="AE18" s="264"/>
+      <c r="AF18" s="264"/>
+      <c r="AG18" s="264"/>
+      <c r="AH18" s="264"/>
+      <c r="AI18" s="264"/>
+      <c r="AJ18" s="264"/>
+      <c r="AK18" s="264"/>
+      <c r="AL18" s="264"/>
+      <c r="AM18" s="264"/>
+      <c r="AN18" s="264"/>
+      <c r="AO18" s="264"/>
+      <c r="AP18" s="264"/>
+      <c r="AQ18" s="264"/>
+      <c r="AR18" s="264"/>
+      <c r="AS18" s="239"/>
       <c r="AT18" s="105"/>
       <c r="AV18" s="104"/>
       <c r="AW18" s="89"/>
@@ -7477,7 +7763,7 @@
     </row>
     <row r="19" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="104"/>
-      <c r="C19" s="234"/>
+      <c r="C19" s="235"/>
       <c r="D19" s="164"/>
       <c r="E19" s="164"/>
       <c r="F19" s="164"/>
@@ -7490,9 +7776,9 @@
       <c r="M19" s="164"/>
       <c r="N19" s="164"/>
       <c r="O19" s="164"/>
-      <c r="P19" s="238"/>
+      <c r="P19" s="239"/>
       <c r="Q19" s="120"/>
-      <c r="R19" s="234"/>
+      <c r="R19" s="235"/>
       <c r="S19" s="164"/>
       <c r="T19" s="164"/>
       <c r="U19" s="164"/>
@@ -7500,25 +7786,25 @@
       <c r="W19" s="164"/>
       <c r="X19" s="164"/>
       <c r="Y19" s="163"/>
-      <c r="Z19" s="238"/>
+      <c r="Z19" s="239"/>
       <c r="AA19" s="105"/>
       <c r="AC19" s="104"/>
-      <c r="AD19" s="234"/>
-      <c r="AE19" s="263"/>
-      <c r="AF19" s="263"/>
-      <c r="AG19" s="263"/>
-      <c r="AH19" s="263"/>
-      <c r="AI19" s="263"/>
-      <c r="AJ19" s="263"/>
-      <c r="AK19" s="263"/>
-      <c r="AL19" s="263"/>
-      <c r="AM19" s="263"/>
-      <c r="AN19" s="263"/>
-      <c r="AO19" s="263"/>
-      <c r="AP19" s="263"/>
-      <c r="AQ19" s="263"/>
-      <c r="AR19" s="263"/>
-      <c r="AS19" s="238"/>
+      <c r="AD19" s="235"/>
+      <c r="AE19" s="264"/>
+      <c r="AF19" s="264"/>
+      <c r="AG19" s="264"/>
+      <c r="AH19" s="264"/>
+      <c r="AI19" s="264"/>
+      <c r="AJ19" s="264"/>
+      <c r="AK19" s="264"/>
+      <c r="AL19" s="264"/>
+      <c r="AM19" s="264"/>
+      <c r="AN19" s="264"/>
+      <c r="AO19" s="264"/>
+      <c r="AP19" s="264"/>
+      <c r="AQ19" s="264"/>
+      <c r="AR19" s="264"/>
+      <c r="AS19" s="239"/>
       <c r="AT19" s="105"/>
       <c r="AV19" s="104"/>
       <c r="AW19" s="89"/>
@@ -7541,7 +7827,7 @@
     </row>
     <row r="20" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B20" s="104"/>
-      <c r="C20" s="234"/>
+      <c r="C20" s="235"/>
       <c r="D20" s="151" t="s">
         <v>101</v>
       </c>
@@ -7556,9 +7842,9 @@
       <c r="M20" s="153"/>
       <c r="N20" s="153"/>
       <c r="O20" s="158"/>
-      <c r="P20" s="238"/>
+      <c r="P20" s="239"/>
       <c r="Q20" s="117"/>
-      <c r="R20" s="234"/>
+      <c r="R20" s="235"/>
       <c r="S20" s="153" t="s">
         <v>37</v>
       </c>
@@ -7568,27 +7854,27 @@
       <c r="W20" s="153"/>
       <c r="X20" s="153"/>
       <c r="Y20" s="158"/>
-      <c r="Z20" s="238"/>
+      <c r="Z20" s="239"/>
       <c r="AA20" s="105"/>
       <c r="AC20" s="104"/>
-      <c r="AD20" s="234"/>
-      <c r="AE20" s="242" t="s">
+      <c r="AD20" s="235"/>
+      <c r="AE20" s="243" t="s">
         <v>26</v>
       </c>
-      <c r="AF20" s="242"/>
-      <c r="AG20" s="242"/>
-      <c r="AH20" s="242"/>
-      <c r="AI20" s="242"/>
-      <c r="AJ20" s="242"/>
-      <c r="AK20" s="242"/>
-      <c r="AL20" s="242"/>
-      <c r="AM20" s="242"/>
-      <c r="AN20" s="242"/>
-      <c r="AO20" s="242"/>
-      <c r="AP20" s="242"/>
-      <c r="AQ20" s="242"/>
-      <c r="AR20" s="242"/>
-      <c r="AS20" s="238"/>
+      <c r="AF20" s="243"/>
+      <c r="AG20" s="243"/>
+      <c r="AH20" s="243"/>
+      <c r="AI20" s="243"/>
+      <c r="AJ20" s="243"/>
+      <c r="AK20" s="243"/>
+      <c r="AL20" s="243"/>
+      <c r="AM20" s="243"/>
+      <c r="AN20" s="243"/>
+      <c r="AO20" s="243"/>
+      <c r="AP20" s="243"/>
+      <c r="AQ20" s="243"/>
+      <c r="AR20" s="243"/>
+      <c r="AS20" s="239"/>
       <c r="AT20" s="105"/>
       <c r="AV20" s="104"/>
       <c r="AW20" s="138" t="s">
@@ -7615,7 +7901,7 @@
     </row>
     <row r="21" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B21" s="104"/>
-      <c r="C21" s="234"/>
+      <c r="C21" s="235"/>
       <c r="D21" s="154" t="s">
         <v>104</v>
       </c>
@@ -7630,9 +7916,9 @@
       <c r="M21" s="158"/>
       <c r="N21" s="158"/>
       <c r="O21" s="158"/>
-      <c r="P21" s="238"/>
+      <c r="P21" s="239"/>
       <c r="Q21" s="116"/>
-      <c r="R21" s="234"/>
+      <c r="R21" s="235"/>
       <c r="S21" s="158" t="s">
         <v>36</v>
       </c>
@@ -7642,10 +7928,10 @@
       <c r="W21" s="158"/>
       <c r="X21" s="158"/>
       <c r="Y21" s="163"/>
-      <c r="Z21" s="238"/>
+      <c r="Z21" s="239"/>
       <c r="AA21" s="105"/>
       <c r="AC21" s="104"/>
-      <c r="AD21" s="234"/>
+      <c r="AD21" s="235"/>
       <c r="AE21" s="172" t="s">
         <v>27</v>
       </c>
@@ -7660,11 +7946,11 @@
       <c r="AN21" s="143"/>
       <c r="AO21" s="143"/>
       <c r="AP21" s="143"/>
-      <c r="AQ21" s="244">
+      <c r="AQ21" s="245">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR21" s="244"/>
-      <c r="AS21" s="238"/>
+      <c r="AR21" s="245"/>
+      <c r="AS21" s="239"/>
       <c r="AT21" s="105"/>
       <c r="AV21" s="104"/>
       <c r="AW21" s="128" t="s">
@@ -7691,7 +7977,7 @@
     </row>
     <row r="22" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="104"/>
-      <c r="C22" s="234"/>
+      <c r="C22" s="235"/>
       <c r="D22" s="143"/>
       <c r="E22" s="143"/>
       <c r="F22" s="143"/>
@@ -7704,9 +7990,9 @@
       <c r="M22" s="143"/>
       <c r="N22" s="143"/>
       <c r="O22" s="143"/>
-      <c r="P22" s="238"/>
+      <c r="P22" s="239"/>
       <c r="Q22" s="109"/>
-      <c r="R22" s="234"/>
+      <c r="R22" s="235"/>
       <c r="S22" s="143"/>
       <c r="T22" s="143"/>
       <c r="U22" s="143"/>
@@ -7714,25 +8000,25 @@
       <c r="W22" s="143"/>
       <c r="X22" s="143"/>
       <c r="Y22" s="163"/>
-      <c r="Z22" s="238"/>
+      <c r="Z22" s="239"/>
       <c r="AA22" s="105"/>
       <c r="AC22" s="104"/>
-      <c r="AD22" s="234"/>
-      <c r="AE22" s="245"/>
-      <c r="AF22" s="245"/>
-      <c r="AG22" s="245"/>
-      <c r="AH22" s="245"/>
-      <c r="AI22" s="245"/>
-      <c r="AJ22" s="245"/>
-      <c r="AK22" s="245"/>
-      <c r="AL22" s="245"/>
-      <c r="AM22" s="245"/>
-      <c r="AN22" s="245"/>
-      <c r="AO22" s="245"/>
-      <c r="AP22" s="245"/>
-      <c r="AQ22" s="245"/>
-      <c r="AR22" s="245"/>
-      <c r="AS22" s="238"/>
+      <c r="AD22" s="235"/>
+      <c r="AE22" s="246"/>
+      <c r="AF22" s="246"/>
+      <c r="AG22" s="246"/>
+      <c r="AH22" s="246"/>
+      <c r="AI22" s="246"/>
+      <c r="AJ22" s="246"/>
+      <c r="AK22" s="246"/>
+      <c r="AL22" s="246"/>
+      <c r="AM22" s="246"/>
+      <c r="AN22" s="246"/>
+      <c r="AO22" s="246"/>
+      <c r="AP22" s="246"/>
+      <c r="AQ22" s="246"/>
+      <c r="AR22" s="246"/>
+      <c r="AS22" s="239"/>
       <c r="AT22" s="105"/>
       <c r="AV22" s="104"/>
       <c r="AW22" s="95"/>
@@ -7755,7 +8041,7 @@
     </row>
     <row r="23" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="104"/>
-      <c r="C23" s="234"/>
+      <c r="C23" s="235"/>
       <c r="D23" s="143"/>
       <c r="E23" s="143"/>
       <c r="F23" s="143"/>
@@ -7768,9 +8054,9 @@
       <c r="M23" s="143"/>
       <c r="N23" s="143"/>
       <c r="O23" s="143"/>
-      <c r="P23" s="238"/>
+      <c r="P23" s="239"/>
       <c r="Q23" s="109"/>
-      <c r="R23" s="234"/>
+      <c r="R23" s="235"/>
       <c r="S23" s="143"/>
       <c r="T23" s="143"/>
       <c r="U23" s="143"/>
@@ -7778,25 +8064,25 @@
       <c r="W23" s="143"/>
       <c r="X23" s="143"/>
       <c r="Y23" s="163"/>
-      <c r="Z23" s="238"/>
+      <c r="Z23" s="239"/>
       <c r="AA23" s="105"/>
       <c r="AC23" s="104"/>
-      <c r="AD23" s="234"/>
-      <c r="AE23" s="245"/>
-      <c r="AF23" s="245"/>
-      <c r="AG23" s="245"/>
-      <c r="AH23" s="245"/>
-      <c r="AI23" s="245"/>
-      <c r="AJ23" s="245"/>
-      <c r="AK23" s="245"/>
-      <c r="AL23" s="245"/>
-      <c r="AM23" s="245"/>
-      <c r="AN23" s="245"/>
-      <c r="AO23" s="245"/>
-      <c r="AP23" s="245"/>
-      <c r="AQ23" s="245"/>
-      <c r="AR23" s="245"/>
-      <c r="AS23" s="238"/>
+      <c r="AD23" s="235"/>
+      <c r="AE23" s="246"/>
+      <c r="AF23" s="246"/>
+      <c r="AG23" s="246"/>
+      <c r="AH23" s="246"/>
+      <c r="AI23" s="246"/>
+      <c r="AJ23" s="246"/>
+      <c r="AK23" s="246"/>
+      <c r="AL23" s="246"/>
+      <c r="AM23" s="246"/>
+      <c r="AN23" s="246"/>
+      <c r="AO23" s="246"/>
+      <c r="AP23" s="246"/>
+      <c r="AQ23" s="246"/>
+      <c r="AR23" s="246"/>
+      <c r="AS23" s="239"/>
       <c r="AT23" s="105"/>
       <c r="AV23" s="104"/>
       <c r="AW23" s="95"/>
@@ -7819,7 +8105,7 @@
     </row>
     <row r="24" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B24" s="104"/>
-      <c r="C24" s="234"/>
+      <c r="C24" s="235"/>
       <c r="D24" s="165" t="s">
         <v>102</v>
       </c>
@@ -7834,9 +8120,9 @@
       <c r="M24" s="153"/>
       <c r="N24" s="153"/>
       <c r="O24" s="163"/>
-      <c r="P24" s="238"/>
+      <c r="P24" s="239"/>
       <c r="Q24" s="100"/>
-      <c r="R24" s="234"/>
+      <c r="R24" s="235"/>
       <c r="S24" s="163"/>
       <c r="T24" s="163"/>
       <c r="U24" s="163"/>
@@ -7844,10 +8130,10 @@
       <c r="W24" s="163"/>
       <c r="X24" s="163"/>
       <c r="Y24" s="163"/>
-      <c r="Z24" s="238"/>
+      <c r="Z24" s="239"/>
       <c r="AA24" s="105"/>
       <c r="AC24" s="104"/>
-      <c r="AD24" s="234"/>
+      <c r="AD24" s="235"/>
       <c r="AE24" s="173" t="s">
         <v>26</v>
       </c>
@@ -7864,7 +8150,7 @@
       <c r="AP24" s="144"/>
       <c r="AQ24" s="144"/>
       <c r="AR24" s="145"/>
-      <c r="AS24" s="238"/>
+      <c r="AS24" s="239"/>
       <c r="AT24" s="105"/>
       <c r="AV24" s="104"/>
       <c r="AW24" s="139" t="s">
@@ -7891,7 +8177,7 @@
     </row>
     <row r="25" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B25" s="104"/>
-      <c r="C25" s="234"/>
+      <c r="C25" s="235"/>
       <c r="D25" s="166" t="s">
         <v>103</v>
       </c>
@@ -7906,9 +8192,9 @@
       <c r="M25" s="167"/>
       <c r="N25" s="167"/>
       <c r="O25" s="163"/>
-      <c r="P25" s="238"/>
+      <c r="P25" s="239"/>
       <c r="Q25" s="100"/>
-      <c r="R25" s="234"/>
+      <c r="R25" s="235"/>
       <c r="S25" s="163"/>
       <c r="T25" s="163"/>
       <c r="U25" s="163"/>
@@ -7916,10 +8202,10 @@
       <c r="W25" s="163"/>
       <c r="X25" s="163"/>
       <c r="Y25" s="163"/>
-      <c r="Z25" s="238"/>
+      <c r="Z25" s="239"/>
       <c r="AA25" s="105"/>
       <c r="AC25" s="104"/>
-      <c r="AD25" s="234"/>
+      <c r="AD25" s="235"/>
       <c r="AE25" s="174" t="s">
         <v>28</v>
       </c>
@@ -7934,11 +8220,11 @@
       <c r="AN25" s="146"/>
       <c r="AO25" s="146"/>
       <c r="AP25" s="146"/>
-      <c r="AQ25" s="246">
+      <c r="AQ25" s="247">
         <v>0.37986111111111115</v>
       </c>
-      <c r="AR25" s="246"/>
-      <c r="AS25" s="238"/>
+      <c r="AR25" s="247"/>
+      <c r="AS25" s="239"/>
       <c r="AT25" s="105"/>
       <c r="AV25" s="104"/>
       <c r="AW25" s="140" t="s">
@@ -7965,7 +8251,7 @@
     </row>
     <row r="26" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="104"/>
-      <c r="C26" s="234"/>
+      <c r="C26" s="235"/>
       <c r="D26" s="167"/>
       <c r="E26" s="167"/>
       <c r="F26" s="167"/>
@@ -7978,9 +8264,9 @@
       <c r="M26" s="167"/>
       <c r="N26" s="167"/>
       <c r="O26" s="163"/>
-      <c r="P26" s="238"/>
+      <c r="P26" s="239"/>
       <c r="Q26" s="100"/>
-      <c r="R26" s="234"/>
+      <c r="R26" s="235"/>
       <c r="S26" s="163"/>
       <c r="T26" s="163"/>
       <c r="U26" s="163"/>
@@ -7988,25 +8274,25 @@
       <c r="W26" s="163"/>
       <c r="X26" s="163"/>
       <c r="Y26" s="163"/>
-      <c r="Z26" s="238"/>
+      <c r="Z26" s="239"/>
       <c r="AA26" s="105"/>
       <c r="AC26" s="104"/>
-      <c r="AD26" s="234"/>
-      <c r="AE26" s="237"/>
-      <c r="AF26" s="237"/>
-      <c r="AG26" s="237"/>
-      <c r="AH26" s="237"/>
-      <c r="AI26" s="237"/>
-      <c r="AJ26" s="237"/>
-      <c r="AK26" s="237"/>
-      <c r="AL26" s="237"/>
-      <c r="AM26" s="237"/>
-      <c r="AN26" s="237"/>
-      <c r="AO26" s="237"/>
-      <c r="AP26" s="237"/>
-      <c r="AQ26" s="237"/>
-      <c r="AR26" s="237"/>
-      <c r="AS26" s="238"/>
+      <c r="AD26" s="235"/>
+      <c r="AE26" s="238"/>
+      <c r="AF26" s="238"/>
+      <c r="AG26" s="238"/>
+      <c r="AH26" s="238"/>
+      <c r="AI26" s="238"/>
+      <c r="AJ26" s="238"/>
+      <c r="AK26" s="238"/>
+      <c r="AL26" s="238"/>
+      <c r="AM26" s="238"/>
+      <c r="AN26" s="238"/>
+      <c r="AO26" s="238"/>
+      <c r="AP26" s="238"/>
+      <c r="AQ26" s="238"/>
+      <c r="AR26" s="238"/>
+      <c r="AS26" s="239"/>
       <c r="AT26" s="105"/>
       <c r="AV26" s="104"/>
       <c r="AW26" s="98"/>
@@ -8029,7 +8315,7 @@
     </row>
     <row r="27" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="104"/>
-      <c r="C27" s="234"/>
+      <c r="C27" s="235"/>
       <c r="D27" s="167"/>
       <c r="E27" s="167"/>
       <c r="F27" s="167"/>
@@ -8042,9 +8328,9 @@
       <c r="M27" s="167"/>
       <c r="N27" s="167"/>
       <c r="O27" s="163"/>
-      <c r="P27" s="238"/>
+      <c r="P27" s="239"/>
       <c r="Q27" s="100"/>
-      <c r="R27" s="234"/>
+      <c r="R27" s="235"/>
       <c r="S27" s="163"/>
       <c r="T27" s="163"/>
       <c r="U27" s="163"/>
@@ -8052,25 +8338,25 @@
       <c r="W27" s="163"/>
       <c r="X27" s="163"/>
       <c r="Y27" s="163"/>
-      <c r="Z27" s="238"/>
+      <c r="Z27" s="239"/>
       <c r="AA27" s="105"/>
       <c r="AC27" s="104"/>
-      <c r="AD27" s="234"/>
-      <c r="AE27" s="237"/>
-      <c r="AF27" s="237"/>
-      <c r="AG27" s="237"/>
-      <c r="AH27" s="237"/>
-      <c r="AI27" s="237"/>
-      <c r="AJ27" s="237"/>
-      <c r="AK27" s="237"/>
-      <c r="AL27" s="237"/>
-      <c r="AM27" s="237"/>
-      <c r="AN27" s="237"/>
-      <c r="AO27" s="237"/>
-      <c r="AP27" s="237"/>
-      <c r="AQ27" s="237"/>
-      <c r="AR27" s="237"/>
-      <c r="AS27" s="238"/>
+      <c r="AD27" s="235"/>
+      <c r="AE27" s="238"/>
+      <c r="AF27" s="238"/>
+      <c r="AG27" s="238"/>
+      <c r="AH27" s="238"/>
+      <c r="AI27" s="238"/>
+      <c r="AJ27" s="238"/>
+      <c r="AK27" s="238"/>
+      <c r="AL27" s="238"/>
+      <c r="AM27" s="238"/>
+      <c r="AN27" s="238"/>
+      <c r="AO27" s="238"/>
+      <c r="AP27" s="238"/>
+      <c r="AQ27" s="238"/>
+      <c r="AR27" s="238"/>
+      <c r="AS27" s="239"/>
       <c r="AT27" s="105"/>
       <c r="AV27" s="104"/>
       <c r="AW27" s="98"/>
@@ -8093,7 +8379,7 @@
     </row>
     <row r="28" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B28" s="104"/>
-      <c r="C28" s="234"/>
+      <c r="C28" s="235"/>
       <c r="D28" s="168" t="s">
         <v>43</v>
       </c>
@@ -8108,9 +8394,9 @@
       <c r="M28" s="148"/>
       <c r="N28" s="148"/>
       <c r="O28" s="163"/>
-      <c r="P28" s="238"/>
+      <c r="P28" s="239"/>
       <c r="Q28" s="100"/>
-      <c r="R28" s="234"/>
+      <c r="R28" s="235"/>
       <c r="S28" s="163"/>
       <c r="T28" s="163"/>
       <c r="U28" s="163"/>
@@ -8118,10 +8404,10 @@
       <c r="W28" s="163"/>
       <c r="X28" s="163"/>
       <c r="Y28" s="155"/>
-      <c r="Z28" s="238"/>
+      <c r="Z28" s="239"/>
       <c r="AA28" s="105"/>
       <c r="AC28" s="104"/>
-      <c r="AD28" s="234"/>
+      <c r="AD28" s="235"/>
       <c r="AE28" s="175" t="s">
         <v>29</v>
       </c>
@@ -8136,11 +8422,11 @@
       <c r="AN28" s="147"/>
       <c r="AO28" s="147"/>
       <c r="AP28" s="147"/>
-      <c r="AQ28" s="241">
+      <c r="AQ28" s="242">
         <v>0.38055555555555554</v>
       </c>
-      <c r="AR28" s="241"/>
-      <c r="AS28" s="238"/>
+      <c r="AR28" s="242"/>
+      <c r="AS28" s="239"/>
       <c r="AT28" s="105"/>
       <c r="AV28" s="104"/>
       <c r="AW28" s="133" t="s">
@@ -8167,7 +8453,7 @@
     </row>
     <row r="29" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="104"/>
-      <c r="C29" s="234"/>
+      <c r="C29" s="235"/>
       <c r="D29" s="148"/>
       <c r="E29" s="148"/>
       <c r="F29" s="148"/>
@@ -8180,9 +8466,9 @@
       <c r="M29" s="148"/>
       <c r="N29" s="148"/>
       <c r="O29" s="163"/>
-      <c r="P29" s="238"/>
+      <c r="P29" s="239"/>
       <c r="Q29" s="100"/>
-      <c r="R29" s="234"/>
+      <c r="R29" s="235"/>
       <c r="S29" s="163"/>
       <c r="T29" s="163"/>
       <c r="U29" s="163"/>
@@ -8190,10 +8476,10 @@
       <c r="W29" s="163"/>
       <c r="X29" s="163"/>
       <c r="Y29" s="163"/>
-      <c r="Z29" s="238"/>
+      <c r="Z29" s="239"/>
       <c r="AA29" s="105"/>
       <c r="AC29" s="104"/>
-      <c r="AD29" s="234"/>
+      <c r="AD29" s="235"/>
       <c r="AE29" s="148"/>
       <c r="AF29" s="148"/>
       <c r="AG29" s="148"/>
@@ -8208,7 +8494,7 @@
       <c r="AP29" s="148"/>
       <c r="AQ29" s="148"/>
       <c r="AR29" s="145"/>
-      <c r="AS29" s="238"/>
+      <c r="AS29" s="239"/>
       <c r="AT29" s="105"/>
       <c r="AV29" s="104"/>
       <c r="AW29" s="99"/>
@@ -8231,7 +8517,7 @@
     </row>
     <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" s="104"/>
-      <c r="C30" s="234"/>
+      <c r="C30" s="235"/>
       <c r="D30" s="150"/>
       <c r="E30" s="150"/>
       <c r="F30" s="163"/>
@@ -8244,9 +8530,9 @@
       <c r="M30" s="163"/>
       <c r="N30" s="163"/>
       <c r="O30" s="163"/>
-      <c r="P30" s="238"/>
+      <c r="P30" s="239"/>
       <c r="Q30" s="100"/>
-      <c r="R30" s="234"/>
+      <c r="R30" s="235"/>
       <c r="S30" s="163"/>
       <c r="T30" s="163"/>
       <c r="U30" s="163"/>
@@ -8254,10 +8540,10 @@
       <c r="W30" s="163"/>
       <c r="X30" s="163"/>
       <c r="Y30" s="163"/>
-      <c r="Z30" s="238"/>
+      <c r="Z30" s="239"/>
       <c r="AA30" s="105"/>
       <c r="AC30" s="104"/>
-      <c r="AD30" s="234"/>
+      <c r="AD30" s="235"/>
       <c r="AE30" s="145"/>
       <c r="AF30" s="145"/>
       <c r="AG30" s="145"/>
@@ -8272,7 +8558,7 @@
       <c r="AP30" s="145"/>
       <c r="AQ30" s="145"/>
       <c r="AR30" s="145"/>
-      <c r="AS30" s="238"/>
+      <c r="AS30" s="239"/>
       <c r="AT30" s="105"/>
       <c r="AV30" s="104"/>
       <c r="AW30" s="133" t="s">
@@ -8299,7 +8585,7 @@
     </row>
     <row r="31" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B31" s="104"/>
-      <c r="C31" s="234"/>
+      <c r="C31" s="235"/>
       <c r="D31" s="163"/>
       <c r="E31" s="163"/>
       <c r="F31" s="163"/>
@@ -8312,9 +8598,9 @@
       <c r="M31" s="163"/>
       <c r="N31" s="163"/>
       <c r="O31" s="163"/>
-      <c r="P31" s="238"/>
+      <c r="P31" s="239"/>
       <c r="Q31" s="100"/>
-      <c r="R31" s="234"/>
+      <c r="R31" s="235"/>
       <c r="S31" s="163"/>
       <c r="T31" s="163"/>
       <c r="U31" s="163"/>
@@ -8322,10 +8608,10 @@
       <c r="W31" s="163"/>
       <c r="X31" s="163"/>
       <c r="Y31" s="163"/>
-      <c r="Z31" s="238"/>
+      <c r="Z31" s="239"/>
       <c r="AA31" s="105"/>
       <c r="AC31" s="104"/>
-      <c r="AD31" s="234"/>
+      <c r="AD31" s="235"/>
       <c r="AE31" s="145"/>
       <c r="AF31" s="145"/>
       <c r="AG31" s="145"/>
@@ -8340,7 +8626,7 @@
       <c r="AP31" s="145"/>
       <c r="AQ31" s="145"/>
       <c r="AR31" s="145"/>
-      <c r="AS31" s="238"/>
+      <c r="AS31" s="239"/>
       <c r="AT31" s="105"/>
       <c r="AV31" s="104"/>
       <c r="AW31" s="99"/>
@@ -8363,48 +8649,48 @@
     </row>
     <row r="32" spans="2:66" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="104"/>
-      <c r="C32" s="234"/>
-      <c r="D32" s="235"/>
-      <c r="E32" s="235"/>
-      <c r="F32" s="235"/>
-      <c r="G32" s="235"/>
-      <c r="H32" s="235"/>
-      <c r="I32" s="235"/>
-      <c r="J32" s="235"/>
-      <c r="K32" s="235"/>
-      <c r="L32" s="235"/>
-      <c r="M32" s="235"/>
-      <c r="N32" s="235"/>
-      <c r="O32" s="235"/>
-      <c r="P32" s="235"/>
+      <c r="C32" s="235"/>
+      <c r="D32" s="236"/>
+      <c r="E32" s="236"/>
+      <c r="F32" s="236"/>
+      <c r="G32" s="236"/>
+      <c r="H32" s="236"/>
+      <c r="I32" s="236"/>
+      <c r="J32" s="236"/>
+      <c r="K32" s="236"/>
+      <c r="L32" s="236"/>
+      <c r="M32" s="236"/>
+      <c r="N32" s="236"/>
+      <c r="O32" s="236"/>
+      <c r="P32" s="236"/>
       <c r="Q32" s="100"/>
-      <c r="R32" s="234"/>
-      <c r="S32" s="235"/>
-      <c r="T32" s="235"/>
-      <c r="U32" s="235"/>
-      <c r="V32" s="235"/>
-      <c r="W32" s="235"/>
-      <c r="X32" s="235"/>
-      <c r="Y32" s="235"/>
-      <c r="Z32" s="235"/>
+      <c r="R32" s="235"/>
+      <c r="S32" s="236"/>
+      <c r="T32" s="236"/>
+      <c r="U32" s="236"/>
+      <c r="V32" s="236"/>
+      <c r="W32" s="236"/>
+      <c r="X32" s="236"/>
+      <c r="Y32" s="236"/>
+      <c r="Z32" s="236"/>
       <c r="AA32" s="105"/>
       <c r="AC32" s="104"/>
-      <c r="AD32" s="234"/>
-      <c r="AE32" s="238"/>
-      <c r="AF32" s="238"/>
-      <c r="AG32" s="238"/>
-      <c r="AH32" s="238"/>
-      <c r="AI32" s="238"/>
-      <c r="AJ32" s="238"/>
-      <c r="AK32" s="238"/>
-      <c r="AL32" s="238"/>
-      <c r="AM32" s="238"/>
-      <c r="AN32" s="238"/>
-      <c r="AO32" s="238"/>
-      <c r="AP32" s="238"/>
-      <c r="AQ32" s="238"/>
-      <c r="AR32" s="238"/>
-      <c r="AS32" s="238"/>
+      <c r="AD32" s="235"/>
+      <c r="AE32" s="239"/>
+      <c r="AF32" s="239"/>
+      <c r="AG32" s="239"/>
+      <c r="AH32" s="239"/>
+      <c r="AI32" s="239"/>
+      <c r="AJ32" s="239"/>
+      <c r="AK32" s="239"/>
+      <c r="AL32" s="239"/>
+      <c r="AM32" s="239"/>
+      <c r="AN32" s="239"/>
+      <c r="AO32" s="239"/>
+      <c r="AP32" s="239"/>
+      <c r="AQ32" s="239"/>
+      <c r="AR32" s="239"/>
+      <c r="AS32" s="239"/>
       <c r="AT32" s="105"/>
       <c r="AV32" s="104"/>
       <c r="AW32" s="99"/>
@@ -8495,48 +8781,48 @@
     </row>
     <row r="34" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="104"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="234"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="234"/>
-      <c r="G34" s="234"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="234"/>
-      <c r="K34" s="234"/>
-      <c r="L34" s="234"/>
-      <c r="M34" s="234"/>
-      <c r="N34" s="234"/>
-      <c r="O34" s="234"/>
-      <c r="P34" s="234"/>
-      <c r="Q34" s="234"/>
-      <c r="R34" s="234"/>
-      <c r="S34" s="234"/>
-      <c r="T34" s="234"/>
-      <c r="U34" s="234"/>
-      <c r="V34" s="234"/>
-      <c r="W34" s="234"/>
-      <c r="X34" s="234"/>
-      <c r="Y34" s="234"/>
-      <c r="Z34" s="234"/>
+      <c r="C34" s="235"/>
+      <c r="D34" s="235"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
+      <c r="K34" s="235"/>
+      <c r="L34" s="235"/>
+      <c r="M34" s="235"/>
+      <c r="N34" s="235"/>
+      <c r="O34" s="235"/>
+      <c r="P34" s="235"/>
+      <c r="Q34" s="235"/>
+      <c r="R34" s="235"/>
+      <c r="S34" s="235"/>
+      <c r="T34" s="235"/>
+      <c r="U34" s="235"/>
+      <c r="V34" s="235"/>
+      <c r="W34" s="235"/>
+      <c r="X34" s="235"/>
+      <c r="Y34" s="235"/>
+      <c r="Z34" s="235"/>
       <c r="AA34" s="105"/>
       <c r="AC34" s="104"/>
-      <c r="AD34" s="234"/>
-      <c r="AE34" s="234"/>
-      <c r="AF34" s="234"/>
-      <c r="AG34" s="234"/>
-      <c r="AH34" s="234"/>
-      <c r="AI34" s="234"/>
-      <c r="AJ34" s="234"/>
-      <c r="AK34" s="234"/>
-      <c r="AL34" s="234"/>
-      <c r="AM34" s="234"/>
-      <c r="AN34" s="234"/>
-      <c r="AO34" s="234"/>
-      <c r="AP34" s="234"/>
-      <c r="AQ34" s="234"/>
-      <c r="AR34" s="234"/>
-      <c r="AS34" s="234"/>
+      <c r="AD34" s="235"/>
+      <c r="AE34" s="235"/>
+      <c r="AF34" s="235"/>
+      <c r="AG34" s="235"/>
+      <c r="AH34" s="235"/>
+      <c r="AI34" s="235"/>
+      <c r="AJ34" s="235"/>
+      <c r="AK34" s="235"/>
+      <c r="AL34" s="235"/>
+      <c r="AM34" s="235"/>
+      <c r="AN34" s="235"/>
+      <c r="AO34" s="235"/>
+      <c r="AP34" s="235"/>
+      <c r="AQ34" s="235"/>
+      <c r="AR34" s="235"/>
+      <c r="AS34" s="235"/>
       <c r="AT34" s="105"/>
       <c r="AV34" s="104"/>
       <c r="AW34" s="89"/>
@@ -8559,51 +8845,51 @@
     </row>
     <row r="35" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B35" s="104"/>
-      <c r="C35" s="234"/>
-      <c r="D35" s="261" t="s">
+      <c r="C35" s="235"/>
+      <c r="D35" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="261"/>
-      <c r="F35" s="261"/>
-      <c r="G35" s="261"/>
-      <c r="H35" s="261"/>
-      <c r="I35" s="261"/>
-      <c r="J35" s="261"/>
-      <c r="K35" s="261"/>
-      <c r="L35" s="261"/>
-      <c r="M35" s="261"/>
-      <c r="N35" s="261"/>
-      <c r="O35" s="261"/>
-      <c r="P35" s="261"/>
-      <c r="Q35" s="261"/>
-      <c r="R35" s="261"/>
-      <c r="S35" s="261"/>
-      <c r="T35" s="261"/>
-      <c r="U35" s="261"/>
-      <c r="V35" s="261"/>
-      <c r="W35" s="261"/>
-      <c r="X35" s="261"/>
-      <c r="Y35" s="261"/>
+      <c r="E35" s="262"/>
+      <c r="F35" s="262"/>
+      <c r="G35" s="262"/>
+      <c r="H35" s="262"/>
+      <c r="I35" s="262"/>
+      <c r="J35" s="262"/>
+      <c r="K35" s="262"/>
+      <c r="L35" s="262"/>
+      <c r="M35" s="262"/>
+      <c r="N35" s="262"/>
+      <c r="O35" s="262"/>
+      <c r="P35" s="262"/>
+      <c r="Q35" s="262"/>
+      <c r="R35" s="262"/>
+      <c r="S35" s="262"/>
+      <c r="T35" s="262"/>
+      <c r="U35" s="262"/>
+      <c r="V35" s="262"/>
+      <c r="W35" s="262"/>
+      <c r="X35" s="262"/>
+      <c r="Y35" s="262"/>
       <c r="Z35" s="169"/>
       <c r="AA35" s="105"/>
       <c r="AC35" s="104"/>
-      <c r="AD35" s="234"/>
-      <c r="AE35" s="261" t="s">
+      <c r="AD35" s="235"/>
+      <c r="AE35" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="AF35" s="261"/>
-      <c r="AG35" s="261"/>
-      <c r="AH35" s="261"/>
-      <c r="AI35" s="261"/>
-      <c r="AJ35" s="261"/>
-      <c r="AK35" s="261"/>
-      <c r="AL35" s="261"/>
-      <c r="AM35" s="261"/>
-      <c r="AN35" s="261"/>
-      <c r="AO35" s="261"/>
-      <c r="AP35" s="261"/>
-      <c r="AQ35" s="261"/>
-      <c r="AR35" s="261"/>
+      <c r="AF35" s="262"/>
+      <c r="AG35" s="262"/>
+      <c r="AH35" s="262"/>
+      <c r="AI35" s="262"/>
+      <c r="AJ35" s="262"/>
+      <c r="AK35" s="262"/>
+      <c r="AL35" s="262"/>
+      <c r="AM35" s="262"/>
+      <c r="AN35" s="262"/>
+      <c r="AO35" s="262"/>
+      <c r="AP35" s="262"/>
+      <c r="AQ35" s="262"/>
+      <c r="AR35" s="262"/>
       <c r="AS35" s="169"/>
       <c r="AT35" s="105"/>
       <c r="AV35" s="104"/>
@@ -8631,48 +8917,48 @@
     </row>
     <row r="36" spans="1:69" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="104"/>
-      <c r="C36" s="234"/>
-      <c r="D36" s="238"/>
-      <c r="E36" s="238"/>
-      <c r="F36" s="238"/>
-      <c r="G36" s="238"/>
-      <c r="H36" s="238"/>
-      <c r="I36" s="238"/>
-      <c r="J36" s="238"/>
-      <c r="K36" s="238"/>
-      <c r="L36" s="238"/>
-      <c r="M36" s="238"/>
-      <c r="N36" s="238"/>
-      <c r="O36" s="238"/>
-      <c r="P36" s="238"/>
-      <c r="Q36" s="238"/>
-      <c r="R36" s="238"/>
-      <c r="S36" s="238"/>
-      <c r="T36" s="238"/>
-      <c r="U36" s="238"/>
-      <c r="V36" s="238"/>
-      <c r="W36" s="238"/>
-      <c r="X36" s="238"/>
-      <c r="Y36" s="238"/>
-      <c r="Z36" s="238"/>
+      <c r="C36" s="235"/>
+      <c r="D36" s="239"/>
+      <c r="E36" s="239"/>
+      <c r="F36" s="239"/>
+      <c r="G36" s="239"/>
+      <c r="H36" s="239"/>
+      <c r="I36" s="239"/>
+      <c r="J36" s="239"/>
+      <c r="K36" s="239"/>
+      <c r="L36" s="239"/>
+      <c r="M36" s="239"/>
+      <c r="N36" s="239"/>
+      <c r="O36" s="239"/>
+      <c r="P36" s="239"/>
+      <c r="Q36" s="239"/>
+      <c r="R36" s="239"/>
+      <c r="S36" s="239"/>
+      <c r="T36" s="239"/>
+      <c r="U36" s="239"/>
+      <c r="V36" s="239"/>
+      <c r="W36" s="239"/>
+      <c r="X36" s="239"/>
+      <c r="Y36" s="239"/>
+      <c r="Z36" s="239"/>
       <c r="AA36" s="105"/>
       <c r="AC36" s="104"/>
-      <c r="AD36" s="234"/>
-      <c r="AE36" s="238"/>
-      <c r="AF36" s="238"/>
-      <c r="AG36" s="238"/>
-      <c r="AH36" s="238"/>
-      <c r="AI36" s="238"/>
-      <c r="AJ36" s="238"/>
-      <c r="AK36" s="238"/>
-      <c r="AL36" s="238"/>
-      <c r="AM36" s="238"/>
-      <c r="AN36" s="238"/>
-      <c r="AO36" s="238"/>
-      <c r="AP36" s="238"/>
-      <c r="AQ36" s="238"/>
-      <c r="AR36" s="238"/>
-      <c r="AS36" s="238"/>
+      <c r="AD36" s="235"/>
+      <c r="AE36" s="239"/>
+      <c r="AF36" s="239"/>
+      <c r="AG36" s="239"/>
+      <c r="AH36" s="239"/>
+      <c r="AI36" s="239"/>
+      <c r="AJ36" s="239"/>
+      <c r="AK36" s="239"/>
+      <c r="AL36" s="239"/>
+      <c r="AM36" s="239"/>
+      <c r="AN36" s="239"/>
+      <c r="AO36" s="239"/>
+      <c r="AP36" s="239"/>
+      <c r="AQ36" s="239"/>
+      <c r="AR36" s="239"/>
+      <c r="AS36" s="239"/>
       <c r="AT36" s="105"/>
       <c r="AU36" s="77"/>
       <c r="AV36" s="104"/>
@@ -8896,13 +9182,13 @@
       <c r="B41" s="104"/>
       <c r="C41" s="100"/>
       <c r="D41" s="100"/>
-      <c r="E41" s="239"/>
-      <c r="F41" s="239"/>
-      <c r="G41" s="239"/>
-      <c r="H41" s="239"/>
-      <c r="I41" s="239"/>
-      <c r="J41" s="239"/>
-      <c r="K41" s="239"/>
+      <c r="E41" s="240"/>
+      <c r="F41" s="240"/>
+      <c r="G41" s="240"/>
+      <c r="H41" s="240"/>
+      <c r="I41" s="240"/>
+      <c r="J41" s="240"/>
+      <c r="K41" s="240"/>
       <c r="L41" s="105"/>
       <c r="M41" s="77"/>
       <c r="N41" s="77"/>
@@ -9027,77 +9313,77 @@
       <c r="J44" s="259"/>
       <c r="K44" s="259"/>
       <c r="L44" s="259"/>
-      <c r="M44" s="193" t="s">
+      <c r="M44" s="194" t="s">
         <v>58</v>
       </c>
-      <c r="N44" s="193"/>
-      <c r="O44" s="193"/>
-      <c r="P44" s="193"/>
-      <c r="Q44" s="193"/>
-      <c r="R44" s="193"/>
-      <c r="S44" s="193"/>
-      <c r="T44" s="193"/>
-      <c r="U44" s="193"/>
-      <c r="V44" s="233" t="s">
+      <c r="N44" s="194"/>
+      <c r="O44" s="194"/>
+      <c r="P44" s="194"/>
+      <c r="Q44" s="194"/>
+      <c r="R44" s="194"/>
+      <c r="S44" s="194"/>
+      <c r="T44" s="194"/>
+      <c r="U44" s="194"/>
+      <c r="V44" s="234" t="s">
         <v>98</v>
       </c>
-      <c r="W44" s="233"/>
-      <c r="X44" s="233"/>
-      <c r="Y44" s="233"/>
-      <c r="Z44" s="233"/>
-      <c r="AA44" s="233"/>
-      <c r="AB44" s="233"/>
-      <c r="AC44" s="233"/>
-      <c r="AD44" s="233"/>
-      <c r="AE44" s="233"/>
-      <c r="AF44" s="233"/>
-      <c r="AG44" s="233"/>
-      <c r="AH44" s="193" t="s">
+      <c r="W44" s="234"/>
+      <c r="X44" s="234"/>
+      <c r="Y44" s="234"/>
+      <c r="Z44" s="234"/>
+      <c r="AA44" s="234"/>
+      <c r="AB44" s="234"/>
+      <c r="AC44" s="234"/>
+      <c r="AD44" s="234"/>
+      <c r="AE44" s="234"/>
+      <c r="AF44" s="234"/>
+      <c r="AG44" s="234"/>
+      <c r="AH44" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="AI44" s="193"/>
-      <c r="AJ44" s="193"/>
-      <c r="AK44" s="193"/>
-      <c r="AL44" s="193"/>
-      <c r="AM44" s="193"/>
-      <c r="AN44" s="193"/>
-      <c r="AO44" s="193"/>
-      <c r="AP44" s="230" t="s">
+      <c r="AI44" s="194"/>
+      <c r="AJ44" s="194"/>
+      <c r="AK44" s="194"/>
+      <c r="AL44" s="194"/>
+      <c r="AM44" s="194"/>
+      <c r="AN44" s="194"/>
+      <c r="AO44" s="194"/>
+      <c r="AP44" s="231" t="s">
         <v>74</v>
       </c>
-      <c r="AQ44" s="230"/>
-      <c r="AR44" s="230"/>
-      <c r="AS44" s="230"/>
-      <c r="AT44" s="230"/>
-      <c r="AU44" s="230"/>
-      <c r="AV44" s="230"/>
-      <c r="AW44" s="230"/>
-      <c r="AX44" s="230"/>
-      <c r="AY44" s="230"/>
-      <c r="AZ44" s="193" t="s">
+      <c r="AQ44" s="231"/>
+      <c r="AR44" s="231"/>
+      <c r="AS44" s="231"/>
+      <c r="AT44" s="231"/>
+      <c r="AU44" s="231"/>
+      <c r="AV44" s="231"/>
+      <c r="AW44" s="231"/>
+      <c r="AX44" s="231"/>
+      <c r="AY44" s="231"/>
+      <c r="AZ44" s="194" t="s">
         <v>76</v>
       </c>
-      <c r="BA44" s="193"/>
-      <c r="BB44" s="193"/>
-      <c r="BC44" s="193"/>
-      <c r="BD44" s="193"/>
-      <c r="BE44" s="233" t="s">
+      <c r="BA44" s="194"/>
+      <c r="BB44" s="194"/>
+      <c r="BC44" s="194"/>
+      <c r="BD44" s="194"/>
+      <c r="BE44" s="234" t="s">
         <v>50</v>
       </c>
-      <c r="BF44" s="233"/>
-      <c r="BG44" s="233"/>
-      <c r="BH44" s="233"/>
-      <c r="BI44" s="233"/>
-      <c r="BJ44" s="233"/>
-      <c r="BK44" s="233"/>
-      <c r="BL44" s="233"/>
-      <c r="BM44" s="193" t="s">
+      <c r="BF44" s="234"/>
+      <c r="BG44" s="234"/>
+      <c r="BH44" s="234"/>
+      <c r="BI44" s="234"/>
+      <c r="BJ44" s="234"/>
+      <c r="BK44" s="234"/>
+      <c r="BL44" s="234"/>
+      <c r="BM44" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="BN44" s="193"/>
-      <c r="BO44" s="193"/>
-      <c r="BP44" s="193"/>
-      <c r="BQ44" s="193"/>
+      <c r="BN44" s="194"/>
+      <c r="BO44" s="194"/>
+      <c r="BP44" s="194"/>
+      <c r="BQ44" s="194"/>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B45" s="259" t="s">
@@ -9113,73 +9399,73 @@
       <c r="J45" s="259"/>
       <c r="K45" s="259"/>
       <c r="L45" s="259"/>
-      <c r="M45" s="193"/>
-      <c r="N45" s="193"/>
-      <c r="O45" s="193"/>
-      <c r="P45" s="193"/>
-      <c r="Q45" s="193"/>
-      <c r="R45" s="193"/>
-      <c r="S45" s="193"/>
-      <c r="T45" s="193"/>
-      <c r="U45" s="193"/>
-      <c r="V45" s="232" t="s">
+      <c r="M45" s="194"/>
+      <c r="N45" s="194"/>
+      <c r="O45" s="194"/>
+      <c r="P45" s="194"/>
+      <c r="Q45" s="194"/>
+      <c r="R45" s="194"/>
+      <c r="S45" s="194"/>
+      <c r="T45" s="194"/>
+      <c r="U45" s="194"/>
+      <c r="V45" s="233" t="s">
         <v>77</v>
       </c>
-      <c r="W45" s="232"/>
-      <c r="X45" s="232"/>
-      <c r="Y45" s="232"/>
-      <c r="Z45" s="232"/>
-      <c r="AA45" s="232"/>
-      <c r="AB45" s="232"/>
-      <c r="AC45" s="232"/>
-      <c r="AD45" s="232"/>
-      <c r="AE45" s="232"/>
-      <c r="AF45" s="232"/>
-      <c r="AG45" s="232"/>
-      <c r="AH45" s="193" t="s">
+      <c r="W45" s="233"/>
+      <c r="X45" s="233"/>
+      <c r="Y45" s="233"/>
+      <c r="Z45" s="233"/>
+      <c r="AA45" s="233"/>
+      <c r="AB45" s="233"/>
+      <c r="AC45" s="233"/>
+      <c r="AD45" s="233"/>
+      <c r="AE45" s="233"/>
+      <c r="AF45" s="233"/>
+      <c r="AG45" s="233"/>
+      <c r="AH45" s="194" t="s">
         <v>99</v>
       </c>
-      <c r="AI45" s="193"/>
-      <c r="AJ45" s="193"/>
-      <c r="AK45" s="193"/>
-      <c r="AL45" s="193"/>
-      <c r="AM45" s="193"/>
-      <c r="AN45" s="193"/>
-      <c r="AO45" s="193"/>
-      <c r="AP45" s="229" t="s">
+      <c r="AI45" s="194"/>
+      <c r="AJ45" s="194"/>
+      <c r="AK45" s="194"/>
+      <c r="AL45" s="194"/>
+      <c r="AM45" s="194"/>
+      <c r="AN45" s="194"/>
+      <c r="AO45" s="194"/>
+      <c r="AP45" s="230" t="s">
         <v>66</v>
       </c>
-      <c r="AQ45" s="229"/>
-      <c r="AR45" s="229"/>
-      <c r="AS45" s="229"/>
-      <c r="AT45" s="229"/>
-      <c r="AU45" s="229"/>
-      <c r="AV45" s="229"/>
-      <c r="AW45" s="229"/>
-      <c r="AX45" s="229"/>
-      <c r="AY45" s="229"/>
-      <c r="AZ45" s="193"/>
-      <c r="BA45" s="193"/>
-      <c r="BB45" s="193"/>
-      <c r="BC45" s="193"/>
-      <c r="BD45" s="193"/>
-      <c r="BE45" s="230" t="s">
+      <c r="AQ45" s="230"/>
+      <c r="AR45" s="230"/>
+      <c r="AS45" s="230"/>
+      <c r="AT45" s="230"/>
+      <c r="AU45" s="230"/>
+      <c r="AV45" s="230"/>
+      <c r="AW45" s="230"/>
+      <c r="AX45" s="230"/>
+      <c r="AY45" s="230"/>
+      <c r="AZ45" s="194"/>
+      <c r="BA45" s="194"/>
+      <c r="BB45" s="194"/>
+      <c r="BC45" s="194"/>
+      <c r="BD45" s="194"/>
+      <c r="BE45" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="BF45" s="230"/>
-      <c r="BG45" s="230"/>
-      <c r="BH45" s="230"/>
-      <c r="BI45" s="230"/>
-      <c r="BJ45" s="230"/>
-      <c r="BK45" s="230"/>
-      <c r="BL45" s="230"/>
+      <c r="BF45" s="231"/>
+      <c r="BG45" s="231"/>
+      <c r="BH45" s="231"/>
+      <c r="BI45" s="231"/>
+      <c r="BJ45" s="231"/>
+      <c r="BK45" s="231"/>
+      <c r="BL45" s="231"/>
       <c r="BM45" s="224" t="s">
         <v>109</v>
       </c>
-      <c r="BN45" s="193"/>
-      <c r="BO45" s="193"/>
-      <c r="BP45" s="193"/>
-      <c r="BQ45" s="193"/>
+      <c r="BN45" s="194"/>
+      <c r="BO45" s="194"/>
+      <c r="BP45" s="194"/>
+      <c r="BQ45" s="194"/>
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B46" s="260" t="s">
@@ -9195,488 +9481,488 @@
       <c r="J46" s="260"/>
       <c r="K46" s="260"/>
       <c r="L46" s="260"/>
-      <c r="M46" s="193"/>
-      <c r="N46" s="193"/>
-      <c r="O46" s="193"/>
-      <c r="P46" s="193"/>
-      <c r="Q46" s="193"/>
-      <c r="R46" s="193"/>
-      <c r="S46" s="193"/>
-      <c r="T46" s="193"/>
-      <c r="U46" s="193"/>
-      <c r="V46" s="230" t="s">
+      <c r="M46" s="194"/>
+      <c r="N46" s="194"/>
+      <c r="O46" s="194"/>
+      <c r="P46" s="194"/>
+      <c r="Q46" s="194"/>
+      <c r="R46" s="194"/>
+      <c r="S46" s="194"/>
+      <c r="T46" s="194"/>
+      <c r="U46" s="194"/>
+      <c r="V46" s="231" t="s">
         <v>85</v>
       </c>
-      <c r="W46" s="230"/>
-      <c r="X46" s="230"/>
-      <c r="Y46" s="230"/>
-      <c r="Z46" s="230"/>
-      <c r="AA46" s="230"/>
-      <c r="AB46" s="230"/>
-      <c r="AC46" s="230"/>
-      <c r="AD46" s="230"/>
-      <c r="AE46" s="230"/>
-      <c r="AF46" s="230"/>
-      <c r="AG46" s="230"/>
+      <c r="W46" s="231"/>
+      <c r="X46" s="231"/>
+      <c r="Y46" s="231"/>
+      <c r="Z46" s="231"/>
+      <c r="AA46" s="231"/>
+      <c r="AB46" s="231"/>
+      <c r="AC46" s="231"/>
+      <c r="AD46" s="231"/>
+      <c r="AE46" s="231"/>
+      <c r="AF46" s="231"/>
+      <c r="AG46" s="231"/>
       <c r="AH46" s="224" t="s">
         <v>107</v>
       </c>
-      <c r="AI46" s="193"/>
-      <c r="AJ46" s="193"/>
-      <c r="AK46" s="193"/>
-      <c r="AL46" s="193"/>
-      <c r="AM46" s="193"/>
-      <c r="AN46" s="193"/>
-      <c r="AO46" s="193"/>
-      <c r="AP46" s="233" t="s">
+      <c r="AI46" s="194"/>
+      <c r="AJ46" s="194"/>
+      <c r="AK46" s="194"/>
+      <c r="AL46" s="194"/>
+      <c r="AM46" s="194"/>
+      <c r="AN46" s="194"/>
+      <c r="AO46" s="194"/>
+      <c r="AP46" s="234" t="s">
         <v>73</v>
       </c>
-      <c r="AQ46" s="233"/>
-      <c r="AR46" s="233"/>
-      <c r="AS46" s="233"/>
-      <c r="AT46" s="233"/>
-      <c r="AU46" s="233"/>
-      <c r="AV46" s="233"/>
-      <c r="AW46" s="233"/>
-      <c r="AX46" s="233"/>
-      <c r="AY46" s="233"/>
-      <c r="AZ46" s="193"/>
-      <c r="BA46" s="193"/>
-      <c r="BB46" s="193"/>
-      <c r="BC46" s="193"/>
-      <c r="BD46" s="193"/>
-      <c r="BE46" s="230" t="s">
+      <c r="AQ46" s="234"/>
+      <c r="AR46" s="234"/>
+      <c r="AS46" s="234"/>
+      <c r="AT46" s="234"/>
+      <c r="AU46" s="234"/>
+      <c r="AV46" s="234"/>
+      <c r="AW46" s="234"/>
+      <c r="AX46" s="234"/>
+      <c r="AY46" s="234"/>
+      <c r="AZ46" s="194"/>
+      <c r="BA46" s="194"/>
+      <c r="BB46" s="194"/>
+      <c r="BC46" s="194"/>
+      <c r="BD46" s="194"/>
+      <c r="BE46" s="231" t="s">
         <v>67</v>
       </c>
-      <c r="BF46" s="230"/>
-      <c r="BG46" s="230"/>
-      <c r="BH46" s="230"/>
-      <c r="BI46" s="230"/>
-      <c r="BJ46" s="230"/>
-      <c r="BK46" s="230"/>
-      <c r="BL46" s="230"/>
-      <c r="BM46" s="193"/>
-      <c r="BN46" s="193"/>
-      <c r="BO46" s="193"/>
-      <c r="BP46" s="193"/>
-      <c r="BQ46" s="193"/>
+      <c r="BF46" s="231"/>
+      <c r="BG46" s="231"/>
+      <c r="BH46" s="231"/>
+      <c r="BI46" s="231"/>
+      <c r="BJ46" s="231"/>
+      <c r="BK46" s="231"/>
+      <c r="BL46" s="231"/>
+      <c r="BM46" s="194"/>
+      <c r="BN46" s="194"/>
+      <c r="BO46" s="194"/>
+      <c r="BP46" s="194"/>
+      <c r="BQ46" s="194"/>
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B47" s="257" t="s">
+      <c r="B47" s="261" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="257"/>
-      <c r="D47" s="257"/>
-      <c r="E47" s="257"/>
-      <c r="F47" s="257"/>
-      <c r="G47" s="257"/>
-      <c r="H47" s="257"/>
-      <c r="I47" s="257"/>
-      <c r="J47" s="257"/>
-      <c r="K47" s="257"/>
-      <c r="L47" s="257"/>
-      <c r="M47" s="193"/>
-      <c r="N47" s="193"/>
-      <c r="O47" s="193"/>
-      <c r="P47" s="193"/>
-      <c r="Q47" s="193"/>
-      <c r="R47" s="193"/>
-      <c r="S47" s="193"/>
-      <c r="T47" s="193"/>
-      <c r="U47" s="193"/>
-      <c r="V47" s="252" t="s">
+      <c r="C47" s="261"/>
+      <c r="D47" s="261"/>
+      <c r="E47" s="261"/>
+      <c r="F47" s="261"/>
+      <c r="G47" s="261"/>
+      <c r="H47" s="261"/>
+      <c r="I47" s="261"/>
+      <c r="J47" s="261"/>
+      <c r="K47" s="261"/>
+      <c r="L47" s="261"/>
+      <c r="M47" s="194"/>
+      <c r="N47" s="194"/>
+      <c r="O47" s="194"/>
+      <c r="P47" s="194"/>
+      <c r="Q47" s="194"/>
+      <c r="R47" s="194"/>
+      <c r="S47" s="194"/>
+      <c r="T47" s="194"/>
+      <c r="U47" s="194"/>
+      <c r="V47" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="W47" s="252"/>
-      <c r="X47" s="252"/>
-      <c r="Y47" s="252"/>
-      <c r="Z47" s="252"/>
-      <c r="AA47" s="252"/>
-      <c r="AB47" s="252"/>
-      <c r="AC47" s="252"/>
-      <c r="AD47" s="252"/>
-      <c r="AE47" s="252"/>
-      <c r="AF47" s="252"/>
-      <c r="AG47" s="252"/>
-      <c r="AH47" s="193"/>
-      <c r="AI47" s="193"/>
-      <c r="AJ47" s="193"/>
-      <c r="AK47" s="193"/>
-      <c r="AL47" s="193"/>
-      <c r="AM47" s="193"/>
-      <c r="AN47" s="193"/>
-      <c r="AO47" s="193"/>
-      <c r="AP47" s="252" t="s">
+      <c r="W47" s="254"/>
+      <c r="X47" s="254"/>
+      <c r="Y47" s="254"/>
+      <c r="Z47" s="254"/>
+      <c r="AA47" s="254"/>
+      <c r="AB47" s="254"/>
+      <c r="AC47" s="254"/>
+      <c r="AD47" s="254"/>
+      <c r="AE47" s="254"/>
+      <c r="AF47" s="254"/>
+      <c r="AG47" s="254"/>
+      <c r="AH47" s="194"/>
+      <c r="AI47" s="194"/>
+      <c r="AJ47" s="194"/>
+      <c r="AK47" s="194"/>
+      <c r="AL47" s="194"/>
+      <c r="AM47" s="194"/>
+      <c r="AN47" s="194"/>
+      <c r="AO47" s="194"/>
+      <c r="AP47" s="254" t="s">
         <v>75</v>
       </c>
-      <c r="AQ47" s="252"/>
-      <c r="AR47" s="252"/>
-      <c r="AS47" s="252"/>
-      <c r="AT47" s="252"/>
-      <c r="AU47" s="252"/>
-      <c r="AV47" s="252"/>
-      <c r="AW47" s="252"/>
-      <c r="AX47" s="252"/>
-      <c r="AY47" s="252"/>
-      <c r="AZ47" s="193"/>
-      <c r="BA47" s="193"/>
-      <c r="BB47" s="193"/>
-      <c r="BC47" s="193"/>
-      <c r="BD47" s="193"/>
-      <c r="BE47" s="248" t="s">
+      <c r="AQ47" s="254"/>
+      <c r="AR47" s="254"/>
+      <c r="AS47" s="254"/>
+      <c r="AT47" s="254"/>
+      <c r="AU47" s="254"/>
+      <c r="AV47" s="254"/>
+      <c r="AW47" s="254"/>
+      <c r="AX47" s="254"/>
+      <c r="AY47" s="254"/>
+      <c r="AZ47" s="194"/>
+      <c r="BA47" s="194"/>
+      <c r="BB47" s="194"/>
+      <c r="BC47" s="194"/>
+      <c r="BD47" s="194"/>
+      <c r="BE47" s="249" t="s">
         <v>80</v>
       </c>
-      <c r="BF47" s="248"/>
-      <c r="BG47" s="248"/>
-      <c r="BH47" s="248"/>
-      <c r="BI47" s="248"/>
-      <c r="BJ47" s="248"/>
-      <c r="BK47" s="248"/>
-      <c r="BL47" s="248"/>
-      <c r="BM47" s="193" t="s">
+      <c r="BF47" s="249"/>
+      <c r="BG47" s="249"/>
+      <c r="BH47" s="249"/>
+      <c r="BI47" s="249"/>
+      <c r="BJ47" s="249"/>
+      <c r="BK47" s="249"/>
+      <c r="BL47" s="249"/>
+      <c r="BM47" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="BN47" s="193"/>
-      <c r="BO47" s="193"/>
-      <c r="BP47" s="193"/>
-      <c r="BQ47" s="193"/>
+      <c r="BN47" s="194"/>
+      <c r="BO47" s="194"/>
+      <c r="BP47" s="194"/>
+      <c r="BQ47" s="194"/>
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B48" s="258" t="s">
+      <c r="B48" s="256" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="258"/>
-      <c r="D48" s="258"/>
-      <c r="E48" s="258"/>
-      <c r="F48" s="258"/>
-      <c r="G48" s="258"/>
-      <c r="H48" s="258"/>
-      <c r="I48" s="258"/>
-      <c r="J48" s="258"/>
-      <c r="K48" s="258"/>
-      <c r="L48" s="258"/>
-      <c r="M48" s="193"/>
-      <c r="N48" s="193"/>
-      <c r="O48" s="193"/>
-      <c r="P48" s="193"/>
-      <c r="Q48" s="193"/>
-      <c r="R48" s="193"/>
-      <c r="S48" s="193"/>
-      <c r="T48" s="193"/>
-      <c r="U48" s="193"/>
-      <c r="V48" s="233" t="s">
+      <c r="C48" s="256"/>
+      <c r="D48" s="256"/>
+      <c r="E48" s="256"/>
+      <c r="F48" s="256"/>
+      <c r="G48" s="256"/>
+      <c r="H48" s="256"/>
+      <c r="I48" s="256"/>
+      <c r="J48" s="256"/>
+      <c r="K48" s="256"/>
+      <c r="L48" s="256"/>
+      <c r="M48" s="194"/>
+      <c r="N48" s="194"/>
+      <c r="O48" s="194"/>
+      <c r="P48" s="194"/>
+      <c r="Q48" s="194"/>
+      <c r="R48" s="194"/>
+      <c r="S48" s="194"/>
+      <c r="T48" s="194"/>
+      <c r="U48" s="194"/>
+      <c r="V48" s="234" t="s">
         <v>87</v>
       </c>
-      <c r="W48" s="233"/>
-      <c r="X48" s="233"/>
-      <c r="Y48" s="233"/>
-      <c r="Z48" s="233"/>
-      <c r="AA48" s="233"/>
-      <c r="AB48" s="233"/>
-      <c r="AC48" s="233"/>
-      <c r="AD48" s="233"/>
-      <c r="AE48" s="233"/>
-      <c r="AF48" s="233"/>
-      <c r="AG48" s="233"/>
-      <c r="AH48" s="193"/>
-      <c r="AI48" s="193"/>
-      <c r="AJ48" s="193"/>
-      <c r="AK48" s="193"/>
-      <c r="AL48" s="193"/>
-      <c r="AM48" s="193"/>
-      <c r="AN48" s="193"/>
-      <c r="AO48" s="193"/>
-      <c r="AP48" s="252" t="s">
+      <c r="W48" s="234"/>
+      <c r="X48" s="234"/>
+      <c r="Y48" s="234"/>
+      <c r="Z48" s="234"/>
+      <c r="AA48" s="234"/>
+      <c r="AB48" s="234"/>
+      <c r="AC48" s="234"/>
+      <c r="AD48" s="234"/>
+      <c r="AE48" s="234"/>
+      <c r="AF48" s="234"/>
+      <c r="AG48" s="234"/>
+      <c r="AH48" s="194"/>
+      <c r="AI48" s="194"/>
+      <c r="AJ48" s="194"/>
+      <c r="AK48" s="194"/>
+      <c r="AL48" s="194"/>
+      <c r="AM48" s="194"/>
+      <c r="AN48" s="194"/>
+      <c r="AO48" s="194"/>
+      <c r="AP48" s="254" t="s">
         <v>71</v>
       </c>
-      <c r="AQ48" s="252"/>
-      <c r="AR48" s="252"/>
-      <c r="AS48" s="252"/>
-      <c r="AT48" s="252"/>
-      <c r="AU48" s="252"/>
-      <c r="AV48" s="252"/>
-      <c r="AW48" s="252"/>
-      <c r="AX48" s="252"/>
-      <c r="AY48" s="252"/>
-      <c r="AZ48" s="193" t="s">
+      <c r="AQ48" s="254"/>
+      <c r="AR48" s="254"/>
+      <c r="AS48" s="254"/>
+      <c r="AT48" s="254"/>
+      <c r="AU48" s="254"/>
+      <c r="AV48" s="254"/>
+      <c r="AW48" s="254"/>
+      <c r="AX48" s="254"/>
+      <c r="AY48" s="254"/>
+      <c r="AZ48" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="BA48" s="193"/>
-      <c r="BB48" s="193"/>
-      <c r="BC48" s="193"/>
-      <c r="BD48" s="193"/>
-      <c r="BE48" s="250" t="s">
+      <c r="BA48" s="194"/>
+      <c r="BB48" s="194"/>
+      <c r="BC48" s="194"/>
+      <c r="BD48" s="194"/>
+      <c r="BE48" s="257" t="s">
         <v>81</v>
       </c>
-      <c r="BF48" s="250"/>
-      <c r="BG48" s="250"/>
-      <c r="BH48" s="250"/>
-      <c r="BI48" s="250"/>
-      <c r="BJ48" s="250"/>
-      <c r="BK48" s="250"/>
-      <c r="BL48" s="250"/>
-      <c r="BM48" s="193"/>
-      <c r="BN48" s="193"/>
-      <c r="BO48" s="193"/>
-      <c r="BP48" s="193"/>
-      <c r="BQ48" s="193"/>
+      <c r="BF48" s="257"/>
+      <c r="BG48" s="257"/>
+      <c r="BH48" s="257"/>
+      <c r="BI48" s="257"/>
+      <c r="BJ48" s="257"/>
+      <c r="BK48" s="257"/>
+      <c r="BL48" s="257"/>
+      <c r="BM48" s="194"/>
+      <c r="BN48" s="194"/>
+      <c r="BO48" s="194"/>
+      <c r="BP48" s="194"/>
+      <c r="BQ48" s="194"/>
     </row>
     <row r="49" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B49" s="229" t="s">
+      <c r="B49" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="229"/>
-      <c r="D49" s="229"/>
-      <c r="E49" s="229"/>
-      <c r="F49" s="229"/>
-      <c r="G49" s="229"/>
-      <c r="H49" s="229"/>
-      <c r="I49" s="229"/>
-      <c r="J49" s="229"/>
-      <c r="K49" s="229"/>
-      <c r="L49" s="229"/>
-      <c r="M49" s="193"/>
-      <c r="N49" s="193"/>
-      <c r="O49" s="193"/>
-      <c r="P49" s="193"/>
-      <c r="Q49" s="193"/>
-      <c r="R49" s="193"/>
-      <c r="S49" s="193"/>
-      <c r="T49" s="193"/>
-      <c r="U49" s="193"/>
-      <c r="V49" s="248" t="s">
+      <c r="C49" s="230"/>
+      <c r="D49" s="230"/>
+      <c r="E49" s="230"/>
+      <c r="F49" s="230"/>
+      <c r="G49" s="230"/>
+      <c r="H49" s="230"/>
+      <c r="I49" s="230"/>
+      <c r="J49" s="230"/>
+      <c r="K49" s="230"/>
+      <c r="L49" s="230"/>
+      <c r="M49" s="194"/>
+      <c r="N49" s="194"/>
+      <c r="O49" s="194"/>
+      <c r="P49" s="194"/>
+      <c r="Q49" s="194"/>
+      <c r="R49" s="194"/>
+      <c r="S49" s="194"/>
+      <c r="T49" s="194"/>
+      <c r="U49" s="194"/>
+      <c r="V49" s="249" t="s">
         <v>88</v>
       </c>
-      <c r="W49" s="248"/>
-      <c r="X49" s="248"/>
-      <c r="Y49" s="248"/>
-      <c r="Z49" s="248"/>
-      <c r="AA49" s="248"/>
-      <c r="AB49" s="248"/>
-      <c r="AC49" s="248"/>
-      <c r="AD49" s="248"/>
-      <c r="AE49" s="248"/>
-      <c r="AF49" s="248"/>
-      <c r="AG49" s="248"/>
-      <c r="AH49" s="193"/>
-      <c r="AI49" s="193"/>
-      <c r="AJ49" s="193"/>
-      <c r="AK49" s="193"/>
-      <c r="AL49" s="193"/>
-      <c r="AM49" s="193"/>
-      <c r="AN49" s="193"/>
-      <c r="AO49" s="193"/>
-      <c r="AP49" s="229" t="s">
+      <c r="W49" s="249"/>
+      <c r="X49" s="249"/>
+      <c r="Y49" s="249"/>
+      <c r="Z49" s="249"/>
+      <c r="AA49" s="249"/>
+      <c r="AB49" s="249"/>
+      <c r="AC49" s="249"/>
+      <c r="AD49" s="249"/>
+      <c r="AE49" s="249"/>
+      <c r="AF49" s="249"/>
+      <c r="AG49" s="249"/>
+      <c r="AH49" s="194"/>
+      <c r="AI49" s="194"/>
+      <c r="AJ49" s="194"/>
+      <c r="AK49" s="194"/>
+      <c r="AL49" s="194"/>
+      <c r="AM49" s="194"/>
+      <c r="AN49" s="194"/>
+      <c r="AO49" s="194"/>
+      <c r="AP49" s="230" t="s">
         <v>66</v>
       </c>
-      <c r="AQ49" s="229"/>
-      <c r="AR49" s="229"/>
-      <c r="AS49" s="229"/>
-      <c r="AT49" s="229"/>
-      <c r="AU49" s="229"/>
-      <c r="AV49" s="229"/>
-      <c r="AW49" s="229"/>
-      <c r="AX49" s="229"/>
-      <c r="AY49" s="229"/>
-      <c r="AZ49" s="193"/>
-      <c r="BA49" s="193"/>
-      <c r="BB49" s="193"/>
-      <c r="BC49" s="193"/>
-      <c r="BD49" s="193"/>
-      <c r="BE49" s="256" t="s">
+      <c r="AQ49" s="230"/>
+      <c r="AR49" s="230"/>
+      <c r="AS49" s="230"/>
+      <c r="AT49" s="230"/>
+      <c r="AU49" s="230"/>
+      <c r="AV49" s="230"/>
+      <c r="AW49" s="230"/>
+      <c r="AX49" s="230"/>
+      <c r="AY49" s="230"/>
+      <c r="AZ49" s="194"/>
+      <c r="BA49" s="194"/>
+      <c r="BB49" s="194"/>
+      <c r="BC49" s="194"/>
+      <c r="BD49" s="194"/>
+      <c r="BE49" s="251" t="s">
         <v>78</v>
       </c>
-      <c r="BF49" s="256"/>
-      <c r="BG49" s="256"/>
-      <c r="BH49" s="256"/>
-      <c r="BI49" s="256"/>
-      <c r="BJ49" s="256"/>
-      <c r="BK49" s="256"/>
-      <c r="BL49" s="256"/>
-      <c r="BM49" s="193" t="s">
+      <c r="BF49" s="251"/>
+      <c r="BG49" s="251"/>
+      <c r="BH49" s="251"/>
+      <c r="BI49" s="251"/>
+      <c r="BJ49" s="251"/>
+      <c r="BK49" s="251"/>
+      <c r="BL49" s="251"/>
+      <c r="BM49" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="BN49" s="193"/>
-      <c r="BO49" s="193"/>
-      <c r="BP49" s="193"/>
-      <c r="BQ49" s="193"/>
+      <c r="BN49" s="194"/>
+      <c r="BO49" s="194"/>
+      <c r="BP49" s="194"/>
+      <c r="BQ49" s="194"/>
     </row>
     <row r="50" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B50" s="232" t="s">
+      <c r="B50" s="233" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="232"/>
-      <c r="D50" s="232"/>
-      <c r="E50" s="232"/>
-      <c r="F50" s="232"/>
-      <c r="G50" s="232"/>
-      <c r="H50" s="232"/>
-      <c r="I50" s="232"/>
-      <c r="J50" s="232"/>
-      <c r="K50" s="232"/>
-      <c r="L50" s="232"/>
-      <c r="M50" s="193"/>
-      <c r="N50" s="193"/>
-      <c r="O50" s="193"/>
-      <c r="P50" s="193"/>
-      <c r="Q50" s="193"/>
-      <c r="R50" s="193"/>
-      <c r="S50" s="193"/>
-      <c r="T50" s="193"/>
-      <c r="U50" s="193"/>
-      <c r="V50" s="232" t="s">
+      <c r="C50" s="233"/>
+      <c r="D50" s="233"/>
+      <c r="E50" s="233"/>
+      <c r="F50" s="233"/>
+      <c r="G50" s="233"/>
+      <c r="H50" s="233"/>
+      <c r="I50" s="233"/>
+      <c r="J50" s="233"/>
+      <c r="K50" s="233"/>
+      <c r="L50" s="233"/>
+      <c r="M50" s="194"/>
+      <c r="N50" s="194"/>
+      <c r="O50" s="194"/>
+      <c r="P50" s="194"/>
+      <c r="Q50" s="194"/>
+      <c r="R50" s="194"/>
+      <c r="S50" s="194"/>
+      <c r="T50" s="194"/>
+      <c r="U50" s="194"/>
+      <c r="V50" s="233" t="s">
         <v>89</v>
       </c>
-      <c r="W50" s="232"/>
-      <c r="X50" s="232"/>
-      <c r="Y50" s="232"/>
-      <c r="Z50" s="232"/>
-      <c r="AA50" s="232"/>
-      <c r="AB50" s="232"/>
-      <c r="AC50" s="232"/>
-      <c r="AD50" s="232"/>
-      <c r="AE50" s="232"/>
-      <c r="AF50" s="232"/>
-      <c r="AG50" s="232"/>
-      <c r="AH50" s="193"/>
-      <c r="AI50" s="193"/>
-      <c r="AJ50" s="193"/>
-      <c r="AK50" s="193"/>
-      <c r="AL50" s="193"/>
-      <c r="AM50" s="193"/>
-      <c r="AN50" s="193"/>
-      <c r="AO50" s="193"/>
-      <c r="AP50" s="233" t="s">
+      <c r="W50" s="233"/>
+      <c r="X50" s="233"/>
+      <c r="Y50" s="233"/>
+      <c r="Z50" s="233"/>
+      <c r="AA50" s="233"/>
+      <c r="AB50" s="233"/>
+      <c r="AC50" s="233"/>
+      <c r="AD50" s="233"/>
+      <c r="AE50" s="233"/>
+      <c r="AF50" s="233"/>
+      <c r="AG50" s="233"/>
+      <c r="AH50" s="194"/>
+      <c r="AI50" s="194"/>
+      <c r="AJ50" s="194"/>
+      <c r="AK50" s="194"/>
+      <c r="AL50" s="194"/>
+      <c r="AM50" s="194"/>
+      <c r="AN50" s="194"/>
+      <c r="AO50" s="194"/>
+      <c r="AP50" s="234" t="s">
         <v>73</v>
       </c>
-      <c r="AQ50" s="233"/>
-      <c r="AR50" s="233"/>
-      <c r="AS50" s="233"/>
-      <c r="AT50" s="233"/>
-      <c r="AU50" s="233"/>
-      <c r="AV50" s="233"/>
-      <c r="AW50" s="233"/>
-      <c r="AX50" s="233"/>
-      <c r="AY50" s="233"/>
-      <c r="AZ50" s="193"/>
-      <c r="BA50" s="193"/>
-      <c r="BB50" s="193"/>
-      <c r="BC50" s="193"/>
-      <c r="BD50" s="193"/>
-      <c r="BE50" s="233" t="s">
+      <c r="AQ50" s="234"/>
+      <c r="AR50" s="234"/>
+      <c r="AS50" s="234"/>
+      <c r="AT50" s="234"/>
+      <c r="AU50" s="234"/>
+      <c r="AV50" s="234"/>
+      <c r="AW50" s="234"/>
+      <c r="AX50" s="234"/>
+      <c r="AY50" s="234"/>
+      <c r="AZ50" s="194"/>
+      <c r="BA50" s="194"/>
+      <c r="BB50" s="194"/>
+      <c r="BC50" s="194"/>
+      <c r="BD50" s="194"/>
+      <c r="BE50" s="234" t="s">
         <v>50</v>
       </c>
-      <c r="BF50" s="233"/>
-      <c r="BG50" s="233"/>
-      <c r="BH50" s="233"/>
-      <c r="BI50" s="233"/>
-      <c r="BJ50" s="233"/>
-      <c r="BK50" s="233"/>
-      <c r="BL50" s="233"/>
-      <c r="BM50" s="193" t="s">
+      <c r="BF50" s="234"/>
+      <c r="BG50" s="234"/>
+      <c r="BH50" s="234"/>
+      <c r="BI50" s="234"/>
+      <c r="BJ50" s="234"/>
+      <c r="BK50" s="234"/>
+      <c r="BL50" s="234"/>
+      <c r="BM50" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="BN50" s="193"/>
-      <c r="BO50" s="193"/>
-      <c r="BP50" s="193"/>
-      <c r="BQ50" s="193"/>
+      <c r="BN50" s="194"/>
+      <c r="BO50" s="194"/>
+      <c r="BP50" s="194"/>
+      <c r="BQ50" s="194"/>
     </row>
     <row r="51" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B51" s="233" t="s">
+      <c r="B51" s="234" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="233"/>
-      <c r="D51" s="233"/>
-      <c r="E51" s="233"/>
-      <c r="F51" s="233"/>
-      <c r="G51" s="233"/>
-      <c r="H51" s="233"/>
-      <c r="I51" s="233"/>
-      <c r="J51" s="233"/>
-      <c r="K51" s="233"/>
-      <c r="L51" s="233"/>
-      <c r="M51" s="193"/>
-      <c r="N51" s="193"/>
-      <c r="O51" s="193"/>
-      <c r="P51" s="193"/>
-      <c r="Q51" s="193"/>
-      <c r="R51" s="193"/>
-      <c r="S51" s="193"/>
-      <c r="T51" s="193"/>
-      <c r="U51" s="193"/>
-      <c r="V51" s="229" t="s">
+      <c r="C51" s="234"/>
+      <c r="D51" s="234"/>
+      <c r="E51" s="234"/>
+      <c r="F51" s="234"/>
+      <c r="G51" s="234"/>
+      <c r="H51" s="234"/>
+      <c r="I51" s="234"/>
+      <c r="J51" s="234"/>
+      <c r="K51" s="234"/>
+      <c r="L51" s="234"/>
+      <c r="M51" s="194"/>
+      <c r="N51" s="194"/>
+      <c r="O51" s="194"/>
+      <c r="P51" s="194"/>
+      <c r="Q51" s="194"/>
+      <c r="R51" s="194"/>
+      <c r="S51" s="194"/>
+      <c r="T51" s="194"/>
+      <c r="U51" s="194"/>
+      <c r="V51" s="230" t="s">
         <v>90</v>
       </c>
-      <c r="W51" s="229"/>
-      <c r="X51" s="229"/>
-      <c r="Y51" s="229"/>
-      <c r="Z51" s="229"/>
-      <c r="AA51" s="229"/>
-      <c r="AB51" s="229"/>
-      <c r="AC51" s="229"/>
-      <c r="AD51" s="229"/>
-      <c r="AE51" s="229"/>
-      <c r="AF51" s="229"/>
-      <c r="AG51" s="229"/>
-      <c r="AH51" s="193"/>
-      <c r="AI51" s="193"/>
-      <c r="AJ51" s="193"/>
-      <c r="AK51" s="193"/>
-      <c r="AL51" s="193"/>
-      <c r="AM51" s="193"/>
-      <c r="AN51" s="193"/>
-      <c r="AO51" s="193"/>
-      <c r="AP51" s="248" t="s">
+      <c r="W51" s="230"/>
+      <c r="X51" s="230"/>
+      <c r="Y51" s="230"/>
+      <c r="Z51" s="230"/>
+      <c r="AA51" s="230"/>
+      <c r="AB51" s="230"/>
+      <c r="AC51" s="230"/>
+      <c r="AD51" s="230"/>
+      <c r="AE51" s="230"/>
+      <c r="AF51" s="230"/>
+      <c r="AG51" s="230"/>
+      <c r="AH51" s="194"/>
+      <c r="AI51" s="194"/>
+      <c r="AJ51" s="194"/>
+      <c r="AK51" s="194"/>
+      <c r="AL51" s="194"/>
+      <c r="AM51" s="194"/>
+      <c r="AN51" s="194"/>
+      <c r="AO51" s="194"/>
+      <c r="AP51" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="AQ51" s="248"/>
-      <c r="AR51" s="248"/>
-      <c r="AS51" s="248"/>
-      <c r="AT51" s="248"/>
-      <c r="AU51" s="248"/>
-      <c r="AV51" s="248"/>
-      <c r="AW51" s="248"/>
-      <c r="AX51" s="248"/>
-      <c r="AY51" s="248"/>
-      <c r="AZ51" s="193" t="s">
+      <c r="AQ51" s="249"/>
+      <c r="AR51" s="249"/>
+      <c r="AS51" s="249"/>
+      <c r="AT51" s="249"/>
+      <c r="AU51" s="249"/>
+      <c r="AV51" s="249"/>
+      <c r="AW51" s="249"/>
+      <c r="AX51" s="249"/>
+      <c r="AY51" s="249"/>
+      <c r="AZ51" s="194" t="s">
         <v>57</v>
       </c>
-      <c r="BA51" s="193"/>
-      <c r="BB51" s="193"/>
-      <c r="BC51" s="193"/>
-      <c r="BD51" s="193"/>
-      <c r="BE51" s="248" t="s">
+      <c r="BA51" s="194"/>
+      <c r="BB51" s="194"/>
+      <c r="BC51" s="194"/>
+      <c r="BD51" s="194"/>
+      <c r="BE51" s="249" t="s">
         <v>80</v>
       </c>
-      <c r="BF51" s="248"/>
-      <c r="BG51" s="248"/>
-      <c r="BH51" s="248"/>
-      <c r="BI51" s="248"/>
-      <c r="BJ51" s="248"/>
-      <c r="BK51" s="248"/>
-      <c r="BL51" s="248"/>
-      <c r="BM51" s="193" t="s">
+      <c r="BF51" s="249"/>
+      <c r="BG51" s="249"/>
+      <c r="BH51" s="249"/>
+      <c r="BI51" s="249"/>
+      <c r="BJ51" s="249"/>
+      <c r="BK51" s="249"/>
+      <c r="BL51" s="249"/>
+      <c r="BM51" s="194" t="s">
         <v>94</v>
       </c>
-      <c r="BN51" s="193"/>
-      <c r="BO51" s="193"/>
-      <c r="BP51" s="193"/>
-      <c r="BQ51" s="193"/>
+      <c r="BN51" s="194"/>
+      <c r="BO51" s="194"/>
+      <c r="BP51" s="194"/>
+      <c r="BQ51" s="194"/>
     </row>
     <row r="52" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B52" s="252" t="s">
+      <c r="B52" s="254" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="252"/>
-      <c r="D52" s="252"/>
-      <c r="E52" s="252"/>
-      <c r="F52" s="252"/>
-      <c r="G52" s="252"/>
-      <c r="H52" s="252"/>
-      <c r="I52" s="252"/>
-      <c r="J52" s="252"/>
-      <c r="K52" s="252"/>
-      <c r="L52" s="252"/>
+      <c r="C52" s="254"/>
+      <c r="D52" s="254"/>
+      <c r="E52" s="254"/>
+      <c r="F52" s="254"/>
+      <c r="G52" s="254"/>
+      <c r="H52" s="254"/>
+      <c r="I52" s="254"/>
+      <c r="J52" s="254"/>
+      <c r="K52" s="254"/>
+      <c r="L52" s="254"/>
       <c r="M52" s="218" t="s">
         <v>105</v>
       </c>
@@ -9702,31 +9988,31 @@
       <c r="AE52" s="255"/>
       <c r="AF52" s="255"/>
       <c r="AG52" s="255"/>
-      <c r="AH52" s="193"/>
-      <c r="AI52" s="193"/>
-      <c r="AJ52" s="193"/>
-      <c r="AK52" s="193"/>
-      <c r="AL52" s="193"/>
-      <c r="AM52" s="193"/>
-      <c r="AN52" s="193"/>
-      <c r="AO52" s="193"/>
-      <c r="AP52" s="233" t="s">
+      <c r="AH52" s="194"/>
+      <c r="AI52" s="194"/>
+      <c r="AJ52" s="194"/>
+      <c r="AK52" s="194"/>
+      <c r="AL52" s="194"/>
+      <c r="AM52" s="194"/>
+      <c r="AN52" s="194"/>
+      <c r="AO52" s="194"/>
+      <c r="AP52" s="234" t="s">
         <v>56</v>
       </c>
-      <c r="AQ52" s="233"/>
-      <c r="AR52" s="233"/>
-      <c r="AS52" s="233"/>
-      <c r="AT52" s="233"/>
-      <c r="AU52" s="233"/>
-      <c r="AV52" s="233"/>
-      <c r="AW52" s="233"/>
-      <c r="AX52" s="233"/>
-      <c r="AY52" s="233"/>
-      <c r="AZ52" s="193"/>
-      <c r="BA52" s="193"/>
-      <c r="BB52" s="193"/>
-      <c r="BC52" s="193"/>
-      <c r="BD52" s="193"/>
+      <c r="AQ52" s="234"/>
+      <c r="AR52" s="234"/>
+      <c r="AS52" s="234"/>
+      <c r="AT52" s="234"/>
+      <c r="AU52" s="234"/>
+      <c r="AV52" s="234"/>
+      <c r="AW52" s="234"/>
+      <c r="AX52" s="234"/>
+      <c r="AY52" s="234"/>
+      <c r="AZ52" s="194"/>
+      <c r="BA52" s="194"/>
+      <c r="BB52" s="194"/>
+      <c r="BC52" s="194"/>
+      <c r="BD52" s="194"/>
       <c r="BE52" s="34"/>
       <c r="BF52" s="34"/>
       <c r="BG52" s="34"/>
@@ -9739,19 +10025,19 @@
       <c r="BN52" s="35"/>
     </row>
     <row r="53" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B53" s="250" t="s">
+      <c r="B53" s="257" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="250"/>
-      <c r="D53" s="250"/>
-      <c r="E53" s="250"/>
-      <c r="F53" s="250"/>
-      <c r="G53" s="250"/>
-      <c r="H53" s="250"/>
-      <c r="I53" s="250"/>
-      <c r="J53" s="250"/>
-      <c r="K53" s="250"/>
-      <c r="L53" s="250"/>
+      <c r="C53" s="257"/>
+      <c r="D53" s="257"/>
+      <c r="E53" s="257"/>
+      <c r="F53" s="257"/>
+      <c r="G53" s="257"/>
+      <c r="H53" s="257"/>
+      <c r="I53" s="257"/>
+      <c r="J53" s="257"/>
+      <c r="K53" s="257"/>
+      <c r="L53" s="257"/>
       <c r="M53" s="218" t="s">
         <v>62</v>
       </c>
@@ -9763,45 +10049,45 @@
       <c r="S53" s="218"/>
       <c r="T53" s="218"/>
       <c r="U53" s="218"/>
-      <c r="V53" s="251" t="s">
+      <c r="V53" s="258" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="251"/>
-      <c r="X53" s="251"/>
-      <c r="Y53" s="251"/>
-      <c r="Z53" s="251"/>
-      <c r="AA53" s="251"/>
-      <c r="AB53" s="251"/>
-      <c r="AC53" s="251"/>
-      <c r="AD53" s="251"/>
-      <c r="AE53" s="251"/>
-      <c r="AF53" s="251"/>
-      <c r="AG53" s="251"/>
-      <c r="AH53" s="193"/>
-      <c r="AI53" s="193"/>
-      <c r="AJ53" s="193"/>
-      <c r="AK53" s="193"/>
-      <c r="AL53" s="193"/>
-      <c r="AM53" s="193"/>
-      <c r="AN53" s="193"/>
-      <c r="AO53" s="193"/>
-      <c r="AP53" s="252" t="s">
+      <c r="W53" s="258"/>
+      <c r="X53" s="258"/>
+      <c r="Y53" s="258"/>
+      <c r="Z53" s="258"/>
+      <c r="AA53" s="258"/>
+      <c r="AB53" s="258"/>
+      <c r="AC53" s="258"/>
+      <c r="AD53" s="258"/>
+      <c r="AE53" s="258"/>
+      <c r="AF53" s="258"/>
+      <c r="AG53" s="258"/>
+      <c r="AH53" s="194"/>
+      <c r="AI53" s="194"/>
+      <c r="AJ53" s="194"/>
+      <c r="AK53" s="194"/>
+      <c r="AL53" s="194"/>
+      <c r="AM53" s="194"/>
+      <c r="AN53" s="194"/>
+      <c r="AO53" s="194"/>
+      <c r="AP53" s="254" t="s">
         <v>59</v>
       </c>
-      <c r="AQ53" s="252"/>
-      <c r="AR53" s="252"/>
-      <c r="AS53" s="252"/>
-      <c r="AT53" s="252"/>
-      <c r="AU53" s="252"/>
-      <c r="AV53" s="252"/>
-      <c r="AW53" s="252"/>
-      <c r="AX53" s="252"/>
-      <c r="AY53" s="252"/>
-      <c r="AZ53" s="193"/>
-      <c r="BA53" s="193"/>
-      <c r="BB53" s="193"/>
-      <c r="BC53" s="193"/>
-      <c r="BD53" s="193"/>
+      <c r="AQ53" s="254"/>
+      <c r="AR53" s="254"/>
+      <c r="AS53" s="254"/>
+      <c r="AT53" s="254"/>
+      <c r="AU53" s="254"/>
+      <c r="AV53" s="254"/>
+      <c r="AW53" s="254"/>
+      <c r="AX53" s="254"/>
+      <c r="AY53" s="254"/>
+      <c r="AZ53" s="194"/>
+      <c r="BA53" s="194"/>
+      <c r="BB53" s="194"/>
+      <c r="BC53" s="194"/>
+      <c r="BD53" s="194"/>
       <c r="BE53" s="34"/>
       <c r="BF53" s="34"/>
       <c r="BG53" s="34"/>
@@ -9814,19 +10100,19 @@
       <c r="BN53" s="34"/>
     </row>
     <row r="54" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B54" s="253" t="s">
+      <c r="B54" s="252" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="253"/>
-      <c r="D54" s="253"/>
-      <c r="E54" s="253"/>
-      <c r="F54" s="253"/>
-      <c r="G54" s="253"/>
-      <c r="H54" s="253"/>
-      <c r="I54" s="253"/>
-      <c r="J54" s="253"/>
-      <c r="K54" s="253"/>
-      <c r="L54" s="253"/>
+      <c r="C54" s="252"/>
+      <c r="D54" s="252"/>
+      <c r="E54" s="252"/>
+      <c r="F54" s="252"/>
+      <c r="G54" s="252"/>
+      <c r="H54" s="252"/>
+      <c r="I54" s="252"/>
+      <c r="J54" s="252"/>
+      <c r="K54" s="252"/>
+      <c r="L54" s="252"/>
       <c r="M54" s="218" t="s">
         <v>84</v>
       </c>
@@ -9838,40 +10124,40 @@
       <c r="S54" s="218"/>
       <c r="T54" s="218"/>
       <c r="U54" s="218"/>
-      <c r="V54" s="254" t="s">
+      <c r="V54" s="253" t="s">
         <v>106</v>
       </c>
-      <c r="W54" s="254"/>
-      <c r="X54" s="254"/>
-      <c r="Y54" s="254"/>
-      <c r="Z54" s="254"/>
-      <c r="AA54" s="254"/>
-      <c r="AB54" s="254"/>
-      <c r="AC54" s="254"/>
-      <c r="AD54" s="254"/>
-      <c r="AE54" s="254"/>
-      <c r="AF54" s="254"/>
-      <c r="AG54" s="254"/>
-      <c r="AH54" s="193"/>
-      <c r="AI54" s="193"/>
-      <c r="AJ54" s="193"/>
-      <c r="AK54" s="193"/>
-      <c r="AL54" s="193"/>
-      <c r="AM54" s="193"/>
-      <c r="AN54" s="193"/>
-      <c r="AO54" s="193"/>
-      <c r="AP54" s="231" t="s">
+      <c r="W54" s="253"/>
+      <c r="X54" s="253"/>
+      <c r="Y54" s="253"/>
+      <c r="Z54" s="253"/>
+      <c r="AA54" s="253"/>
+      <c r="AB54" s="253"/>
+      <c r="AC54" s="253"/>
+      <c r="AD54" s="253"/>
+      <c r="AE54" s="253"/>
+      <c r="AF54" s="253"/>
+      <c r="AG54" s="253"/>
+      <c r="AH54" s="194"/>
+      <c r="AI54" s="194"/>
+      <c r="AJ54" s="194"/>
+      <c r="AK54" s="194"/>
+      <c r="AL54" s="194"/>
+      <c r="AM54" s="194"/>
+      <c r="AN54" s="194"/>
+      <c r="AO54" s="194"/>
+      <c r="AP54" s="232" t="s">
         <v>31</v>
       </c>
-      <c r="AQ54" s="231"/>
-      <c r="AR54" s="231"/>
-      <c r="AS54" s="231"/>
-      <c r="AT54" s="231"/>
-      <c r="AU54" s="231"/>
-      <c r="AV54" s="231"/>
-      <c r="AW54" s="231"/>
-      <c r="AX54" s="231"/>
-      <c r="AY54" s="231"/>
+      <c r="AQ54" s="232"/>
+      <c r="AR54" s="232"/>
+      <c r="AS54" s="232"/>
+      <c r="AT54" s="232"/>
+      <c r="AU54" s="232"/>
+      <c r="AV54" s="232"/>
+      <c r="AW54" s="232"/>
+      <c r="AX54" s="232"/>
+      <c r="AY54" s="232"/>
       <c r="AZ54" s="224" t="s">
         <v>108</v>
       </c>
@@ -9891,19 +10177,19 @@
       <c r="BN54" s="34"/>
     </row>
     <row r="55" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B55" s="231" t="s">
+      <c r="B55" s="232" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="231"/>
-      <c r="D55" s="231"/>
-      <c r="E55" s="231"/>
-      <c r="F55" s="231"/>
-      <c r="G55" s="231"/>
-      <c r="H55" s="231"/>
-      <c r="I55" s="231"/>
-      <c r="J55" s="231"/>
-      <c r="K55" s="231"/>
-      <c r="L55" s="231"/>
+      <c r="C55" s="232"/>
+      <c r="D55" s="232"/>
+      <c r="E55" s="232"/>
+      <c r="F55" s="232"/>
+      <c r="G55" s="232"/>
+      <c r="H55" s="232"/>
+      <c r="I55" s="232"/>
+      <c r="J55" s="232"/>
+      <c r="K55" s="232"/>
+      <c r="L55" s="232"/>
       <c r="M55" s="218" t="s">
         <v>95</v>
       </c>
@@ -9915,40 +10201,40 @@
       <c r="S55" s="218"/>
       <c r="T55" s="218"/>
       <c r="U55" s="218"/>
-      <c r="V55" s="231" t="s">
+      <c r="V55" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="W55" s="231"/>
-      <c r="X55" s="231"/>
-      <c r="Y55" s="231"/>
-      <c r="Z55" s="231"/>
-      <c r="AA55" s="231"/>
-      <c r="AB55" s="231"/>
-      <c r="AC55" s="231"/>
-      <c r="AD55" s="231"/>
-      <c r="AE55" s="231"/>
-      <c r="AF55" s="231"/>
-      <c r="AG55" s="231"/>
-      <c r="AH55" s="193"/>
-      <c r="AI55" s="193"/>
-      <c r="AJ55" s="193"/>
-      <c r="AK55" s="193"/>
-      <c r="AL55" s="193"/>
-      <c r="AM55" s="193"/>
-      <c r="AN55" s="193"/>
-      <c r="AO55" s="193"/>
-      <c r="AP55" s="230" t="s">
+      <c r="W55" s="232"/>
+      <c r="X55" s="232"/>
+      <c r="Y55" s="232"/>
+      <c r="Z55" s="232"/>
+      <c r="AA55" s="232"/>
+      <c r="AB55" s="232"/>
+      <c r="AC55" s="232"/>
+      <c r="AD55" s="232"/>
+      <c r="AE55" s="232"/>
+      <c r="AF55" s="232"/>
+      <c r="AG55" s="232"/>
+      <c r="AH55" s="194"/>
+      <c r="AI55" s="194"/>
+      <c r="AJ55" s="194"/>
+      <c r="AK55" s="194"/>
+      <c r="AL55" s="194"/>
+      <c r="AM55" s="194"/>
+      <c r="AN55" s="194"/>
+      <c r="AO55" s="194"/>
+      <c r="AP55" s="231" t="s">
         <v>64</v>
       </c>
-      <c r="AQ55" s="230"/>
-      <c r="AR55" s="230"/>
-      <c r="AS55" s="230"/>
-      <c r="AT55" s="230"/>
-      <c r="AU55" s="230"/>
-      <c r="AV55" s="230"/>
-      <c r="AW55" s="230"/>
-      <c r="AX55" s="230"/>
-      <c r="AY55" s="230"/>
+      <c r="AQ55" s="231"/>
+      <c r="AR55" s="231"/>
+      <c r="AS55" s="231"/>
+      <c r="AT55" s="231"/>
+      <c r="AU55" s="231"/>
+      <c r="AV55" s="231"/>
+      <c r="AW55" s="231"/>
+      <c r="AX55" s="231"/>
+      <c r="AY55" s="231"/>
       <c r="AZ55" s="224"/>
       <c r="BA55" s="224"/>
       <c r="BB55" s="224"/>
@@ -9957,17 +10243,17 @@
       <c r="BN55" s="34"/>
     </row>
     <row r="56" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B56" s="228"/>
-      <c r="C56" s="228"/>
-      <c r="D56" s="228"/>
-      <c r="E56" s="228"/>
-      <c r="F56" s="228"/>
-      <c r="G56" s="228"/>
-      <c r="H56" s="228"/>
-      <c r="I56" s="228"/>
-      <c r="J56" s="228"/>
-      <c r="K56" s="228"/>
-      <c r="L56" s="228"/>
+      <c r="B56" s="229"/>
+      <c r="C56" s="229"/>
+      <c r="D56" s="229"/>
+      <c r="E56" s="229"/>
+      <c r="F56" s="229"/>
+      <c r="G56" s="229"/>
+      <c r="H56" s="229"/>
+      <c r="I56" s="229"/>
+      <c r="J56" s="229"/>
+      <c r="K56" s="229"/>
+      <c r="L56" s="229"/>
       <c r="M56" s="218" t="s">
         <v>96</v>
       </c>
@@ -9979,18 +10265,18 @@
       <c r="S56" s="218"/>
       <c r="T56" s="218"/>
       <c r="U56" s="218"/>
-      <c r="AP56" s="229" t="s">
+      <c r="AP56" s="230" t="s">
         <v>66</v>
       </c>
-      <c r="AQ56" s="229"/>
-      <c r="AR56" s="229"/>
-      <c r="AS56" s="229"/>
-      <c r="AT56" s="229"/>
-      <c r="AU56" s="229"/>
-      <c r="AV56" s="229"/>
-      <c r="AW56" s="229"/>
-      <c r="AX56" s="229"/>
-      <c r="AY56" s="229"/>
+      <c r="AQ56" s="230"/>
+      <c r="AR56" s="230"/>
+      <c r="AS56" s="230"/>
+      <c r="AT56" s="230"/>
+      <c r="AU56" s="230"/>
+      <c r="AV56" s="230"/>
+      <c r="AW56" s="230"/>
+      <c r="AX56" s="230"/>
+      <c r="AY56" s="230"/>
       <c r="AZ56" s="224"/>
       <c r="BA56" s="224"/>
       <c r="BB56" s="224"/>
